--- a/LM_Journal_Travail_V1.0.xlsx
+++ b/LM_Journal_Travail_V1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\Love-Mirroring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9F3EDD2-79AC-4589-ABBB-501C95AD5918}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{360E29EA-BD42-4CA0-906F-F7B7B1F1AC71}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="38">
   <si>
     <t>Jalon</t>
   </si>
@@ -166,6 +166,12 @@
   </si>
   <si>
     <t>Mettre à jour les risques.</t>
+  </si>
+  <si>
+    <t>Première rédaction des User Stories</t>
+  </si>
+  <si>
+    <t>Création des User Stories, j'ai identifié par rapport au PBS les différentes Stories du projet et mes collègues passeront le document en revue pour apporter leur point de vue. Nous avons actuellement 15 User Stories à mon premier passage.</t>
   </si>
 </sst>
 </file>
@@ -3730,8 +3736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DB7A04D-A66F-4A89-83F1-9B353075A776}">
   <dimension ref="A1:R94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -4142,11 +4148,19 @@
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
     </row>
-    <row r="16" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A16" s="17"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="9"/>
+    <row r="16" spans="1:18" ht="54" x14ac:dyDescent="0.3">
+      <c r="A16" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="7">
+        <v>2</v>
+      </c>
+      <c r="C16" s="18">
+        <v>43914</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>37</v>
+      </c>
       <c r="E16" s="10"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
@@ -4468,7 +4482,7 @@
       </c>
       <c r="B32" s="14">
         <f>SUM(B16:B31)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C32" s="15"/>
       <c r="D32" s="15"/>

--- a/LM_Journal_Travail_V1.0.xlsx
+++ b/LM_Journal_Travail_V1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\Love-Mirroring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{360E29EA-BD42-4CA0-906F-F7B7B1F1AC71}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9531EC86-20EE-41EE-81D7-02BF88F42C74}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="40">
   <si>
     <t>Jalon</t>
   </si>
@@ -172,6 +172,12 @@
   </si>
   <si>
     <t>Création des User Stories, j'ai identifié par rapport au PBS les différentes Stories du projet et mes collègues passeront le document en revue pour apporter leur point de vue. Nous avons actuellement 15 User Stories à mon premier passage.</t>
+  </si>
+  <si>
+    <t>Création du UserCase et création du diagramme d'activité et de séquence</t>
+  </si>
+  <si>
+    <t>Création du UserCase et mise en place d'un diagramme d'activité, un diagramme de séquence. J'ai commencé à identifier les éléments importans pour constituer un diagramme de séquence.</t>
   </si>
 </sst>
 </file>
@@ -444,7 +450,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -538,6 +544,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3736,8 +3745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DB7A04D-A66F-4A89-83F1-9B353075A776}">
   <dimension ref="A1:R94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -4176,11 +4185,19 @@
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
     </row>
-    <row r="17" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
+    <row r="17" spans="1:18" ht="135" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="7">
+        <v>3</v>
+      </c>
+      <c r="C17" s="35">
+        <v>43915</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="E17" s="10"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
@@ -4482,7 +4499,7 @@
       </c>
       <c r="B32" s="14">
         <f>SUM(B16:B31)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C32" s="15"/>
       <c r="D32" s="15"/>

--- a/LM_Journal_Travail_V1.0.xlsx
+++ b/LM_Journal_Travail_V1.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\Love-Mirroring\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programmes\VS2019\Projets\Projet Gerber\Love-Mirroring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9531EC86-20EE-41EE-81D7-02BF88F42C74}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D461B89-FCA9-401B-9218-5E75A20D492E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Equipe" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <definedName name="NBLecons">#REF!</definedName>
     <definedName name="TachesPlanifiees">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="43">
   <si>
     <t>Jalon</t>
   </si>
@@ -178,6 +178,15 @@
   </si>
   <si>
     <t>Création du UserCase et mise en place d'un diagramme d'activité, un diagramme de séquence. J'ai commencé à identifier les éléments importans pour constituer un diagramme de séquence.</t>
+  </si>
+  <si>
+    <t>MCD</t>
+  </si>
+  <si>
+    <t>25.03.2020</t>
+  </si>
+  <si>
+    <t>Création des premières tables et relations</t>
   </si>
 </sst>
 </file>
@@ -3745,8 +3754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DB7A04D-A66F-4A89-83F1-9B353075A776}">
   <dimension ref="A1:R94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -7935,8 +7944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F222774-5003-490D-9078-78D1F6F89A4A}">
   <dimension ref="A1:R96"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -8397,11 +8406,19 @@
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
     </row>
-    <row r="18" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A18" s="17"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="9"/>
+    <row r="18" spans="1:18" ht="54" x14ac:dyDescent="0.3">
+      <c r="A18" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="7">
+        <v>2</v>
+      </c>
+      <c r="C18" s="18">
+        <v>43914</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>37</v>
+      </c>
       <c r="E18" s="10"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
@@ -8418,10 +8435,18 @@
       <c r="R18" s="4"/>
     </row>
     <row r="19" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
+      <c r="A19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="7">
+        <v>4</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>42</v>
+      </c>
       <c r="E19" s="10"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
@@ -8723,7 +8748,7 @@
       </c>
       <c r="B34" s="14">
         <f>SUM(B18:B33)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C34" s="15"/>
       <c r="D34" s="15"/>
@@ -10044,7 +10069,7 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" prompt="Durée en 1/3 de période - Le nombre doit être de type entier" sqref="B75:B82 B18:B33 B38:B39 B41:B45 B50:B60 B65:B70 B3:B8 B10:B13" xr:uid="{64471589-AB55-4AF0-A3CB-2C4DA302E1FD}">
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" prompt="Durée en 1/3 de période - Le nombre doit être de type entier" sqref="B75:B82 B10:B13 B38:B39 B41:B45 B50:B60 B65:B70 B3:B8 B18:B33" xr:uid="{64471589-AB55-4AF0-A3CB-2C4DA302E1FD}">
       <formula1>0</formula1>
     </dataValidation>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" prompt="Dépassement de durée - Le nombre de minutes introduites dépasse la durée d'une période. Veuillez confirmer ... Le calcul du total sera juste dans tous les cas._x000a_" sqref="B83 B34 B46 B61 B71 B14" xr:uid="{E5C4B3DD-C4A0-4BDF-8596-69EE95FDEE2C}">

--- a/LM_Journal_Travail_V1.0.xlsx
+++ b/LM_Journal_Travail_V1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programmes\VS2019\Projets\Projet Gerber\Love-Mirroring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D461B89-FCA9-401B-9218-5E75A20D492E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91F33310-4A5E-4063-B549-7E8F7DB8ECB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="45">
   <si>
     <t>Jalon</t>
   </si>
@@ -187,6 +187,12 @@
   </si>
   <si>
     <t>Création des premières tables et relations</t>
+  </si>
+  <si>
+    <t>26.03.2020</t>
+  </si>
+  <si>
+    <t>Amélioration du model</t>
   </si>
 </sst>
 </file>
@@ -7944,8 +7950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F222774-5003-490D-9078-78D1F6F89A4A}">
   <dimension ref="A1:R96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -8463,10 +8469,18 @@
       <c r="R19" s="4"/>
     </row>
     <row r="20" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
+      <c r="A20" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="7">
+        <v>3</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="E20" s="10"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
@@ -8748,7 +8762,7 @@
       </c>
       <c r="B34" s="14">
         <f>SUM(B18:B33)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C34" s="15"/>
       <c r="D34" s="15"/>

--- a/LM_Journal_Travail_V1.0.xlsx
+++ b/LM_Journal_Travail_V1.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programmes\VS2019\Projets\Projet Gerber\Love-Mirroring\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\Love-Mirroring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D461B89-FCA9-401B-9218-5E75A20D492E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{119602E1-582C-4FA3-94CE-8C70C322B854}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Equipe" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <definedName name="NBLecons">#REF!</definedName>
     <definedName name="TachesPlanifiees">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="47">
   <si>
     <t>Jalon</t>
   </si>
@@ -187,6 +187,18 @@
   </si>
   <si>
     <t>Création des premières tables et relations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Création de la documentation HERMES </t>
+  </si>
+  <si>
+    <t>J'ai téléchargé les fichiers HERMES nécessaire pour le rendu et j'ai fais une première lecture pour avancer dans la documentation.</t>
+  </si>
+  <si>
+    <t>Modification des diagrammes de séquence et élaboration du diagramme de composant</t>
+  </si>
+  <si>
+    <t>Création d'un diagramme de composant qui regroupe les fonctionnalités d'identity server 4. J'ai aussi créé deux diagramme de séquence corresponsant à l'authentification et à la création de compte.</t>
   </si>
 </sst>
 </file>
@@ -3754,13 +3766,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DB7A04D-A66F-4A89-83F1-9B353075A776}">
   <dimension ref="A1:R94"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:D16"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
     <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="78.42578125" customWidth="1"/>
   </cols>
@@ -4222,11 +4234,19 @@
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
     </row>
-    <row r="18" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
+    <row r="18" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="7">
+        <v>1</v>
+      </c>
+      <c r="C18" s="35">
+        <v>43916</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="E18" s="10"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
@@ -4242,11 +4262,19 @@
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
     </row>
-    <row r="19" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
+    <row r="19" spans="1:18" ht="81" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="7">
+        <v>2</v>
+      </c>
+      <c r="C19" s="35">
+        <v>43916</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>46</v>
+      </c>
       <c r="E19" s="10"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
@@ -4508,7 +4536,7 @@
       </c>
       <c r="B32" s="14">
         <f>SUM(B16:B31)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C32" s="15"/>
       <c r="D32" s="15"/>
@@ -5287,7 +5315,7 @@
       <c r="Q68" s="4"/>
       <c r="R68" s="4"/>
     </row>
-    <row r="69" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="14" t="s">
         <v>22</v>
       </c>
@@ -5542,7 +5570,7 @@
       <c r="Q80" s="4"/>
       <c r="R80" s="4"/>
     </row>
-    <row r="81" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="14" t="s">
         <v>22</v>
       </c>
@@ -7944,8 +7972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F222774-5003-490D-9078-78D1F6F89A4A}">
   <dimension ref="A1:R96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>

--- a/LM_Journal_Travail_V1.0.xlsx
+++ b/LM_Journal_Travail_V1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\Love-Mirroring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{119602E1-582C-4FA3-94CE-8C70C322B854}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F4D0B3C-DDDE-4443-B587-26029D593310}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="52">
   <si>
     <t>Jalon</t>
   </si>
@@ -199,6 +199,21 @@
   </si>
   <si>
     <t>Création d'un diagramme de composant qui regroupe les fonctionnalités d'identity server 4. J'ai aussi créé deux diagramme de séquence corresponsant à l'authentification et à la création de compte.</t>
+  </si>
+  <si>
+    <t>Modification des diagrammes de séquence</t>
+  </si>
+  <si>
+    <t>Création de plusieurs diagrammes de séquence pour la gestion du compte de l'utilisateur.</t>
+  </si>
+  <si>
+    <t>Création du diagramme d'état du compte utilisateur</t>
+  </si>
+  <si>
+    <t>1h</t>
+  </si>
+  <si>
+    <t>Création d'un diagramme d'état pour le compte utilisateur. C'est actuellement un des seuls diagrammes que j'ai pu identifier. Je ne sais pas si celui du paiement pourrait encore entrer en compte.</t>
   </si>
 </sst>
 </file>
@@ -471,7 +486,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -569,6 +584,9 @@
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3767,7 +3785,7 @@
   <dimension ref="A1:R94"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -3887,7 +3905,7 @@
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
     </row>
-    <row r="5" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="54" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
@@ -3943,7 +3961,7 @@
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
     </row>
-    <row r="7" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="54" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>14</v>
       </c>
@@ -3971,7 +3989,7 @@
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
     </row>
-    <row r="8" spans="1:18" ht="108" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="81" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
         <v>16</v>
       </c>
@@ -3999,7 +4017,7 @@
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
     </row>
-    <row r="9" spans="1:18" ht="94.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" ht="81" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
         <v>18</v>
       </c>
@@ -4027,7 +4045,7 @@
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
     </row>
-    <row r="10" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
@@ -4083,7 +4101,7 @@
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
     </row>
-    <row r="12" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="14" t="s">
         <v>22</v>
       </c>
@@ -4178,7 +4196,7 @@
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
     </row>
-    <row r="16" spans="1:18" ht="54" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
         <v>36</v>
       </c>
@@ -4206,7 +4224,7 @@
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
     </row>
-    <row r="17" spans="1:18" ht="135" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" ht="81" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>38</v>
       </c>
@@ -4234,7 +4252,7 @@
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
     </row>
-    <row r="18" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>43</v>
       </c>
@@ -4290,11 +4308,19 @@
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
     </row>
-    <row r="20" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
+    <row r="20" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="36">
+        <v>1.5</v>
+      </c>
+      <c r="C20" s="35">
+        <v>43917</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>48</v>
+      </c>
       <c r="E20" s="10"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
@@ -4310,11 +4336,19 @@
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
     </row>
-    <row r="21" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
+    <row r="21" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="35">
+        <v>43917</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>51</v>
+      </c>
       <c r="E21" s="10"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
@@ -4530,13 +4564,13 @@
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
     </row>
-    <row r="32" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="14" t="s">
         <v>22</v>
       </c>
       <c r="B32" s="14">
         <f>SUM(B16:B31)</f>
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="C32" s="15"/>
       <c r="D32" s="15"/>
@@ -4785,7 +4819,7 @@
       <c r="Q43" s="4"/>
       <c r="R43" s="4"/>
     </row>
-    <row r="44" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="14" t="s">
         <v>22</v>
       </c>
@@ -5100,7 +5134,7 @@
       <c r="Q58" s="4"/>
       <c r="R58" s="4"/>
     </row>
-    <row r="59" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="14" t="s">
         <v>22</v>
       </c>

--- a/LM_Journal_Travail_V1.0.xlsx
+++ b/LM_Journal_Travail_V1.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\Love-Mirroring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F4D0B3C-DDDE-4443-B587-26029D593310}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0483C95D-F434-4342-A65E-92600D9F8CD9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Equipe" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="53">
   <si>
     <t>Jalon</t>
   </si>
@@ -210,10 +210,13 @@
     <t>Création du diagramme d'état du compte utilisateur</t>
   </si>
   <si>
-    <t>1h</t>
+    <t>Création d'un diagramme d'état pour le compte utilisateur. C'est actuellement un des seuls diagrammes que j'ai pu identifier. Je ne sais pas si celui du paiement pourrait encore entrer en compte.</t>
   </si>
   <si>
-    <t>Création d'un diagramme d'état pour le compte utilisateur. C'est actuellement un des seuls diagrammes que j'ai pu identifier. Je ne sais pas si celui du paiement pourrait encore entrer en compte.</t>
+    <t>Détaillage des uses case</t>
+  </si>
+  <si>
+    <t>Détaillage des uses cases en fonction du diagramme principal. J'ai rédigé les plus importantes et elles seront passées en revue par les autres membres de l'équipe.</t>
   </si>
 </sst>
 </file>
@@ -3785,7 +3788,7 @@
   <dimension ref="A1:R94"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -4340,14 +4343,14 @@
       <c r="A21" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>50</v>
+      <c r="B21" s="7">
+        <v>1</v>
       </c>
       <c r="C21" s="35">
         <v>43917</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="4"/>
@@ -4364,11 +4367,19 @@
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
     </row>
-    <row r="22" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
+    <row r="22" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="7">
+        <v>2</v>
+      </c>
+      <c r="C22" s="35">
+        <v>43918</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>52</v>
+      </c>
       <c r="E22" s="10"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
@@ -4570,7 +4581,7 @@
       </c>
       <c r="B32" s="14">
         <f>SUM(B16:B31)</f>
-        <v>9.5</v>
+        <v>12.5</v>
       </c>
       <c r="C32" s="15"/>
       <c r="D32" s="15"/>
@@ -8006,7 +8017,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F222774-5003-490D-9078-78D1F6F89A4A}">
   <dimension ref="A1:R96"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>

--- a/LM_Journal_Travail_V1.0.xlsx
+++ b/LM_Journal_Travail_V1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\Love-Mirroring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0483C95D-F434-4342-A65E-92600D9F8CD9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B0D1647-84B5-47BD-9370-F1F10D5D3088}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="57">
   <si>
     <t>Jalon</t>
   </si>
@@ -217,6 +217,18 @@
   </si>
   <si>
     <t>Détaillage des uses cases en fonction du diagramme principal. J'ai rédigé les plus importantes et elles seront passées en revue par les autres membres de l'équipe.</t>
+  </si>
+  <si>
+    <t>Aprrivoiser IdentityServer et ajout d'un formulaire d'inscription</t>
+  </si>
+  <si>
+    <t>J'ai ajouté un formulaire d'inscription dans IdentityServer mais je dois encore trouver comment insérer un utilisateur dans la base de donnée. J'ai aussi pris un peu de temps pour apprivoiser IdentityServer car je n'avais aucune connaissance sur cette technologie.</t>
+  </si>
+  <si>
+    <t>Création de compte + validation par Email</t>
+  </si>
+  <si>
+    <t>La création de compte est opérationnelle sur l'application. Il faudra l'alimenter avec d'autres champs pour établir le profil. La confirmation de l'email fonctionne aussi mais il y a juste un problème avec l'URL qu'il faudra corriger.</t>
   </si>
 </sst>
 </file>
@@ -3788,7 +3800,7 @@
   <dimension ref="A1:R94"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -4395,11 +4407,19 @@
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
     </row>
-    <row r="23" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
+    <row r="23" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="7">
+        <v>3</v>
+      </c>
+      <c r="C23" s="35">
+        <v>43918</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>54</v>
+      </c>
       <c r="E23" s="10"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
@@ -4415,11 +4435,19 @@
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
     </row>
-    <row r="24" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
+    <row r="24" spans="1:18" ht="54" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="7">
+        <v>3</v>
+      </c>
+      <c r="C24" s="35">
+        <v>43918</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>56</v>
+      </c>
       <c r="E24" s="10"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
@@ -4581,7 +4609,7 @@
       </c>
       <c r="B32" s="14">
         <f>SUM(B16:B31)</f>
-        <v>12.5</v>
+        <v>18.5</v>
       </c>
       <c r="C32" s="15"/>
       <c r="D32" s="15"/>

--- a/LM_Journal_Travail_V1.0.xlsx
+++ b/LM_Journal_Travail_V1.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\Love-Mirroring\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programmes\VS2019\Projets\Projet Gerber\Love-Mirroring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B0D1647-84B5-47BD-9370-F1F10D5D3088}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2E09129-E111-4A9F-93EF-B002BA846B7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Equipe" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <definedName name="NBLecons">#REF!</definedName>
     <definedName name="TachesPlanifiees">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="67">
   <si>
     <t>Jalon</t>
   </si>
@@ -186,9 +186,6 @@
     <t>25.03.2020</t>
   </si>
   <si>
-    <t>Création des premières tables et relations</t>
-  </si>
-  <si>
     <t xml:space="preserve">Création de la documentation HERMES </t>
   </si>
   <si>
@@ -229,6 +226,39 @@
   </si>
   <si>
     <t>La création de compte est opérationnelle sur l'application. Il faudra l'alimenter avec d'autres champs pour établir le profil. La confirmation de l'email fonctionne aussi mais il y a juste un problème avec l'URL qu'il faudra corriger.</t>
+  </si>
+  <si>
+    <t>24.03.2020</t>
+  </si>
+  <si>
+    <t>Création des premières tables et relations.</t>
+  </si>
+  <si>
+    <t>Use Case</t>
+  </si>
+  <si>
+    <t>28.03.2020</t>
+  </si>
+  <si>
+    <t>Ajouter de l'abonnement et communication.</t>
+  </si>
+  <si>
+    <t>IdentityServer4</t>
+  </si>
+  <si>
+    <t>Tutoriel Suivi</t>
+  </si>
+  <si>
+    <t>SQL</t>
+  </si>
+  <si>
+    <t>29.03.2020</t>
+  </si>
+  <si>
+    <t>Création du script SQL et MLD puis mise à jour du MCD</t>
+  </si>
+  <si>
+    <t>Ajout vérification du compte</t>
   </si>
 </sst>
 </file>
@@ -3799,7 +3829,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DB7A04D-A66F-4A89-83F1-9B353075A776}">
   <dimension ref="A1:R94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+    <sheetView topLeftCell="A20" workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
@@ -4269,7 +4299,7 @@
     </row>
     <row r="18" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B18" s="7">
         <v>1</v>
@@ -4278,7 +4308,7 @@
         <v>43916</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="4"/>
@@ -4297,7 +4327,7 @@
     </row>
     <row r="19" spans="1:18" ht="81" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B19" s="7">
         <v>2</v>
@@ -4306,7 +4336,7 @@
         <v>43916</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="4"/>
@@ -4325,7 +4355,7 @@
     </row>
     <row r="20" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B20" s="36">
         <v>1.5</v>
@@ -4334,7 +4364,7 @@
         <v>43917</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="4"/>
@@ -4353,7 +4383,7 @@
     </row>
     <row r="21" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B21" s="7">
         <v>1</v>
@@ -4362,7 +4392,7 @@
         <v>43917</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="4"/>
@@ -4381,7 +4411,7 @@
     </row>
     <row r="22" spans="1:18" ht="27" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B22" s="7">
         <v>2</v>
@@ -4390,7 +4420,7 @@
         <v>43918</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E22" s="10"/>
       <c r="F22" s="4"/>
@@ -4409,7 +4439,7 @@
     </row>
     <row r="23" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B23" s="7">
         <v>3</v>
@@ -4418,7 +4448,7 @@
         <v>43918</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="4"/>
@@ -4437,7 +4467,7 @@
     </row>
     <row r="24" spans="1:18" ht="54" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B24" s="7">
         <v>3</v>
@@ -4446,7 +4476,7 @@
         <v>43918</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E24" s="10"/>
       <c r="F24" s="4"/>
@@ -8045,8 +8075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F222774-5003-490D-9078-78D1F6F89A4A}">
   <dimension ref="A1:R96"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -8514,8 +8544,8 @@
       <c r="B18" s="7">
         <v>2</v>
       </c>
-      <c r="C18" s="18">
-        <v>43914</v>
+      <c r="C18" s="18" t="s">
+        <v>56</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>37</v>
@@ -8546,7 +8576,7 @@
         <v>41</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="4"/>
@@ -8564,10 +8594,18 @@
       <c r="R19" s="4"/>
     </row>
     <row r="20" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
+      <c r="A20" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="7">
+        <v>2</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>60</v>
+      </c>
       <c r="E20" s="10"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
@@ -8583,11 +8621,19 @@
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
     </row>
-    <row r="21" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
+    <row r="21" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="7">
+        <v>1</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>62</v>
+      </c>
       <c r="E21" s="10"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
@@ -8604,10 +8650,18 @@
       <c r="R21" s="4"/>
     </row>
     <row r="22" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
+      <c r="A22" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>65</v>
+      </c>
       <c r="E22" s="10"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
@@ -8624,10 +8678,18 @@
       <c r="R22" s="4"/>
     </row>
     <row r="23" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
+      <c r="A23" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="7">
+        <v>1</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>66</v>
+      </c>
       <c r="E23" s="10"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
@@ -8849,7 +8911,7 @@
       </c>
       <c r="B34" s="14">
         <f>SUM(B18:B33)</f>
-        <v>6</v>
+        <v>13.5</v>
       </c>
       <c r="C34" s="15"/>
       <c r="D34" s="15"/>

--- a/LM_Journal_Travail_V1.0.xlsx
+++ b/LM_Journal_Travail_V1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programmes\VS2019\Projets\Projet Gerber\Love-Mirroring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2E09129-E111-4A9F-93EF-B002BA846B7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5234209-0BDA-40F8-9D90-88AEAB5E1453}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="70">
   <si>
     <t>Jalon</t>
   </si>
@@ -259,6 +259,15 @@
   </si>
   <si>
     <t>Ajout vérification du compte</t>
+  </si>
+  <si>
+    <t>MCD+MLD+SQL</t>
+  </si>
+  <si>
+    <t>30.03.2020</t>
+  </si>
+  <si>
+    <t>Correction et mise à jour de la base de données</t>
   </si>
 </sst>
 </file>
@@ -8076,7 +8085,7 @@
   <dimension ref="A1:R96"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -8705,11 +8714,19 @@
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
     </row>
-    <row r="24" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
+    <row r="24" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>69</v>
+      </c>
       <c r="E24" s="10"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
@@ -8911,7 +8928,7 @@
       </c>
       <c r="B34" s="14">
         <f>SUM(B18:B33)</f>
-        <v>13.5</v>
+        <v>18</v>
       </c>
       <c r="C34" s="15"/>
       <c r="D34" s="15"/>

--- a/LM_Journal_Travail_V1.0.xlsx
+++ b/LM_Journal_Travail_V1.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programmes\VS2019\Projets\Projet Gerber\Love-Mirroring\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\Love-Mirroring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5234209-0BDA-40F8-9D90-88AEAB5E1453}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6061F29-5002-47E2-8564-9DF6F55DB5C6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Equipe" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <definedName name="NBLecons">#REF!</definedName>
     <definedName name="TachesPlanifiees">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="72">
   <si>
     <t>Jalon</t>
   </si>
@@ -268,6 +268,12 @@
   </si>
   <si>
     <t>Correction et mise à jour de la base de données</t>
+  </si>
+  <si>
+    <t>Intégration du Quizz via le contrôleur de l'API et la vue de notre inferface</t>
+  </si>
+  <si>
+    <t>Le quizz s'affiche quand un utilisateur est authentifié. J'ai aussi corrigé dans la foulée la validation par Email avec l'aide Monsieur Allemann.</t>
   </si>
 </sst>
 </file>
@@ -3838,8 +3844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DB7A04D-A66F-4A89-83F1-9B353075A776}">
   <dimension ref="A1:R94"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -4482,11 +4488,2098 @@
         <v>3</v>
       </c>
       <c r="C24" s="35">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>55</v>
       </c>
+      <c r="E24" s="10"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+    </row>
+    <row r="25" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" s="36">
+        <v>4.5</v>
+      </c>
+      <c r="C25" s="35">
+        <v>43920</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25" s="10"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+    </row>
+    <row r="26" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+    </row>
+    <row r="27" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+    </row>
+    <row r="28" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+    </row>
+    <row r="29" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+    </row>
+    <row r="30" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+    </row>
+    <row r="31" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4"/>
+    </row>
+    <row r="32" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" s="14">
+        <f>SUM(B16:B31)</f>
+        <v>23</v>
+      </c>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
+    </row>
+    <row r="33" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="16"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
+    </row>
+    <row r="34" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="2">
+        <v>3</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="4"/>
+    </row>
+    <row r="35" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="10"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
+    </row>
+    <row r="36" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="4"/>
+    </row>
+    <row r="37" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="4"/>
+    </row>
+    <row r="38" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="4"/>
+    </row>
+    <row r="39" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="4"/>
+    </row>
+    <row r="40" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="4"/>
+    </row>
+    <row r="41" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A41" s="7"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="4"/>
+    </row>
+    <row r="42" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A42" s="7"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="4"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="4"/>
+    </row>
+    <row r="43" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="23"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="4"/>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="4"/>
+    </row>
+    <row r="44" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B44" s="14">
+        <f>SUM(B36:B43)</f>
+        <v>0</v>
+      </c>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="4"/>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="4"/>
+    </row>
+    <row r="45" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="16"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4"/>
+      <c r="O45" s="4"/>
+      <c r="P45" s="4"/>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="4"/>
+    </row>
+    <row r="46" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" s="2">
+        <v>4</v>
+      </c>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="4"/>
+      <c r="N46" s="4"/>
+      <c r="O46" s="4"/>
+      <c r="P46" s="4"/>
+      <c r="Q46" s="4"/>
+      <c r="R46" s="4"/>
+    </row>
+    <row r="47" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E47" s="10"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="4"/>
+      <c r="O47" s="4"/>
+      <c r="P47" s="4"/>
+      <c r="Q47" s="4"/>
+      <c r="R47" s="4"/>
+    </row>
+    <row r="48" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A48" s="19"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="4"/>
+      <c r="N48" s="4"/>
+      <c r="O48" s="4"/>
+      <c r="P48" s="4"/>
+      <c r="Q48" s="4"/>
+      <c r="R48" s="4"/>
+    </row>
+    <row r="49" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A49" s="7"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4"/>
+      <c r="M49" s="4"/>
+      <c r="N49" s="4"/>
+      <c r="O49" s="4"/>
+      <c r="P49" s="4"/>
+      <c r="Q49" s="4"/>
+      <c r="R49" s="4"/>
+    </row>
+    <row r="50" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A50" s="7"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="4"/>
+      <c r="L50" s="4"/>
+      <c r="M50" s="4"/>
+      <c r="N50" s="4"/>
+      <c r="O50" s="4"/>
+      <c r="P50" s="4"/>
+      <c r="Q50" s="4"/>
+      <c r="R50" s="4"/>
+    </row>
+    <row r="51" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A51" s="7"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="4"/>
+      <c r="L51" s="4"/>
+      <c r="M51" s="4"/>
+      <c r="N51" s="4"/>
+      <c r="O51" s="4"/>
+      <c r="P51" s="4"/>
+      <c r="Q51" s="4"/>
+      <c r="R51" s="4"/>
+    </row>
+    <row r="52" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A52" s="7"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="4"/>
+      <c r="M52" s="4"/>
+      <c r="N52" s="4"/>
+      <c r="O52" s="4"/>
+      <c r="P52" s="4"/>
+      <c r="Q52" s="4"/>
+      <c r="R52" s="4"/>
+    </row>
+    <row r="53" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A53" s="7"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4"/>
+      <c r="L53" s="4"/>
+      <c r="M53" s="4"/>
+      <c r="N53" s="4"/>
+      <c r="O53" s="4"/>
+      <c r="P53" s="4"/>
+      <c r="Q53" s="4"/>
+      <c r="R53" s="4"/>
+    </row>
+    <row r="54" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A54" s="25"/>
+      <c r="B54" s="25"/>
+      <c r="C54" s="26"/>
+      <c r="D54" s="26"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="4"/>
+      <c r="L54" s="4"/>
+      <c r="M54" s="4"/>
+      <c r="N54" s="4"/>
+      <c r="O54" s="4"/>
+      <c r="P54" s="4"/>
+      <c r="Q54" s="4"/>
+      <c r="R54" s="4"/>
+    </row>
+    <row r="55" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A55" s="25"/>
+      <c r="B55" s="25"/>
+      <c r="C55" s="26"/>
+      <c r="D55" s="26"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="4"/>
+      <c r="L55" s="4"/>
+      <c r="M55" s="4"/>
+      <c r="N55" s="4"/>
+      <c r="O55" s="4"/>
+      <c r="P55" s="4"/>
+      <c r="Q55" s="4"/>
+      <c r="R55" s="4"/>
+    </row>
+    <row r="56" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A56" s="25"/>
+      <c r="B56" s="25"/>
+      <c r="C56" s="26"/>
+      <c r="D56" s="26"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
+      <c r="K56" s="4"/>
+      <c r="L56" s="4"/>
+      <c r="M56" s="4"/>
+      <c r="N56" s="4"/>
+      <c r="O56" s="4"/>
+      <c r="P56" s="4"/>
+      <c r="Q56" s="4"/>
+      <c r="R56" s="4"/>
+    </row>
+    <row r="57" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A57" s="25"/>
+      <c r="B57" s="25"/>
+      <c r="C57" s="26"/>
+      <c r="D57" s="26"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
+      <c r="K57" s="4"/>
+      <c r="L57" s="4"/>
+      <c r="M57" s="4"/>
+      <c r="N57" s="4"/>
+      <c r="O57" s="4"/>
+      <c r="P57" s="4"/>
+      <c r="Q57" s="4"/>
+      <c r="R57" s="4"/>
+    </row>
+    <row r="58" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="23"/>
+      <c r="B58" s="23"/>
+      <c r="C58" s="24"/>
+      <c r="D58" s="24"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
+      <c r="K58" s="4"/>
+      <c r="L58" s="4"/>
+      <c r="M58" s="4"/>
+      <c r="N58" s="4"/>
+      <c r="O58" s="4"/>
+      <c r="P58" s="4"/>
+      <c r="Q58" s="4"/>
+      <c r="R58" s="4"/>
+    </row>
+    <row r="59" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B59" s="14">
+        <f>SUM(B48:B58)</f>
+        <v>0</v>
+      </c>
+      <c r="C59" s="15"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
+      <c r="J59" s="4"/>
+      <c r="K59" s="4"/>
+      <c r="L59" s="4"/>
+      <c r="M59" s="4"/>
+      <c r="N59" s="4"/>
+      <c r="O59" s="4"/>
+      <c r="P59" s="4"/>
+      <c r="Q59" s="4"/>
+      <c r="R59" s="4"/>
+    </row>
+    <row r="60" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="16"/>
+      <c r="B60" s="16"/>
+      <c r="C60" s="16"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
+      <c r="J60" s="4"/>
+      <c r="K60" s="4"/>
+      <c r="L60" s="4"/>
+      <c r="M60" s="4"/>
+      <c r="N60" s="4"/>
+      <c r="O60" s="4"/>
+      <c r="P60" s="4"/>
+      <c r="Q60" s="4"/>
+      <c r="R60" s="4"/>
+    </row>
+    <row r="61" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" s="2">
+        <v>5</v>
+      </c>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="4"/>
+      <c r="K61" s="4"/>
+      <c r="L61" s="4"/>
+      <c r="M61" s="4"/>
+      <c r="N61" s="4"/>
+      <c r="O61" s="4"/>
+      <c r="P61" s="4"/>
+      <c r="Q61" s="4"/>
+      <c r="R61" s="4"/>
+    </row>
+    <row r="62" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E62" s="10"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="4"/>
+      <c r="K62" s="4"/>
+      <c r="L62" s="4"/>
+      <c r="M62" s="4"/>
+      <c r="N62" s="4"/>
+      <c r="O62" s="4"/>
+      <c r="P62" s="4"/>
+      <c r="Q62" s="4"/>
+      <c r="R62" s="4"/>
+    </row>
+    <row r="63" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A63" s="19"/>
+      <c r="B63" s="19"/>
+      <c r="C63" s="20"/>
+      <c r="D63" s="20"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="4"/>
+      <c r="K63" s="4"/>
+      <c r="L63" s="4"/>
+      <c r="M63" s="4"/>
+      <c r="N63" s="4"/>
+      <c r="O63" s="4"/>
+      <c r="P63" s="4"/>
+      <c r="Q63" s="4"/>
+      <c r="R63" s="4"/>
+    </row>
+    <row r="64" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A64" s="7"/>
+      <c r="B64" s="7"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
+      <c r="J64" s="4"/>
+      <c r="K64" s="4"/>
+      <c r="L64" s="4"/>
+      <c r="M64" s="4"/>
+      <c r="N64" s="4"/>
+      <c r="O64" s="4"/>
+      <c r="P64" s="4"/>
+      <c r="Q64" s="4"/>
+      <c r="R64" s="4"/>
+    </row>
+    <row r="65" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A65" s="7"/>
+      <c r="B65" s="7"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="4"/>
+      <c r="K65" s="4"/>
+      <c r="L65" s="4"/>
+      <c r="M65" s="4"/>
+      <c r="N65" s="4"/>
+      <c r="O65" s="4"/>
+      <c r="P65" s="4"/>
+      <c r="Q65" s="4"/>
+      <c r="R65" s="4"/>
+    </row>
+    <row r="66" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A66" s="7"/>
+      <c r="B66" s="7"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4"/>
+      <c r="K66" s="4"/>
+      <c r="L66" s="4"/>
+      <c r="M66" s="4"/>
+      <c r="N66" s="4"/>
+      <c r="O66" s="4"/>
+      <c r="P66" s="4"/>
+      <c r="Q66" s="4"/>
+      <c r="R66" s="4"/>
+    </row>
+    <row r="67" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A67" s="7"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="4"/>
+      <c r="K67" s="4"/>
+      <c r="L67" s="4"/>
+      <c r="M67" s="4"/>
+      <c r="N67" s="4"/>
+      <c r="O67" s="4"/>
+      <c r="P67" s="4"/>
+      <c r="Q67" s="4"/>
+      <c r="R67" s="4"/>
+    </row>
+    <row r="68" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="23"/>
+      <c r="B68" s="23"/>
+      <c r="C68" s="24"/>
+      <c r="D68" s="24"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="4"/>
+      <c r="J68" s="4"/>
+      <c r="K68" s="4"/>
+      <c r="L68" s="4"/>
+      <c r="M68" s="4"/>
+      <c r="N68" s="4"/>
+      <c r="O68" s="4"/>
+      <c r="P68" s="4"/>
+      <c r="Q68" s="4"/>
+      <c r="R68" s="4"/>
+    </row>
+    <row r="69" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B69" s="14">
+        <f>SUM(B63:B68)</f>
+        <v>0</v>
+      </c>
+      <c r="C69" s="15"/>
+      <c r="D69" s="15"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
+      <c r="I69" s="4"/>
+      <c r="J69" s="4"/>
+      <c r="K69" s="4"/>
+      <c r="L69" s="4"/>
+      <c r="M69" s="4"/>
+      <c r="N69" s="4"/>
+      <c r="O69" s="4"/>
+      <c r="P69" s="4"/>
+      <c r="Q69" s="4"/>
+      <c r="R69" s="4"/>
+    </row>
+    <row r="70" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="16"/>
+      <c r="B70" s="16"/>
+      <c r="C70" s="16"/>
+      <c r="D70" s="16"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4"/>
+      <c r="I70" s="4"/>
+      <c r="J70" s="4"/>
+      <c r="K70" s="4"/>
+      <c r="L70" s="4"/>
+      <c r="M70" s="4"/>
+      <c r="N70" s="4"/>
+      <c r="O70" s="4"/>
+      <c r="P70" s="4"/>
+      <c r="Q70" s="4"/>
+      <c r="R70" s="4"/>
+    </row>
+    <row r="71" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B71" s="2">
+        <v>6</v>
+      </c>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="10"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
+      <c r="I71" s="4"/>
+      <c r="J71" s="4"/>
+      <c r="K71" s="4"/>
+      <c r="L71" s="4"/>
+      <c r="M71" s="4"/>
+      <c r="N71" s="4"/>
+      <c r="O71" s="4"/>
+      <c r="P71" s="4"/>
+      <c r="Q71" s="4"/>
+      <c r="R71" s="4"/>
+    </row>
+    <row r="72" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E72" s="10"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="4"/>
+      <c r="I72" s="4"/>
+      <c r="J72" s="4"/>
+      <c r="K72" s="4"/>
+      <c r="L72" s="4"/>
+      <c r="M72" s="4"/>
+      <c r="N72" s="4"/>
+      <c r="O72" s="4"/>
+      <c r="P72" s="4"/>
+      <c r="Q72" s="4"/>
+      <c r="R72" s="4"/>
+    </row>
+    <row r="73" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A73" s="19"/>
+      <c r="B73" s="19"/>
+      <c r="C73" s="20"/>
+      <c r="D73" s="20"/>
+      <c r="E73" s="10"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
+      <c r="H73" s="4"/>
+      <c r="I73" s="4"/>
+      <c r="J73" s="4"/>
+      <c r="K73" s="4"/>
+      <c r="L73" s="4"/>
+      <c r="M73" s="4"/>
+      <c r="N73" s="4"/>
+      <c r="O73" s="4"/>
+      <c r="P73" s="4"/>
+      <c r="Q73" s="4"/>
+      <c r="R73" s="4"/>
+    </row>
+    <row r="74" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A74" s="7"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="9"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="10"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="4"/>
+      <c r="I74" s="4"/>
+      <c r="J74" s="4"/>
+      <c r="K74" s="4"/>
+      <c r="L74" s="4"/>
+      <c r="M74" s="4"/>
+      <c r="N74" s="4"/>
+      <c r="O74" s="4"/>
+      <c r="P74" s="4"/>
+      <c r="Q74" s="4"/>
+      <c r="R74" s="4"/>
+    </row>
+    <row r="75" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A75" s="7"/>
+      <c r="B75" s="7"/>
+      <c r="C75" s="9"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="10"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="4"/>
+      <c r="I75" s="4"/>
+      <c r="J75" s="4"/>
+      <c r="K75" s="4"/>
+      <c r="L75" s="4"/>
+      <c r="M75" s="4"/>
+      <c r="N75" s="4"/>
+      <c r="O75" s="4"/>
+      <c r="P75" s="4"/>
+      <c r="Q75" s="4"/>
+      <c r="R75" s="4"/>
+    </row>
+    <row r="76" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A76" s="7"/>
+      <c r="B76" s="7"/>
+      <c r="C76" s="9"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="10"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
+      <c r="I76" s="4"/>
+      <c r="J76" s="4"/>
+      <c r="K76" s="4"/>
+      <c r="L76" s="4"/>
+      <c r="M76" s="4"/>
+      <c r="N76" s="4"/>
+      <c r="O76" s="4"/>
+      <c r="P76" s="4"/>
+      <c r="Q76" s="4"/>
+      <c r="R76" s="4"/>
+    </row>
+    <row r="77" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A77" s="7"/>
+      <c r="B77" s="7"/>
+      <c r="C77" s="9"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="10"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="4"/>
+      <c r="I77" s="4"/>
+      <c r="J77" s="4"/>
+      <c r="K77" s="4"/>
+      <c r="L77" s="4"/>
+      <c r="M77" s="4"/>
+      <c r="N77" s="4"/>
+      <c r="O77" s="4"/>
+      <c r="P77" s="4"/>
+      <c r="Q77" s="4"/>
+      <c r="R77" s="4"/>
+    </row>
+    <row r="78" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A78" s="7"/>
+      <c r="B78" s="7"/>
+      <c r="C78" s="9"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="10"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="4"/>
+      <c r="I78" s="4"/>
+      <c r="J78" s="4"/>
+      <c r="K78" s="4"/>
+      <c r="L78" s="4"/>
+      <c r="M78" s="4"/>
+      <c r="N78" s="4"/>
+      <c r="O78" s="4"/>
+      <c r="P78" s="4"/>
+      <c r="Q78" s="4"/>
+      <c r="R78" s="4"/>
+    </row>
+    <row r="79" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A79" s="7"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="9"/>
+      <c r="D79" s="9"/>
+      <c r="E79" s="10"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="4"/>
+      <c r="I79" s="4"/>
+      <c r="J79" s="4"/>
+      <c r="K79" s="4"/>
+      <c r="L79" s="4"/>
+      <c r="M79" s="4"/>
+      <c r="N79" s="4"/>
+      <c r="O79" s="4"/>
+      <c r="P79" s="4"/>
+      <c r="Q79" s="4"/>
+      <c r="R79" s="4"/>
+    </row>
+    <row r="80" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="23"/>
+      <c r="B80" s="23"/>
+      <c r="C80" s="24"/>
+      <c r="D80" s="24"/>
+      <c r="E80" s="10"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="4"/>
+      <c r="I80" s="4"/>
+      <c r="J80" s="4"/>
+      <c r="K80" s="4"/>
+      <c r="L80" s="4"/>
+      <c r="M80" s="4"/>
+      <c r="N80" s="4"/>
+      <c r="O80" s="4"/>
+      <c r="P80" s="4"/>
+      <c r="Q80" s="4"/>
+      <c r="R80" s="4"/>
+    </row>
+    <row r="81" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B81" s="14">
+        <f>SUM(B73:B80)</f>
+        <v>0</v>
+      </c>
+      <c r="C81" s="15"/>
+      <c r="D81" s="15"/>
+      <c r="E81" s="10"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="4"/>
+      <c r="I81" s="4"/>
+      <c r="J81" s="4"/>
+      <c r="K81" s="4"/>
+      <c r="L81" s="4"/>
+      <c r="M81" s="4"/>
+      <c r="N81" s="4"/>
+      <c r="O81" s="4"/>
+      <c r="P81" s="4"/>
+      <c r="Q81" s="4"/>
+      <c r="R81" s="4"/>
+    </row>
+    <row r="82" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A82" s="16"/>
+      <c r="B82" s="16"/>
+      <c r="C82" s="16"/>
+      <c r="D82" s="16"/>
+      <c r="E82" s="10"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="4"/>
+      <c r="I82" s="4"/>
+      <c r="J82" s="4"/>
+      <c r="K82" s="4"/>
+      <c r="L82" s="4"/>
+      <c r="M82" s="4"/>
+      <c r="N82" s="4"/>
+      <c r="O82" s="4"/>
+      <c r="P82" s="4"/>
+      <c r="Q82" s="4"/>
+      <c r="R82" s="4"/>
+    </row>
+    <row r="83" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A83" s="27"/>
+      <c r="B83" s="27"/>
+      <c r="C83" s="27"/>
+      <c r="D83" s="27"/>
+      <c r="E83" s="10"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="4"/>
+      <c r="I83" s="4"/>
+      <c r="J83" s="4"/>
+      <c r="K83" s="4"/>
+      <c r="L83" s="4"/>
+      <c r="M83" s="4"/>
+      <c r="N83" s="4"/>
+      <c r="O83" s="4"/>
+      <c r="P83" s="4"/>
+      <c r="Q83" s="4"/>
+      <c r="R83" s="4"/>
+    </row>
+    <row r="84" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A84" s="27"/>
+      <c r="B84" s="27"/>
+      <c r="C84" s="27"/>
+      <c r="D84" s="27"/>
+      <c r="E84" s="10"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="4"/>
+      <c r="H84" s="4"/>
+      <c r="I84" s="4"/>
+      <c r="J84" s="4"/>
+      <c r="K84" s="4"/>
+      <c r="L84" s="4"/>
+      <c r="M84" s="4"/>
+      <c r="N84" s="4"/>
+      <c r="O84" s="4"/>
+      <c r="P84" s="4"/>
+      <c r="Q84" s="4"/>
+      <c r="R84" s="4"/>
+    </row>
+    <row r="85" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A85" s="27"/>
+      <c r="B85" s="27"/>
+      <c r="C85" s="27"/>
+      <c r="D85" s="27"/>
+      <c r="E85" s="10"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
+      <c r="H85" s="4"/>
+      <c r="I85" s="4"/>
+      <c r="J85" s="4"/>
+      <c r="K85" s="4"/>
+      <c r="L85" s="4"/>
+      <c r="M85" s="4"/>
+      <c r="N85" s="4"/>
+      <c r="O85" s="4"/>
+      <c r="P85" s="4"/>
+      <c r="Q85" s="4"/>
+      <c r="R85" s="4"/>
+    </row>
+    <row r="86" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A86" s="27"/>
+      <c r="B86" s="27"/>
+      <c r="C86" s="27"/>
+      <c r="D86" s="27"/>
+      <c r="E86" s="10"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
+      <c r="H86" s="4"/>
+      <c r="I86" s="4"/>
+      <c r="J86" s="4"/>
+      <c r="K86" s="4"/>
+      <c r="L86" s="4"/>
+      <c r="M86" s="4"/>
+      <c r="N86" s="4"/>
+      <c r="O86" s="4"/>
+      <c r="P86" s="4"/>
+      <c r="Q86" s="4"/>
+      <c r="R86" s="4"/>
+    </row>
+    <row r="87" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A87" s="27"/>
+      <c r="B87" s="27"/>
+      <c r="C87" s="27"/>
+      <c r="D87" s="27"/>
+      <c r="E87" s="10"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="4"/>
+      <c r="H87" s="4"/>
+      <c r="I87" s="4"/>
+      <c r="J87" s="4"/>
+      <c r="K87" s="4"/>
+      <c r="L87" s="4"/>
+      <c r="M87" s="4"/>
+      <c r="N87" s="4"/>
+      <c r="O87" s="4"/>
+      <c r="P87" s="4"/>
+      <c r="Q87" s="4"/>
+      <c r="R87" s="4"/>
+    </row>
+    <row r="88" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A88" s="27"/>
+      <c r="B88" s="27"/>
+      <c r="C88" s="27"/>
+      <c r="D88" s="27"/>
+      <c r="E88" s="10"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="4"/>
+      <c r="H88" s="4"/>
+      <c r="I88" s="4"/>
+      <c r="J88" s="4"/>
+      <c r="K88" s="4"/>
+      <c r="L88" s="4"/>
+      <c r="M88" s="4"/>
+      <c r="N88" s="4"/>
+      <c r="O88" s="4"/>
+      <c r="P88" s="4"/>
+      <c r="Q88" s="4"/>
+      <c r="R88" s="4"/>
+    </row>
+    <row r="89" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A89" s="27"/>
+      <c r="B89" s="27"/>
+      <c r="C89" s="27"/>
+      <c r="D89" s="27"/>
+      <c r="E89" s="10"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="4"/>
+      <c r="H89" s="4"/>
+      <c r="I89" s="4"/>
+      <c r="J89" s="4"/>
+      <c r="K89" s="4"/>
+      <c r="L89" s="4"/>
+      <c r="M89" s="4"/>
+      <c r="N89" s="4"/>
+      <c r="O89" s="4"/>
+      <c r="P89" s="4"/>
+      <c r="Q89" s="4"/>
+      <c r="R89" s="4"/>
+    </row>
+    <row r="90" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A90" s="27"/>
+      <c r="B90" s="27"/>
+      <c r="C90" s="27"/>
+      <c r="D90" s="27"/>
+      <c r="E90" s="10"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="4"/>
+      <c r="H90" s="4"/>
+      <c r="I90" s="4"/>
+      <c r="J90" s="4"/>
+      <c r="K90" s="4"/>
+      <c r="L90" s="4"/>
+      <c r="M90" s="4"/>
+      <c r="N90" s="4"/>
+      <c r="O90" s="4"/>
+      <c r="P90" s="4"/>
+      <c r="Q90" s="4"/>
+      <c r="R90" s="4"/>
+    </row>
+    <row r="91" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A91" s="27"/>
+      <c r="B91" s="27"/>
+      <c r="C91" s="27"/>
+      <c r="D91" s="27"/>
+      <c r="E91" s="10"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="4"/>
+      <c r="H91" s="4"/>
+      <c r="I91" s="4"/>
+      <c r="J91" s="4"/>
+      <c r="K91" s="4"/>
+      <c r="L91" s="4"/>
+      <c r="M91" s="4"/>
+      <c r="N91" s="4"/>
+      <c r="O91" s="4"/>
+      <c r="P91" s="4"/>
+      <c r="Q91" s="4"/>
+      <c r="R91" s="4"/>
+    </row>
+    <row r="92" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A92" s="27"/>
+      <c r="B92" s="27"/>
+      <c r="C92" s="27"/>
+      <c r="D92" s="27"/>
+      <c r="E92" s="10"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="4"/>
+      <c r="H92" s="4"/>
+      <c r="I92" s="4"/>
+      <c r="J92" s="4"/>
+      <c r="K92" s="4"/>
+      <c r="L92" s="4"/>
+      <c r="M92" s="4"/>
+      <c r="N92" s="4"/>
+      <c r="O92" s="4"/>
+      <c r="P92" s="4"/>
+      <c r="Q92" s="4"/>
+      <c r="R92" s="4"/>
+    </row>
+    <row r="93" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A93" s="27"/>
+      <c r="B93" s="27"/>
+      <c r="C93" s="27"/>
+      <c r="D93" s="27"/>
+      <c r="E93" s="10"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="4"/>
+      <c r="H93" s="4"/>
+      <c r="I93" s="4"/>
+      <c r="J93" s="4"/>
+      <c r="K93" s="4"/>
+      <c r="L93" s="4"/>
+      <c r="M93" s="4"/>
+      <c r="N93" s="4"/>
+      <c r="O93" s="4"/>
+      <c r="P93" s="4"/>
+      <c r="Q93" s="4"/>
+      <c r="R93" s="4"/>
+    </row>
+    <row r="94" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A94" s="28"/>
+      <c r="B94" s="28"/>
+      <c r="C94" s="28"/>
+      <c r="D94" s="28"/>
+      <c r="E94" s="10"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="4"/>
+      <c r="H94" s="4"/>
+      <c r="I94" s="4"/>
+      <c r="J94" s="4"/>
+      <c r="K94" s="4"/>
+      <c r="L94" s="4"/>
+      <c r="M94" s="4"/>
+      <c r="N94" s="4"/>
+      <c r="O94" s="4"/>
+      <c r="P94" s="4"/>
+      <c r="Q94" s="4"/>
+      <c r="R94" s="4"/>
+    </row>
+  </sheetData>
+  <dataValidations xWindow="188" yWindow="522" count="2">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" prompt="Dépassement de durée - Le nombre de minutes introduites dépasse la durée d'une période. Veuillez confirmer ... Le calcul du total sera juste dans tous les cas._x000a_" sqref="B12 B32 B44 B59 B69 B81" xr:uid="{41F29EDA-D509-4469-8DFB-6A4CE4CEAE07}">
+      <formula1>0</formula1>
+      <formula2>DureePeriode-1</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" prompt="Durée en 1/3 de période - Le nombre doit être de type entier" sqref="B73:B80 B16:B31 B36:B37 B39:B43 B48:B58 B63:B68 B10:B11 B3:B8" xr:uid="{3039B7E3-952E-4B34-B612-E5A0C049619C}">
+      <formula1>0</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716E2DDB-6361-470B-ACF3-8FDF9046203A}">
+  <dimension ref="A1:R95"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="78.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+    </row>
+    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+    </row>
+    <row r="3" spans="1:18" ht="94.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="7">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8">
+        <v>43906</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="10"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+    </row>
+    <row r="4" spans="1:18" ht="54" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="7">
+        <v>2</v>
+      </c>
+      <c r="C4" s="8">
+        <v>43906</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+    </row>
+    <row r="5" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="7">
+        <v>2</v>
+      </c>
+      <c r="C5" s="8">
+        <v>43907</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+    </row>
+    <row r="6" spans="1:18" ht="81" x14ac:dyDescent="0.3">
+      <c r="A6" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="25">
+        <v>2</v>
+      </c>
+      <c r="C6" s="8">
+        <v>43908</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+    </row>
+    <row r="7" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="29">
+        <v>2</v>
+      </c>
+      <c r="C7" s="11">
+        <v>43909</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+    </row>
+    <row r="8" spans="1:18" ht="108" x14ac:dyDescent="0.3">
+      <c r="A8" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="29">
+        <v>2</v>
+      </c>
+      <c r="C8" s="11">
+        <v>43910</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+    </row>
+    <row r="9" spans="1:18" ht="94.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="31">
+        <v>3</v>
+      </c>
+      <c r="C9" s="11">
+        <v>43911</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+    </row>
+    <row r="10" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="7">
+        <v>1</v>
+      </c>
+      <c r="C10" s="8">
+        <v>43913</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+    </row>
+    <row r="11" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="7">
+        <v>2</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="10"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+    </row>
+    <row r="12" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="7">
+        <v>4</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+    </row>
+    <row r="13" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+      <c r="A13" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="14">
+        <f>SUM(B3:B12)</f>
+        <v>21</v>
+      </c>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+    </row>
+    <row r="14" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+    </row>
+    <row r="15" spans="1:18" ht="18" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="2">
+        <v>2</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+    </row>
+    <row r="16" spans="1:18" ht="15" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="10"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+    </row>
+    <row r="17" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A17" s="17"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+    </row>
+    <row r="18" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+    </row>
+    <row r="19" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+    </row>
+    <row r="20" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+    </row>
+    <row r="21" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+    </row>
+    <row r="22" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+    </row>
+    <row r="23" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+    </row>
+    <row r="24" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
       <c r="E24" s="10"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
@@ -4622,7 +6715,7 @@
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
     </row>
-    <row r="31" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="9"/>
@@ -4642,16 +6735,11 @@
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
     </row>
-    <row r="32" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B32" s="14">
-        <f>SUM(B16:B31)</f>
-        <v>18.5</v>
-      </c>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
+    <row r="32" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
       <c r="E32" s="10"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
@@ -4667,11 +6755,16 @@
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
     </row>
-    <row r="33" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="16"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
+    <row r="33" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+      <c r="A33" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="14">
+        <f>SUM(B17:B32)</f>
+        <v>0</v>
+      </c>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
       <c r="E33" s="10"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
@@ -4687,15 +6780,11 @@
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
     </row>
-    <row r="34" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B34" s="2">
-        <v>3</v>
-      </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
+    <row r="34" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A34" s="16"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
       <c r="E34" s="10"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
@@ -4711,17 +6800,15 @@
       <c r="Q34" s="4"/>
       <c r="R34" s="4"/>
     </row>
-    <row r="35" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B35" s="6" t="s">
+    <row r="35" spans="1:18" ht="18" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="2">
         <v>3</v>
       </c>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
       <c r="E35" s="10"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
@@ -4737,11 +6824,17 @@
       <c r="Q35" s="4"/>
       <c r="R35" s="4"/>
     </row>
-    <row r="36" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="20"/>
+    <row r="36" spans="1:18" ht="15" x14ac:dyDescent="0.3">
+      <c r="A36" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="E36" s="10"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
@@ -4761,7 +6854,7 @@
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="21"/>
-      <c r="D37" s="9"/>
+      <c r="D37" s="20"/>
       <c r="E37" s="10"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
@@ -4780,7 +6873,7 @@
     <row r="38" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
-      <c r="C38" s="22"/>
+      <c r="C38" s="21"/>
       <c r="D38" s="9"/>
       <c r="E38" s="10"/>
       <c r="F38" s="4"/>
@@ -4800,7 +6893,7 @@
     <row r="39" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
-      <c r="C39" s="9"/>
+      <c r="C39" s="22"/>
       <c r="D39" s="9"/>
       <c r="E39" s="10"/>
       <c r="F39" s="4"/>
@@ -4877,11 +6970,11 @@
       <c r="Q42" s="4"/>
       <c r="R42" s="4"/>
     </row>
-    <row r="43" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="23"/>
-      <c r="B43" s="23"/>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24"/>
+    <row r="43" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A43" s="7"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
       <c r="E43" s="10"/>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
@@ -4897,16 +6990,11 @@
       <c r="Q43" s="4"/>
       <c r="R43" s="4"/>
     </row>
-    <row r="44" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B44" s="14">
-        <f>SUM(B36:B43)</f>
-        <v>0</v>
-      </c>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
+    <row r="44" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A44" s="23"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
       <c r="E44" s="10"/>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
@@ -4922,11 +7010,16 @@
       <c r="Q44" s="4"/>
       <c r="R44" s="4"/>
     </row>
-    <row r="45" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="16"/>
-      <c r="B45" s="16"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
+    <row r="45" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+      <c r="A45" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B45" s="14">
+        <f>SUM(B37:B44)</f>
+        <v>0</v>
+      </c>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
       <c r="E45" s="10"/>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
@@ -4942,15 +7035,11 @@
       <c r="Q45" s="4"/>
       <c r="R45" s="4"/>
     </row>
-    <row r="46" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B46" s="2">
-        <v>4</v>
-      </c>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
+    <row r="46" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A46" s="16"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
       <c r="E46" s="10"/>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
@@ -4966,17 +7055,15 @@
       <c r="Q46" s="4"/>
       <c r="R46" s="4"/>
     </row>
-    <row r="47" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5" t="s">
-        <v>5</v>
-      </c>
+    <row r="47" spans="1:18" ht="18" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="2">
+        <v>4</v>
+      </c>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
       <c r="E47" s="10"/>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
@@ -4992,11 +7079,17 @@
       <c r="Q47" s="4"/>
       <c r="R47" s="4"/>
     </row>
-    <row r="48" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A48" s="19"/>
-      <c r="B48" s="19"/>
-      <c r="C48" s="20"/>
-      <c r="D48" s="20"/>
+    <row r="48" spans="1:18" ht="15" x14ac:dyDescent="0.3">
+      <c r="A48" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="E48" s="10"/>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
@@ -5013,10 +7106,10 @@
       <c r="R48" s="4"/>
     </row>
     <row r="49" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A49" s="7"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
+      <c r="A49" s="19"/>
+      <c r="B49" s="19"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
       <c r="E49" s="10"/>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
@@ -5113,10 +7206,10 @@
       <c r="R53" s="4"/>
     </row>
     <row r="54" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A54" s="25"/>
-      <c r="B54" s="25"/>
-      <c r="C54" s="26"/>
-      <c r="D54" s="26"/>
+      <c r="A54" s="7"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
       <c r="E54" s="10"/>
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
@@ -5192,11 +7285,11 @@
       <c r="Q57" s="4"/>
       <c r="R57" s="4"/>
     </row>
-    <row r="58" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="23"/>
-      <c r="B58" s="23"/>
-      <c r="C58" s="24"/>
-      <c r="D58" s="24"/>
+    <row r="58" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A58" s="25"/>
+      <c r="B58" s="25"/>
+      <c r="C58" s="26"/>
+      <c r="D58" s="26"/>
       <c r="E58" s="10"/>
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
@@ -5212,16 +7305,11 @@
       <c r="Q58" s="4"/>
       <c r="R58" s="4"/>
     </row>
-    <row r="59" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B59" s="14">
-        <f>SUM(B48:B58)</f>
-        <v>0</v>
-      </c>
-      <c r="C59" s="15"/>
-      <c r="D59" s="15"/>
+    <row r="59" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A59" s="23"/>
+      <c r="B59" s="23"/>
+      <c r="C59" s="24"/>
+      <c r="D59" s="24"/>
       <c r="E59" s="10"/>
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
@@ -5237,11 +7325,16 @@
       <c r="Q59" s="4"/>
       <c r="R59" s="4"/>
     </row>
-    <row r="60" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="16"/>
-      <c r="B60" s="16"/>
-      <c r="C60" s="16"/>
-      <c r="D60" s="16"/>
+    <row r="60" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+      <c r="A60" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B60" s="14">
+        <f>SUM(B49:B59)</f>
+        <v>0</v>
+      </c>
+      <c r="C60" s="15"/>
+      <c r="D60" s="15"/>
       <c r="E60" s="10"/>
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
@@ -5257,15 +7350,11 @@
       <c r="Q60" s="4"/>
       <c r="R60" s="4"/>
     </row>
-    <row r="61" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B61" s="2">
-        <v>5</v>
-      </c>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
+    <row r="61" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A61" s="16"/>
+      <c r="B61" s="16"/>
+      <c r="C61" s="16"/>
+      <c r="D61" s="16"/>
       <c r="E61" s="10"/>
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
@@ -5281,17 +7370,15 @@
       <c r="Q61" s="4"/>
       <c r="R61" s="4"/>
     </row>
-    <row r="62" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C62" s="5"/>
-      <c r="D62" s="5" t="s">
+    <row r="62" spans="1:18" ht="18" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62" s="2">
         <v>5</v>
       </c>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
       <c r="E62" s="10"/>
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
@@ -5307,11 +7394,17 @@
       <c r="Q62" s="4"/>
       <c r="R62" s="4"/>
     </row>
-    <row r="63" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A63" s="19"/>
-      <c r="B63" s="19"/>
-      <c r="C63" s="20"/>
-      <c r="D63" s="20"/>
+    <row r="63" spans="1:18" ht="15" x14ac:dyDescent="0.3">
+      <c r="A63" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="E63" s="10"/>
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
@@ -5328,10 +7421,10 @@
       <c r="R63" s="4"/>
     </row>
     <row r="64" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A64" s="7"/>
-      <c r="B64" s="7"/>
-      <c r="C64" s="9"/>
-      <c r="D64" s="9"/>
+      <c r="A64" s="19"/>
+      <c r="B64" s="19"/>
+      <c r="C64" s="20"/>
+      <c r="D64" s="20"/>
       <c r="E64" s="10"/>
       <c r="F64" s="4"/>
       <c r="G64" s="4"/>
@@ -5407,11 +7500,11 @@
       <c r="Q67" s="4"/>
       <c r="R67" s="4"/>
     </row>
-    <row r="68" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="23"/>
-      <c r="B68" s="23"/>
-      <c r="C68" s="24"/>
-      <c r="D68" s="24"/>
+    <row r="68" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A68" s="7"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="9"/>
       <c r="E68" s="10"/>
       <c r="F68" s="4"/>
       <c r="G68" s="4"/>
@@ -5427,16 +7520,11 @@
       <c r="Q68" s="4"/>
       <c r="R68" s="4"/>
     </row>
-    <row r="69" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B69" s="14">
-        <f>SUM(B63:B68)</f>
-        <v>0</v>
-      </c>
-      <c r="C69" s="15"/>
-      <c r="D69" s="15"/>
+    <row r="69" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A69" s="23"/>
+      <c r="B69" s="23"/>
+      <c r="C69" s="24"/>
+      <c r="D69" s="24"/>
       <c r="E69" s="10"/>
       <c r="F69" s="4"/>
       <c r="G69" s="4"/>
@@ -5452,11 +7540,16 @@
       <c r="Q69" s="4"/>
       <c r="R69" s="4"/>
     </row>
-    <row r="70" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="16"/>
-      <c r="B70" s="16"/>
-      <c r="C70" s="16"/>
-      <c r="D70" s="16"/>
+    <row r="70" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+      <c r="A70" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B70" s="14">
+        <f>SUM(B64:B69)</f>
+        <v>0</v>
+      </c>
+      <c r="C70" s="15"/>
+      <c r="D70" s="15"/>
       <c r="E70" s="10"/>
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
@@ -5472,15 +7565,11 @@
       <c r="Q70" s="4"/>
       <c r="R70" s="4"/>
     </row>
-    <row r="71" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B71" s="2">
-        <v>6</v>
-      </c>
-      <c r="C71" s="3"/>
-      <c r="D71" s="3"/>
+    <row r="71" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A71" s="16"/>
+      <c r="B71" s="16"/>
+      <c r="C71" s="16"/>
+      <c r="D71" s="16"/>
       <c r="E71" s="10"/>
       <c r="F71" s="4"/>
       <c r="G71" s="4"/>
@@ -5496,17 +7585,15 @@
       <c r="Q71" s="4"/>
       <c r="R71" s="4"/>
     </row>
-    <row r="72" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B72" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C72" s="5"/>
-      <c r="D72" s="5" t="s">
-        <v>5</v>
-      </c>
+    <row r="72" spans="1:18" ht="18" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72" s="2">
+        <v>6</v>
+      </c>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
       <c r="E72" s="10"/>
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
@@ -5522,11 +7609,17 @@
       <c r="Q72" s="4"/>
       <c r="R72" s="4"/>
     </row>
-    <row r="73" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A73" s="19"/>
-      <c r="B73" s="19"/>
-      <c r="C73" s="20"/>
-      <c r="D73" s="20"/>
+    <row r="73" spans="1:18" ht="15" x14ac:dyDescent="0.3">
+      <c r="A73" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="E73" s="10"/>
       <c r="F73" s="4"/>
       <c r="G73" s="4"/>
@@ -5543,10 +7636,10 @@
       <c r="R73" s="4"/>
     </row>
     <row r="74" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A74" s="7"/>
-      <c r="B74" s="7"/>
-      <c r="C74" s="9"/>
-      <c r="D74" s="9"/>
+      <c r="A74" s="19"/>
+      <c r="B74" s="19"/>
+      <c r="C74" s="20"/>
+      <c r="D74" s="20"/>
       <c r="E74" s="10"/>
       <c r="F74" s="4"/>
       <c r="G74" s="4"/>
@@ -5662,11 +7755,11 @@
       <c r="Q79" s="4"/>
       <c r="R79" s="4"/>
     </row>
-    <row r="80" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="23"/>
-      <c r="B80" s="23"/>
-      <c r="C80" s="24"/>
-      <c r="D80" s="24"/>
+    <row r="80" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A80" s="7"/>
+      <c r="B80" s="7"/>
+      <c r="C80" s="9"/>
+      <c r="D80" s="9"/>
       <c r="E80" s="10"/>
       <c r="F80" s="4"/>
       <c r="G80" s="4"/>
@@ -5682,16 +7775,11 @@
       <c r="Q80" s="4"/>
       <c r="R80" s="4"/>
     </row>
-    <row r="81" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B81" s="14">
-        <f>SUM(B73:B80)</f>
-        <v>0</v>
-      </c>
-      <c r="C81" s="15"/>
-      <c r="D81" s="15"/>
+    <row r="81" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A81" s="23"/>
+      <c r="B81" s="23"/>
+      <c r="C81" s="24"/>
+      <c r="D81" s="24"/>
       <c r="E81" s="10"/>
       <c r="F81" s="4"/>
       <c r="G81" s="4"/>
@@ -5707,11 +7795,16 @@
       <c r="Q81" s="4"/>
       <c r="R81" s="4"/>
     </row>
-    <row r="82" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A82" s="16"/>
-      <c r="B82" s="16"/>
-      <c r="C82" s="16"/>
-      <c r="D82" s="16"/>
+    <row r="82" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+      <c r="A82" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B82" s="14">
+        <f>SUM(B74:B81)</f>
+        <v>0</v>
+      </c>
+      <c r="C82" s="15"/>
+      <c r="D82" s="15"/>
       <c r="E82" s="10"/>
       <c r="F82" s="4"/>
       <c r="G82" s="4"/>
@@ -5728,10 +7821,10 @@
       <c r="R82" s="4"/>
     </row>
     <row r="83" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A83" s="27"/>
-      <c r="B83" s="27"/>
-      <c r="C83" s="27"/>
-      <c r="D83" s="27"/>
+      <c r="A83" s="16"/>
+      <c r="B83" s="16"/>
+      <c r="C83" s="16"/>
+      <c r="D83" s="16"/>
       <c r="E83" s="10"/>
       <c r="F83" s="4"/>
       <c r="G83" s="4"/>
@@ -5948,10 +8041,10 @@
       <c r="R93" s="4"/>
     </row>
     <row r="94" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A94" s="28"/>
-      <c r="B94" s="28"/>
-      <c r="C94" s="28"/>
-      <c r="D94" s="28"/>
+      <c r="A94" s="27"/>
+      <c r="B94" s="27"/>
+      <c r="C94" s="27"/>
+      <c r="D94" s="27"/>
       <c r="E94" s="10"/>
       <c r="F94" s="4"/>
       <c r="G94" s="4"/>
@@ -5967,26 +8060,46 @@
       <c r="Q94" s="4"/>
       <c r="R94" s="4"/>
     </row>
+    <row r="95" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A95" s="28"/>
+      <c r="B95" s="28"/>
+      <c r="C95" s="28"/>
+      <c r="D95" s="28"/>
+      <c r="E95" s="10"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="4"/>
+      <c r="H95" s="4"/>
+      <c r="I95" s="4"/>
+      <c r="J95" s="4"/>
+      <c r="K95" s="4"/>
+      <c r="L95" s="4"/>
+      <c r="M95" s="4"/>
+      <c r="N95" s="4"/>
+      <c r="O95" s="4"/>
+      <c r="P95" s="4"/>
+      <c r="Q95" s="4"/>
+      <c r="R95" s="4"/>
+    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" prompt="Dépassement de durée - Le nombre de minutes introduites dépasse la durée d'une période. Veuillez confirmer ... Le calcul du total sera juste dans tous les cas._x000a_" sqref="B12 B32 B44 B59 B69 B81" xr:uid="{41F29EDA-D509-4469-8DFB-6A4CE4CEAE07}">
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" prompt="Durée en 1/3 de période - Le nombre doit être de type entier" sqref="B74:B81 B17:B32 B37:B38 B40:B44 B49:B59 B64:B69 B3:B8 B10:B12" xr:uid="{76F8C2A5-22FC-42B6-BF5F-FD1899EE52B8}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" prompt="Dépassement de durée - Le nombre de minutes introduites dépasse la durée d'une période. Veuillez confirmer ... Le calcul du total sera juste dans tous les cas._x000a_" sqref="B13 B33 B45 B60 B70 B82" xr:uid="{BD151BE4-B931-4CBD-823B-9C753DC07C8D}">
       <formula1>0</formula1>
       <formula2>DureePeriode-1</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" prompt="Durée en 1/3 de période - Le nombre doit être de type entier" sqref="B73:B80 B16:B31 B36:B37 B39:B43 B48:B58 B63:B68 B10:B11 B3:B8" xr:uid="{3039B7E3-952E-4B34-B612-E5A0C049619C}">
-      <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716E2DDB-6361-470B-ACF3-8FDF9046203A}">
-  <dimension ref="A1:R95"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F222774-5003-490D-9078-78D1F6F89A4A}">
+  <dimension ref="A1:R96"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -6089,7 +8202,7 @@
         <v>43906</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="4"/>
@@ -6274,16 +8387,16 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
     </row>
-    <row r="11" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" ht="27" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B11" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C11" s="8"/>
-      <c r="D11" s="12" t="s">
-        <v>24</v>
+      <c r="D11" s="34" t="s">
+        <v>30</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="4"/>
@@ -6300,16 +8413,16 @@
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
     </row>
-    <row r="12" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
-        <v>25</v>
+    <row r="12" spans="1:18" ht="94.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="33" t="s">
+        <v>29</v>
       </c>
       <c r="B12" s="7">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="C12" s="8"/>
-      <c r="D12" s="12" t="s">
-        <v>26</v>
+      <c r="D12" s="34" t="s">
+        <v>31</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="4"/>
@@ -6326,16 +8439,17 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
     </row>
-    <row r="13" spans="1:18" ht="27" x14ac:dyDescent="0.3">
-      <c r="A13" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="14">
-        <f>SUM(B3:B12)</f>
-        <v>21</v>
-      </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
+    <row r="13" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="34" t="s">
+        <v>33</v>
+      </c>
       <c r="E13" s="10"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
@@ -6351,11 +8465,16 @@
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
     </row>
-    <row r="14" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
+    <row r="14" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="14">
+        <f>SUM(B3:B13)</f>
+        <v>21</v>
+      </c>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
       <c r="E14" s="10"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
@@ -6371,15 +8490,11 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
     </row>
-    <row r="15" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="2">
-        <v>2</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
+    <row r="15" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
       <c r="E15" s="10"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
@@ -6395,17 +8510,15 @@
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
     </row>
-    <row r="16" spans="1:18" ht="15" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
+    <row r="16" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="2">
         <v>2</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
       <c r="E16" s="10"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
@@ -6421,11 +8534,17 @@
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
     </row>
-    <row r="17" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A17" s="17"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="9"/>
+    <row r="17" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="E17" s="10"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
@@ -6441,11 +8560,19 @@
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
     </row>
-    <row r="18" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
+    <row r="18" spans="1:18" ht="54" x14ac:dyDescent="0.3">
+      <c r="A18" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="7">
+        <v>2</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>37</v>
+      </c>
       <c r="E18" s="10"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
@@ -6462,10 +8589,18 @@
       <c r="R18" s="4"/>
     </row>
     <row r="19" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
+      <c r="A19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="7">
+        <v>4</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>57</v>
+      </c>
       <c r="E19" s="10"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
@@ -6482,10 +8617,18 @@
       <c r="R19" s="4"/>
     </row>
     <row r="20" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
+      <c r="A20" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="7">
+        <v>2</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>60</v>
+      </c>
       <c r="E20" s="10"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
@@ -6501,11 +8644,19 @@
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
     </row>
-    <row r="21" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
+    <row r="21" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="7">
+        <v>1</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>62</v>
+      </c>
       <c r="E21" s="10"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
@@ -6522,10 +8673,18 @@
       <c r="R21" s="4"/>
     </row>
     <row r="22" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
+      <c r="A22" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>65</v>
+      </c>
       <c r="E22" s="10"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
@@ -6542,10 +8701,18 @@
       <c r="R22" s="4"/>
     </row>
     <row r="23" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
+      <c r="A23" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="7">
+        <v>1</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>66</v>
+      </c>
       <c r="E23" s="10"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
@@ -6561,11 +8728,19 @@
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
     </row>
-    <row r="24" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
+    <row r="24" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>69</v>
+      </c>
       <c r="E24" s="10"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
@@ -6741,16 +8916,11 @@
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
     </row>
-    <row r="33" spans="1:18" ht="27" x14ac:dyDescent="0.3">
-      <c r="A33" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B33" s="14">
-        <f>SUM(B17:B32)</f>
-        <v>0</v>
-      </c>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
+    <row r="33" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
       <c r="E33" s="10"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
@@ -6766,11 +8936,16 @@
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
     </row>
-    <row r="34" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A34" s="16"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
+    <row r="34" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="14">
+        <f>SUM(B18:B33)</f>
+        <v>18</v>
+      </c>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
       <c r="E34" s="10"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
@@ -6786,15 +8961,11 @@
       <c r="Q34" s="4"/>
       <c r="R34" s="4"/>
     </row>
-    <row r="35" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B35" s="2">
-        <v>3</v>
-      </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
+    <row r="35" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="16"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
       <c r="E35" s="10"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
@@ -6810,17 +8981,15 @@
       <c r="Q35" s="4"/>
       <c r="R35" s="4"/>
     </row>
-    <row r="36" spans="1:18" ht="15" x14ac:dyDescent="0.3">
-      <c r="A36" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B36" s="6" t="s">
+    <row r="36" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="2">
         <v>3</v>
       </c>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
       <c r="E36" s="10"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
@@ -6836,11 +9005,17 @@
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
     </row>
-    <row r="37" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="20"/>
+    <row r="37" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="E37" s="10"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
@@ -6860,7 +9035,7 @@
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="21"/>
-      <c r="D38" s="9"/>
+      <c r="D38" s="20"/>
       <c r="E38" s="10"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
@@ -6879,7 +9054,7 @@
     <row r="39" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
-      <c r="C39" s="22"/>
+      <c r="C39" s="21"/>
       <c r="D39" s="9"/>
       <c r="E39" s="10"/>
       <c r="F39" s="4"/>
@@ -6899,7 +9074,7 @@
     <row r="40" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
-      <c r="C40" s="9"/>
+      <c r="C40" s="22"/>
       <c r="D40" s="9"/>
       <c r="E40" s="10"/>
       <c r="F40" s="4"/>
@@ -6977,10 +9152,10 @@
       <c r="R43" s="4"/>
     </row>
     <row r="44" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A44" s="23"/>
-      <c r="B44" s="23"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24"/>
+      <c r="A44" s="7"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
       <c r="E44" s="10"/>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
@@ -6996,16 +9171,11 @@
       <c r="Q44" s="4"/>
       <c r="R44" s="4"/>
     </row>
-    <row r="45" spans="1:18" ht="27" x14ac:dyDescent="0.3">
-      <c r="A45" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B45" s="14">
-        <f>SUM(B37:B44)</f>
-        <v>0</v>
-      </c>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
+    <row r="45" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="23"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
       <c r="E45" s="10"/>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
@@ -7021,11 +9191,16 @@
       <c r="Q45" s="4"/>
       <c r="R45" s="4"/>
     </row>
-    <row r="46" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A46" s="16"/>
-      <c r="B46" s="16"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
+    <row r="46" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B46" s="14">
+        <f>SUM(B38:B45)</f>
+        <v>0</v>
+      </c>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
       <c r="E46" s="10"/>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
@@ -7041,15 +9216,11 @@
       <c r="Q46" s="4"/>
       <c r="R46" s="4"/>
     </row>
-    <row r="47" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47" s="2">
-        <v>4</v>
-      </c>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
+    <row r="47" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="16"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
       <c r="E47" s="10"/>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
@@ -7065,17 +9236,15 @@
       <c r="Q47" s="4"/>
       <c r="R47" s="4"/>
     </row>
-    <row r="48" spans="1:18" ht="15" x14ac:dyDescent="0.3">
-      <c r="A48" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5" t="s">
-        <v>5</v>
-      </c>
+    <row r="48" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" s="2">
+        <v>4</v>
+      </c>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
       <c r="E48" s="10"/>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
@@ -7091,11 +9260,17 @@
       <c r="Q48" s="4"/>
       <c r="R48" s="4"/>
     </row>
-    <row r="49" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A49" s="19"/>
-      <c r="B49" s="19"/>
-      <c r="C49" s="20"/>
-      <c r="D49" s="20"/>
+    <row r="49" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="E49" s="10"/>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
@@ -7112,10 +9287,10 @@
       <c r="R49" s="4"/>
     </row>
     <row r="50" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A50" s="7"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
+      <c r="A50" s="19"/>
+      <c r="B50" s="19"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="20"/>
       <c r="E50" s="10"/>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
@@ -7212,10 +9387,10 @@
       <c r="R54" s="4"/>
     </row>
     <row r="55" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A55" s="25"/>
-      <c r="B55" s="25"/>
-      <c r="C55" s="26"/>
-      <c r="D55" s="26"/>
+      <c r="A55" s="7"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
       <c r="E55" s="10"/>
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
@@ -7292,10 +9467,10 @@
       <c r="R58" s="4"/>
     </row>
     <row r="59" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A59" s="23"/>
-      <c r="B59" s="23"/>
-      <c r="C59" s="24"/>
-      <c r="D59" s="24"/>
+      <c r="A59" s="25"/>
+      <c r="B59" s="25"/>
+      <c r="C59" s="26"/>
+      <c r="D59" s="26"/>
       <c r="E59" s="10"/>
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
@@ -7311,16 +9486,11 @@
       <c r="Q59" s="4"/>
       <c r="R59" s="4"/>
     </row>
-    <row r="60" spans="1:18" ht="27" x14ac:dyDescent="0.3">
-      <c r="A60" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B60" s="14">
-        <f>SUM(B49:B59)</f>
-        <v>0</v>
-      </c>
-      <c r="C60" s="15"/>
-      <c r="D60" s="15"/>
+    <row r="60" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="23"/>
+      <c r="B60" s="23"/>
+      <c r="C60" s="24"/>
+      <c r="D60" s="24"/>
       <c r="E60" s="10"/>
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
@@ -7336,11 +9506,16 @@
       <c r="Q60" s="4"/>
       <c r="R60" s="4"/>
     </row>
-    <row r="61" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A61" s="16"/>
-      <c r="B61" s="16"/>
-      <c r="C61" s="16"/>
-      <c r="D61" s="16"/>
+    <row r="61" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B61" s="14">
+        <f>SUM(B50:B60)</f>
+        <v>0</v>
+      </c>
+      <c r="C61" s="15"/>
+      <c r="D61" s="15"/>
       <c r="E61" s="10"/>
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
@@ -7356,15 +9531,11 @@
       <c r="Q61" s="4"/>
       <c r="R61" s="4"/>
     </row>
-    <row r="62" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B62" s="2">
-        <v>5</v>
-      </c>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
+    <row r="62" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="16"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="16"/>
+      <c r="D62" s="16"/>
       <c r="E62" s="10"/>
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
@@ -7380,17 +9551,15 @@
       <c r="Q62" s="4"/>
       <c r="R62" s="4"/>
     </row>
-    <row r="63" spans="1:18" ht="15" x14ac:dyDescent="0.3">
-      <c r="A63" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C63" s="5"/>
-      <c r="D63" s="5" t="s">
+    <row r="63" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B63" s="2">
         <v>5</v>
       </c>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
       <c r="E63" s="10"/>
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
@@ -7406,11 +9575,17 @@
       <c r="Q63" s="4"/>
       <c r="R63" s="4"/>
     </row>
-    <row r="64" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A64" s="19"/>
-      <c r="B64" s="19"/>
-      <c r="C64" s="20"/>
-      <c r="D64" s="20"/>
+    <row r="64" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="E64" s="10"/>
       <c r="F64" s="4"/>
       <c r="G64" s="4"/>
@@ -7427,10 +9602,10 @@
       <c r="R64" s="4"/>
     </row>
     <row r="65" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A65" s="7"/>
-      <c r="B65" s="7"/>
-      <c r="C65" s="9"/>
-      <c r="D65" s="9"/>
+      <c r="A65" s="19"/>
+      <c r="B65" s="19"/>
+      <c r="C65" s="20"/>
+      <c r="D65" s="20"/>
       <c r="E65" s="10"/>
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
@@ -7507,10 +9682,10 @@
       <c r="R68" s="4"/>
     </row>
     <row r="69" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A69" s="23"/>
-      <c r="B69" s="23"/>
-      <c r="C69" s="24"/>
-      <c r="D69" s="24"/>
+      <c r="A69" s="7"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
       <c r="E69" s="10"/>
       <c r="F69" s="4"/>
       <c r="G69" s="4"/>
@@ -7526,16 +9701,11 @@
       <c r="Q69" s="4"/>
       <c r="R69" s="4"/>
     </row>
-    <row r="70" spans="1:18" ht="27" x14ac:dyDescent="0.3">
-      <c r="A70" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B70" s="14">
-        <f>SUM(B64:B69)</f>
-        <v>0</v>
-      </c>
-      <c r="C70" s="15"/>
-      <c r="D70" s="15"/>
+    <row r="70" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="23"/>
+      <c r="B70" s="23"/>
+      <c r="C70" s="24"/>
+      <c r="D70" s="24"/>
       <c r="E70" s="10"/>
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
@@ -7551,11 +9721,16 @@
       <c r="Q70" s="4"/>
       <c r="R70" s="4"/>
     </row>
-    <row r="71" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A71" s="16"/>
-      <c r="B71" s="16"/>
-      <c r="C71" s="16"/>
-      <c r="D71" s="16"/>
+    <row r="71" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B71" s="14">
+        <f>SUM(B65:B70)</f>
+        <v>0</v>
+      </c>
+      <c r="C71" s="15"/>
+      <c r="D71" s="15"/>
       <c r="E71" s="10"/>
       <c r="F71" s="4"/>
       <c r="G71" s="4"/>
@@ -7571,15 +9746,11 @@
       <c r="Q71" s="4"/>
       <c r="R71" s="4"/>
     </row>
-    <row r="72" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A72" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B72" s="2">
-        <v>6</v>
-      </c>
-      <c r="C72" s="3"/>
-      <c r="D72" s="3"/>
+    <row r="72" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="16"/>
+      <c r="B72" s="16"/>
+      <c r="C72" s="16"/>
+      <c r="D72" s="16"/>
       <c r="E72" s="10"/>
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
@@ -7595,17 +9766,15 @@
       <c r="Q72" s="4"/>
       <c r="R72" s="4"/>
     </row>
-    <row r="73" spans="1:18" ht="15" x14ac:dyDescent="0.3">
-      <c r="A73" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B73" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C73" s="5"/>
-      <c r="D73" s="5" t="s">
-        <v>5</v>
-      </c>
+    <row r="73" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73" s="2">
+        <v>6</v>
+      </c>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
       <c r="E73" s="10"/>
       <c r="F73" s="4"/>
       <c r="G73" s="4"/>
@@ -7621,11 +9790,17 @@
       <c r="Q73" s="4"/>
       <c r="R73" s="4"/>
     </row>
-    <row r="74" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A74" s="19"/>
-      <c r="B74" s="19"/>
-      <c r="C74" s="20"/>
-      <c r="D74" s="20"/>
+    <row r="74" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="E74" s="10"/>
       <c r="F74" s="4"/>
       <c r="G74" s="4"/>
@@ -7642,10 +9817,10 @@
       <c r="R74" s="4"/>
     </row>
     <row r="75" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A75" s="7"/>
-      <c r="B75" s="7"/>
-      <c r="C75" s="9"/>
-      <c r="D75" s="9"/>
+      <c r="A75" s="19"/>
+      <c r="B75" s="19"/>
+      <c r="C75" s="20"/>
+      <c r="D75" s="20"/>
       <c r="E75" s="10"/>
       <c r="F75" s="4"/>
       <c r="G75" s="4"/>
@@ -7762,10 +9937,10 @@
       <c r="R80" s="4"/>
     </row>
     <row r="81" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A81" s="23"/>
-      <c r="B81" s="23"/>
-      <c r="C81" s="24"/>
-      <c r="D81" s="24"/>
+      <c r="A81" s="7"/>
+      <c r="B81" s="7"/>
+      <c r="C81" s="9"/>
+      <c r="D81" s="9"/>
       <c r="E81" s="10"/>
       <c r="F81" s="4"/>
       <c r="G81" s="4"/>
@@ -7781,16 +9956,11 @@
       <c r="Q81" s="4"/>
       <c r="R81" s="4"/>
     </row>
-    <row r="82" spans="1:18" ht="27" x14ac:dyDescent="0.3">
-      <c r="A82" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B82" s="14">
-        <f>SUM(B74:B81)</f>
-        <v>0</v>
-      </c>
-      <c r="C82" s="15"/>
-      <c r="D82" s="15"/>
+    <row r="82" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="23"/>
+      <c r="B82" s="23"/>
+      <c r="C82" s="24"/>
+      <c r="D82" s="24"/>
       <c r="E82" s="10"/>
       <c r="F82" s="4"/>
       <c r="G82" s="4"/>
@@ -7806,11 +9976,16 @@
       <c r="Q82" s="4"/>
       <c r="R82" s="4"/>
     </row>
-    <row r="83" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A83" s="16"/>
-      <c r="B83" s="16"/>
-      <c r="C83" s="16"/>
-      <c r="D83" s="16"/>
+    <row r="83" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B83" s="14">
+        <f>SUM(B75:B82)</f>
+        <v>0</v>
+      </c>
+      <c r="C83" s="15"/>
+      <c r="D83" s="15"/>
       <c r="E83" s="10"/>
       <c r="F83" s="4"/>
       <c r="G83" s="4"/>
@@ -7827,10 +10002,10 @@
       <c r="R83" s="4"/>
     </row>
     <row r="84" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A84" s="27"/>
-      <c r="B84" s="27"/>
-      <c r="C84" s="27"/>
-      <c r="D84" s="27"/>
+      <c r="A84" s="16"/>
+      <c r="B84" s="16"/>
+      <c r="C84" s="16"/>
+      <c r="D84" s="16"/>
       <c r="E84" s="10"/>
       <c r="F84" s="4"/>
       <c r="G84" s="4"/>
@@ -8047,2167 +10222,6 @@
       <c r="R94" s="4"/>
     </row>
     <row r="95" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A95" s="28"/>
-      <c r="B95" s="28"/>
-      <c r="C95" s="28"/>
-      <c r="D95" s="28"/>
-      <c r="E95" s="10"/>
-      <c r="F95" s="4"/>
-      <c r="G95" s="4"/>
-      <c r="H95" s="4"/>
-      <c r="I95" s="4"/>
-      <c r="J95" s="4"/>
-      <c r="K95" s="4"/>
-      <c r="L95" s="4"/>
-      <c r="M95" s="4"/>
-      <c r="N95" s="4"/>
-      <c r="O95" s="4"/>
-      <c r="P95" s="4"/>
-      <c r="Q95" s="4"/>
-      <c r="R95" s="4"/>
-    </row>
-  </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" prompt="Durée en 1/3 de période - Le nombre doit être de type entier" sqref="B74:B81 B17:B32 B37:B38 B40:B44 B49:B59 B64:B69 B3:B8 B10:B12" xr:uid="{76F8C2A5-22FC-42B6-BF5F-FD1899EE52B8}">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" prompt="Dépassement de durée - Le nombre de minutes introduites dépasse la durée d'une période. Veuillez confirmer ... Le calcul du total sera juste dans tous les cas._x000a_" sqref="B13 B33 B45 B60 B70 B82" xr:uid="{BD151BE4-B931-4CBD-823B-9C753DC07C8D}">
-      <formula1>0</formula1>
-      <formula2>DureePeriode-1</formula2>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F222774-5003-490D-9078-78D1F6F89A4A}">
-  <dimension ref="A1:R96"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="78.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-    </row>
-    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-    </row>
-    <row r="3" spans="1:18" ht="94.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="7">
-        <v>1</v>
-      </c>
-      <c r="C3" s="8">
-        <v>43906</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-    </row>
-    <row r="4" spans="1:18" ht="54" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="7">
-        <v>2</v>
-      </c>
-      <c r="C4" s="8">
-        <v>43906</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-    </row>
-    <row r="5" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="7">
-        <v>2</v>
-      </c>
-      <c r="C5" s="8">
-        <v>43907</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-    </row>
-    <row r="6" spans="1:18" ht="81" x14ac:dyDescent="0.3">
-      <c r="A6" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="25">
-        <v>2</v>
-      </c>
-      <c r="C6" s="8">
-        <v>43908</v>
-      </c>
-      <c r="D6" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-    </row>
-    <row r="7" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="29">
-        <v>2</v>
-      </c>
-      <c r="C7" s="11">
-        <v>43909</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-    </row>
-    <row r="8" spans="1:18" ht="108" x14ac:dyDescent="0.3">
-      <c r="A8" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="29">
-        <v>2</v>
-      </c>
-      <c r="C8" s="11">
-        <v>43910</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-    </row>
-    <row r="9" spans="1:18" ht="94.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="31">
-        <v>3</v>
-      </c>
-      <c r="C9" s="11">
-        <v>43911</v>
-      </c>
-      <c r="D9" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-    </row>
-    <row r="10" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="7">
-        <v>1</v>
-      </c>
-      <c r="C10" s="8">
-        <v>43913</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-    </row>
-    <row r="11" spans="1:18" ht="27" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="7">
-        <v>3</v>
-      </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-    </row>
-    <row r="12" spans="1:18" ht="94.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-    </row>
-    <row r="13" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="7">
-        <v>2.5</v>
-      </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-    </row>
-    <row r="14" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="14">
-        <f>SUM(B3:B13)</f>
-        <v>21</v>
-      </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-    </row>
-    <row r="15" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-    </row>
-    <row r="16" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="2">
-        <v>2</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-    </row>
-    <row r="17" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-    </row>
-    <row r="18" spans="1:18" ht="54" x14ac:dyDescent="0.3">
-      <c r="A18" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="7">
-        <v>2</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-    </row>
-    <row r="19" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="7">
-        <v>4</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-    </row>
-    <row r="20" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B20" s="7">
-        <v>2</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-    </row>
-    <row r="21" spans="1:18" ht="27" x14ac:dyDescent="0.3">
-      <c r="A21" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B21" s="7">
-        <v>1</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
-    </row>
-    <row r="22" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A22" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B22" s="7">
-        <v>3.5</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
-    </row>
-    <row r="23" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A23" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B23" s="7">
-        <v>1</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="E23" s="10"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="4"/>
-    </row>
-    <row r="24" spans="1:18" ht="27" x14ac:dyDescent="0.3">
-      <c r="A24" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B24" s="7">
-        <v>4.5</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E24" s="10"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="4"/>
-    </row>
-    <row r="25" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="4"/>
-    </row>
-    <row r="26" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="4"/>
-    </row>
-    <row r="27" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="4"/>
-    </row>
-    <row r="28" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="4"/>
-    </row>
-    <row r="29" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="4"/>
-    </row>
-    <row r="30" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
-      <c r="P30" s="4"/>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="4"/>
-    </row>
-    <row r="31" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
-      <c r="O31" s="4"/>
-      <c r="P31" s="4"/>
-      <c r="Q31" s="4"/>
-      <c r="R31" s="4"/>
-    </row>
-    <row r="32" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
-      <c r="O32" s="4"/>
-      <c r="P32" s="4"/>
-      <c r="Q32" s="4"/>
-      <c r="R32" s="4"/>
-    </row>
-    <row r="33" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
-      <c r="N33" s="4"/>
-      <c r="O33" s="4"/>
-      <c r="P33" s="4"/>
-      <c r="Q33" s="4"/>
-      <c r="R33" s="4"/>
-    </row>
-    <row r="34" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B34" s="14">
-        <f>SUM(B18:B33)</f>
-        <v>18</v>
-      </c>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4"/>
-      <c r="N34" s="4"/>
-      <c r="O34" s="4"/>
-      <c r="P34" s="4"/>
-      <c r="Q34" s="4"/>
-      <c r="R34" s="4"/>
-    </row>
-    <row r="35" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="16"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4"/>
-      <c r="N35" s="4"/>
-      <c r="O35" s="4"/>
-      <c r="P35" s="4"/>
-      <c r="Q35" s="4"/>
-      <c r="R35" s="4"/>
-    </row>
-    <row r="36" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B36" s="2">
-        <v>3</v>
-      </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
-      <c r="M36" s="4"/>
-      <c r="N36" s="4"/>
-      <c r="O36" s="4"/>
-      <c r="P36" s="4"/>
-      <c r="Q36" s="4"/>
-      <c r="R36" s="4"/>
-    </row>
-    <row r="37" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E37" s="10"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
-      <c r="M37" s="4"/>
-      <c r="N37" s="4"/>
-      <c r="O37" s="4"/>
-      <c r="P37" s="4"/>
-      <c r="Q37" s="4"/>
-      <c r="R37" s="4"/>
-    </row>
-    <row r="38" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
-      <c r="M38" s="4"/>
-      <c r="N38" s="4"/>
-      <c r="O38" s="4"/>
-      <c r="P38" s="4"/>
-      <c r="Q38" s="4"/>
-      <c r="R38" s="4"/>
-    </row>
-    <row r="39" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
-      <c r="L39" s="4"/>
-      <c r="M39" s="4"/>
-      <c r="N39" s="4"/>
-      <c r="O39" s="4"/>
-      <c r="P39" s="4"/>
-      <c r="Q39" s="4"/>
-      <c r="R39" s="4"/>
-    </row>
-    <row r="40" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A40" s="7"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="4"/>
-      <c r="L40" s="4"/>
-      <c r="M40" s="4"/>
-      <c r="N40" s="4"/>
-      <c r="O40" s="4"/>
-      <c r="P40" s="4"/>
-      <c r="Q40" s="4"/>
-      <c r="R40" s="4"/>
-    </row>
-    <row r="41" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A41" s="7"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
-      <c r="M41" s="4"/>
-      <c r="N41" s="4"/>
-      <c r="O41" s="4"/>
-      <c r="P41" s="4"/>
-      <c r="Q41" s="4"/>
-      <c r="R41" s="4"/>
-    </row>
-    <row r="42" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A42" s="7"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
-      <c r="L42" s="4"/>
-      <c r="M42" s="4"/>
-      <c r="N42" s="4"/>
-      <c r="O42" s="4"/>
-      <c r="P42" s="4"/>
-      <c r="Q42" s="4"/>
-      <c r="R42" s="4"/>
-    </row>
-    <row r="43" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A43" s="7"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="4"/>
-      <c r="L43" s="4"/>
-      <c r="M43" s="4"/>
-      <c r="N43" s="4"/>
-      <c r="O43" s="4"/>
-      <c r="P43" s="4"/>
-      <c r="Q43" s="4"/>
-      <c r="R43" s="4"/>
-    </row>
-    <row r="44" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A44" s="7"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
-      <c r="K44" s="4"/>
-      <c r="L44" s="4"/>
-      <c r="M44" s="4"/>
-      <c r="N44" s="4"/>
-      <c r="O44" s="4"/>
-      <c r="P44" s="4"/>
-      <c r="Q44" s="4"/>
-      <c r="R44" s="4"/>
-    </row>
-    <row r="45" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="23"/>
-      <c r="B45" s="23"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
-      <c r="K45" s="4"/>
-      <c r="L45" s="4"/>
-      <c r="M45" s="4"/>
-      <c r="N45" s="4"/>
-      <c r="O45" s="4"/>
-      <c r="P45" s="4"/>
-      <c r="Q45" s="4"/>
-      <c r="R45" s="4"/>
-    </row>
-    <row r="46" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B46" s="14">
-        <f>SUM(B38:B45)</f>
-        <v>0</v>
-      </c>
-      <c r="C46" s="15"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
-      <c r="K46" s="4"/>
-      <c r="L46" s="4"/>
-      <c r="M46" s="4"/>
-      <c r="N46" s="4"/>
-      <c r="O46" s="4"/>
-      <c r="P46" s="4"/>
-      <c r="Q46" s="4"/>
-      <c r="R46" s="4"/>
-    </row>
-    <row r="47" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="16"/>
-      <c r="B47" s="16"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
-      <c r="K47" s="4"/>
-      <c r="L47" s="4"/>
-      <c r="M47" s="4"/>
-      <c r="N47" s="4"/>
-      <c r="O47" s="4"/>
-      <c r="P47" s="4"/>
-      <c r="Q47" s="4"/>
-      <c r="R47" s="4"/>
-    </row>
-    <row r="48" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B48" s="2">
-        <v>4</v>
-      </c>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
-      <c r="J48" s="4"/>
-      <c r="K48" s="4"/>
-      <c r="L48" s="4"/>
-      <c r="M48" s="4"/>
-      <c r="N48" s="4"/>
-      <c r="O48" s="4"/>
-      <c r="P48" s="4"/>
-      <c r="Q48" s="4"/>
-      <c r="R48" s="4"/>
-    </row>
-    <row r="49" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E49" s="10"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="4"/>
-      <c r="J49" s="4"/>
-      <c r="K49" s="4"/>
-      <c r="L49" s="4"/>
-      <c r="M49" s="4"/>
-      <c r="N49" s="4"/>
-      <c r="O49" s="4"/>
-      <c r="P49" s="4"/>
-      <c r="Q49" s="4"/>
-      <c r="R49" s="4"/>
-    </row>
-    <row r="50" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A50" s="19"/>
-      <c r="B50" s="19"/>
-      <c r="C50" s="20"/>
-      <c r="D50" s="20"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
-      <c r="I50" s="4"/>
-      <c r="J50" s="4"/>
-      <c r="K50" s="4"/>
-      <c r="L50" s="4"/>
-      <c r="M50" s="4"/>
-      <c r="N50" s="4"/>
-      <c r="O50" s="4"/>
-      <c r="P50" s="4"/>
-      <c r="Q50" s="4"/>
-      <c r="R50" s="4"/>
-    </row>
-    <row r="51" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A51" s="7"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-      <c r="I51" s="4"/>
-      <c r="J51" s="4"/>
-      <c r="K51" s="4"/>
-      <c r="L51" s="4"/>
-      <c r="M51" s="4"/>
-      <c r="N51" s="4"/>
-      <c r="O51" s="4"/>
-      <c r="P51" s="4"/>
-      <c r="Q51" s="4"/>
-      <c r="R51" s="4"/>
-    </row>
-    <row r="52" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A52" s="7"/>
-      <c r="B52" s="7"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
-      <c r="I52" s="4"/>
-      <c r="J52" s="4"/>
-      <c r="K52" s="4"/>
-      <c r="L52" s="4"/>
-      <c r="M52" s="4"/>
-      <c r="N52" s="4"/>
-      <c r="O52" s="4"/>
-      <c r="P52" s="4"/>
-      <c r="Q52" s="4"/>
-      <c r="R52" s="4"/>
-    </row>
-    <row r="53" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A53" s="7"/>
-      <c r="B53" s="7"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="4"/>
-      <c r="I53" s="4"/>
-      <c r="J53" s="4"/>
-      <c r="K53" s="4"/>
-      <c r="L53" s="4"/>
-      <c r="M53" s="4"/>
-      <c r="N53" s="4"/>
-      <c r="O53" s="4"/>
-      <c r="P53" s="4"/>
-      <c r="Q53" s="4"/>
-      <c r="R53" s="4"/>
-    </row>
-    <row r="54" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A54" s="7"/>
-      <c r="B54" s="7"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
-      <c r="I54" s="4"/>
-      <c r="J54" s="4"/>
-      <c r="K54" s="4"/>
-      <c r="L54" s="4"/>
-      <c r="M54" s="4"/>
-      <c r="N54" s="4"/>
-      <c r="O54" s="4"/>
-      <c r="P54" s="4"/>
-      <c r="Q54" s="4"/>
-      <c r="R54" s="4"/>
-    </row>
-    <row r="55" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A55" s="7"/>
-      <c r="B55" s="7"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
-      <c r="I55" s="4"/>
-      <c r="J55" s="4"/>
-      <c r="K55" s="4"/>
-      <c r="L55" s="4"/>
-      <c r="M55" s="4"/>
-      <c r="N55" s="4"/>
-      <c r="O55" s="4"/>
-      <c r="P55" s="4"/>
-      <c r="Q55" s="4"/>
-      <c r="R55" s="4"/>
-    </row>
-    <row r="56" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A56" s="25"/>
-      <c r="B56" s="25"/>
-      <c r="C56" s="26"/>
-      <c r="D56" s="26"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="4"/>
-      <c r="G56" s="4"/>
-      <c r="H56" s="4"/>
-      <c r="I56" s="4"/>
-      <c r="J56" s="4"/>
-      <c r="K56" s="4"/>
-      <c r="L56" s="4"/>
-      <c r="M56" s="4"/>
-      <c r="N56" s="4"/>
-      <c r="O56" s="4"/>
-      <c r="P56" s="4"/>
-      <c r="Q56" s="4"/>
-      <c r="R56" s="4"/>
-    </row>
-    <row r="57" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A57" s="25"/>
-      <c r="B57" s="25"/>
-      <c r="C57" s="26"/>
-      <c r="D57" s="26"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
-      <c r="I57" s="4"/>
-      <c r="J57" s="4"/>
-      <c r="K57" s="4"/>
-      <c r="L57" s="4"/>
-      <c r="M57" s="4"/>
-      <c r="N57" s="4"/>
-      <c r="O57" s="4"/>
-      <c r="P57" s="4"/>
-      <c r="Q57" s="4"/>
-      <c r="R57" s="4"/>
-    </row>
-    <row r="58" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A58" s="25"/>
-      <c r="B58" s="25"/>
-      <c r="C58" s="26"/>
-      <c r="D58" s="26"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4"/>
-      <c r="I58" s="4"/>
-      <c r="J58" s="4"/>
-      <c r="K58" s="4"/>
-      <c r="L58" s="4"/>
-      <c r="M58" s="4"/>
-      <c r="N58" s="4"/>
-      <c r="O58" s="4"/>
-      <c r="P58" s="4"/>
-      <c r="Q58" s="4"/>
-      <c r="R58" s="4"/>
-    </row>
-    <row r="59" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A59" s="25"/>
-      <c r="B59" s="25"/>
-      <c r="C59" s="26"/>
-      <c r="D59" s="26"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
-      <c r="H59" s="4"/>
-      <c r="I59" s="4"/>
-      <c r="J59" s="4"/>
-      <c r="K59" s="4"/>
-      <c r="L59" s="4"/>
-      <c r="M59" s="4"/>
-      <c r="N59" s="4"/>
-      <c r="O59" s="4"/>
-      <c r="P59" s="4"/>
-      <c r="Q59" s="4"/>
-      <c r="R59" s="4"/>
-    </row>
-    <row r="60" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="23"/>
-      <c r="B60" s="23"/>
-      <c r="C60" s="24"/>
-      <c r="D60" s="24"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="4"/>
-      <c r="G60" s="4"/>
-      <c r="H60" s="4"/>
-      <c r="I60" s="4"/>
-      <c r="J60" s="4"/>
-      <c r="K60" s="4"/>
-      <c r="L60" s="4"/>
-      <c r="M60" s="4"/>
-      <c r="N60" s="4"/>
-      <c r="O60" s="4"/>
-      <c r="P60" s="4"/>
-      <c r="Q60" s="4"/>
-      <c r="R60" s="4"/>
-    </row>
-    <row r="61" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B61" s="14">
-        <f>SUM(B50:B60)</f>
-        <v>0</v>
-      </c>
-      <c r="C61" s="15"/>
-      <c r="D61" s="15"/>
-      <c r="E61" s="10"/>
-      <c r="F61" s="4"/>
-      <c r="G61" s="4"/>
-      <c r="H61" s="4"/>
-      <c r="I61" s="4"/>
-      <c r="J61" s="4"/>
-      <c r="K61" s="4"/>
-      <c r="L61" s="4"/>
-      <c r="M61" s="4"/>
-      <c r="N61" s="4"/>
-      <c r="O61" s="4"/>
-      <c r="P61" s="4"/>
-      <c r="Q61" s="4"/>
-      <c r="R61" s="4"/>
-    </row>
-    <row r="62" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="16"/>
-      <c r="B62" s="16"/>
-      <c r="C62" s="16"/>
-      <c r="D62" s="16"/>
-      <c r="E62" s="10"/>
-      <c r="F62" s="4"/>
-      <c r="G62" s="4"/>
-      <c r="H62" s="4"/>
-      <c r="I62" s="4"/>
-      <c r="J62" s="4"/>
-      <c r="K62" s="4"/>
-      <c r="L62" s="4"/>
-      <c r="M62" s="4"/>
-      <c r="N62" s="4"/>
-      <c r="O62" s="4"/>
-      <c r="P62" s="4"/>
-      <c r="Q62" s="4"/>
-      <c r="R62" s="4"/>
-    </row>
-    <row r="63" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B63" s="2">
-        <v>5</v>
-      </c>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="10"/>
-      <c r="F63" s="4"/>
-      <c r="G63" s="4"/>
-      <c r="H63" s="4"/>
-      <c r="I63" s="4"/>
-      <c r="J63" s="4"/>
-      <c r="K63" s="4"/>
-      <c r="L63" s="4"/>
-      <c r="M63" s="4"/>
-      <c r="N63" s="4"/>
-      <c r="O63" s="4"/>
-      <c r="P63" s="4"/>
-      <c r="Q63" s="4"/>
-      <c r="R63" s="4"/>
-    </row>
-    <row r="64" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C64" s="5"/>
-      <c r="D64" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E64" s="10"/>
-      <c r="F64" s="4"/>
-      <c r="G64" s="4"/>
-      <c r="H64" s="4"/>
-      <c r="I64" s="4"/>
-      <c r="J64" s="4"/>
-      <c r="K64" s="4"/>
-      <c r="L64" s="4"/>
-      <c r="M64" s="4"/>
-      <c r="N64" s="4"/>
-      <c r="O64" s="4"/>
-      <c r="P64" s="4"/>
-      <c r="Q64" s="4"/>
-      <c r="R64" s="4"/>
-    </row>
-    <row r="65" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A65" s="19"/>
-      <c r="B65" s="19"/>
-      <c r="C65" s="20"/>
-      <c r="D65" s="20"/>
-      <c r="E65" s="10"/>
-      <c r="F65" s="4"/>
-      <c r="G65" s="4"/>
-      <c r="H65" s="4"/>
-      <c r="I65" s="4"/>
-      <c r="J65" s="4"/>
-      <c r="K65" s="4"/>
-      <c r="L65" s="4"/>
-      <c r="M65" s="4"/>
-      <c r="N65" s="4"/>
-      <c r="O65" s="4"/>
-      <c r="P65" s="4"/>
-      <c r="Q65" s="4"/>
-      <c r="R65" s="4"/>
-    </row>
-    <row r="66" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A66" s="7"/>
-      <c r="B66" s="7"/>
-      <c r="C66" s="9"/>
-      <c r="D66" s="9"/>
-      <c r="E66" s="10"/>
-      <c r="F66" s="4"/>
-      <c r="G66" s="4"/>
-      <c r="H66" s="4"/>
-      <c r="I66" s="4"/>
-      <c r="J66" s="4"/>
-      <c r="K66" s="4"/>
-      <c r="L66" s="4"/>
-      <c r="M66" s="4"/>
-      <c r="N66" s="4"/>
-      <c r="O66" s="4"/>
-      <c r="P66" s="4"/>
-      <c r="Q66" s="4"/>
-      <c r="R66" s="4"/>
-    </row>
-    <row r="67" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A67" s="7"/>
-      <c r="B67" s="7"/>
-      <c r="C67" s="9"/>
-      <c r="D67" s="9"/>
-      <c r="E67" s="10"/>
-      <c r="F67" s="4"/>
-      <c r="G67" s="4"/>
-      <c r="H67" s="4"/>
-      <c r="I67" s="4"/>
-      <c r="J67" s="4"/>
-      <c r="K67" s="4"/>
-      <c r="L67" s="4"/>
-      <c r="M67" s="4"/>
-      <c r="N67" s="4"/>
-      <c r="O67" s="4"/>
-      <c r="P67" s="4"/>
-      <c r="Q67" s="4"/>
-      <c r="R67" s="4"/>
-    </row>
-    <row r="68" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A68" s="7"/>
-      <c r="B68" s="7"/>
-      <c r="C68" s="9"/>
-      <c r="D68" s="9"/>
-      <c r="E68" s="10"/>
-      <c r="F68" s="4"/>
-      <c r="G68" s="4"/>
-      <c r="H68" s="4"/>
-      <c r="I68" s="4"/>
-      <c r="J68" s="4"/>
-      <c r="K68" s="4"/>
-      <c r="L68" s="4"/>
-      <c r="M68" s="4"/>
-      <c r="N68" s="4"/>
-      <c r="O68" s="4"/>
-      <c r="P68" s="4"/>
-      <c r="Q68" s="4"/>
-      <c r="R68" s="4"/>
-    </row>
-    <row r="69" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A69" s="7"/>
-      <c r="B69" s="7"/>
-      <c r="C69" s="9"/>
-      <c r="D69" s="9"/>
-      <c r="E69" s="10"/>
-      <c r="F69" s="4"/>
-      <c r="G69" s="4"/>
-      <c r="H69" s="4"/>
-      <c r="I69" s="4"/>
-      <c r="J69" s="4"/>
-      <c r="K69" s="4"/>
-      <c r="L69" s="4"/>
-      <c r="M69" s="4"/>
-      <c r="N69" s="4"/>
-      <c r="O69" s="4"/>
-      <c r="P69" s="4"/>
-      <c r="Q69" s="4"/>
-      <c r="R69" s="4"/>
-    </row>
-    <row r="70" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="23"/>
-      <c r="B70" s="23"/>
-      <c r="C70" s="24"/>
-      <c r="D70" s="24"/>
-      <c r="E70" s="10"/>
-      <c r="F70" s="4"/>
-      <c r="G70" s="4"/>
-      <c r="H70" s="4"/>
-      <c r="I70" s="4"/>
-      <c r="J70" s="4"/>
-      <c r="K70" s="4"/>
-      <c r="L70" s="4"/>
-      <c r="M70" s="4"/>
-      <c r="N70" s="4"/>
-      <c r="O70" s="4"/>
-      <c r="P70" s="4"/>
-      <c r="Q70" s="4"/>
-      <c r="R70" s="4"/>
-    </row>
-    <row r="71" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B71" s="14">
-        <f>SUM(B65:B70)</f>
-        <v>0</v>
-      </c>
-      <c r="C71" s="15"/>
-      <c r="D71" s="15"/>
-      <c r="E71" s="10"/>
-      <c r="F71" s="4"/>
-      <c r="G71" s="4"/>
-      <c r="H71" s="4"/>
-      <c r="I71" s="4"/>
-      <c r="J71" s="4"/>
-      <c r="K71" s="4"/>
-      <c r="L71" s="4"/>
-      <c r="M71" s="4"/>
-      <c r="N71" s="4"/>
-      <c r="O71" s="4"/>
-      <c r="P71" s="4"/>
-      <c r="Q71" s="4"/>
-      <c r="R71" s="4"/>
-    </row>
-    <row r="72" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="16"/>
-      <c r="B72" s="16"/>
-      <c r="C72" s="16"/>
-      <c r="D72" s="16"/>
-      <c r="E72" s="10"/>
-      <c r="F72" s="4"/>
-      <c r="G72" s="4"/>
-      <c r="H72" s="4"/>
-      <c r="I72" s="4"/>
-      <c r="J72" s="4"/>
-      <c r="K72" s="4"/>
-      <c r="L72" s="4"/>
-      <c r="M72" s="4"/>
-      <c r="N72" s="4"/>
-      <c r="O72" s="4"/>
-      <c r="P72" s="4"/>
-      <c r="Q72" s="4"/>
-      <c r="R72" s="4"/>
-    </row>
-    <row r="73" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B73" s="2">
-        <v>6</v>
-      </c>
-      <c r="C73" s="3"/>
-      <c r="D73" s="3"/>
-      <c r="E73" s="10"/>
-      <c r="F73" s="4"/>
-      <c r="G73" s="4"/>
-      <c r="H73" s="4"/>
-      <c r="I73" s="4"/>
-      <c r="J73" s="4"/>
-      <c r="K73" s="4"/>
-      <c r="L73" s="4"/>
-      <c r="M73" s="4"/>
-      <c r="N73" s="4"/>
-      <c r="O73" s="4"/>
-      <c r="P73" s="4"/>
-      <c r="Q73" s="4"/>
-      <c r="R73" s="4"/>
-    </row>
-    <row r="74" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B74" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C74" s="5"/>
-      <c r="D74" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E74" s="10"/>
-      <c r="F74" s="4"/>
-      <c r="G74" s="4"/>
-      <c r="H74" s="4"/>
-      <c r="I74" s="4"/>
-      <c r="J74" s="4"/>
-      <c r="K74" s="4"/>
-      <c r="L74" s="4"/>
-      <c r="M74" s="4"/>
-      <c r="N74" s="4"/>
-      <c r="O74" s="4"/>
-      <c r="P74" s="4"/>
-      <c r="Q74" s="4"/>
-      <c r="R74" s="4"/>
-    </row>
-    <row r="75" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A75" s="19"/>
-      <c r="B75" s="19"/>
-      <c r="C75" s="20"/>
-      <c r="D75" s="20"/>
-      <c r="E75" s="10"/>
-      <c r="F75" s="4"/>
-      <c r="G75" s="4"/>
-      <c r="H75" s="4"/>
-      <c r="I75" s="4"/>
-      <c r="J75" s="4"/>
-      <c r="K75" s="4"/>
-      <c r="L75" s="4"/>
-      <c r="M75" s="4"/>
-      <c r="N75" s="4"/>
-      <c r="O75" s="4"/>
-      <c r="P75" s="4"/>
-      <c r="Q75" s="4"/>
-      <c r="R75" s="4"/>
-    </row>
-    <row r="76" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A76" s="7"/>
-      <c r="B76" s="7"/>
-      <c r="C76" s="9"/>
-      <c r="D76" s="9"/>
-      <c r="E76" s="10"/>
-      <c r="F76" s="4"/>
-      <c r="G76" s="4"/>
-      <c r="H76" s="4"/>
-      <c r="I76" s="4"/>
-      <c r="J76" s="4"/>
-      <c r="K76" s="4"/>
-      <c r="L76" s="4"/>
-      <c r="M76" s="4"/>
-      <c r="N76" s="4"/>
-      <c r="O76" s="4"/>
-      <c r="P76" s="4"/>
-      <c r="Q76" s="4"/>
-      <c r="R76" s="4"/>
-    </row>
-    <row r="77" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A77" s="7"/>
-      <c r="B77" s="7"/>
-      <c r="C77" s="9"/>
-      <c r="D77" s="9"/>
-      <c r="E77" s="10"/>
-      <c r="F77" s="4"/>
-      <c r="G77" s="4"/>
-      <c r="H77" s="4"/>
-      <c r="I77" s="4"/>
-      <c r="J77" s="4"/>
-      <c r="K77" s="4"/>
-      <c r="L77" s="4"/>
-      <c r="M77" s="4"/>
-      <c r="N77" s="4"/>
-      <c r="O77" s="4"/>
-      <c r="P77" s="4"/>
-      <c r="Q77" s="4"/>
-      <c r="R77" s="4"/>
-    </row>
-    <row r="78" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A78" s="7"/>
-      <c r="B78" s="7"/>
-      <c r="C78" s="9"/>
-      <c r="D78" s="9"/>
-      <c r="E78" s="10"/>
-      <c r="F78" s="4"/>
-      <c r="G78" s="4"/>
-      <c r="H78" s="4"/>
-      <c r="I78" s="4"/>
-      <c r="J78" s="4"/>
-      <c r="K78" s="4"/>
-      <c r="L78" s="4"/>
-      <c r="M78" s="4"/>
-      <c r="N78" s="4"/>
-      <c r="O78" s="4"/>
-      <c r="P78" s="4"/>
-      <c r="Q78" s="4"/>
-      <c r="R78" s="4"/>
-    </row>
-    <row r="79" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A79" s="7"/>
-      <c r="B79" s="7"/>
-      <c r="C79" s="9"/>
-      <c r="D79" s="9"/>
-      <c r="E79" s="10"/>
-      <c r="F79" s="4"/>
-      <c r="G79" s="4"/>
-      <c r="H79" s="4"/>
-      <c r="I79" s="4"/>
-      <c r="J79" s="4"/>
-      <c r="K79" s="4"/>
-      <c r="L79" s="4"/>
-      <c r="M79" s="4"/>
-      <c r="N79" s="4"/>
-      <c r="O79" s="4"/>
-      <c r="P79" s="4"/>
-      <c r="Q79" s="4"/>
-      <c r="R79" s="4"/>
-    </row>
-    <row r="80" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A80" s="7"/>
-      <c r="B80" s="7"/>
-      <c r="C80" s="9"/>
-      <c r="D80" s="9"/>
-      <c r="E80" s="10"/>
-      <c r="F80" s="4"/>
-      <c r="G80" s="4"/>
-      <c r="H80" s="4"/>
-      <c r="I80" s="4"/>
-      <c r="J80" s="4"/>
-      <c r="K80" s="4"/>
-      <c r="L80" s="4"/>
-      <c r="M80" s="4"/>
-      <c r="N80" s="4"/>
-      <c r="O80" s="4"/>
-      <c r="P80" s="4"/>
-      <c r="Q80" s="4"/>
-      <c r="R80" s="4"/>
-    </row>
-    <row r="81" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A81" s="7"/>
-      <c r="B81" s="7"/>
-      <c r="C81" s="9"/>
-      <c r="D81" s="9"/>
-      <c r="E81" s="10"/>
-      <c r="F81" s="4"/>
-      <c r="G81" s="4"/>
-      <c r="H81" s="4"/>
-      <c r="I81" s="4"/>
-      <c r="J81" s="4"/>
-      <c r="K81" s="4"/>
-      <c r="L81" s="4"/>
-      <c r="M81" s="4"/>
-      <c r="N81" s="4"/>
-      <c r="O81" s="4"/>
-      <c r="P81" s="4"/>
-      <c r="Q81" s="4"/>
-      <c r="R81" s="4"/>
-    </row>
-    <row r="82" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="23"/>
-      <c r="B82" s="23"/>
-      <c r="C82" s="24"/>
-      <c r="D82" s="24"/>
-      <c r="E82" s="10"/>
-      <c r="F82" s="4"/>
-      <c r="G82" s="4"/>
-      <c r="H82" s="4"/>
-      <c r="I82" s="4"/>
-      <c r="J82" s="4"/>
-      <c r="K82" s="4"/>
-      <c r="L82" s="4"/>
-      <c r="M82" s="4"/>
-      <c r="N82" s="4"/>
-      <c r="O82" s="4"/>
-      <c r="P82" s="4"/>
-      <c r="Q82" s="4"/>
-      <c r="R82" s="4"/>
-    </row>
-    <row r="83" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B83" s="14">
-        <f>SUM(B75:B82)</f>
-        <v>0</v>
-      </c>
-      <c r="C83" s="15"/>
-      <c r="D83" s="15"/>
-      <c r="E83" s="10"/>
-      <c r="F83" s="4"/>
-      <c r="G83" s="4"/>
-      <c r="H83" s="4"/>
-      <c r="I83" s="4"/>
-      <c r="J83" s="4"/>
-      <c r="K83" s="4"/>
-      <c r="L83" s="4"/>
-      <c r="M83" s="4"/>
-      <c r="N83" s="4"/>
-      <c r="O83" s="4"/>
-      <c r="P83" s="4"/>
-      <c r="Q83" s="4"/>
-      <c r="R83" s="4"/>
-    </row>
-    <row r="84" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A84" s="16"/>
-      <c r="B84" s="16"/>
-      <c r="C84" s="16"/>
-      <c r="D84" s="16"/>
-      <c r="E84" s="10"/>
-      <c r="F84" s="4"/>
-      <c r="G84" s="4"/>
-      <c r="H84" s="4"/>
-      <c r="I84" s="4"/>
-      <c r="J84" s="4"/>
-      <c r="K84" s="4"/>
-      <c r="L84" s="4"/>
-      <c r="M84" s="4"/>
-      <c r="N84" s="4"/>
-      <c r="O84" s="4"/>
-      <c r="P84" s="4"/>
-      <c r="Q84" s="4"/>
-      <c r="R84" s="4"/>
-    </row>
-    <row r="85" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A85" s="27"/>
-      <c r="B85" s="27"/>
-      <c r="C85" s="27"/>
-      <c r="D85" s="27"/>
-      <c r="E85" s="10"/>
-      <c r="F85" s="4"/>
-      <c r="G85" s="4"/>
-      <c r="H85" s="4"/>
-      <c r="I85" s="4"/>
-      <c r="J85" s="4"/>
-      <c r="K85" s="4"/>
-      <c r="L85" s="4"/>
-      <c r="M85" s="4"/>
-      <c r="N85" s="4"/>
-      <c r="O85" s="4"/>
-      <c r="P85" s="4"/>
-      <c r="Q85" s="4"/>
-      <c r="R85" s="4"/>
-    </row>
-    <row r="86" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A86" s="27"/>
-      <c r="B86" s="27"/>
-      <c r="C86" s="27"/>
-      <c r="D86" s="27"/>
-      <c r="E86" s="10"/>
-      <c r="F86" s="4"/>
-      <c r="G86" s="4"/>
-      <c r="H86" s="4"/>
-      <c r="I86" s="4"/>
-      <c r="J86" s="4"/>
-      <c r="K86" s="4"/>
-      <c r="L86" s="4"/>
-      <c r="M86" s="4"/>
-      <c r="N86" s="4"/>
-      <c r="O86" s="4"/>
-      <c r="P86" s="4"/>
-      <c r="Q86" s="4"/>
-      <c r="R86" s="4"/>
-    </row>
-    <row r="87" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A87" s="27"/>
-      <c r="B87" s="27"/>
-      <c r="C87" s="27"/>
-      <c r="D87" s="27"/>
-      <c r="E87" s="10"/>
-      <c r="F87" s="4"/>
-      <c r="G87" s="4"/>
-      <c r="H87" s="4"/>
-      <c r="I87" s="4"/>
-      <c r="J87" s="4"/>
-      <c r="K87" s="4"/>
-      <c r="L87" s="4"/>
-      <c r="M87" s="4"/>
-      <c r="N87" s="4"/>
-      <c r="O87" s="4"/>
-      <c r="P87" s="4"/>
-      <c r="Q87" s="4"/>
-      <c r="R87" s="4"/>
-    </row>
-    <row r="88" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A88" s="27"/>
-      <c r="B88" s="27"/>
-      <c r="C88" s="27"/>
-      <c r="D88" s="27"/>
-      <c r="E88" s="10"/>
-      <c r="F88" s="4"/>
-      <c r="G88" s="4"/>
-      <c r="H88" s="4"/>
-      <c r="I88" s="4"/>
-      <c r="J88" s="4"/>
-      <c r="K88" s="4"/>
-      <c r="L88" s="4"/>
-      <c r="M88" s="4"/>
-      <c r="N88" s="4"/>
-      <c r="O88" s="4"/>
-      <c r="P88" s="4"/>
-      <c r="Q88" s="4"/>
-      <c r="R88" s="4"/>
-    </row>
-    <row r="89" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A89" s="27"/>
-      <c r="B89" s="27"/>
-      <c r="C89" s="27"/>
-      <c r="D89" s="27"/>
-      <c r="E89" s="10"/>
-      <c r="F89" s="4"/>
-      <c r="G89" s="4"/>
-      <c r="H89" s="4"/>
-      <c r="I89" s="4"/>
-      <c r="J89" s="4"/>
-      <c r="K89" s="4"/>
-      <c r="L89" s="4"/>
-      <c r="M89" s="4"/>
-      <c r="N89" s="4"/>
-      <c r="O89" s="4"/>
-      <c r="P89" s="4"/>
-      <c r="Q89" s="4"/>
-      <c r="R89" s="4"/>
-    </row>
-    <row r="90" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A90" s="27"/>
-      <c r="B90" s="27"/>
-      <c r="C90" s="27"/>
-      <c r="D90" s="27"/>
-      <c r="E90" s="10"/>
-      <c r="F90" s="4"/>
-      <c r="G90" s="4"/>
-      <c r="H90" s="4"/>
-      <c r="I90" s="4"/>
-      <c r="J90" s="4"/>
-      <c r="K90" s="4"/>
-      <c r="L90" s="4"/>
-      <c r="M90" s="4"/>
-      <c r="N90" s="4"/>
-      <c r="O90" s="4"/>
-      <c r="P90" s="4"/>
-      <c r="Q90" s="4"/>
-      <c r="R90" s="4"/>
-    </row>
-    <row r="91" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A91" s="27"/>
-      <c r="B91" s="27"/>
-      <c r="C91" s="27"/>
-      <c r="D91" s="27"/>
-      <c r="E91" s="10"/>
-      <c r="F91" s="4"/>
-      <c r="G91" s="4"/>
-      <c r="H91" s="4"/>
-      <c r="I91" s="4"/>
-      <c r="J91" s="4"/>
-      <c r="K91" s="4"/>
-      <c r="L91" s="4"/>
-      <c r="M91" s="4"/>
-      <c r="N91" s="4"/>
-      <c r="O91" s="4"/>
-      <c r="P91" s="4"/>
-      <c r="Q91" s="4"/>
-      <c r="R91" s="4"/>
-    </row>
-    <row r="92" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A92" s="27"/>
-      <c r="B92" s="27"/>
-      <c r="C92" s="27"/>
-      <c r="D92" s="27"/>
-      <c r="E92" s="10"/>
-      <c r="F92" s="4"/>
-      <c r="G92" s="4"/>
-      <c r="H92" s="4"/>
-      <c r="I92" s="4"/>
-      <c r="J92" s="4"/>
-      <c r="K92" s="4"/>
-      <c r="L92" s="4"/>
-      <c r="M92" s="4"/>
-      <c r="N92" s="4"/>
-      <c r="O92" s="4"/>
-      <c r="P92" s="4"/>
-      <c r="Q92" s="4"/>
-      <c r="R92" s="4"/>
-    </row>
-    <row r="93" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A93" s="27"/>
-      <c r="B93" s="27"/>
-      <c r="C93" s="27"/>
-      <c r="D93" s="27"/>
-      <c r="E93" s="10"/>
-      <c r="F93" s="4"/>
-      <c r="G93" s="4"/>
-      <c r="H93" s="4"/>
-      <c r="I93" s="4"/>
-      <c r="J93" s="4"/>
-      <c r="K93" s="4"/>
-      <c r="L93" s="4"/>
-      <c r="M93" s="4"/>
-      <c r="N93" s="4"/>
-      <c r="O93" s="4"/>
-      <c r="P93" s="4"/>
-      <c r="Q93" s="4"/>
-      <c r="R93" s="4"/>
-    </row>
-    <row r="94" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A94" s="27"/>
-      <c r="B94" s="27"/>
-      <c r="C94" s="27"/>
-      <c r="D94" s="27"/>
-      <c r="E94" s="10"/>
-      <c r="F94" s="4"/>
-      <c r="G94" s="4"/>
-      <c r="H94" s="4"/>
-      <c r="I94" s="4"/>
-      <c r="J94" s="4"/>
-      <c r="K94" s="4"/>
-      <c r="L94" s="4"/>
-      <c r="M94" s="4"/>
-      <c r="N94" s="4"/>
-      <c r="O94" s="4"/>
-      <c r="P94" s="4"/>
-      <c r="Q94" s="4"/>
-      <c r="R94" s="4"/>
-    </row>
-    <row r="95" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A95" s="27"/>
       <c r="B95" s="27"/>
       <c r="C95" s="27"/>

--- a/LM_Journal_Travail_V1.0.xlsx
+++ b/LM_Journal_Travail_V1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\Love-Mirroring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6061F29-5002-47E2-8564-9DF6F55DB5C6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C7FA97B-260E-4D28-A43E-FC904D52D9EB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="76">
   <si>
     <t>Jalon</t>
   </si>
@@ -273,7 +273,19 @@
     <t>Intégration du Quizz via le contrôleur de l'API et la vue de notre inferface</t>
   </si>
   <si>
-    <t>Le quizz s'affiche quand un utilisateur est authentifié. J'ai aussi corrigé dans la foulée la validation par Email avec l'aide Monsieur Allemann.</t>
+    <t>Intégration des réponses du Quizz et correction de l'interface</t>
+  </si>
+  <si>
+    <t>Les réponses s'affichent maintenant en même temps que les questions. Je peux encore optimiser un peu le code pour rendre ca plus lisible mais la fonctionnalité marche. Le prochain objectif est d'intégrer cette étape dans la création du compte.</t>
+  </si>
+  <si>
+    <t>Modification du diagramme de UseCase + correction des documents UseCase</t>
+  </si>
+  <si>
+    <t>Mes collègues ont écrit les dernières UseCase. J'ai corrigé le diagramme en fonction et j'ai parcouru l'ensemble des UseCases pour m'assurer que tout était correcte.</t>
+  </si>
+  <si>
+    <t>Le quizz s'affiche quand un utilisateur est authentifié. J'ai aussi corrigé dans la foulée la validation par Email avec l'aide Monsieur Allemann. J'ai pris pas mal de temps pour faire cela car je ne connais pas trop la technologie et j'ai du prendre l'habitude de manipuler certains éléments.</t>
   </si>
 </sst>
 </file>
@@ -3844,8 +3856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DB7A04D-A66F-4A89-83F1-9B353075A776}">
   <dimension ref="A1:R94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -4519,7 +4531,7 @@
         <v>43920</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E25" s="10"/>
       <c r="F25" s="4"/>
@@ -4536,11 +4548,19 @@
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
     </row>
-    <row r="26" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
+    <row r="26" spans="1:18" ht="54" x14ac:dyDescent="0.3">
+      <c r="A26" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" s="7">
+        <v>1</v>
+      </c>
+      <c r="C26" s="35">
+        <v>43921</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>72</v>
+      </c>
       <c r="E26" s="10"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
@@ -4556,11 +4576,19 @@
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
     </row>
-    <row r="27" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
+    <row r="27" spans="1:18" ht="81" x14ac:dyDescent="0.3">
+      <c r="A27" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B27" s="7">
+        <v>3</v>
+      </c>
+      <c r="C27" s="35">
+        <v>43921</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>74</v>
+      </c>
       <c r="E27" s="10"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
@@ -4662,7 +4690,7 @@
       </c>
       <c r="B32" s="14">
         <f>SUM(B16:B31)</f>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C32" s="15"/>
       <c r="D32" s="15"/>
@@ -5999,7 +6027,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716E2DDB-6361-470B-ACF3-8FDF9046203A}">
   <dimension ref="A1:R95"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>

--- a/LM_Journal_Travail_V1.0.xlsx
+++ b/LM_Journal_Travail_V1.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\Love-Mirroring\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programmes\VS2019\Projets\Projet Gerber\Love-Mirroring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C7FA97B-260E-4D28-A43E-FC904D52D9EB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8781059C-625A-4C87-BE06-3684CDBEB676}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5445" yWindow="2955" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Equipe" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <definedName name="NBLecons">#REF!</definedName>
     <definedName name="TachesPlanifiees">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="79">
   <si>
     <t>Jalon</t>
   </si>
@@ -286,6 +286,15 @@
   </si>
   <si>
     <t>Le quizz s'affiche quand un utilisateur est authentifié. J'ai aussi corrigé dans la foulée la validation par Email avec l'aide Monsieur Allemann. J'ai pris pas mal de temps pour faire cela car je ne connais pas trop la technologie et j'ai du prendre l'habitude de manipuler certains éléments.</t>
+  </si>
+  <si>
+    <t>Recherche dur les profils</t>
+  </si>
+  <si>
+    <t>01.04.2020</t>
+  </si>
+  <si>
+    <t>Recherche sur les différentes personnalités possible. Création d'un fichier de description clair sur excel</t>
   </si>
 </sst>
 </file>
@@ -3856,7 +3865,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DB7A04D-A66F-4A89-83F1-9B353075A776}">
   <dimension ref="A1:R94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+    <sheetView topLeftCell="A24" workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
@@ -8126,8 +8135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F222774-5003-490D-9078-78D1F6F89A4A}">
   <dimension ref="A1:R96"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -8784,11 +8793,19 @@
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
     </row>
-    <row r="25" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
+    <row r="25" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" s="7">
+        <v>3</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>78</v>
+      </c>
       <c r="E25" s="10"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
@@ -8970,7 +8987,7 @@
       </c>
       <c r="B34" s="14">
         <f>SUM(B18:B33)</f>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C34" s="15"/>
       <c r="D34" s="15"/>

--- a/LM_Journal_Travail_V1.0.xlsx
+++ b/LM_Journal_Travail_V1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\Love-Mirroring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C7FA97B-260E-4D28-A43E-FC904D52D9EB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40682F38-04C0-4239-A787-6601C67CF8CE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="78">
   <si>
     <t>Jalon</t>
   </si>
@@ -286,6 +286,12 @@
   </si>
   <si>
     <t>Le quizz s'affiche quand un utilisateur est authentifié. J'ai aussi corrigé dans la foulée la validation par Email avec l'aide Monsieur Allemann. J'ai pris pas mal de temps pour faire cela car je ne connais pas trop la technologie et j'ai du prendre l'habitude de manipuler certains éléments.</t>
+  </si>
+  <si>
+    <t>Correctio des UseCases</t>
+  </si>
+  <si>
+    <t>J'ai corrigé certaines UseCase qui contenaient encore des coquilles et quelques petites erreurs. J'en ai étoffé certaines pour qu'elles fournissent un peu plus de détail.</t>
   </si>
 </sst>
 </file>
@@ -3857,7 +3863,7 @@
   <dimension ref="A1:R94"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -4604,11 +4610,19 @@
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
     </row>
-    <row r="28" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
+    <row r="28" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A28" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" s="7">
+        <v>1</v>
+      </c>
+      <c r="C28" s="35">
+        <v>43922</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>77</v>
+      </c>
       <c r="E28" s="10"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
@@ -4690,7 +4704,7 @@
       </c>
       <c r="B32" s="14">
         <f>SUM(B16:B31)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C32" s="15"/>
       <c r="D32" s="15"/>

--- a/LM_Journal_Travail_V1.0.xlsx
+++ b/LM_Journal_Travail_V1.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programmes\VS2019\Projets\Projet Gerber\Love-Mirroring\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\Love-Mirroring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8781059C-625A-4C87-BE06-3684CDBEB676}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D7D193D-D1FB-4900-8EC5-D8A2024C3DDA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5445" yWindow="2955" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Equipe" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <definedName name="NBLecons">#REF!</definedName>
     <definedName name="TachesPlanifiees">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="81">
   <si>
     <t>Jalon</t>
   </si>
@@ -295,6 +295,12 @@
   </si>
   <si>
     <t>Recherche sur les différentes personnalités possible. Création d'un fichier de description clair sur excel</t>
+  </si>
+  <si>
+    <t>Modification des UseCase</t>
+  </si>
+  <si>
+    <t>J'ai effectué encore quelques modifications sur certaines UseCase qui manquait de contenu et j'ai corrigé certaines qui ont été faîtes pour mes collègues. Nous allons les passer en revue avant le rendu.</t>
   </si>
 </sst>
 </file>
@@ -889,8 +895,8 @@
   </sheetPr>
   <dimension ref="A1:R1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D9"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3865,8 +3871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DB7A04D-A66F-4A89-83F1-9B353075A776}">
   <dimension ref="A1:R94"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -4613,11 +4619,19 @@
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
     </row>
-    <row r="28" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
+    <row r="28" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A28" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" s="7">
+        <v>1</v>
+      </c>
+      <c r="C28" s="35">
+        <v>43922</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>80</v>
+      </c>
       <c r="E28" s="10"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
@@ -4699,7 +4713,7 @@
       </c>
       <c r="B32" s="14">
         <f>SUM(B16:B31)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C32" s="15"/>
       <c r="D32" s="15"/>
@@ -8135,7 +8149,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F222774-5003-490D-9078-78D1F6F89A4A}">
   <dimension ref="A1:R96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>

--- a/LM_Journal_Travail_V1.0.xlsx
+++ b/LM_Journal_Travail_V1.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\Love-Mirroring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D7D193D-D1FB-4900-8EC5-D8A2024C3DDA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE6C5A2E-6F73-4D46-B9CC-4CCD51C72C8F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Equipe" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="83">
   <si>
     <t>Jalon</t>
   </si>
@@ -216,16 +216,7 @@
     <t>Détaillage des uses cases en fonction du diagramme principal. J'ai rédigé les plus importantes et elles seront passées en revue par les autres membres de l'équipe.</t>
   </si>
   <si>
-    <t>Aprrivoiser IdentityServer et ajout d'un formulaire d'inscription</t>
-  </si>
-  <si>
-    <t>J'ai ajouté un formulaire d'inscription dans IdentityServer mais je dois encore trouver comment insérer un utilisateur dans la base de donnée. J'ai aussi pris un peu de temps pour apprivoiser IdentityServer car je n'avais aucune connaissance sur cette technologie.</t>
-  </si>
-  <si>
     <t>Création de compte + validation par Email</t>
-  </si>
-  <si>
-    <t>La création de compte est opérationnelle sur l'application. Il faudra l'alimenter avec d'autres champs pour établir le profil. La confirmation de l'email fonctionne aussi mais il y a juste un problème avec l'URL qu'il faudra corriger.</t>
   </si>
   <si>
     <t>24.03.2020</t>
@@ -301,6 +292,21 @@
   </si>
   <si>
     <t>J'ai effectué encore quelques modifications sur certaines UseCase qui manquait de contenu et j'ai corrigé certaines qui ont été faîtes pour mes collègues. Nous allons les passer en revue avant le rendu.</t>
+  </si>
+  <si>
+    <t>Modification du dossier sur le concept de test</t>
+  </si>
+  <si>
+    <t>J'ai parcouru la documentation rempli par mes collègues et j'ai apporté mes modifications. J'ai mis les tests en évidence.</t>
+  </si>
+  <si>
+    <t>Aprrivoiser IdentityServer et ajout d'un formulaire d'inscription + intégrer les tests unitaires pour la création de compte</t>
+  </si>
+  <si>
+    <t>J'ai ajouté un formulaire d'inscription dans IdentityServer mais je dois encore trouver comment insérer un utilisateur dans la base de donnée. J'ai aussi pris un peu de temps pour apprivoiser IdentityServer car je n'avais aucune connaissance sur cette technologie. J'ai aussi ajouté un test unitaire pour la création de compte afin de pouvoir développer la partie métier.</t>
+  </si>
+  <si>
+    <t>La création de compte est opérationnelle sur l'application. Il faudra l'alimenter avec d'autres champs pour établir le profil. La confirmation de l'email fonctionne aussi mais il y a juste un problème avec l'URL qu'il faudra corriger. Les tests sont réussis</t>
   </si>
 </sst>
 </file>
@@ -3871,8 +3877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DB7A04D-A66F-4A89-83F1-9B353075A776}">
   <dimension ref="A1:R94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -4479,9 +4485,9 @@
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
     </row>
-    <row r="23" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" ht="121.5" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="B23" s="7">
         <v>3</v>
@@ -4490,7 +4496,7 @@
         <v>43918</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="4"/>
@@ -4509,7 +4515,7 @@
     </row>
     <row r="24" spans="1:18" ht="54" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B24" s="7">
         <v>3</v>
@@ -4518,7 +4524,7 @@
         <v>43919</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="E24" s="10"/>
       <c r="F24" s="4"/>
@@ -4537,7 +4543,7 @@
     </row>
     <row r="25" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B25" s="36">
         <v>4.5</v>
@@ -4546,7 +4552,7 @@
         <v>43920</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E25" s="10"/>
       <c r="F25" s="4"/>
@@ -4565,7 +4571,7 @@
     </row>
     <row r="26" spans="1:18" ht="54" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B26" s="7">
         <v>1</v>
@@ -4574,7 +4580,7 @@
         <v>43921</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E26" s="10"/>
       <c r="F26" s="4"/>
@@ -4593,7 +4599,7 @@
     </row>
     <row r="27" spans="1:18" ht="81" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B27" s="7">
         <v>3</v>
@@ -4602,7 +4608,7 @@
         <v>43921</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E27" s="10"/>
       <c r="F27" s="4"/>
@@ -4621,7 +4627,7 @@
     </row>
     <row r="28" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B28" s="7">
         <v>1</v>
@@ -4630,7 +4636,7 @@
         <v>43922</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E28" s="10"/>
       <c r="F28" s="4"/>
@@ -4647,11 +4653,19 @@
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
     </row>
-    <row r="29" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
+    <row r="29" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A29" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" s="7">
+        <v>3</v>
+      </c>
+      <c r="C29" s="35">
+        <v>43923</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>79</v>
+      </c>
       <c r="E29" s="10"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
@@ -4713,7 +4727,7 @@
       </c>
       <c r="B32" s="14">
         <f>SUM(B16:B31)</f>
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C32" s="15"/>
       <c r="D32" s="15"/>
@@ -8619,7 +8633,7 @@
         <v>2</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>37</v>
@@ -8650,7 +8664,7 @@
         <v>41</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="4"/>
@@ -8669,16 +8683,16 @@
     </row>
     <row r="20" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B20" s="7">
         <v>2</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="4"/>
@@ -8697,16 +8711,16 @@
     </row>
     <row r="21" spans="1:18" ht="27" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B21" s="7">
         <v>1</v>
       </c>
       <c r="C21" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="9" t="s">
         <v>59</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>62</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="4"/>
@@ -8725,16 +8739,16 @@
     </row>
     <row r="22" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B22" s="7">
         <v>3.5</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E22" s="10"/>
       <c r="F22" s="4"/>
@@ -8753,16 +8767,16 @@
     </row>
     <row r="23" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B23" s="7">
         <v>1</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="4"/>
@@ -8781,16 +8795,16 @@
     </row>
     <row r="24" spans="1:18" ht="27" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B24" s="7">
         <v>4.5</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E24" s="10"/>
       <c r="F24" s="4"/>
@@ -8809,16 +8823,16 @@
     </row>
     <row r="25" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B25" s="7">
         <v>3</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E25" s="10"/>
       <c r="F25" s="4"/>

--- a/LM_Journal_Travail_V1.0.xlsx
+++ b/LM_Journal_Travail_V1.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\Love-Mirroring\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programmes\VS2019\Projets\Projet Gerber\Love-Mirroring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE6C5A2E-6F73-4D46-B9CC-4CCD51C72C8F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D7C9CCE-B1D3-4E98-B873-380580F58D4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5445" yWindow="2955" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Equipe" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <definedName name="NBLecons">#REF!</definedName>
     <definedName name="TachesPlanifiees">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="86">
   <si>
     <t>Jalon</t>
   </si>
@@ -307,6 +307,15 @@
   </si>
   <si>
     <t>La création de compte est opérationnelle sur l'application. Il faudra l'alimenter avec d'autres champs pour établir le profil. La confirmation de l'email fonctionne aussi mais il y a juste un problème avec l'URL qu'il faudra corriger. Les tests sont réussis</t>
+  </si>
+  <si>
+    <t>Incrément</t>
+  </si>
+  <si>
+    <t>02.04.2020</t>
+  </si>
+  <si>
+    <t>Création d'une application Web pour le login des utilisateurs avec la base de donnée</t>
   </si>
 </sst>
 </file>
@@ -3877,7 +3886,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DB7A04D-A66F-4A89-83F1-9B353075A776}">
   <dimension ref="A1:R94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+    <sheetView topLeftCell="A27" workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
@@ -8163,8 +8172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F222774-5003-490D-9078-78D1F6F89A4A}">
   <dimension ref="A1:R96"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -8849,11 +8858,19 @@
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
     </row>
-    <row r="26" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
+    <row r="26" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+      <c r="A26" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26" s="7">
+        <v>7</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>85</v>
+      </c>
       <c r="E26" s="10"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
@@ -9015,7 +9032,7 @@
       </c>
       <c r="B34" s="14">
         <f>SUM(B18:B33)</f>
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C34" s="15"/>
       <c r="D34" s="15"/>

--- a/LM_Journal_Travail_V1.0.xlsx
+++ b/LM_Journal_Travail_V1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programmes\VS2019\Projets\Projet Gerber\Love-Mirroring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D7C9CCE-B1D3-4E98-B873-380580F58D4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28A79D32-745D-4469-8361-2F2830311EBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5445" yWindow="2955" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="88">
   <si>
     <t>Jalon</t>
   </si>
@@ -222,16 +222,10 @@
     <t>24.03.2020</t>
   </si>
   <si>
-    <t>Création des premières tables et relations.</t>
-  </si>
-  <si>
     <t>Use Case</t>
   </si>
   <si>
     <t>28.03.2020</t>
-  </si>
-  <si>
-    <t>Ajouter de l'abonnement et communication.</t>
   </si>
   <si>
     <t>IdentityServer4</t>
@@ -246,19 +240,10 @@
     <t>29.03.2020</t>
   </si>
   <si>
-    <t>Création du script SQL et MLD puis mise à jour du MCD</t>
-  </si>
-  <si>
-    <t>Ajout vérification du compte</t>
-  </si>
-  <si>
     <t>MCD+MLD+SQL</t>
   </si>
   <si>
     <t>30.03.2020</t>
-  </si>
-  <si>
-    <t>Correction et mise à jour de la base de données</t>
   </si>
   <si>
     <t>Intégration du Quizz via le contrôleur de l'API et la vue de notre inferface</t>
@@ -279,13 +264,7 @@
     <t>Le quizz s'affiche quand un utilisateur est authentifié. J'ai aussi corrigé dans la foulée la validation par Email avec l'aide Monsieur Allemann. J'ai pris pas mal de temps pour faire cela car je ne connais pas trop la technologie et j'ai du prendre l'habitude de manipuler certains éléments.</t>
   </si>
   <si>
-    <t>Recherche dur les profils</t>
-  </si>
-  <si>
     <t>01.04.2020</t>
-  </si>
-  <si>
-    <t>Recherche sur les différentes personnalités possible. Création d'un fichier de description clair sur excel</t>
   </si>
   <si>
     <t>Modification des UseCase</t>
@@ -315,7 +294,42 @@
     <t>02.04.2020</t>
   </si>
   <si>
-    <t>Création d'une application Web pour le login des utilisateurs avec la base de donnée</t>
+    <t>03.04.2020</t>
+  </si>
+  <si>
+    <t>Création d'une application Web pour le login des utilisateurs avec la base de donnée:
+Générations des models
+Génértaions d'dentity
+Calquer notre modèle sur Identity</t>
+  </si>
+  <si>
+    <t>Créations d'un utilsateur avec les nouvelles contraintres du modèle
+Accés à la page personnel de l'utilisateur</t>
+  </si>
+  <si>
+    <t>Réflexion sur la logique de matching
+Création des premières tables et relations</t>
+  </si>
+  <si>
+    <t>Création du script SQL et MLD
+Mise à jour du MCD selon les nouvelles contraintes d'Identity</t>
+  </si>
+  <si>
+    <t>Ajout de la vérification du compte</t>
+  </si>
+  <si>
+    <t>Ajouter de l'abonnement et de la communication.</t>
+  </si>
+  <si>
+    <t>Correction et mise à jour de la base de données
+Finalisation de la base de donnée</t>
+  </si>
+  <si>
+    <t>Recherche sur les profils</t>
+  </si>
+  <si>
+    <t>Recherche sur les différentes personnalités possible pour le matching
+Création d'un fichier de description clair sur excel</t>
   </si>
 </sst>
 </file>
@@ -4496,7 +4510,7 @@
     </row>
     <row r="23" spans="1:18" ht="121.5" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B23" s="7">
         <v>3</v>
@@ -4505,7 +4519,7 @@
         <v>43918</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="4"/>
@@ -4533,7 +4547,7 @@
         <v>43919</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E24" s="10"/>
       <c r="F24" s="4"/>
@@ -4552,7 +4566,7 @@
     </row>
     <row r="25" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B25" s="36">
         <v>4.5</v>
@@ -4561,7 +4575,7 @@
         <v>43920</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E25" s="10"/>
       <c r="F25" s="4"/>
@@ -4580,7 +4594,7 @@
     </row>
     <row r="26" spans="1:18" ht="54" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B26" s="7">
         <v>1</v>
@@ -4589,7 +4603,7 @@
         <v>43921</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E26" s="10"/>
       <c r="F26" s="4"/>
@@ -4608,7 +4622,7 @@
     </row>
     <row r="27" spans="1:18" ht="81" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B27" s="7">
         <v>3</v>
@@ -4617,7 +4631,7 @@
         <v>43921</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E27" s="10"/>
       <c r="F27" s="4"/>
@@ -4636,7 +4650,7 @@
     </row>
     <row r="28" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B28" s="7">
         <v>1</v>
@@ -4645,7 +4659,7 @@
         <v>43922</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E28" s="10"/>
       <c r="F28" s="4"/>
@@ -4664,7 +4678,7 @@
     </row>
     <row r="29" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B29" s="7">
         <v>3</v>
@@ -4673,7 +4687,7 @@
         <v>43923</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E29" s="10"/>
       <c r="F29" s="4"/>
@@ -8172,8 +8186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F222774-5003-490D-9078-78D1F6F89A4A}">
   <dimension ref="A1:R96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -8662,7 +8676,7 @@
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
     </row>
-    <row r="19" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" ht="27" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>40</v>
       </c>
@@ -8673,7 +8687,7 @@
         <v>41</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="4"/>
@@ -8692,16 +8706,16 @@
     </row>
     <row r="20" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B20" s="7">
         <v>2</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="4"/>
@@ -8720,16 +8734,16 @@
     </row>
     <row r="21" spans="1:18" ht="27" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B21" s="7">
         <v>1</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="4"/>
@@ -8746,18 +8760,18 @@
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
     </row>
-    <row r="22" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" ht="27" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B22" s="7">
         <v>3.5</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="E22" s="10"/>
       <c r="F22" s="4"/>
@@ -8776,16 +8790,16 @@
     </row>
     <row r="23" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B23" s="7">
         <v>1</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="4"/>
@@ -8804,16 +8818,16 @@
     </row>
     <row r="24" spans="1:18" ht="27" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B24" s="7">
         <v>4.5</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="E24" s="10"/>
       <c r="F24" s="4"/>
@@ -8832,16 +8846,16 @@
     </row>
     <row r="25" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="B25" s="7">
         <v>3</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="E25" s="10"/>
       <c r="F25" s="4"/>
@@ -8858,18 +8872,18 @@
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
     </row>
-    <row r="26" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B26" s="7">
         <v>7</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E26" s="10"/>
       <c r="F26" s="4"/>
@@ -8886,11 +8900,19 @@
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
     </row>
-    <row r="27" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
+    <row r="27" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+      <c r="A27" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>80</v>
+      </c>
       <c r="E27" s="10"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
@@ -9032,7 +9054,7 @@
       </c>
       <c r="B34" s="14">
         <f>SUM(B18:B33)</f>
-        <v>28</v>
+        <v>32.5</v>
       </c>
       <c r="C34" s="15"/>
       <c r="D34" s="15"/>

--- a/LM_Journal_Travail_V1.0.xlsx
+++ b/LM_Journal_Travail_V1.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programmes\VS2019\Projets\Projet Gerber\Love-Mirroring\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\Love-Mirroring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28A79D32-745D-4469-8361-2F2830311EBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8510447-E6CD-4677-A0ED-38E8DB2ADA94}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5445" yWindow="2955" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Equipe" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <definedName name="NBLecons">#REF!</definedName>
     <definedName name="TachesPlanifiees">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="91">
   <si>
     <t>Jalon</t>
   </si>
@@ -331,6 +331,15 @@
     <t>Recherche sur les différentes personnalités possible pour le matching
 Création d'un fichier de description clair sur excel</t>
   </si>
+  <si>
+    <t>Adaptation de la création du compte</t>
+  </si>
+  <si>
+    <t>Attribution des tâches</t>
+  </si>
+  <si>
+    <t>J'ai adapté les fonctionnalités qui tourne autour de la création d'un compte. Je m'attaque à la fin de la documentation ce week-end</t>
+  </si>
 </sst>
 </file>
 
@@ -602,7 +611,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -703,6 +712,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -924,8 +936,8 @@
   </sheetPr>
   <dimension ref="A1:R1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1330,10 +1342,16 @@
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
     </row>
-    <row r="16" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A16" s="17"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="18"/>
+    <row r="16" spans="1:18" ht="27.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16" s="7">
+        <v>1</v>
+      </c>
+      <c r="C16" s="18">
+        <v>43914</v>
+      </c>
       <c r="D16" s="9"/>
       <c r="E16" s="10"/>
       <c r="F16" s="4"/>
@@ -1656,7 +1674,7 @@
       </c>
       <c r="B32" s="14">
         <f>SUM(B16:B31)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32" s="15"/>
       <c r="D32" s="15"/>
@@ -3900,8 +3918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DB7A04D-A66F-4A89-83F1-9B353075A776}">
   <dimension ref="A1:R94"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -4704,11 +4722,19 @@
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
     </row>
-    <row r="30" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
+    <row r="30" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A30" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B30" s="7">
+        <v>1</v>
+      </c>
+      <c r="C30" s="35">
+        <v>43925</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>90</v>
+      </c>
       <c r="E30" s="10"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
@@ -4750,7 +4776,7 @@
       </c>
       <c r="B32" s="14">
         <f>SUM(B16:B31)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C32" s="15"/>
       <c r="D32" s="15"/>
@@ -8186,7 +8212,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F222774-5003-490D-9078-78D1F6F89A4A}">
   <dimension ref="A1:R96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>

--- a/LM_Journal_Travail_V1.0.xlsx
+++ b/LM_Journal_Travail_V1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\Love-Mirroring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8510447-E6CD-4677-A0ED-38E8DB2ADA94}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B51081-8724-4C5C-952B-2C23A8FDADF6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="93">
   <si>
     <t>Jalon</t>
   </si>
@@ -339,6 +339,12 @@
   </si>
   <si>
     <t>J'ai adapté les fonctionnalités qui tourne autour de la création d'un compte. Je m'attaque à la fin de la documentation ce week-end</t>
+  </si>
+  <si>
+    <t>Ajoute de l'action Reset Password + finalisation des concepts de test</t>
+  </si>
+  <si>
+    <t>J'ai ajouté l'action pour réinitialiser son password et j'ai finaliser le document pour les concepts de test. J'ai aussi exporter les diagrammes en PDF.</t>
   </si>
 </sst>
 </file>
@@ -3918,8 +3924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DB7A04D-A66F-4A89-83F1-9B353075A776}">
   <dimension ref="A1:R94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -4587,7 +4593,7 @@
         <v>62</v>
       </c>
       <c r="B25" s="36">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="C25" s="35">
         <v>43920</v>
@@ -4699,7 +4705,7 @@
         <v>71</v>
       </c>
       <c r="B29" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C29" s="35">
         <v>43923</v>
@@ -4730,7 +4736,7 @@
         <v>1</v>
       </c>
       <c r="C30" s="35">
-        <v>43925</v>
+        <v>43924</v>
       </c>
       <c r="D30" s="9" t="s">
         <v>90</v>
@@ -4750,11 +4756,19 @@
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
     </row>
-    <row r="31" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
+    <row r="31" spans="1:18" ht="54.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B31" s="7">
+        <v>3</v>
+      </c>
+      <c r="C31" s="35">
+        <v>43925</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>92</v>
+      </c>
       <c r="E31" s="10"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
@@ -4776,7 +4790,7 @@
       </c>
       <c r="B32" s="14">
         <f>SUM(B16:B31)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C32" s="15"/>
       <c r="D32" s="15"/>

--- a/LM_Journal_Travail_V1.0.xlsx
+++ b/LM_Journal_Travail_V1.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\Love-Mirroring\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programmes\VS2019\Projets\Projet Gerber\Love-Mirroring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B51081-8724-4C5C-952B-2C23A8FDADF6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF0F9DEB-F815-4134-A03B-4D9B6C6D19C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5445" yWindow="2955" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Equipe" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <definedName name="NBLecons">#REF!</definedName>
     <definedName name="TachesPlanifiees">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="95">
   <si>
     <t>Jalon</t>
   </si>
@@ -345,6 +345,12 @@
   </si>
   <si>
     <t>J'ai ajouté l'action pour réinitialiser son password et j'ai finaliser le document pour les concepts de test. J'ai aussi exporter les diagrammes en PDF.</t>
+  </si>
+  <si>
+    <t>04.04.2020</t>
+  </si>
+  <si>
+    <t>Création du contrôleur du choix des profils</t>
   </si>
 </sst>
 </file>
@@ -3924,7 +3930,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DB7A04D-A66F-4A89-83F1-9B353075A776}">
   <dimension ref="A1:R94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
@@ -8226,8 +8232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F222774-5003-490D-9078-78D1F6F89A4A}">
   <dimension ref="A1:R96"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -8969,10 +8975,18 @@
       <c r="R27" s="4"/>
     </row>
     <row r="28" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
+      <c r="A28" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>94</v>
+      </c>
       <c r="E28" s="10"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
@@ -9094,7 +9108,7 @@
       </c>
       <c r="B34" s="14">
         <f>SUM(B18:B33)</f>
-        <v>32.5</v>
+        <v>37</v>
       </c>
       <c r="C34" s="15"/>
       <c r="D34" s="15"/>

--- a/LM_Journal_Travail_V1.0.xlsx
+++ b/LM_Journal_Travail_V1.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programmes\VS2019\Projets\Projet Gerber\Love-Mirroring\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\Love-Mirroring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF0F9DEB-F815-4134-A03B-4D9B6C6D19C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{797956D0-A36A-4909-B9C8-738439C94DC8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5445" yWindow="2955" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Equipe" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <definedName name="NBLecons">#REF!</definedName>
     <definedName name="TachesPlanifiees">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="101">
   <si>
     <t>Jalon</t>
   </si>
@@ -335,9 +335,6 @@
     <t>Adaptation de la création du compte</t>
   </si>
   <si>
-    <t>Attribution des tâches</t>
-  </si>
-  <si>
     <t>J'ai adapté les fonctionnalités qui tourne autour de la création d'un compte. Je m'attaque à la fin de la documentation ce week-end</t>
   </si>
   <si>
@@ -351,6 +348,27 @@
   </si>
   <si>
     <t>Création du contrôleur du choix des profils</t>
+  </si>
+  <si>
+    <t>24.03.2020 - 07.04.2020</t>
+  </si>
+  <si>
+    <t>Daily SCRUM</t>
+  </si>
+  <si>
+    <t>Daily SCRUM effectué avec l'évaluation des points en cours, en suspens et les éléments qui nécessitaient un Team Review</t>
+  </si>
+  <si>
+    <t>Procès verbal de test - correction + finalisation de la documentation</t>
+  </si>
+  <si>
+    <t>J'ai modifié le procès verbal de test et j'ai finalisé la documentation HERMES. L'équipe effectuera un review sur l'ensemble des documents avant le rendu.</t>
+  </si>
+  <si>
+    <t>Review des documents</t>
+  </si>
+  <si>
+    <t>L'équipe effectue un review global de l'ensemble des documents et éléments de rendu.</t>
   </si>
 </sst>
 </file>
@@ -455,7 +473,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -619,11 +637,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -727,6 +754,15 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -948,8 +984,8 @@
   </sheetPr>
   <dimension ref="A1:R1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1354,17 +1390,19 @@
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
     </row>
-    <row r="16" spans="1:18" ht="27.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" ht="27" x14ac:dyDescent="0.3">
       <c r="A16" s="37" t="s">
-        <v>89</v>
-      </c>
-      <c r="B16" s="7">
-        <v>1</v>
-      </c>
-      <c r="C16" s="18">
-        <v>43914</v>
-      </c>
-      <c r="D16" s="9"/>
+        <v>95</v>
+      </c>
+      <c r="B16" s="36">
+        <v>2.5</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>96</v>
+      </c>
       <c r="E16" s="10"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
@@ -1380,11 +1418,19 @@
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
     </row>
-    <row r="17" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
+    <row r="17" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B17" s="7">
+        <v>2</v>
+      </c>
+      <c r="C17" s="35">
+        <v>43927</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>100</v>
+      </c>
       <c r="E17" s="10"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
@@ -1686,7 +1732,7 @@
       </c>
       <c r="B32" s="14">
         <f>SUM(B16:B31)</f>
-        <v>1</v>
+        <v>4.5</v>
       </c>
       <c r="C32" s="15"/>
       <c r="D32" s="15"/>
@@ -3928,10 +3974,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DB7A04D-A66F-4A89-83F1-9B353075A776}">
-  <dimension ref="A1:R94"/>
+  <dimension ref="A1:R95"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B91" sqref="B91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -4745,7 +4791,7 @@
         <v>43924</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E30" s="10"/>
       <c r="F30" s="4"/>
@@ -4762,9 +4808,9 @@
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
     </row>
-    <row r="31" spans="1:18" ht="54.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:18" ht="54" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B31" s="7">
         <v>3</v>
@@ -4773,7 +4819,7 @@
         <v>43925</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E31" s="10"/>
       <c r="F31" s="4"/>
@@ -4790,16 +4836,19 @@
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
     </row>
-    <row r="32" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B32" s="14">
-        <f>SUM(B16:B31)</f>
-        <v>33</v>
-      </c>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
+    <row r="32" spans="1:18" ht="54.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="B32" s="38">
+        <v>1</v>
+      </c>
+      <c r="C32" s="39">
+        <v>43926</v>
+      </c>
+      <c r="D32" s="40" t="s">
+        <v>98</v>
+      </c>
       <c r="E32" s="10"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
@@ -4816,10 +4865,15 @@
       <c r="R32" s="4"/>
     </row>
     <row r="33" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="16"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
+      <c r="A33" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="14">
+        <f>SUM(B16:B32)</f>
+        <v>34</v>
+      </c>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
       <c r="E33" s="10"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
@@ -4835,15 +4889,11 @@
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
     </row>
-    <row r="34" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B34" s="2">
-        <v>3</v>
-      </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
+    <row r="34" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="16"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
       <c r="E34" s="10"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
@@ -4859,17 +4909,15 @@
       <c r="Q34" s="4"/>
       <c r="R34" s="4"/>
     </row>
-    <row r="35" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B35" s="6" t="s">
+    <row r="35" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="2">
         <v>3</v>
       </c>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
       <c r="E35" s="10"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
@@ -4885,11 +4933,17 @@
       <c r="Q35" s="4"/>
       <c r="R35" s="4"/>
     </row>
-    <row r="36" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="20"/>
+    <row r="36" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="E36" s="10"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
@@ -4909,7 +4963,7 @@
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="21"/>
-      <c r="D37" s="9"/>
+      <c r="D37" s="20"/>
       <c r="E37" s="10"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
@@ -4928,7 +4982,7 @@
     <row r="38" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
-      <c r="C38" s="22"/>
+      <c r="C38" s="21"/>
       <c r="D38" s="9"/>
       <c r="E38" s="10"/>
       <c r="F38" s="4"/>
@@ -4948,7 +5002,7 @@
     <row r="39" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
-      <c r="C39" s="9"/>
+      <c r="C39" s="22"/>
       <c r="D39" s="9"/>
       <c r="E39" s="10"/>
       <c r="F39" s="4"/>
@@ -5025,11 +5079,11 @@
       <c r="Q42" s="4"/>
       <c r="R42" s="4"/>
     </row>
-    <row r="43" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="23"/>
-      <c r="B43" s="23"/>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24"/>
+    <row r="43" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A43" s="7"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
       <c r="E43" s="10"/>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
@@ -5046,15 +5100,10 @@
       <c r="R43" s="4"/>
     </row>
     <row r="44" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B44" s="14">
-        <f>SUM(B36:B43)</f>
-        <v>0</v>
-      </c>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
+      <c r="A44" s="23"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
       <c r="E44" s="10"/>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
@@ -5071,10 +5120,15 @@
       <c r="R44" s="4"/>
     </row>
     <row r="45" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="16"/>
-      <c r="B45" s="16"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
+      <c r="A45" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B45" s="14">
+        <f>SUM(B37:B44)</f>
+        <v>0</v>
+      </c>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
       <c r="E45" s="10"/>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
@@ -5090,15 +5144,11 @@
       <c r="Q45" s="4"/>
       <c r="R45" s="4"/>
     </row>
-    <row r="46" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B46" s="2">
-        <v>4</v>
-      </c>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
+    <row r="46" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="16"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
       <c r="E46" s="10"/>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
@@ -5114,17 +5164,15 @@
       <c r="Q46" s="4"/>
       <c r="R46" s="4"/>
     </row>
-    <row r="47" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5" t="s">
-        <v>5</v>
-      </c>
+    <row r="47" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="2">
+        <v>4</v>
+      </c>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
       <c r="E47" s="10"/>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
@@ -5140,11 +5188,17 @@
       <c r="Q47" s="4"/>
       <c r="R47" s="4"/>
     </row>
-    <row r="48" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A48" s="19"/>
-      <c r="B48" s="19"/>
-      <c r="C48" s="20"/>
-      <c r="D48" s="20"/>
+    <row r="48" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="E48" s="10"/>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
@@ -5161,10 +5215,10 @@
       <c r="R48" s="4"/>
     </row>
     <row r="49" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A49" s="7"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
+      <c r="A49" s="19"/>
+      <c r="B49" s="19"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
       <c r="E49" s="10"/>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
@@ -5261,10 +5315,10 @@
       <c r="R53" s="4"/>
     </row>
     <row r="54" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A54" s="25"/>
-      <c r="B54" s="25"/>
-      <c r="C54" s="26"/>
-      <c r="D54" s="26"/>
+      <c r="A54" s="7"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
       <c r="E54" s="10"/>
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
@@ -5340,11 +5394,11 @@
       <c r="Q57" s="4"/>
       <c r="R57" s="4"/>
     </row>
-    <row r="58" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="23"/>
-      <c r="B58" s="23"/>
-      <c r="C58" s="24"/>
-      <c r="D58" s="24"/>
+    <row r="58" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A58" s="25"/>
+      <c r="B58" s="25"/>
+      <c r="C58" s="26"/>
+      <c r="D58" s="26"/>
       <c r="E58" s="10"/>
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
@@ -5361,15 +5415,10 @@
       <c r="R58" s="4"/>
     </row>
     <row r="59" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B59" s="14">
-        <f>SUM(B48:B58)</f>
-        <v>0</v>
-      </c>
-      <c r="C59" s="15"/>
-      <c r="D59" s="15"/>
+      <c r="A59" s="23"/>
+      <c r="B59" s="23"/>
+      <c r="C59" s="24"/>
+      <c r="D59" s="24"/>
       <c r="E59" s="10"/>
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
@@ -5386,10 +5435,15 @@
       <c r="R59" s="4"/>
     </row>
     <row r="60" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="16"/>
-      <c r="B60" s="16"/>
-      <c r="C60" s="16"/>
-      <c r="D60" s="16"/>
+      <c r="A60" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B60" s="14">
+        <f>SUM(B49:B59)</f>
+        <v>0</v>
+      </c>
+      <c r="C60" s="15"/>
+      <c r="D60" s="15"/>
       <c r="E60" s="10"/>
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
@@ -5405,15 +5459,11 @@
       <c r="Q60" s="4"/>
       <c r="R60" s="4"/>
     </row>
-    <row r="61" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B61" s="2">
-        <v>5</v>
-      </c>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
+    <row r="61" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="16"/>
+      <c r="B61" s="16"/>
+      <c r="C61" s="16"/>
+      <c r="D61" s="16"/>
       <c r="E61" s="10"/>
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
@@ -5429,17 +5479,15 @@
       <c r="Q61" s="4"/>
       <c r="R61" s="4"/>
     </row>
-    <row r="62" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C62" s="5"/>
-      <c r="D62" s="5" t="s">
+    <row r="62" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62" s="2">
         <v>5</v>
       </c>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
       <c r="E62" s="10"/>
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
@@ -5455,11 +5503,17 @@
       <c r="Q62" s="4"/>
       <c r="R62" s="4"/>
     </row>
-    <row r="63" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A63" s="19"/>
-      <c r="B63" s="19"/>
-      <c r="C63" s="20"/>
-      <c r="D63" s="20"/>
+    <row r="63" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="E63" s="10"/>
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
@@ -5476,10 +5530,10 @@
       <c r="R63" s="4"/>
     </row>
     <row r="64" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A64" s="7"/>
-      <c r="B64" s="7"/>
-      <c r="C64" s="9"/>
-      <c r="D64" s="9"/>
+      <c r="A64" s="19"/>
+      <c r="B64" s="19"/>
+      <c r="C64" s="20"/>
+      <c r="D64" s="20"/>
       <c r="E64" s="10"/>
       <c r="F64" s="4"/>
       <c r="G64" s="4"/>
@@ -5555,11 +5609,11 @@
       <c r="Q67" s="4"/>
       <c r="R67" s="4"/>
     </row>
-    <row r="68" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="23"/>
-      <c r="B68" s="23"/>
-      <c r="C68" s="24"/>
-      <c r="D68" s="24"/>
+    <row r="68" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A68" s="7"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="9"/>
       <c r="E68" s="10"/>
       <c r="F68" s="4"/>
       <c r="G68" s="4"/>
@@ -5576,15 +5630,10 @@
       <c r="R68" s="4"/>
     </row>
     <row r="69" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B69" s="14">
-        <f>SUM(B63:B68)</f>
-        <v>0</v>
-      </c>
-      <c r="C69" s="15"/>
-      <c r="D69" s="15"/>
+      <c r="A69" s="23"/>
+      <c r="B69" s="23"/>
+      <c r="C69" s="24"/>
+      <c r="D69" s="24"/>
       <c r="E69" s="10"/>
       <c r="F69" s="4"/>
       <c r="G69" s="4"/>
@@ -5601,10 +5650,15 @@
       <c r="R69" s="4"/>
     </row>
     <row r="70" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="16"/>
-      <c r="B70" s="16"/>
-      <c r="C70" s="16"/>
-      <c r="D70" s="16"/>
+      <c r="A70" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B70" s="14">
+        <f>SUM(B64:B69)</f>
+        <v>0</v>
+      </c>
+      <c r="C70" s="15"/>
+      <c r="D70" s="15"/>
       <c r="E70" s="10"/>
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
@@ -5620,15 +5674,11 @@
       <c r="Q70" s="4"/>
       <c r="R70" s="4"/>
     </row>
-    <row r="71" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B71" s="2">
-        <v>6</v>
-      </c>
-      <c r="C71" s="3"/>
-      <c r="D71" s="3"/>
+    <row r="71" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="16"/>
+      <c r="B71" s="16"/>
+      <c r="C71" s="16"/>
+      <c r="D71" s="16"/>
       <c r="E71" s="10"/>
       <c r="F71" s="4"/>
       <c r="G71" s="4"/>
@@ -5644,17 +5694,15 @@
       <c r="Q71" s="4"/>
       <c r="R71" s="4"/>
     </row>
-    <row r="72" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B72" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C72" s="5"/>
-      <c r="D72" s="5" t="s">
-        <v>5</v>
-      </c>
+    <row r="72" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72" s="2">
+        <v>6</v>
+      </c>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
       <c r="E72" s="10"/>
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
@@ -5670,11 +5718,17 @@
       <c r="Q72" s="4"/>
       <c r="R72" s="4"/>
     </row>
-    <row r="73" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A73" s="19"/>
-      <c r="B73" s="19"/>
-      <c r="C73" s="20"/>
-      <c r="D73" s="20"/>
+    <row r="73" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="E73" s="10"/>
       <c r="F73" s="4"/>
       <c r="G73" s="4"/>
@@ -5691,10 +5745,10 @@
       <c r="R73" s="4"/>
     </row>
     <row r="74" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A74" s="7"/>
-      <c r="B74" s="7"/>
-      <c r="C74" s="9"/>
-      <c r="D74" s="9"/>
+      <c r="A74" s="19"/>
+      <c r="B74" s="19"/>
+      <c r="C74" s="20"/>
+      <c r="D74" s="20"/>
       <c r="E74" s="10"/>
       <c r="F74" s="4"/>
       <c r="G74" s="4"/>
@@ -5810,11 +5864,11 @@
       <c r="Q79" s="4"/>
       <c r="R79" s="4"/>
     </row>
-    <row r="80" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="23"/>
-      <c r="B80" s="23"/>
-      <c r="C80" s="24"/>
-      <c r="D80" s="24"/>
+    <row r="80" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A80" s="7"/>
+      <c r="B80" s="7"/>
+      <c r="C80" s="9"/>
+      <c r="D80" s="9"/>
       <c r="E80" s="10"/>
       <c r="F80" s="4"/>
       <c r="G80" s="4"/>
@@ -5831,15 +5885,10 @@
       <c r="R80" s="4"/>
     </row>
     <row r="81" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B81" s="14">
-        <f>SUM(B73:B80)</f>
-        <v>0</v>
-      </c>
-      <c r="C81" s="15"/>
-      <c r="D81" s="15"/>
+      <c r="A81" s="23"/>
+      <c r="B81" s="23"/>
+      <c r="C81" s="24"/>
+      <c r="D81" s="24"/>
       <c r="E81" s="10"/>
       <c r="F81" s="4"/>
       <c r="G81" s="4"/>
@@ -5855,11 +5904,16 @@
       <c r="Q81" s="4"/>
       <c r="R81" s="4"/>
     </row>
-    <row r="82" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A82" s="16"/>
-      <c r="B82" s="16"/>
-      <c r="C82" s="16"/>
-      <c r="D82" s="16"/>
+    <row r="82" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B82" s="14">
+        <f>SUM(B74:B81)</f>
+        <v>0</v>
+      </c>
+      <c r="C82" s="15"/>
+      <c r="D82" s="15"/>
       <c r="E82" s="10"/>
       <c r="F82" s="4"/>
       <c r="G82" s="4"/>
@@ -5876,10 +5930,10 @@
       <c r="R82" s="4"/>
     </row>
     <row r="83" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A83" s="27"/>
-      <c r="B83" s="27"/>
-      <c r="C83" s="27"/>
-      <c r="D83" s="27"/>
+      <c r="A83" s="16"/>
+      <c r="B83" s="16"/>
+      <c r="C83" s="16"/>
+      <c r="D83" s="16"/>
       <c r="E83" s="10"/>
       <c r="F83" s="4"/>
       <c r="G83" s="4"/>
@@ -6096,10 +6150,10 @@
       <c r="R93" s="4"/>
     </row>
     <row r="94" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A94" s="28"/>
-      <c r="B94" s="28"/>
-      <c r="C94" s="28"/>
-      <c r="D94" s="28"/>
+      <c r="A94" s="27"/>
+      <c r="B94" s="27"/>
+      <c r="C94" s="27"/>
+      <c r="D94" s="27"/>
       <c r="E94" s="10"/>
       <c r="F94" s="4"/>
       <c r="G94" s="4"/>
@@ -6115,13 +6169,19 @@
       <c r="Q94" s="4"/>
       <c r="R94" s="4"/>
     </row>
+    <row r="95" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A95" s="28"/>
+      <c r="B95" s="28"/>
+      <c r="C95" s="28"/>
+      <c r="D95" s="28"/>
+    </row>
   </sheetData>
   <dataValidations xWindow="188" yWindow="522" count="2">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" prompt="Dépassement de durée - Le nombre de minutes introduites dépasse la durée d'une période. Veuillez confirmer ... Le calcul du total sera juste dans tous les cas._x000a_" sqref="B12 B32 B44 B59 B69 B81" xr:uid="{41F29EDA-D509-4469-8DFB-6A4CE4CEAE07}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" prompt="Dépassement de durée - Le nombre de minutes introduites dépasse la durée d'une période. Veuillez confirmer ... Le calcul du total sera juste dans tous les cas._x000a_" sqref="B12 B33 B45 B60 B70 B82" xr:uid="{41F29EDA-D509-4469-8DFB-6A4CE4CEAE07}">
       <formula1>0</formula1>
       <formula2>DureePeriode-1</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" prompt="Durée en 1/3 de période - Le nombre doit être de type entier" sqref="B73:B80 B16:B31 B36:B37 B39:B43 B48:B58 B63:B68 B10:B11 B3:B8" xr:uid="{3039B7E3-952E-4B34-B612-E5A0C049619C}">
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" prompt="Durée en 1/3 de période - Le nombre doit être de type entier" sqref="B74:B81 B37:B38 B40:B44 B49:B59 B64:B69 B10:B11 B3:B8 B16:B32" xr:uid="{3039B7E3-952E-4B34-B612-E5A0C049619C}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -6133,7 +6193,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716E2DDB-6361-470B-ACF3-8FDF9046203A}">
   <dimension ref="A1:R95"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
@@ -8232,8 +8292,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F222774-5003-490D-9078-78D1F6F89A4A}">
   <dimension ref="A1:R96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -8982,10 +9042,10 @@
         <v>4.5</v>
       </c>
       <c r="C28" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D28" s="9" t="s">
         <v>93</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>94</v>
       </c>
       <c r="E28" s="10"/>
       <c r="F28" s="4"/>

--- a/LM_Journal_Travail_V1.0.xlsx
+++ b/LM_Journal_Travail_V1.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\Love-Mirroring\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programmes\VS2019\Projets\Projet Gerber\Love-Mirroring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{797956D0-A36A-4909-B9C8-738439C94DC8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F4A784D-B79A-4EBD-AE53-95C092752BF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5445" yWindow="2955" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Equipe" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <definedName name="NBLecons">#REF!</definedName>
     <definedName name="TachesPlanifiees">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="103">
   <si>
     <t>Jalon</t>
   </si>
@@ -369,6 +369,13 @@
   </si>
   <si>
     <t>L'équipe effectue un review global de l'ensemble des documents et éléments de rendu.</t>
+  </si>
+  <si>
+    <t>05.04.2020</t>
+  </si>
+  <si>
+    <t>Affichage des filtres
+Affichage des profils correspondant aux filtres</t>
   </si>
 </sst>
 </file>
@@ -984,7 +991,7 @@
   </sheetPr>
   <dimension ref="A1:R1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -8292,8 +8299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F222774-5003-490D-9078-78D1F6F89A4A}">
   <dimension ref="A1:R96"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -9062,11 +9069,19 @@
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
     </row>
-    <row r="29" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
+    <row r="29" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+      <c r="A29" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B29" s="7">
+        <v>8</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>102</v>
+      </c>
       <c r="E29" s="10"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
@@ -9168,7 +9183,7 @@
       </c>
       <c r="B34" s="14">
         <f>SUM(B18:B33)</f>
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C34" s="15"/>
       <c r="D34" s="15"/>

--- a/LM_Journal_Travail_V1.0.xlsx
+++ b/LM_Journal_Travail_V1.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programmes\VS2019\Projets\Projet Gerber\Love-Mirroring\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repositories\Love-Mirroring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F4A784D-B79A-4EBD-AE53-95C092752BF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8784CF9B-CB10-4657-A56D-3E108FA60BFA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5445" yWindow="2955" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Equipe" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <definedName name="NBLecons">#REF!</definedName>
     <definedName name="TachesPlanifiees">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="142">
   <si>
     <t>Jalon</t>
   </si>
@@ -376,6 +376,124 @@
   <si>
     <t>Affichage des filtres
 Affichage des profils correspondant aux filtres</t>
+  </si>
+  <si>
+    <t>Correction du WBS et</t>
+  </si>
+  <si>
+    <t>Suite à la présentation du 24,03,2020, j'ai corrigé les heures notamment pour la partie conception</t>
+  </si>
+  <si>
+    <t>ID4</t>
+  </si>
+  <si>
+    <t>ID4 certification à mettre en place</t>
+  </si>
+  <si>
+    <t>Permet de générer une certification unique pour ID4</t>
+  </si>
+  <si>
+    <t>Test deploiement Azure</t>
+  </si>
+  <si>
+    <t>Test réussi d'un site basique sur Azure, par contre pas la possibilité d'ajouter des certifications privées avec un abo étudiant, donc on va faire sans</t>
+  </si>
+  <si>
+    <t>Fusionner Identity de .Net Core avec ID4</t>
+  </si>
+  <si>
+    <t>Mise en place de EF Sql Server</t>
+  </si>
+  <si>
+    <t>Déploiement avec la fusion identity et ID4</t>
+  </si>
+  <si>
+    <t>OK ça fonctionne, j'ai créé une ressource avec 3 webApp, Id4, les api et le client MVC
+Par contre, je ne peux pas créer de BD pour faire fonctionner le prototype de sécurité (aparemment la licence étudiant ne le permet pas)</t>
+  </si>
+  <si>
+    <t>Distinction entre développement et production</t>
+  </si>
+  <si>
+    <t>Création de Appsettings différents selon l'environnement et adaptation du code</t>
+  </si>
+  <si>
+    <t>Test deploiement Azure avec BDD de production héberger chez Tim</t>
+  </si>
+  <si>
+    <t>ça fonctionne (youpi) le prototype d'authentification est maintenant fonctionnel. C’est-à-dire que le couplage Identity avec Asp.net Core fonctionne et qu'une BDD de production héberge les utilisateurs</t>
+  </si>
+  <si>
+    <t>MCD et MLD</t>
+  </si>
+  <si>
+    <t>Ajout des tables ID4 et compréhension du mcd de Hans</t>
+  </si>
+  <si>
+    <t>Confirmation de l'email</t>
+  </si>
+  <si>
+    <t>Aider Monsieur Berger avec la confirmation du mail</t>
+  </si>
+  <si>
+    <t>Passage Windesign à SQL Express puis scaffold dans la Base de données</t>
+  </si>
+  <si>
+    <t>Scaffold test pour voir si tout marche, OK</t>
+  </si>
+  <si>
+    <t>UseCase</t>
+  </si>
+  <si>
+    <t>Avancement des UsesCases</t>
+  </si>
+  <si>
+    <t>Aide à la programmation</t>
+  </si>
+  <si>
+    <t>J'ai aider Monsieur Berger en lui donnant des conseils : ne pas mettre de String en dur, comment s'utilise l'API de ID4, comment transformer du json string en objet pour faciliter l'affichage,…</t>
+  </si>
+  <si>
+    <t>UseCase à finir + mettre en forme</t>
+  </si>
+  <si>
+    <t>Explication</t>
+  </si>
+  <si>
+    <t>J'ai aider Monsieur Morsch pour expliquer le fonctionnement de Id4 + expliuquer comment ajouter une erreur à un modèle pour l'afficher dans la vue.</t>
+  </si>
+  <si>
+    <t>Document prototype</t>
+  </si>
+  <si>
+    <t>Remplissage du document</t>
+  </si>
+  <si>
+    <t>Architecture de système</t>
+  </si>
+  <si>
+    <t>Vérification par SMS</t>
+  </si>
+  <si>
+    <t>Mise en place de la vérification par sms</t>
+  </si>
+  <si>
+    <t>Déploiement du prototype</t>
+  </si>
+  <si>
+    <t>Déploiement du prototype, cela m'a pris du temps surtout avec les user secrets, il faudrait créer un Vault Key dans Azure mais j'ai pas réussi, du coup j'ai mis dans appsettings en attendant.</t>
+  </si>
+  <si>
+    <t>Concept de test</t>
+  </si>
+  <si>
+    <t>Rajout de la partie ID4</t>
+  </si>
+  <si>
+    <t>Exigence du système</t>
+  </si>
+  <si>
+    <t>Elaboration qualité et concept de d'exploitation</t>
   </si>
 </sst>
 </file>
@@ -6198,10 +6316,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716E2DDB-6361-470B-ACF3-8FDF9046203A}">
-  <dimension ref="A1:R95"/>
+  <dimension ref="A1:R101"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -6636,11 +6754,17 @@
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
     </row>
-    <row r="17" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A17" s="17"/>
-      <c r="B17" s="7"/>
+    <row r="17" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+      <c r="A17" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="B17" s="7">
+        <v>1</v>
+      </c>
       <c r="C17" s="18"/>
-      <c r="D17" s="9"/>
+      <c r="D17" s="9" t="s">
+        <v>104</v>
+      </c>
       <c r="E17" s="10"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
@@ -6657,8 +6781,12 @@
       <c r="R17" s="4"/>
     </row>
     <row r="18" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
+      <c r="A18" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18" s="7">
+        <v>4</v>
+      </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
       <c r="E18" s="10"/>
@@ -6676,11 +6804,17 @@
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
     </row>
-    <row r="19" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
+    <row r="19" spans="1:18" ht="54" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B19" s="7">
+        <v>2.5</v>
+      </c>
       <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
+      <c r="D19" s="9" t="s">
+        <v>107</v>
+      </c>
       <c r="E19" s="10"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
@@ -6696,11 +6830,17 @@
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
     </row>
-    <row r="20" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
+    <row r="20" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B20" s="7">
+        <v>1</v>
+      </c>
       <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
+      <c r="D20" s="9" t="s">
+        <v>109</v>
+      </c>
       <c r="E20" s="10"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
@@ -6716,11 +6856,17 @@
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
     </row>
-    <row r="21" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
+    <row r="21" spans="1:18" ht="54" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B21" s="7">
+        <v>3</v>
+      </c>
       <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
+      <c r="D21" s="9" t="s">
+        <v>111</v>
+      </c>
       <c r="E21" s="10"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
@@ -6736,11 +6882,17 @@
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
     </row>
-    <row r="22" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
+    <row r="22" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B22" s="7">
+        <v>2</v>
+      </c>
       <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
+      <c r="D22" s="9" t="s">
+        <v>113</v>
+      </c>
       <c r="E22" s="10"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
@@ -6756,11 +6908,17 @@
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
     </row>
-    <row r="23" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
+    <row r="23" spans="1:18" ht="81" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B23" s="7">
+        <v>1.5</v>
+      </c>
       <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
+      <c r="D23" s="9" t="s">
+        <v>115</v>
+      </c>
       <c r="E23" s="10"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
@@ -6776,11 +6934,17 @@
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
     </row>
-    <row r="24" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
+    <row r="24" spans="1:18" ht="108" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B24" s="7">
+        <v>3</v>
+      </c>
       <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
+      <c r="D24" s="9" t="s">
+        <v>117</v>
+      </c>
       <c r="E24" s="10"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
@@ -6796,11 +6960,17 @@
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
     </row>
-    <row r="25" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
+    <row r="25" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B25" s="7">
+        <v>2</v>
+      </c>
       <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
+      <c r="D25" s="9" t="s">
+        <v>119</v>
+      </c>
       <c r="E25" s="10"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
@@ -6816,11 +6986,17 @@
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
     </row>
-    <row r="26" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
+    <row r="26" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A26" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B26" s="7">
+        <v>1</v>
+      </c>
       <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
+      <c r="D26" s="9" t="s">
+        <v>121</v>
+      </c>
       <c r="E26" s="10"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
@@ -6836,11 +7012,17 @@
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
     </row>
-    <row r="27" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
+    <row r="27" spans="1:18" ht="121.5" x14ac:dyDescent="0.3">
+      <c r="A27" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B27" s="7">
+        <v>1</v>
+      </c>
       <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
+      <c r="D27" s="9" t="s">
+        <v>123</v>
+      </c>
       <c r="E27" s="10"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
@@ -6857,10 +7039,16 @@
       <c r="R27" s="4"/>
     </row>
     <row r="28" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
+      <c r="A28" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B28" s="7">
+        <v>3</v>
+      </c>
       <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
+      <c r="D28" s="9" t="s">
+        <v>125</v>
+      </c>
       <c r="E28" s="10"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
@@ -6876,11 +7064,2386 @@
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
     </row>
-    <row r="29" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
+    <row r="29" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A29" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B29" s="7">
+        <v>1.5</v>
+      </c>
       <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
+      <c r="D29" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E29" s="10"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+    </row>
+    <row r="30" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A30" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B30" s="7">
+        <v>2</v>
+      </c>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="E30" s="10"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+    </row>
+    <row r="31" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+      <c r="A31" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B31" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E31" s="10"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4"/>
+    </row>
+    <row r="32" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+      <c r="A32" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B32" s="7">
+        <v>1</v>
+      </c>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="E32" s="10"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
+    </row>
+    <row r="33" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A33" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B33" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="E33" s="10"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
+    </row>
+    <row r="34" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+      <c r="A34" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="B34" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="E34" s="10"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="4"/>
+    </row>
+    <row r="35" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A35" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B35" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="E35" s="10"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
+    </row>
+    <row r="36" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+      <c r="A36" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B36" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="E36" s="10"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="4"/>
+    </row>
+    <row r="37" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+      <c r="A37" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B37" s="7">
+        <v>1</v>
+      </c>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="E37" s="10"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="4"/>
+    </row>
+    <row r="38" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="4"/>
+    </row>
+    <row r="39" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B39" s="14">
+        <f>SUM(B17:B38)</f>
+        <v>41</v>
+      </c>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="4"/>
+    </row>
+    <row r="40" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A40" s="16"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="4"/>
+    </row>
+    <row r="41" spans="1:18" ht="18" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="2">
+        <v>3</v>
+      </c>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="4"/>
+    </row>
+    <row r="42" spans="1:18" ht="15" x14ac:dyDescent="0.3">
+      <c r="A42" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" s="10"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="4"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="4"/>
+    </row>
+    <row r="43" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A43" s="7"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="4"/>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="4"/>
+    </row>
+    <row r="44" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A44" s="7"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="4"/>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="4"/>
+    </row>
+    <row r="45" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A45" s="7"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4"/>
+      <c r="O45" s="4"/>
+      <c r="P45" s="4"/>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="4"/>
+    </row>
+    <row r="46" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A46" s="7"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="4"/>
+      <c r="N46" s="4"/>
+      <c r="O46" s="4"/>
+      <c r="P46" s="4"/>
+      <c r="Q46" s="4"/>
+      <c r="R46" s="4"/>
+    </row>
+    <row r="47" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A47" s="7"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="4"/>
+      <c r="O47" s="4"/>
+      <c r="P47" s="4"/>
+      <c r="Q47" s="4"/>
+      <c r="R47" s="4"/>
+    </row>
+    <row r="48" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A48" s="7"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="4"/>
+      <c r="N48" s="4"/>
+      <c r="O48" s="4"/>
+      <c r="P48" s="4"/>
+      <c r="Q48" s="4"/>
+      <c r="R48" s="4"/>
+    </row>
+    <row r="49" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A49" s="7"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4"/>
+      <c r="M49" s="4"/>
+      <c r="N49" s="4"/>
+      <c r="O49" s="4"/>
+      <c r="P49" s="4"/>
+      <c r="Q49" s="4"/>
+      <c r="R49" s="4"/>
+    </row>
+    <row r="50" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A50" s="23"/>
+      <c r="B50" s="23"/>
+      <c r="C50" s="24"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="4"/>
+      <c r="L50" s="4"/>
+      <c r="M50" s="4"/>
+      <c r="N50" s="4"/>
+      <c r="O50" s="4"/>
+      <c r="P50" s="4"/>
+      <c r="Q50" s="4"/>
+      <c r="R50" s="4"/>
+    </row>
+    <row r="51" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+      <c r="A51" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B51" s="14">
+        <f>SUM(B43:B50)</f>
+        <v>0</v>
+      </c>
+      <c r="C51" s="15"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="4"/>
+      <c r="L51" s="4"/>
+      <c r="M51" s="4"/>
+      <c r="N51" s="4"/>
+      <c r="O51" s="4"/>
+      <c r="P51" s="4"/>
+      <c r="Q51" s="4"/>
+      <c r="R51" s="4"/>
+    </row>
+    <row r="52" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A52" s="16"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="4"/>
+      <c r="M52" s="4"/>
+      <c r="N52" s="4"/>
+      <c r="O52" s="4"/>
+      <c r="P52" s="4"/>
+      <c r="Q52" s="4"/>
+      <c r="R52" s="4"/>
+    </row>
+    <row r="53" spans="1:18" ht="18" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" s="2">
+        <v>4</v>
+      </c>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4"/>
+      <c r="L53" s="4"/>
+      <c r="M53" s="4"/>
+      <c r="N53" s="4"/>
+      <c r="O53" s="4"/>
+      <c r="P53" s="4"/>
+      <c r="Q53" s="4"/>
+      <c r="R53" s="4"/>
+    </row>
+    <row r="54" spans="1:18" ht="15" x14ac:dyDescent="0.3">
+      <c r="A54" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E54" s="10"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="4"/>
+      <c r="L54" s="4"/>
+      <c r="M54" s="4"/>
+      <c r="N54" s="4"/>
+      <c r="O54" s="4"/>
+      <c r="P54" s="4"/>
+      <c r="Q54" s="4"/>
+      <c r="R54" s="4"/>
+    </row>
+    <row r="55" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A55" s="19"/>
+      <c r="B55" s="19"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="4"/>
+      <c r="L55" s="4"/>
+      <c r="M55" s="4"/>
+      <c r="N55" s="4"/>
+      <c r="O55" s="4"/>
+      <c r="P55" s="4"/>
+      <c r="Q55" s="4"/>
+      <c r="R55" s="4"/>
+    </row>
+    <row r="56" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A56" s="7"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
+      <c r="K56" s="4"/>
+      <c r="L56" s="4"/>
+      <c r="M56" s="4"/>
+      <c r="N56" s="4"/>
+      <c r="O56" s="4"/>
+      <c r="P56" s="4"/>
+      <c r="Q56" s="4"/>
+      <c r="R56" s="4"/>
+    </row>
+    <row r="57" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="7"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
+      <c r="K57" s="4"/>
+      <c r="L57" s="4"/>
+      <c r="M57" s="4"/>
+      <c r="N57" s="4"/>
+      <c r="O57" s="4"/>
+      <c r="P57" s="4"/>
+      <c r="Q57" s="4"/>
+      <c r="R57" s="4"/>
+    </row>
+    <row r="58" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="7"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
+      <c r="K58" s="4"/>
+      <c r="L58" s="4"/>
+      <c r="M58" s="4"/>
+      <c r="N58" s="4"/>
+      <c r="O58" s="4"/>
+      <c r="P58" s="4"/>
+      <c r="Q58" s="4"/>
+      <c r="R58" s="4"/>
+    </row>
+    <row r="59" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="7"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
+      <c r="J59" s="4"/>
+      <c r="K59" s="4"/>
+      <c r="L59" s="4"/>
+      <c r="M59" s="4"/>
+      <c r="N59" s="4"/>
+      <c r="O59" s="4"/>
+      <c r="P59" s="4"/>
+      <c r="Q59" s="4"/>
+      <c r="R59" s="4"/>
+    </row>
+    <row r="60" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="7"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
+      <c r="J60" s="4"/>
+      <c r="K60" s="4"/>
+      <c r="L60" s="4"/>
+      <c r="M60" s="4"/>
+      <c r="N60" s="4"/>
+      <c r="O60" s="4"/>
+      <c r="P60" s="4"/>
+      <c r="Q60" s="4"/>
+      <c r="R60" s="4"/>
+    </row>
+    <row r="61" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="25"/>
+      <c r="B61" s="25"/>
+      <c r="C61" s="26"/>
+      <c r="D61" s="26"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="4"/>
+      <c r="K61" s="4"/>
+      <c r="L61" s="4"/>
+      <c r="M61" s="4"/>
+      <c r="N61" s="4"/>
+      <c r="O61" s="4"/>
+      <c r="P61" s="4"/>
+      <c r="Q61" s="4"/>
+      <c r="R61" s="4"/>
+    </row>
+    <row r="62" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="25"/>
+      <c r="B62" s="25"/>
+      <c r="C62" s="26"/>
+      <c r="D62" s="26"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="4"/>
+      <c r="K62" s="4"/>
+      <c r="L62" s="4"/>
+      <c r="M62" s="4"/>
+      <c r="N62" s="4"/>
+      <c r="O62" s="4"/>
+      <c r="P62" s="4"/>
+      <c r="Q62" s="4"/>
+      <c r="R62" s="4"/>
+    </row>
+    <row r="63" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="25"/>
+      <c r="B63" s="25"/>
+      <c r="C63" s="26"/>
+      <c r="D63" s="26"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="4"/>
+      <c r="K63" s="4"/>
+      <c r="L63" s="4"/>
+      <c r="M63" s="4"/>
+      <c r="N63" s="4"/>
+      <c r="O63" s="4"/>
+      <c r="P63" s="4"/>
+      <c r="Q63" s="4"/>
+      <c r="R63" s="4"/>
+    </row>
+    <row r="64" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="25"/>
+      <c r="B64" s="25"/>
+      <c r="C64" s="26"/>
+      <c r="D64" s="26"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
+      <c r="J64" s="4"/>
+      <c r="K64" s="4"/>
+      <c r="L64" s="4"/>
+      <c r="M64" s="4"/>
+      <c r="N64" s="4"/>
+      <c r="O64" s="4"/>
+      <c r="P64" s="4"/>
+      <c r="Q64" s="4"/>
+      <c r="R64" s="4"/>
+    </row>
+    <row r="65" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="23"/>
+      <c r="B65" s="23"/>
+      <c r="C65" s="24"/>
+      <c r="D65" s="24"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="4"/>
+      <c r="K65" s="4"/>
+      <c r="L65" s="4"/>
+      <c r="M65" s="4"/>
+      <c r="N65" s="4"/>
+      <c r="O65" s="4"/>
+      <c r="P65" s="4"/>
+      <c r="Q65" s="4"/>
+      <c r="R65" s="4"/>
+    </row>
+    <row r="66" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B66" s="14">
+        <f>SUM(B55:B65)</f>
+        <v>0</v>
+      </c>
+      <c r="C66" s="15"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4"/>
+      <c r="K66" s="4"/>
+      <c r="L66" s="4"/>
+      <c r="M66" s="4"/>
+      <c r="N66" s="4"/>
+      <c r="O66" s="4"/>
+      <c r="P66" s="4"/>
+      <c r="Q66" s="4"/>
+      <c r="R66" s="4"/>
+    </row>
+    <row r="67" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="16"/>
+      <c r="B67" s="16"/>
+      <c r="C67" s="16"/>
+      <c r="D67" s="16"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="4"/>
+      <c r="K67" s="4"/>
+      <c r="L67" s="4"/>
+      <c r="M67" s="4"/>
+      <c r="N67" s="4"/>
+      <c r="O67" s="4"/>
+      <c r="P67" s="4"/>
+      <c r="Q67" s="4"/>
+      <c r="R67" s="4"/>
+    </row>
+    <row r="68" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68" s="2">
+        <v>5</v>
+      </c>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="4"/>
+      <c r="J68" s="4"/>
+      <c r="K68" s="4"/>
+      <c r="L68" s="4"/>
+      <c r="M68" s="4"/>
+      <c r="N68" s="4"/>
+      <c r="O68" s="4"/>
+      <c r="P68" s="4"/>
+      <c r="Q68" s="4"/>
+      <c r="R68" s="4"/>
+    </row>
+    <row r="69" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E69" s="10"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
+      <c r="I69" s="4"/>
+      <c r="J69" s="4"/>
+      <c r="K69" s="4"/>
+      <c r="L69" s="4"/>
+      <c r="M69" s="4"/>
+      <c r="N69" s="4"/>
+      <c r="O69" s="4"/>
+      <c r="P69" s="4"/>
+      <c r="Q69" s="4"/>
+      <c r="R69" s="4"/>
+    </row>
+    <row r="70" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="19"/>
+      <c r="B70" s="19"/>
+      <c r="C70" s="20"/>
+      <c r="D70" s="20"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4"/>
+      <c r="I70" s="4"/>
+      <c r="J70" s="4"/>
+      <c r="K70" s="4"/>
+      <c r="L70" s="4"/>
+      <c r="M70" s="4"/>
+      <c r="N70" s="4"/>
+      <c r="O70" s="4"/>
+      <c r="P70" s="4"/>
+      <c r="Q70" s="4"/>
+      <c r="R70" s="4"/>
+    </row>
+    <row r="71" spans="1:18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="7"/>
+      <c r="B71" s="7"/>
+      <c r="C71" s="9"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="10"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
+      <c r="I71" s="4"/>
+      <c r="J71" s="4"/>
+      <c r="K71" s="4"/>
+      <c r="L71" s="4"/>
+      <c r="M71" s="4"/>
+      <c r="N71" s="4"/>
+      <c r="O71" s="4"/>
+      <c r="P71" s="4"/>
+      <c r="Q71" s="4"/>
+      <c r="R71" s="4"/>
+    </row>
+    <row r="72" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A72" s="7"/>
+      <c r="B72" s="7"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="10"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="4"/>
+      <c r="I72" s="4"/>
+      <c r="J72" s="4"/>
+      <c r="K72" s="4"/>
+      <c r="L72" s="4"/>
+      <c r="M72" s="4"/>
+      <c r="N72" s="4"/>
+      <c r="O72" s="4"/>
+      <c r="P72" s="4"/>
+      <c r="Q72" s="4"/>
+      <c r="R72" s="4"/>
+    </row>
+    <row r="73" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A73" s="7"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="10"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
+      <c r="H73" s="4"/>
+      <c r="I73" s="4"/>
+      <c r="J73" s="4"/>
+      <c r="K73" s="4"/>
+      <c r="L73" s="4"/>
+      <c r="M73" s="4"/>
+      <c r="N73" s="4"/>
+      <c r="O73" s="4"/>
+      <c r="P73" s="4"/>
+      <c r="Q73" s="4"/>
+      <c r="R73" s="4"/>
+    </row>
+    <row r="74" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A74" s="7"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="9"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="10"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="4"/>
+      <c r="I74" s="4"/>
+      <c r="J74" s="4"/>
+      <c r="K74" s="4"/>
+      <c r="L74" s="4"/>
+      <c r="M74" s="4"/>
+      <c r="N74" s="4"/>
+      <c r="O74" s="4"/>
+      <c r="P74" s="4"/>
+      <c r="Q74" s="4"/>
+      <c r="R74" s="4"/>
+    </row>
+    <row r="75" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A75" s="23"/>
+      <c r="B75" s="23"/>
+      <c r="C75" s="24"/>
+      <c r="D75" s="24"/>
+      <c r="E75" s="10"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="4"/>
+      <c r="I75" s="4"/>
+      <c r="J75" s="4"/>
+      <c r="K75" s="4"/>
+      <c r="L75" s="4"/>
+      <c r="M75" s="4"/>
+      <c r="N75" s="4"/>
+      <c r="O75" s="4"/>
+      <c r="P75" s="4"/>
+      <c r="Q75" s="4"/>
+      <c r="R75" s="4"/>
+    </row>
+    <row r="76" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+      <c r="A76" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B76" s="14">
+        <f>SUM(B70:B75)</f>
+        <v>0</v>
+      </c>
+      <c r="C76" s="15"/>
+      <c r="D76" s="15"/>
+      <c r="E76" s="10"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
+      <c r="I76" s="4"/>
+      <c r="J76" s="4"/>
+      <c r="K76" s="4"/>
+      <c r="L76" s="4"/>
+      <c r="M76" s="4"/>
+      <c r="N76" s="4"/>
+      <c r="O76" s="4"/>
+      <c r="P76" s="4"/>
+      <c r="Q76" s="4"/>
+      <c r="R76" s="4"/>
+    </row>
+    <row r="77" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A77" s="16"/>
+      <c r="B77" s="16"/>
+      <c r="C77" s="16"/>
+      <c r="D77" s="16"/>
+      <c r="E77" s="10"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="4"/>
+      <c r="I77" s="4"/>
+      <c r="J77" s="4"/>
+      <c r="K77" s="4"/>
+      <c r="L77" s="4"/>
+      <c r="M77" s="4"/>
+      <c r="N77" s="4"/>
+      <c r="O77" s="4"/>
+      <c r="P77" s="4"/>
+      <c r="Q77" s="4"/>
+      <c r="R77" s="4"/>
+    </row>
+    <row r="78" spans="1:18" ht="18" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B78" s="2">
+        <v>6</v>
+      </c>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="10"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="4"/>
+      <c r="I78" s="4"/>
+      <c r="J78" s="4"/>
+      <c r="K78" s="4"/>
+      <c r="L78" s="4"/>
+      <c r="M78" s="4"/>
+      <c r="N78" s="4"/>
+      <c r="O78" s="4"/>
+      <c r="P78" s="4"/>
+      <c r="Q78" s="4"/>
+      <c r="R78" s="4"/>
+    </row>
+    <row r="79" spans="1:18" ht="15" x14ac:dyDescent="0.3">
+      <c r="A79" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E79" s="10"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="4"/>
+      <c r="I79" s="4"/>
+      <c r="J79" s="4"/>
+      <c r="K79" s="4"/>
+      <c r="L79" s="4"/>
+      <c r="M79" s="4"/>
+      <c r="N79" s="4"/>
+      <c r="O79" s="4"/>
+      <c r="P79" s="4"/>
+      <c r="Q79" s="4"/>
+      <c r="R79" s="4"/>
+    </row>
+    <row r="80" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A80" s="19"/>
+      <c r="B80" s="19"/>
+      <c r="C80" s="20"/>
+      <c r="D80" s="20"/>
+      <c r="E80" s="10"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="4"/>
+      <c r="I80" s="4"/>
+      <c r="J80" s="4"/>
+      <c r="K80" s="4"/>
+      <c r="L80" s="4"/>
+      <c r="M80" s="4"/>
+      <c r="N80" s="4"/>
+      <c r="O80" s="4"/>
+      <c r="P80" s="4"/>
+      <c r="Q80" s="4"/>
+      <c r="R80" s="4"/>
+    </row>
+    <row r="81" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A81" s="7"/>
+      <c r="B81" s="7"/>
+      <c r="C81" s="9"/>
+      <c r="D81" s="9"/>
+      <c r="E81" s="10"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="4"/>
+      <c r="I81" s="4"/>
+      <c r="J81" s="4"/>
+      <c r="K81" s="4"/>
+      <c r="L81" s="4"/>
+      <c r="M81" s="4"/>
+      <c r="N81" s="4"/>
+      <c r="O81" s="4"/>
+      <c r="P81" s="4"/>
+      <c r="Q81" s="4"/>
+      <c r="R81" s="4"/>
+    </row>
+    <row r="82" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A82" s="7"/>
+      <c r="B82" s="7"/>
+      <c r="C82" s="9"/>
+      <c r="D82" s="9"/>
+      <c r="E82" s="10"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="4"/>
+      <c r="I82" s="4"/>
+      <c r="J82" s="4"/>
+      <c r="K82" s="4"/>
+      <c r="L82" s="4"/>
+      <c r="M82" s="4"/>
+      <c r="N82" s="4"/>
+      <c r="O82" s="4"/>
+      <c r="P82" s="4"/>
+      <c r="Q82" s="4"/>
+      <c r="R82" s="4"/>
+    </row>
+    <row r="83" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A83" s="7"/>
+      <c r="B83" s="7"/>
+      <c r="C83" s="9"/>
+      <c r="D83" s="9"/>
+      <c r="E83" s="10"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="4"/>
+      <c r="I83" s="4"/>
+      <c r="J83" s="4"/>
+      <c r="K83" s="4"/>
+      <c r="L83" s="4"/>
+      <c r="M83" s="4"/>
+      <c r="N83" s="4"/>
+      <c r="O83" s="4"/>
+      <c r="P83" s="4"/>
+      <c r="Q83" s="4"/>
+      <c r="R83" s="4"/>
+    </row>
+    <row r="84" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A84" s="7"/>
+      <c r="B84" s="7"/>
+      <c r="C84" s="9"/>
+      <c r="D84" s="9"/>
+      <c r="E84" s="10"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="4"/>
+      <c r="H84" s="4"/>
+      <c r="I84" s="4"/>
+      <c r="J84" s="4"/>
+      <c r="K84" s="4"/>
+      <c r="L84" s="4"/>
+      <c r="M84" s="4"/>
+      <c r="N84" s="4"/>
+      <c r="O84" s="4"/>
+      <c r="P84" s="4"/>
+      <c r="Q84" s="4"/>
+      <c r="R84" s="4"/>
+    </row>
+    <row r="85" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A85" s="7"/>
+      <c r="B85" s="7"/>
+      <c r="C85" s="9"/>
+      <c r="D85" s="9"/>
+      <c r="E85" s="10"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
+      <c r="H85" s="4"/>
+      <c r="I85" s="4"/>
+      <c r="J85" s="4"/>
+      <c r="K85" s="4"/>
+      <c r="L85" s="4"/>
+      <c r="M85" s="4"/>
+      <c r="N85" s="4"/>
+      <c r="O85" s="4"/>
+      <c r="P85" s="4"/>
+      <c r="Q85" s="4"/>
+      <c r="R85" s="4"/>
+    </row>
+    <row r="86" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A86" s="7"/>
+      <c r="B86" s="7"/>
+      <c r="C86" s="9"/>
+      <c r="D86" s="9"/>
+      <c r="E86" s="10"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
+      <c r="H86" s="4"/>
+      <c r="I86" s="4"/>
+      <c r="J86" s="4"/>
+      <c r="K86" s="4"/>
+      <c r="L86" s="4"/>
+      <c r="M86" s="4"/>
+      <c r="N86" s="4"/>
+      <c r="O86" s="4"/>
+      <c r="P86" s="4"/>
+      <c r="Q86" s="4"/>
+      <c r="R86" s="4"/>
+    </row>
+    <row r="87" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A87" s="23"/>
+      <c r="B87" s="23"/>
+      <c r="C87" s="24"/>
+      <c r="D87" s="24"/>
+      <c r="E87" s="10"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="4"/>
+      <c r="H87" s="4"/>
+      <c r="I87" s="4"/>
+      <c r="J87" s="4"/>
+      <c r="K87" s="4"/>
+      <c r="L87" s="4"/>
+      <c r="M87" s="4"/>
+      <c r="N87" s="4"/>
+      <c r="O87" s="4"/>
+      <c r="P87" s="4"/>
+      <c r="Q87" s="4"/>
+      <c r="R87" s="4"/>
+    </row>
+    <row r="88" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+      <c r="A88" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B88" s="14">
+        <f>SUM(B80:B87)</f>
+        <v>0</v>
+      </c>
+      <c r="C88" s="15"/>
+      <c r="D88" s="15"/>
+      <c r="E88" s="10"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="4"/>
+      <c r="H88" s="4"/>
+      <c r="I88" s="4"/>
+      <c r="J88" s="4"/>
+      <c r="K88" s="4"/>
+      <c r="L88" s="4"/>
+      <c r="M88" s="4"/>
+      <c r="N88" s="4"/>
+      <c r="O88" s="4"/>
+      <c r="P88" s="4"/>
+      <c r="Q88" s="4"/>
+      <c r="R88" s="4"/>
+    </row>
+    <row r="89" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A89" s="16"/>
+      <c r="B89" s="16"/>
+      <c r="C89" s="16"/>
+      <c r="D89" s="16"/>
+      <c r="E89" s="10"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="4"/>
+      <c r="H89" s="4"/>
+      <c r="I89" s="4"/>
+      <c r="J89" s="4"/>
+      <c r="K89" s="4"/>
+      <c r="L89" s="4"/>
+      <c r="M89" s="4"/>
+      <c r="N89" s="4"/>
+      <c r="O89" s="4"/>
+      <c r="P89" s="4"/>
+      <c r="Q89" s="4"/>
+      <c r="R89" s="4"/>
+    </row>
+    <row r="90" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A90" s="27"/>
+      <c r="B90" s="27"/>
+      <c r="C90" s="27"/>
+      <c r="D90" s="27"/>
+      <c r="E90" s="10"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="4"/>
+      <c r="H90" s="4"/>
+      <c r="I90" s="4"/>
+      <c r="J90" s="4"/>
+      <c r="K90" s="4"/>
+      <c r="L90" s="4"/>
+      <c r="M90" s="4"/>
+      <c r="N90" s="4"/>
+      <c r="O90" s="4"/>
+      <c r="P90" s="4"/>
+      <c r="Q90" s="4"/>
+      <c r="R90" s="4"/>
+    </row>
+    <row r="91" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A91" s="27"/>
+      <c r="B91" s="27"/>
+      <c r="C91" s="27"/>
+      <c r="D91" s="27"/>
+      <c r="E91" s="10"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="4"/>
+      <c r="H91" s="4"/>
+      <c r="I91" s="4"/>
+      <c r="J91" s="4"/>
+      <c r="K91" s="4"/>
+      <c r="L91" s="4"/>
+      <c r="M91" s="4"/>
+      <c r="N91" s="4"/>
+      <c r="O91" s="4"/>
+      <c r="P91" s="4"/>
+      <c r="Q91" s="4"/>
+      <c r="R91" s="4"/>
+    </row>
+    <row r="92" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A92" s="27"/>
+      <c r="B92" s="27"/>
+      <c r="C92" s="27"/>
+      <c r="D92" s="27"/>
+      <c r="E92" s="10"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="4"/>
+      <c r="H92" s="4"/>
+      <c r="I92" s="4"/>
+      <c r="J92" s="4"/>
+      <c r="K92" s="4"/>
+      <c r="L92" s="4"/>
+      <c r="M92" s="4"/>
+      <c r="N92" s="4"/>
+      <c r="O92" s="4"/>
+      <c r="P92" s="4"/>
+      <c r="Q92" s="4"/>
+      <c r="R92" s="4"/>
+    </row>
+    <row r="93" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A93" s="27"/>
+      <c r="B93" s="27"/>
+      <c r="C93" s="27"/>
+      <c r="D93" s="27"/>
+      <c r="E93" s="10"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="4"/>
+      <c r="H93" s="4"/>
+      <c r="I93" s="4"/>
+      <c r="J93" s="4"/>
+      <c r="K93" s="4"/>
+      <c r="L93" s="4"/>
+      <c r="M93" s="4"/>
+      <c r="N93" s="4"/>
+      <c r="O93" s="4"/>
+      <c r="P93" s="4"/>
+      <c r="Q93" s="4"/>
+      <c r="R93" s="4"/>
+    </row>
+    <row r="94" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A94" s="27"/>
+      <c r="B94" s="27"/>
+      <c r="C94" s="27"/>
+      <c r="D94" s="27"/>
+      <c r="E94" s="10"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="4"/>
+      <c r="H94" s="4"/>
+      <c r="I94" s="4"/>
+      <c r="J94" s="4"/>
+      <c r="K94" s="4"/>
+      <c r="L94" s="4"/>
+      <c r="M94" s="4"/>
+      <c r="N94" s="4"/>
+      <c r="O94" s="4"/>
+      <c r="P94" s="4"/>
+      <c r="Q94" s="4"/>
+      <c r="R94" s="4"/>
+    </row>
+    <row r="95" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A95" s="27"/>
+      <c r="B95" s="27"/>
+      <c r="C95" s="27"/>
+      <c r="D95" s="27"/>
+      <c r="E95" s="10"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="4"/>
+      <c r="H95" s="4"/>
+      <c r="I95" s="4"/>
+      <c r="J95" s="4"/>
+      <c r="K95" s="4"/>
+      <c r="L95" s="4"/>
+      <c r="M95" s="4"/>
+      <c r="N95" s="4"/>
+      <c r="O95" s="4"/>
+      <c r="P95" s="4"/>
+      <c r="Q95" s="4"/>
+      <c r="R95" s="4"/>
+    </row>
+    <row r="96" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A96" s="27"/>
+      <c r="B96" s="27"/>
+      <c r="C96" s="27"/>
+      <c r="D96" s="27"/>
+      <c r="E96" s="10"/>
+      <c r="F96" s="4"/>
+      <c r="G96" s="4"/>
+      <c r="H96" s="4"/>
+      <c r="I96" s="4"/>
+      <c r="J96" s="4"/>
+      <c r="K96" s="4"/>
+      <c r="L96" s="4"/>
+      <c r="M96" s="4"/>
+      <c r="N96" s="4"/>
+      <c r="O96" s="4"/>
+      <c r="P96" s="4"/>
+      <c r="Q96" s="4"/>
+      <c r="R96" s="4"/>
+    </row>
+    <row r="97" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A97" s="27"/>
+      <c r="B97" s="27"/>
+      <c r="C97" s="27"/>
+      <c r="D97" s="27"/>
+      <c r="E97" s="10"/>
+      <c r="F97" s="4"/>
+      <c r="G97" s="4"/>
+      <c r="H97" s="4"/>
+      <c r="I97" s="4"/>
+      <c r="J97" s="4"/>
+      <c r="K97" s="4"/>
+      <c r="L97" s="4"/>
+      <c r="M97" s="4"/>
+      <c r="N97" s="4"/>
+      <c r="O97" s="4"/>
+      <c r="P97" s="4"/>
+      <c r="Q97" s="4"/>
+      <c r="R97" s="4"/>
+    </row>
+    <row r="98" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A98" s="27"/>
+      <c r="B98" s="27"/>
+      <c r="C98" s="27"/>
+      <c r="D98" s="27"/>
+      <c r="E98" s="10"/>
+      <c r="F98" s="4"/>
+      <c r="G98" s="4"/>
+      <c r="H98" s="4"/>
+      <c r="I98" s="4"/>
+      <c r="J98" s="4"/>
+      <c r="K98" s="4"/>
+      <c r="L98" s="4"/>
+      <c r="M98" s="4"/>
+      <c r="N98" s="4"/>
+      <c r="O98" s="4"/>
+      <c r="P98" s="4"/>
+      <c r="Q98" s="4"/>
+      <c r="R98" s="4"/>
+    </row>
+    <row r="99" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A99" s="27"/>
+      <c r="B99" s="27"/>
+      <c r="C99" s="27"/>
+      <c r="D99" s="27"/>
+      <c r="E99" s="10"/>
+      <c r="F99" s="4"/>
+      <c r="G99" s="4"/>
+      <c r="H99" s="4"/>
+      <c r="I99" s="4"/>
+      <c r="J99" s="4"/>
+      <c r="K99" s="4"/>
+      <c r="L99" s="4"/>
+      <c r="M99" s="4"/>
+      <c r="N99" s="4"/>
+      <c r="O99" s="4"/>
+      <c r="P99" s="4"/>
+      <c r="Q99" s="4"/>
+      <c r="R99" s="4"/>
+    </row>
+    <row r="100" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A100" s="27"/>
+      <c r="B100" s="27"/>
+      <c r="C100" s="27"/>
+      <c r="D100" s="27"/>
+      <c r="E100" s="10"/>
+      <c r="F100" s="4"/>
+      <c r="G100" s="4"/>
+      <c r="H100" s="4"/>
+      <c r="I100" s="4"/>
+      <c r="J100" s="4"/>
+      <c r="K100" s="4"/>
+      <c r="L100" s="4"/>
+      <c r="M100" s="4"/>
+      <c r="N100" s="4"/>
+      <c r="O100" s="4"/>
+      <c r="P100" s="4"/>
+      <c r="Q100" s="4"/>
+      <c r="R100" s="4"/>
+    </row>
+    <row r="101" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A101" s="28"/>
+      <c r="B101" s="28"/>
+      <c r="C101" s="28"/>
+      <c r="D101" s="28"/>
+      <c r="E101" s="10"/>
+      <c r="F101" s="4"/>
+      <c r="G101" s="4"/>
+      <c r="H101" s="4"/>
+      <c r="I101" s="4"/>
+      <c r="J101" s="4"/>
+      <c r="K101" s="4"/>
+      <c r="L101" s="4"/>
+      <c r="M101" s="4"/>
+      <c r="N101" s="4"/>
+      <c r="O101" s="4"/>
+      <c r="P101" s="4"/>
+      <c r="Q101" s="4"/>
+      <c r="R101" s="4"/>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" prompt="Durée en 1/3 de période - Le nombre doit être de type entier" sqref="B80:B87 B17:B38 B43:B44 B46:B50 B55:B65 B70:B75 B3:B8 B10:B12" xr:uid="{76F8C2A5-22FC-42B6-BF5F-FD1899EE52B8}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" prompt="Dépassement de durée - Le nombre de minutes introduites dépasse la durée d'une période. Veuillez confirmer ... Le calcul du total sera juste dans tous les cas._x000a_" sqref="B13 B39 B51 B66 B76 B88" xr:uid="{BD151BE4-B931-4CBD-823B-9C753DC07C8D}">
+      <formula1>0</formula1>
+      <formula2>DureePeriode-1</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F222774-5003-490D-9078-78D1F6F89A4A}">
+  <dimension ref="A1:R96"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="78.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+    </row>
+    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+    </row>
+    <row r="3" spans="1:18" ht="94.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="7">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8">
+        <v>43906</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="10"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+    </row>
+    <row r="4" spans="1:18" ht="54" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="7">
+        <v>2</v>
+      </c>
+      <c r="C4" s="8">
+        <v>43906</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+    </row>
+    <row r="5" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="7">
+        <v>2</v>
+      </c>
+      <c r="C5" s="8">
+        <v>43907</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+    </row>
+    <row r="6" spans="1:18" ht="81" x14ac:dyDescent="0.3">
+      <c r="A6" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="25">
+        <v>2</v>
+      </c>
+      <c r="C6" s="8">
+        <v>43908</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+    </row>
+    <row r="7" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="29">
+        <v>2</v>
+      </c>
+      <c r="C7" s="11">
+        <v>43909</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+    </row>
+    <row r="8" spans="1:18" ht="108" x14ac:dyDescent="0.3">
+      <c r="A8" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="29">
+        <v>2</v>
+      </c>
+      <c r="C8" s="11">
+        <v>43910</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+    </row>
+    <row r="9" spans="1:18" ht="94.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="31">
+        <v>3</v>
+      </c>
+      <c r="C9" s="11">
+        <v>43911</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+    </row>
+    <row r="10" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="7">
+        <v>1</v>
+      </c>
+      <c r="C10" s="8">
+        <v>43913</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+    </row>
+    <row r="11" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="7">
+        <v>3</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="10"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+    </row>
+    <row r="12" spans="1:18" ht="94.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+    </row>
+    <row r="13" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+    </row>
+    <row r="14" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="14">
+        <f>SUM(B3:B13)</f>
+        <v>21</v>
+      </c>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+    </row>
+    <row r="15" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+    </row>
+    <row r="16" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="2">
+        <v>2</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+    </row>
+    <row r="17" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="10"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+    </row>
+    <row r="18" spans="1:18" ht="54" x14ac:dyDescent="0.3">
+      <c r="A18" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="7">
+        <v>2</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="10"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+    </row>
+    <row r="19" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="7">
+        <v>4</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E19" s="10"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+    </row>
+    <row r="20" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="7">
+        <v>2</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E20" s="10"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+    </row>
+    <row r="21" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="7">
+        <v>1</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" s="10"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+    </row>
+    <row r="22" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" s="10"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+    </row>
+    <row r="23" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="7">
+        <v>1</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E23" s="10"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+    </row>
+    <row r="24" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E24" s="10"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+    </row>
+    <row r="25" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25" s="7">
+        <v>3</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E25" s="10"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+    </row>
+    <row r="26" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
+      <c r="A26" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" s="7">
+        <v>7</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E26" s="10"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+    </row>
+    <row r="27" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+      <c r="A27" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E27" s="10"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+    </row>
+    <row r="28" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A28" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E28" s="10"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+    </row>
+    <row r="29" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+      <c r="A29" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B29" s="7">
+        <v>8</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>102</v>
+      </c>
       <c r="E29" s="10"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
@@ -6956,16 +9519,11 @@
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
     </row>
-    <row r="33" spans="1:18" ht="27" x14ac:dyDescent="0.3">
-      <c r="A33" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B33" s="14">
-        <f>SUM(B17:B32)</f>
-        <v>0</v>
-      </c>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
+    <row r="33" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
       <c r="E33" s="10"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
@@ -6981,11 +9539,16 @@
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
     </row>
-    <row r="34" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A34" s="16"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
+    <row r="34" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="14">
+        <f>SUM(B18:B33)</f>
+        <v>45</v>
+      </c>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
       <c r="E34" s="10"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
@@ -7001,15 +9564,11 @@
       <c r="Q34" s="4"/>
       <c r="R34" s="4"/>
     </row>
-    <row r="35" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B35" s="2">
-        <v>3</v>
-      </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
+    <row r="35" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="16"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
       <c r="E35" s="10"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
@@ -7025,17 +9584,15 @@
       <c r="Q35" s="4"/>
       <c r="R35" s="4"/>
     </row>
-    <row r="36" spans="1:18" ht="15" x14ac:dyDescent="0.3">
-      <c r="A36" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B36" s="6" t="s">
+    <row r="36" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="2">
         <v>3</v>
       </c>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
       <c r="E36" s="10"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
@@ -7051,11 +9608,17 @@
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
     </row>
-    <row r="37" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="20"/>
+    <row r="37" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="E37" s="10"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
@@ -7075,7 +9638,7 @@
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="21"/>
-      <c r="D38" s="9"/>
+      <c r="D38" s="20"/>
       <c r="E38" s="10"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
@@ -7094,7 +9657,7 @@
     <row r="39" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
-      <c r="C39" s="22"/>
+      <c r="C39" s="21"/>
       <c r="D39" s="9"/>
       <c r="E39" s="10"/>
       <c r="F39" s="4"/>
@@ -7114,7 +9677,7 @@
     <row r="40" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
-      <c r="C40" s="9"/>
+      <c r="C40" s="22"/>
       <c r="D40" s="9"/>
       <c r="E40" s="10"/>
       <c r="F40" s="4"/>
@@ -7192,10 +9755,10 @@
       <c r="R43" s="4"/>
     </row>
     <row r="44" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A44" s="23"/>
-      <c r="B44" s="23"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24"/>
+      <c r="A44" s="7"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
       <c r="E44" s="10"/>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
@@ -7211,16 +9774,11 @@
       <c r="Q44" s="4"/>
       <c r="R44" s="4"/>
     </row>
-    <row r="45" spans="1:18" ht="27" x14ac:dyDescent="0.3">
-      <c r="A45" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B45" s="14">
-        <f>SUM(B37:B44)</f>
-        <v>0</v>
-      </c>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
+    <row r="45" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="23"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
       <c r="E45" s="10"/>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
@@ -7236,11 +9794,16 @@
       <c r="Q45" s="4"/>
       <c r="R45" s="4"/>
     </row>
-    <row r="46" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A46" s="16"/>
-      <c r="B46" s="16"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
+    <row r="46" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B46" s="14">
+        <f>SUM(B38:B45)</f>
+        <v>0</v>
+      </c>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
       <c r="E46" s="10"/>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
@@ -7256,15 +9819,11 @@
       <c r="Q46" s="4"/>
       <c r="R46" s="4"/>
     </row>
-    <row r="47" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47" s="2">
-        <v>4</v>
-      </c>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
+    <row r="47" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="16"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
       <c r="E47" s="10"/>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
@@ -7280,17 +9839,15 @@
       <c r="Q47" s="4"/>
       <c r="R47" s="4"/>
     </row>
-    <row r="48" spans="1:18" ht="15" x14ac:dyDescent="0.3">
-      <c r="A48" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5" t="s">
-        <v>5</v>
-      </c>
+    <row r="48" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" s="2">
+        <v>4</v>
+      </c>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
       <c r="E48" s="10"/>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
@@ -7306,11 +9863,17 @@
       <c r="Q48" s="4"/>
       <c r="R48" s="4"/>
     </row>
-    <row r="49" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A49" s="19"/>
-      <c r="B49" s="19"/>
-      <c r="C49" s="20"/>
-      <c r="D49" s="20"/>
+    <row r="49" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="E49" s="10"/>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
@@ -7327,10 +9890,10 @@
       <c r="R49" s="4"/>
     </row>
     <row r="50" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A50" s="7"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
+      <c r="A50" s="19"/>
+      <c r="B50" s="19"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="20"/>
       <c r="E50" s="10"/>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
@@ -7427,10 +9990,10 @@
       <c r="R54" s="4"/>
     </row>
     <row r="55" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A55" s="25"/>
-      <c r="B55" s="25"/>
-      <c r="C55" s="26"/>
-      <c r="D55" s="26"/>
+      <c r="A55" s="7"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
       <c r="E55" s="10"/>
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
@@ -7507,10 +10070,10 @@
       <c r="R58" s="4"/>
     </row>
     <row r="59" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A59" s="23"/>
-      <c r="B59" s="23"/>
-      <c r="C59" s="24"/>
-      <c r="D59" s="24"/>
+      <c r="A59" s="25"/>
+      <c r="B59" s="25"/>
+      <c r="C59" s="26"/>
+      <c r="D59" s="26"/>
       <c r="E59" s="10"/>
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
@@ -7526,16 +10089,11 @@
       <c r="Q59" s="4"/>
       <c r="R59" s="4"/>
     </row>
-    <row r="60" spans="1:18" ht="27" x14ac:dyDescent="0.3">
-      <c r="A60" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B60" s="14">
-        <f>SUM(B49:B59)</f>
-        <v>0</v>
-      </c>
-      <c r="C60" s="15"/>
-      <c r="D60" s="15"/>
+    <row r="60" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="23"/>
+      <c r="B60" s="23"/>
+      <c r="C60" s="24"/>
+      <c r="D60" s="24"/>
       <c r="E60" s="10"/>
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
@@ -7551,11 +10109,16 @@
       <c r="Q60" s="4"/>
       <c r="R60" s="4"/>
     </row>
-    <row r="61" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A61" s="16"/>
-      <c r="B61" s="16"/>
-      <c r="C61" s="16"/>
-      <c r="D61" s="16"/>
+    <row r="61" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B61" s="14">
+        <f>SUM(B50:B60)</f>
+        <v>0</v>
+      </c>
+      <c r="C61" s="15"/>
+      <c r="D61" s="15"/>
       <c r="E61" s="10"/>
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
@@ -7571,15 +10134,11 @@
       <c r="Q61" s="4"/>
       <c r="R61" s="4"/>
     </row>
-    <row r="62" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B62" s="2">
-        <v>5</v>
-      </c>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
+    <row r="62" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="16"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="16"/>
+      <c r="D62" s="16"/>
       <c r="E62" s="10"/>
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
@@ -7595,17 +10154,15 @@
       <c r="Q62" s="4"/>
       <c r="R62" s="4"/>
     </row>
-    <row r="63" spans="1:18" ht="15" x14ac:dyDescent="0.3">
-      <c r="A63" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C63" s="5"/>
-      <c r="D63" s="5" t="s">
+    <row r="63" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B63" s="2">
         <v>5</v>
       </c>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
       <c r="E63" s="10"/>
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
@@ -7621,11 +10178,17 @@
       <c r="Q63" s="4"/>
       <c r="R63" s="4"/>
     </row>
-    <row r="64" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A64" s="19"/>
-      <c r="B64" s="19"/>
-      <c r="C64" s="20"/>
-      <c r="D64" s="20"/>
+    <row r="64" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="E64" s="10"/>
       <c r="F64" s="4"/>
       <c r="G64" s="4"/>
@@ -7642,10 +10205,10 @@
       <c r="R64" s="4"/>
     </row>
     <row r="65" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A65" s="7"/>
-      <c r="B65" s="7"/>
-      <c r="C65" s="9"/>
-      <c r="D65" s="9"/>
+      <c r="A65" s="19"/>
+      <c r="B65" s="19"/>
+      <c r="C65" s="20"/>
+      <c r="D65" s="20"/>
       <c r="E65" s="10"/>
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
@@ -7722,10 +10285,10 @@
       <c r="R68" s="4"/>
     </row>
     <row r="69" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A69" s="23"/>
-      <c r="B69" s="23"/>
-      <c r="C69" s="24"/>
-      <c r="D69" s="24"/>
+      <c r="A69" s="7"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
       <c r="E69" s="10"/>
       <c r="F69" s="4"/>
       <c r="G69" s="4"/>
@@ -7741,16 +10304,11 @@
       <c r="Q69" s="4"/>
       <c r="R69" s="4"/>
     </row>
-    <row r="70" spans="1:18" ht="27" x14ac:dyDescent="0.3">
-      <c r="A70" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B70" s="14">
-        <f>SUM(B64:B69)</f>
-        <v>0</v>
-      </c>
-      <c r="C70" s="15"/>
-      <c r="D70" s="15"/>
+    <row r="70" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="23"/>
+      <c r="B70" s="23"/>
+      <c r="C70" s="24"/>
+      <c r="D70" s="24"/>
       <c r="E70" s="10"/>
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
@@ -7766,11 +10324,16 @@
       <c r="Q70" s="4"/>
       <c r="R70" s="4"/>
     </row>
-    <row r="71" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A71" s="16"/>
-      <c r="B71" s="16"/>
-      <c r="C71" s="16"/>
-      <c r="D71" s="16"/>
+    <row r="71" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B71" s="14">
+        <f>SUM(B65:B70)</f>
+        <v>0</v>
+      </c>
+      <c r="C71" s="15"/>
+      <c r="D71" s="15"/>
       <c r="E71" s="10"/>
       <c r="F71" s="4"/>
       <c r="G71" s="4"/>
@@ -7786,15 +10349,11 @@
       <c r="Q71" s="4"/>
       <c r="R71" s="4"/>
     </row>
-    <row r="72" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A72" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B72" s="2">
-        <v>6</v>
-      </c>
-      <c r="C72" s="3"/>
-      <c r="D72" s="3"/>
+    <row r="72" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="16"/>
+      <c r="B72" s="16"/>
+      <c r="C72" s="16"/>
+      <c r="D72" s="16"/>
       <c r="E72" s="10"/>
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
@@ -7810,17 +10369,15 @@
       <c r="Q72" s="4"/>
       <c r="R72" s="4"/>
     </row>
-    <row r="73" spans="1:18" ht="15" x14ac:dyDescent="0.3">
-      <c r="A73" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B73" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C73" s="5"/>
-      <c r="D73" s="5" t="s">
-        <v>5</v>
-      </c>
+    <row r="73" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73" s="2">
+        <v>6</v>
+      </c>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
       <c r="E73" s="10"/>
       <c r="F73" s="4"/>
       <c r="G73" s="4"/>
@@ -7836,11 +10393,17 @@
       <c r="Q73" s="4"/>
       <c r="R73" s="4"/>
     </row>
-    <row r="74" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A74" s="19"/>
-      <c r="B74" s="19"/>
-      <c r="C74" s="20"/>
-      <c r="D74" s="20"/>
+    <row r="74" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="E74" s="10"/>
       <c r="F74" s="4"/>
       <c r="G74" s="4"/>
@@ -7857,10 +10420,10 @@
       <c r="R74" s="4"/>
     </row>
     <row r="75" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A75" s="7"/>
-      <c r="B75" s="7"/>
-      <c r="C75" s="9"/>
-      <c r="D75" s="9"/>
+      <c r="A75" s="19"/>
+      <c r="B75" s="19"/>
+      <c r="C75" s="20"/>
+      <c r="D75" s="20"/>
       <c r="E75" s="10"/>
       <c r="F75" s="4"/>
       <c r="G75" s="4"/>
@@ -7977,10 +10540,10 @@
       <c r="R80" s="4"/>
     </row>
     <row r="81" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A81" s="23"/>
-      <c r="B81" s="23"/>
-      <c r="C81" s="24"/>
-      <c r="D81" s="24"/>
+      <c r="A81" s="7"/>
+      <c r="B81" s="7"/>
+      <c r="C81" s="9"/>
+      <c r="D81" s="9"/>
       <c r="E81" s="10"/>
       <c r="F81" s="4"/>
       <c r="G81" s="4"/>
@@ -7996,16 +10559,11 @@
       <c r="Q81" s="4"/>
       <c r="R81" s="4"/>
     </row>
-    <row r="82" spans="1:18" ht="27" x14ac:dyDescent="0.3">
-      <c r="A82" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B82" s="14">
-        <f>SUM(B74:B81)</f>
-        <v>0</v>
-      </c>
-      <c r="C82" s="15"/>
-      <c r="D82" s="15"/>
+    <row r="82" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="23"/>
+      <c r="B82" s="23"/>
+      <c r="C82" s="24"/>
+      <c r="D82" s="24"/>
       <c r="E82" s="10"/>
       <c r="F82" s="4"/>
       <c r="G82" s="4"/>
@@ -8021,11 +10579,16 @@
       <c r="Q82" s="4"/>
       <c r="R82" s="4"/>
     </row>
-    <row r="83" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A83" s="16"/>
-      <c r="B83" s="16"/>
-      <c r="C83" s="16"/>
-      <c r="D83" s="16"/>
+    <row r="83" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B83" s="14">
+        <f>SUM(B75:B82)</f>
+        <v>0</v>
+      </c>
+      <c r="C83" s="15"/>
+      <c r="D83" s="15"/>
       <c r="E83" s="10"/>
       <c r="F83" s="4"/>
       <c r="G83" s="4"/>
@@ -8042,10 +10605,10 @@
       <c r="R83" s="4"/>
     </row>
     <row r="84" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A84" s="27"/>
-      <c r="B84" s="27"/>
-      <c r="C84" s="27"/>
-      <c r="D84" s="27"/>
+      <c r="A84" s="16"/>
+      <c r="B84" s="16"/>
+      <c r="C84" s="16"/>
+      <c r="D84" s="16"/>
       <c r="E84" s="10"/>
       <c r="F84" s="4"/>
       <c r="G84" s="4"/>
@@ -8262,2207 +10825,6 @@
       <c r="R94" s="4"/>
     </row>
     <row r="95" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A95" s="28"/>
-      <c r="B95" s="28"/>
-      <c r="C95" s="28"/>
-      <c r="D95" s="28"/>
-      <c r="E95" s="10"/>
-      <c r="F95" s="4"/>
-      <c r="G95" s="4"/>
-      <c r="H95" s="4"/>
-      <c r="I95" s="4"/>
-      <c r="J95" s="4"/>
-      <c r="K95" s="4"/>
-      <c r="L95" s="4"/>
-      <c r="M95" s="4"/>
-      <c r="N95" s="4"/>
-      <c r="O95" s="4"/>
-      <c r="P95" s="4"/>
-      <c r="Q95" s="4"/>
-      <c r="R95" s="4"/>
-    </row>
-  </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" prompt="Durée en 1/3 de période - Le nombre doit être de type entier" sqref="B74:B81 B17:B32 B37:B38 B40:B44 B49:B59 B64:B69 B3:B8 B10:B12" xr:uid="{76F8C2A5-22FC-42B6-BF5F-FD1899EE52B8}">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" prompt="Dépassement de durée - Le nombre de minutes introduites dépasse la durée d'une période. Veuillez confirmer ... Le calcul du total sera juste dans tous les cas._x000a_" sqref="B13 B33 B45 B60 B70 B82" xr:uid="{BD151BE4-B931-4CBD-823B-9C753DC07C8D}">
-      <formula1>0</formula1>
-      <formula2>DureePeriode-1</formula2>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F222774-5003-490D-9078-78D1F6F89A4A}">
-  <dimension ref="A1:R96"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="78.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-    </row>
-    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-    </row>
-    <row r="3" spans="1:18" ht="94.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="7">
-        <v>1</v>
-      </c>
-      <c r="C3" s="8">
-        <v>43906</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-    </row>
-    <row r="4" spans="1:18" ht="54" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="7">
-        <v>2</v>
-      </c>
-      <c r="C4" s="8">
-        <v>43906</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-    </row>
-    <row r="5" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="7">
-        <v>2</v>
-      </c>
-      <c r="C5" s="8">
-        <v>43907</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-    </row>
-    <row r="6" spans="1:18" ht="81" x14ac:dyDescent="0.3">
-      <c r="A6" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="25">
-        <v>2</v>
-      </c>
-      <c r="C6" s="8">
-        <v>43908</v>
-      </c>
-      <c r="D6" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-    </row>
-    <row r="7" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="29">
-        <v>2</v>
-      </c>
-      <c r="C7" s="11">
-        <v>43909</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-    </row>
-    <row r="8" spans="1:18" ht="108" x14ac:dyDescent="0.3">
-      <c r="A8" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="29">
-        <v>2</v>
-      </c>
-      <c r="C8" s="11">
-        <v>43910</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-    </row>
-    <row r="9" spans="1:18" ht="94.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="31">
-        <v>3</v>
-      </c>
-      <c r="C9" s="11">
-        <v>43911</v>
-      </c>
-      <c r="D9" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-    </row>
-    <row r="10" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="7">
-        <v>1</v>
-      </c>
-      <c r="C10" s="8">
-        <v>43913</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-    </row>
-    <row r="11" spans="1:18" ht="27" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="7">
-        <v>3</v>
-      </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-    </row>
-    <row r="12" spans="1:18" ht="94.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-    </row>
-    <row r="13" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="7">
-        <v>2.5</v>
-      </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-    </row>
-    <row r="14" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="14">
-        <f>SUM(B3:B13)</f>
-        <v>21</v>
-      </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-    </row>
-    <row r="15" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-    </row>
-    <row r="16" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="2">
-        <v>2</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-    </row>
-    <row r="17" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-    </row>
-    <row r="18" spans="1:18" ht="54" x14ac:dyDescent="0.3">
-      <c r="A18" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="7">
-        <v>2</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-    </row>
-    <row r="19" spans="1:18" ht="27" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="7">
-        <v>4</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-    </row>
-    <row r="20" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B20" s="7">
-        <v>2</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-    </row>
-    <row r="21" spans="1:18" ht="27" x14ac:dyDescent="0.3">
-      <c r="A21" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B21" s="7">
-        <v>1</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
-    </row>
-    <row r="22" spans="1:18" ht="27" x14ac:dyDescent="0.3">
-      <c r="A22" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B22" s="7">
-        <v>3.5</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
-    </row>
-    <row r="23" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A23" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B23" s="7">
-        <v>1</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="E23" s="10"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="4"/>
-    </row>
-    <row r="24" spans="1:18" ht="27" x14ac:dyDescent="0.3">
-      <c r="A24" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B24" s="7">
-        <v>4.5</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E24" s="10"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="4"/>
-    </row>
-    <row r="25" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A25" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="B25" s="7">
-        <v>3</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="E25" s="10"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="4"/>
-    </row>
-    <row r="26" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
-      <c r="A26" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B26" s="7">
-        <v>7</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="E26" s="10"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="4"/>
-    </row>
-    <row r="27" spans="1:18" ht="27" x14ac:dyDescent="0.3">
-      <c r="A27" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B27" s="7">
-        <v>4.5</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="E27" s="10"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="4"/>
-    </row>
-    <row r="28" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A28" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B28" s="7">
-        <v>4.5</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="E28" s="10"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="4"/>
-    </row>
-    <row r="29" spans="1:18" ht="27" x14ac:dyDescent="0.3">
-      <c r="A29" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B29" s="7">
-        <v>8</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="E29" s="10"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="4"/>
-    </row>
-    <row r="30" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
-      <c r="P30" s="4"/>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="4"/>
-    </row>
-    <row r="31" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
-      <c r="O31" s="4"/>
-      <c r="P31" s="4"/>
-      <c r="Q31" s="4"/>
-      <c r="R31" s="4"/>
-    </row>
-    <row r="32" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
-      <c r="O32" s="4"/>
-      <c r="P32" s="4"/>
-      <c r="Q32" s="4"/>
-      <c r="R32" s="4"/>
-    </row>
-    <row r="33" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
-      <c r="N33" s="4"/>
-      <c r="O33" s="4"/>
-      <c r="P33" s="4"/>
-      <c r="Q33" s="4"/>
-      <c r="R33" s="4"/>
-    </row>
-    <row r="34" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B34" s="14">
-        <f>SUM(B18:B33)</f>
-        <v>45</v>
-      </c>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4"/>
-      <c r="N34" s="4"/>
-      <c r="O34" s="4"/>
-      <c r="P34" s="4"/>
-      <c r="Q34" s="4"/>
-      <c r="R34" s="4"/>
-    </row>
-    <row r="35" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="16"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4"/>
-      <c r="N35" s="4"/>
-      <c r="O35" s="4"/>
-      <c r="P35" s="4"/>
-      <c r="Q35" s="4"/>
-      <c r="R35" s="4"/>
-    </row>
-    <row r="36" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B36" s="2">
-        <v>3</v>
-      </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
-      <c r="M36" s="4"/>
-      <c r="N36" s="4"/>
-      <c r="O36" s="4"/>
-      <c r="P36" s="4"/>
-      <c r="Q36" s="4"/>
-      <c r="R36" s="4"/>
-    </row>
-    <row r="37" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E37" s="10"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
-      <c r="M37" s="4"/>
-      <c r="N37" s="4"/>
-      <c r="O37" s="4"/>
-      <c r="P37" s="4"/>
-      <c r="Q37" s="4"/>
-      <c r="R37" s="4"/>
-    </row>
-    <row r="38" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
-      <c r="M38" s="4"/>
-      <c r="N38" s="4"/>
-      <c r="O38" s="4"/>
-      <c r="P38" s="4"/>
-      <c r="Q38" s="4"/>
-      <c r="R38" s="4"/>
-    </row>
-    <row r="39" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
-      <c r="L39" s="4"/>
-      <c r="M39" s="4"/>
-      <c r="N39" s="4"/>
-      <c r="O39" s="4"/>
-      <c r="P39" s="4"/>
-      <c r="Q39" s="4"/>
-      <c r="R39" s="4"/>
-    </row>
-    <row r="40" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A40" s="7"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="4"/>
-      <c r="L40" s="4"/>
-      <c r="M40" s="4"/>
-      <c r="N40" s="4"/>
-      <c r="O40" s="4"/>
-      <c r="P40" s="4"/>
-      <c r="Q40" s="4"/>
-      <c r="R40" s="4"/>
-    </row>
-    <row r="41" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A41" s="7"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
-      <c r="M41" s="4"/>
-      <c r="N41" s="4"/>
-      <c r="O41" s="4"/>
-      <c r="P41" s="4"/>
-      <c r="Q41" s="4"/>
-      <c r="R41" s="4"/>
-    </row>
-    <row r="42" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A42" s="7"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
-      <c r="L42" s="4"/>
-      <c r="M42" s="4"/>
-      <c r="N42" s="4"/>
-      <c r="O42" s="4"/>
-      <c r="P42" s="4"/>
-      <c r="Q42" s="4"/>
-      <c r="R42" s="4"/>
-    </row>
-    <row r="43" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A43" s="7"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="4"/>
-      <c r="L43" s="4"/>
-      <c r="M43" s="4"/>
-      <c r="N43" s="4"/>
-      <c r="O43" s="4"/>
-      <c r="P43" s="4"/>
-      <c r="Q43" s="4"/>
-      <c r="R43" s="4"/>
-    </row>
-    <row r="44" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A44" s="7"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
-      <c r="K44" s="4"/>
-      <c r="L44" s="4"/>
-      <c r="M44" s="4"/>
-      <c r="N44" s="4"/>
-      <c r="O44" s="4"/>
-      <c r="P44" s="4"/>
-      <c r="Q44" s="4"/>
-      <c r="R44" s="4"/>
-    </row>
-    <row r="45" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="23"/>
-      <c r="B45" s="23"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
-      <c r="K45" s="4"/>
-      <c r="L45" s="4"/>
-      <c r="M45" s="4"/>
-      <c r="N45" s="4"/>
-      <c r="O45" s="4"/>
-      <c r="P45" s="4"/>
-      <c r="Q45" s="4"/>
-      <c r="R45" s="4"/>
-    </row>
-    <row r="46" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B46" s="14">
-        <f>SUM(B38:B45)</f>
-        <v>0</v>
-      </c>
-      <c r="C46" s="15"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
-      <c r="K46" s="4"/>
-      <c r="L46" s="4"/>
-      <c r="M46" s="4"/>
-      <c r="N46" s="4"/>
-      <c r="O46" s="4"/>
-      <c r="P46" s="4"/>
-      <c r="Q46" s="4"/>
-      <c r="R46" s="4"/>
-    </row>
-    <row r="47" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="16"/>
-      <c r="B47" s="16"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
-      <c r="K47" s="4"/>
-      <c r="L47" s="4"/>
-      <c r="M47" s="4"/>
-      <c r="N47" s="4"/>
-      <c r="O47" s="4"/>
-      <c r="P47" s="4"/>
-      <c r="Q47" s="4"/>
-      <c r="R47" s="4"/>
-    </row>
-    <row r="48" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B48" s="2">
-        <v>4</v>
-      </c>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
-      <c r="J48" s="4"/>
-      <c r="K48" s="4"/>
-      <c r="L48" s="4"/>
-      <c r="M48" s="4"/>
-      <c r="N48" s="4"/>
-      <c r="O48" s="4"/>
-      <c r="P48" s="4"/>
-      <c r="Q48" s="4"/>
-      <c r="R48" s="4"/>
-    </row>
-    <row r="49" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E49" s="10"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="4"/>
-      <c r="J49" s="4"/>
-      <c r="K49" s="4"/>
-      <c r="L49" s="4"/>
-      <c r="M49" s="4"/>
-      <c r="N49" s="4"/>
-      <c r="O49" s="4"/>
-      <c r="P49" s="4"/>
-      <c r="Q49" s="4"/>
-      <c r="R49" s="4"/>
-    </row>
-    <row r="50" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A50" s="19"/>
-      <c r="B50" s="19"/>
-      <c r="C50" s="20"/>
-      <c r="D50" s="20"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
-      <c r="I50" s="4"/>
-      <c r="J50" s="4"/>
-      <c r="K50" s="4"/>
-      <c r="L50" s="4"/>
-      <c r="M50" s="4"/>
-      <c r="N50" s="4"/>
-      <c r="O50" s="4"/>
-      <c r="P50" s="4"/>
-      <c r="Q50" s="4"/>
-      <c r="R50" s="4"/>
-    </row>
-    <row r="51" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A51" s="7"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-      <c r="I51" s="4"/>
-      <c r="J51" s="4"/>
-      <c r="K51" s="4"/>
-      <c r="L51" s="4"/>
-      <c r="M51" s="4"/>
-      <c r="N51" s="4"/>
-      <c r="O51" s="4"/>
-      <c r="P51" s="4"/>
-      <c r="Q51" s="4"/>
-      <c r="R51" s="4"/>
-    </row>
-    <row r="52" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A52" s="7"/>
-      <c r="B52" s="7"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
-      <c r="I52" s="4"/>
-      <c r="J52" s="4"/>
-      <c r="K52" s="4"/>
-      <c r="L52" s="4"/>
-      <c r="M52" s="4"/>
-      <c r="N52" s="4"/>
-      <c r="O52" s="4"/>
-      <c r="P52" s="4"/>
-      <c r="Q52" s="4"/>
-      <c r="R52" s="4"/>
-    </row>
-    <row r="53" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A53" s="7"/>
-      <c r="B53" s="7"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="4"/>
-      <c r="I53" s="4"/>
-      <c r="J53" s="4"/>
-      <c r="K53" s="4"/>
-      <c r="L53" s="4"/>
-      <c r="M53" s="4"/>
-      <c r="N53" s="4"/>
-      <c r="O53" s="4"/>
-      <c r="P53" s="4"/>
-      <c r="Q53" s="4"/>
-      <c r="R53" s="4"/>
-    </row>
-    <row r="54" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A54" s="7"/>
-      <c r="B54" s="7"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
-      <c r="I54" s="4"/>
-      <c r="J54" s="4"/>
-      <c r="K54" s="4"/>
-      <c r="L54" s="4"/>
-      <c r="M54" s="4"/>
-      <c r="N54" s="4"/>
-      <c r="O54" s="4"/>
-      <c r="P54" s="4"/>
-      <c r="Q54" s="4"/>
-      <c r="R54" s="4"/>
-    </row>
-    <row r="55" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A55" s="7"/>
-      <c r="B55" s="7"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
-      <c r="I55" s="4"/>
-      <c r="J55" s="4"/>
-      <c r="K55" s="4"/>
-      <c r="L55" s="4"/>
-      <c r="M55" s="4"/>
-      <c r="N55" s="4"/>
-      <c r="O55" s="4"/>
-      <c r="P55" s="4"/>
-      <c r="Q55" s="4"/>
-      <c r="R55" s="4"/>
-    </row>
-    <row r="56" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A56" s="25"/>
-      <c r="B56" s="25"/>
-      <c r="C56" s="26"/>
-      <c r="D56" s="26"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="4"/>
-      <c r="G56" s="4"/>
-      <c r="H56" s="4"/>
-      <c r="I56" s="4"/>
-      <c r="J56" s="4"/>
-      <c r="K56" s="4"/>
-      <c r="L56" s="4"/>
-      <c r="M56" s="4"/>
-      <c r="N56" s="4"/>
-      <c r="O56" s="4"/>
-      <c r="P56" s="4"/>
-      <c r="Q56" s="4"/>
-      <c r="R56" s="4"/>
-    </row>
-    <row r="57" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A57" s="25"/>
-      <c r="B57" s="25"/>
-      <c r="C57" s="26"/>
-      <c r="D57" s="26"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
-      <c r="I57" s="4"/>
-      <c r="J57" s="4"/>
-      <c r="K57" s="4"/>
-      <c r="L57" s="4"/>
-      <c r="M57" s="4"/>
-      <c r="N57" s="4"/>
-      <c r="O57" s="4"/>
-      <c r="P57" s="4"/>
-      <c r="Q57" s="4"/>
-      <c r="R57" s="4"/>
-    </row>
-    <row r="58" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A58" s="25"/>
-      <c r="B58" s="25"/>
-      <c r="C58" s="26"/>
-      <c r="D58" s="26"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4"/>
-      <c r="I58" s="4"/>
-      <c r="J58" s="4"/>
-      <c r="K58" s="4"/>
-      <c r="L58" s="4"/>
-      <c r="M58" s="4"/>
-      <c r="N58" s="4"/>
-      <c r="O58" s="4"/>
-      <c r="P58" s="4"/>
-      <c r="Q58" s="4"/>
-      <c r="R58" s="4"/>
-    </row>
-    <row r="59" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A59" s="25"/>
-      <c r="B59" s="25"/>
-      <c r="C59" s="26"/>
-      <c r="D59" s="26"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
-      <c r="H59" s="4"/>
-      <c r="I59" s="4"/>
-      <c r="J59" s="4"/>
-      <c r="K59" s="4"/>
-      <c r="L59" s="4"/>
-      <c r="M59" s="4"/>
-      <c r="N59" s="4"/>
-      <c r="O59" s="4"/>
-      <c r="P59" s="4"/>
-      <c r="Q59" s="4"/>
-      <c r="R59" s="4"/>
-    </row>
-    <row r="60" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="23"/>
-      <c r="B60" s="23"/>
-      <c r="C60" s="24"/>
-      <c r="D60" s="24"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="4"/>
-      <c r="G60" s="4"/>
-      <c r="H60" s="4"/>
-      <c r="I60" s="4"/>
-      <c r="J60" s="4"/>
-      <c r="K60" s="4"/>
-      <c r="L60" s="4"/>
-      <c r="M60" s="4"/>
-      <c r="N60" s="4"/>
-      <c r="O60" s="4"/>
-      <c r="P60" s="4"/>
-      <c r="Q60" s="4"/>
-      <c r="R60" s="4"/>
-    </row>
-    <row r="61" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B61" s="14">
-        <f>SUM(B50:B60)</f>
-        <v>0</v>
-      </c>
-      <c r="C61" s="15"/>
-      <c r="D61" s="15"/>
-      <c r="E61" s="10"/>
-      <c r="F61" s="4"/>
-      <c r="G61" s="4"/>
-      <c r="H61" s="4"/>
-      <c r="I61" s="4"/>
-      <c r="J61" s="4"/>
-      <c r="K61" s="4"/>
-      <c r="L61" s="4"/>
-      <c r="M61" s="4"/>
-      <c r="N61" s="4"/>
-      <c r="O61" s="4"/>
-      <c r="P61" s="4"/>
-      <c r="Q61" s="4"/>
-      <c r="R61" s="4"/>
-    </row>
-    <row r="62" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="16"/>
-      <c r="B62" s="16"/>
-      <c r="C62" s="16"/>
-      <c r="D62" s="16"/>
-      <c r="E62" s="10"/>
-      <c r="F62" s="4"/>
-      <c r="G62" s="4"/>
-      <c r="H62" s="4"/>
-      <c r="I62" s="4"/>
-      <c r="J62" s="4"/>
-      <c r="K62" s="4"/>
-      <c r="L62" s="4"/>
-      <c r="M62" s="4"/>
-      <c r="N62" s="4"/>
-      <c r="O62" s="4"/>
-      <c r="P62" s="4"/>
-      <c r="Q62" s="4"/>
-      <c r="R62" s="4"/>
-    </row>
-    <row r="63" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B63" s="2">
-        <v>5</v>
-      </c>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="10"/>
-      <c r="F63" s="4"/>
-      <c r="G63" s="4"/>
-      <c r="H63" s="4"/>
-      <c r="I63" s="4"/>
-      <c r="J63" s="4"/>
-      <c r="K63" s="4"/>
-      <c r="L63" s="4"/>
-      <c r="M63" s="4"/>
-      <c r="N63" s="4"/>
-      <c r="O63" s="4"/>
-      <c r="P63" s="4"/>
-      <c r="Q63" s="4"/>
-      <c r="R63" s="4"/>
-    </row>
-    <row r="64" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C64" s="5"/>
-      <c r="D64" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E64" s="10"/>
-      <c r="F64" s="4"/>
-      <c r="G64" s="4"/>
-      <c r="H64" s="4"/>
-      <c r="I64" s="4"/>
-      <c r="J64" s="4"/>
-      <c r="K64" s="4"/>
-      <c r="L64" s="4"/>
-      <c r="M64" s="4"/>
-      <c r="N64" s="4"/>
-      <c r="O64" s="4"/>
-      <c r="P64" s="4"/>
-      <c r="Q64" s="4"/>
-      <c r="R64" s="4"/>
-    </row>
-    <row r="65" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A65" s="19"/>
-      <c r="B65" s="19"/>
-      <c r="C65" s="20"/>
-      <c r="D65" s="20"/>
-      <c r="E65" s="10"/>
-      <c r="F65" s="4"/>
-      <c r="G65" s="4"/>
-      <c r="H65" s="4"/>
-      <c r="I65" s="4"/>
-      <c r="J65" s="4"/>
-      <c r="K65" s="4"/>
-      <c r="L65" s="4"/>
-      <c r="M65" s="4"/>
-      <c r="N65" s="4"/>
-      <c r="O65" s="4"/>
-      <c r="P65" s="4"/>
-      <c r="Q65" s="4"/>
-      <c r="R65" s="4"/>
-    </row>
-    <row r="66" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A66" s="7"/>
-      <c r="B66" s="7"/>
-      <c r="C66" s="9"/>
-      <c r="D66" s="9"/>
-      <c r="E66" s="10"/>
-      <c r="F66" s="4"/>
-      <c r="G66" s="4"/>
-      <c r="H66" s="4"/>
-      <c r="I66" s="4"/>
-      <c r="J66" s="4"/>
-      <c r="K66" s="4"/>
-      <c r="L66" s="4"/>
-      <c r="M66" s="4"/>
-      <c r="N66" s="4"/>
-      <c r="O66" s="4"/>
-      <c r="P66" s="4"/>
-      <c r="Q66" s="4"/>
-      <c r="R66" s="4"/>
-    </row>
-    <row r="67" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A67" s="7"/>
-      <c r="B67" s="7"/>
-      <c r="C67" s="9"/>
-      <c r="D67" s="9"/>
-      <c r="E67" s="10"/>
-      <c r="F67" s="4"/>
-      <c r="G67" s="4"/>
-      <c r="H67" s="4"/>
-      <c r="I67" s="4"/>
-      <c r="J67" s="4"/>
-      <c r="K67" s="4"/>
-      <c r="L67" s="4"/>
-      <c r="M67" s="4"/>
-      <c r="N67" s="4"/>
-      <c r="O67" s="4"/>
-      <c r="P67" s="4"/>
-      <c r="Q67" s="4"/>
-      <c r="R67" s="4"/>
-    </row>
-    <row r="68" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A68" s="7"/>
-      <c r="B68" s="7"/>
-      <c r="C68" s="9"/>
-      <c r="D68" s="9"/>
-      <c r="E68" s="10"/>
-      <c r="F68" s="4"/>
-      <c r="G68" s="4"/>
-      <c r="H68" s="4"/>
-      <c r="I68" s="4"/>
-      <c r="J68" s="4"/>
-      <c r="K68" s="4"/>
-      <c r="L68" s="4"/>
-      <c r="M68" s="4"/>
-      <c r="N68" s="4"/>
-      <c r="O68" s="4"/>
-      <c r="P68" s="4"/>
-      <c r="Q68" s="4"/>
-      <c r="R68" s="4"/>
-    </row>
-    <row r="69" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A69" s="7"/>
-      <c r="B69" s="7"/>
-      <c r="C69" s="9"/>
-      <c r="D69" s="9"/>
-      <c r="E69" s="10"/>
-      <c r="F69" s="4"/>
-      <c r="G69" s="4"/>
-      <c r="H69" s="4"/>
-      <c r="I69" s="4"/>
-      <c r="J69" s="4"/>
-      <c r="K69" s="4"/>
-      <c r="L69" s="4"/>
-      <c r="M69" s="4"/>
-      <c r="N69" s="4"/>
-      <c r="O69" s="4"/>
-      <c r="P69" s="4"/>
-      <c r="Q69" s="4"/>
-      <c r="R69" s="4"/>
-    </row>
-    <row r="70" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="23"/>
-      <c r="B70" s="23"/>
-      <c r="C70" s="24"/>
-      <c r="D70" s="24"/>
-      <c r="E70" s="10"/>
-      <c r="F70" s="4"/>
-      <c r="G70" s="4"/>
-      <c r="H70" s="4"/>
-      <c r="I70" s="4"/>
-      <c r="J70" s="4"/>
-      <c r="K70" s="4"/>
-      <c r="L70" s="4"/>
-      <c r="M70" s="4"/>
-      <c r="N70" s="4"/>
-      <c r="O70" s="4"/>
-      <c r="P70" s="4"/>
-      <c r="Q70" s="4"/>
-      <c r="R70" s="4"/>
-    </row>
-    <row r="71" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B71" s="14">
-        <f>SUM(B65:B70)</f>
-        <v>0</v>
-      </c>
-      <c r="C71" s="15"/>
-      <c r="D71" s="15"/>
-      <c r="E71" s="10"/>
-      <c r="F71" s="4"/>
-      <c r="G71" s="4"/>
-      <c r="H71" s="4"/>
-      <c r="I71" s="4"/>
-      <c r="J71" s="4"/>
-      <c r="K71" s="4"/>
-      <c r="L71" s="4"/>
-      <c r="M71" s="4"/>
-      <c r="N71" s="4"/>
-      <c r="O71" s="4"/>
-      <c r="P71" s="4"/>
-      <c r="Q71" s="4"/>
-      <c r="R71" s="4"/>
-    </row>
-    <row r="72" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="16"/>
-      <c r="B72" s="16"/>
-      <c r="C72" s="16"/>
-      <c r="D72" s="16"/>
-      <c r="E72" s="10"/>
-      <c r="F72" s="4"/>
-      <c r="G72" s="4"/>
-      <c r="H72" s="4"/>
-      <c r="I72" s="4"/>
-      <c r="J72" s="4"/>
-      <c r="K72" s="4"/>
-      <c r="L72" s="4"/>
-      <c r="M72" s="4"/>
-      <c r="N72" s="4"/>
-      <c r="O72" s="4"/>
-      <c r="P72" s="4"/>
-      <c r="Q72" s="4"/>
-      <c r="R72" s="4"/>
-    </row>
-    <row r="73" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B73" s="2">
-        <v>6</v>
-      </c>
-      <c r="C73" s="3"/>
-      <c r="D73" s="3"/>
-      <c r="E73" s="10"/>
-      <c r="F73" s="4"/>
-      <c r="G73" s="4"/>
-      <c r="H73" s="4"/>
-      <c r="I73" s="4"/>
-      <c r="J73" s="4"/>
-      <c r="K73" s="4"/>
-      <c r="L73" s="4"/>
-      <c r="M73" s="4"/>
-      <c r="N73" s="4"/>
-      <c r="O73" s="4"/>
-      <c r="P73" s="4"/>
-      <c r="Q73" s="4"/>
-      <c r="R73" s="4"/>
-    </row>
-    <row r="74" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B74" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C74" s="5"/>
-      <c r="D74" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E74" s="10"/>
-      <c r="F74" s="4"/>
-      <c r="G74" s="4"/>
-      <c r="H74" s="4"/>
-      <c r="I74" s="4"/>
-      <c r="J74" s="4"/>
-      <c r="K74" s="4"/>
-      <c r="L74" s="4"/>
-      <c r="M74" s="4"/>
-      <c r="N74" s="4"/>
-      <c r="O74" s="4"/>
-      <c r="P74" s="4"/>
-      <c r="Q74" s="4"/>
-      <c r="R74" s="4"/>
-    </row>
-    <row r="75" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A75" s="19"/>
-      <c r="B75" s="19"/>
-      <c r="C75" s="20"/>
-      <c r="D75" s="20"/>
-      <c r="E75" s="10"/>
-      <c r="F75" s="4"/>
-      <c r="G75" s="4"/>
-      <c r="H75" s="4"/>
-      <c r="I75" s="4"/>
-      <c r="J75" s="4"/>
-      <c r="K75" s="4"/>
-      <c r="L75" s="4"/>
-      <c r="M75" s="4"/>
-      <c r="N75" s="4"/>
-      <c r="O75" s="4"/>
-      <c r="P75" s="4"/>
-      <c r="Q75" s="4"/>
-      <c r="R75" s="4"/>
-    </row>
-    <row r="76" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A76" s="7"/>
-      <c r="B76" s="7"/>
-      <c r="C76" s="9"/>
-      <c r="D76" s="9"/>
-      <c r="E76" s="10"/>
-      <c r="F76" s="4"/>
-      <c r="G76" s="4"/>
-      <c r="H76" s="4"/>
-      <c r="I76" s="4"/>
-      <c r="J76" s="4"/>
-      <c r="K76" s="4"/>
-      <c r="L76" s="4"/>
-      <c r="M76" s="4"/>
-      <c r="N76" s="4"/>
-      <c r="O76" s="4"/>
-      <c r="P76" s="4"/>
-      <c r="Q76" s="4"/>
-      <c r="R76" s="4"/>
-    </row>
-    <row r="77" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A77" s="7"/>
-      <c r="B77" s="7"/>
-      <c r="C77" s="9"/>
-      <c r="D77" s="9"/>
-      <c r="E77" s="10"/>
-      <c r="F77" s="4"/>
-      <c r="G77" s="4"/>
-      <c r="H77" s="4"/>
-      <c r="I77" s="4"/>
-      <c r="J77" s="4"/>
-      <c r="K77" s="4"/>
-      <c r="L77" s="4"/>
-      <c r="M77" s="4"/>
-      <c r="N77" s="4"/>
-      <c r="O77" s="4"/>
-      <c r="P77" s="4"/>
-      <c r="Q77" s="4"/>
-      <c r="R77" s="4"/>
-    </row>
-    <row r="78" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A78" s="7"/>
-      <c r="B78" s="7"/>
-      <c r="C78" s="9"/>
-      <c r="D78" s="9"/>
-      <c r="E78" s="10"/>
-      <c r="F78" s="4"/>
-      <c r="G78" s="4"/>
-      <c r="H78" s="4"/>
-      <c r="I78" s="4"/>
-      <c r="J78" s="4"/>
-      <c r="K78" s="4"/>
-      <c r="L78" s="4"/>
-      <c r="M78" s="4"/>
-      <c r="N78" s="4"/>
-      <c r="O78" s="4"/>
-      <c r="P78" s="4"/>
-      <c r="Q78" s="4"/>
-      <c r="R78" s="4"/>
-    </row>
-    <row r="79" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A79" s="7"/>
-      <c r="B79" s="7"/>
-      <c r="C79" s="9"/>
-      <c r="D79" s="9"/>
-      <c r="E79" s="10"/>
-      <c r="F79" s="4"/>
-      <c r="G79" s="4"/>
-      <c r="H79" s="4"/>
-      <c r="I79" s="4"/>
-      <c r="J79" s="4"/>
-      <c r="K79" s="4"/>
-      <c r="L79" s="4"/>
-      <c r="M79" s="4"/>
-      <c r="N79" s="4"/>
-      <c r="O79" s="4"/>
-      <c r="P79" s="4"/>
-      <c r="Q79" s="4"/>
-      <c r="R79" s="4"/>
-    </row>
-    <row r="80" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A80" s="7"/>
-      <c r="B80" s="7"/>
-      <c r="C80" s="9"/>
-      <c r="D80" s="9"/>
-      <c r="E80" s="10"/>
-      <c r="F80" s="4"/>
-      <c r="G80" s="4"/>
-      <c r="H80" s="4"/>
-      <c r="I80" s="4"/>
-      <c r="J80" s="4"/>
-      <c r="K80" s="4"/>
-      <c r="L80" s="4"/>
-      <c r="M80" s="4"/>
-      <c r="N80" s="4"/>
-      <c r="O80" s="4"/>
-      <c r="P80" s="4"/>
-      <c r="Q80" s="4"/>
-      <c r="R80" s="4"/>
-    </row>
-    <row r="81" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A81" s="7"/>
-      <c r="B81" s="7"/>
-      <c r="C81" s="9"/>
-      <c r="D81" s="9"/>
-      <c r="E81" s="10"/>
-      <c r="F81" s="4"/>
-      <c r="G81" s="4"/>
-      <c r="H81" s="4"/>
-      <c r="I81" s="4"/>
-      <c r="J81" s="4"/>
-      <c r="K81" s="4"/>
-      <c r="L81" s="4"/>
-      <c r="M81" s="4"/>
-      <c r="N81" s="4"/>
-      <c r="O81" s="4"/>
-      <c r="P81" s="4"/>
-      <c r="Q81" s="4"/>
-      <c r="R81" s="4"/>
-    </row>
-    <row r="82" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="23"/>
-      <c r="B82" s="23"/>
-      <c r="C82" s="24"/>
-      <c r="D82" s="24"/>
-      <c r="E82" s="10"/>
-      <c r="F82" s="4"/>
-      <c r="G82" s="4"/>
-      <c r="H82" s="4"/>
-      <c r="I82" s="4"/>
-      <c r="J82" s="4"/>
-      <c r="K82" s="4"/>
-      <c r="L82" s="4"/>
-      <c r="M82" s="4"/>
-      <c r="N82" s="4"/>
-      <c r="O82" s="4"/>
-      <c r="P82" s="4"/>
-      <c r="Q82" s="4"/>
-      <c r="R82" s="4"/>
-    </row>
-    <row r="83" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B83" s="14">
-        <f>SUM(B75:B82)</f>
-        <v>0</v>
-      </c>
-      <c r="C83" s="15"/>
-      <c r="D83" s="15"/>
-      <c r="E83" s="10"/>
-      <c r="F83" s="4"/>
-      <c r="G83" s="4"/>
-      <c r="H83" s="4"/>
-      <c r="I83" s="4"/>
-      <c r="J83" s="4"/>
-      <c r="K83" s="4"/>
-      <c r="L83" s="4"/>
-      <c r="M83" s="4"/>
-      <c r="N83" s="4"/>
-      <c r="O83" s="4"/>
-      <c r="P83" s="4"/>
-      <c r="Q83" s="4"/>
-      <c r="R83" s="4"/>
-    </row>
-    <row r="84" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A84" s="16"/>
-      <c r="B84" s="16"/>
-      <c r="C84" s="16"/>
-      <c r="D84" s="16"/>
-      <c r="E84" s="10"/>
-      <c r="F84" s="4"/>
-      <c r="G84" s="4"/>
-      <c r="H84" s="4"/>
-      <c r="I84" s="4"/>
-      <c r="J84" s="4"/>
-      <c r="K84" s="4"/>
-      <c r="L84" s="4"/>
-      <c r="M84" s="4"/>
-      <c r="N84" s="4"/>
-      <c r="O84" s="4"/>
-      <c r="P84" s="4"/>
-      <c r="Q84" s="4"/>
-      <c r="R84" s="4"/>
-    </row>
-    <row r="85" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A85" s="27"/>
-      <c r="B85" s="27"/>
-      <c r="C85" s="27"/>
-      <c r="D85" s="27"/>
-      <c r="E85" s="10"/>
-      <c r="F85" s="4"/>
-      <c r="G85" s="4"/>
-      <c r="H85" s="4"/>
-      <c r="I85" s="4"/>
-      <c r="J85" s="4"/>
-      <c r="K85" s="4"/>
-      <c r="L85" s="4"/>
-      <c r="M85" s="4"/>
-      <c r="N85" s="4"/>
-      <c r="O85" s="4"/>
-      <c r="P85" s="4"/>
-      <c r="Q85" s="4"/>
-      <c r="R85" s="4"/>
-    </row>
-    <row r="86" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A86" s="27"/>
-      <c r="B86" s="27"/>
-      <c r="C86" s="27"/>
-      <c r="D86" s="27"/>
-      <c r="E86" s="10"/>
-      <c r="F86" s="4"/>
-      <c r="G86" s="4"/>
-      <c r="H86" s="4"/>
-      <c r="I86" s="4"/>
-      <c r="J86" s="4"/>
-      <c r="K86" s="4"/>
-      <c r="L86" s="4"/>
-      <c r="M86" s="4"/>
-      <c r="N86" s="4"/>
-      <c r="O86" s="4"/>
-      <c r="P86" s="4"/>
-      <c r="Q86" s="4"/>
-      <c r="R86" s="4"/>
-    </row>
-    <row r="87" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A87" s="27"/>
-      <c r="B87" s="27"/>
-      <c r="C87" s="27"/>
-      <c r="D87" s="27"/>
-      <c r="E87" s="10"/>
-      <c r="F87" s="4"/>
-      <c r="G87" s="4"/>
-      <c r="H87" s="4"/>
-      <c r="I87" s="4"/>
-      <c r="J87" s="4"/>
-      <c r="K87" s="4"/>
-      <c r="L87" s="4"/>
-      <c r="M87" s="4"/>
-      <c r="N87" s="4"/>
-      <c r="O87" s="4"/>
-      <c r="P87" s="4"/>
-      <c r="Q87" s="4"/>
-      <c r="R87" s="4"/>
-    </row>
-    <row r="88" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A88" s="27"/>
-      <c r="B88" s="27"/>
-      <c r="C88" s="27"/>
-      <c r="D88" s="27"/>
-      <c r="E88" s="10"/>
-      <c r="F88" s="4"/>
-      <c r="G88" s="4"/>
-      <c r="H88" s="4"/>
-      <c r="I88" s="4"/>
-      <c r="J88" s="4"/>
-      <c r="K88" s="4"/>
-      <c r="L88" s="4"/>
-      <c r="M88" s="4"/>
-      <c r="N88" s="4"/>
-      <c r="O88" s="4"/>
-      <c r="P88" s="4"/>
-      <c r="Q88" s="4"/>
-      <c r="R88" s="4"/>
-    </row>
-    <row r="89" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A89" s="27"/>
-      <c r="B89" s="27"/>
-      <c r="C89" s="27"/>
-      <c r="D89" s="27"/>
-      <c r="E89" s="10"/>
-      <c r="F89" s="4"/>
-      <c r="G89" s="4"/>
-      <c r="H89" s="4"/>
-      <c r="I89" s="4"/>
-      <c r="J89" s="4"/>
-      <c r="K89" s="4"/>
-      <c r="L89" s="4"/>
-      <c r="M89" s="4"/>
-      <c r="N89" s="4"/>
-      <c r="O89" s="4"/>
-      <c r="P89" s="4"/>
-      <c r="Q89" s="4"/>
-      <c r="R89" s="4"/>
-    </row>
-    <row r="90" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A90" s="27"/>
-      <c r="B90" s="27"/>
-      <c r="C90" s="27"/>
-      <c r="D90" s="27"/>
-      <c r="E90" s="10"/>
-      <c r="F90" s="4"/>
-      <c r="G90" s="4"/>
-      <c r="H90" s="4"/>
-      <c r="I90" s="4"/>
-      <c r="J90" s="4"/>
-      <c r="K90" s="4"/>
-      <c r="L90" s="4"/>
-      <c r="M90" s="4"/>
-      <c r="N90" s="4"/>
-      <c r="O90" s="4"/>
-      <c r="P90" s="4"/>
-      <c r="Q90" s="4"/>
-      <c r="R90" s="4"/>
-    </row>
-    <row r="91" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A91" s="27"/>
-      <c r="B91" s="27"/>
-      <c r="C91" s="27"/>
-      <c r="D91" s="27"/>
-      <c r="E91" s="10"/>
-      <c r="F91" s="4"/>
-      <c r="G91" s="4"/>
-      <c r="H91" s="4"/>
-      <c r="I91" s="4"/>
-      <c r="J91" s="4"/>
-      <c r="K91" s="4"/>
-      <c r="L91" s="4"/>
-      <c r="M91" s="4"/>
-      <c r="N91" s="4"/>
-      <c r="O91" s="4"/>
-      <c r="P91" s="4"/>
-      <c r="Q91" s="4"/>
-      <c r="R91" s="4"/>
-    </row>
-    <row r="92" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A92" s="27"/>
-      <c r="B92" s="27"/>
-      <c r="C92" s="27"/>
-      <c r="D92" s="27"/>
-      <c r="E92" s="10"/>
-      <c r="F92" s="4"/>
-      <c r="G92" s="4"/>
-      <c r="H92" s="4"/>
-      <c r="I92" s="4"/>
-      <c r="J92" s="4"/>
-      <c r="K92" s="4"/>
-      <c r="L92" s="4"/>
-      <c r="M92" s="4"/>
-      <c r="N92" s="4"/>
-      <c r="O92" s="4"/>
-      <c r="P92" s="4"/>
-      <c r="Q92" s="4"/>
-      <c r="R92" s="4"/>
-    </row>
-    <row r="93" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A93" s="27"/>
-      <c r="B93" s="27"/>
-      <c r="C93" s="27"/>
-      <c r="D93" s="27"/>
-      <c r="E93" s="10"/>
-      <c r="F93" s="4"/>
-      <c r="G93" s="4"/>
-      <c r="H93" s="4"/>
-      <c r="I93" s="4"/>
-      <c r="J93" s="4"/>
-      <c r="K93" s="4"/>
-      <c r="L93" s="4"/>
-      <c r="M93" s="4"/>
-      <c r="N93" s="4"/>
-      <c r="O93" s="4"/>
-      <c r="P93" s="4"/>
-      <c r="Q93" s="4"/>
-      <c r="R93" s="4"/>
-    </row>
-    <row r="94" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A94" s="27"/>
-      <c r="B94" s="27"/>
-      <c r="C94" s="27"/>
-      <c r="D94" s="27"/>
-      <c r="E94" s="10"/>
-      <c r="F94" s="4"/>
-      <c r="G94" s="4"/>
-      <c r="H94" s="4"/>
-      <c r="I94" s="4"/>
-      <c r="J94" s="4"/>
-      <c r="K94" s="4"/>
-      <c r="L94" s="4"/>
-      <c r="M94" s="4"/>
-      <c r="N94" s="4"/>
-      <c r="O94" s="4"/>
-      <c r="P94" s="4"/>
-      <c r="Q94" s="4"/>
-      <c r="R94" s="4"/>
-    </row>
-    <row r="95" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A95" s="27"/>
       <c r="B95" s="27"/>
       <c r="C95" s="27"/>

--- a/LM_Journal_Travail_V1.0.xlsx
+++ b/LM_Journal_Travail_V1.0.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repositories\Love-Mirroring\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\Love-Mirroring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8784CF9B-CB10-4657-A56D-3E108FA60BFA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{838EAE48-CC6D-429C-A0B6-E95E6885AE57}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Equipe" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="144">
   <si>
     <t>Jalon</t>
   </si>
@@ -494,6 +494,12 @@
   </si>
   <si>
     <t>Elaboration qualité et concept de d'exploitation</t>
+  </si>
+  <si>
+    <t>Correction des user stories + usecase + diagramme</t>
+  </si>
+  <si>
+    <t>Suite à une conversation avec Monsieur Gerber, je me suis rendu compte qu'on faisait fausse route sur les user stories j'ai donc effectué les corrections nécessaire pour avoir un bon rendu.</t>
   </si>
 </sst>
 </file>
@@ -1110,7 +1116,7 @@
   <dimension ref="A1:R1000"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4099,10 +4105,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DB7A04D-A66F-4A89-83F1-9B353075A776}">
-  <dimension ref="A1:R95"/>
+  <dimension ref="A1:R96"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B91" sqref="B91"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -4961,7 +4967,7 @@
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
     </row>
-    <row r="32" spans="1:18" ht="54.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:18" ht="54" x14ac:dyDescent="0.3">
       <c r="A32" s="38" t="s">
         <v>97</v>
       </c>
@@ -4989,16 +4995,19 @@
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
     </row>
-    <row r="33" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B33" s="14">
-        <f>SUM(B16:B32)</f>
-        <v>34</v>
-      </c>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
+    <row r="33" spans="1:18" ht="54.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="38" t="s">
+        <v>142</v>
+      </c>
+      <c r="B33" s="38">
+        <v>3</v>
+      </c>
+      <c r="C33" s="39">
+        <v>43927</v>
+      </c>
+      <c r="D33" s="40" t="s">
+        <v>143</v>
+      </c>
       <c r="E33" s="10"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
@@ -5015,10 +5024,15 @@
       <c r="R33" s="4"/>
     </row>
     <row r="34" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="16"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
+      <c r="A34" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="14">
+        <f>SUM(B16:B33)</f>
+        <v>37</v>
+      </c>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
       <c r="E34" s="10"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
@@ -5034,15 +5048,11 @@
       <c r="Q34" s="4"/>
       <c r="R34" s="4"/>
     </row>
-    <row r="35" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B35" s="2">
-        <v>3</v>
-      </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
+    <row r="35" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="16"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
       <c r="E35" s="10"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
@@ -5058,17 +5068,15 @@
       <c r="Q35" s="4"/>
       <c r="R35" s="4"/>
     </row>
-    <row r="36" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B36" s="6" t="s">
+    <row r="36" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="2">
         <v>3</v>
       </c>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
       <c r="E36" s="10"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
@@ -5084,11 +5092,17 @@
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
     </row>
-    <row r="37" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="20"/>
+    <row r="37" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="E37" s="10"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
@@ -5108,7 +5122,7 @@
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="21"/>
-      <c r="D38" s="9"/>
+      <c r="D38" s="20"/>
       <c r="E38" s="10"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
@@ -5127,7 +5141,7 @@
     <row r="39" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
-      <c r="C39" s="22"/>
+      <c r="C39" s="21"/>
       <c r="D39" s="9"/>
       <c r="E39" s="10"/>
       <c r="F39" s="4"/>
@@ -5147,7 +5161,7 @@
     <row r="40" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
-      <c r="C40" s="9"/>
+      <c r="C40" s="22"/>
       <c r="D40" s="9"/>
       <c r="E40" s="10"/>
       <c r="F40" s="4"/>
@@ -5224,11 +5238,11 @@
       <c r="Q43" s="4"/>
       <c r="R43" s="4"/>
     </row>
-    <row r="44" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="23"/>
-      <c r="B44" s="23"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24"/>
+    <row r="44" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A44" s="7"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
       <c r="E44" s="10"/>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
@@ -5245,15 +5259,10 @@
       <c r="R44" s="4"/>
     </row>
     <row r="45" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B45" s="14">
-        <f>SUM(B37:B44)</f>
-        <v>0</v>
-      </c>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
+      <c r="A45" s="23"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
       <c r="E45" s="10"/>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
@@ -5270,10 +5279,15 @@
       <c r="R45" s="4"/>
     </row>
     <row r="46" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="16"/>
-      <c r="B46" s="16"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
+      <c r="A46" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B46" s="14">
+        <f>SUM(B38:B45)</f>
+        <v>0</v>
+      </c>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
       <c r="E46" s="10"/>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
@@ -5289,15 +5303,11 @@
       <c r="Q46" s="4"/>
       <c r="R46" s="4"/>
     </row>
-    <row r="47" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47" s="2">
-        <v>4</v>
-      </c>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
+    <row r="47" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="16"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
       <c r="E47" s="10"/>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
@@ -5313,17 +5323,15 @@
       <c r="Q47" s="4"/>
       <c r="R47" s="4"/>
     </row>
-    <row r="48" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5" t="s">
-        <v>5</v>
-      </c>
+    <row r="48" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" s="2">
+        <v>4</v>
+      </c>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
       <c r="E48" s="10"/>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
@@ -5339,11 +5347,17 @@
       <c r="Q48" s="4"/>
       <c r="R48" s="4"/>
     </row>
-    <row r="49" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A49" s="19"/>
-      <c r="B49" s="19"/>
-      <c r="C49" s="20"/>
-      <c r="D49" s="20"/>
+    <row r="49" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="E49" s="10"/>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
@@ -5360,10 +5374,10 @@
       <c r="R49" s="4"/>
     </row>
     <row r="50" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A50" s="7"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
+      <c r="A50" s="19"/>
+      <c r="B50" s="19"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="20"/>
       <c r="E50" s="10"/>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
@@ -5460,10 +5474,10 @@
       <c r="R54" s="4"/>
     </row>
     <row r="55" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A55" s="25"/>
-      <c r="B55" s="25"/>
-      <c r="C55" s="26"/>
-      <c r="D55" s="26"/>
+      <c r="A55" s="7"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
       <c r="E55" s="10"/>
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
@@ -5539,11 +5553,11 @@
       <c r="Q58" s="4"/>
       <c r="R58" s="4"/>
     </row>
-    <row r="59" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="23"/>
-      <c r="B59" s="23"/>
-      <c r="C59" s="24"/>
-      <c r="D59" s="24"/>
+    <row r="59" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A59" s="25"/>
+      <c r="B59" s="25"/>
+      <c r="C59" s="26"/>
+      <c r="D59" s="26"/>
       <c r="E59" s="10"/>
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
@@ -5560,15 +5574,10 @@
       <c r="R59" s="4"/>
     </row>
     <row r="60" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B60" s="14">
-        <f>SUM(B49:B59)</f>
-        <v>0</v>
-      </c>
-      <c r="C60" s="15"/>
-      <c r="D60" s="15"/>
+      <c r="A60" s="23"/>
+      <c r="B60" s="23"/>
+      <c r="C60" s="24"/>
+      <c r="D60" s="24"/>
       <c r="E60" s="10"/>
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
@@ -5585,10 +5594,15 @@
       <c r="R60" s="4"/>
     </row>
     <row r="61" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="16"/>
-      <c r="B61" s="16"/>
-      <c r="C61" s="16"/>
-      <c r="D61" s="16"/>
+      <c r="A61" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B61" s="14">
+        <f>SUM(B50:B60)</f>
+        <v>0</v>
+      </c>
+      <c r="C61" s="15"/>
+      <c r="D61" s="15"/>
       <c r="E61" s="10"/>
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
@@ -5604,15 +5618,11 @@
       <c r="Q61" s="4"/>
       <c r="R61" s="4"/>
     </row>
-    <row r="62" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B62" s="2">
-        <v>5</v>
-      </c>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
+    <row r="62" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="16"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="16"/>
+      <c r="D62" s="16"/>
       <c r="E62" s="10"/>
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
@@ -5628,17 +5638,15 @@
       <c r="Q62" s="4"/>
       <c r="R62" s="4"/>
     </row>
-    <row r="63" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C63" s="5"/>
-      <c r="D63" s="5" t="s">
+    <row r="63" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B63" s="2">
         <v>5</v>
       </c>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
       <c r="E63" s="10"/>
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
@@ -5654,11 +5662,17 @@
       <c r="Q63" s="4"/>
       <c r="R63" s="4"/>
     </row>
-    <row r="64" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A64" s="19"/>
-      <c r="B64" s="19"/>
-      <c r="C64" s="20"/>
-      <c r="D64" s="20"/>
+    <row r="64" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="E64" s="10"/>
       <c r="F64" s="4"/>
       <c r="G64" s="4"/>
@@ -5675,10 +5689,10 @@
       <c r="R64" s="4"/>
     </row>
     <row r="65" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A65" s="7"/>
-      <c r="B65" s="7"/>
-      <c r="C65" s="9"/>
-      <c r="D65" s="9"/>
+      <c r="A65" s="19"/>
+      <c r="B65" s="19"/>
+      <c r="C65" s="20"/>
+      <c r="D65" s="20"/>
       <c r="E65" s="10"/>
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
@@ -5754,11 +5768,11 @@
       <c r="Q68" s="4"/>
       <c r="R68" s="4"/>
     </row>
-    <row r="69" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="23"/>
-      <c r="B69" s="23"/>
-      <c r="C69" s="24"/>
-      <c r="D69" s="24"/>
+    <row r="69" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A69" s="7"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
       <c r="E69" s="10"/>
       <c r="F69" s="4"/>
       <c r="G69" s="4"/>
@@ -5775,15 +5789,10 @@
       <c r="R69" s="4"/>
     </row>
     <row r="70" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B70" s="14">
-        <f>SUM(B64:B69)</f>
-        <v>0</v>
-      </c>
-      <c r="C70" s="15"/>
-      <c r="D70" s="15"/>
+      <c r="A70" s="23"/>
+      <c r="B70" s="23"/>
+      <c r="C70" s="24"/>
+      <c r="D70" s="24"/>
       <c r="E70" s="10"/>
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
@@ -5800,10 +5809,15 @@
       <c r="R70" s="4"/>
     </row>
     <row r="71" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="16"/>
-      <c r="B71" s="16"/>
-      <c r="C71" s="16"/>
-      <c r="D71" s="16"/>
+      <c r="A71" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B71" s="14">
+        <f>SUM(B65:B70)</f>
+        <v>0</v>
+      </c>
+      <c r="C71" s="15"/>
+      <c r="D71" s="15"/>
       <c r="E71" s="10"/>
       <c r="F71" s="4"/>
       <c r="G71" s="4"/>
@@ -5819,15 +5833,11 @@
       <c r="Q71" s="4"/>
       <c r="R71" s="4"/>
     </row>
-    <row r="72" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B72" s="2">
-        <v>6</v>
-      </c>
-      <c r="C72" s="3"/>
-      <c r="D72" s="3"/>
+    <row r="72" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="16"/>
+      <c r="B72" s="16"/>
+      <c r="C72" s="16"/>
+      <c r="D72" s="16"/>
       <c r="E72" s="10"/>
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
@@ -5843,17 +5853,15 @@
       <c r="Q72" s="4"/>
       <c r="R72" s="4"/>
     </row>
-    <row r="73" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B73" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C73" s="5"/>
-      <c r="D73" s="5" t="s">
-        <v>5</v>
-      </c>
+    <row r="73" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73" s="2">
+        <v>6</v>
+      </c>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
       <c r="E73" s="10"/>
       <c r="F73" s="4"/>
       <c r="G73" s="4"/>
@@ -5869,11 +5877,17 @@
       <c r="Q73" s="4"/>
       <c r="R73" s="4"/>
     </row>
-    <row r="74" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A74" s="19"/>
-      <c r="B74" s="19"/>
-      <c r="C74" s="20"/>
-      <c r="D74" s="20"/>
+    <row r="74" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="E74" s="10"/>
       <c r="F74" s="4"/>
       <c r="G74" s="4"/>
@@ -5890,10 +5904,10 @@
       <c r="R74" s="4"/>
     </row>
     <row r="75" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A75" s="7"/>
-      <c r="B75" s="7"/>
-      <c r="C75" s="9"/>
-      <c r="D75" s="9"/>
+      <c r="A75" s="19"/>
+      <c r="B75" s="19"/>
+      <c r="C75" s="20"/>
+      <c r="D75" s="20"/>
       <c r="E75" s="10"/>
       <c r="F75" s="4"/>
       <c r="G75" s="4"/>
@@ -6009,11 +6023,11 @@
       <c r="Q80" s="4"/>
       <c r="R80" s="4"/>
     </row>
-    <row r="81" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="23"/>
-      <c r="B81" s="23"/>
-      <c r="C81" s="24"/>
-      <c r="D81" s="24"/>
+    <row r="81" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A81" s="7"/>
+      <c r="B81" s="7"/>
+      <c r="C81" s="9"/>
+      <c r="D81" s="9"/>
       <c r="E81" s="10"/>
       <c r="F81" s="4"/>
       <c r="G81" s="4"/>
@@ -6030,15 +6044,10 @@
       <c r="R81" s="4"/>
     </row>
     <row r="82" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B82" s="14">
-        <f>SUM(B74:B81)</f>
-        <v>0</v>
-      </c>
-      <c r="C82" s="15"/>
-      <c r="D82" s="15"/>
+      <c r="A82" s="23"/>
+      <c r="B82" s="23"/>
+      <c r="C82" s="24"/>
+      <c r="D82" s="24"/>
       <c r="E82" s="10"/>
       <c r="F82" s="4"/>
       <c r="G82" s="4"/>
@@ -6054,11 +6063,16 @@
       <c r="Q82" s="4"/>
       <c r="R82" s="4"/>
     </row>
-    <row r="83" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A83" s="16"/>
-      <c r="B83" s="16"/>
-      <c r="C83" s="16"/>
-      <c r="D83" s="16"/>
+    <row r="83" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B83" s="14">
+        <f>SUM(B75:B82)</f>
+        <v>0</v>
+      </c>
+      <c r="C83" s="15"/>
+      <c r="D83" s="15"/>
       <c r="E83" s="10"/>
       <c r="F83" s="4"/>
       <c r="G83" s="4"/>
@@ -6075,10 +6089,10 @@
       <c r="R83" s="4"/>
     </row>
     <row r="84" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A84" s="27"/>
-      <c r="B84" s="27"/>
-      <c r="C84" s="27"/>
-      <c r="D84" s="27"/>
+      <c r="A84" s="16"/>
+      <c r="B84" s="16"/>
+      <c r="C84" s="16"/>
+      <c r="D84" s="16"/>
       <c r="E84" s="10"/>
       <c r="F84" s="4"/>
       <c r="G84" s="4"/>
@@ -6295,18 +6309,38 @@
       <c r="R94" s="4"/>
     </row>
     <row r="95" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A95" s="28"/>
-      <c r="B95" s="28"/>
-      <c r="C95" s="28"/>
-      <c r="D95" s="28"/>
+      <c r="A95" s="27"/>
+      <c r="B95" s="27"/>
+      <c r="C95" s="27"/>
+      <c r="D95" s="27"/>
+      <c r="E95" s="10"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="4"/>
+      <c r="H95" s="4"/>
+      <c r="I95" s="4"/>
+      <c r="J95" s="4"/>
+      <c r="K95" s="4"/>
+      <c r="L95" s="4"/>
+      <c r="M95" s="4"/>
+      <c r="N95" s="4"/>
+      <c r="O95" s="4"/>
+      <c r="P95" s="4"/>
+      <c r="Q95" s="4"/>
+      <c r="R95" s="4"/>
+    </row>
+    <row r="96" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A96" s="28"/>
+      <c r="B96" s="28"/>
+      <c r="C96" s="28"/>
+      <c r="D96" s="28"/>
     </row>
   </sheetData>
   <dataValidations xWindow="188" yWindow="522" count="2">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" prompt="Dépassement de durée - Le nombre de minutes introduites dépasse la durée d'une période. Veuillez confirmer ... Le calcul du total sera juste dans tous les cas._x000a_" sqref="B12 B33 B45 B60 B70 B82" xr:uid="{41F29EDA-D509-4469-8DFB-6A4CE4CEAE07}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" prompt="Dépassement de durée - Le nombre de minutes introduites dépasse la durée d'une période. Veuillez confirmer ... Le calcul du total sera juste dans tous les cas._x000a_" sqref="B12 B34 B46 B61 B71 B83" xr:uid="{41F29EDA-D509-4469-8DFB-6A4CE4CEAE07}">
       <formula1>0</formula1>
       <formula2>DureePeriode-1</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" prompt="Durée en 1/3 de période - Le nombre doit être de type entier" sqref="B74:B81 B37:B38 B40:B44 B49:B59 B64:B69 B10:B11 B3:B8 B16:B32" xr:uid="{3039B7E3-952E-4B34-B612-E5A0C049619C}">
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" prompt="Durée en 1/3 de période - Le nombre doit être de type entier" sqref="B75:B82 B38:B39 B41:B45 B50:B60 B65:B70 B10:B11 B3:B8 B16:B33" xr:uid="{3039B7E3-952E-4B34-B612-E5A0C049619C}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -6318,7 +6352,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716E2DDB-6361-470B-ACF3-8FDF9046203A}">
   <dimension ref="A1:R101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
@@ -8003,7 +8037,7 @@
       <c r="Q70" s="4"/>
       <c r="R70" s="4"/>
     </row>
-    <row r="71" spans="1:18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="7"/>
       <c r="B71" s="7"/>
       <c r="C71" s="9"/>

--- a/LM_Journal_Travail_V1.0.xlsx
+++ b/LM_Journal_Travail_V1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\Love-Mirroring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{838EAE48-CC6D-429C-A0B6-E95E6885AE57}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDA0BEDA-2A26-4AA7-8227-CAB87F283517}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4107,8 +4107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DB7A04D-A66F-4A89-83F1-9B353075A776}">
   <dimension ref="A1:R96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -4580,7 +4580,7 @@
         <v>42</v>
       </c>
       <c r="B18" s="7">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="C18" s="35">
         <v>43916</v>
@@ -4776,7 +4776,7 @@
         <v>62</v>
       </c>
       <c r="B25" s="36">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="C25" s="35">
         <v>43920</v>
@@ -4804,7 +4804,7 @@
         <v>63</v>
       </c>
       <c r="B26" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C26" s="35">
         <v>43921</v>
@@ -4859,8 +4859,8 @@
       <c r="A28" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B28" s="7">
-        <v>1</v>
+      <c r="B28" s="36">
+        <v>1.5</v>
       </c>
       <c r="C28" s="35">
         <v>43922</v>
@@ -4888,7 +4888,7 @@
         <v>71</v>
       </c>
       <c r="B29" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C29" s="35">
         <v>43923</v>
@@ -4916,7 +4916,7 @@
         <v>88</v>
       </c>
       <c r="B30" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C30" s="35">
         <v>43924</v>
@@ -4972,7 +4972,7 @@
         <v>97</v>
       </c>
       <c r="B32" s="38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C32" s="39">
         <v>43926</v>
@@ -5029,7 +5029,7 @@
       </c>
       <c r="B34" s="14">
         <f>SUM(B16:B33)</f>
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C34" s="15"/>
       <c r="D34" s="15"/>
@@ -6352,7 +6352,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716E2DDB-6361-470B-ACF3-8FDF9046203A}">
   <dimension ref="A1:R101"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>

--- a/LM_Journal_Travail_V1.0.xlsx
+++ b/LM_Journal_Travail_V1.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\Love-Mirroring\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programmes\VS2019\Projets\Projet Gerber\Love-Mirroring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDA0BEDA-2A26-4AA7-8227-CAB87F283517}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03A3DE60-5E4F-46EC-B02B-29864B6889FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5445" yWindow="2955" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Equipe" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <definedName name="NBLecons">#REF!</definedName>
     <definedName name="TachesPlanifiees">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="146">
   <si>
     <t>Jalon</t>
   </si>
@@ -500,6 +500,13 @@
   </si>
   <si>
     <t>Suite à une conversation avec Monsieur Gerber, je me suis rendu compte qu'on faisait fausse route sur les user stories j'ai donc effectué les corrections nécessaire pour avoir un bon rendu.</t>
+  </si>
+  <si>
+    <t>06.04.2020</t>
+  </si>
+  <si>
+    <t>Like Fonctionnel
+UnLike Fonctionnel</t>
   </si>
 </sst>
 </file>
@@ -4107,7 +4114,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DB7A04D-A66F-4A89-83F1-9B353075A776}">
   <dimension ref="A1:R96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
@@ -8695,8 +8702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F222774-5003-490D-9078-78D1F6F89A4A}">
   <dimension ref="A1:R96"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -9493,11 +9500,19 @@
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
     </row>
-    <row r="30" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
+    <row r="30" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+      <c r="A30" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B30" s="7">
+        <v>6</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>145</v>
+      </c>
       <c r="E30" s="10"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
@@ -9579,7 +9594,7 @@
       </c>
       <c r="B34" s="14">
         <f>SUM(B18:B33)</f>
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C34" s="15"/>
       <c r="D34" s="15"/>

--- a/LM_Journal_Travail_V1.0.xlsx
+++ b/LM_Journal_Travail_V1.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programmes\VS2019\Projets\Projet Gerber\Love-Mirroring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03A3DE60-5E4F-46EC-B02B-29864B6889FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C8158F-292F-4EE5-ABCF-0DD75BBAB4F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5445" yWindow="2955" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Equipe" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="148">
   <si>
     <t>Jalon</t>
   </si>
@@ -507,6 +507,15 @@
   <si>
     <t>Like Fonctionnel
 UnLike Fonctionnel</t>
+  </si>
+  <si>
+    <t>13.04.2020</t>
+  </si>
+  <si>
+    <t>Mise à jour de la base de données selon les nouvelles contraintes du programme
+MCD
+MLD
+SQL</t>
   </si>
 </sst>
 </file>
@@ -4114,7 +4123,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DB7A04D-A66F-4A89-83F1-9B353075A776}">
   <dimension ref="A1:R96"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
@@ -6359,7 +6368,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716E2DDB-6361-470B-ACF3-8FDF9046203A}">
   <dimension ref="A1:R101"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
@@ -8703,7 +8712,7 @@
   <dimension ref="A1:R96"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -9683,11 +9692,19 @@
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
     </row>
-    <row r="38" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="20"/>
+    <row r="38" spans="1:18" ht="54" x14ac:dyDescent="0.3">
+      <c r="A38" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="7">
+        <v>3</v>
+      </c>
+      <c r="C38" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="D38" s="20" t="s">
+        <v>147</v>
+      </c>
       <c r="E38" s="10"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
@@ -9849,7 +9866,7 @@
       </c>
       <c r="B46" s="14">
         <f>SUM(B38:B45)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C46" s="15"/>
       <c r="D46" s="15"/>

--- a/LM_Journal_Travail_V1.0.xlsx
+++ b/LM_Journal_Travail_V1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programmes\VS2019\Projets\Projet Gerber\Love-Mirroring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C8158F-292F-4EE5-ABCF-0DD75BBAB4F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A67BFE7B-5E27-4064-87A4-75E5226E9A16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="150">
   <si>
     <t>Jalon</t>
   </si>
@@ -516,6 +516,13 @@
 MCD
 MLD
 SQL</t>
+  </si>
+  <si>
+    <t>SQL  et Incrément</t>
+  </si>
+  <si>
+    <t>Mise à jour du script selon les nouvelles contraintes
+Mise à jour de la base de données sur l'incrément</t>
   </si>
 </sst>
 </file>
@@ -8711,8 +8718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F222774-5003-490D-9078-78D1F6F89A4A}">
   <dimension ref="A1:R96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -9720,11 +9727,17 @@
       <c r="Q38" s="4"/>
       <c r="R38" s="4"/>
     </row>
-    <row r="39" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
+    <row r="39" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+      <c r="A39" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="B39" s="7">
+        <v>1</v>
+      </c>
       <c r="C39" s="21"/>
-      <c r="D39" s="9"/>
+      <c r="D39" s="9" t="s">
+        <v>149</v>
+      </c>
       <c r="E39" s="10"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
@@ -9866,7 +9879,7 @@
       </c>
       <c r="B46" s="14">
         <f>SUM(B38:B45)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C46" s="15"/>
       <c r="D46" s="15"/>

--- a/LM_Journal_Travail_V1.0.xlsx
+++ b/LM_Journal_Travail_V1.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programmes\VS2019\Projets\Projet Gerber\Love-Mirroring\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\Love-Mirroring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C8158F-292F-4EE5-ABCF-0DD75BBAB4F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9D705C0-8AC1-4265-9111-0C3EABF23DD6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Equipe" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <definedName name="NBLecons">#REF!</definedName>
     <definedName name="TachesPlanifiees">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="152">
   <si>
     <t>Jalon</t>
   </si>
@@ -516,6 +516,18 @@
 MCD
 MLD
 SQL</t>
+  </si>
+  <si>
+    <t>Mise à jour de l'attribution des préférences celon incrément</t>
+  </si>
+  <si>
+    <t>J'ai commencé à intégrer l'incrément au prototype et développer les fonctionnalités pour enregistrer les préférences de recherche de l'utilisateur</t>
+  </si>
+  <si>
+    <t>Intégration de l'API Spotify</t>
+  </si>
+  <si>
+    <t>J'ai intégré l'API du service Spotify afin d'exploiter le résultat dans nos critères de recherches</t>
   </si>
 </sst>
 </file>
@@ -1135,16 +1147,16 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="6.140625" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
-    <col min="4" max="4" width="78.42578125" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="6.109375" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" customWidth="1"/>
+    <col min="4" max="4" width="78.44140625" customWidth="1"/>
+    <col min="5" max="6" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1170,7 +1182,7 @@
       <c r="Q1" s="4"/>
       <c r="R1" s="4"/>
     </row>
-    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -1198,7 +1210,7 @@
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
     </row>
-    <row r="3" spans="1:18" ht="94.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
@@ -1226,7 +1238,7 @@
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
     </row>
-    <row r="4" spans="1:18" ht="54" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
@@ -1254,7 +1266,7 @@
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
     </row>
-    <row r="5" spans="1:18" ht="54" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
@@ -1282,7 +1294,7 @@
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
     </row>
-    <row r="6" spans="1:18" ht="81" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
         <v>12</v>
       </c>
@@ -1310,7 +1322,7 @@
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
     </row>
-    <row r="7" spans="1:18" ht="54" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>14</v>
       </c>
@@ -1338,7 +1350,7 @@
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
     </row>
-    <row r="8" spans="1:18" ht="94.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
         <v>16</v>
       </c>
@@ -1366,7 +1378,7 @@
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
     </row>
-    <row r="9" spans="1:18" ht="81" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
         <v>18</v>
       </c>
@@ -1394,7 +1406,7 @@
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
     </row>
-    <row r="10" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" ht="66" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
@@ -1422,7 +1434,7 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
     </row>
-    <row r="11" spans="1:18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="8"/>
@@ -1442,7 +1454,7 @@
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
     </row>
-    <row r="12" spans="1:18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="14" t="s">
         <v>22</v>
       </c>
@@ -1467,7 +1479,7 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
     </row>
-    <row r="13" spans="1:18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="16"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
@@ -1487,7 +1499,7 @@
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
     </row>
-    <row r="14" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -1511,7 +1523,7 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
     </row>
-    <row r="15" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>2</v>
       </c>
@@ -1537,7 +1549,7 @@
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
     </row>
-    <row r="16" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A16" s="37" t="s">
         <v>95</v>
       </c>
@@ -1565,7 +1577,7 @@
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
     </row>
-    <row r="17" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>99</v>
       </c>
@@ -1593,7 +1605,7 @@
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
     </row>
-    <row r="18" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="9"/>
@@ -1613,7 +1625,7 @@
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
     </row>
-    <row r="19" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="9"/>
@@ -1633,7 +1645,7 @@
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
     </row>
-    <row r="20" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="9"/>
@@ -4123,18 +4135,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DB7A04D-A66F-4A89-83F1-9B353075A776}">
   <dimension ref="A1:R96"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="78.42578125" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="78.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4160,7 +4172,7 @@
       <c r="Q1" s="4"/>
       <c r="R1" s="4"/>
     </row>
-    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -4188,7 +4200,7 @@
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
     </row>
-    <row r="3" spans="1:18" ht="94.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
@@ -4216,7 +4228,7 @@
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
     </row>
-    <row r="4" spans="1:18" ht="54" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
@@ -4244,7 +4256,7 @@
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
     </row>
-    <row r="5" spans="1:18" ht="54" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
@@ -4272,7 +4284,7 @@
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
     </row>
-    <row r="6" spans="1:18" ht="81" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
         <v>12</v>
       </c>
@@ -4300,7 +4312,7 @@
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
     </row>
-    <row r="7" spans="1:18" ht="54" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>14</v>
       </c>
@@ -4328,7 +4340,7 @@
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
     </row>
-    <row r="8" spans="1:18" ht="81" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
         <v>16</v>
       </c>
@@ -4356,7 +4368,7 @@
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
     </row>
-    <row r="9" spans="1:18" ht="81" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
         <v>18</v>
       </c>
@@ -4384,7 +4396,7 @@
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
     </row>
-    <row r="10" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
@@ -4412,7 +4424,7 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
     </row>
-    <row r="11" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>34</v>
       </c>
@@ -4440,7 +4452,7 @@
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
     </row>
-    <row r="12" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="14" t="s">
         <v>22</v>
       </c>
@@ -4465,7 +4477,7 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
     </row>
-    <row r="13" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="16"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
@@ -4485,7 +4497,7 @@
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
     </row>
-    <row r="14" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -4509,7 +4521,7 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
     </row>
-    <row r="15" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>2</v>
       </c>
@@ -4535,7 +4547,7 @@
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
     </row>
-    <row r="16" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
         <v>36</v>
       </c>
@@ -4563,7 +4575,7 @@
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
     </row>
-    <row r="17" spans="1:18" ht="81" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>38</v>
       </c>
@@ -4591,7 +4603,7 @@
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
     </row>
-    <row r="18" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>42</v>
       </c>
@@ -4619,7 +4631,7 @@
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
     </row>
-    <row r="19" spans="1:18" ht="81" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>44</v>
       </c>
@@ -4647,7 +4659,7 @@
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
     </row>
-    <row r="20" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>46</v>
       </c>
@@ -4675,7 +4687,7 @@
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
     </row>
-    <row r="21" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" ht="66" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>48</v>
       </c>
@@ -4703,7 +4715,7 @@
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
     </row>
-    <row r="22" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>50</v>
       </c>
@@ -4731,7 +4743,7 @@
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
     </row>
-    <row r="23" spans="1:18" ht="121.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>73</v>
       </c>
@@ -4759,7 +4771,7 @@
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
     </row>
-    <row r="24" spans="1:18" ht="54" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>52</v>
       </c>
@@ -4787,7 +4799,7 @@
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
     </row>
-    <row r="25" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" ht="66" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>62</v>
       </c>
@@ -4815,7 +4827,7 @@
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
     </row>
-    <row r="26" spans="1:18" ht="54" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>63</v>
       </c>
@@ -4843,7 +4855,7 @@
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
     </row>
-    <row r="27" spans="1:18" ht="81" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>65</v>
       </c>
@@ -4871,7 +4883,7 @@
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
     </row>
-    <row r="28" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>69</v>
       </c>
@@ -4899,7 +4911,7 @@
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
     </row>
-    <row r="29" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>71</v>
       </c>
@@ -4927,7 +4939,7 @@
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
     </row>
-    <row r="30" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>88</v>
       </c>
@@ -4955,7 +4967,7 @@
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
     </row>
-    <row r="31" spans="1:18" ht="54" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>90</v>
       </c>
@@ -4983,7 +4995,7 @@
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
     </row>
-    <row r="32" spans="1:18" ht="54" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" ht="66" x14ac:dyDescent="0.3">
       <c r="A32" s="38" t="s">
         <v>97</v>
       </c>
@@ -5011,7 +5023,7 @@
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
     </row>
-    <row r="33" spans="1:18" ht="54.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:18" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="38" t="s">
         <v>142</v>
       </c>
@@ -5039,7 +5051,7 @@
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
     </row>
-    <row r="34" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="14" t="s">
         <v>22</v>
       </c>
@@ -5064,7 +5076,7 @@
       <c r="Q34" s="4"/>
       <c r="R34" s="4"/>
     </row>
-    <row r="35" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="16"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -5084,7 +5096,7 @@
       <c r="Q35" s="4"/>
       <c r="R35" s="4"/>
     </row>
-    <row r="36" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>0</v>
       </c>
@@ -5108,7 +5120,7 @@
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
     </row>
-    <row r="37" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
         <v>2</v>
       </c>
@@ -5134,11 +5146,19 @@
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
     </row>
-    <row r="38" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="20"/>
+    <row r="38" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="A38" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="B38" s="7">
+        <v>4</v>
+      </c>
+      <c r="C38" s="21">
+        <v>43934</v>
+      </c>
+      <c r="D38" s="20" t="s">
+        <v>149</v>
+      </c>
       <c r="E38" s="10"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
@@ -5154,11 +5174,19 @@
       <c r="Q38" s="4"/>
       <c r="R38" s="4"/>
     </row>
-    <row r="39" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="9"/>
+    <row r="39" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A39" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B39" s="7">
+        <v>2</v>
+      </c>
+      <c r="C39" s="21">
+        <v>43935</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>151</v>
+      </c>
       <c r="E39" s="10"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
@@ -5174,7 +5202,7 @@
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
     </row>
-    <row r="40" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="22"/>
@@ -5194,7 +5222,7 @@
       <c r="Q40" s="4"/>
       <c r="R40" s="4"/>
     </row>
-    <row r="41" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="9"/>
@@ -5214,7 +5242,7 @@
       <c r="Q41" s="4"/>
       <c r="R41" s="4"/>
     </row>
-    <row r="42" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="9"/>
@@ -5234,7 +5262,7 @@
       <c r="Q42" s="4"/>
       <c r="R42" s="4"/>
     </row>
-    <row r="43" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="9"/>
@@ -5254,7 +5282,7 @@
       <c r="Q43" s="4"/>
       <c r="R43" s="4"/>
     </row>
-    <row r="44" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="9"/>
@@ -5274,7 +5302,7 @@
       <c r="Q44" s="4"/>
       <c r="R44" s="4"/>
     </row>
-    <row r="45" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="23"/>
       <c r="B45" s="23"/>
       <c r="C45" s="24"/>
@@ -5294,13 +5322,13 @@
       <c r="Q45" s="4"/>
       <c r="R45" s="4"/>
     </row>
-    <row r="46" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="14" t="s">
         <v>22</v>
       </c>
       <c r="B46" s="14">
         <f>SUM(B38:B45)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C46" s="15"/>
       <c r="D46" s="15"/>
@@ -5319,7 +5347,7 @@
       <c r="Q46" s="4"/>
       <c r="R46" s="4"/>
     </row>
-    <row r="47" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="16"/>
       <c r="B47" s="16"/>
       <c r="C47" s="16"/>
@@ -5339,7 +5367,7 @@
       <c r="Q47" s="4"/>
       <c r="R47" s="4"/>
     </row>
-    <row r="48" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>0</v>
       </c>
@@ -5363,7 +5391,7 @@
       <c r="Q48" s="4"/>
       <c r="R48" s="4"/>
     </row>
-    <row r="49" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
         <v>2</v>
       </c>
@@ -5389,7 +5417,7 @@
       <c r="Q49" s="4"/>
       <c r="R49" s="4"/>
     </row>
-    <row r="50" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A50" s="19"/>
       <c r="B50" s="19"/>
       <c r="C50" s="20"/>
@@ -5409,7 +5437,7 @@
       <c r="Q50" s="4"/>
       <c r="R50" s="4"/>
     </row>
-    <row r="51" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A51" s="7"/>
       <c r="B51" s="7"/>
       <c r="C51" s="9"/>
@@ -5429,7 +5457,7 @@
       <c r="Q51" s="4"/>
       <c r="R51" s="4"/>
     </row>
-    <row r="52" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A52" s="7"/>
       <c r="B52" s="7"/>
       <c r="C52" s="9"/>
@@ -5449,7 +5477,7 @@
       <c r="Q52" s="4"/>
       <c r="R52" s="4"/>
     </row>
-    <row r="53" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A53" s="7"/>
       <c r="B53" s="7"/>
       <c r="C53" s="9"/>
@@ -5469,7 +5497,7 @@
       <c r="Q53" s="4"/>
       <c r="R53" s="4"/>
     </row>
-    <row r="54" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A54" s="7"/>
       <c r="B54" s="7"/>
       <c r="C54" s="9"/>
@@ -5489,7 +5517,7 @@
       <c r="Q54" s="4"/>
       <c r="R54" s="4"/>
     </row>
-    <row r="55" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A55" s="7"/>
       <c r="B55" s="7"/>
       <c r="C55" s="9"/>
@@ -5509,7 +5537,7 @@
       <c r="Q55" s="4"/>
       <c r="R55" s="4"/>
     </row>
-    <row r="56" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A56" s="25"/>
       <c r="B56" s="25"/>
       <c r="C56" s="26"/>
@@ -5529,7 +5557,7 @@
       <c r="Q56" s="4"/>
       <c r="R56" s="4"/>
     </row>
-    <row r="57" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A57" s="25"/>
       <c r="B57" s="25"/>
       <c r="C57" s="26"/>
@@ -5549,7 +5577,7 @@
       <c r="Q57" s="4"/>
       <c r="R57" s="4"/>
     </row>
-    <row r="58" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A58" s="25"/>
       <c r="B58" s="25"/>
       <c r="C58" s="26"/>
@@ -5569,7 +5597,7 @@
       <c r="Q58" s="4"/>
       <c r="R58" s="4"/>
     </row>
-    <row r="59" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A59" s="25"/>
       <c r="B59" s="25"/>
       <c r="C59" s="26"/>
@@ -5589,7 +5617,7 @@
       <c r="Q59" s="4"/>
       <c r="R59" s="4"/>
     </row>
-    <row r="60" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="23"/>
       <c r="B60" s="23"/>
       <c r="C60" s="24"/>
@@ -5609,7 +5637,7 @@
       <c r="Q60" s="4"/>
       <c r="R60" s="4"/>
     </row>
-    <row r="61" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="14" t="s">
         <v>22</v>
       </c>
@@ -5634,7 +5662,7 @@
       <c r="Q61" s="4"/>
       <c r="R61" s="4"/>
     </row>
-    <row r="62" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="16"/>
       <c r="B62" s="16"/>
       <c r="C62" s="16"/>
@@ -5654,7 +5682,7 @@
       <c r="Q62" s="4"/>
       <c r="R62" s="4"/>
     </row>
-    <row r="63" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>0</v>
       </c>
@@ -5678,7 +5706,7 @@
       <c r="Q63" s="4"/>
       <c r="R63" s="4"/>
     </row>
-    <row r="64" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="5" t="s">
         <v>2</v>
       </c>
@@ -5704,7 +5732,7 @@
       <c r="Q64" s="4"/>
       <c r="R64" s="4"/>
     </row>
-    <row r="65" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A65" s="19"/>
       <c r="B65" s="19"/>
       <c r="C65" s="20"/>
@@ -5724,7 +5752,7 @@
       <c r="Q65" s="4"/>
       <c r="R65" s="4"/>
     </row>
-    <row r="66" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A66" s="7"/>
       <c r="B66" s="7"/>
       <c r="C66" s="9"/>
@@ -5744,7 +5772,7 @@
       <c r="Q66" s="4"/>
       <c r="R66" s="4"/>
     </row>
-    <row r="67" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A67" s="7"/>
       <c r="B67" s="7"/>
       <c r="C67" s="9"/>
@@ -5764,7 +5792,7 @@
       <c r="Q67" s="4"/>
       <c r="R67" s="4"/>
     </row>
-    <row r="68" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A68" s="7"/>
       <c r="B68" s="7"/>
       <c r="C68" s="9"/>
@@ -5784,7 +5812,7 @@
       <c r="Q68" s="4"/>
       <c r="R68" s="4"/>
     </row>
-    <row r="69" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A69" s="7"/>
       <c r="B69" s="7"/>
       <c r="C69" s="9"/>
@@ -5804,7 +5832,7 @@
       <c r="Q69" s="4"/>
       <c r="R69" s="4"/>
     </row>
-    <row r="70" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="23"/>
       <c r="B70" s="23"/>
       <c r="C70" s="24"/>
@@ -5824,7 +5852,7 @@
       <c r="Q70" s="4"/>
       <c r="R70" s="4"/>
     </row>
-    <row r="71" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="14" t="s">
         <v>22</v>
       </c>
@@ -5849,7 +5877,7 @@
       <c r="Q71" s="4"/>
       <c r="R71" s="4"/>
     </row>
-    <row r="72" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="16"/>
       <c r="B72" s="16"/>
       <c r="C72" s="16"/>
@@ -5869,7 +5897,7 @@
       <c r="Q72" s="4"/>
       <c r="R72" s="4"/>
     </row>
-    <row r="73" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>0</v>
       </c>
@@ -5893,7 +5921,7 @@
       <c r="Q73" s="4"/>
       <c r="R73" s="4"/>
     </row>
-    <row r="74" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="5" t="s">
         <v>2</v>
       </c>
@@ -5919,7 +5947,7 @@
       <c r="Q74" s="4"/>
       <c r="R74" s="4"/>
     </row>
-    <row r="75" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A75" s="19"/>
       <c r="B75" s="19"/>
       <c r="C75" s="20"/>
@@ -5939,7 +5967,7 @@
       <c r="Q75" s="4"/>
       <c r="R75" s="4"/>
     </row>
-    <row r="76" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A76" s="7"/>
       <c r="B76" s="7"/>
       <c r="C76" s="9"/>
@@ -5959,7 +5987,7 @@
       <c r="Q76" s="4"/>
       <c r="R76" s="4"/>
     </row>
-    <row r="77" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A77" s="7"/>
       <c r="B77" s="7"/>
       <c r="C77" s="9"/>
@@ -5979,7 +6007,7 @@
       <c r="Q77" s="4"/>
       <c r="R77" s="4"/>
     </row>
-    <row r="78" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A78" s="7"/>
       <c r="B78" s="7"/>
       <c r="C78" s="9"/>
@@ -5999,7 +6027,7 @@
       <c r="Q78" s="4"/>
       <c r="R78" s="4"/>
     </row>
-    <row r="79" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A79" s="7"/>
       <c r="B79" s="7"/>
       <c r="C79" s="9"/>
@@ -6019,7 +6047,7 @@
       <c r="Q79" s="4"/>
       <c r="R79" s="4"/>
     </row>
-    <row r="80" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A80" s="7"/>
       <c r="B80" s="7"/>
       <c r="C80" s="9"/>
@@ -6039,7 +6067,7 @@
       <c r="Q80" s="4"/>
       <c r="R80" s="4"/>
     </row>
-    <row r="81" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A81" s="7"/>
       <c r="B81" s="7"/>
       <c r="C81" s="9"/>
@@ -6059,7 +6087,7 @@
       <c r="Q81" s="4"/>
       <c r="R81" s="4"/>
     </row>
-    <row r="82" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="23"/>
       <c r="B82" s="23"/>
       <c r="C82" s="24"/>
@@ -6079,7 +6107,7 @@
       <c r="Q82" s="4"/>
       <c r="R82" s="4"/>
     </row>
-    <row r="83" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="14" t="s">
         <v>22</v>
       </c>
@@ -6104,7 +6132,7 @@
       <c r="Q83" s="4"/>
       <c r="R83" s="4"/>
     </row>
-    <row r="84" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A84" s="16"/>
       <c r="B84" s="16"/>
       <c r="C84" s="16"/>
@@ -6124,7 +6152,7 @@
       <c r="Q84" s="4"/>
       <c r="R84" s="4"/>
     </row>
-    <row r="85" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A85" s="27"/>
       <c r="B85" s="27"/>
       <c r="C85" s="27"/>
@@ -6144,7 +6172,7 @@
       <c r="Q85" s="4"/>
       <c r="R85" s="4"/>
     </row>
-    <row r="86" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A86" s="27"/>
       <c r="B86" s="27"/>
       <c r="C86" s="27"/>
@@ -6164,7 +6192,7 @@
       <c r="Q86" s="4"/>
       <c r="R86" s="4"/>
     </row>
-    <row r="87" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A87" s="27"/>
       <c r="B87" s="27"/>
       <c r="C87" s="27"/>
@@ -6184,7 +6212,7 @@
       <c r="Q87" s="4"/>
       <c r="R87" s="4"/>
     </row>
-    <row r="88" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A88" s="27"/>
       <c r="B88" s="27"/>
       <c r="C88" s="27"/>
@@ -6204,7 +6232,7 @@
       <c r="Q88" s="4"/>
       <c r="R88" s="4"/>
     </row>
-    <row r="89" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A89" s="27"/>
       <c r="B89" s="27"/>
       <c r="C89" s="27"/>
@@ -6224,7 +6252,7 @@
       <c r="Q89" s="4"/>
       <c r="R89" s="4"/>
     </row>
-    <row r="90" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A90" s="27"/>
       <c r="B90" s="27"/>
       <c r="C90" s="27"/>
@@ -6244,7 +6272,7 @@
       <c r="Q90" s="4"/>
       <c r="R90" s="4"/>
     </row>
-    <row r="91" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A91" s="27"/>
       <c r="B91" s="27"/>
       <c r="C91" s="27"/>
@@ -6264,7 +6292,7 @@
       <c r="Q91" s="4"/>
       <c r="R91" s="4"/>
     </row>
-    <row r="92" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A92" s="27"/>
       <c r="B92" s="27"/>
       <c r="C92" s="27"/>
@@ -6284,7 +6312,7 @@
       <c r="Q92" s="4"/>
       <c r="R92" s="4"/>
     </row>
-    <row r="93" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A93" s="27"/>
       <c r="B93" s="27"/>
       <c r="C93" s="27"/>
@@ -6304,7 +6332,7 @@
       <c r="Q93" s="4"/>
       <c r="R93" s="4"/>
     </row>
-    <row r="94" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A94" s="27"/>
       <c r="B94" s="27"/>
       <c r="C94" s="27"/>
@@ -6324,7 +6352,7 @@
       <c r="Q94" s="4"/>
       <c r="R94" s="4"/>
     </row>
-    <row r="95" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A95" s="27"/>
       <c r="B95" s="27"/>
       <c r="C95" s="27"/>
@@ -6344,7 +6372,7 @@
       <c r="Q95" s="4"/>
       <c r="R95" s="4"/>
     </row>
-    <row r="96" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A96" s="28"/>
       <c r="B96" s="28"/>
       <c r="C96" s="28"/>
@@ -6372,14 +6400,14 @@
       <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="78.42578125" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="78.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6405,7 +6433,7 @@
       <c r="Q1" s="4"/>
       <c r="R1" s="4"/>
     </row>
-    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -6433,7 +6461,7 @@
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
     </row>
-    <row r="3" spans="1:18" ht="94.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
@@ -6461,7 +6489,7 @@
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
     </row>
-    <row r="4" spans="1:18" ht="54" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
@@ -6489,7 +6517,7 @@
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
     </row>
-    <row r="5" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="66" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
@@ -6517,7 +6545,7 @@
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
     </row>
-    <row r="6" spans="1:18" ht="81" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
         <v>12</v>
       </c>
@@ -6545,7 +6573,7 @@
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
     </row>
-    <row r="7" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="66" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>14</v>
       </c>
@@ -6573,7 +6601,7 @@
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
     </row>
-    <row r="8" spans="1:18" ht="108" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
         <v>16</v>
       </c>
@@ -6601,7 +6629,7 @@
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
     </row>
-    <row r="9" spans="1:18" ht="94.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
         <v>18</v>
       </c>
@@ -6629,7 +6657,7 @@
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
     </row>
-    <row r="10" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" ht="66" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
@@ -6657,7 +6685,7 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
     </row>
-    <row r="11" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>23</v>
       </c>
@@ -6683,7 +6711,7 @@
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
     </row>
-    <row r="12" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>25</v>
       </c>
@@ -6709,7 +6737,7 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
     </row>
-    <row r="13" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
         <v>22</v>
       </c>
@@ -6734,7 +6762,7 @@
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
     </row>
-    <row r="14" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A14" s="16"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
@@ -6754,7 +6782,7 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
     </row>
-    <row r="15" spans="1:18" ht="18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -6804,7 +6832,7 @@
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
     </row>
-    <row r="17" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
         <v>103</v>
       </c>
@@ -6830,7 +6858,7 @@
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
     </row>
-    <row r="18" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>105</v>
       </c>
@@ -6854,7 +6882,7 @@
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
     </row>
-    <row r="19" spans="1:18" ht="54" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>106</v>
       </c>
@@ -6880,7 +6908,7 @@
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
     </row>
-    <row r="20" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>108</v>
       </c>
@@ -6906,7 +6934,7 @@
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
     </row>
-    <row r="21" spans="1:18" ht="54" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>110</v>
       </c>
@@ -6932,7 +6960,7 @@
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
     </row>
-    <row r="22" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" ht="66" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>112</v>
       </c>
@@ -6958,7 +6986,7 @@
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
     </row>
-    <row r="23" spans="1:18" ht="81" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>114</v>
       </c>
@@ -6984,7 +7012,7 @@
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
     </row>
-    <row r="24" spans="1:18" ht="108" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>116</v>
       </c>
@@ -7010,7 +7038,7 @@
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
     </row>
-    <row r="25" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>118</v>
       </c>
@@ -7036,7 +7064,7 @@
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
     </row>
-    <row r="26" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>120</v>
       </c>
@@ -7062,7 +7090,7 @@
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
     </row>
-    <row r="27" spans="1:18" ht="121.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>122</v>
       </c>
@@ -7088,7 +7116,7 @@
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
     </row>
-    <row r="28" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>124</v>
       </c>
@@ -7114,7 +7142,7 @@
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
     </row>
-    <row r="29" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>126</v>
       </c>
@@ -7140,7 +7168,7 @@
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
     </row>
-    <row r="30" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>124</v>
       </c>
@@ -7166,7 +7194,7 @@
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
     </row>
-    <row r="31" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>129</v>
       </c>
@@ -7192,7 +7220,7 @@
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
     </row>
-    <row r="32" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>131</v>
       </c>
@@ -7218,7 +7246,7 @@
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
     </row>
-    <row r="33" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>133</v>
       </c>
@@ -7244,7 +7272,7 @@
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
     </row>
-    <row r="34" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>134</v>
       </c>
@@ -7270,7 +7298,7 @@
       <c r="Q34" s="4"/>
       <c r="R34" s="4"/>
     </row>
-    <row r="35" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>136</v>
       </c>
@@ -7296,7 +7324,7 @@
       <c r="Q35" s="4"/>
       <c r="R35" s="4"/>
     </row>
-    <row r="36" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>138</v>
       </c>
@@ -7322,7 +7350,7 @@
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
     </row>
-    <row r="37" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
         <v>140</v>
       </c>
@@ -7348,7 +7376,7 @@
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
     </row>
-    <row r="38" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="9"/>
@@ -7368,7 +7396,7 @@
       <c r="Q38" s="4"/>
       <c r="R38" s="4"/>
     </row>
-    <row r="39" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="14" t="s">
         <v>22</v>
       </c>
@@ -7393,7 +7421,7 @@
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
     </row>
-    <row r="40" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A40" s="16"/>
       <c r="B40" s="16"/>
       <c r="C40" s="16"/>
@@ -7413,7 +7441,7 @@
       <c r="Q40" s="4"/>
       <c r="R40" s="4"/>
     </row>
-    <row r="41" spans="1:18" ht="18" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>0</v>
       </c>
@@ -7463,7 +7491,7 @@
       <c r="Q42" s="4"/>
       <c r="R42" s="4"/>
     </row>
-    <row r="43" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="21"/>
@@ -7483,7 +7511,7 @@
       <c r="Q43" s="4"/>
       <c r="R43" s="4"/>
     </row>
-    <row r="44" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="21"/>
@@ -7503,7 +7531,7 @@
       <c r="Q44" s="4"/>
       <c r="R44" s="4"/>
     </row>
-    <row r="45" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="22"/>
@@ -7523,7 +7551,7 @@
       <c r="Q45" s="4"/>
       <c r="R45" s="4"/>
     </row>
-    <row r="46" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="9"/>
@@ -7543,7 +7571,7 @@
       <c r="Q46" s="4"/>
       <c r="R46" s="4"/>
     </row>
-    <row r="47" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="9"/>
@@ -7563,7 +7591,7 @@
       <c r="Q47" s="4"/>
       <c r="R47" s="4"/>
     </row>
-    <row r="48" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="9"/>
@@ -7583,7 +7611,7 @@
       <c r="Q48" s="4"/>
       <c r="R48" s="4"/>
     </row>
-    <row r="49" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="9"/>
@@ -7603,7 +7631,7 @@
       <c r="Q49" s="4"/>
       <c r="R49" s="4"/>
     </row>
-    <row r="50" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A50" s="23"/>
       <c r="B50" s="23"/>
       <c r="C50" s="24"/>
@@ -7623,7 +7651,7 @@
       <c r="Q50" s="4"/>
       <c r="R50" s="4"/>
     </row>
-    <row r="51" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A51" s="14" t="s">
         <v>22</v>
       </c>
@@ -7648,7 +7676,7 @@
       <c r="Q51" s="4"/>
       <c r="R51" s="4"/>
     </row>
-    <row r="52" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A52" s="16"/>
       <c r="B52" s="16"/>
       <c r="C52" s="16"/>
@@ -7668,7 +7696,7 @@
       <c r="Q52" s="4"/>
       <c r="R52" s="4"/>
     </row>
-    <row r="53" spans="1:18" ht="18" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>0</v>
       </c>
@@ -7718,7 +7746,7 @@
       <c r="Q54" s="4"/>
       <c r="R54" s="4"/>
     </row>
-    <row r="55" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A55" s="19"/>
       <c r="B55" s="19"/>
       <c r="C55" s="20"/>
@@ -7738,7 +7766,7 @@
       <c r="Q55" s="4"/>
       <c r="R55" s="4"/>
     </row>
-    <row r="56" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A56" s="7"/>
       <c r="B56" s="7"/>
       <c r="C56" s="9"/>
@@ -7758,7 +7786,7 @@
       <c r="Q56" s="4"/>
       <c r="R56" s="4"/>
     </row>
-    <row r="57" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="7"/>
       <c r="B57" s="7"/>
       <c r="C57" s="9"/>
@@ -7778,7 +7806,7 @@
       <c r="Q57" s="4"/>
       <c r="R57" s="4"/>
     </row>
-    <row r="58" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="7"/>
       <c r="B58" s="7"/>
       <c r="C58" s="9"/>
@@ -7798,7 +7826,7 @@
       <c r="Q58" s="4"/>
       <c r="R58" s="4"/>
     </row>
-    <row r="59" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="7"/>
       <c r="B59" s="7"/>
       <c r="C59" s="9"/>
@@ -7818,7 +7846,7 @@
       <c r="Q59" s="4"/>
       <c r="R59" s="4"/>
     </row>
-    <row r="60" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="7"/>
       <c r="B60" s="7"/>
       <c r="C60" s="9"/>
@@ -7838,7 +7866,7 @@
       <c r="Q60" s="4"/>
       <c r="R60" s="4"/>
     </row>
-    <row r="61" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="25"/>
       <c r="B61" s="25"/>
       <c r="C61" s="26"/>
@@ -7858,7 +7886,7 @@
       <c r="Q61" s="4"/>
       <c r="R61" s="4"/>
     </row>
-    <row r="62" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="25"/>
       <c r="B62" s="25"/>
       <c r="C62" s="26"/>
@@ -7878,7 +7906,7 @@
       <c r="Q62" s="4"/>
       <c r="R62" s="4"/>
     </row>
-    <row r="63" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="25"/>
       <c r="B63" s="25"/>
       <c r="C63" s="26"/>
@@ -7898,7 +7926,7 @@
       <c r="Q63" s="4"/>
       <c r="R63" s="4"/>
     </row>
-    <row r="64" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="25"/>
       <c r="B64" s="25"/>
       <c r="C64" s="26"/>
@@ -7918,7 +7946,7 @@
       <c r="Q64" s="4"/>
       <c r="R64" s="4"/>
     </row>
-    <row r="65" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="23"/>
       <c r="B65" s="23"/>
       <c r="C65" s="24"/>
@@ -7938,7 +7966,7 @@
       <c r="Q65" s="4"/>
       <c r="R65" s="4"/>
     </row>
-    <row r="66" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="14" t="s">
         <v>22</v>
       </c>
@@ -7963,7 +7991,7 @@
       <c r="Q66" s="4"/>
       <c r="R66" s="4"/>
     </row>
-    <row r="67" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="16"/>
       <c r="B67" s="16"/>
       <c r="C67" s="16"/>
@@ -7983,7 +8011,7 @@
       <c r="Q67" s="4"/>
       <c r="R67" s="4"/>
     </row>
-    <row r="68" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>0</v>
       </c>
@@ -8007,7 +8035,7 @@
       <c r="Q68" s="4"/>
       <c r="R68" s="4"/>
     </row>
-    <row r="69" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="5" t="s">
         <v>2</v>
       </c>
@@ -8033,7 +8061,7 @@
       <c r="Q69" s="4"/>
       <c r="R69" s="4"/>
     </row>
-    <row r="70" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="19"/>
       <c r="B70" s="19"/>
       <c r="C70" s="20"/>
@@ -8053,7 +8081,7 @@
       <c r="Q70" s="4"/>
       <c r="R70" s="4"/>
     </row>
-    <row r="71" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="7"/>
       <c r="B71" s="7"/>
       <c r="C71" s="9"/>
@@ -8073,7 +8101,7 @@
       <c r="Q71" s="4"/>
       <c r="R71" s="4"/>
     </row>
-    <row r="72" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A72" s="7"/>
       <c r="B72" s="7"/>
       <c r="C72" s="9"/>
@@ -8093,7 +8121,7 @@
       <c r="Q72" s="4"/>
       <c r="R72" s="4"/>
     </row>
-    <row r="73" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A73" s="7"/>
       <c r="B73" s="7"/>
       <c r="C73" s="9"/>
@@ -8113,7 +8141,7 @@
       <c r="Q73" s="4"/>
       <c r="R73" s="4"/>
     </row>
-    <row r="74" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A74" s="7"/>
       <c r="B74" s="7"/>
       <c r="C74" s="9"/>
@@ -8133,7 +8161,7 @@
       <c r="Q74" s="4"/>
       <c r="R74" s="4"/>
     </row>
-    <row r="75" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A75" s="23"/>
       <c r="B75" s="23"/>
       <c r="C75" s="24"/>
@@ -8153,7 +8181,7 @@
       <c r="Q75" s="4"/>
       <c r="R75" s="4"/>
     </row>
-    <row r="76" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A76" s="14" t="s">
         <v>22</v>
       </c>
@@ -8178,7 +8206,7 @@
       <c r="Q76" s="4"/>
       <c r="R76" s="4"/>
     </row>
-    <row r="77" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A77" s="16"/>
       <c r="B77" s="16"/>
       <c r="C77" s="16"/>
@@ -8198,7 +8226,7 @@
       <c r="Q77" s="4"/>
       <c r="R77" s="4"/>
     </row>
-    <row r="78" spans="1:18" ht="18" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>0</v>
       </c>
@@ -8248,7 +8276,7 @@
       <c r="Q79" s="4"/>
       <c r="R79" s="4"/>
     </row>
-    <row r="80" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A80" s="19"/>
       <c r="B80" s="19"/>
       <c r="C80" s="20"/>
@@ -8268,7 +8296,7 @@
       <c r="Q80" s="4"/>
       <c r="R80" s="4"/>
     </row>
-    <row r="81" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A81" s="7"/>
       <c r="B81" s="7"/>
       <c r="C81" s="9"/>
@@ -8288,7 +8316,7 @@
       <c r="Q81" s="4"/>
       <c r="R81" s="4"/>
     </row>
-    <row r="82" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A82" s="7"/>
       <c r="B82" s="7"/>
       <c r="C82" s="9"/>
@@ -8308,7 +8336,7 @@
       <c r="Q82" s="4"/>
       <c r="R82" s="4"/>
     </row>
-    <row r="83" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A83" s="7"/>
       <c r="B83" s="7"/>
       <c r="C83" s="9"/>
@@ -8328,7 +8356,7 @@
       <c r="Q83" s="4"/>
       <c r="R83" s="4"/>
     </row>
-    <row r="84" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A84" s="7"/>
       <c r="B84" s="7"/>
       <c r="C84" s="9"/>
@@ -8348,7 +8376,7 @@
       <c r="Q84" s="4"/>
       <c r="R84" s="4"/>
     </row>
-    <row r="85" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A85" s="7"/>
       <c r="B85" s="7"/>
       <c r="C85" s="9"/>
@@ -8368,7 +8396,7 @@
       <c r="Q85" s="4"/>
       <c r="R85" s="4"/>
     </row>
-    <row r="86" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A86" s="7"/>
       <c r="B86" s="7"/>
       <c r="C86" s="9"/>
@@ -8388,7 +8416,7 @@
       <c r="Q86" s="4"/>
       <c r="R86" s="4"/>
     </row>
-    <row r="87" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A87" s="23"/>
       <c r="B87" s="23"/>
       <c r="C87" s="24"/>
@@ -8408,7 +8436,7 @@
       <c r="Q87" s="4"/>
       <c r="R87" s="4"/>
     </row>
-    <row r="88" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A88" s="14" t="s">
         <v>22</v>
       </c>
@@ -8433,7 +8461,7 @@
       <c r="Q88" s="4"/>
       <c r="R88" s="4"/>
     </row>
-    <row r="89" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A89" s="16"/>
       <c r="B89" s="16"/>
       <c r="C89" s="16"/>
@@ -8453,7 +8481,7 @@
       <c r="Q89" s="4"/>
       <c r="R89" s="4"/>
     </row>
-    <row r="90" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A90" s="27"/>
       <c r="B90" s="27"/>
       <c r="C90" s="27"/>
@@ -8473,7 +8501,7 @@
       <c r="Q90" s="4"/>
       <c r="R90" s="4"/>
     </row>
-    <row r="91" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A91" s="27"/>
       <c r="B91" s="27"/>
       <c r="C91" s="27"/>
@@ -8493,7 +8521,7 @@
       <c r="Q91" s="4"/>
       <c r="R91" s="4"/>
     </row>
-    <row r="92" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A92" s="27"/>
       <c r="B92" s="27"/>
       <c r="C92" s="27"/>
@@ -8513,7 +8541,7 @@
       <c r="Q92" s="4"/>
       <c r="R92" s="4"/>
     </row>
-    <row r="93" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A93" s="27"/>
       <c r="B93" s="27"/>
       <c r="C93" s="27"/>
@@ -8533,7 +8561,7 @@
       <c r="Q93" s="4"/>
       <c r="R93" s="4"/>
     </row>
-    <row r="94" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A94" s="27"/>
       <c r="B94" s="27"/>
       <c r="C94" s="27"/>
@@ -8553,7 +8581,7 @@
       <c r="Q94" s="4"/>
       <c r="R94" s="4"/>
     </row>
-    <row r="95" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A95" s="27"/>
       <c r="B95" s="27"/>
       <c r="C95" s="27"/>
@@ -8573,7 +8601,7 @@
       <c r="Q95" s="4"/>
       <c r="R95" s="4"/>
     </row>
-    <row r="96" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A96" s="27"/>
       <c r="B96" s="27"/>
       <c r="C96" s="27"/>
@@ -8593,7 +8621,7 @@
       <c r="Q96" s="4"/>
       <c r="R96" s="4"/>
     </row>
-    <row r="97" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A97" s="27"/>
       <c r="B97" s="27"/>
       <c r="C97" s="27"/>
@@ -8613,7 +8641,7 @@
       <c r="Q97" s="4"/>
       <c r="R97" s="4"/>
     </row>
-    <row r="98" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A98" s="27"/>
       <c r="B98" s="27"/>
       <c r="C98" s="27"/>
@@ -8633,7 +8661,7 @@
       <c r="Q98" s="4"/>
       <c r="R98" s="4"/>
     </row>
-    <row r="99" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A99" s="27"/>
       <c r="B99" s="27"/>
       <c r="C99" s="27"/>
@@ -8653,7 +8681,7 @@
       <c r="Q99" s="4"/>
       <c r="R99" s="4"/>
     </row>
-    <row r="100" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A100" s="27"/>
       <c r="B100" s="27"/>
       <c r="C100" s="27"/>
@@ -8673,7 +8701,7 @@
       <c r="Q100" s="4"/>
       <c r="R100" s="4"/>
     </row>
-    <row r="101" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A101" s="28"/>
       <c r="B101" s="28"/>
       <c r="C101" s="28"/>
@@ -8711,18 +8739,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F222774-5003-490D-9078-78D1F6F89A4A}">
   <dimension ref="A1:R96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="78.42578125" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="78.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8748,7 +8776,7 @@
       <c r="Q1" s="4"/>
       <c r="R1" s="4"/>
     </row>
-    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -8776,7 +8804,7 @@
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
     </row>
-    <row r="3" spans="1:18" ht="94.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
@@ -8804,7 +8832,7 @@
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
     </row>
-    <row r="4" spans="1:18" ht="54" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
@@ -8832,7 +8860,7 @@
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
     </row>
-    <row r="5" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="66" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
@@ -8860,7 +8888,7 @@
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
     </row>
-    <row r="6" spans="1:18" ht="81" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
         <v>12</v>
       </c>
@@ -8888,7 +8916,7 @@
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
     </row>
-    <row r="7" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="66" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>14</v>
       </c>
@@ -8916,7 +8944,7 @@
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
     </row>
-    <row r="8" spans="1:18" ht="108" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
         <v>16</v>
       </c>
@@ -8944,7 +8972,7 @@
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
     </row>
-    <row r="9" spans="1:18" ht="94.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
         <v>18</v>
       </c>
@@ -8972,7 +9000,7 @@
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
     </row>
-    <row r="10" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" ht="66" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
@@ -9000,7 +9028,7 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
     </row>
-    <row r="11" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>28</v>
       </c>
@@ -9026,7 +9054,7 @@
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
     </row>
-    <row r="12" spans="1:18" ht="94.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A12" s="33" t="s">
         <v>29</v>
       </c>
@@ -9052,7 +9080,7 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
     </row>
-    <row r="13" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="33" t="s">
         <v>32</v>
       </c>
@@ -9078,7 +9106,7 @@
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
     </row>
-    <row r="14" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="14" t="s">
         <v>22</v>
       </c>
@@ -9103,7 +9131,7 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
     </row>
-    <row r="15" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="16"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
@@ -9123,7 +9151,7 @@
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
     </row>
-    <row r="16" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -9147,7 +9175,7 @@
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
     </row>
-    <row r="17" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>2</v>
       </c>
@@ -9173,7 +9201,7 @@
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
     </row>
-    <row r="18" spans="1:18" ht="54" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A18" s="29" t="s">
         <v>36</v>
       </c>
@@ -9201,7 +9229,7 @@
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
     </row>
-    <row r="19" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>40</v>
       </c>
@@ -9229,7 +9257,7 @@
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
     </row>
-    <row r="20" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>54</v>
       </c>
@@ -9257,7 +9285,7 @@
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
     </row>
-    <row r="21" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>56</v>
       </c>
@@ -9285,7 +9313,7 @@
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
     </row>
-    <row r="22" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>58</v>
       </c>
@@ -9313,7 +9341,7 @@
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
     </row>
-    <row r="23" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>54</v>
       </c>
@@ -9341,7 +9369,7 @@
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
     </row>
-    <row r="24" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>60</v>
       </c>
@@ -9369,7 +9397,7 @@
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
     </row>
-    <row r="25" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>86</v>
       </c>
@@ -9397,7 +9425,7 @@
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
     </row>
-    <row r="26" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" ht="66" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>76</v>
       </c>
@@ -9425,7 +9453,7 @@
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
     </row>
-    <row r="27" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>76</v>
       </c>
@@ -9453,7 +9481,7 @@
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
     </row>
-    <row r="28" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>76</v>
       </c>
@@ -9481,7 +9509,7 @@
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
     </row>
-    <row r="29" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>76</v>
       </c>
@@ -9509,7 +9537,7 @@
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
     </row>
-    <row r="30" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>76</v>
       </c>
@@ -9537,7 +9565,7 @@
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
     </row>
-    <row r="31" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="9"/>
@@ -9557,7 +9585,7 @@
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
     </row>
-    <row r="32" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="9"/>
@@ -9577,7 +9605,7 @@
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
     </row>
-    <row r="33" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="9"/>
@@ -9597,7 +9625,7 @@
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
     </row>
-    <row r="34" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="14" t="s">
         <v>22</v>
       </c>
@@ -9622,7 +9650,7 @@
       <c r="Q34" s="4"/>
       <c r="R34" s="4"/>
     </row>
-    <row r="35" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="16"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -9642,7 +9670,7 @@
       <c r="Q35" s="4"/>
       <c r="R35" s="4"/>
     </row>
-    <row r="36" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>0</v>
       </c>
@@ -9666,7 +9694,7 @@
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
     </row>
-    <row r="37" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
         <v>2</v>
       </c>
@@ -9692,7 +9720,7 @@
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
     </row>
-    <row r="38" spans="1:18" ht="54" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
         <v>40</v>
       </c>
@@ -9720,7 +9748,7 @@
       <c r="Q38" s="4"/>
       <c r="R38" s="4"/>
     </row>
-    <row r="39" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="21"/>
@@ -9740,7 +9768,7 @@
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
     </row>
-    <row r="40" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="22"/>
@@ -9760,7 +9788,7 @@
       <c r="Q40" s="4"/>
       <c r="R40" s="4"/>
     </row>
-    <row r="41" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="9"/>
@@ -9780,7 +9808,7 @@
       <c r="Q41" s="4"/>
       <c r="R41" s="4"/>
     </row>
-    <row r="42" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="9"/>
@@ -9800,7 +9828,7 @@
       <c r="Q42" s="4"/>
       <c r="R42" s="4"/>
     </row>
-    <row r="43" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="9"/>
@@ -9820,7 +9848,7 @@
       <c r="Q43" s="4"/>
       <c r="R43" s="4"/>
     </row>
-    <row r="44" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="9"/>
@@ -9840,7 +9868,7 @@
       <c r="Q44" s="4"/>
       <c r="R44" s="4"/>
     </row>
-    <row r="45" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="23"/>
       <c r="B45" s="23"/>
       <c r="C45" s="24"/>
@@ -9860,7 +9888,7 @@
       <c r="Q45" s="4"/>
       <c r="R45" s="4"/>
     </row>
-    <row r="46" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="14" t="s">
         <v>22</v>
       </c>
@@ -9885,7 +9913,7 @@
       <c r="Q46" s="4"/>
       <c r="R46" s="4"/>
     </row>
-    <row r="47" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="16"/>
       <c r="B47" s="16"/>
       <c r="C47" s="16"/>
@@ -9905,7 +9933,7 @@
       <c r="Q47" s="4"/>
       <c r="R47" s="4"/>
     </row>
-    <row r="48" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>0</v>
       </c>
@@ -9929,7 +9957,7 @@
       <c r="Q48" s="4"/>
       <c r="R48" s="4"/>
     </row>
-    <row r="49" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
         <v>2</v>
       </c>
@@ -9955,7 +9983,7 @@
       <c r="Q49" s="4"/>
       <c r="R49" s="4"/>
     </row>
-    <row r="50" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A50" s="19"/>
       <c r="B50" s="19"/>
       <c r="C50" s="20"/>
@@ -9975,7 +10003,7 @@
       <c r="Q50" s="4"/>
       <c r="R50" s="4"/>
     </row>
-    <row r="51" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A51" s="7"/>
       <c r="B51" s="7"/>
       <c r="C51" s="9"/>
@@ -9995,7 +10023,7 @@
       <c r="Q51" s="4"/>
       <c r="R51" s="4"/>
     </row>
-    <row r="52" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A52" s="7"/>
       <c r="B52" s="7"/>
       <c r="C52" s="9"/>
@@ -10015,7 +10043,7 @@
       <c r="Q52" s="4"/>
       <c r="R52" s="4"/>
     </row>
-    <row r="53" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A53" s="7"/>
       <c r="B53" s="7"/>
       <c r="C53" s="9"/>
@@ -10035,7 +10063,7 @@
       <c r="Q53" s="4"/>
       <c r="R53" s="4"/>
     </row>
-    <row r="54" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A54" s="7"/>
       <c r="B54" s="7"/>
       <c r="C54" s="9"/>
@@ -10055,7 +10083,7 @@
       <c r="Q54" s="4"/>
       <c r="R54" s="4"/>
     </row>
-    <row r="55" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A55" s="7"/>
       <c r="B55" s="7"/>
       <c r="C55" s="9"/>
@@ -10075,7 +10103,7 @@
       <c r="Q55" s="4"/>
       <c r="R55" s="4"/>
     </row>
-    <row r="56" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A56" s="25"/>
       <c r="B56" s="25"/>
       <c r="C56" s="26"/>
@@ -10095,7 +10123,7 @@
       <c r="Q56" s="4"/>
       <c r="R56" s="4"/>
     </row>
-    <row r="57" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A57" s="25"/>
       <c r="B57" s="25"/>
       <c r="C57" s="26"/>
@@ -10115,7 +10143,7 @@
       <c r="Q57" s="4"/>
       <c r="R57" s="4"/>
     </row>
-    <row r="58" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A58" s="25"/>
       <c r="B58" s="25"/>
       <c r="C58" s="26"/>
@@ -10135,7 +10163,7 @@
       <c r="Q58" s="4"/>
       <c r="R58" s="4"/>
     </row>
-    <row r="59" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A59" s="25"/>
       <c r="B59" s="25"/>
       <c r="C59" s="26"/>
@@ -10155,7 +10183,7 @@
       <c r="Q59" s="4"/>
       <c r="R59" s="4"/>
     </row>
-    <row r="60" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="23"/>
       <c r="B60" s="23"/>
       <c r="C60" s="24"/>
@@ -10175,7 +10203,7 @@
       <c r="Q60" s="4"/>
       <c r="R60" s="4"/>
     </row>
-    <row r="61" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="14" t="s">
         <v>22</v>
       </c>
@@ -10200,7 +10228,7 @@
       <c r="Q61" s="4"/>
       <c r="R61" s="4"/>
     </row>
-    <row r="62" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="16"/>
       <c r="B62" s="16"/>
       <c r="C62" s="16"/>
@@ -10220,7 +10248,7 @@
       <c r="Q62" s="4"/>
       <c r="R62" s="4"/>
     </row>
-    <row r="63" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>0</v>
       </c>
@@ -10244,7 +10272,7 @@
       <c r="Q63" s="4"/>
       <c r="R63" s="4"/>
     </row>
-    <row r="64" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="5" t="s">
         <v>2</v>
       </c>
@@ -10270,7 +10298,7 @@
       <c r="Q64" s="4"/>
       <c r="R64" s="4"/>
     </row>
-    <row r="65" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A65" s="19"/>
       <c r="B65" s="19"/>
       <c r="C65" s="20"/>
@@ -10290,7 +10318,7 @@
       <c r="Q65" s="4"/>
       <c r="R65" s="4"/>
     </row>
-    <row r="66" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A66" s="7"/>
       <c r="B66" s="7"/>
       <c r="C66" s="9"/>
@@ -10310,7 +10338,7 @@
       <c r="Q66" s="4"/>
       <c r="R66" s="4"/>
     </row>
-    <row r="67" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A67" s="7"/>
       <c r="B67" s="7"/>
       <c r="C67" s="9"/>
@@ -10330,7 +10358,7 @@
       <c r="Q67" s="4"/>
       <c r="R67" s="4"/>
     </row>
-    <row r="68" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A68" s="7"/>
       <c r="B68" s="7"/>
       <c r="C68" s="9"/>
@@ -10350,7 +10378,7 @@
       <c r="Q68" s="4"/>
       <c r="R68" s="4"/>
     </row>
-    <row r="69" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A69" s="7"/>
       <c r="B69" s="7"/>
       <c r="C69" s="9"/>
@@ -10370,7 +10398,7 @@
       <c r="Q69" s="4"/>
       <c r="R69" s="4"/>
     </row>
-    <row r="70" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="23"/>
       <c r="B70" s="23"/>
       <c r="C70" s="24"/>
@@ -10390,7 +10418,7 @@
       <c r="Q70" s="4"/>
       <c r="R70" s="4"/>
     </row>
-    <row r="71" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="14" t="s">
         <v>22</v>
       </c>
@@ -10415,7 +10443,7 @@
       <c r="Q71" s="4"/>
       <c r="R71" s="4"/>
     </row>
-    <row r="72" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="16"/>
       <c r="B72" s="16"/>
       <c r="C72" s="16"/>
@@ -10435,7 +10463,7 @@
       <c r="Q72" s="4"/>
       <c r="R72" s="4"/>
     </row>
-    <row r="73" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>0</v>
       </c>
@@ -10459,7 +10487,7 @@
       <c r="Q73" s="4"/>
       <c r="R73" s="4"/>
     </row>
-    <row r="74" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="5" t="s">
         <v>2</v>
       </c>
@@ -10485,7 +10513,7 @@
       <c r="Q74" s="4"/>
       <c r="R74" s="4"/>
     </row>
-    <row r="75" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A75" s="19"/>
       <c r="B75" s="19"/>
       <c r="C75" s="20"/>
@@ -10505,7 +10533,7 @@
       <c r="Q75" s="4"/>
       <c r="R75" s="4"/>
     </row>
-    <row r="76" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A76" s="7"/>
       <c r="B76" s="7"/>
       <c r="C76" s="9"/>
@@ -10525,7 +10553,7 @@
       <c r="Q76" s="4"/>
       <c r="R76" s="4"/>
     </row>
-    <row r="77" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A77" s="7"/>
       <c r="B77" s="7"/>
       <c r="C77" s="9"/>
@@ -10545,7 +10573,7 @@
       <c r="Q77" s="4"/>
       <c r="R77" s="4"/>
     </row>
-    <row r="78" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A78" s="7"/>
       <c r="B78" s="7"/>
       <c r="C78" s="9"/>
@@ -10565,7 +10593,7 @@
       <c r="Q78" s="4"/>
       <c r="R78" s="4"/>
     </row>
-    <row r="79" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A79" s="7"/>
       <c r="B79" s="7"/>
       <c r="C79" s="9"/>
@@ -10585,7 +10613,7 @@
       <c r="Q79" s="4"/>
       <c r="R79" s="4"/>
     </row>
-    <row r="80" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A80" s="7"/>
       <c r="B80" s="7"/>
       <c r="C80" s="9"/>
@@ -10605,7 +10633,7 @@
       <c r="Q80" s="4"/>
       <c r="R80" s="4"/>
     </row>
-    <row r="81" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A81" s="7"/>
       <c r="B81" s="7"/>
       <c r="C81" s="9"/>
@@ -10625,7 +10653,7 @@
       <c r="Q81" s="4"/>
       <c r="R81" s="4"/>
     </row>
-    <row r="82" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="23"/>
       <c r="B82" s="23"/>
       <c r="C82" s="24"/>
@@ -10645,7 +10673,7 @@
       <c r="Q82" s="4"/>
       <c r="R82" s="4"/>
     </row>
-    <row r="83" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="14" t="s">
         <v>22</v>
       </c>
@@ -10670,7 +10698,7 @@
       <c r="Q83" s="4"/>
       <c r="R83" s="4"/>
     </row>
-    <row r="84" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A84" s="16"/>
       <c r="B84" s="16"/>
       <c r="C84" s="16"/>
@@ -10690,7 +10718,7 @@
       <c r="Q84" s="4"/>
       <c r="R84" s="4"/>
     </row>
-    <row r="85" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A85" s="27"/>
       <c r="B85" s="27"/>
       <c r="C85" s="27"/>
@@ -10710,7 +10738,7 @@
       <c r="Q85" s="4"/>
       <c r="R85" s="4"/>
     </row>
-    <row r="86" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A86" s="27"/>
       <c r="B86" s="27"/>
       <c r="C86" s="27"/>
@@ -10730,7 +10758,7 @@
       <c r="Q86" s="4"/>
       <c r="R86" s="4"/>
     </row>
-    <row r="87" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A87" s="27"/>
       <c r="B87" s="27"/>
       <c r="C87" s="27"/>
@@ -10750,7 +10778,7 @@
       <c r="Q87" s="4"/>
       <c r="R87" s="4"/>
     </row>
-    <row r="88" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A88" s="27"/>
       <c r="B88" s="27"/>
       <c r="C88" s="27"/>
@@ -10770,7 +10798,7 @@
       <c r="Q88" s="4"/>
       <c r="R88" s="4"/>
     </row>
-    <row r="89" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A89" s="27"/>
       <c r="B89" s="27"/>
       <c r="C89" s="27"/>
@@ -10790,7 +10818,7 @@
       <c r="Q89" s="4"/>
       <c r="R89" s="4"/>
     </row>
-    <row r="90" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A90" s="27"/>
       <c r="B90" s="27"/>
       <c r="C90" s="27"/>
@@ -10810,7 +10838,7 @@
       <c r="Q90" s="4"/>
       <c r="R90" s="4"/>
     </row>
-    <row r="91" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A91" s="27"/>
       <c r="B91" s="27"/>
       <c r="C91" s="27"/>
@@ -10830,7 +10858,7 @@
       <c r="Q91" s="4"/>
       <c r="R91" s="4"/>
     </row>
-    <row r="92" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A92" s="27"/>
       <c r="B92" s="27"/>
       <c r="C92" s="27"/>
@@ -10850,7 +10878,7 @@
       <c r="Q92" s="4"/>
       <c r="R92" s="4"/>
     </row>
-    <row r="93" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A93" s="27"/>
       <c r="B93" s="27"/>
       <c r="C93" s="27"/>
@@ -10870,7 +10898,7 @@
       <c r="Q93" s="4"/>
       <c r="R93" s="4"/>
     </row>
-    <row r="94" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A94" s="27"/>
       <c r="B94" s="27"/>
       <c r="C94" s="27"/>
@@ -10890,7 +10918,7 @@
       <c r="Q94" s="4"/>
       <c r="R94" s="4"/>
     </row>
-    <row r="95" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A95" s="27"/>
       <c r="B95" s="27"/>
       <c r="C95" s="27"/>
@@ -10910,7 +10938,7 @@
       <c r="Q95" s="4"/>
       <c r="R95" s="4"/>
     </row>
-    <row r="96" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A96" s="28"/>
       <c r="B96" s="28"/>
       <c r="C96" s="28"/>

--- a/LM_Journal_Travail_V1.0.xlsx
+++ b/LM_Journal_Travail_V1.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\Love-Mirroring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9D705C0-8AC1-4265-9111-0C3EABF23DD6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{135A5364-2EBE-446E-966E-C5F39077F28F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Equipe" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
@@ -45,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="156">
   <si>
     <t>Jalon</t>
   </si>
@@ -528,6 +530,18 @@
   </si>
   <si>
     <t>J'ai intégré l'API du service Spotify afin d'exploiter le résultat dans nos critères de recherches</t>
+  </si>
+  <si>
+    <t>Enregistrer les préférences de recherche</t>
+  </si>
+  <si>
+    <t>L'utilisateur peut enregistrer ses préférences de recherches et si elles sont déjà enregistrées il ne peut pas définir de nouvelle préférence. Il faut que j'ajoute la possibilité de modifier les préférences.</t>
+  </si>
+  <si>
+    <t>Formulaire d'inscription + exploitation du Quizz</t>
+  </si>
+  <si>
+    <t>J'ai insérée les données pour le Quizz et j'ai commencé à traiter les possibilités de réponses pour pouvoir ensuite établir le profil de l'utilisateur. J'ai modifié aussi le formulaire d'inscription en demandant des informations de base sur la corpulence, sexe ou couleur de cheveux</t>
   </si>
 </sst>
 </file>
@@ -1147,16 +1161,16 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="6.109375" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" customWidth="1"/>
-    <col min="4" max="4" width="78.44140625" customWidth="1"/>
-    <col min="5" max="6" width="14.44140625" customWidth="1"/>
+    <col min="2" max="2" width="6.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="78.42578125" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1182,7 +1196,7 @@
       <c r="Q1" s="4"/>
       <c r="R1" s="4"/>
     </row>
-    <row r="2" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -1210,7 +1224,7 @@
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
     </row>
-    <row r="3" spans="1:18" ht="92.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="94.5" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
@@ -1238,7 +1252,7 @@
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
     </row>
-    <row r="4" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="54" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
@@ -1266,7 +1280,7 @@
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
     </row>
-    <row r="5" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="54" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
@@ -1294,7 +1308,7 @@
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
     </row>
-    <row r="6" spans="1:18" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="81" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
         <v>12</v>
       </c>
@@ -1322,7 +1336,7 @@
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
     </row>
-    <row r="7" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="54" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>14</v>
       </c>
@@ -1350,7 +1364,7 @@
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
     </row>
-    <row r="8" spans="1:18" ht="92.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="94.5" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
         <v>16</v>
       </c>
@@ -1378,7 +1392,7 @@
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
     </row>
-    <row r="9" spans="1:18" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" ht="81" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
         <v>18</v>
       </c>
@@ -1406,7 +1420,7 @@
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
     </row>
-    <row r="10" spans="1:18" ht="66" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
@@ -1434,7 +1448,7 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
     </row>
-    <row r="11" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="8"/>
@@ -1454,7 +1468,7 @@
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
     </row>
-    <row r="12" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="14" t="s">
         <v>22</v>
       </c>
@@ -1479,7 +1493,7 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
     </row>
-    <row r="13" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="16"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
@@ -1499,7 +1513,7 @@
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
     </row>
-    <row r="14" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -1523,7 +1537,7 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
     </row>
-    <row r="15" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>2</v>
       </c>
@@ -1549,7 +1563,7 @@
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
     </row>
-    <row r="16" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" ht="27" x14ac:dyDescent="0.3">
       <c r="A16" s="37" t="s">
         <v>95</v>
       </c>
@@ -1577,7 +1591,7 @@
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
     </row>
-    <row r="17" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" ht="27" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>99</v>
       </c>
@@ -1605,7 +1619,7 @@
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
     </row>
-    <row r="18" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="9"/>
@@ -1625,7 +1639,7 @@
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
     </row>
-    <row r="19" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="9"/>
@@ -1645,7 +1659,7 @@
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
     </row>
-    <row r="20" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="9"/>
@@ -4135,18 +4149,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DB7A04D-A66F-4A89-83F1-9B353075A776}">
   <dimension ref="A1:R96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5546875" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="78.44140625" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="78.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4172,7 +4186,7 @@
       <c r="Q1" s="4"/>
       <c r="R1" s="4"/>
     </row>
-    <row r="2" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -4200,7 +4214,7 @@
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
     </row>
-    <row r="3" spans="1:18" ht="92.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="94.5" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
@@ -4228,7 +4242,7 @@
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
     </row>
-    <row r="4" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="54" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
@@ -4256,7 +4270,7 @@
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
     </row>
-    <row r="5" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="54" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
@@ -4284,7 +4298,7 @@
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
     </row>
-    <row r="6" spans="1:18" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="81" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
         <v>12</v>
       </c>
@@ -4312,7 +4326,7 @@
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
     </row>
-    <row r="7" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="54" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>14</v>
       </c>
@@ -4340,7 +4354,7 @@
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
     </row>
-    <row r="8" spans="1:18" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="81" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
         <v>16</v>
       </c>
@@ -4368,7 +4382,7 @@
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
     </row>
-    <row r="9" spans="1:18" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" ht="81" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
         <v>18</v>
       </c>
@@ -4396,7 +4410,7 @@
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
     </row>
-    <row r="10" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
@@ -4424,7 +4438,7 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
     </row>
-    <row r="11" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>34</v>
       </c>
@@ -4452,7 +4466,7 @@
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
     </row>
-    <row r="12" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="14" t="s">
         <v>22</v>
       </c>
@@ -4477,7 +4491,7 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
     </row>
-    <row r="13" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="16"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
@@ -4497,7 +4511,7 @@
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
     </row>
-    <row r="14" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -4521,7 +4535,7 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
     </row>
-    <row r="15" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>2</v>
       </c>
@@ -4547,7 +4561,7 @@
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
     </row>
-    <row r="16" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
         <v>36</v>
       </c>
@@ -4575,7 +4589,7 @@
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
     </row>
-    <row r="17" spans="1:18" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" ht="81" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>38</v>
       </c>
@@ -4603,7 +4617,7 @@
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
     </row>
-    <row r="18" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>42</v>
       </c>
@@ -4631,7 +4645,7 @@
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
     </row>
-    <row r="19" spans="1:18" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" ht="81" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>44</v>
       </c>
@@ -4659,7 +4673,7 @@
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
     </row>
-    <row r="20" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>46</v>
       </c>
@@ -4687,7 +4701,7 @@
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
     </row>
-    <row r="21" spans="1:18" ht="66" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>48</v>
       </c>
@@ -4715,7 +4729,7 @@
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
     </row>
-    <row r="22" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" ht="27" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>50</v>
       </c>
@@ -4743,7 +4757,7 @@
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
     </row>
-    <row r="23" spans="1:18" ht="118.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" ht="121.5" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>73</v>
       </c>
@@ -4771,7 +4785,7 @@
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
     </row>
-    <row r="24" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" ht="54" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>52</v>
       </c>
@@ -4799,7 +4813,7 @@
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
     </row>
-    <row r="25" spans="1:18" ht="66" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>62</v>
       </c>
@@ -4827,7 +4841,7 @@
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
     </row>
-    <row r="26" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" ht="54" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>63</v>
       </c>
@@ -4855,7 +4869,7 @@
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
     </row>
-    <row r="27" spans="1:18" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" ht="81" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>65</v>
       </c>
@@ -4883,7 +4897,7 @@
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
     </row>
-    <row r="28" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>69</v>
       </c>
@@ -4911,7 +4925,7 @@
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
     </row>
-    <row r="29" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>71</v>
       </c>
@@ -4939,7 +4953,7 @@
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
     </row>
-    <row r="30" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>88</v>
       </c>
@@ -4967,7 +4981,7 @@
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
     </row>
-    <row r="31" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" ht="54" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>90</v>
       </c>
@@ -4995,7 +5009,7 @@
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
     </row>
-    <row r="32" spans="1:18" ht="66" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" ht="54" x14ac:dyDescent="0.3">
       <c r="A32" s="38" t="s">
         <v>97</v>
       </c>
@@ -5023,7 +5037,7 @@
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
     </row>
-    <row r="33" spans="1:18" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:18" ht="54.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="38" t="s">
         <v>142</v>
       </c>
@@ -5051,7 +5065,7 @@
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
     </row>
-    <row r="34" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="14" t="s">
         <v>22</v>
       </c>
@@ -5076,7 +5090,7 @@
       <c r="Q34" s="4"/>
       <c r="R34" s="4"/>
     </row>
-    <row r="35" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="16"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -5096,7 +5110,7 @@
       <c r="Q35" s="4"/>
       <c r="R35" s="4"/>
     </row>
-    <row r="36" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>0</v>
       </c>
@@ -5120,7 +5134,7 @@
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
     </row>
-    <row r="37" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
         <v>2</v>
       </c>
@@ -5146,14 +5160,14 @@
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
     </row>
-    <row r="38" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18" ht="54" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
         <v>148</v>
       </c>
       <c r="B38" s="7">
         <v>4</v>
       </c>
-      <c r="C38" s="21">
+      <c r="C38" s="35">
         <v>43934</v>
       </c>
       <c r="D38" s="20" t="s">
@@ -5174,14 +5188,14 @@
       <c r="Q38" s="4"/>
       <c r="R38" s="4"/>
     </row>
-    <row r="39" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" ht="27" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>150</v>
       </c>
       <c r="B39" s="7">
         <v>2</v>
       </c>
-      <c r="C39" s="21">
+      <c r="C39" s="35">
         <v>43935</v>
       </c>
       <c r="D39" s="9" t="s">
@@ -5202,11 +5216,19 @@
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
     </row>
-    <row r="40" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A40" s="7"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="9"/>
+    <row r="40" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A40" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B40" s="7">
+        <v>2</v>
+      </c>
+      <c r="C40" s="35">
+        <v>43942</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>153</v>
+      </c>
       <c r="E40" s="10"/>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
@@ -5222,11 +5244,19 @@
       <c r="Q40" s="4"/>
       <c r="R40" s="4"/>
     </row>
-    <row r="41" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A41" s="7"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
+    <row r="41" spans="1:18" ht="54" x14ac:dyDescent="0.3">
+      <c r="A41" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B41" s="7">
+        <v>3</v>
+      </c>
+      <c r="C41" s="35">
+        <v>43944</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>155</v>
+      </c>
       <c r="E41" s="10"/>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
@@ -5242,7 +5272,7 @@
       <c r="Q41" s="4"/>
       <c r="R41" s="4"/>
     </row>
-    <row r="42" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="9"/>
@@ -5262,7 +5292,7 @@
       <c r="Q42" s="4"/>
       <c r="R42" s="4"/>
     </row>
-    <row r="43" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="9"/>
@@ -5282,7 +5312,7 @@
       <c r="Q43" s="4"/>
       <c r="R43" s="4"/>
     </row>
-    <row r="44" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="9"/>
@@ -5302,7 +5332,7 @@
       <c r="Q44" s="4"/>
       <c r="R44" s="4"/>
     </row>
-    <row r="45" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="23"/>
       <c r="B45" s="23"/>
       <c r="C45" s="24"/>
@@ -5322,13 +5352,13 @@
       <c r="Q45" s="4"/>
       <c r="R45" s="4"/>
     </row>
-    <row r="46" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="14" t="s">
         <v>22</v>
       </c>
       <c r="B46" s="14">
         <f>SUM(B38:B45)</f>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C46" s="15"/>
       <c r="D46" s="15"/>
@@ -5347,7 +5377,7 @@
       <c r="Q46" s="4"/>
       <c r="R46" s="4"/>
     </row>
-    <row r="47" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="16"/>
       <c r="B47" s="16"/>
       <c r="C47" s="16"/>
@@ -5367,7 +5397,7 @@
       <c r="Q47" s="4"/>
       <c r="R47" s="4"/>
     </row>
-    <row r="48" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>0</v>
       </c>
@@ -5391,7 +5421,7 @@
       <c r="Q48" s="4"/>
       <c r="R48" s="4"/>
     </row>
-    <row r="49" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
         <v>2</v>
       </c>
@@ -5417,7 +5447,7 @@
       <c r="Q49" s="4"/>
       <c r="R49" s="4"/>
     </row>
-    <row r="50" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A50" s="19"/>
       <c r="B50" s="19"/>
       <c r="C50" s="20"/>
@@ -5437,7 +5467,7 @@
       <c r="Q50" s="4"/>
       <c r="R50" s="4"/>
     </row>
-    <row r="51" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A51" s="7"/>
       <c r="B51" s="7"/>
       <c r="C51" s="9"/>
@@ -5457,7 +5487,7 @@
       <c r="Q51" s="4"/>
       <c r="R51" s="4"/>
     </row>
-    <row r="52" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A52" s="7"/>
       <c r="B52" s="7"/>
       <c r="C52" s="9"/>
@@ -5477,7 +5507,7 @@
       <c r="Q52" s="4"/>
       <c r="R52" s="4"/>
     </row>
-    <row r="53" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A53" s="7"/>
       <c r="B53" s="7"/>
       <c r="C53" s="9"/>
@@ -5497,7 +5527,7 @@
       <c r="Q53" s="4"/>
       <c r="R53" s="4"/>
     </row>
-    <row r="54" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A54" s="7"/>
       <c r="B54" s="7"/>
       <c r="C54" s="9"/>
@@ -5517,7 +5547,7 @@
       <c r="Q54" s="4"/>
       <c r="R54" s="4"/>
     </row>
-    <row r="55" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A55" s="7"/>
       <c r="B55" s="7"/>
       <c r="C55" s="9"/>
@@ -5537,7 +5567,7 @@
       <c r="Q55" s="4"/>
       <c r="R55" s="4"/>
     </row>
-    <row r="56" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A56" s="25"/>
       <c r="B56" s="25"/>
       <c r="C56" s="26"/>
@@ -5557,7 +5587,7 @@
       <c r="Q56" s="4"/>
       <c r="R56" s="4"/>
     </row>
-    <row r="57" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A57" s="25"/>
       <c r="B57" s="25"/>
       <c r="C57" s="26"/>
@@ -5577,7 +5607,7 @@
       <c r="Q57" s="4"/>
       <c r="R57" s="4"/>
     </row>
-    <row r="58" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A58" s="25"/>
       <c r="B58" s="25"/>
       <c r="C58" s="26"/>
@@ -5597,7 +5627,7 @@
       <c r="Q58" s="4"/>
       <c r="R58" s="4"/>
     </row>
-    <row r="59" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A59" s="25"/>
       <c r="B59" s="25"/>
       <c r="C59" s="26"/>
@@ -5617,7 +5647,7 @@
       <c r="Q59" s="4"/>
       <c r="R59" s="4"/>
     </row>
-    <row r="60" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="23"/>
       <c r="B60" s="23"/>
       <c r="C60" s="24"/>
@@ -5637,7 +5667,7 @@
       <c r="Q60" s="4"/>
       <c r="R60" s="4"/>
     </row>
-    <row r="61" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="14" t="s">
         <v>22</v>
       </c>
@@ -5662,7 +5692,7 @@
       <c r="Q61" s="4"/>
       <c r="R61" s="4"/>
     </row>
-    <row r="62" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="16"/>
       <c r="B62" s="16"/>
       <c r="C62" s="16"/>
@@ -5682,7 +5712,7 @@
       <c r="Q62" s="4"/>
       <c r="R62" s="4"/>
     </row>
-    <row r="63" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>0</v>
       </c>
@@ -5706,7 +5736,7 @@
       <c r="Q63" s="4"/>
       <c r="R63" s="4"/>
     </row>
-    <row r="64" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="5" t="s">
         <v>2</v>
       </c>
@@ -5732,7 +5762,7 @@
       <c r="Q64" s="4"/>
       <c r="R64" s="4"/>
     </row>
-    <row r="65" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A65" s="19"/>
       <c r="B65" s="19"/>
       <c r="C65" s="20"/>
@@ -5752,7 +5782,7 @@
       <c r="Q65" s="4"/>
       <c r="R65" s="4"/>
     </row>
-    <row r="66" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A66" s="7"/>
       <c r="B66" s="7"/>
       <c r="C66" s="9"/>
@@ -5772,7 +5802,7 @@
       <c r="Q66" s="4"/>
       <c r="R66" s="4"/>
     </row>
-    <row r="67" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A67" s="7"/>
       <c r="B67" s="7"/>
       <c r="C67" s="9"/>
@@ -5792,7 +5822,7 @@
       <c r="Q67" s="4"/>
       <c r="R67" s="4"/>
     </row>
-    <row r="68" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A68" s="7"/>
       <c r="B68" s="7"/>
       <c r="C68" s="9"/>
@@ -5812,7 +5842,7 @@
       <c r="Q68" s="4"/>
       <c r="R68" s="4"/>
     </row>
-    <row r="69" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A69" s="7"/>
       <c r="B69" s="7"/>
       <c r="C69" s="9"/>
@@ -5832,7 +5862,7 @@
       <c r="Q69" s="4"/>
       <c r="R69" s="4"/>
     </row>
-    <row r="70" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="23"/>
       <c r="B70" s="23"/>
       <c r="C70" s="24"/>
@@ -5852,7 +5882,7 @@
       <c r="Q70" s="4"/>
       <c r="R70" s="4"/>
     </row>
-    <row r="71" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="14" t="s">
         <v>22</v>
       </c>
@@ -5877,7 +5907,7 @@
       <c r="Q71" s="4"/>
       <c r="R71" s="4"/>
     </row>
-    <row r="72" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="16"/>
       <c r="B72" s="16"/>
       <c r="C72" s="16"/>
@@ -5897,7 +5927,7 @@
       <c r="Q72" s="4"/>
       <c r="R72" s="4"/>
     </row>
-    <row r="73" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>0</v>
       </c>
@@ -5921,7 +5951,7 @@
       <c r="Q73" s="4"/>
       <c r="R73" s="4"/>
     </row>
-    <row r="74" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="5" t="s">
         <v>2</v>
       </c>
@@ -5947,7 +5977,7 @@
       <c r="Q74" s="4"/>
       <c r="R74" s="4"/>
     </row>
-    <row r="75" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A75" s="19"/>
       <c r="B75" s="19"/>
       <c r="C75" s="20"/>
@@ -5967,7 +5997,7 @@
       <c r="Q75" s="4"/>
       <c r="R75" s="4"/>
     </row>
-    <row r="76" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A76" s="7"/>
       <c r="B76" s="7"/>
       <c r="C76" s="9"/>
@@ -5987,7 +6017,7 @@
       <c r="Q76" s="4"/>
       <c r="R76" s="4"/>
     </row>
-    <row r="77" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A77" s="7"/>
       <c r="B77" s="7"/>
       <c r="C77" s="9"/>
@@ -6007,7 +6037,7 @@
       <c r="Q77" s="4"/>
       <c r="R77" s="4"/>
     </row>
-    <row r="78" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A78" s="7"/>
       <c r="B78" s="7"/>
       <c r="C78" s="9"/>
@@ -6027,7 +6057,7 @@
       <c r="Q78" s="4"/>
       <c r="R78" s="4"/>
     </row>
-    <row r="79" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A79" s="7"/>
       <c r="B79" s="7"/>
       <c r="C79" s="9"/>
@@ -6047,7 +6077,7 @@
       <c r="Q79" s="4"/>
       <c r="R79" s="4"/>
     </row>
-    <row r="80" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A80" s="7"/>
       <c r="B80" s="7"/>
       <c r="C80" s="9"/>
@@ -6067,7 +6097,7 @@
       <c r="Q80" s="4"/>
       <c r="R80" s="4"/>
     </row>
-    <row r="81" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A81" s="7"/>
       <c r="B81" s="7"/>
       <c r="C81" s="9"/>
@@ -6087,7 +6117,7 @@
       <c r="Q81" s="4"/>
       <c r="R81" s="4"/>
     </row>
-    <row r="82" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="23"/>
       <c r="B82" s="23"/>
       <c r="C82" s="24"/>
@@ -6107,7 +6137,7 @@
       <c r="Q82" s="4"/>
       <c r="R82" s="4"/>
     </row>
-    <row r="83" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="14" t="s">
         <v>22</v>
       </c>
@@ -6132,7 +6162,7 @@
       <c r="Q83" s="4"/>
       <c r="R83" s="4"/>
     </row>
-    <row r="84" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A84" s="16"/>
       <c r="B84" s="16"/>
       <c r="C84" s="16"/>
@@ -6152,7 +6182,7 @@
       <c r="Q84" s="4"/>
       <c r="R84" s="4"/>
     </row>
-    <row r="85" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A85" s="27"/>
       <c r="B85" s="27"/>
       <c r="C85" s="27"/>
@@ -6172,7 +6202,7 @@
       <c r="Q85" s="4"/>
       <c r="R85" s="4"/>
     </row>
-    <row r="86" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A86" s="27"/>
       <c r="B86" s="27"/>
       <c r="C86" s="27"/>
@@ -6192,7 +6222,7 @@
       <c r="Q86" s="4"/>
       <c r="R86" s="4"/>
     </row>
-    <row r="87" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A87" s="27"/>
       <c r="B87" s="27"/>
       <c r="C87" s="27"/>
@@ -6212,7 +6242,7 @@
       <c r="Q87" s="4"/>
       <c r="R87" s="4"/>
     </row>
-    <row r="88" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A88" s="27"/>
       <c r="B88" s="27"/>
       <c r="C88" s="27"/>
@@ -6232,7 +6262,7 @@
       <c r="Q88" s="4"/>
       <c r="R88" s="4"/>
     </row>
-    <row r="89" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A89" s="27"/>
       <c r="B89" s="27"/>
       <c r="C89" s="27"/>
@@ -6252,7 +6282,7 @@
       <c r="Q89" s="4"/>
       <c r="R89" s="4"/>
     </row>
-    <row r="90" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A90" s="27"/>
       <c r="B90" s="27"/>
       <c r="C90" s="27"/>
@@ -6272,7 +6302,7 @@
       <c r="Q90" s="4"/>
       <c r="R90" s="4"/>
     </row>
-    <row r="91" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A91" s="27"/>
       <c r="B91" s="27"/>
       <c r="C91" s="27"/>
@@ -6292,7 +6322,7 @@
       <c r="Q91" s="4"/>
       <c r="R91" s="4"/>
     </row>
-    <row r="92" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A92" s="27"/>
       <c r="B92" s="27"/>
       <c r="C92" s="27"/>
@@ -6312,7 +6342,7 @@
       <c r="Q92" s="4"/>
       <c r="R92" s="4"/>
     </row>
-    <row r="93" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A93" s="27"/>
       <c r="B93" s="27"/>
       <c r="C93" s="27"/>
@@ -6332,7 +6362,7 @@
       <c r="Q93" s="4"/>
       <c r="R93" s="4"/>
     </row>
-    <row r="94" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A94" s="27"/>
       <c r="B94" s="27"/>
       <c r="C94" s="27"/>
@@ -6352,7 +6382,7 @@
       <c r="Q94" s="4"/>
       <c r="R94" s="4"/>
     </row>
-    <row r="95" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A95" s="27"/>
       <c r="B95" s="27"/>
       <c r="C95" s="27"/>
@@ -6372,7 +6402,7 @@
       <c r="Q95" s="4"/>
       <c r="R95" s="4"/>
     </row>
-    <row r="96" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A96" s="28"/>
       <c r="B96" s="28"/>
       <c r="C96" s="28"/>
@@ -6400,14 +6430,14 @@
       <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="78.44140625" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="78.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6433,7 +6463,7 @@
       <c r="Q1" s="4"/>
       <c r="R1" s="4"/>
     </row>
-    <row r="2" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -6461,7 +6491,7 @@
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
     </row>
-    <row r="3" spans="1:18" ht="92.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="94.5" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
@@ -6489,7 +6519,7 @@
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
     </row>
-    <row r="4" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="54" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
@@ -6517,7 +6547,7 @@
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
     </row>
-    <row r="5" spans="1:18" ht="66" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
@@ -6545,7 +6575,7 @@
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
     </row>
-    <row r="6" spans="1:18" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="81" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
         <v>12</v>
       </c>
@@ -6573,7 +6603,7 @@
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
     </row>
-    <row r="7" spans="1:18" ht="66" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>14</v>
       </c>
@@ -6601,7 +6631,7 @@
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
     </row>
-    <row r="8" spans="1:18" ht="118.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="108" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
         <v>16</v>
       </c>
@@ -6629,7 +6659,7 @@
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
     </row>
-    <row r="9" spans="1:18" ht="105.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" ht="94.5" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
         <v>18</v>
       </c>
@@ -6657,7 +6687,7 @@
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
     </row>
-    <row r="10" spans="1:18" ht="66" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
@@ -6685,7 +6715,7 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
     </row>
-    <row r="11" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>23</v>
       </c>
@@ -6711,7 +6741,7 @@
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
     </row>
-    <row r="12" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>25</v>
       </c>
@@ -6737,7 +6767,7 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
     </row>
-    <row r="13" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" ht="27" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
         <v>22</v>
       </c>
@@ -6762,7 +6792,7 @@
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
     </row>
-    <row r="14" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A14" s="16"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
@@ -6782,7 +6812,7 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
     </row>
-    <row r="15" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" ht="18" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -6832,7 +6862,7 @@
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
     </row>
-    <row r="17" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" ht="27" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
         <v>103</v>
       </c>
@@ -6858,7 +6888,7 @@
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
     </row>
-    <row r="18" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>105</v>
       </c>
@@ -6882,7 +6912,7 @@
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
     </row>
-    <row r="19" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" ht="54" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>106</v>
       </c>
@@ -6908,7 +6938,7 @@
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
     </row>
-    <row r="20" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>108</v>
       </c>
@@ -6934,7 +6964,7 @@
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
     </row>
-    <row r="21" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" ht="54" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>110</v>
       </c>
@@ -6960,7 +6990,7 @@
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
     </row>
-    <row r="22" spans="1:18" ht="66" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>112</v>
       </c>
@@ -6986,7 +7016,7 @@
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
     </row>
-    <row r="23" spans="1:18" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" ht="81" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>114</v>
       </c>
@@ -7012,7 +7042,7 @@
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
     </row>
-    <row r="24" spans="1:18" ht="105.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" ht="108" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>116</v>
       </c>
@@ -7038,7 +7068,7 @@
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
     </row>
-    <row r="25" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" ht="27" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>118</v>
       </c>
@@ -7064,7 +7094,7 @@
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
     </row>
-    <row r="26" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>120</v>
       </c>
@@ -7090,7 +7120,7 @@
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
     </row>
-    <row r="27" spans="1:18" ht="118.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" ht="121.5" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>122</v>
       </c>
@@ -7116,7 +7146,7 @@
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
     </row>
-    <row r="28" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>124</v>
       </c>
@@ -7142,7 +7172,7 @@
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
     </row>
-    <row r="29" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>126</v>
       </c>
@@ -7168,7 +7198,7 @@
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
     </row>
-    <row r="30" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>124</v>
       </c>
@@ -7194,7 +7224,7 @@
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
     </row>
-    <row r="31" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" ht="27" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>129</v>
       </c>
@@ -7220,7 +7250,7 @@
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
     </row>
-    <row r="32" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" ht="27" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>131</v>
       </c>
@@ -7246,7 +7276,7 @@
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
     </row>
-    <row r="33" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>133</v>
       </c>
@@ -7272,7 +7302,7 @@
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
     </row>
-    <row r="34" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" ht="27" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>134</v>
       </c>
@@ -7298,7 +7328,7 @@
       <c r="Q34" s="4"/>
       <c r="R34" s="4"/>
     </row>
-    <row r="35" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>136</v>
       </c>
@@ -7324,7 +7354,7 @@
       <c r="Q35" s="4"/>
       <c r="R35" s="4"/>
     </row>
-    <row r="36" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" ht="27" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>138</v>
       </c>
@@ -7350,7 +7380,7 @@
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
     </row>
-    <row r="37" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" ht="27" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
         <v>140</v>
       </c>
@@ -7376,7 +7406,7 @@
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
     </row>
-    <row r="38" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="9"/>
@@ -7396,7 +7426,7 @@
       <c r="Q38" s="4"/>
       <c r="R38" s="4"/>
     </row>
-    <row r="39" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="14" t="s">
         <v>22</v>
       </c>
@@ -7421,7 +7451,7 @@
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
     </row>
-    <row r="40" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A40" s="16"/>
       <c r="B40" s="16"/>
       <c r="C40" s="16"/>
@@ -7441,7 +7471,7 @@
       <c r="Q40" s="4"/>
       <c r="R40" s="4"/>
     </row>
-    <row r="41" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" ht="18" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>0</v>
       </c>
@@ -7491,7 +7521,7 @@
       <c r="Q42" s="4"/>
       <c r="R42" s="4"/>
     </row>
-    <row r="43" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="21"/>
@@ -7511,7 +7541,7 @@
       <c r="Q43" s="4"/>
       <c r="R43" s="4"/>
     </row>
-    <row r="44" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="21"/>
@@ -7531,7 +7561,7 @@
       <c r="Q44" s="4"/>
       <c r="R44" s="4"/>
     </row>
-    <row r="45" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="22"/>
@@ -7551,7 +7581,7 @@
       <c r="Q45" s="4"/>
       <c r="R45" s="4"/>
     </row>
-    <row r="46" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="9"/>
@@ -7571,7 +7601,7 @@
       <c r="Q46" s="4"/>
       <c r="R46" s="4"/>
     </row>
-    <row r="47" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="9"/>
@@ -7591,7 +7621,7 @@
       <c r="Q47" s="4"/>
       <c r="R47" s="4"/>
     </row>
-    <row r="48" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="9"/>
@@ -7611,7 +7641,7 @@
       <c r="Q48" s="4"/>
       <c r="R48" s="4"/>
     </row>
-    <row r="49" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="9"/>
@@ -7631,7 +7661,7 @@
       <c r="Q49" s="4"/>
       <c r="R49" s="4"/>
     </row>
-    <row r="50" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A50" s="23"/>
       <c r="B50" s="23"/>
       <c r="C50" s="24"/>
@@ -7651,7 +7681,7 @@
       <c r="Q50" s="4"/>
       <c r="R50" s="4"/>
     </row>
-    <row r="51" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:18" ht="27" x14ac:dyDescent="0.3">
       <c r="A51" s="14" t="s">
         <v>22</v>
       </c>
@@ -7676,7 +7706,7 @@
       <c r="Q51" s="4"/>
       <c r="R51" s="4"/>
     </row>
-    <row r="52" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A52" s="16"/>
       <c r="B52" s="16"/>
       <c r="C52" s="16"/>
@@ -7696,7 +7726,7 @@
       <c r="Q52" s="4"/>
       <c r="R52" s="4"/>
     </row>
-    <row r="53" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:18" ht="18" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>0</v>
       </c>
@@ -7746,7 +7776,7 @@
       <c r="Q54" s="4"/>
       <c r="R54" s="4"/>
     </row>
-    <row r="55" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A55" s="19"/>
       <c r="B55" s="19"/>
       <c r="C55" s="20"/>
@@ -7766,7 +7796,7 @@
       <c r="Q55" s="4"/>
       <c r="R55" s="4"/>
     </row>
-    <row r="56" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A56" s="7"/>
       <c r="B56" s="7"/>
       <c r="C56" s="9"/>
@@ -7786,7 +7816,7 @@
       <c r="Q56" s="4"/>
       <c r="R56" s="4"/>
     </row>
-    <row r="57" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="7"/>
       <c r="B57" s="7"/>
       <c r="C57" s="9"/>
@@ -7806,7 +7836,7 @@
       <c r="Q57" s="4"/>
       <c r="R57" s="4"/>
     </row>
-    <row r="58" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="7"/>
       <c r="B58" s="7"/>
       <c r="C58" s="9"/>
@@ -7826,7 +7856,7 @@
       <c r="Q58" s="4"/>
       <c r="R58" s="4"/>
     </row>
-    <row r="59" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="7"/>
       <c r="B59" s="7"/>
       <c r="C59" s="9"/>
@@ -7846,7 +7876,7 @@
       <c r="Q59" s="4"/>
       <c r="R59" s="4"/>
     </row>
-    <row r="60" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="7"/>
       <c r="B60" s="7"/>
       <c r="C60" s="9"/>
@@ -7866,7 +7896,7 @@
       <c r="Q60" s="4"/>
       <c r="R60" s="4"/>
     </row>
-    <row r="61" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="25"/>
       <c r="B61" s="25"/>
       <c r="C61" s="26"/>
@@ -7886,7 +7916,7 @@
       <c r="Q61" s="4"/>
       <c r="R61" s="4"/>
     </row>
-    <row r="62" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="25"/>
       <c r="B62" s="25"/>
       <c r="C62" s="26"/>
@@ -7906,7 +7936,7 @@
       <c r="Q62" s="4"/>
       <c r="R62" s="4"/>
     </row>
-    <row r="63" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="25"/>
       <c r="B63" s="25"/>
       <c r="C63" s="26"/>
@@ -7926,7 +7956,7 @@
       <c r="Q63" s="4"/>
       <c r="R63" s="4"/>
     </row>
-    <row r="64" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="25"/>
       <c r="B64" s="25"/>
       <c r="C64" s="26"/>
@@ -7946,7 +7976,7 @@
       <c r="Q64" s="4"/>
       <c r="R64" s="4"/>
     </row>
-    <row r="65" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="23"/>
       <c r="B65" s="23"/>
       <c r="C65" s="24"/>
@@ -7966,7 +7996,7 @@
       <c r="Q65" s="4"/>
       <c r="R65" s="4"/>
     </row>
-    <row r="66" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="14" t="s">
         <v>22</v>
       </c>
@@ -7991,7 +8021,7 @@
       <c r="Q66" s="4"/>
       <c r="R66" s="4"/>
     </row>
-    <row r="67" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="16"/>
       <c r="B67" s="16"/>
       <c r="C67" s="16"/>
@@ -8011,7 +8041,7 @@
       <c r="Q67" s="4"/>
       <c r="R67" s="4"/>
     </row>
-    <row r="68" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>0</v>
       </c>
@@ -8035,7 +8065,7 @@
       <c r="Q68" s="4"/>
       <c r="R68" s="4"/>
     </row>
-    <row r="69" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="5" t="s">
         <v>2</v>
       </c>
@@ -8061,7 +8091,7 @@
       <c r="Q69" s="4"/>
       <c r="R69" s="4"/>
     </row>
-    <row r="70" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="19"/>
       <c r="B70" s="19"/>
       <c r="C70" s="20"/>
@@ -8081,7 +8111,7 @@
       <c r="Q70" s="4"/>
       <c r="R70" s="4"/>
     </row>
-    <row r="71" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="7"/>
       <c r="B71" s="7"/>
       <c r="C71" s="9"/>
@@ -8101,7 +8131,7 @@
       <c r="Q71" s="4"/>
       <c r="R71" s="4"/>
     </row>
-    <row r="72" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A72" s="7"/>
       <c r="B72" s="7"/>
       <c r="C72" s="9"/>
@@ -8121,7 +8151,7 @@
       <c r="Q72" s="4"/>
       <c r="R72" s="4"/>
     </row>
-    <row r="73" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A73" s="7"/>
       <c r="B73" s="7"/>
       <c r="C73" s="9"/>
@@ -8141,7 +8171,7 @@
       <c r="Q73" s="4"/>
       <c r="R73" s="4"/>
     </row>
-    <row r="74" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A74" s="7"/>
       <c r="B74" s="7"/>
       <c r="C74" s="9"/>
@@ -8161,7 +8191,7 @@
       <c r="Q74" s="4"/>
       <c r="R74" s="4"/>
     </row>
-    <row r="75" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A75" s="23"/>
       <c r="B75" s="23"/>
       <c r="C75" s="24"/>
@@ -8181,7 +8211,7 @@
       <c r="Q75" s="4"/>
       <c r="R75" s="4"/>
     </row>
-    <row r="76" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:18" ht="27" x14ac:dyDescent="0.3">
       <c r="A76" s="14" t="s">
         <v>22</v>
       </c>
@@ -8206,7 +8236,7 @@
       <c r="Q76" s="4"/>
       <c r="R76" s="4"/>
     </row>
-    <row r="77" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A77" s="16"/>
       <c r="B77" s="16"/>
       <c r="C77" s="16"/>
@@ -8226,7 +8256,7 @@
       <c r="Q77" s="4"/>
       <c r="R77" s="4"/>
     </row>
-    <row r="78" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:18" ht="18" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>0</v>
       </c>
@@ -8276,7 +8306,7 @@
       <c r="Q79" s="4"/>
       <c r="R79" s="4"/>
     </row>
-    <row r="80" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A80" s="19"/>
       <c r="B80" s="19"/>
       <c r="C80" s="20"/>
@@ -8296,7 +8326,7 @@
       <c r="Q80" s="4"/>
       <c r="R80" s="4"/>
     </row>
-    <row r="81" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A81" s="7"/>
       <c r="B81" s="7"/>
       <c r="C81" s="9"/>
@@ -8316,7 +8346,7 @@
       <c r="Q81" s="4"/>
       <c r="R81" s="4"/>
     </row>
-    <row r="82" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A82" s="7"/>
       <c r="B82" s="7"/>
       <c r="C82" s="9"/>
@@ -8336,7 +8366,7 @@
       <c r="Q82" s="4"/>
       <c r="R82" s="4"/>
     </row>
-    <row r="83" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A83" s="7"/>
       <c r="B83" s="7"/>
       <c r="C83" s="9"/>
@@ -8356,7 +8386,7 @@
       <c r="Q83" s="4"/>
       <c r="R83" s="4"/>
     </row>
-    <row r="84" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A84" s="7"/>
       <c r="B84" s="7"/>
       <c r="C84" s="9"/>
@@ -8376,7 +8406,7 @@
       <c r="Q84" s="4"/>
       <c r="R84" s="4"/>
     </row>
-    <row r="85" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A85" s="7"/>
       <c r="B85" s="7"/>
       <c r="C85" s="9"/>
@@ -8396,7 +8426,7 @@
       <c r="Q85" s="4"/>
       <c r="R85" s="4"/>
     </row>
-    <row r="86" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A86" s="7"/>
       <c r="B86" s="7"/>
       <c r="C86" s="9"/>
@@ -8416,7 +8446,7 @@
       <c r="Q86" s="4"/>
       <c r="R86" s="4"/>
     </row>
-    <row r="87" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A87" s="23"/>
       <c r="B87" s="23"/>
       <c r="C87" s="24"/>
@@ -8436,7 +8466,7 @@
       <c r="Q87" s="4"/>
       <c r="R87" s="4"/>
     </row>
-    <row r="88" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:18" ht="27" x14ac:dyDescent="0.3">
       <c r="A88" s="14" t="s">
         <v>22</v>
       </c>
@@ -8461,7 +8491,7 @@
       <c r="Q88" s="4"/>
       <c r="R88" s="4"/>
     </row>
-    <row r="89" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A89" s="16"/>
       <c r="B89" s="16"/>
       <c r="C89" s="16"/>
@@ -8481,7 +8511,7 @@
       <c r="Q89" s="4"/>
       <c r="R89" s="4"/>
     </row>
-    <row r="90" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A90" s="27"/>
       <c r="B90" s="27"/>
       <c r="C90" s="27"/>
@@ -8501,7 +8531,7 @@
       <c r="Q90" s="4"/>
       <c r="R90" s="4"/>
     </row>
-    <row r="91" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A91" s="27"/>
       <c r="B91" s="27"/>
       <c r="C91" s="27"/>
@@ -8521,7 +8551,7 @@
       <c r="Q91" s="4"/>
       <c r="R91" s="4"/>
     </row>
-    <row r="92" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A92" s="27"/>
       <c r="B92" s="27"/>
       <c r="C92" s="27"/>
@@ -8541,7 +8571,7 @@
       <c r="Q92" s="4"/>
       <c r="R92" s="4"/>
     </row>
-    <row r="93" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A93" s="27"/>
       <c r="B93" s="27"/>
       <c r="C93" s="27"/>
@@ -8561,7 +8591,7 @@
       <c r="Q93" s="4"/>
       <c r="R93" s="4"/>
     </row>
-    <row r="94" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A94" s="27"/>
       <c r="B94" s="27"/>
       <c r="C94" s="27"/>
@@ -8581,7 +8611,7 @@
       <c r="Q94" s="4"/>
       <c r="R94" s="4"/>
     </row>
-    <row r="95" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A95" s="27"/>
       <c r="B95" s="27"/>
       <c r="C95" s="27"/>
@@ -8601,7 +8631,7 @@
       <c r="Q95" s="4"/>
       <c r="R95" s="4"/>
     </row>
-    <row r="96" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A96" s="27"/>
       <c r="B96" s="27"/>
       <c r="C96" s="27"/>
@@ -8621,7 +8651,7 @@
       <c r="Q96" s="4"/>
       <c r="R96" s="4"/>
     </row>
-    <row r="97" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A97" s="27"/>
       <c r="B97" s="27"/>
       <c r="C97" s="27"/>
@@ -8641,7 +8671,7 @@
       <c r="Q97" s="4"/>
       <c r="R97" s="4"/>
     </row>
-    <row r="98" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A98" s="27"/>
       <c r="B98" s="27"/>
       <c r="C98" s="27"/>
@@ -8661,7 +8691,7 @@
       <c r="Q98" s="4"/>
       <c r="R98" s="4"/>
     </row>
-    <row r="99" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A99" s="27"/>
       <c r="B99" s="27"/>
       <c r="C99" s="27"/>
@@ -8681,7 +8711,7 @@
       <c r="Q99" s="4"/>
       <c r="R99" s="4"/>
     </row>
-    <row r="100" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A100" s="27"/>
       <c r="B100" s="27"/>
       <c r="C100" s="27"/>
@@ -8701,7 +8731,7 @@
       <c r="Q100" s="4"/>
       <c r="R100" s="4"/>
     </row>
-    <row r="101" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A101" s="28"/>
       <c r="B101" s="28"/>
       <c r="C101" s="28"/>
@@ -8743,14 +8773,14 @@
       <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="78.44140625" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="78.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8776,7 +8806,7 @@
       <c r="Q1" s="4"/>
       <c r="R1" s="4"/>
     </row>
-    <row r="2" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -8804,7 +8834,7 @@
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
     </row>
-    <row r="3" spans="1:18" ht="92.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="94.5" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
@@ -8832,7 +8862,7 @@
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
     </row>
-    <row r="4" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="54" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
@@ -8860,7 +8890,7 @@
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
     </row>
-    <row r="5" spans="1:18" ht="66" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
@@ -8888,7 +8918,7 @@
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
     </row>
-    <row r="6" spans="1:18" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="81" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
         <v>12</v>
       </c>
@@ -8916,7 +8946,7 @@
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
     </row>
-    <row r="7" spans="1:18" ht="66" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>14</v>
       </c>
@@ -8944,7 +8974,7 @@
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
     </row>
-    <row r="8" spans="1:18" ht="118.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="108" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
         <v>16</v>
       </c>
@@ -8972,7 +9002,7 @@
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
     </row>
-    <row r="9" spans="1:18" ht="105.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" ht="94.5" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
         <v>18</v>
       </c>
@@ -9000,7 +9030,7 @@
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
     </row>
-    <row r="10" spans="1:18" ht="66" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
@@ -9028,7 +9058,7 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
     </row>
-    <row r="11" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" ht="27" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>28</v>
       </c>
@@ -9054,7 +9084,7 @@
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
     </row>
-    <row r="12" spans="1:18" ht="92.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" ht="94.5" x14ac:dyDescent="0.3">
       <c r="A12" s="33" t="s">
         <v>29</v>
       </c>
@@ -9080,7 +9110,7 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
     </row>
-    <row r="13" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="33" t="s">
         <v>32</v>
       </c>
@@ -9106,7 +9136,7 @@
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
     </row>
-    <row r="14" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="14" t="s">
         <v>22</v>
       </c>
@@ -9131,7 +9161,7 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
     </row>
-    <row r="15" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="16"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
@@ -9151,7 +9181,7 @@
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
     </row>
-    <row r="16" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -9175,7 +9205,7 @@
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
     </row>
-    <row r="17" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>2</v>
       </c>
@@ -9201,7 +9231,7 @@
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
     </row>
-    <row r="18" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" ht="54" x14ac:dyDescent="0.3">
       <c r="A18" s="29" t="s">
         <v>36</v>
       </c>
@@ -9229,7 +9259,7 @@
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
     </row>
-    <row r="19" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" ht="27" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>40</v>
       </c>
@@ -9257,7 +9287,7 @@
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
     </row>
-    <row r="20" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>54</v>
       </c>
@@ -9285,7 +9315,7 @@
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
     </row>
-    <row r="21" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" ht="27" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>56</v>
       </c>
@@ -9313,7 +9343,7 @@
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
     </row>
-    <row r="22" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" ht="27" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>58</v>
       </c>
@@ -9341,7 +9371,7 @@
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
     </row>
-    <row r="23" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>54</v>
       </c>
@@ -9369,7 +9399,7 @@
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
     </row>
-    <row r="24" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" ht="27" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>60</v>
       </c>
@@ -9397,7 +9427,7 @@
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
     </row>
-    <row r="25" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>86</v>
       </c>
@@ -9425,7 +9455,7 @@
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
     </row>
-    <row r="26" spans="1:18" ht="66" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>76</v>
       </c>
@@ -9453,7 +9483,7 @@
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
     </row>
-    <row r="27" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" ht="27" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>76</v>
       </c>
@@ -9481,7 +9511,7 @@
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
     </row>
-    <row r="28" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>76</v>
       </c>
@@ -9509,7 +9539,7 @@
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
     </row>
-    <row r="29" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" ht="27" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>76</v>
       </c>
@@ -9537,7 +9567,7 @@
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
     </row>
-    <row r="30" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" ht="27" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>76</v>
       </c>
@@ -9565,7 +9595,7 @@
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
     </row>
-    <row r="31" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="9"/>
@@ -9585,7 +9615,7 @@
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
     </row>
-    <row r="32" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="9"/>
@@ -9605,7 +9635,7 @@
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
     </row>
-    <row r="33" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="9"/>
@@ -9625,7 +9655,7 @@
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
     </row>
-    <row r="34" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="14" t="s">
         <v>22</v>
       </c>
@@ -9650,7 +9680,7 @@
       <c r="Q34" s="4"/>
       <c r="R34" s="4"/>
     </row>
-    <row r="35" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="16"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -9670,7 +9700,7 @@
       <c r="Q35" s="4"/>
       <c r="R35" s="4"/>
     </row>
-    <row r="36" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>0</v>
       </c>
@@ -9694,7 +9724,7 @@
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
     </row>
-    <row r="37" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
         <v>2</v>
       </c>
@@ -9720,7 +9750,7 @@
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
     </row>
-    <row r="38" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18" ht="54" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
         <v>40</v>
       </c>
@@ -9748,7 +9778,7 @@
       <c r="Q38" s="4"/>
       <c r="R38" s="4"/>
     </row>
-    <row r="39" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="21"/>
@@ -9768,7 +9798,7 @@
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
     </row>
-    <row r="40" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="22"/>
@@ -9788,7 +9818,7 @@
       <c r="Q40" s="4"/>
       <c r="R40" s="4"/>
     </row>
-    <row r="41" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="9"/>
@@ -9808,7 +9838,7 @@
       <c r="Q41" s="4"/>
       <c r="R41" s="4"/>
     </row>
-    <row r="42" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="9"/>
@@ -9828,7 +9858,7 @@
       <c r="Q42" s="4"/>
       <c r="R42" s="4"/>
     </row>
-    <row r="43" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="9"/>
@@ -9848,7 +9878,7 @@
       <c r="Q43" s="4"/>
       <c r="R43" s="4"/>
     </row>
-    <row r="44" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="9"/>
@@ -9868,7 +9898,7 @@
       <c r="Q44" s="4"/>
       <c r="R44" s="4"/>
     </row>
-    <row r="45" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="23"/>
       <c r="B45" s="23"/>
       <c r="C45" s="24"/>
@@ -9888,7 +9918,7 @@
       <c r="Q45" s="4"/>
       <c r="R45" s="4"/>
     </row>
-    <row r="46" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="14" t="s">
         <v>22</v>
       </c>
@@ -9913,7 +9943,7 @@
       <c r="Q46" s="4"/>
       <c r="R46" s="4"/>
     </row>
-    <row r="47" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="16"/>
       <c r="B47" s="16"/>
       <c r="C47" s="16"/>
@@ -9933,7 +9963,7 @@
       <c r="Q47" s="4"/>
       <c r="R47" s="4"/>
     </row>
-    <row r="48" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>0</v>
       </c>
@@ -9957,7 +9987,7 @@
       <c r="Q48" s="4"/>
       <c r="R48" s="4"/>
     </row>
-    <row r="49" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
         <v>2</v>
       </c>
@@ -9983,7 +10013,7 @@
       <c r="Q49" s="4"/>
       <c r="R49" s="4"/>
     </row>
-    <row r="50" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A50" s="19"/>
       <c r="B50" s="19"/>
       <c r="C50" s="20"/>
@@ -10003,7 +10033,7 @@
       <c r="Q50" s="4"/>
       <c r="R50" s="4"/>
     </row>
-    <row r="51" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A51" s="7"/>
       <c r="B51" s="7"/>
       <c r="C51" s="9"/>
@@ -10023,7 +10053,7 @@
       <c r="Q51" s="4"/>
       <c r="R51" s="4"/>
     </row>
-    <row r="52" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A52" s="7"/>
       <c r="B52" s="7"/>
       <c r="C52" s="9"/>
@@ -10043,7 +10073,7 @@
       <c r="Q52" s="4"/>
       <c r="R52" s="4"/>
     </row>
-    <row r="53" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A53" s="7"/>
       <c r="B53" s="7"/>
       <c r="C53" s="9"/>
@@ -10063,7 +10093,7 @@
       <c r="Q53" s="4"/>
       <c r="R53" s="4"/>
     </row>
-    <row r="54" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A54" s="7"/>
       <c r="B54" s="7"/>
       <c r="C54" s="9"/>
@@ -10083,7 +10113,7 @@
       <c r="Q54" s="4"/>
       <c r="R54" s="4"/>
     </row>
-    <row r="55" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A55" s="7"/>
       <c r="B55" s="7"/>
       <c r="C55" s="9"/>
@@ -10103,7 +10133,7 @@
       <c r="Q55" s="4"/>
       <c r="R55" s="4"/>
     </row>
-    <row r="56" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A56" s="25"/>
       <c r="B56" s="25"/>
       <c r="C56" s="26"/>
@@ -10123,7 +10153,7 @@
       <c r="Q56" s="4"/>
       <c r="R56" s="4"/>
     </row>
-    <row r="57" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A57" s="25"/>
       <c r="B57" s="25"/>
       <c r="C57" s="26"/>
@@ -10143,7 +10173,7 @@
       <c r="Q57" s="4"/>
       <c r="R57" s="4"/>
     </row>
-    <row r="58" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A58" s="25"/>
       <c r="B58" s="25"/>
       <c r="C58" s="26"/>
@@ -10163,7 +10193,7 @@
       <c r="Q58" s="4"/>
       <c r="R58" s="4"/>
     </row>
-    <row r="59" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A59" s="25"/>
       <c r="B59" s="25"/>
       <c r="C59" s="26"/>
@@ -10183,7 +10213,7 @@
       <c r="Q59" s="4"/>
       <c r="R59" s="4"/>
     </row>
-    <row r="60" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="23"/>
       <c r="B60" s="23"/>
       <c r="C60" s="24"/>
@@ -10203,7 +10233,7 @@
       <c r="Q60" s="4"/>
       <c r="R60" s="4"/>
     </row>
-    <row r="61" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="14" t="s">
         <v>22</v>
       </c>
@@ -10228,7 +10258,7 @@
       <c r="Q61" s="4"/>
       <c r="R61" s="4"/>
     </row>
-    <row r="62" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="16"/>
       <c r="B62" s="16"/>
       <c r="C62" s="16"/>
@@ -10248,7 +10278,7 @@
       <c r="Q62" s="4"/>
       <c r="R62" s="4"/>
     </row>
-    <row r="63" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>0</v>
       </c>
@@ -10272,7 +10302,7 @@
       <c r="Q63" s="4"/>
       <c r="R63" s="4"/>
     </row>
-    <row r="64" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="5" t="s">
         <v>2</v>
       </c>
@@ -10298,7 +10328,7 @@
       <c r="Q64" s="4"/>
       <c r="R64" s="4"/>
     </row>
-    <row r="65" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A65" s="19"/>
       <c r="B65" s="19"/>
       <c r="C65" s="20"/>
@@ -10318,7 +10348,7 @@
       <c r="Q65" s="4"/>
       <c r="R65" s="4"/>
     </row>
-    <row r="66" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A66" s="7"/>
       <c r="B66" s="7"/>
       <c r="C66" s="9"/>
@@ -10338,7 +10368,7 @@
       <c r="Q66" s="4"/>
       <c r="R66" s="4"/>
     </row>
-    <row r="67" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A67" s="7"/>
       <c r="B67" s="7"/>
       <c r="C67" s="9"/>
@@ -10358,7 +10388,7 @@
       <c r="Q67" s="4"/>
       <c r="R67" s="4"/>
     </row>
-    <row r="68" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A68" s="7"/>
       <c r="B68" s="7"/>
       <c r="C68" s="9"/>
@@ -10378,7 +10408,7 @@
       <c r="Q68" s="4"/>
       <c r="R68" s="4"/>
     </row>
-    <row r="69" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A69" s="7"/>
       <c r="B69" s="7"/>
       <c r="C69" s="9"/>
@@ -10398,7 +10428,7 @@
       <c r="Q69" s="4"/>
       <c r="R69" s="4"/>
     </row>
-    <row r="70" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="23"/>
       <c r="B70" s="23"/>
       <c r="C70" s="24"/>
@@ -10418,7 +10448,7 @@
       <c r="Q70" s="4"/>
       <c r="R70" s="4"/>
     </row>
-    <row r="71" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="14" t="s">
         <v>22</v>
       </c>
@@ -10443,7 +10473,7 @@
       <c r="Q71" s="4"/>
       <c r="R71" s="4"/>
     </row>
-    <row r="72" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="16"/>
       <c r="B72" s="16"/>
       <c r="C72" s="16"/>
@@ -10463,7 +10493,7 @@
       <c r="Q72" s="4"/>
       <c r="R72" s="4"/>
     </row>
-    <row r="73" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>0</v>
       </c>
@@ -10487,7 +10517,7 @@
       <c r="Q73" s="4"/>
       <c r="R73" s="4"/>
     </row>
-    <row r="74" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="5" t="s">
         <v>2</v>
       </c>
@@ -10513,7 +10543,7 @@
       <c r="Q74" s="4"/>
       <c r="R74" s="4"/>
     </row>
-    <row r="75" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A75" s="19"/>
       <c r="B75" s="19"/>
       <c r="C75" s="20"/>
@@ -10533,7 +10563,7 @@
       <c r="Q75" s="4"/>
       <c r="R75" s="4"/>
     </row>
-    <row r="76" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A76" s="7"/>
       <c r="B76" s="7"/>
       <c r="C76" s="9"/>
@@ -10553,7 +10583,7 @@
       <c r="Q76" s="4"/>
       <c r="R76" s="4"/>
     </row>
-    <row r="77" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A77" s="7"/>
       <c r="B77" s="7"/>
       <c r="C77" s="9"/>
@@ -10573,7 +10603,7 @@
       <c r="Q77" s="4"/>
       <c r="R77" s="4"/>
     </row>
-    <row r="78" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A78" s="7"/>
       <c r="B78" s="7"/>
       <c r="C78" s="9"/>
@@ -10593,7 +10623,7 @@
       <c r="Q78" s="4"/>
       <c r="R78" s="4"/>
     </row>
-    <row r="79" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A79" s="7"/>
       <c r="B79" s="7"/>
       <c r="C79" s="9"/>
@@ -10613,7 +10643,7 @@
       <c r="Q79" s="4"/>
       <c r="R79" s="4"/>
     </row>
-    <row r="80" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A80" s="7"/>
       <c r="B80" s="7"/>
       <c r="C80" s="9"/>
@@ -10633,7 +10663,7 @@
       <c r="Q80" s="4"/>
       <c r="R80" s="4"/>
     </row>
-    <row r="81" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A81" s="7"/>
       <c r="B81" s="7"/>
       <c r="C81" s="9"/>
@@ -10653,7 +10683,7 @@
       <c r="Q81" s="4"/>
       <c r="R81" s="4"/>
     </row>
-    <row r="82" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="23"/>
       <c r="B82" s="23"/>
       <c r="C82" s="24"/>
@@ -10673,7 +10703,7 @@
       <c r="Q82" s="4"/>
       <c r="R82" s="4"/>
     </row>
-    <row r="83" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="14" t="s">
         <v>22</v>
       </c>
@@ -10698,7 +10728,7 @@
       <c r="Q83" s="4"/>
       <c r="R83" s="4"/>
     </row>
-    <row r="84" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A84" s="16"/>
       <c r="B84" s="16"/>
       <c r="C84" s="16"/>
@@ -10718,7 +10748,7 @@
       <c r="Q84" s="4"/>
       <c r="R84" s="4"/>
     </row>
-    <row r="85" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A85" s="27"/>
       <c r="B85" s="27"/>
       <c r="C85" s="27"/>
@@ -10738,7 +10768,7 @@
       <c r="Q85" s="4"/>
       <c r="R85" s="4"/>
     </row>
-    <row r="86" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A86" s="27"/>
       <c r="B86" s="27"/>
       <c r="C86" s="27"/>
@@ -10758,7 +10788,7 @@
       <c r="Q86" s="4"/>
       <c r="R86" s="4"/>
     </row>
-    <row r="87" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A87" s="27"/>
       <c r="B87" s="27"/>
       <c r="C87" s="27"/>
@@ -10778,7 +10808,7 @@
       <c r="Q87" s="4"/>
       <c r="R87" s="4"/>
     </row>
-    <row r="88" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A88" s="27"/>
       <c r="B88" s="27"/>
       <c r="C88" s="27"/>
@@ -10798,7 +10828,7 @@
       <c r="Q88" s="4"/>
       <c r="R88" s="4"/>
     </row>
-    <row r="89" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A89" s="27"/>
       <c r="B89" s="27"/>
       <c r="C89" s="27"/>
@@ -10818,7 +10848,7 @@
       <c r="Q89" s="4"/>
       <c r="R89" s="4"/>
     </row>
-    <row r="90" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A90" s="27"/>
       <c r="B90" s="27"/>
       <c r="C90" s="27"/>
@@ -10838,7 +10868,7 @@
       <c r="Q90" s="4"/>
       <c r="R90" s="4"/>
     </row>
-    <row r="91" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A91" s="27"/>
       <c r="B91" s="27"/>
       <c r="C91" s="27"/>
@@ -10858,7 +10888,7 @@
       <c r="Q91" s="4"/>
       <c r="R91" s="4"/>
     </row>
-    <row r="92" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A92" s="27"/>
       <c r="B92" s="27"/>
       <c r="C92" s="27"/>
@@ -10878,7 +10908,7 @@
       <c r="Q92" s="4"/>
       <c r="R92" s="4"/>
     </row>
-    <row r="93" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A93" s="27"/>
       <c r="B93" s="27"/>
       <c r="C93" s="27"/>
@@ -10898,7 +10928,7 @@
       <c r="Q93" s="4"/>
       <c r="R93" s="4"/>
     </row>
-    <row r="94" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A94" s="27"/>
       <c r="B94" s="27"/>
       <c r="C94" s="27"/>
@@ -10918,7 +10948,7 @@
       <c r="Q94" s="4"/>
       <c r="R94" s="4"/>
     </row>
-    <row r="95" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A95" s="27"/>
       <c r="B95" s="27"/>
       <c r="C95" s="27"/>
@@ -10938,7 +10968,7 @@
       <c r="Q95" s="4"/>
       <c r="R95" s="4"/>
     </row>
-    <row r="96" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A96" s="28"/>
       <c r="B96" s="28"/>
       <c r="C96" s="28"/>

--- a/LM_Journal_Travail_V1.0.xlsx
+++ b/LM_Journal_Travail_V1.0.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\Love-Mirroring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{135A5364-2EBE-446E-966E-C5F39077F28F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52476003-7768-467C-B038-D8B9C03D96A7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,9 +34,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
@@ -47,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="158">
   <si>
     <t>Jalon</t>
   </si>
@@ -542,6 +540,12 @@
   </si>
   <si>
     <t>J'ai insérée les données pour le Quizz et j'ai commencé à traiter les possibilités de réponses pour pouvoir ensuite établir le profil de l'utilisateur. J'ai modifié aussi le formulaire d'inscription en demandant des informations de base sur la corpulence, sexe ou couleur de cheveux</t>
+  </si>
+  <si>
+    <t>Modifier les préférences</t>
+  </si>
+  <si>
+    <t>J'ai ajouté la possibilité de modifier les préférences de l'utilisateur. Il peut maintenant éditer ce qu'il cherche à faire comme rencontre.</t>
   </si>
 </sst>
 </file>
@@ -4150,7 +4154,7 @@
   <dimension ref="A1:R96"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -5272,11 +5276,19 @@
       <c r="Q41" s="4"/>
       <c r="R41" s="4"/>
     </row>
-    <row r="42" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A42" s="7"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
+    <row r="42" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+      <c r="A42" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="B42" s="7">
+        <v>2</v>
+      </c>
+      <c r="C42" s="35">
+        <v>43946</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>157</v>
+      </c>
       <c r="E42" s="10"/>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
@@ -5358,7 +5370,7 @@
       </c>
       <c r="B46" s="14">
         <f>SUM(B38:B45)</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C46" s="15"/>
       <c r="D46" s="15"/>

--- a/LM_Journal_Travail_V1.0.xlsx
+++ b/LM_Journal_Travail_V1.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\Love-Mirroring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52476003-7768-467C-B038-D8B9C03D96A7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED58FD9F-37FC-4F2B-A279-4E39C5A43D9A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Equipe" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="160">
   <si>
     <t>Jalon</t>
   </si>
@@ -546,6 +546,12 @@
   </si>
   <si>
     <t>J'ai ajouté la possibilité de modifier les préférences de l'utilisateur. Il peut maintenant éditer ce qu'il cherche à faire comme rencontre.</t>
+  </si>
+  <si>
+    <t>Exploitation du Quizz</t>
+  </si>
+  <si>
+    <t>J'ai pu exploiter les réponses du Quiz pour attribuer le bon profil à mon utilisateur.</t>
   </si>
 </sst>
 </file>
@@ -4154,7 +4160,7 @@
   <dimension ref="A1:R96"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -5304,11 +5310,19 @@
       <c r="Q42" s="4"/>
       <c r="R42" s="4"/>
     </row>
-    <row r="43" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A43" s="7"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
+    <row r="43" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+      <c r="A43" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="B43" s="7">
+        <v>4</v>
+      </c>
+      <c r="C43" s="35">
+        <v>43948</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>159</v>
+      </c>
       <c r="E43" s="10"/>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
@@ -5370,7 +5384,7 @@
       </c>
       <c r="B46" s="14">
         <f>SUM(B38:B45)</f>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C46" s="15"/>
       <c r="D46" s="15"/>

--- a/LM_Journal_Travail_V1.0.xlsx
+++ b/LM_Journal_Travail_V1.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\Love-Mirroring\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programmes\VS2019\Projets\Projet Gerber\Love-Mirroring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED58FD9F-37FC-4F2B-A279-4E39C5A43D9A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8745C2FD-29F4-4F9D-B149-18C8E95015BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4500" yWindow="2115" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Equipe" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <definedName name="NBLecons">#REF!</definedName>
     <definedName name="TachesPlanifiees">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="163">
   <si>
     <t>Jalon</t>
   </si>
@@ -552,6 +552,16 @@
   </si>
   <si>
     <t>J'ai pu exploiter les réponses du Quiz pour attribuer le bon profil à mon utilisateur.</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>27.04.2020</t>
+  </si>
+  <si>
+    <t>Création contrôlleur côté  API
+Créaction MVC côté AppWeb</t>
   </si>
 </sst>
 </file>
@@ -4159,7 +4169,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DB7A04D-A66F-4A89-83F1-9B353075A776}">
   <dimension ref="A1:R96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
@@ -8795,8 +8805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F222774-5003-490D-9078-78D1F6F89A4A}">
   <dimension ref="A1:R96"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -9804,11 +9814,19 @@
       <c r="Q38" s="4"/>
       <c r="R38" s="4"/>
     </row>
-    <row r="39" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="9"/>
+    <row r="39" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+      <c r="A39" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B39" s="7">
+        <v>4</v>
+      </c>
+      <c r="C39" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>162</v>
+      </c>
       <c r="E39" s="10"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
@@ -9950,7 +9968,7 @@
       </c>
       <c r="B46" s="14">
         <f>SUM(B38:B45)</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C46" s="15"/>
       <c r="D46" s="15"/>

--- a/LM_Journal_Travail_V1.0.xlsx
+++ b/LM_Journal_Travail_V1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programmes\VS2019\Projets\Projet Gerber\Love-Mirroring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8745C2FD-29F4-4F9D-B149-18C8E95015BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D219527A-0264-4D15-9BEC-5B4D65750BC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4500" yWindow="2115" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="165">
   <si>
     <t>Jalon</t>
   </si>
@@ -562,6 +562,14 @@
   <si>
     <t>Création contrôlleur côté  API
 Créaction MVC côté AppWeb</t>
+  </si>
+  <si>
+    <t>28.04.2020</t>
+  </si>
+  <si>
+    <t>Index terminé
+Search en cours
+Details en cours</t>
   </si>
 </sst>
 </file>
@@ -8806,7 +8814,7 @@
   <dimension ref="A1:R96"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -9842,11 +9850,19 @@
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
     </row>
-    <row r="40" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A40" s="7"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="9"/>
+    <row r="40" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A40" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B40" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="C40" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>164</v>
+      </c>
       <c r="E40" s="10"/>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
@@ -9968,7 +9984,7 @@
       </c>
       <c r="B46" s="14">
         <f>SUM(B38:B45)</f>
-        <v>7</v>
+        <v>11.5</v>
       </c>
       <c r="C46" s="15"/>
       <c r="D46" s="15"/>

--- a/LM_Journal_Travail_V1.0.xlsx
+++ b/LM_Journal_Travail_V1.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programmes\VS2019\Projets\Projet Gerber\Love-Mirroring\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\Love-Mirroring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D219527A-0264-4D15-9BEC-5B4D65750BC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8A27142-F1B8-46C8-8C83-BA8FAA95C3C9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4500" yWindow="2115" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Equipe" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <definedName name="NBLecons">#REF!</definedName>
     <definedName name="TachesPlanifiees">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="171">
   <si>
     <t>Jalon</t>
   </si>
@@ -570,6 +570,24 @@
     <t>Index terminé
 Search en cours
 Details en cours</t>
+  </si>
+  <si>
+    <t>Intégration de la recherche de profil</t>
+  </si>
+  <si>
+    <t>L'utilisateur peut chercher des profils en fonction de ses préférences.</t>
+  </si>
+  <si>
+    <t>Modification du formulaire d'inscription + optimisation de la recherche d'utilisateur</t>
+  </si>
+  <si>
+    <t>Le formulaire d'inscription avait quelques bugs que j'ai corrigé et j'ai adapté la recherche d'utilisateurs pour prendre en compte d'autres variables.</t>
+  </si>
+  <si>
+    <t>Traitement des différentes erreurs</t>
+  </si>
+  <si>
+    <t>Le quizz pouvait se remplir plusieurs fois j'ai modifié le bug. Le pseudo n'affichait pas d'erreur s'il était utilisé plus d'une fois et il n'est pas possible d'utiliser plusieurs fois la même adresse email. J'ai aussi changé le contrôleur pour les matchs en modifiant l'accès au données (via un contrôleur sur l'API qui centraliser tout). J'ai aussi ajouté un coutry code sur le numéro de téléphone pour être sur que le format demandé par Twilio est le bon et j'ai interdit l'inscription aux personnes de moins de 18 ans. J'ai aussi fait des tests côté client pour éviter que le site bug si l'on supprime un champ d'un des formulaires.</t>
   </si>
 </sst>
 </file>
@@ -851,7 +869,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -963,6 +981,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4175,10 +4196,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DB7A04D-A66F-4A89-83F1-9B353075A776}">
-  <dimension ref="A1:R96"/>
+  <dimension ref="A1:R97"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -5356,11 +5377,19 @@
       <c r="Q43" s="4"/>
       <c r="R43" s="4"/>
     </row>
-    <row r="44" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A44" s="7"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
+    <row r="44" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A44" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="B44" s="7">
+        <v>4</v>
+      </c>
+      <c r="C44" s="35">
+        <v>43949</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>166</v>
+      </c>
       <c r="E44" s="10"/>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
@@ -5376,11 +5405,19 @@
       <c r="Q44" s="4"/>
       <c r="R44" s="4"/>
     </row>
-    <row r="45" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="23"/>
-      <c r="B45" s="23"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
+    <row r="45" spans="1:18" ht="81.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="B45" s="23">
+        <v>3</v>
+      </c>
+      <c r="C45" s="41">
+        <v>43951</v>
+      </c>
+      <c r="D45" s="24" t="s">
+        <v>168</v>
+      </c>
       <c r="E45" s="10"/>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
@@ -5396,16 +5433,19 @@
       <c r="Q45" s="4"/>
       <c r="R45" s="4"/>
     </row>
-    <row r="46" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B46" s="14">
-        <f>SUM(B38:B45)</f>
-        <v>17</v>
-      </c>
-      <c r="C46" s="15"/>
-      <c r="D46" s="15"/>
+    <row r="46" spans="1:18" ht="108.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="B46" s="23">
+        <v>4</v>
+      </c>
+      <c r="C46" s="41">
+        <v>43952</v>
+      </c>
+      <c r="D46" s="24" t="s">
+        <v>170</v>
+      </c>
       <c r="E46" s="10"/>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
@@ -5422,10 +5462,15 @@
       <c r="R46" s="4"/>
     </row>
     <row r="47" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="16"/>
-      <c r="B47" s="16"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
+      <c r="A47" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B47" s="14">
+        <f>SUM(B38:B46)</f>
+        <v>28</v>
+      </c>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
       <c r="E47" s="10"/>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
@@ -5441,15 +5486,11 @@
       <c r="Q47" s="4"/>
       <c r="R47" s="4"/>
     </row>
-    <row r="48" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B48" s="2">
-        <v>4</v>
-      </c>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
+    <row r="48" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="16"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="16"/>
       <c r="E48" s="10"/>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
@@ -5465,17 +5506,15 @@
       <c r="Q48" s="4"/>
       <c r="R48" s="4"/>
     </row>
-    <row r="49" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5" t="s">
-        <v>5</v>
-      </c>
+    <row r="49" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" s="2">
+        <v>4</v>
+      </c>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
       <c r="E49" s="10"/>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
@@ -5491,11 +5530,17 @@
       <c r="Q49" s="4"/>
       <c r="R49" s="4"/>
     </row>
-    <row r="50" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A50" s="19"/>
-      <c r="B50" s="19"/>
-      <c r="C50" s="20"/>
-      <c r="D50" s="20"/>
+    <row r="50" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="E50" s="10"/>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
@@ -5512,10 +5557,10 @@
       <c r="R50" s="4"/>
     </row>
     <row r="51" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A51" s="7"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
+      <c r="A51" s="19"/>
+      <c r="B51" s="19"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="20"/>
       <c r="E51" s="10"/>
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
@@ -5612,10 +5657,10 @@
       <c r="R55" s="4"/>
     </row>
     <row r="56" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A56" s="25"/>
-      <c r="B56" s="25"/>
-      <c r="C56" s="26"/>
-      <c r="D56" s="26"/>
+      <c r="A56" s="7"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
       <c r="E56" s="10"/>
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
@@ -5691,11 +5736,11 @@
       <c r="Q59" s="4"/>
       <c r="R59" s="4"/>
     </row>
-    <row r="60" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="23"/>
-      <c r="B60" s="23"/>
-      <c r="C60" s="24"/>
-      <c r="D60" s="24"/>
+    <row r="60" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A60" s="25"/>
+      <c r="B60" s="25"/>
+      <c r="C60" s="26"/>
+      <c r="D60" s="26"/>
       <c r="E60" s="10"/>
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
@@ -5712,15 +5757,10 @@
       <c r="R60" s="4"/>
     </row>
     <row r="61" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B61" s="14">
-        <f>SUM(B50:B60)</f>
-        <v>0</v>
-      </c>
-      <c r="C61" s="15"/>
-      <c r="D61" s="15"/>
+      <c r="A61" s="23"/>
+      <c r="B61" s="23"/>
+      <c r="C61" s="24"/>
+      <c r="D61" s="24"/>
       <c r="E61" s="10"/>
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
@@ -5737,10 +5777,15 @@
       <c r="R61" s="4"/>
     </row>
     <row r="62" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="16"/>
-      <c r="B62" s="16"/>
-      <c r="C62" s="16"/>
-      <c r="D62" s="16"/>
+      <c r="A62" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B62" s="14">
+        <f>SUM(B51:B61)</f>
+        <v>0</v>
+      </c>
+      <c r="C62" s="15"/>
+      <c r="D62" s="15"/>
       <c r="E62" s="10"/>
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
@@ -5756,15 +5801,11 @@
       <c r="Q62" s="4"/>
       <c r="R62" s="4"/>
     </row>
-    <row r="63" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B63" s="2">
-        <v>5</v>
-      </c>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
+    <row r="63" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="16"/>
+      <c r="B63" s="16"/>
+      <c r="C63" s="16"/>
+      <c r="D63" s="16"/>
       <c r="E63" s="10"/>
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
@@ -5780,17 +5821,15 @@
       <c r="Q63" s="4"/>
       <c r="R63" s="4"/>
     </row>
-    <row r="64" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C64" s="5"/>
-      <c r="D64" s="5" t="s">
+    <row r="64" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64" s="2">
         <v>5</v>
       </c>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
       <c r="E64" s="10"/>
       <c r="F64" s="4"/>
       <c r="G64" s="4"/>
@@ -5806,11 +5845,17 @@
       <c r="Q64" s="4"/>
       <c r="R64" s="4"/>
     </row>
-    <row r="65" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A65" s="19"/>
-      <c r="B65" s="19"/>
-      <c r="C65" s="20"/>
-      <c r="D65" s="20"/>
+    <row r="65" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="E65" s="10"/>
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
@@ -5827,10 +5872,10 @@
       <c r="R65" s="4"/>
     </row>
     <row r="66" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A66" s="7"/>
-      <c r="B66" s="7"/>
-      <c r="C66" s="9"/>
-      <c r="D66" s="9"/>
+      <c r="A66" s="19"/>
+      <c r="B66" s="19"/>
+      <c r="C66" s="20"/>
+      <c r="D66" s="20"/>
       <c r="E66" s="10"/>
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
@@ -5906,11 +5951,11 @@
       <c r="Q69" s="4"/>
       <c r="R69" s="4"/>
     </row>
-    <row r="70" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="23"/>
-      <c r="B70" s="23"/>
-      <c r="C70" s="24"/>
-      <c r="D70" s="24"/>
+    <row r="70" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A70" s="7"/>
+      <c r="B70" s="7"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
       <c r="E70" s="10"/>
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
@@ -5927,15 +5972,10 @@
       <c r="R70" s="4"/>
     </row>
     <row r="71" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B71" s="14">
-        <f>SUM(B65:B70)</f>
-        <v>0</v>
-      </c>
-      <c r="C71" s="15"/>
-      <c r="D71" s="15"/>
+      <c r="A71" s="23"/>
+      <c r="B71" s="23"/>
+      <c r="C71" s="24"/>
+      <c r="D71" s="24"/>
       <c r="E71" s="10"/>
       <c r="F71" s="4"/>
       <c r="G71" s="4"/>
@@ -5952,10 +5992,15 @@
       <c r="R71" s="4"/>
     </row>
     <row r="72" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="16"/>
-      <c r="B72" s="16"/>
-      <c r="C72" s="16"/>
-      <c r="D72" s="16"/>
+      <c r="A72" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B72" s="14">
+        <f>SUM(B66:B71)</f>
+        <v>0</v>
+      </c>
+      <c r="C72" s="15"/>
+      <c r="D72" s="15"/>
       <c r="E72" s="10"/>
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
@@ -5971,15 +6016,11 @@
       <c r="Q72" s="4"/>
       <c r="R72" s="4"/>
     </row>
-    <row r="73" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B73" s="2">
-        <v>6</v>
-      </c>
-      <c r="C73" s="3"/>
-      <c r="D73" s="3"/>
+    <row r="73" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="16"/>
+      <c r="B73" s="16"/>
+      <c r="C73" s="16"/>
+      <c r="D73" s="16"/>
       <c r="E73" s="10"/>
       <c r="F73" s="4"/>
       <c r="G73" s="4"/>
@@ -5995,17 +6036,15 @@
       <c r="Q73" s="4"/>
       <c r="R73" s="4"/>
     </row>
-    <row r="74" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B74" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C74" s="5"/>
-      <c r="D74" s="5" t="s">
-        <v>5</v>
-      </c>
+    <row r="74" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74" s="2">
+        <v>6</v>
+      </c>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
       <c r="E74" s="10"/>
       <c r="F74" s="4"/>
       <c r="G74" s="4"/>
@@ -6021,11 +6060,17 @@
       <c r="Q74" s="4"/>
       <c r="R74" s="4"/>
     </row>
-    <row r="75" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A75" s="19"/>
-      <c r="B75" s="19"/>
-      <c r="C75" s="20"/>
-      <c r="D75" s="20"/>
+    <row r="75" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="E75" s="10"/>
       <c r="F75" s="4"/>
       <c r="G75" s="4"/>
@@ -6042,10 +6087,10 @@
       <c r="R75" s="4"/>
     </row>
     <row r="76" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A76" s="7"/>
-      <c r="B76" s="7"/>
-      <c r="C76" s="9"/>
-      <c r="D76" s="9"/>
+      <c r="A76" s="19"/>
+      <c r="B76" s="19"/>
+      <c r="C76" s="20"/>
+      <c r="D76" s="20"/>
       <c r="E76" s="10"/>
       <c r="F76" s="4"/>
       <c r="G76" s="4"/>
@@ -6161,11 +6206,11 @@
       <c r="Q81" s="4"/>
       <c r="R81" s="4"/>
     </row>
-    <row r="82" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="23"/>
-      <c r="B82" s="23"/>
-      <c r="C82" s="24"/>
-      <c r="D82" s="24"/>
+    <row r="82" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A82" s="7"/>
+      <c r="B82" s="7"/>
+      <c r="C82" s="9"/>
+      <c r="D82" s="9"/>
       <c r="E82" s="10"/>
       <c r="F82" s="4"/>
       <c r="G82" s="4"/>
@@ -6182,15 +6227,10 @@
       <c r="R82" s="4"/>
     </row>
     <row r="83" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B83" s="14">
-        <f>SUM(B75:B82)</f>
-        <v>0</v>
-      </c>
-      <c r="C83" s="15"/>
-      <c r="D83" s="15"/>
+      <c r="A83" s="23"/>
+      <c r="B83" s="23"/>
+      <c r="C83" s="24"/>
+      <c r="D83" s="24"/>
       <c r="E83" s="10"/>
       <c r="F83" s="4"/>
       <c r="G83" s="4"/>
@@ -6206,11 +6246,16 @@
       <c r="Q83" s="4"/>
       <c r="R83" s="4"/>
     </row>
-    <row r="84" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A84" s="16"/>
-      <c r="B84" s="16"/>
-      <c r="C84" s="16"/>
-      <c r="D84" s="16"/>
+    <row r="84" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B84" s="14">
+        <f>SUM(B76:B83)</f>
+        <v>0</v>
+      </c>
+      <c r="C84" s="15"/>
+      <c r="D84" s="15"/>
       <c r="E84" s="10"/>
       <c r="F84" s="4"/>
       <c r="G84" s="4"/>
@@ -6227,10 +6272,10 @@
       <c r="R84" s="4"/>
     </row>
     <row r="85" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A85" s="27"/>
-      <c r="B85" s="27"/>
-      <c r="C85" s="27"/>
-      <c r="D85" s="27"/>
+      <c r="A85" s="16"/>
+      <c r="B85" s="16"/>
+      <c r="C85" s="16"/>
+      <c r="D85" s="16"/>
       <c r="E85" s="10"/>
       <c r="F85" s="4"/>
       <c r="G85" s="4"/>
@@ -6447,18 +6492,24 @@
       <c r="R95" s="4"/>
     </row>
     <row r="96" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A96" s="28"/>
-      <c r="B96" s="28"/>
-      <c r="C96" s="28"/>
-      <c r="D96" s="28"/>
+      <c r="A96" s="27"/>
+      <c r="B96" s="27"/>
+      <c r="C96" s="27"/>
+      <c r="D96" s="27"/>
+    </row>
+    <row r="97" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A97" s="28"/>
+      <c r="B97" s="28"/>
+      <c r="C97" s="28"/>
+      <c r="D97" s="28"/>
     </row>
   </sheetData>
   <dataValidations xWindow="188" yWindow="522" count="2">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" prompt="Dépassement de durée - Le nombre de minutes introduites dépasse la durée d'une période. Veuillez confirmer ... Le calcul du total sera juste dans tous les cas._x000a_" sqref="B12 B34 B46 B61 B71 B83" xr:uid="{41F29EDA-D509-4469-8DFB-6A4CE4CEAE07}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" prompt="Dépassement de durée - Le nombre de minutes introduites dépasse la durée d'une période. Veuillez confirmer ... Le calcul du total sera juste dans tous les cas._x000a_" sqref="B12 B34 B47 B62 B72 B84" xr:uid="{41F29EDA-D509-4469-8DFB-6A4CE4CEAE07}">
       <formula1>0</formula1>
       <formula2>DureePeriode-1</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" prompt="Durée en 1/3 de période - Le nombre doit être de type entier" sqref="B75:B82 B38:B39 B41:B45 B50:B60 B65:B70 B10:B11 B3:B8 B16:B33" xr:uid="{3039B7E3-952E-4B34-B612-E5A0C049619C}">
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" prompt="Durée en 1/3 de période - Le nombre doit être de type entier" sqref="B76:B83 B38:B39 B51:B61 B66:B71 B10:B11 B3:B8 B16:B33 B41:B45" xr:uid="{3039B7E3-952E-4B34-B612-E5A0C049619C}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -8813,8 +8864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F222774-5003-490D-9078-78D1F6F89A4A}">
   <dimension ref="A1:R96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>

--- a/LM_Journal_Travail_V1.0.xlsx
+++ b/LM_Journal_Travail_V1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\Love-Mirroring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8A27142-F1B8-46C8-8C83-BA8FAA95C3C9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7941CC87-8AF1-415A-A8E8-BD6AFAE4E369}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="175">
   <si>
     <t>Jalon</t>
   </si>
@@ -588,6 +588,18 @@
   </si>
   <si>
     <t>Le quizz pouvait se remplir plusieurs fois j'ai modifié le bug. Le pseudo n'affichait pas d'erreur s'il était utilisé plus d'une fois et il n'est pas possible d'utiliser plusieurs fois la même adresse email. J'ai aussi changé le contrôleur pour les matchs en modifiant l'accès au données (via un contrôleur sur l'API qui centraliser tout). J'ai aussi ajouté un coutry code sur le numéro de téléphone pour être sur que le format demandé par Twilio est le bon et j'ai interdit l'inscription aux personnes de moins de 18 ans. J'ai aussi fait des tests côté client pour éviter que le site bug si l'on supprime un champ d'un des formulaires.</t>
+  </si>
+  <si>
+    <t>Like des profils + corrections de bug</t>
+  </si>
+  <si>
+    <t>Correction de certains bugs qui faisait planter le formulaire d'inscription ainsi que les préférences. J'ai aussi ajouté la possibilité de liker un utilisateur.</t>
+  </si>
+  <si>
+    <t>Unlike du profil</t>
+  </si>
+  <si>
+    <t>L'utilisateur peut maintenant enlever le like sur les profils avec lesquelles il a un match.</t>
   </si>
 </sst>
 </file>
@@ -692,7 +704,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -865,11 +877,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -984,6 +1020,15 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4196,10 +4241,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DB7A04D-A66F-4A89-83F1-9B353075A776}">
-  <dimension ref="A1:R97"/>
+  <dimension ref="A1:R99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -5461,16 +5506,19 @@
       <c r="Q46" s="4"/>
       <c r="R46" s="4"/>
     </row>
-    <row r="47" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B47" s="14">
-        <f>SUM(B38:B46)</f>
-        <v>28</v>
-      </c>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
+    <row r="47" spans="1:18" ht="41.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="42" t="s">
+        <v>171</v>
+      </c>
+      <c r="B47" s="42">
+        <v>3</v>
+      </c>
+      <c r="C47" s="43">
+        <v>43953</v>
+      </c>
+      <c r="D47" s="44" t="s">
+        <v>172</v>
+      </c>
       <c r="E47" s="10"/>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
@@ -5486,11 +5534,19 @@
       <c r="Q47" s="4"/>
       <c r="R47" s="4"/>
     </row>
-    <row r="48" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="16"/>
-      <c r="B48" s="16"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="16"/>
+    <row r="48" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="42" t="s">
+        <v>173</v>
+      </c>
+      <c r="B48" s="42">
+        <v>1</v>
+      </c>
+      <c r="C48" s="43">
+        <v>43955</v>
+      </c>
+      <c r="D48" s="44" t="s">
+        <v>174</v>
+      </c>
       <c r="E48" s="10"/>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
@@ -5506,15 +5562,16 @@
       <c r="Q48" s="4"/>
       <c r="R48" s="4"/>
     </row>
-    <row r="49" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B49" s="2">
-        <v>4</v>
-      </c>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
+    <row r="49" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B49" s="14">
+        <f>SUM(B38:B47)</f>
+        <v>31</v>
+      </c>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
       <c r="E49" s="10"/>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
@@ -5530,17 +5587,11 @@
       <c r="Q49" s="4"/>
       <c r="R49" s="4"/>
     </row>
-    <row r="50" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5" t="s">
-        <v>5</v>
-      </c>
+    <row r="50" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="16"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="16"/>
       <c r="E50" s="10"/>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
@@ -5556,11 +5607,15 @@
       <c r="Q50" s="4"/>
       <c r="R50" s="4"/>
     </row>
-    <row r="51" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A51" s="19"/>
-      <c r="B51" s="19"/>
-      <c r="C51" s="20"/>
-      <c r="D51" s="20"/>
+    <row r="51" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" s="2">
+        <v>4</v>
+      </c>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
       <c r="E51" s="10"/>
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
@@ -5576,11 +5631,17 @@
       <c r="Q51" s="4"/>
       <c r="R51" s="4"/>
     </row>
-    <row r="52" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A52" s="7"/>
-      <c r="B52" s="7"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
+    <row r="52" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="E52" s="10"/>
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
@@ -5597,10 +5658,10 @@
       <c r="R52" s="4"/>
     </row>
     <row r="53" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A53" s="7"/>
-      <c r="B53" s="7"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
+      <c r="A53" s="19"/>
+      <c r="B53" s="19"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="20"/>
       <c r="E53" s="10"/>
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
@@ -5677,10 +5738,10 @@
       <c r="R56" s="4"/>
     </row>
     <row r="57" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A57" s="25"/>
-      <c r="B57" s="25"/>
-      <c r="C57" s="26"/>
-      <c r="D57" s="26"/>
+      <c r="A57" s="7"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
       <c r="E57" s="10"/>
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
@@ -5697,10 +5758,10 @@
       <c r="R57" s="4"/>
     </row>
     <row r="58" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A58" s="25"/>
-      <c r="B58" s="25"/>
-      <c r="C58" s="26"/>
-      <c r="D58" s="26"/>
+      <c r="A58" s="7"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
       <c r="E58" s="10"/>
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
@@ -5756,11 +5817,11 @@
       <c r="Q60" s="4"/>
       <c r="R60" s="4"/>
     </row>
-    <row r="61" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="23"/>
-      <c r="B61" s="23"/>
-      <c r="C61" s="24"/>
-      <c r="D61" s="24"/>
+    <row r="61" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A61" s="25"/>
+      <c r="B61" s="25"/>
+      <c r="C61" s="26"/>
+      <c r="D61" s="26"/>
       <c r="E61" s="10"/>
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
@@ -5776,16 +5837,11 @@
       <c r="Q61" s="4"/>
       <c r="R61" s="4"/>
     </row>
-    <row r="62" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B62" s="14">
-        <f>SUM(B51:B61)</f>
-        <v>0</v>
-      </c>
-      <c r="C62" s="15"/>
-      <c r="D62" s="15"/>
+    <row r="62" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A62" s="25"/>
+      <c r="B62" s="25"/>
+      <c r="C62" s="26"/>
+      <c r="D62" s="26"/>
       <c r="E62" s="10"/>
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
@@ -5802,10 +5858,10 @@
       <c r="R62" s="4"/>
     </row>
     <row r="63" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="16"/>
-      <c r="B63" s="16"/>
-      <c r="C63" s="16"/>
-      <c r="D63" s="16"/>
+      <c r="A63" s="23"/>
+      <c r="B63" s="23"/>
+      <c r="C63" s="24"/>
+      <c r="D63" s="24"/>
       <c r="E63" s="10"/>
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
@@ -5821,15 +5877,16 @@
       <c r="Q63" s="4"/>
       <c r="R63" s="4"/>
     </row>
-    <row r="64" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="1" t="s">
+    <row r="64" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B64" s="14">
+        <f>SUM(B53:B63)</f>
         <v>0</v>
       </c>
-      <c r="B64" s="2">
-        <v>5</v>
-      </c>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
+      <c r="C64" s="15"/>
+      <c r="D64" s="15"/>
       <c r="E64" s="10"/>
       <c r="F64" s="4"/>
       <c r="G64" s="4"/>
@@ -5845,17 +5902,11 @@
       <c r="Q64" s="4"/>
       <c r="R64" s="4"/>
     </row>
-    <row r="65" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C65" s="5"/>
-      <c r="D65" s="5" t="s">
-        <v>5</v>
-      </c>
+    <row r="65" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="16"/>
+      <c r="B65" s="16"/>
+      <c r="C65" s="16"/>
+      <c r="D65" s="16"/>
       <c r="E65" s="10"/>
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
@@ -5871,11 +5922,15 @@
       <c r="Q65" s="4"/>
       <c r="R65" s="4"/>
     </row>
-    <row r="66" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A66" s="19"/>
-      <c r="B66" s="19"/>
-      <c r="C66" s="20"/>
-      <c r="D66" s="20"/>
+    <row r="66" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B66" s="2">
+        <v>5</v>
+      </c>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
       <c r="E66" s="10"/>
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
@@ -5891,11 +5946,17 @@
       <c r="Q66" s="4"/>
       <c r="R66" s="4"/>
     </row>
-    <row r="67" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A67" s="7"/>
-      <c r="B67" s="7"/>
-      <c r="C67" s="9"/>
-      <c r="D67" s="9"/>
+    <row r="67" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="E67" s="10"/>
       <c r="F67" s="4"/>
       <c r="G67" s="4"/>
@@ -5912,10 +5973,10 @@
       <c r="R67" s="4"/>
     </row>
     <row r="68" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A68" s="7"/>
-      <c r="B68" s="7"/>
-      <c r="C68" s="9"/>
-      <c r="D68" s="9"/>
+      <c r="A68" s="19"/>
+      <c r="B68" s="19"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="20"/>
       <c r="E68" s="10"/>
       <c r="F68" s="4"/>
       <c r="G68" s="4"/>
@@ -5971,11 +6032,11 @@
       <c r="Q70" s="4"/>
       <c r="R70" s="4"/>
     </row>
-    <row r="71" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="23"/>
-      <c r="B71" s="23"/>
-      <c r="C71" s="24"/>
-      <c r="D71" s="24"/>
+    <row r="71" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A71" s="7"/>
+      <c r="B71" s="7"/>
+      <c r="C71" s="9"/>
+      <c r="D71" s="9"/>
       <c r="E71" s="10"/>
       <c r="F71" s="4"/>
       <c r="G71" s="4"/>
@@ -5991,16 +6052,11 @@
       <c r="Q71" s="4"/>
       <c r="R71" s="4"/>
     </row>
-    <row r="72" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B72" s="14">
-        <f>SUM(B66:B71)</f>
-        <v>0</v>
-      </c>
-      <c r="C72" s="15"/>
-      <c r="D72" s="15"/>
+    <row r="72" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A72" s="7"/>
+      <c r="B72" s="7"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
       <c r="E72" s="10"/>
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
@@ -6017,10 +6073,10 @@
       <c r="R72" s="4"/>
     </row>
     <row r="73" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="16"/>
-      <c r="B73" s="16"/>
-      <c r="C73" s="16"/>
-      <c r="D73" s="16"/>
+      <c r="A73" s="23"/>
+      <c r="B73" s="23"/>
+      <c r="C73" s="24"/>
+      <c r="D73" s="24"/>
       <c r="E73" s="10"/>
       <c r="F73" s="4"/>
       <c r="G73" s="4"/>
@@ -6036,15 +6092,16 @@
       <c r="Q73" s="4"/>
       <c r="R73" s="4"/>
     </row>
-    <row r="74" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="1" t="s">
+    <row r="74" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B74" s="14">
+        <f>SUM(B68:B73)</f>
         <v>0</v>
       </c>
-      <c r="B74" s="2">
-        <v>6</v>
-      </c>
-      <c r="C74" s="3"/>
-      <c r="D74" s="3"/>
+      <c r="C74" s="15"/>
+      <c r="D74" s="15"/>
       <c r="E74" s="10"/>
       <c r="F74" s="4"/>
       <c r="G74" s="4"/>
@@ -6060,17 +6117,11 @@
       <c r="Q74" s="4"/>
       <c r="R74" s="4"/>
     </row>
-    <row r="75" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B75" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C75" s="5"/>
-      <c r="D75" s="5" t="s">
-        <v>5</v>
-      </c>
+    <row r="75" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="16"/>
+      <c r="B75" s="16"/>
+      <c r="C75" s="16"/>
+      <c r="D75" s="16"/>
       <c r="E75" s="10"/>
       <c r="F75" s="4"/>
       <c r="G75" s="4"/>
@@ -6086,11 +6137,15 @@
       <c r="Q75" s="4"/>
       <c r="R75" s="4"/>
     </row>
-    <row r="76" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A76" s="19"/>
-      <c r="B76" s="19"/>
-      <c r="C76" s="20"/>
-      <c r="D76" s="20"/>
+    <row r="76" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B76" s="2">
+        <v>6</v>
+      </c>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
       <c r="E76" s="10"/>
       <c r="F76" s="4"/>
       <c r="G76" s="4"/>
@@ -6106,11 +6161,17 @@
       <c r="Q76" s="4"/>
       <c r="R76" s="4"/>
     </row>
-    <row r="77" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A77" s="7"/>
-      <c r="B77" s="7"/>
-      <c r="C77" s="9"/>
-      <c r="D77" s="9"/>
+    <row r="77" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="E77" s="10"/>
       <c r="F77" s="4"/>
       <c r="G77" s="4"/>
@@ -6127,10 +6188,10 @@
       <c r="R77" s="4"/>
     </row>
     <row r="78" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A78" s="7"/>
-      <c r="B78" s="7"/>
-      <c r="C78" s="9"/>
-      <c r="D78" s="9"/>
+      <c r="A78" s="19"/>
+      <c r="B78" s="19"/>
+      <c r="C78" s="20"/>
+      <c r="D78" s="20"/>
       <c r="E78" s="10"/>
       <c r="F78" s="4"/>
       <c r="G78" s="4"/>
@@ -6226,11 +6287,11 @@
       <c r="Q82" s="4"/>
       <c r="R82" s="4"/>
     </row>
-    <row r="83" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="23"/>
-      <c r="B83" s="23"/>
-      <c r="C83" s="24"/>
-      <c r="D83" s="24"/>
+    <row r="83" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A83" s="7"/>
+      <c r="B83" s="7"/>
+      <c r="C83" s="9"/>
+      <c r="D83" s="9"/>
       <c r="E83" s="10"/>
       <c r="F83" s="4"/>
       <c r="G83" s="4"/>
@@ -6246,16 +6307,11 @@
       <c r="Q83" s="4"/>
       <c r="R83" s="4"/>
     </row>
-    <row r="84" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B84" s="14">
-        <f>SUM(B76:B83)</f>
-        <v>0</v>
-      </c>
-      <c r="C84" s="15"/>
-      <c r="D84" s="15"/>
+    <row r="84" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A84" s="7"/>
+      <c r="B84" s="7"/>
+      <c r="C84" s="9"/>
+      <c r="D84" s="9"/>
       <c r="E84" s="10"/>
       <c r="F84" s="4"/>
       <c r="G84" s="4"/>
@@ -6271,11 +6327,11 @@
       <c r="Q84" s="4"/>
       <c r="R84" s="4"/>
     </row>
-    <row r="85" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A85" s="16"/>
-      <c r="B85" s="16"/>
-      <c r="C85" s="16"/>
-      <c r="D85" s="16"/>
+    <row r="85" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="23"/>
+      <c r="B85" s="23"/>
+      <c r="C85" s="24"/>
+      <c r="D85" s="24"/>
       <c r="E85" s="10"/>
       <c r="F85" s="4"/>
       <c r="G85" s="4"/>
@@ -6291,11 +6347,16 @@
       <c r="Q85" s="4"/>
       <c r="R85" s="4"/>
     </row>
-    <row r="86" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A86" s="27"/>
-      <c r="B86" s="27"/>
-      <c r="C86" s="27"/>
-      <c r="D86" s="27"/>
+    <row r="86" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B86" s="14">
+        <f>SUM(B78:B85)</f>
+        <v>0</v>
+      </c>
+      <c r="C86" s="15"/>
+      <c r="D86" s="15"/>
       <c r="E86" s="10"/>
       <c r="F86" s="4"/>
       <c r="G86" s="4"/>
@@ -6312,10 +6373,10 @@
       <c r="R86" s="4"/>
     </row>
     <row r="87" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A87" s="27"/>
-      <c r="B87" s="27"/>
-      <c r="C87" s="27"/>
-      <c r="D87" s="27"/>
+      <c r="A87" s="16"/>
+      <c r="B87" s="16"/>
+      <c r="C87" s="16"/>
+      <c r="D87" s="16"/>
       <c r="E87" s="10"/>
       <c r="F87" s="4"/>
       <c r="G87" s="4"/>
@@ -6496,20 +6557,60 @@
       <c r="B96" s="27"/>
       <c r="C96" s="27"/>
       <c r="D96" s="27"/>
-    </row>
-    <row r="97" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A97" s="28"/>
-      <c r="B97" s="28"/>
-      <c r="C97" s="28"/>
-      <c r="D97" s="28"/>
+      <c r="E96" s="10"/>
+      <c r="F96" s="4"/>
+      <c r="G96" s="4"/>
+      <c r="H96" s="4"/>
+      <c r="I96" s="4"/>
+      <c r="J96" s="4"/>
+      <c r="K96" s="4"/>
+      <c r="L96" s="4"/>
+      <c r="M96" s="4"/>
+      <c r="N96" s="4"/>
+      <c r="O96" s="4"/>
+      <c r="P96" s="4"/>
+      <c r="Q96" s="4"/>
+      <c r="R96" s="4"/>
+    </row>
+    <row r="97" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A97" s="27"/>
+      <c r="B97" s="27"/>
+      <c r="C97" s="27"/>
+      <c r="D97" s="27"/>
+      <c r="E97" s="10"/>
+      <c r="F97" s="4"/>
+      <c r="G97" s="4"/>
+      <c r="H97" s="4"/>
+      <c r="I97" s="4"/>
+      <c r="J97" s="4"/>
+      <c r="K97" s="4"/>
+      <c r="L97" s="4"/>
+      <c r="M97" s="4"/>
+      <c r="N97" s="4"/>
+      <c r="O97" s="4"/>
+      <c r="P97" s="4"/>
+      <c r="Q97" s="4"/>
+      <c r="R97" s="4"/>
+    </row>
+    <row r="98" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A98" s="27"/>
+      <c r="B98" s="27"/>
+      <c r="C98" s="27"/>
+      <c r="D98" s="27"/>
+    </row>
+    <row r="99" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A99" s="28"/>
+      <c r="B99" s="28"/>
+      <c r="C99" s="28"/>
+      <c r="D99" s="28"/>
     </row>
   </sheetData>
   <dataValidations xWindow="188" yWindow="522" count="2">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" prompt="Dépassement de durée - Le nombre de minutes introduites dépasse la durée d'une période. Veuillez confirmer ... Le calcul du total sera juste dans tous les cas._x000a_" sqref="B12 B34 B47 B62 B72 B84" xr:uid="{41F29EDA-D509-4469-8DFB-6A4CE4CEAE07}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" prompt="Dépassement de durée - Le nombre de minutes introduites dépasse la durée d'une période. Veuillez confirmer ... Le calcul du total sera juste dans tous les cas._x000a_" sqref="B12 B34 B49 B64 B74 B86" xr:uid="{41F29EDA-D509-4469-8DFB-6A4CE4CEAE07}">
       <formula1>0</formula1>
       <formula2>DureePeriode-1</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" prompt="Durée en 1/3 de période - Le nombre doit être de type entier" sqref="B76:B83 B38:B39 B51:B61 B66:B71 B10:B11 B3:B8 B16:B33 B41:B45" xr:uid="{3039B7E3-952E-4B34-B612-E5A0C049619C}">
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" prompt="Durée en 1/3 de période - Le nombre doit être de type entier" sqref="B78:B85 B38:B39 B53:B63 B68:B73 B10:B11 B3:B8 B16:B33 B41:B45" xr:uid="{3039B7E3-952E-4B34-B612-E5A0C049619C}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>

--- a/LM_Journal_Travail_V1.0.xlsx
+++ b/LM_Journal_Travail_V1.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\Love-Mirroring\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programmes\VS2019\Projets\Projet Gerber\Love-Mirroring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7941CC87-8AF1-415A-A8E8-BD6AFAE4E369}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{761B34DE-F707-4D97-B038-5D409455967C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4500" yWindow="2115" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Equipe" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <definedName name="NBLecons">#REF!</definedName>
     <definedName name="TachesPlanifiees">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="181">
   <si>
     <t>Jalon</t>
   </si>
@@ -600,6 +600,27 @@
   </si>
   <si>
     <t>L'utilisateur peut maintenant enlever le like sur les profils avec lesquelles il a un match.</t>
+  </si>
+  <si>
+    <t>01.05.2020</t>
+  </si>
+  <si>
+    <t>Search terminé</t>
+  </si>
+  <si>
+    <t>03.05.2020</t>
+  </si>
+  <si>
+    <t>Details terminé
+Edit en cours
+Delete en cours</t>
+  </si>
+  <si>
+    <t>04.05.2020</t>
+  </si>
+  <si>
+    <t>Edit terminé
+Delete terminé</t>
   </si>
 </sst>
 </file>
@@ -4243,7 +4264,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DB7A04D-A66F-4A89-83F1-9B353075A776}">
   <dimension ref="A1:R99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
@@ -8965,8 +8986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F222774-5003-490D-9078-78D1F6F89A4A}">
   <dimension ref="A1:R96"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -10031,10 +10052,18 @@
       <c r="R40" s="4"/>
     </row>
     <row r="41" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A41" s="7"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
+      <c r="A41" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B41" s="7">
+        <v>4</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>176</v>
+      </c>
       <c r="E41" s="10"/>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
@@ -10050,11 +10079,19 @@
       <c r="Q41" s="4"/>
       <c r="R41" s="4"/>
     </row>
-    <row r="42" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A42" s="7"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
+    <row r="42" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A42" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B42" s="7">
+        <v>4</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>178</v>
+      </c>
       <c r="E42" s="10"/>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
@@ -10070,11 +10107,19 @@
       <c r="Q42" s="4"/>
       <c r="R42" s="4"/>
     </row>
-    <row r="43" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A43" s="7"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
+    <row r="43" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+      <c r="A43" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B43" s="7">
+        <v>5</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>180</v>
+      </c>
       <c r="E43" s="10"/>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
@@ -10136,7 +10181,7 @@
       </c>
       <c r="B46" s="14">
         <f>SUM(B38:B45)</f>
-        <v>11.5</v>
+        <v>24.5</v>
       </c>
       <c r="C46" s="15"/>
       <c r="D46" s="15"/>

--- a/LM_Journal_Travail_V1.0.xlsx
+++ b/LM_Journal_Travail_V1.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programmes\VS2019\Projets\Projet Gerber\Love-Mirroring\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\Love-Mirroring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{761B34DE-F707-4D97-B038-5D409455967C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8C8A2F-6125-4D85-8BA7-E7BF22D91F8F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4500" yWindow="2115" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Equipe" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <definedName name="NBLecons">#REF!</definedName>
     <definedName name="TachesPlanifiees">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="183">
   <si>
     <t>Jalon</t>
   </si>
@@ -621,6 +621,12 @@
   <si>
     <t>Edit terminé
 Delete terminé</t>
+  </si>
+  <si>
+    <t>Style vestimentaire et Spotify</t>
+  </si>
+  <si>
+    <t>Ajout des préférences vestimentaires pour un utilisateur.</t>
   </si>
 </sst>
 </file>
@@ -926,7 +932,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1051,6 +1057,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4262,10 +4271,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DB7A04D-A66F-4A89-83F1-9B353075A776}">
-  <dimension ref="A1:R99"/>
+  <dimension ref="A1:R100"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -5583,16 +5592,19 @@
       <c r="Q48" s="4"/>
       <c r="R48" s="4"/>
     </row>
-    <row r="49" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B49" s="14">
-        <f>SUM(B38:B47)</f>
-        <v>31</v>
-      </c>
-      <c r="C49" s="15"/>
-      <c r="D49" s="15"/>
+    <row r="49" spans="1:18" ht="41.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="42" t="s">
+        <v>181</v>
+      </c>
+      <c r="B49" s="45">
+        <v>3.5</v>
+      </c>
+      <c r="C49" s="43">
+        <v>43956</v>
+      </c>
+      <c r="D49" s="44" t="s">
+        <v>182</v>
+      </c>
       <c r="E49" s="10"/>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
@@ -5609,10 +5621,15 @@
       <c r="R49" s="4"/>
     </row>
     <row r="50" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="16"/>
-      <c r="B50" s="16"/>
-      <c r="C50" s="16"/>
-      <c r="D50" s="16"/>
+      <c r="A50" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B50" s="14">
+        <f>SUM(B38:B49)</f>
+        <v>35.5</v>
+      </c>
+      <c r="C50" s="15"/>
+      <c r="D50" s="15"/>
       <c r="E50" s="10"/>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
@@ -5628,15 +5645,11 @@
       <c r="Q50" s="4"/>
       <c r="R50" s="4"/>
     </row>
-    <row r="51" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B51" s="2">
-        <v>4</v>
-      </c>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
+    <row r="51" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="16"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="16"/>
       <c r="E51" s="10"/>
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
@@ -5652,17 +5665,15 @@
       <c r="Q51" s="4"/>
       <c r="R51" s="4"/>
     </row>
-    <row r="52" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5" t="s">
-        <v>5</v>
-      </c>
+    <row r="52" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" s="2">
+        <v>4</v>
+      </c>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
       <c r="E52" s="10"/>
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
@@ -5678,11 +5689,17 @@
       <c r="Q52" s="4"/>
       <c r="R52" s="4"/>
     </row>
-    <row r="53" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A53" s="19"/>
-      <c r="B53" s="19"/>
-      <c r="C53" s="20"/>
-      <c r="D53" s="20"/>
+    <row r="53" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="E53" s="10"/>
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
@@ -5699,10 +5716,10 @@
       <c r="R53" s="4"/>
     </row>
     <row r="54" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A54" s="7"/>
-      <c r="B54" s="7"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
+      <c r="A54" s="19"/>
+      <c r="B54" s="19"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="20"/>
       <c r="E54" s="10"/>
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
@@ -5799,10 +5816,10 @@
       <c r="R58" s="4"/>
     </row>
     <row r="59" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A59" s="25"/>
-      <c r="B59" s="25"/>
-      <c r="C59" s="26"/>
-      <c r="D59" s="26"/>
+      <c r="A59" s="7"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
       <c r="E59" s="10"/>
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
@@ -5878,11 +5895,11 @@
       <c r="Q62" s="4"/>
       <c r="R62" s="4"/>
     </row>
-    <row r="63" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="23"/>
-      <c r="B63" s="23"/>
-      <c r="C63" s="24"/>
-      <c r="D63" s="24"/>
+    <row r="63" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A63" s="25"/>
+      <c r="B63" s="25"/>
+      <c r="C63" s="26"/>
+      <c r="D63" s="26"/>
       <c r="E63" s="10"/>
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
@@ -5899,15 +5916,10 @@
       <c r="R63" s="4"/>
     </row>
     <row r="64" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B64" s="14">
-        <f>SUM(B53:B63)</f>
-        <v>0</v>
-      </c>
-      <c r="C64" s="15"/>
-      <c r="D64" s="15"/>
+      <c r="A64" s="23"/>
+      <c r="B64" s="23"/>
+      <c r="C64" s="24"/>
+      <c r="D64" s="24"/>
       <c r="E64" s="10"/>
       <c r="F64" s="4"/>
       <c r="G64" s="4"/>
@@ -5924,10 +5936,15 @@
       <c r="R64" s="4"/>
     </row>
     <row r="65" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="16"/>
-      <c r="B65" s="16"/>
-      <c r="C65" s="16"/>
-      <c r="D65" s="16"/>
+      <c r="A65" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B65" s="14">
+        <f>SUM(B54:B64)</f>
+        <v>0</v>
+      </c>
+      <c r="C65" s="15"/>
+      <c r="D65" s="15"/>
       <c r="E65" s="10"/>
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
@@ -5943,15 +5960,11 @@
       <c r="Q65" s="4"/>
       <c r="R65" s="4"/>
     </row>
-    <row r="66" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B66" s="2">
-        <v>5</v>
-      </c>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
+    <row r="66" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="16"/>
+      <c r="B66" s="16"/>
+      <c r="C66" s="16"/>
+      <c r="D66" s="16"/>
       <c r="E66" s="10"/>
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
@@ -5967,17 +5980,15 @@
       <c r="Q66" s="4"/>
       <c r="R66" s="4"/>
     </row>
-    <row r="67" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C67" s="5"/>
-      <c r="D67" s="5" t="s">
+    <row r="67" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B67" s="2">
         <v>5</v>
       </c>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
       <c r="E67" s="10"/>
       <c r="F67" s="4"/>
       <c r="G67" s="4"/>
@@ -5993,11 +6004,17 @@
       <c r="Q67" s="4"/>
       <c r="R67" s="4"/>
     </row>
-    <row r="68" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A68" s="19"/>
-      <c r="B68" s="19"/>
-      <c r="C68" s="20"/>
-      <c r="D68" s="20"/>
+    <row r="68" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="E68" s="10"/>
       <c r="F68" s="4"/>
       <c r="G68" s="4"/>
@@ -6014,10 +6031,10 @@
       <c r="R68" s="4"/>
     </row>
     <row r="69" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A69" s="7"/>
-      <c r="B69" s="7"/>
-      <c r="C69" s="9"/>
-      <c r="D69" s="9"/>
+      <c r="A69" s="19"/>
+      <c r="B69" s="19"/>
+      <c r="C69" s="20"/>
+      <c r="D69" s="20"/>
       <c r="E69" s="10"/>
       <c r="F69" s="4"/>
       <c r="G69" s="4"/>
@@ -6093,11 +6110,11 @@
       <c r="Q72" s="4"/>
       <c r="R72" s="4"/>
     </row>
-    <row r="73" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="23"/>
-      <c r="B73" s="23"/>
-      <c r="C73" s="24"/>
-      <c r="D73" s="24"/>
+    <row r="73" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A73" s="7"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="9"/>
       <c r="E73" s="10"/>
       <c r="F73" s="4"/>
       <c r="G73" s="4"/>
@@ -6114,15 +6131,10 @@
       <c r="R73" s="4"/>
     </row>
     <row r="74" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B74" s="14">
-        <f>SUM(B68:B73)</f>
-        <v>0</v>
-      </c>
-      <c r="C74" s="15"/>
-      <c r="D74" s="15"/>
+      <c r="A74" s="23"/>
+      <c r="B74" s="23"/>
+      <c r="C74" s="24"/>
+      <c r="D74" s="24"/>
       <c r="E74" s="10"/>
       <c r="F74" s="4"/>
       <c r="G74" s="4"/>
@@ -6139,10 +6151,15 @@
       <c r="R74" s="4"/>
     </row>
     <row r="75" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="16"/>
-      <c r="B75" s="16"/>
-      <c r="C75" s="16"/>
-      <c r="D75" s="16"/>
+      <c r="A75" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B75" s="14">
+        <f>SUM(B69:B74)</f>
+        <v>0</v>
+      </c>
+      <c r="C75" s="15"/>
+      <c r="D75" s="15"/>
       <c r="E75" s="10"/>
       <c r="F75" s="4"/>
       <c r="G75" s="4"/>
@@ -6158,15 +6175,11 @@
       <c r="Q75" s="4"/>
       <c r="R75" s="4"/>
     </row>
-    <row r="76" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B76" s="2">
-        <v>6</v>
-      </c>
-      <c r="C76" s="3"/>
-      <c r="D76" s="3"/>
+    <row r="76" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="16"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="16"/>
+      <c r="D76" s="16"/>
       <c r="E76" s="10"/>
       <c r="F76" s="4"/>
       <c r="G76" s="4"/>
@@ -6182,17 +6195,15 @@
       <c r="Q76" s="4"/>
       <c r="R76" s="4"/>
     </row>
-    <row r="77" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B77" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C77" s="5"/>
-      <c r="D77" s="5" t="s">
-        <v>5</v>
-      </c>
+    <row r="77" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B77" s="2">
+        <v>6</v>
+      </c>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
       <c r="E77" s="10"/>
       <c r="F77" s="4"/>
       <c r="G77" s="4"/>
@@ -6208,11 +6219,17 @@
       <c r="Q77" s="4"/>
       <c r="R77" s="4"/>
     </row>
-    <row r="78" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A78" s="19"/>
-      <c r="B78" s="19"/>
-      <c r="C78" s="20"/>
-      <c r="D78" s="20"/>
+    <row r="78" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="E78" s="10"/>
       <c r="F78" s="4"/>
       <c r="G78" s="4"/>
@@ -6229,10 +6246,10 @@
       <c r="R78" s="4"/>
     </row>
     <row r="79" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A79" s="7"/>
-      <c r="B79" s="7"/>
-      <c r="C79" s="9"/>
-      <c r="D79" s="9"/>
+      <c r="A79" s="19"/>
+      <c r="B79" s="19"/>
+      <c r="C79" s="20"/>
+      <c r="D79" s="20"/>
       <c r="E79" s="10"/>
       <c r="F79" s="4"/>
       <c r="G79" s="4"/>
@@ -6348,11 +6365,11 @@
       <c r="Q84" s="4"/>
       <c r="R84" s="4"/>
     </row>
-    <row r="85" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="23"/>
-      <c r="B85" s="23"/>
-      <c r="C85" s="24"/>
-      <c r="D85" s="24"/>
+    <row r="85" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A85" s="7"/>
+      <c r="B85" s="7"/>
+      <c r="C85" s="9"/>
+      <c r="D85" s="9"/>
       <c r="E85" s="10"/>
       <c r="F85" s="4"/>
       <c r="G85" s="4"/>
@@ -6369,15 +6386,10 @@
       <c r="R85" s="4"/>
     </row>
     <row r="86" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B86" s="14">
-        <f>SUM(B78:B85)</f>
-        <v>0</v>
-      </c>
-      <c r="C86" s="15"/>
-      <c r="D86" s="15"/>
+      <c r="A86" s="23"/>
+      <c r="B86" s="23"/>
+      <c r="C86" s="24"/>
+      <c r="D86" s="24"/>
       <c r="E86" s="10"/>
       <c r="F86" s="4"/>
       <c r="G86" s="4"/>
@@ -6393,11 +6405,16 @@
       <c r="Q86" s="4"/>
       <c r="R86" s="4"/>
     </row>
-    <row r="87" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A87" s="16"/>
-      <c r="B87" s="16"/>
-      <c r="C87" s="16"/>
-      <c r="D87" s="16"/>
+    <row r="87" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B87" s="14">
+        <f>SUM(B79:B86)</f>
+        <v>0</v>
+      </c>
+      <c r="C87" s="15"/>
+      <c r="D87" s="15"/>
       <c r="E87" s="10"/>
       <c r="F87" s="4"/>
       <c r="G87" s="4"/>
@@ -6414,10 +6431,10 @@
       <c r="R87" s="4"/>
     </row>
     <row r="88" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A88" s="27"/>
-      <c r="B88" s="27"/>
-      <c r="C88" s="27"/>
-      <c r="D88" s="27"/>
+      <c r="A88" s="16"/>
+      <c r="B88" s="16"/>
+      <c r="C88" s="16"/>
+      <c r="D88" s="16"/>
       <c r="E88" s="10"/>
       <c r="F88" s="4"/>
       <c r="G88" s="4"/>
@@ -6618,20 +6635,40 @@
       <c r="B98" s="27"/>
       <c r="C98" s="27"/>
       <c r="D98" s="27"/>
+      <c r="E98" s="10"/>
+      <c r="F98" s="4"/>
+      <c r="G98" s="4"/>
+      <c r="H98" s="4"/>
+      <c r="I98" s="4"/>
+      <c r="J98" s="4"/>
+      <c r="K98" s="4"/>
+      <c r="L98" s="4"/>
+      <c r="M98" s="4"/>
+      <c r="N98" s="4"/>
+      <c r="O98" s="4"/>
+      <c r="P98" s="4"/>
+      <c r="Q98" s="4"/>
+      <c r="R98" s="4"/>
     </row>
     <row r="99" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A99" s="28"/>
-      <c r="B99" s="28"/>
-      <c r="C99" s="28"/>
-      <c r="D99" s="28"/>
+      <c r="A99" s="27"/>
+      <c r="B99" s="27"/>
+      <c r="C99" s="27"/>
+      <c r="D99" s="27"/>
+    </row>
+    <row r="100" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A100" s="28"/>
+      <c r="B100" s="28"/>
+      <c r="C100" s="28"/>
+      <c r="D100" s="28"/>
     </row>
   </sheetData>
   <dataValidations xWindow="188" yWindow="522" count="2">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" prompt="Dépassement de durée - Le nombre de minutes introduites dépasse la durée d'une période. Veuillez confirmer ... Le calcul du total sera juste dans tous les cas._x000a_" sqref="B12 B34 B49 B64 B74 B86" xr:uid="{41F29EDA-D509-4469-8DFB-6A4CE4CEAE07}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" prompt="Dépassement de durée - Le nombre de minutes introduites dépasse la durée d'une période. Veuillez confirmer ... Le calcul du total sera juste dans tous les cas._x000a_" sqref="B12 B34 B50 B65 B75 B87" xr:uid="{41F29EDA-D509-4469-8DFB-6A4CE4CEAE07}">
       <formula1>0</formula1>
       <formula2>DureePeriode-1</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" prompt="Durée en 1/3 de période - Le nombre doit être de type entier" sqref="B78:B85 B38:B39 B53:B63 B68:B73 B10:B11 B3:B8 B16:B33 B41:B45" xr:uid="{3039B7E3-952E-4B34-B612-E5A0C049619C}">
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" prompt="Durée en 1/3 de période - Le nombre doit être de type entier" sqref="B79:B86 B38:B39 B54:B64 B69:B74 B10:B11 B3:B8 B16:B33 B41:B45" xr:uid="{3039B7E3-952E-4B34-B612-E5A0C049619C}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -8986,7 +9023,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F222774-5003-490D-9078-78D1F6F89A4A}">
   <dimension ref="A1:R96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>

--- a/LM_Journal_Travail_V1.0.xlsx
+++ b/LM_Journal_Travail_V1.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\Love-Mirroring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8C8A2F-6125-4D85-8BA7-E7BF22D91F8F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85764B50-88CF-4BD6-8E8F-E8BC70D7DE1F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Equipe" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="185">
   <si>
     <t>Jalon</t>
   </si>
@@ -626,7 +626,13 @@
     <t>Style vestimentaire et Spotify</t>
   </si>
   <si>
-    <t>Ajout des préférences vestimentaires pour un utilisateur.</t>
+    <t>Ajout des préférences vestimentaires pour un utilisateur. J'ai aussi analysé l'utilisation de l'API de Spotify</t>
+  </si>
+  <si>
+    <t>Spotify</t>
+  </si>
+  <si>
+    <t>Création d'un controlleur pour chercher des titres en fonction de leur titre. Je dois trouver un autre moyen de chercher des musiques et je dois réfléchir à la manière de l'implémenter dans l'application. Je peux récupérer facilement des pistes si je mets des mots-clés. J'ai aussi changer un peu la structure du projet MVC pour regrouper les liens sur la gestion du compte de l'utilisateur. Je vais continuer mon développement sur Spotify et entrer en phase de test pour mon développement.</t>
   </si>
 </sst>
 </file>
@@ -1285,16 +1291,16 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="6.140625" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
-    <col min="4" max="4" width="78.42578125" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="6.109375" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" customWidth="1"/>
+    <col min="4" max="4" width="78.44140625" customWidth="1"/>
+    <col min="5" max="6" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1320,7 +1326,7 @@
       <c r="Q1" s="4"/>
       <c r="R1" s="4"/>
     </row>
-    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -1348,7 +1354,7 @@
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
     </row>
-    <row r="3" spans="1:18" ht="94.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
@@ -1376,7 +1382,7 @@
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
     </row>
-    <row r="4" spans="1:18" ht="54" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
@@ -1404,7 +1410,7 @@
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
     </row>
-    <row r="5" spans="1:18" ht="54" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
@@ -1432,7 +1438,7 @@
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
     </row>
-    <row r="6" spans="1:18" ht="81" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
         <v>12</v>
       </c>
@@ -1460,7 +1466,7 @@
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
     </row>
-    <row r="7" spans="1:18" ht="54" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>14</v>
       </c>
@@ -1488,7 +1494,7 @@
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
     </row>
-    <row r="8" spans="1:18" ht="94.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
         <v>16</v>
       </c>
@@ -1516,7 +1522,7 @@
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
     </row>
-    <row r="9" spans="1:18" ht="81" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
         <v>18</v>
       </c>
@@ -1544,7 +1550,7 @@
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
     </row>
-    <row r="10" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" ht="66" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
@@ -1572,7 +1578,7 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
     </row>
-    <row r="11" spans="1:18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="8"/>
@@ -1592,7 +1598,7 @@
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
     </row>
-    <row r="12" spans="1:18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="14" t="s">
         <v>22</v>
       </c>
@@ -1617,7 +1623,7 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
     </row>
-    <row r="13" spans="1:18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="16"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
@@ -1637,7 +1643,7 @@
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
     </row>
-    <row r="14" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -1661,7 +1667,7 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
     </row>
-    <row r="15" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>2</v>
       </c>
@@ -1687,7 +1693,7 @@
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
     </row>
-    <row r="16" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A16" s="37" t="s">
         <v>95</v>
       </c>
@@ -1715,7 +1721,7 @@
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
     </row>
-    <row r="17" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>99</v>
       </c>
@@ -1743,7 +1749,7 @@
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
     </row>
-    <row r="18" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="9"/>
@@ -1763,7 +1769,7 @@
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
     </row>
-    <row r="19" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="9"/>
@@ -1783,7 +1789,7 @@
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
     </row>
-    <row r="20" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="9"/>
@@ -4271,20 +4277,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DB7A04D-A66F-4A89-83F1-9B353075A776}">
-  <dimension ref="A1:R100"/>
+  <dimension ref="A1:R101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="78.42578125" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="78.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4310,7 +4316,7 @@
       <c r="Q1" s="4"/>
       <c r="R1" s="4"/>
     </row>
-    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -4338,7 +4344,7 @@
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
     </row>
-    <row r="3" spans="1:18" ht="94.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
@@ -4366,7 +4372,7 @@
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
     </row>
-    <row r="4" spans="1:18" ht="54" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
@@ -4394,7 +4400,7 @@
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
     </row>
-    <row r="5" spans="1:18" ht="54" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
@@ -4422,7 +4428,7 @@
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
     </row>
-    <row r="6" spans="1:18" ht="81" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
         <v>12</v>
       </c>
@@ -4450,7 +4456,7 @@
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
     </row>
-    <row r="7" spans="1:18" ht="54" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>14</v>
       </c>
@@ -4478,7 +4484,7 @@
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
     </row>
-    <row r="8" spans="1:18" ht="81" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
         <v>16</v>
       </c>
@@ -4506,7 +4512,7 @@
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
     </row>
-    <row r="9" spans="1:18" ht="81" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
         <v>18</v>
       </c>
@@ -4534,7 +4540,7 @@
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
     </row>
-    <row r="10" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
@@ -4562,7 +4568,7 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
     </row>
-    <row r="11" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>34</v>
       </c>
@@ -4590,7 +4596,7 @@
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
     </row>
-    <row r="12" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="14" t="s">
         <v>22</v>
       </c>
@@ -4615,7 +4621,7 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
     </row>
-    <row r="13" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="16"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
@@ -4635,7 +4641,7 @@
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
     </row>
-    <row r="14" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -4659,7 +4665,7 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
     </row>
-    <row r="15" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>2</v>
       </c>
@@ -4685,7 +4691,7 @@
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
     </row>
-    <row r="16" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
         <v>36</v>
       </c>
@@ -4713,7 +4719,7 @@
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
     </row>
-    <row r="17" spans="1:18" ht="81" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>38</v>
       </c>
@@ -4741,7 +4747,7 @@
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
     </row>
-    <row r="18" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>42</v>
       </c>
@@ -4769,7 +4775,7 @@
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
     </row>
-    <row r="19" spans="1:18" ht="81" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>44</v>
       </c>
@@ -4797,7 +4803,7 @@
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
     </row>
-    <row r="20" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>46</v>
       </c>
@@ -4825,7 +4831,7 @@
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
     </row>
-    <row r="21" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" ht="66" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>48</v>
       </c>
@@ -4853,7 +4859,7 @@
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
     </row>
-    <row r="22" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>50</v>
       </c>
@@ -4881,7 +4887,7 @@
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
     </row>
-    <row r="23" spans="1:18" ht="121.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>73</v>
       </c>
@@ -4909,7 +4915,7 @@
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
     </row>
-    <row r="24" spans="1:18" ht="54" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>52</v>
       </c>
@@ -4937,7 +4943,7 @@
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
     </row>
-    <row r="25" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" ht="66" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>62</v>
       </c>
@@ -4965,7 +4971,7 @@
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
     </row>
-    <row r="26" spans="1:18" ht="54" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>63</v>
       </c>
@@ -4993,7 +4999,7 @@
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
     </row>
-    <row r="27" spans="1:18" ht="81" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>65</v>
       </c>
@@ -5021,7 +5027,7 @@
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
     </row>
-    <row r="28" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>69</v>
       </c>
@@ -5049,7 +5055,7 @@
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
     </row>
-    <row r="29" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>71</v>
       </c>
@@ -5077,7 +5083,7 @@
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
     </row>
-    <row r="30" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>88</v>
       </c>
@@ -5105,7 +5111,7 @@
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
     </row>
-    <row r="31" spans="1:18" ht="54" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>90</v>
       </c>
@@ -5133,7 +5139,7 @@
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
     </row>
-    <row r="32" spans="1:18" ht="54" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" ht="66" x14ac:dyDescent="0.3">
       <c r="A32" s="38" t="s">
         <v>97</v>
       </c>
@@ -5161,7 +5167,7 @@
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
     </row>
-    <row r="33" spans="1:18" ht="54.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:18" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="38" t="s">
         <v>142</v>
       </c>
@@ -5189,7 +5195,7 @@
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
     </row>
-    <row r="34" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="14" t="s">
         <v>22</v>
       </c>
@@ -5214,7 +5220,7 @@
       <c r="Q34" s="4"/>
       <c r="R34" s="4"/>
     </row>
-    <row r="35" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="16"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -5234,7 +5240,7 @@
       <c r="Q35" s="4"/>
       <c r="R35" s="4"/>
     </row>
-    <row r="36" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>0</v>
       </c>
@@ -5258,7 +5264,7 @@
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
     </row>
-    <row r="37" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
         <v>2</v>
       </c>
@@ -5284,7 +5290,7 @@
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
     </row>
-    <row r="38" spans="1:18" ht="54" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
         <v>148</v>
       </c>
@@ -5312,7 +5318,7 @@
       <c r="Q38" s="4"/>
       <c r="R38" s="4"/>
     </row>
-    <row r="39" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>150</v>
       </c>
@@ -5340,7 +5346,7 @@
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
     </row>
-    <row r="40" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
         <v>152</v>
       </c>
@@ -5368,7 +5374,7 @@
       <c r="Q40" s="4"/>
       <c r="R40" s="4"/>
     </row>
-    <row r="41" spans="1:18" ht="54" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
         <v>154</v>
       </c>
@@ -5396,7 +5402,7 @@
       <c r="Q41" s="4"/>
       <c r="R41" s="4"/>
     </row>
-    <row r="42" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
         <v>156</v>
       </c>
@@ -5424,7 +5430,7 @@
       <c r="Q42" s="4"/>
       <c r="R42" s="4"/>
     </row>
-    <row r="43" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
         <v>158</v>
       </c>
@@ -5452,7 +5458,7 @@
       <c r="Q43" s="4"/>
       <c r="R43" s="4"/>
     </row>
-    <row r="44" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
         <v>165</v>
       </c>
@@ -5480,7 +5486,7 @@
       <c r="Q44" s="4"/>
       <c r="R44" s="4"/>
     </row>
-    <row r="45" spans="1:18" ht="81.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:18" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="23" t="s">
         <v>167</v>
       </c>
@@ -5508,7 +5514,7 @@
       <c r="Q45" s="4"/>
       <c r="R45" s="4"/>
     </row>
-    <row r="46" spans="1:18" ht="108.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:18" ht="106.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="23" t="s">
         <v>169</v>
       </c>
@@ -5536,7 +5542,7 @@
       <c r="Q46" s="4"/>
       <c r="R46" s="4"/>
     </row>
-    <row r="47" spans="1:18" ht="41.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:18" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="42" t="s">
         <v>171</v>
       </c>
@@ -5564,7 +5570,7 @@
       <c r="Q47" s="4"/>
       <c r="R47" s="4"/>
     </row>
-    <row r="48" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="42" t="s">
         <v>173</v>
       </c>
@@ -5592,7 +5598,7 @@
       <c r="Q48" s="4"/>
       <c r="R48" s="4"/>
     </row>
-    <row r="49" spans="1:18" ht="41.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:18" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="42" t="s">
         <v>181</v>
       </c>
@@ -5620,16 +5626,19 @@
       <c r="Q49" s="4"/>
       <c r="R49" s="4"/>
     </row>
-    <row r="50" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B50" s="14">
-        <f>SUM(B38:B49)</f>
-        <v>35.5</v>
-      </c>
-      <c r="C50" s="15"/>
-      <c r="D50" s="15"/>
+    <row r="50" spans="1:18" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="42" t="s">
+        <v>183</v>
+      </c>
+      <c r="B50" s="45">
+        <v>2</v>
+      </c>
+      <c r="C50" s="43">
+        <v>43957</v>
+      </c>
+      <c r="D50" s="44" t="s">
+        <v>184</v>
+      </c>
       <c r="E50" s="10"/>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
@@ -5645,11 +5654,16 @@
       <c r="Q50" s="4"/>
       <c r="R50" s="4"/>
     </row>
-    <row r="51" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="16"/>
-      <c r="B51" s="16"/>
-      <c r="C51" s="16"/>
-      <c r="D51" s="16"/>
+    <row r="51" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B51" s="14">
+        <f>SUM(B38:B50)</f>
+        <v>37.5</v>
+      </c>
+      <c r="C51" s="15"/>
+      <c r="D51" s="15"/>
       <c r="E51" s="10"/>
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
@@ -5665,15 +5679,11 @@
       <c r="Q51" s="4"/>
       <c r="R51" s="4"/>
     </row>
-    <row r="52" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B52" s="2">
-        <v>4</v>
-      </c>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
+    <row r="52" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="16"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="16"/>
       <c r="E52" s="10"/>
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
@@ -5689,17 +5699,15 @@
       <c r="Q52" s="4"/>
       <c r="R52" s="4"/>
     </row>
-    <row r="53" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5" t="s">
-        <v>5</v>
-      </c>
+    <row r="53" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" s="2">
+        <v>4</v>
+      </c>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
       <c r="E53" s="10"/>
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
@@ -5715,11 +5723,17 @@
       <c r="Q53" s="4"/>
       <c r="R53" s="4"/>
     </row>
-    <row r="54" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A54" s="19"/>
-      <c r="B54" s="19"/>
-      <c r="C54" s="20"/>
-      <c r="D54" s="20"/>
+    <row r="54" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="E54" s="10"/>
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
@@ -5735,11 +5749,11 @@
       <c r="Q54" s="4"/>
       <c r="R54" s="4"/>
     </row>
-    <row r="55" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A55" s="7"/>
-      <c r="B55" s="7"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
+    <row r="55" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A55" s="19"/>
+      <c r="B55" s="19"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="20"/>
       <c r="E55" s="10"/>
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
@@ -5755,7 +5769,7 @@
       <c r="Q55" s="4"/>
       <c r="R55" s="4"/>
     </row>
-    <row r="56" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A56" s="7"/>
       <c r="B56" s="7"/>
       <c r="C56" s="9"/>
@@ -5775,7 +5789,7 @@
       <c r="Q56" s="4"/>
       <c r="R56" s="4"/>
     </row>
-    <row r="57" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A57" s="7"/>
       <c r="B57" s="7"/>
       <c r="C57" s="9"/>
@@ -5795,7 +5809,7 @@
       <c r="Q57" s="4"/>
       <c r="R57" s="4"/>
     </row>
-    <row r="58" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A58" s="7"/>
       <c r="B58" s="7"/>
       <c r="C58" s="9"/>
@@ -5815,7 +5829,7 @@
       <c r="Q58" s="4"/>
       <c r="R58" s="4"/>
     </row>
-    <row r="59" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A59" s="7"/>
       <c r="B59" s="7"/>
       <c r="C59" s="9"/>
@@ -5835,11 +5849,11 @@
       <c r="Q59" s="4"/>
       <c r="R59" s="4"/>
     </row>
-    <row r="60" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A60" s="25"/>
-      <c r="B60" s="25"/>
-      <c r="C60" s="26"/>
-      <c r="D60" s="26"/>
+    <row r="60" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A60" s="7"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
       <c r="E60" s="10"/>
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
@@ -5855,7 +5869,7 @@
       <c r="Q60" s="4"/>
       <c r="R60" s="4"/>
     </row>
-    <row r="61" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A61" s="25"/>
       <c r="B61" s="25"/>
       <c r="C61" s="26"/>
@@ -5875,7 +5889,7 @@
       <c r="Q61" s="4"/>
       <c r="R61" s="4"/>
     </row>
-    <row r="62" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A62" s="25"/>
       <c r="B62" s="25"/>
       <c r="C62" s="26"/>
@@ -5895,7 +5909,7 @@
       <c r="Q62" s="4"/>
       <c r="R62" s="4"/>
     </row>
-    <row r="63" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A63" s="25"/>
       <c r="B63" s="25"/>
       <c r="C63" s="26"/>
@@ -5915,11 +5929,11 @@
       <c r="Q63" s="4"/>
       <c r="R63" s="4"/>
     </row>
-    <row r="64" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="23"/>
-      <c r="B64" s="23"/>
-      <c r="C64" s="24"/>
-      <c r="D64" s="24"/>
+    <row r="64" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A64" s="25"/>
+      <c r="B64" s="25"/>
+      <c r="C64" s="26"/>
+      <c r="D64" s="26"/>
       <c r="E64" s="10"/>
       <c r="F64" s="4"/>
       <c r="G64" s="4"/>
@@ -5935,16 +5949,11 @@
       <c r="Q64" s="4"/>
       <c r="R64" s="4"/>
     </row>
-    <row r="65" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B65" s="14">
-        <f>SUM(B54:B64)</f>
-        <v>0</v>
-      </c>
-      <c r="C65" s="15"/>
-      <c r="D65" s="15"/>
+    <row r="65" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="23"/>
+      <c r="B65" s="23"/>
+      <c r="C65" s="24"/>
+      <c r="D65" s="24"/>
       <c r="E65" s="10"/>
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
@@ -5960,11 +5969,16 @@
       <c r="Q65" s="4"/>
       <c r="R65" s="4"/>
     </row>
-    <row r="66" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="16"/>
-      <c r="B66" s="16"/>
-      <c r="C66" s="16"/>
-      <c r="D66" s="16"/>
+    <row r="66" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B66" s="14">
+        <f>SUM(B55:B65)</f>
+        <v>0</v>
+      </c>
+      <c r="C66" s="15"/>
+      <c r="D66" s="15"/>
       <c r="E66" s="10"/>
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
@@ -5980,15 +5994,11 @@
       <c r="Q66" s="4"/>
       <c r="R66" s="4"/>
     </row>
-    <row r="67" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B67" s="2">
-        <v>5</v>
-      </c>
-      <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
+    <row r="67" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="16"/>
+      <c r="B67" s="16"/>
+      <c r="C67" s="16"/>
+      <c r="D67" s="16"/>
       <c r="E67" s="10"/>
       <c r="F67" s="4"/>
       <c r="G67" s="4"/>
@@ -6004,17 +6014,15 @@
       <c r="Q67" s="4"/>
       <c r="R67" s="4"/>
     </row>
-    <row r="68" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B68" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C68" s="5"/>
-      <c r="D68" s="5" t="s">
+    <row r="68" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68" s="2">
         <v>5</v>
       </c>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
       <c r="E68" s="10"/>
       <c r="F68" s="4"/>
       <c r="G68" s="4"/>
@@ -6030,11 +6038,17 @@
       <c r="Q68" s="4"/>
       <c r="R68" s="4"/>
     </row>
-    <row r="69" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A69" s="19"/>
-      <c r="B69" s="19"/>
-      <c r="C69" s="20"/>
-      <c r="D69" s="20"/>
+    <row r="69" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="E69" s="10"/>
       <c r="F69" s="4"/>
       <c r="G69" s="4"/>
@@ -6050,11 +6064,11 @@
       <c r="Q69" s="4"/>
       <c r="R69" s="4"/>
     </row>
-    <row r="70" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A70" s="7"/>
-      <c r="B70" s="7"/>
-      <c r="C70" s="9"/>
-      <c r="D70" s="9"/>
+    <row r="70" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A70" s="19"/>
+      <c r="B70" s="19"/>
+      <c r="C70" s="20"/>
+      <c r="D70" s="20"/>
       <c r="E70" s="10"/>
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
@@ -6070,7 +6084,7 @@
       <c r="Q70" s="4"/>
       <c r="R70" s="4"/>
     </row>
-    <row r="71" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A71" s="7"/>
       <c r="B71" s="7"/>
       <c r="C71" s="9"/>
@@ -6090,7 +6104,7 @@
       <c r="Q71" s="4"/>
       <c r="R71" s="4"/>
     </row>
-    <row r="72" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A72" s="7"/>
       <c r="B72" s="7"/>
       <c r="C72" s="9"/>
@@ -6110,7 +6124,7 @@
       <c r="Q72" s="4"/>
       <c r="R72" s="4"/>
     </row>
-    <row r="73" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A73" s="7"/>
       <c r="B73" s="7"/>
       <c r="C73" s="9"/>
@@ -6130,11 +6144,11 @@
       <c r="Q73" s="4"/>
       <c r="R73" s="4"/>
     </row>
-    <row r="74" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="23"/>
-      <c r="B74" s="23"/>
-      <c r="C74" s="24"/>
-      <c r="D74" s="24"/>
+    <row r="74" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A74" s="7"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="9"/>
+      <c r="D74" s="9"/>
       <c r="E74" s="10"/>
       <c r="F74" s="4"/>
       <c r="G74" s="4"/>
@@ -6150,16 +6164,11 @@
       <c r="Q74" s="4"/>
       <c r="R74" s="4"/>
     </row>
-    <row r="75" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B75" s="14">
-        <f>SUM(B69:B74)</f>
-        <v>0</v>
-      </c>
-      <c r="C75" s="15"/>
-      <c r="D75" s="15"/>
+    <row r="75" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="23"/>
+      <c r="B75" s="23"/>
+      <c r="C75" s="24"/>
+      <c r="D75" s="24"/>
       <c r="E75" s="10"/>
       <c r="F75" s="4"/>
       <c r="G75" s="4"/>
@@ -6175,11 +6184,16 @@
       <c r="Q75" s="4"/>
       <c r="R75" s="4"/>
     </row>
-    <row r="76" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="16"/>
-      <c r="B76" s="16"/>
-      <c r="C76" s="16"/>
-      <c r="D76" s="16"/>
+    <row r="76" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B76" s="14">
+        <f>SUM(B70:B75)</f>
+        <v>0</v>
+      </c>
+      <c r="C76" s="15"/>
+      <c r="D76" s="15"/>
       <c r="E76" s="10"/>
       <c r="F76" s="4"/>
       <c r="G76" s="4"/>
@@ -6195,15 +6209,11 @@
       <c r="Q76" s="4"/>
       <c r="R76" s="4"/>
     </row>
-    <row r="77" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B77" s="2">
-        <v>6</v>
-      </c>
-      <c r="C77" s="3"/>
-      <c r="D77" s="3"/>
+    <row r="77" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="16"/>
+      <c r="B77" s="16"/>
+      <c r="C77" s="16"/>
+      <c r="D77" s="16"/>
       <c r="E77" s="10"/>
       <c r="F77" s="4"/>
       <c r="G77" s="4"/>
@@ -6219,17 +6229,15 @@
       <c r="Q77" s="4"/>
       <c r="R77" s="4"/>
     </row>
-    <row r="78" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B78" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C78" s="5"/>
-      <c r="D78" s="5" t="s">
-        <v>5</v>
-      </c>
+    <row r="78" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B78" s="2">
+        <v>6</v>
+      </c>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
       <c r="E78" s="10"/>
       <c r="F78" s="4"/>
       <c r="G78" s="4"/>
@@ -6245,11 +6253,17 @@
       <c r="Q78" s="4"/>
       <c r="R78" s="4"/>
     </row>
-    <row r="79" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A79" s="19"/>
-      <c r="B79" s="19"/>
-      <c r="C79" s="20"/>
-      <c r="D79" s="20"/>
+    <row r="79" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="E79" s="10"/>
       <c r="F79" s="4"/>
       <c r="G79" s="4"/>
@@ -6265,11 +6279,11 @@
       <c r="Q79" s="4"/>
       <c r="R79" s="4"/>
     </row>
-    <row r="80" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A80" s="7"/>
-      <c r="B80" s="7"/>
-      <c r="C80" s="9"/>
-      <c r="D80" s="9"/>
+    <row r="80" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A80" s="19"/>
+      <c r="B80" s="19"/>
+      <c r="C80" s="20"/>
+      <c r="D80" s="20"/>
       <c r="E80" s="10"/>
       <c r="F80" s="4"/>
       <c r="G80" s="4"/>
@@ -6285,7 +6299,7 @@
       <c r="Q80" s="4"/>
       <c r="R80" s="4"/>
     </row>
-    <row r="81" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A81" s="7"/>
       <c r="B81" s="7"/>
       <c r="C81" s="9"/>
@@ -6305,7 +6319,7 @@
       <c r="Q81" s="4"/>
       <c r="R81" s="4"/>
     </row>
-    <row r="82" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A82" s="7"/>
       <c r="B82" s="7"/>
       <c r="C82" s="9"/>
@@ -6325,7 +6339,7 @@
       <c r="Q82" s="4"/>
       <c r="R82" s="4"/>
     </row>
-    <row r="83" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A83" s="7"/>
       <c r="B83" s="7"/>
       <c r="C83" s="9"/>
@@ -6345,7 +6359,7 @@
       <c r="Q83" s="4"/>
       <c r="R83" s="4"/>
     </row>
-    <row r="84" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A84" s="7"/>
       <c r="B84" s="7"/>
       <c r="C84" s="9"/>
@@ -6365,7 +6379,7 @@
       <c r="Q84" s="4"/>
       <c r="R84" s="4"/>
     </row>
-    <row r="85" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A85" s="7"/>
       <c r="B85" s="7"/>
       <c r="C85" s="9"/>
@@ -6385,11 +6399,11 @@
       <c r="Q85" s="4"/>
       <c r="R85" s="4"/>
     </row>
-    <row r="86" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="23"/>
-      <c r="B86" s="23"/>
-      <c r="C86" s="24"/>
-      <c r="D86" s="24"/>
+    <row r="86" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A86" s="7"/>
+      <c r="B86" s="7"/>
+      <c r="C86" s="9"/>
+      <c r="D86" s="9"/>
       <c r="E86" s="10"/>
       <c r="F86" s="4"/>
       <c r="G86" s="4"/>
@@ -6405,16 +6419,11 @@
       <c r="Q86" s="4"/>
       <c r="R86" s="4"/>
     </row>
-    <row r="87" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B87" s="14">
-        <f>SUM(B79:B86)</f>
-        <v>0</v>
-      </c>
-      <c r="C87" s="15"/>
-      <c r="D87" s="15"/>
+    <row r="87" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="23"/>
+      <c r="B87" s="23"/>
+      <c r="C87" s="24"/>
+      <c r="D87" s="24"/>
       <c r="E87" s="10"/>
       <c r="F87" s="4"/>
       <c r="G87" s="4"/>
@@ -6430,11 +6439,16 @@
       <c r="Q87" s="4"/>
       <c r="R87" s="4"/>
     </row>
-    <row r="88" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A88" s="16"/>
-      <c r="B88" s="16"/>
-      <c r="C88" s="16"/>
-      <c r="D88" s="16"/>
+    <row r="88" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B88" s="14">
+        <f>SUM(B80:B87)</f>
+        <v>0</v>
+      </c>
+      <c r="C88" s="15"/>
+      <c r="D88" s="15"/>
       <c r="E88" s="10"/>
       <c r="F88" s="4"/>
       <c r="G88" s="4"/>
@@ -6450,11 +6464,11 @@
       <c r="Q88" s="4"/>
       <c r="R88" s="4"/>
     </row>
-    <row r="89" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A89" s="27"/>
-      <c r="B89" s="27"/>
-      <c r="C89" s="27"/>
-      <c r="D89" s="27"/>
+    <row r="89" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A89" s="16"/>
+      <c r="B89" s="16"/>
+      <c r="C89" s="16"/>
+      <c r="D89" s="16"/>
       <c r="E89" s="10"/>
       <c r="F89" s="4"/>
       <c r="G89" s="4"/>
@@ -6470,7 +6484,7 @@
       <c r="Q89" s="4"/>
       <c r="R89" s="4"/>
     </row>
-    <row r="90" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A90" s="27"/>
       <c r="B90" s="27"/>
       <c r="C90" s="27"/>
@@ -6490,7 +6504,7 @@
       <c r="Q90" s="4"/>
       <c r="R90" s="4"/>
     </row>
-    <row r="91" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A91" s="27"/>
       <c r="B91" s="27"/>
       <c r="C91" s="27"/>
@@ -6510,7 +6524,7 @@
       <c r="Q91" s="4"/>
       <c r="R91" s="4"/>
     </row>
-    <row r="92" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A92" s="27"/>
       <c r="B92" s="27"/>
       <c r="C92" s="27"/>
@@ -6530,7 +6544,7 @@
       <c r="Q92" s="4"/>
       <c r="R92" s="4"/>
     </row>
-    <row r="93" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A93" s="27"/>
       <c r="B93" s="27"/>
       <c r="C93" s="27"/>
@@ -6550,7 +6564,7 @@
       <c r="Q93" s="4"/>
       <c r="R93" s="4"/>
     </row>
-    <row r="94" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A94" s="27"/>
       <c r="B94" s="27"/>
       <c r="C94" s="27"/>
@@ -6570,7 +6584,7 @@
       <c r="Q94" s="4"/>
       <c r="R94" s="4"/>
     </row>
-    <row r="95" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A95" s="27"/>
       <c r="B95" s="27"/>
       <c r="C95" s="27"/>
@@ -6590,7 +6604,7 @@
       <c r="Q95" s="4"/>
       <c r="R95" s="4"/>
     </row>
-    <row r="96" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A96" s="27"/>
       <c r="B96" s="27"/>
       <c r="C96" s="27"/>
@@ -6610,7 +6624,7 @@
       <c r="Q96" s="4"/>
       <c r="R96" s="4"/>
     </row>
-    <row r="97" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A97" s="27"/>
       <c r="B97" s="27"/>
       <c r="C97" s="27"/>
@@ -6630,7 +6644,7 @@
       <c r="Q97" s="4"/>
       <c r="R97" s="4"/>
     </row>
-    <row r="98" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A98" s="27"/>
       <c r="B98" s="27"/>
       <c r="C98" s="27"/>
@@ -6650,25 +6664,45 @@
       <c r="Q98" s="4"/>
       <c r="R98" s="4"/>
     </row>
-    <row r="99" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A99" s="27"/>
       <c r="B99" s="27"/>
       <c r="C99" s="27"/>
       <c r="D99" s="27"/>
-    </row>
-    <row r="100" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A100" s="28"/>
-      <c r="B100" s="28"/>
-      <c r="C100" s="28"/>
-      <c r="D100" s="28"/>
+      <c r="E99" s="10"/>
+      <c r="F99" s="4"/>
+      <c r="G99" s="4"/>
+      <c r="H99" s="4"/>
+      <c r="I99" s="4"/>
+      <c r="J99" s="4"/>
+      <c r="K99" s="4"/>
+      <c r="L99" s="4"/>
+      <c r="M99" s="4"/>
+      <c r="N99" s="4"/>
+      <c r="O99" s="4"/>
+      <c r="P99" s="4"/>
+      <c r="Q99" s="4"/>
+      <c r="R99" s="4"/>
+    </row>
+    <row r="100" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A100" s="27"/>
+      <c r="B100" s="27"/>
+      <c r="C100" s="27"/>
+      <c r="D100" s="27"/>
+    </row>
+    <row r="101" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A101" s="28"/>
+      <c r="B101" s="28"/>
+      <c r="C101" s="28"/>
+      <c r="D101" s="28"/>
     </row>
   </sheetData>
   <dataValidations xWindow="188" yWindow="522" count="2">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" prompt="Dépassement de durée - Le nombre de minutes introduites dépasse la durée d'une période. Veuillez confirmer ... Le calcul du total sera juste dans tous les cas._x000a_" sqref="B12 B34 B50 B65 B75 B87" xr:uid="{41F29EDA-D509-4469-8DFB-6A4CE4CEAE07}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" prompt="Dépassement de durée - Le nombre de minutes introduites dépasse la durée d'une période. Veuillez confirmer ... Le calcul du total sera juste dans tous les cas._x000a_" sqref="B12 B34 B51 B66 B76 B88" xr:uid="{41F29EDA-D509-4469-8DFB-6A4CE4CEAE07}">
       <formula1>0</formula1>
       <formula2>DureePeriode-1</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" prompt="Durée en 1/3 de période - Le nombre doit être de type entier" sqref="B79:B86 B38:B39 B54:B64 B69:B74 B10:B11 B3:B8 B16:B33 B41:B45" xr:uid="{3039B7E3-952E-4B34-B612-E5A0C049619C}">
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" prompt="Durée en 1/3 de période - Le nombre doit être de type entier" sqref="B80:B87 B38:B39 B55:B65 B70:B75 B10:B11 B3:B8 B16:B33 B41:B45" xr:uid="{3039B7E3-952E-4B34-B612-E5A0C049619C}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -6684,14 +6718,14 @@
       <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="78.42578125" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="78.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6717,7 +6751,7 @@
       <c r="Q1" s="4"/>
       <c r="R1" s="4"/>
     </row>
-    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -6745,7 +6779,7 @@
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
     </row>
-    <row r="3" spans="1:18" ht="94.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
@@ -6773,7 +6807,7 @@
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
     </row>
-    <row r="4" spans="1:18" ht="54" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
@@ -6801,7 +6835,7 @@
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
     </row>
-    <row r="5" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="66" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
@@ -6829,7 +6863,7 @@
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
     </row>
-    <row r="6" spans="1:18" ht="81" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
         <v>12</v>
       </c>
@@ -6857,7 +6891,7 @@
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
     </row>
-    <row r="7" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="66" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>14</v>
       </c>
@@ -6885,7 +6919,7 @@
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
     </row>
-    <row r="8" spans="1:18" ht="108" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
         <v>16</v>
       </c>
@@ -6913,7 +6947,7 @@
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
     </row>
-    <row r="9" spans="1:18" ht="94.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
         <v>18</v>
       </c>
@@ -6941,7 +6975,7 @@
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
     </row>
-    <row r="10" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" ht="66" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
@@ -6969,7 +7003,7 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
     </row>
-    <row r="11" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>23</v>
       </c>
@@ -6995,7 +7029,7 @@
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
     </row>
-    <row r="12" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>25</v>
       </c>
@@ -7021,7 +7055,7 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
     </row>
-    <row r="13" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
         <v>22</v>
       </c>
@@ -7046,7 +7080,7 @@
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
     </row>
-    <row r="14" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A14" s="16"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
@@ -7066,7 +7100,7 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
     </row>
-    <row r="15" spans="1:18" ht="18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -7116,7 +7150,7 @@
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
     </row>
-    <row r="17" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
         <v>103</v>
       </c>
@@ -7142,7 +7176,7 @@
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
     </row>
-    <row r="18" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>105</v>
       </c>
@@ -7166,7 +7200,7 @@
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
     </row>
-    <row r="19" spans="1:18" ht="54" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>106</v>
       </c>
@@ -7192,7 +7226,7 @@
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
     </row>
-    <row r="20" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>108</v>
       </c>
@@ -7218,7 +7252,7 @@
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
     </row>
-    <row r="21" spans="1:18" ht="54" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>110</v>
       </c>
@@ -7244,7 +7278,7 @@
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
     </row>
-    <row r="22" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" ht="66" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>112</v>
       </c>
@@ -7270,7 +7304,7 @@
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
     </row>
-    <row r="23" spans="1:18" ht="81" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>114</v>
       </c>
@@ -7296,7 +7330,7 @@
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
     </row>
-    <row r="24" spans="1:18" ht="108" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>116</v>
       </c>
@@ -7322,7 +7356,7 @@
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
     </row>
-    <row r="25" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>118</v>
       </c>
@@ -7348,7 +7382,7 @@
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
     </row>
-    <row r="26" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>120</v>
       </c>
@@ -7374,7 +7408,7 @@
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
     </row>
-    <row r="27" spans="1:18" ht="121.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>122</v>
       </c>
@@ -7400,7 +7434,7 @@
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
     </row>
-    <row r="28" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>124</v>
       </c>
@@ -7426,7 +7460,7 @@
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
     </row>
-    <row r="29" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>126</v>
       </c>
@@ -7452,7 +7486,7 @@
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
     </row>
-    <row r="30" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>124</v>
       </c>
@@ -7478,7 +7512,7 @@
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
     </row>
-    <row r="31" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>129</v>
       </c>
@@ -7504,7 +7538,7 @@
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
     </row>
-    <row r="32" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>131</v>
       </c>
@@ -7530,7 +7564,7 @@
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
     </row>
-    <row r="33" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>133</v>
       </c>
@@ -7556,7 +7590,7 @@
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
     </row>
-    <row r="34" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>134</v>
       </c>
@@ -7582,7 +7616,7 @@
       <c r="Q34" s="4"/>
       <c r="R34" s="4"/>
     </row>
-    <row r="35" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>136</v>
       </c>
@@ -7608,7 +7642,7 @@
       <c r="Q35" s="4"/>
       <c r="R35" s="4"/>
     </row>
-    <row r="36" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>138</v>
       </c>
@@ -7634,7 +7668,7 @@
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
     </row>
-    <row r="37" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
         <v>140</v>
       </c>
@@ -7660,7 +7694,7 @@
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
     </row>
-    <row r="38" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="9"/>
@@ -7680,7 +7714,7 @@
       <c r="Q38" s="4"/>
       <c r="R38" s="4"/>
     </row>
-    <row r="39" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="14" t="s">
         <v>22</v>
       </c>
@@ -7705,7 +7739,7 @@
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
     </row>
-    <row r="40" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A40" s="16"/>
       <c r="B40" s="16"/>
       <c r="C40" s="16"/>
@@ -7725,7 +7759,7 @@
       <c r="Q40" s="4"/>
       <c r="R40" s="4"/>
     </row>
-    <row r="41" spans="1:18" ht="18" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>0</v>
       </c>
@@ -7775,7 +7809,7 @@
       <c r="Q42" s="4"/>
       <c r="R42" s="4"/>
     </row>
-    <row r="43" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="21"/>
@@ -7795,7 +7829,7 @@
       <c r="Q43" s="4"/>
       <c r="R43" s="4"/>
     </row>
-    <row r="44" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="21"/>
@@ -7815,7 +7849,7 @@
       <c r="Q44" s="4"/>
       <c r="R44" s="4"/>
     </row>
-    <row r="45" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="22"/>
@@ -7835,7 +7869,7 @@
       <c r="Q45" s="4"/>
       <c r="R45" s="4"/>
     </row>
-    <row r="46" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="9"/>
@@ -7855,7 +7889,7 @@
       <c r="Q46" s="4"/>
       <c r="R46" s="4"/>
     </row>
-    <row r="47" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="9"/>
@@ -7875,7 +7909,7 @@
       <c r="Q47" s="4"/>
       <c r="R47" s="4"/>
     </row>
-    <row r="48" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="9"/>
@@ -7895,7 +7929,7 @@
       <c r="Q48" s="4"/>
       <c r="R48" s="4"/>
     </row>
-    <row r="49" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="9"/>
@@ -7915,7 +7949,7 @@
       <c r="Q49" s="4"/>
       <c r="R49" s="4"/>
     </row>
-    <row r="50" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A50" s="23"/>
       <c r="B50" s="23"/>
       <c r="C50" s="24"/>
@@ -7935,7 +7969,7 @@
       <c r="Q50" s="4"/>
       <c r="R50" s="4"/>
     </row>
-    <row r="51" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A51" s="14" t="s">
         <v>22</v>
       </c>
@@ -7960,7 +7994,7 @@
       <c r="Q51" s="4"/>
       <c r="R51" s="4"/>
     </row>
-    <row r="52" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A52" s="16"/>
       <c r="B52" s="16"/>
       <c r="C52" s="16"/>
@@ -7980,7 +8014,7 @@
       <c r="Q52" s="4"/>
       <c r="R52" s="4"/>
     </row>
-    <row r="53" spans="1:18" ht="18" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>0</v>
       </c>
@@ -8030,7 +8064,7 @@
       <c r="Q54" s="4"/>
       <c r="R54" s="4"/>
     </row>
-    <row r="55" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A55" s="19"/>
       <c r="B55" s="19"/>
       <c r="C55" s="20"/>
@@ -8050,7 +8084,7 @@
       <c r="Q55" s="4"/>
       <c r="R55" s="4"/>
     </row>
-    <row r="56" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A56" s="7"/>
       <c r="B56" s="7"/>
       <c r="C56" s="9"/>
@@ -8070,7 +8104,7 @@
       <c r="Q56" s="4"/>
       <c r="R56" s="4"/>
     </row>
-    <row r="57" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="7"/>
       <c r="B57" s="7"/>
       <c r="C57" s="9"/>
@@ -8090,7 +8124,7 @@
       <c r="Q57" s="4"/>
       <c r="R57" s="4"/>
     </row>
-    <row r="58" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="7"/>
       <c r="B58" s="7"/>
       <c r="C58" s="9"/>
@@ -8110,7 +8144,7 @@
       <c r="Q58" s="4"/>
       <c r="R58" s="4"/>
     </row>
-    <row r="59" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="7"/>
       <c r="B59" s="7"/>
       <c r="C59" s="9"/>
@@ -8130,7 +8164,7 @@
       <c r="Q59" s="4"/>
       <c r="R59" s="4"/>
     </row>
-    <row r="60" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="7"/>
       <c r="B60" s="7"/>
       <c r="C60" s="9"/>
@@ -8150,7 +8184,7 @@
       <c r="Q60" s="4"/>
       <c r="R60" s="4"/>
     </row>
-    <row r="61" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="25"/>
       <c r="B61" s="25"/>
       <c r="C61" s="26"/>
@@ -8170,7 +8204,7 @@
       <c r="Q61" s="4"/>
       <c r="R61" s="4"/>
     </row>
-    <row r="62" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="25"/>
       <c r="B62" s="25"/>
       <c r="C62" s="26"/>
@@ -8190,7 +8224,7 @@
       <c r="Q62" s="4"/>
       <c r="R62" s="4"/>
     </row>
-    <row r="63" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="25"/>
       <c r="B63" s="25"/>
       <c r="C63" s="26"/>
@@ -8210,7 +8244,7 @@
       <c r="Q63" s="4"/>
       <c r="R63" s="4"/>
     </row>
-    <row r="64" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="25"/>
       <c r="B64" s="25"/>
       <c r="C64" s="26"/>
@@ -8230,7 +8264,7 @@
       <c r="Q64" s="4"/>
       <c r="R64" s="4"/>
     </row>
-    <row r="65" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="23"/>
       <c r="B65" s="23"/>
       <c r="C65" s="24"/>
@@ -8250,7 +8284,7 @@
       <c r="Q65" s="4"/>
       <c r="R65" s="4"/>
     </row>
-    <row r="66" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="14" t="s">
         <v>22</v>
       </c>
@@ -8275,7 +8309,7 @@
       <c r="Q66" s="4"/>
       <c r="R66" s="4"/>
     </row>
-    <row r="67" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="16"/>
       <c r="B67" s="16"/>
       <c r="C67" s="16"/>
@@ -8295,7 +8329,7 @@
       <c r="Q67" s="4"/>
       <c r="R67" s="4"/>
     </row>
-    <row r="68" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>0</v>
       </c>
@@ -8319,7 +8353,7 @@
       <c r="Q68" s="4"/>
       <c r="R68" s="4"/>
     </row>
-    <row r="69" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="5" t="s">
         <v>2</v>
       </c>
@@ -8345,7 +8379,7 @@
       <c r="Q69" s="4"/>
       <c r="R69" s="4"/>
     </row>
-    <row r="70" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="19"/>
       <c r="B70" s="19"/>
       <c r="C70" s="20"/>
@@ -8365,7 +8399,7 @@
       <c r="Q70" s="4"/>
       <c r="R70" s="4"/>
     </row>
-    <row r="71" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="7"/>
       <c r="B71" s="7"/>
       <c r="C71" s="9"/>
@@ -8385,7 +8419,7 @@
       <c r="Q71" s="4"/>
       <c r="R71" s="4"/>
     </row>
-    <row r="72" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A72" s="7"/>
       <c r="B72" s="7"/>
       <c r="C72" s="9"/>
@@ -8405,7 +8439,7 @@
       <c r="Q72" s="4"/>
       <c r="R72" s="4"/>
     </row>
-    <row r="73" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A73" s="7"/>
       <c r="B73" s="7"/>
       <c r="C73" s="9"/>
@@ -8425,7 +8459,7 @@
       <c r="Q73" s="4"/>
       <c r="R73" s="4"/>
     </row>
-    <row r="74" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A74" s="7"/>
       <c r="B74" s="7"/>
       <c r="C74" s="9"/>
@@ -8445,7 +8479,7 @@
       <c r="Q74" s="4"/>
       <c r="R74" s="4"/>
     </row>
-    <row r="75" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A75" s="23"/>
       <c r="B75" s="23"/>
       <c r="C75" s="24"/>
@@ -8465,7 +8499,7 @@
       <c r="Q75" s="4"/>
       <c r="R75" s="4"/>
     </row>
-    <row r="76" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A76" s="14" t="s">
         <v>22</v>
       </c>
@@ -8490,7 +8524,7 @@
       <c r="Q76" s="4"/>
       <c r="R76" s="4"/>
     </row>
-    <row r="77" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A77" s="16"/>
       <c r="B77" s="16"/>
       <c r="C77" s="16"/>
@@ -8510,7 +8544,7 @@
       <c r="Q77" s="4"/>
       <c r="R77" s="4"/>
     </row>
-    <row r="78" spans="1:18" ht="18" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>0</v>
       </c>
@@ -8560,7 +8594,7 @@
       <c r="Q79" s="4"/>
       <c r="R79" s="4"/>
     </row>
-    <row r="80" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A80" s="19"/>
       <c r="B80" s="19"/>
       <c r="C80" s="20"/>
@@ -8580,7 +8614,7 @@
       <c r="Q80" s="4"/>
       <c r="R80" s="4"/>
     </row>
-    <row r="81" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A81" s="7"/>
       <c r="B81" s="7"/>
       <c r="C81" s="9"/>
@@ -8600,7 +8634,7 @@
       <c r="Q81" s="4"/>
       <c r="R81" s="4"/>
     </row>
-    <row r="82" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A82" s="7"/>
       <c r="B82" s="7"/>
       <c r="C82" s="9"/>
@@ -8620,7 +8654,7 @@
       <c r="Q82" s="4"/>
       <c r="R82" s="4"/>
     </row>
-    <row r="83" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A83" s="7"/>
       <c r="B83" s="7"/>
       <c r="C83" s="9"/>
@@ -8640,7 +8674,7 @@
       <c r="Q83" s="4"/>
       <c r="R83" s="4"/>
     </row>
-    <row r="84" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A84" s="7"/>
       <c r="B84" s="7"/>
       <c r="C84" s="9"/>
@@ -8660,7 +8694,7 @@
       <c r="Q84" s="4"/>
       <c r="R84" s="4"/>
     </row>
-    <row r="85" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A85" s="7"/>
       <c r="B85" s="7"/>
       <c r="C85" s="9"/>
@@ -8680,7 +8714,7 @@
       <c r="Q85" s="4"/>
       <c r="R85" s="4"/>
     </row>
-    <row r="86" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A86" s="7"/>
       <c r="B86" s="7"/>
       <c r="C86" s="9"/>
@@ -8700,7 +8734,7 @@
       <c r="Q86" s="4"/>
       <c r="R86" s="4"/>
     </row>
-    <row r="87" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A87" s="23"/>
       <c r="B87" s="23"/>
       <c r="C87" s="24"/>
@@ -8720,7 +8754,7 @@
       <c r="Q87" s="4"/>
       <c r="R87" s="4"/>
     </row>
-    <row r="88" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A88" s="14" t="s">
         <v>22</v>
       </c>
@@ -8745,7 +8779,7 @@
       <c r="Q88" s="4"/>
       <c r="R88" s="4"/>
     </row>
-    <row r="89" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A89" s="16"/>
       <c r="B89" s="16"/>
       <c r="C89" s="16"/>
@@ -8765,7 +8799,7 @@
       <c r="Q89" s="4"/>
       <c r="R89" s="4"/>
     </row>
-    <row r="90" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A90" s="27"/>
       <c r="B90" s="27"/>
       <c r="C90" s="27"/>
@@ -8785,7 +8819,7 @@
       <c r="Q90" s="4"/>
       <c r="R90" s="4"/>
     </row>
-    <row r="91" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A91" s="27"/>
       <c r="B91" s="27"/>
       <c r="C91" s="27"/>
@@ -8805,7 +8839,7 @@
       <c r="Q91" s="4"/>
       <c r="R91" s="4"/>
     </row>
-    <row r="92" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A92" s="27"/>
       <c r="B92" s="27"/>
       <c r="C92" s="27"/>
@@ -8825,7 +8859,7 @@
       <c r="Q92" s="4"/>
       <c r="R92" s="4"/>
     </row>
-    <row r="93" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A93" s="27"/>
       <c r="B93" s="27"/>
       <c r="C93" s="27"/>
@@ -8845,7 +8879,7 @@
       <c r="Q93" s="4"/>
       <c r="R93" s="4"/>
     </row>
-    <row r="94" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A94" s="27"/>
       <c r="B94" s="27"/>
       <c r="C94" s="27"/>
@@ -8865,7 +8899,7 @@
       <c r="Q94" s="4"/>
       <c r="R94" s="4"/>
     </row>
-    <row r="95" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A95" s="27"/>
       <c r="B95" s="27"/>
       <c r="C95" s="27"/>
@@ -8885,7 +8919,7 @@
       <c r="Q95" s="4"/>
       <c r="R95" s="4"/>
     </row>
-    <row r="96" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A96" s="27"/>
       <c r="B96" s="27"/>
       <c r="C96" s="27"/>
@@ -8905,7 +8939,7 @@
       <c r="Q96" s="4"/>
       <c r="R96" s="4"/>
     </row>
-    <row r="97" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A97" s="27"/>
       <c r="B97" s="27"/>
       <c r="C97" s="27"/>
@@ -8925,7 +8959,7 @@
       <c r="Q97" s="4"/>
       <c r="R97" s="4"/>
     </row>
-    <row r="98" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A98" s="27"/>
       <c r="B98" s="27"/>
       <c r="C98" s="27"/>
@@ -8945,7 +8979,7 @@
       <c r="Q98" s="4"/>
       <c r="R98" s="4"/>
     </row>
-    <row r="99" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A99" s="27"/>
       <c r="B99" s="27"/>
       <c r="C99" s="27"/>
@@ -8965,7 +8999,7 @@
       <c r="Q99" s="4"/>
       <c r="R99" s="4"/>
     </row>
-    <row r="100" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A100" s="27"/>
       <c r="B100" s="27"/>
       <c r="C100" s="27"/>
@@ -8985,7 +9019,7 @@
       <c r="Q100" s="4"/>
       <c r="R100" s="4"/>
     </row>
-    <row r="101" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A101" s="28"/>
       <c r="B101" s="28"/>
       <c r="C101" s="28"/>
@@ -9027,14 +9061,14 @@
       <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="78.42578125" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="78.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9060,7 +9094,7 @@
       <c r="Q1" s="4"/>
       <c r="R1" s="4"/>
     </row>
-    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -9088,7 +9122,7 @@
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
     </row>
-    <row r="3" spans="1:18" ht="94.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
@@ -9116,7 +9150,7 @@
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
     </row>
-    <row r="4" spans="1:18" ht="54" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
@@ -9144,7 +9178,7 @@
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
     </row>
-    <row r="5" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="66" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
@@ -9172,7 +9206,7 @@
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
     </row>
-    <row r="6" spans="1:18" ht="81" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
         <v>12</v>
       </c>
@@ -9200,7 +9234,7 @@
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
     </row>
-    <row r="7" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="66" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>14</v>
       </c>
@@ -9228,7 +9262,7 @@
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
     </row>
-    <row r="8" spans="1:18" ht="108" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
         <v>16</v>
       </c>
@@ -9256,7 +9290,7 @@
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
     </row>
-    <row r="9" spans="1:18" ht="94.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
         <v>18</v>
       </c>
@@ -9284,7 +9318,7 @@
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
     </row>
-    <row r="10" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" ht="66" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
@@ -9312,7 +9346,7 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
     </row>
-    <row r="11" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>28</v>
       </c>
@@ -9338,7 +9372,7 @@
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
     </row>
-    <row r="12" spans="1:18" ht="94.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A12" s="33" t="s">
         <v>29</v>
       </c>
@@ -9364,7 +9398,7 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
     </row>
-    <row r="13" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="33" t="s">
         <v>32</v>
       </c>
@@ -9390,7 +9424,7 @@
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
     </row>
-    <row r="14" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="14" t="s">
         <v>22</v>
       </c>
@@ -9415,7 +9449,7 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
     </row>
-    <row r="15" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="16"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
@@ -9435,7 +9469,7 @@
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
     </row>
-    <row r="16" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -9459,7 +9493,7 @@
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
     </row>
-    <row r="17" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>2</v>
       </c>
@@ -9485,7 +9519,7 @@
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
     </row>
-    <row r="18" spans="1:18" ht="54" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A18" s="29" t="s">
         <v>36</v>
       </c>
@@ -9513,7 +9547,7 @@
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
     </row>
-    <row r="19" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>40</v>
       </c>
@@ -9541,7 +9575,7 @@
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
     </row>
-    <row r="20" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>54</v>
       </c>
@@ -9569,7 +9603,7 @@
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
     </row>
-    <row r="21" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>56</v>
       </c>
@@ -9597,7 +9631,7 @@
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
     </row>
-    <row r="22" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>58</v>
       </c>
@@ -9625,7 +9659,7 @@
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
     </row>
-    <row r="23" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>54</v>
       </c>
@@ -9653,7 +9687,7 @@
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
     </row>
-    <row r="24" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>60</v>
       </c>
@@ -9681,7 +9715,7 @@
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
     </row>
-    <row r="25" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>86</v>
       </c>
@@ -9709,7 +9743,7 @@
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
     </row>
-    <row r="26" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" ht="66" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>76</v>
       </c>
@@ -9737,7 +9771,7 @@
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
     </row>
-    <row r="27" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>76</v>
       </c>
@@ -9765,7 +9799,7 @@
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
     </row>
-    <row r="28" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>76</v>
       </c>
@@ -9793,7 +9827,7 @@
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
     </row>
-    <row r="29" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>76</v>
       </c>
@@ -9821,7 +9855,7 @@
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
     </row>
-    <row r="30" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>76</v>
       </c>
@@ -9849,7 +9883,7 @@
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
     </row>
-    <row r="31" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="9"/>
@@ -9869,7 +9903,7 @@
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
     </row>
-    <row r="32" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="9"/>
@@ -9889,7 +9923,7 @@
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
     </row>
-    <row r="33" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="9"/>
@@ -9909,7 +9943,7 @@
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
     </row>
-    <row r="34" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="14" t="s">
         <v>22</v>
       </c>
@@ -9934,7 +9968,7 @@
       <c r="Q34" s="4"/>
       <c r="R34" s="4"/>
     </row>
-    <row r="35" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="16"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -9954,7 +9988,7 @@
       <c r="Q35" s="4"/>
       <c r="R35" s="4"/>
     </row>
-    <row r="36" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>0</v>
       </c>
@@ -9978,7 +10012,7 @@
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
     </row>
-    <row r="37" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
         <v>2</v>
       </c>
@@ -10004,7 +10038,7 @@
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
     </row>
-    <row r="38" spans="1:18" ht="54" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
         <v>40</v>
       </c>
@@ -10032,7 +10066,7 @@
       <c r="Q38" s="4"/>
       <c r="R38" s="4"/>
     </row>
-    <row r="39" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>160</v>
       </c>
@@ -10060,7 +10094,7 @@
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
     </row>
-    <row r="40" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
         <v>160</v>
       </c>
@@ -10088,7 +10122,7 @@
       <c r="Q40" s="4"/>
       <c r="R40" s="4"/>
     </row>
-    <row r="41" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
         <v>160</v>
       </c>
@@ -10116,7 +10150,7 @@
       <c r="Q41" s="4"/>
       <c r="R41" s="4"/>
     </row>
-    <row r="42" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
         <v>160</v>
       </c>
@@ -10144,7 +10178,7 @@
       <c r="Q42" s="4"/>
       <c r="R42" s="4"/>
     </row>
-    <row r="43" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
         <v>160</v>
       </c>
@@ -10172,7 +10206,7 @@
       <c r="Q43" s="4"/>
       <c r="R43" s="4"/>
     </row>
-    <row r="44" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="9"/>
@@ -10192,7 +10226,7 @@
       <c r="Q44" s="4"/>
       <c r="R44" s="4"/>
     </row>
-    <row r="45" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="23"/>
       <c r="B45" s="23"/>
       <c r="C45" s="24"/>
@@ -10212,7 +10246,7 @@
       <c r="Q45" s="4"/>
       <c r="R45" s="4"/>
     </row>
-    <row r="46" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="14" t="s">
         <v>22</v>
       </c>
@@ -10237,7 +10271,7 @@
       <c r="Q46" s="4"/>
       <c r="R46" s="4"/>
     </row>
-    <row r="47" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="16"/>
       <c r="B47" s="16"/>
       <c r="C47" s="16"/>
@@ -10257,7 +10291,7 @@
       <c r="Q47" s="4"/>
       <c r="R47" s="4"/>
     </row>
-    <row r="48" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>0</v>
       </c>
@@ -10281,7 +10315,7 @@
       <c r="Q48" s="4"/>
       <c r="R48" s="4"/>
     </row>
-    <row r="49" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
         <v>2</v>
       </c>
@@ -10307,7 +10341,7 @@
       <c r="Q49" s="4"/>
       <c r="R49" s="4"/>
     </row>
-    <row r="50" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A50" s="19"/>
       <c r="B50" s="19"/>
       <c r="C50" s="20"/>
@@ -10327,7 +10361,7 @@
       <c r="Q50" s="4"/>
       <c r="R50" s="4"/>
     </row>
-    <row r="51" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A51" s="7"/>
       <c r="B51" s="7"/>
       <c r="C51" s="9"/>
@@ -10347,7 +10381,7 @@
       <c r="Q51" s="4"/>
       <c r="R51" s="4"/>
     </row>
-    <row r="52" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A52" s="7"/>
       <c r="B52" s="7"/>
       <c r="C52" s="9"/>
@@ -10367,7 +10401,7 @@
       <c r="Q52" s="4"/>
       <c r="R52" s="4"/>
     </row>
-    <row r="53" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A53" s="7"/>
       <c r="B53" s="7"/>
       <c r="C53" s="9"/>
@@ -10387,7 +10421,7 @@
       <c r="Q53" s="4"/>
       <c r="R53" s="4"/>
     </row>
-    <row r="54" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A54" s="7"/>
       <c r="B54" s="7"/>
       <c r="C54" s="9"/>
@@ -10407,7 +10441,7 @@
       <c r="Q54" s="4"/>
       <c r="R54" s="4"/>
     </row>
-    <row r="55" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A55" s="7"/>
       <c r="B55" s="7"/>
       <c r="C55" s="9"/>
@@ -10427,7 +10461,7 @@
       <c r="Q55" s="4"/>
       <c r="R55" s="4"/>
     </row>
-    <row r="56" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A56" s="25"/>
       <c r="B56" s="25"/>
       <c r="C56" s="26"/>
@@ -10447,7 +10481,7 @@
       <c r="Q56" s="4"/>
       <c r="R56" s="4"/>
     </row>
-    <row r="57" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A57" s="25"/>
       <c r="B57" s="25"/>
       <c r="C57" s="26"/>
@@ -10467,7 +10501,7 @@
       <c r="Q57" s="4"/>
       <c r="R57" s="4"/>
     </row>
-    <row r="58" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A58" s="25"/>
       <c r="B58" s="25"/>
       <c r="C58" s="26"/>
@@ -10487,7 +10521,7 @@
       <c r="Q58" s="4"/>
       <c r="R58" s="4"/>
     </row>
-    <row r="59" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A59" s="25"/>
       <c r="B59" s="25"/>
       <c r="C59" s="26"/>
@@ -10507,7 +10541,7 @@
       <c r="Q59" s="4"/>
       <c r="R59" s="4"/>
     </row>
-    <row r="60" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="23"/>
       <c r="B60" s="23"/>
       <c r="C60" s="24"/>
@@ -10527,7 +10561,7 @@
       <c r="Q60" s="4"/>
       <c r="R60" s="4"/>
     </row>
-    <row r="61" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="14" t="s">
         <v>22</v>
       </c>
@@ -10552,7 +10586,7 @@
       <c r="Q61" s="4"/>
       <c r="R61" s="4"/>
     </row>
-    <row r="62" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="16"/>
       <c r="B62" s="16"/>
       <c r="C62" s="16"/>
@@ -10572,7 +10606,7 @@
       <c r="Q62" s="4"/>
       <c r="R62" s="4"/>
     </row>
-    <row r="63" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>0</v>
       </c>
@@ -10596,7 +10630,7 @@
       <c r="Q63" s="4"/>
       <c r="R63" s="4"/>
     </row>
-    <row r="64" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="5" t="s">
         <v>2</v>
       </c>
@@ -10622,7 +10656,7 @@
       <c r="Q64" s="4"/>
       <c r="R64" s="4"/>
     </row>
-    <row r="65" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A65" s="19"/>
       <c r="B65" s="19"/>
       <c r="C65" s="20"/>
@@ -10642,7 +10676,7 @@
       <c r="Q65" s="4"/>
       <c r="R65" s="4"/>
     </row>
-    <row r="66" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A66" s="7"/>
       <c r="B66" s="7"/>
       <c r="C66" s="9"/>
@@ -10662,7 +10696,7 @@
       <c r="Q66" s="4"/>
       <c r="R66" s="4"/>
     </row>
-    <row r="67" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A67" s="7"/>
       <c r="B67" s="7"/>
       <c r="C67" s="9"/>
@@ -10682,7 +10716,7 @@
       <c r="Q67" s="4"/>
       <c r="R67" s="4"/>
     </row>
-    <row r="68" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A68" s="7"/>
       <c r="B68" s="7"/>
       <c r="C68" s="9"/>
@@ -10702,7 +10736,7 @@
       <c r="Q68" s="4"/>
       <c r="R68" s="4"/>
     </row>
-    <row r="69" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A69" s="7"/>
       <c r="B69" s="7"/>
       <c r="C69" s="9"/>
@@ -10722,7 +10756,7 @@
       <c r="Q69" s="4"/>
       <c r="R69" s="4"/>
     </row>
-    <row r="70" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="23"/>
       <c r="B70" s="23"/>
       <c r="C70" s="24"/>
@@ -10742,7 +10776,7 @@
       <c r="Q70" s="4"/>
       <c r="R70" s="4"/>
     </row>
-    <row r="71" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="14" t="s">
         <v>22</v>
       </c>
@@ -10767,7 +10801,7 @@
       <c r="Q71" s="4"/>
       <c r="R71" s="4"/>
     </row>
-    <row r="72" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="16"/>
       <c r="B72" s="16"/>
       <c r="C72" s="16"/>
@@ -10787,7 +10821,7 @@
       <c r="Q72" s="4"/>
       <c r="R72" s="4"/>
     </row>
-    <row r="73" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>0</v>
       </c>
@@ -10811,7 +10845,7 @@
       <c r="Q73" s="4"/>
       <c r="R73" s="4"/>
     </row>
-    <row r="74" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="5" t="s">
         <v>2</v>
       </c>
@@ -10837,7 +10871,7 @@
       <c r="Q74" s="4"/>
       <c r="R74" s="4"/>
     </row>
-    <row r="75" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A75" s="19"/>
       <c r="B75" s="19"/>
       <c r="C75" s="20"/>
@@ -10857,7 +10891,7 @@
       <c r="Q75" s="4"/>
       <c r="R75" s="4"/>
     </row>
-    <row r="76" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A76" s="7"/>
       <c r="B76" s="7"/>
       <c r="C76" s="9"/>
@@ -10877,7 +10911,7 @@
       <c r="Q76" s="4"/>
       <c r="R76" s="4"/>
     </row>
-    <row r="77" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A77" s="7"/>
       <c r="B77" s="7"/>
       <c r="C77" s="9"/>
@@ -10897,7 +10931,7 @@
       <c r="Q77" s="4"/>
       <c r="R77" s="4"/>
     </row>
-    <row r="78" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A78" s="7"/>
       <c r="B78" s="7"/>
       <c r="C78" s="9"/>
@@ -10917,7 +10951,7 @@
       <c r="Q78" s="4"/>
       <c r="R78" s="4"/>
     </row>
-    <row r="79" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A79" s="7"/>
       <c r="B79" s="7"/>
       <c r="C79" s="9"/>
@@ -10937,7 +10971,7 @@
       <c r="Q79" s="4"/>
       <c r="R79" s="4"/>
     </row>
-    <row r="80" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A80" s="7"/>
       <c r="B80" s="7"/>
       <c r="C80" s="9"/>
@@ -10957,7 +10991,7 @@
       <c r="Q80" s="4"/>
       <c r="R80" s="4"/>
     </row>
-    <row r="81" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A81" s="7"/>
       <c r="B81" s="7"/>
       <c r="C81" s="9"/>
@@ -10977,7 +11011,7 @@
       <c r="Q81" s="4"/>
       <c r="R81" s="4"/>
     </row>
-    <row r="82" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="23"/>
       <c r="B82" s="23"/>
       <c r="C82" s="24"/>
@@ -10997,7 +11031,7 @@
       <c r="Q82" s="4"/>
       <c r="R82" s="4"/>
     </row>
-    <row r="83" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="14" t="s">
         <v>22</v>
       </c>
@@ -11022,7 +11056,7 @@
       <c r="Q83" s="4"/>
       <c r="R83" s="4"/>
     </row>
-    <row r="84" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A84" s="16"/>
       <c r="B84" s="16"/>
       <c r="C84" s="16"/>
@@ -11042,7 +11076,7 @@
       <c r="Q84" s="4"/>
       <c r="R84" s="4"/>
     </row>
-    <row r="85" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A85" s="27"/>
       <c r="B85" s="27"/>
       <c r="C85" s="27"/>
@@ -11062,7 +11096,7 @@
       <c r="Q85" s="4"/>
       <c r="R85" s="4"/>
     </row>
-    <row r="86" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A86" s="27"/>
       <c r="B86" s="27"/>
       <c r="C86" s="27"/>
@@ -11082,7 +11116,7 @@
       <c r="Q86" s="4"/>
       <c r="R86" s="4"/>
     </row>
-    <row r="87" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A87" s="27"/>
       <c r="B87" s="27"/>
       <c r="C87" s="27"/>
@@ -11102,7 +11136,7 @@
       <c r="Q87" s="4"/>
       <c r="R87" s="4"/>
     </row>
-    <row r="88" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A88" s="27"/>
       <c r="B88" s="27"/>
       <c r="C88" s="27"/>
@@ -11122,7 +11156,7 @@
       <c r="Q88" s="4"/>
       <c r="R88" s="4"/>
     </row>
-    <row r="89" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A89" s="27"/>
       <c r="B89" s="27"/>
       <c r="C89" s="27"/>
@@ -11142,7 +11176,7 @@
       <c r="Q89" s="4"/>
       <c r="R89" s="4"/>
     </row>
-    <row r="90" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A90" s="27"/>
       <c r="B90" s="27"/>
       <c r="C90" s="27"/>
@@ -11162,7 +11196,7 @@
       <c r="Q90" s="4"/>
       <c r="R90" s="4"/>
     </row>
-    <row r="91" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A91" s="27"/>
       <c r="B91" s="27"/>
       <c r="C91" s="27"/>
@@ -11182,7 +11216,7 @@
       <c r="Q91" s="4"/>
       <c r="R91" s="4"/>
     </row>
-    <row r="92" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A92" s="27"/>
       <c r="B92" s="27"/>
       <c r="C92" s="27"/>
@@ -11202,7 +11236,7 @@
       <c r="Q92" s="4"/>
       <c r="R92" s="4"/>
     </row>
-    <row r="93" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A93" s="27"/>
       <c r="B93" s="27"/>
       <c r="C93" s="27"/>
@@ -11222,7 +11256,7 @@
       <c r="Q93" s="4"/>
       <c r="R93" s="4"/>
     </row>
-    <row r="94" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A94" s="27"/>
       <c r="B94" s="27"/>
       <c r="C94" s="27"/>
@@ -11242,7 +11276,7 @@
       <c r="Q94" s="4"/>
       <c r="R94" s="4"/>
     </row>
-    <row r="95" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A95" s="27"/>
       <c r="B95" s="27"/>
       <c r="C95" s="27"/>
@@ -11262,7 +11296,7 @@
       <c r="Q95" s="4"/>
       <c r="R95" s="4"/>
     </row>
-    <row r="96" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A96" s="28"/>
       <c r="B96" s="28"/>
       <c r="C96" s="28"/>

--- a/LM_Journal_Travail_V1.0.xlsx
+++ b/LM_Journal_Travail_V1.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\Love-Mirroring\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programmes\VS2019\Projets\Projet Gerber\Love-Mirroring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85764B50-88CF-4BD6-8E8F-E8BC70D7DE1F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1338F63-D9E1-4BC9-AC51-E51FFC33751F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4500" yWindow="2115" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Equipe" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <definedName name="NBLecons">#REF!</definedName>
     <definedName name="TachesPlanifiees">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="187">
   <si>
     <t>Jalon</t>
   </si>
@@ -633,6 +633,16 @@
   </si>
   <si>
     <t>Création d'un controlleur pour chercher des titres en fonction de leur titre. Je dois trouver un autre moyen de chercher des musiques et je dois réfléchir à la manière de l'implémenter dans l'application. Je peux récupérer facilement des pistes si je mets des mots-clés. J'ai aussi changer un peu la structure du projet MVC pour regrouper les liens sur la gestion du compte de l'utilisateur. Je vais continuer mon développement sur Spotify et entrer en phase de test pour mon développement.</t>
+  </si>
+  <si>
+    <t>06.05.202</t>
+  </si>
+  <si>
+    <t>Amélioration des tâches précèdentes (Gestion des exceptions)
+Gestion des rôles commencé
+Afficher rôles Ok
+Créer rôle Ok
+Ajouter rôle a un utilisateur en attente</t>
   </si>
 </sst>
 </file>
@@ -1291,16 +1301,16 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="6.109375" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" customWidth="1"/>
-    <col min="4" max="4" width="78.44140625" customWidth="1"/>
-    <col min="5" max="6" width="14.44140625" customWidth="1"/>
+    <col min="2" max="2" width="6.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="78.42578125" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1326,7 +1336,7 @@
       <c r="Q1" s="4"/>
       <c r="R1" s="4"/>
     </row>
-    <row r="2" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -1354,7 +1364,7 @@
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
     </row>
-    <row r="3" spans="1:18" ht="92.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="94.5" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
@@ -1382,7 +1392,7 @@
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
     </row>
-    <row r="4" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="54" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
@@ -1410,7 +1420,7 @@
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
     </row>
-    <row r="5" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="54" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
@@ -1438,7 +1448,7 @@
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
     </row>
-    <row r="6" spans="1:18" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="81" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
         <v>12</v>
       </c>
@@ -1466,7 +1476,7 @@
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
     </row>
-    <row r="7" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="54" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>14</v>
       </c>
@@ -1494,7 +1504,7 @@
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
     </row>
-    <row r="8" spans="1:18" ht="92.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="94.5" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
         <v>16</v>
       </c>
@@ -1522,7 +1532,7 @@
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
     </row>
-    <row r="9" spans="1:18" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" ht="81" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
         <v>18</v>
       </c>
@@ -1550,7 +1560,7 @@
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
     </row>
-    <row r="10" spans="1:18" ht="66" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
@@ -1578,7 +1588,7 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
     </row>
-    <row r="11" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="8"/>
@@ -1598,7 +1608,7 @@
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
     </row>
-    <row r="12" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="14" t="s">
         <v>22</v>
       </c>
@@ -1623,7 +1633,7 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
     </row>
-    <row r="13" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="16"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
@@ -1643,7 +1653,7 @@
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
     </row>
-    <row r="14" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -1667,7 +1677,7 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
     </row>
-    <row r="15" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>2</v>
       </c>
@@ -1693,7 +1703,7 @@
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
     </row>
-    <row r="16" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" ht="27" x14ac:dyDescent="0.3">
       <c r="A16" s="37" t="s">
         <v>95</v>
       </c>
@@ -1721,7 +1731,7 @@
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
     </row>
-    <row r="17" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" ht="27" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>99</v>
       </c>
@@ -1749,7 +1759,7 @@
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
     </row>
-    <row r="18" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="9"/>
@@ -1769,7 +1779,7 @@
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
     </row>
-    <row r="19" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="9"/>
@@ -1789,7 +1799,7 @@
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
     </row>
-    <row r="20" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="9"/>
@@ -4279,18 +4289,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DB7A04D-A66F-4A89-83F1-9B353075A776}">
   <dimension ref="A1:R101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5546875" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="78.44140625" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="78.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4316,7 +4326,7 @@
       <c r="Q1" s="4"/>
       <c r="R1" s="4"/>
     </row>
-    <row r="2" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -4344,7 +4354,7 @@
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
     </row>
-    <row r="3" spans="1:18" ht="92.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="94.5" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
@@ -4372,7 +4382,7 @@
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
     </row>
-    <row r="4" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="54" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
@@ -4400,7 +4410,7 @@
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
     </row>
-    <row r="5" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="54" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
@@ -4428,7 +4438,7 @@
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
     </row>
-    <row r="6" spans="1:18" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="81" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
         <v>12</v>
       </c>
@@ -4456,7 +4466,7 @@
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
     </row>
-    <row r="7" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="54" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>14</v>
       </c>
@@ -4484,7 +4494,7 @@
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
     </row>
-    <row r="8" spans="1:18" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="81" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
         <v>16</v>
       </c>
@@ -4512,7 +4522,7 @@
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
     </row>
-    <row r="9" spans="1:18" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" ht="81" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
         <v>18</v>
       </c>
@@ -4540,7 +4550,7 @@
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
     </row>
-    <row r="10" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
@@ -4568,7 +4578,7 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
     </row>
-    <row r="11" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>34</v>
       </c>
@@ -4596,7 +4606,7 @@
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
     </row>
-    <row r="12" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="14" t="s">
         <v>22</v>
       </c>
@@ -4621,7 +4631,7 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
     </row>
-    <row r="13" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="16"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
@@ -4641,7 +4651,7 @@
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
     </row>
-    <row r="14" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -4665,7 +4675,7 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
     </row>
-    <row r="15" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>2</v>
       </c>
@@ -4691,7 +4701,7 @@
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
     </row>
-    <row r="16" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
         <v>36</v>
       </c>
@@ -4719,7 +4729,7 @@
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
     </row>
-    <row r="17" spans="1:18" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" ht="81" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>38</v>
       </c>
@@ -4747,7 +4757,7 @@
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
     </row>
-    <row r="18" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>42</v>
       </c>
@@ -4775,7 +4785,7 @@
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
     </row>
-    <row r="19" spans="1:18" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" ht="81" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>44</v>
       </c>
@@ -4803,7 +4813,7 @@
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
     </row>
-    <row r="20" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>46</v>
       </c>
@@ -4831,7 +4841,7 @@
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
     </row>
-    <row r="21" spans="1:18" ht="66" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>48</v>
       </c>
@@ -4859,7 +4869,7 @@
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
     </row>
-    <row r="22" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" ht="27" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>50</v>
       </c>
@@ -4887,7 +4897,7 @@
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
     </row>
-    <row r="23" spans="1:18" ht="118.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" ht="121.5" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>73</v>
       </c>
@@ -4915,7 +4925,7 @@
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
     </row>
-    <row r="24" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" ht="54" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>52</v>
       </c>
@@ -4943,7 +4953,7 @@
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
     </row>
-    <row r="25" spans="1:18" ht="66" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>62</v>
       </c>
@@ -4971,7 +4981,7 @@
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
     </row>
-    <row r="26" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" ht="54" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>63</v>
       </c>
@@ -4999,7 +5009,7 @@
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
     </row>
-    <row r="27" spans="1:18" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" ht="81" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>65</v>
       </c>
@@ -5027,7 +5037,7 @@
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
     </row>
-    <row r="28" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>69</v>
       </c>
@@ -5055,7 +5065,7 @@
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
     </row>
-    <row r="29" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>71</v>
       </c>
@@ -5083,7 +5093,7 @@
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
     </row>
-    <row r="30" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>88</v>
       </c>
@@ -5111,7 +5121,7 @@
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
     </row>
-    <row r="31" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" ht="54" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>90</v>
       </c>
@@ -5139,7 +5149,7 @@
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
     </row>
-    <row r="32" spans="1:18" ht="66" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" ht="54" x14ac:dyDescent="0.3">
       <c r="A32" s="38" t="s">
         <v>97</v>
       </c>
@@ -5167,7 +5177,7 @@
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
     </row>
-    <row r="33" spans="1:18" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:18" ht="54.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="38" t="s">
         <v>142</v>
       </c>
@@ -5195,7 +5205,7 @@
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
     </row>
-    <row r="34" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="14" t="s">
         <v>22</v>
       </c>
@@ -5220,7 +5230,7 @@
       <c r="Q34" s="4"/>
       <c r="R34" s="4"/>
     </row>
-    <row r="35" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="16"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -5240,7 +5250,7 @@
       <c r="Q35" s="4"/>
       <c r="R35" s="4"/>
     </row>
-    <row r="36" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>0</v>
       </c>
@@ -5264,7 +5274,7 @@
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
     </row>
-    <row r="37" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
         <v>2</v>
       </c>
@@ -5290,7 +5300,7 @@
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
     </row>
-    <row r="38" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18" ht="54" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
         <v>148</v>
       </c>
@@ -5318,7 +5328,7 @@
       <c r="Q38" s="4"/>
       <c r="R38" s="4"/>
     </row>
-    <row r="39" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" ht="27" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>150</v>
       </c>
@@ -5346,7 +5356,7 @@
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
     </row>
-    <row r="40" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
         <v>152</v>
       </c>
@@ -5374,7 +5384,7 @@
       <c r="Q40" s="4"/>
       <c r="R40" s="4"/>
     </row>
-    <row r="41" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" ht="54" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
         <v>154</v>
       </c>
@@ -5402,7 +5412,7 @@
       <c r="Q41" s="4"/>
       <c r="R41" s="4"/>
     </row>
-    <row r="42" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" ht="27" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
         <v>156</v>
       </c>
@@ -5430,7 +5440,7 @@
       <c r="Q42" s="4"/>
       <c r="R42" s="4"/>
     </row>
-    <row r="43" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18" ht="27" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
         <v>158</v>
       </c>
@@ -5458,7 +5468,7 @@
       <c r="Q43" s="4"/>
       <c r="R43" s="4"/>
     </row>
-    <row r="44" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
         <v>165</v>
       </c>
@@ -5486,7 +5496,7 @@
       <c r="Q44" s="4"/>
       <c r="R44" s="4"/>
     </row>
-    <row r="45" spans="1:18" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:18" ht="81.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="23" t="s">
         <v>167</v>
       </c>
@@ -5514,7 +5524,7 @@
       <c r="Q45" s="4"/>
       <c r="R45" s="4"/>
     </row>
-    <row r="46" spans="1:18" ht="106.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:18" ht="108.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="23" t="s">
         <v>169</v>
       </c>
@@ -5542,7 +5552,7 @@
       <c r="Q46" s="4"/>
       <c r="R46" s="4"/>
     </row>
-    <row r="47" spans="1:18" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:18" ht="41.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="42" t="s">
         <v>171</v>
       </c>
@@ -5570,7 +5580,7 @@
       <c r="Q47" s="4"/>
       <c r="R47" s="4"/>
     </row>
-    <row r="48" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="42" t="s">
         <v>173</v>
       </c>
@@ -5598,7 +5608,7 @@
       <c r="Q48" s="4"/>
       <c r="R48" s="4"/>
     </row>
-    <row r="49" spans="1:18" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:18" ht="41.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="42" t="s">
         <v>181</v>
       </c>
@@ -5626,7 +5636,7 @@
       <c r="Q49" s="4"/>
       <c r="R49" s="4"/>
     </row>
-    <row r="50" spans="1:18" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:18" ht="81.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="42" t="s">
         <v>183</v>
       </c>
@@ -5654,7 +5664,7 @@
       <c r="Q50" s="4"/>
       <c r="R50" s="4"/>
     </row>
-    <row r="51" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="14" t="s">
         <v>22</v>
       </c>
@@ -5679,7 +5689,7 @@
       <c r="Q51" s="4"/>
       <c r="R51" s="4"/>
     </row>
-    <row r="52" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="16"/>
       <c r="B52" s="16"/>
       <c r="C52" s="16"/>
@@ -5699,7 +5709,7 @@
       <c r="Q52" s="4"/>
       <c r="R52" s="4"/>
     </row>
-    <row r="53" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>0</v>
       </c>
@@ -5723,7 +5733,7 @@
       <c r="Q53" s="4"/>
       <c r="R53" s="4"/>
     </row>
-    <row r="54" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="5" t="s">
         <v>2</v>
       </c>
@@ -5749,7 +5759,7 @@
       <c r="Q54" s="4"/>
       <c r="R54" s="4"/>
     </row>
-    <row r="55" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A55" s="19"/>
       <c r="B55" s="19"/>
       <c r="C55" s="20"/>
@@ -5769,7 +5779,7 @@
       <c r="Q55" s="4"/>
       <c r="R55" s="4"/>
     </row>
-    <row r="56" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A56" s="7"/>
       <c r="B56" s="7"/>
       <c r="C56" s="9"/>
@@ -5789,7 +5799,7 @@
       <c r="Q56" s="4"/>
       <c r="R56" s="4"/>
     </row>
-    <row r="57" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A57" s="7"/>
       <c r="B57" s="7"/>
       <c r="C57" s="9"/>
@@ -5809,7 +5819,7 @@
       <c r="Q57" s="4"/>
       <c r="R57" s="4"/>
     </row>
-    <row r="58" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A58" s="7"/>
       <c r="B58" s="7"/>
       <c r="C58" s="9"/>
@@ -5829,7 +5839,7 @@
       <c r="Q58" s="4"/>
       <c r="R58" s="4"/>
     </row>
-    <row r="59" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A59" s="7"/>
       <c r="B59" s="7"/>
       <c r="C59" s="9"/>
@@ -5849,7 +5859,7 @@
       <c r="Q59" s="4"/>
       <c r="R59" s="4"/>
     </row>
-    <row r="60" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A60" s="7"/>
       <c r="B60" s="7"/>
       <c r="C60" s="9"/>
@@ -5869,7 +5879,7 @@
       <c r="Q60" s="4"/>
       <c r="R60" s="4"/>
     </row>
-    <row r="61" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A61" s="25"/>
       <c r="B61" s="25"/>
       <c r="C61" s="26"/>
@@ -5889,7 +5899,7 @@
       <c r="Q61" s="4"/>
       <c r="R61" s="4"/>
     </row>
-    <row r="62" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A62" s="25"/>
       <c r="B62" s="25"/>
       <c r="C62" s="26"/>
@@ -5909,7 +5919,7 @@
       <c r="Q62" s="4"/>
       <c r="R62" s="4"/>
     </row>
-    <row r="63" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A63" s="25"/>
       <c r="B63" s="25"/>
       <c r="C63" s="26"/>
@@ -5929,7 +5939,7 @@
       <c r="Q63" s="4"/>
       <c r="R63" s="4"/>
     </row>
-    <row r="64" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A64" s="25"/>
       <c r="B64" s="25"/>
       <c r="C64" s="26"/>
@@ -5949,7 +5959,7 @@
       <c r="Q64" s="4"/>
       <c r="R64" s="4"/>
     </row>
-    <row r="65" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="23"/>
       <c r="B65" s="23"/>
       <c r="C65" s="24"/>
@@ -5969,7 +5979,7 @@
       <c r="Q65" s="4"/>
       <c r="R65" s="4"/>
     </row>
-    <row r="66" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="14" t="s">
         <v>22</v>
       </c>
@@ -5994,7 +6004,7 @@
       <c r="Q66" s="4"/>
       <c r="R66" s="4"/>
     </row>
-    <row r="67" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="16"/>
       <c r="B67" s="16"/>
       <c r="C67" s="16"/>
@@ -6014,7 +6024,7 @@
       <c r="Q67" s="4"/>
       <c r="R67" s="4"/>
     </row>
-    <row r="68" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>0</v>
       </c>
@@ -6038,7 +6048,7 @@
       <c r="Q68" s="4"/>
       <c r="R68" s="4"/>
     </row>
-    <row r="69" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="5" t="s">
         <v>2</v>
       </c>
@@ -6064,7 +6074,7 @@
       <c r="Q69" s="4"/>
       <c r="R69" s="4"/>
     </row>
-    <row r="70" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A70" s="19"/>
       <c r="B70" s="19"/>
       <c r="C70" s="20"/>
@@ -6084,7 +6094,7 @@
       <c r="Q70" s="4"/>
       <c r="R70" s="4"/>
     </row>
-    <row r="71" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A71" s="7"/>
       <c r="B71" s="7"/>
       <c r="C71" s="9"/>
@@ -6104,7 +6114,7 @@
       <c r="Q71" s="4"/>
       <c r="R71" s="4"/>
     </row>
-    <row r="72" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A72" s="7"/>
       <c r="B72" s="7"/>
       <c r="C72" s="9"/>
@@ -6124,7 +6134,7 @@
       <c r="Q72" s="4"/>
       <c r="R72" s="4"/>
     </row>
-    <row r="73" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A73" s="7"/>
       <c r="B73" s="7"/>
       <c r="C73" s="9"/>
@@ -6144,7 +6154,7 @@
       <c r="Q73" s="4"/>
       <c r="R73" s="4"/>
     </row>
-    <row r="74" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A74" s="7"/>
       <c r="B74" s="7"/>
       <c r="C74" s="9"/>
@@ -6164,7 +6174,7 @@
       <c r="Q74" s="4"/>
       <c r="R74" s="4"/>
     </row>
-    <row r="75" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="23"/>
       <c r="B75" s="23"/>
       <c r="C75" s="24"/>
@@ -6184,7 +6194,7 @@
       <c r="Q75" s="4"/>
       <c r="R75" s="4"/>
     </row>
-    <row r="76" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="14" t="s">
         <v>22</v>
       </c>
@@ -6209,7 +6219,7 @@
       <c r="Q76" s="4"/>
       <c r="R76" s="4"/>
     </row>
-    <row r="77" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="16"/>
       <c r="B77" s="16"/>
       <c r="C77" s="16"/>
@@ -6229,7 +6239,7 @@
       <c r="Q77" s="4"/>
       <c r="R77" s="4"/>
     </row>
-    <row r="78" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>0</v>
       </c>
@@ -6253,7 +6263,7 @@
       <c r="Q78" s="4"/>
       <c r="R78" s="4"/>
     </row>
-    <row r="79" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="5" t="s">
         <v>2</v>
       </c>
@@ -6279,7 +6289,7 @@
       <c r="Q79" s="4"/>
       <c r="R79" s="4"/>
     </row>
-    <row r="80" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A80" s="19"/>
       <c r="B80" s="19"/>
       <c r="C80" s="20"/>
@@ -6299,7 +6309,7 @@
       <c r="Q80" s="4"/>
       <c r="R80" s="4"/>
     </row>
-    <row r="81" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A81" s="7"/>
       <c r="B81" s="7"/>
       <c r="C81" s="9"/>
@@ -6319,7 +6329,7 @@
       <c r="Q81" s="4"/>
       <c r="R81" s="4"/>
     </row>
-    <row r="82" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A82" s="7"/>
       <c r="B82" s="7"/>
       <c r="C82" s="9"/>
@@ -6339,7 +6349,7 @@
       <c r="Q82" s="4"/>
       <c r="R82" s="4"/>
     </row>
-    <row r="83" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A83" s="7"/>
       <c r="B83" s="7"/>
       <c r="C83" s="9"/>
@@ -6359,7 +6369,7 @@
       <c r="Q83" s="4"/>
       <c r="R83" s="4"/>
     </row>
-    <row r="84" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A84" s="7"/>
       <c r="B84" s="7"/>
       <c r="C84" s="9"/>
@@ -6379,7 +6389,7 @@
       <c r="Q84" s="4"/>
       <c r="R84" s="4"/>
     </row>
-    <row r="85" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A85" s="7"/>
       <c r="B85" s="7"/>
       <c r="C85" s="9"/>
@@ -6399,7 +6409,7 @@
       <c r="Q85" s="4"/>
       <c r="R85" s="4"/>
     </row>
-    <row r="86" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A86" s="7"/>
       <c r="B86" s="7"/>
       <c r="C86" s="9"/>
@@ -6419,7 +6429,7 @@
       <c r="Q86" s="4"/>
       <c r="R86" s="4"/>
     </row>
-    <row r="87" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="23"/>
       <c r="B87" s="23"/>
       <c r="C87" s="24"/>
@@ -6439,7 +6449,7 @@
       <c r="Q87" s="4"/>
       <c r="R87" s="4"/>
     </row>
-    <row r="88" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="14" t="s">
         <v>22</v>
       </c>
@@ -6464,7 +6474,7 @@
       <c r="Q88" s="4"/>
       <c r="R88" s="4"/>
     </row>
-    <row r="89" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A89" s="16"/>
       <c r="B89" s="16"/>
       <c r="C89" s="16"/>
@@ -6484,7 +6494,7 @@
       <c r="Q89" s="4"/>
       <c r="R89" s="4"/>
     </row>
-    <row r="90" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A90" s="27"/>
       <c r="B90" s="27"/>
       <c r="C90" s="27"/>
@@ -6504,7 +6514,7 @@
       <c r="Q90" s="4"/>
       <c r="R90" s="4"/>
     </row>
-    <row r="91" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A91" s="27"/>
       <c r="B91" s="27"/>
       <c r="C91" s="27"/>
@@ -6524,7 +6534,7 @@
       <c r="Q91" s="4"/>
       <c r="R91" s="4"/>
     </row>
-    <row r="92" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A92" s="27"/>
       <c r="B92" s="27"/>
       <c r="C92" s="27"/>
@@ -6544,7 +6554,7 @@
       <c r="Q92" s="4"/>
       <c r="R92" s="4"/>
     </row>
-    <row r="93" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A93" s="27"/>
       <c r="B93" s="27"/>
       <c r="C93" s="27"/>
@@ -6564,7 +6574,7 @@
       <c r="Q93" s="4"/>
       <c r="R93" s="4"/>
     </row>
-    <row r="94" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A94" s="27"/>
       <c r="B94" s="27"/>
       <c r="C94" s="27"/>
@@ -6584,7 +6594,7 @@
       <c r="Q94" s="4"/>
       <c r="R94" s="4"/>
     </row>
-    <row r="95" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A95" s="27"/>
       <c r="B95" s="27"/>
       <c r="C95" s="27"/>
@@ -6604,7 +6614,7 @@
       <c r="Q95" s="4"/>
       <c r="R95" s="4"/>
     </row>
-    <row r="96" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A96" s="27"/>
       <c r="B96" s="27"/>
       <c r="C96" s="27"/>
@@ -6624,7 +6634,7 @@
       <c r="Q96" s="4"/>
       <c r="R96" s="4"/>
     </row>
-    <row r="97" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A97" s="27"/>
       <c r="B97" s="27"/>
       <c r="C97" s="27"/>
@@ -6644,7 +6654,7 @@
       <c r="Q97" s="4"/>
       <c r="R97" s="4"/>
     </row>
-    <row r="98" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A98" s="27"/>
       <c r="B98" s="27"/>
       <c r="C98" s="27"/>
@@ -6664,7 +6674,7 @@
       <c r="Q98" s="4"/>
       <c r="R98" s="4"/>
     </row>
-    <row r="99" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A99" s="27"/>
       <c r="B99" s="27"/>
       <c r="C99" s="27"/>
@@ -6684,13 +6694,13 @@
       <c r="Q99" s="4"/>
       <c r="R99" s="4"/>
     </row>
-    <row r="100" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A100" s="27"/>
       <c r="B100" s="27"/>
       <c r="C100" s="27"/>
       <c r="D100" s="27"/>
     </row>
-    <row r="101" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A101" s="28"/>
       <c r="B101" s="28"/>
       <c r="C101" s="28"/>
@@ -6714,18 +6724,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716E2DDB-6361-470B-ACF3-8FDF9046203A}">
   <dimension ref="A1:R101"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="78.44140625" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="78.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6751,7 +6761,7 @@
       <c r="Q1" s="4"/>
       <c r="R1" s="4"/>
     </row>
-    <row r="2" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -6779,7 +6789,7 @@
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
     </row>
-    <row r="3" spans="1:18" ht="92.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="94.5" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
@@ -6807,7 +6817,7 @@
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
     </row>
-    <row r="4" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="54" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
@@ -6835,7 +6845,7 @@
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
     </row>
-    <row r="5" spans="1:18" ht="66" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
@@ -6863,7 +6873,7 @@
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
     </row>
-    <row r="6" spans="1:18" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="81" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
         <v>12</v>
       </c>
@@ -6891,7 +6901,7 @@
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
     </row>
-    <row r="7" spans="1:18" ht="66" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>14</v>
       </c>
@@ -6919,7 +6929,7 @@
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
     </row>
-    <row r="8" spans="1:18" ht="118.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="108" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
         <v>16</v>
       </c>
@@ -6947,7 +6957,7 @@
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
     </row>
-    <row r="9" spans="1:18" ht="105.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" ht="94.5" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
         <v>18</v>
       </c>
@@ -6975,7 +6985,7 @@
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
     </row>
-    <row r="10" spans="1:18" ht="66" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
@@ -7003,7 +7013,7 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
     </row>
-    <row r="11" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>23</v>
       </c>
@@ -7029,7 +7039,7 @@
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
     </row>
-    <row r="12" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>25</v>
       </c>
@@ -7055,7 +7065,7 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
     </row>
-    <row r="13" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" ht="27" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
         <v>22</v>
       </c>
@@ -7080,7 +7090,7 @@
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
     </row>
-    <row r="14" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A14" s="16"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
@@ -7100,7 +7110,7 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
     </row>
-    <row r="15" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" ht="18" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -7150,7 +7160,7 @@
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
     </row>
-    <row r="17" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" ht="27" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
         <v>103</v>
       </c>
@@ -7176,7 +7186,7 @@
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
     </row>
-    <row r="18" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>105</v>
       </c>
@@ -7200,7 +7210,7 @@
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
     </row>
-    <row r="19" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" ht="54" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>106</v>
       </c>
@@ -7226,7 +7236,7 @@
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
     </row>
-    <row r="20" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>108</v>
       </c>
@@ -7252,7 +7262,7 @@
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
     </row>
-    <row r="21" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" ht="54" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>110</v>
       </c>
@@ -7278,7 +7288,7 @@
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
     </row>
-    <row r="22" spans="1:18" ht="66" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>112</v>
       </c>
@@ -7304,7 +7314,7 @@
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
     </row>
-    <row r="23" spans="1:18" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" ht="81" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>114</v>
       </c>
@@ -7330,7 +7340,7 @@
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
     </row>
-    <row r="24" spans="1:18" ht="105.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" ht="108" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>116</v>
       </c>
@@ -7356,7 +7366,7 @@
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
     </row>
-    <row r="25" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" ht="27" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>118</v>
       </c>
@@ -7382,7 +7392,7 @@
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
     </row>
-    <row r="26" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>120</v>
       </c>
@@ -7408,7 +7418,7 @@
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
     </row>
-    <row r="27" spans="1:18" ht="118.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" ht="121.5" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>122</v>
       </c>
@@ -7434,7 +7444,7 @@
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
     </row>
-    <row r="28" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>124</v>
       </c>
@@ -7460,7 +7470,7 @@
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
     </row>
-    <row r="29" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>126</v>
       </c>
@@ -7486,7 +7496,7 @@
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
     </row>
-    <row r="30" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>124</v>
       </c>
@@ -7512,7 +7522,7 @@
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
     </row>
-    <row r="31" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" ht="27" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>129</v>
       </c>
@@ -7538,7 +7548,7 @@
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
     </row>
-    <row r="32" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" ht="27" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>131</v>
       </c>
@@ -7564,7 +7574,7 @@
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
     </row>
-    <row r="33" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>133</v>
       </c>
@@ -7590,7 +7600,7 @@
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
     </row>
-    <row r="34" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" ht="27" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>134</v>
       </c>
@@ -7616,7 +7626,7 @@
       <c r="Q34" s="4"/>
       <c r="R34" s="4"/>
     </row>
-    <row r="35" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>136</v>
       </c>
@@ -7642,7 +7652,7 @@
       <c r="Q35" s="4"/>
       <c r="R35" s="4"/>
     </row>
-    <row r="36" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" ht="27" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>138</v>
       </c>
@@ -7668,7 +7678,7 @@
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
     </row>
-    <row r="37" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" ht="27" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
         <v>140</v>
       </c>
@@ -7694,7 +7704,7 @@
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
     </row>
-    <row r="38" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="9"/>
@@ -7714,7 +7724,7 @@
       <c r="Q38" s="4"/>
       <c r="R38" s="4"/>
     </row>
-    <row r="39" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="14" t="s">
         <v>22</v>
       </c>
@@ -7739,7 +7749,7 @@
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
     </row>
-    <row r="40" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A40" s="16"/>
       <c r="B40" s="16"/>
       <c r="C40" s="16"/>
@@ -7759,7 +7769,7 @@
       <c r="Q40" s="4"/>
       <c r="R40" s="4"/>
     </row>
-    <row r="41" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" ht="18" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>0</v>
       </c>
@@ -7809,7 +7819,7 @@
       <c r="Q42" s="4"/>
       <c r="R42" s="4"/>
     </row>
-    <row r="43" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="21"/>
@@ -7829,7 +7839,7 @@
       <c r="Q43" s="4"/>
       <c r="R43" s="4"/>
     </row>
-    <row r="44" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="21"/>
@@ -7849,7 +7859,7 @@
       <c r="Q44" s="4"/>
       <c r="R44" s="4"/>
     </row>
-    <row r="45" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="22"/>
@@ -7869,7 +7879,7 @@
       <c r="Q45" s="4"/>
       <c r="R45" s="4"/>
     </row>
-    <row r="46" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="9"/>
@@ -7889,7 +7899,7 @@
       <c r="Q46" s="4"/>
       <c r="R46" s="4"/>
     </row>
-    <row r="47" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="9"/>
@@ -7909,7 +7919,7 @@
       <c r="Q47" s="4"/>
       <c r="R47" s="4"/>
     </row>
-    <row r="48" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="9"/>
@@ -7929,7 +7939,7 @@
       <c r="Q48" s="4"/>
       <c r="R48" s="4"/>
     </row>
-    <row r="49" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="9"/>
@@ -7949,7 +7959,7 @@
       <c r="Q49" s="4"/>
       <c r="R49" s="4"/>
     </row>
-    <row r="50" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A50" s="23"/>
       <c r="B50" s="23"/>
       <c r="C50" s="24"/>
@@ -7969,7 +7979,7 @@
       <c r="Q50" s="4"/>
       <c r="R50" s="4"/>
     </row>
-    <row r="51" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:18" ht="27" x14ac:dyDescent="0.3">
       <c r="A51" s="14" t="s">
         <v>22</v>
       </c>
@@ -7994,7 +8004,7 @@
       <c r="Q51" s="4"/>
       <c r="R51" s="4"/>
     </row>
-    <row r="52" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A52" s="16"/>
       <c r="B52" s="16"/>
       <c r="C52" s="16"/>
@@ -8014,7 +8024,7 @@
       <c r="Q52" s="4"/>
       <c r="R52" s="4"/>
     </row>
-    <row r="53" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:18" ht="18" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>0</v>
       </c>
@@ -8064,7 +8074,7 @@
       <c r="Q54" s="4"/>
       <c r="R54" s="4"/>
     </row>
-    <row r="55" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A55" s="19"/>
       <c r="B55" s="19"/>
       <c r="C55" s="20"/>
@@ -8084,7 +8094,7 @@
       <c r="Q55" s="4"/>
       <c r="R55" s="4"/>
     </row>
-    <row r="56" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A56" s="7"/>
       <c r="B56" s="7"/>
       <c r="C56" s="9"/>
@@ -8104,7 +8114,7 @@
       <c r="Q56" s="4"/>
       <c r="R56" s="4"/>
     </row>
-    <row r="57" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="7"/>
       <c r="B57" s="7"/>
       <c r="C57" s="9"/>
@@ -8124,7 +8134,7 @@
       <c r="Q57" s="4"/>
       <c r="R57" s="4"/>
     </row>
-    <row r="58" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="7"/>
       <c r="B58" s="7"/>
       <c r="C58" s="9"/>
@@ -8144,7 +8154,7 @@
       <c r="Q58" s="4"/>
       <c r="R58" s="4"/>
     </row>
-    <row r="59" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="7"/>
       <c r="B59" s="7"/>
       <c r="C59" s="9"/>
@@ -8164,7 +8174,7 @@
       <c r="Q59" s="4"/>
       <c r="R59" s="4"/>
     </row>
-    <row r="60" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="7"/>
       <c r="B60" s="7"/>
       <c r="C60" s="9"/>
@@ -8184,7 +8194,7 @@
       <c r="Q60" s="4"/>
       <c r="R60" s="4"/>
     </row>
-    <row r="61" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="25"/>
       <c r="B61" s="25"/>
       <c r="C61" s="26"/>
@@ -8204,7 +8214,7 @@
       <c r="Q61" s="4"/>
       <c r="R61" s="4"/>
     </row>
-    <row r="62" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="25"/>
       <c r="B62" s="25"/>
       <c r="C62" s="26"/>
@@ -8224,7 +8234,7 @@
       <c r="Q62" s="4"/>
       <c r="R62" s="4"/>
     </row>
-    <row r="63" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="25"/>
       <c r="B63" s="25"/>
       <c r="C63" s="26"/>
@@ -8244,7 +8254,7 @@
       <c r="Q63" s="4"/>
       <c r="R63" s="4"/>
     </row>
-    <row r="64" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="25"/>
       <c r="B64" s="25"/>
       <c r="C64" s="26"/>
@@ -8264,7 +8274,7 @@
       <c r="Q64" s="4"/>
       <c r="R64" s="4"/>
     </row>
-    <row r="65" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="23"/>
       <c r="B65" s="23"/>
       <c r="C65" s="24"/>
@@ -8284,7 +8294,7 @@
       <c r="Q65" s="4"/>
       <c r="R65" s="4"/>
     </row>
-    <row r="66" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="14" t="s">
         <v>22</v>
       </c>
@@ -8309,7 +8319,7 @@
       <c r="Q66" s="4"/>
       <c r="R66" s="4"/>
     </row>
-    <row r="67" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="16"/>
       <c r="B67" s="16"/>
       <c r="C67" s="16"/>
@@ -8329,7 +8339,7 @@
       <c r="Q67" s="4"/>
       <c r="R67" s="4"/>
     </row>
-    <row r="68" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>0</v>
       </c>
@@ -8353,7 +8363,7 @@
       <c r="Q68" s="4"/>
       <c r="R68" s="4"/>
     </row>
-    <row r="69" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="5" t="s">
         <v>2</v>
       </c>
@@ -8379,7 +8389,7 @@
       <c r="Q69" s="4"/>
       <c r="R69" s="4"/>
     </row>
-    <row r="70" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="19"/>
       <c r="B70" s="19"/>
       <c r="C70" s="20"/>
@@ -8399,7 +8409,7 @@
       <c r="Q70" s="4"/>
       <c r="R70" s="4"/>
     </row>
-    <row r="71" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="7"/>
       <c r="B71" s="7"/>
       <c r="C71" s="9"/>
@@ -8419,7 +8429,7 @@
       <c r="Q71" s="4"/>
       <c r="R71" s="4"/>
     </row>
-    <row r="72" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A72" s="7"/>
       <c r="B72" s="7"/>
       <c r="C72" s="9"/>
@@ -8439,7 +8449,7 @@
       <c r="Q72" s="4"/>
       <c r="R72" s="4"/>
     </row>
-    <row r="73" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A73" s="7"/>
       <c r="B73" s="7"/>
       <c r="C73" s="9"/>
@@ -8459,7 +8469,7 @@
       <c r="Q73" s="4"/>
       <c r="R73" s="4"/>
     </row>
-    <row r="74" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A74" s="7"/>
       <c r="B74" s="7"/>
       <c r="C74" s="9"/>
@@ -8479,7 +8489,7 @@
       <c r="Q74" s="4"/>
       <c r="R74" s="4"/>
     </row>
-    <row r="75" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A75" s="23"/>
       <c r="B75" s="23"/>
       <c r="C75" s="24"/>
@@ -8499,7 +8509,7 @@
       <c r="Q75" s="4"/>
       <c r="R75" s="4"/>
     </row>
-    <row r="76" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:18" ht="27" x14ac:dyDescent="0.3">
       <c r="A76" s="14" t="s">
         <v>22</v>
       </c>
@@ -8524,7 +8534,7 @@
       <c r="Q76" s="4"/>
       <c r="R76" s="4"/>
     </row>
-    <row r="77" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A77" s="16"/>
       <c r="B77" s="16"/>
       <c r="C77" s="16"/>
@@ -8544,7 +8554,7 @@
       <c r="Q77" s="4"/>
       <c r="R77" s="4"/>
     </row>
-    <row r="78" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:18" ht="18" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>0</v>
       </c>
@@ -8594,7 +8604,7 @@
       <c r="Q79" s="4"/>
       <c r="R79" s="4"/>
     </row>
-    <row r="80" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A80" s="19"/>
       <c r="B80" s="19"/>
       <c r="C80" s="20"/>
@@ -8614,7 +8624,7 @@
       <c r="Q80" s="4"/>
       <c r="R80" s="4"/>
     </row>
-    <row r="81" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A81" s="7"/>
       <c r="B81" s="7"/>
       <c r="C81" s="9"/>
@@ -8634,7 +8644,7 @@
       <c r="Q81" s="4"/>
       <c r="R81" s="4"/>
     </row>
-    <row r="82" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A82" s="7"/>
       <c r="B82" s="7"/>
       <c r="C82" s="9"/>
@@ -8654,7 +8664,7 @@
       <c r="Q82" s="4"/>
       <c r="R82" s="4"/>
     </row>
-    <row r="83" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A83" s="7"/>
       <c r="B83" s="7"/>
       <c r="C83" s="9"/>
@@ -8674,7 +8684,7 @@
       <c r="Q83" s="4"/>
       <c r="R83" s="4"/>
     </row>
-    <row r="84" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A84" s="7"/>
       <c r="B84" s="7"/>
       <c r="C84" s="9"/>
@@ -8694,7 +8704,7 @@
       <c r="Q84" s="4"/>
       <c r="R84" s="4"/>
     </row>
-    <row r="85" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A85" s="7"/>
       <c r="B85" s="7"/>
       <c r="C85" s="9"/>
@@ -8714,7 +8724,7 @@
       <c r="Q85" s="4"/>
       <c r="R85" s="4"/>
     </row>
-    <row r="86" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A86" s="7"/>
       <c r="B86" s="7"/>
       <c r="C86" s="9"/>
@@ -8734,7 +8744,7 @@
       <c r="Q86" s="4"/>
       <c r="R86" s="4"/>
     </row>
-    <row r="87" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A87" s="23"/>
       <c r="B87" s="23"/>
       <c r="C87" s="24"/>
@@ -8754,7 +8764,7 @@
       <c r="Q87" s="4"/>
       <c r="R87" s="4"/>
     </row>
-    <row r="88" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:18" ht="27" x14ac:dyDescent="0.3">
       <c r="A88" s="14" t="s">
         <v>22</v>
       </c>
@@ -8779,7 +8789,7 @@
       <c r="Q88" s="4"/>
       <c r="R88" s="4"/>
     </row>
-    <row r="89" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A89" s="16"/>
       <c r="B89" s="16"/>
       <c r="C89" s="16"/>
@@ -8799,7 +8809,7 @@
       <c r="Q89" s="4"/>
       <c r="R89" s="4"/>
     </row>
-    <row r="90" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A90" s="27"/>
       <c r="B90" s="27"/>
       <c r="C90" s="27"/>
@@ -8819,7 +8829,7 @@
       <c r="Q90" s="4"/>
       <c r="R90" s="4"/>
     </row>
-    <row r="91" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A91" s="27"/>
       <c r="B91" s="27"/>
       <c r="C91" s="27"/>
@@ -8839,7 +8849,7 @@
       <c r="Q91" s="4"/>
       <c r="R91" s="4"/>
     </row>
-    <row r="92" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A92" s="27"/>
       <c r="B92" s="27"/>
       <c r="C92" s="27"/>
@@ -8859,7 +8869,7 @@
       <c r="Q92" s="4"/>
       <c r="R92" s="4"/>
     </row>
-    <row r="93" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A93" s="27"/>
       <c r="B93" s="27"/>
       <c r="C93" s="27"/>
@@ -8879,7 +8889,7 @@
       <c r="Q93" s="4"/>
       <c r="R93" s="4"/>
     </row>
-    <row r="94" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A94" s="27"/>
       <c r="B94" s="27"/>
       <c r="C94" s="27"/>
@@ -8899,7 +8909,7 @@
       <c r="Q94" s="4"/>
       <c r="R94" s="4"/>
     </row>
-    <row r="95" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A95" s="27"/>
       <c r="B95" s="27"/>
       <c r="C95" s="27"/>
@@ -8919,7 +8929,7 @@
       <c r="Q95" s="4"/>
       <c r="R95" s="4"/>
     </row>
-    <row r="96" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A96" s="27"/>
       <c r="B96" s="27"/>
       <c r="C96" s="27"/>
@@ -8939,7 +8949,7 @@
       <c r="Q96" s="4"/>
       <c r="R96" s="4"/>
     </row>
-    <row r="97" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A97" s="27"/>
       <c r="B97" s="27"/>
       <c r="C97" s="27"/>
@@ -8959,7 +8969,7 @@
       <c r="Q97" s="4"/>
       <c r="R97" s="4"/>
     </row>
-    <row r="98" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A98" s="27"/>
       <c r="B98" s="27"/>
       <c r="C98" s="27"/>
@@ -8979,7 +8989,7 @@
       <c r="Q98" s="4"/>
       <c r="R98" s="4"/>
     </row>
-    <row r="99" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A99" s="27"/>
       <c r="B99" s="27"/>
       <c r="C99" s="27"/>
@@ -8999,7 +9009,7 @@
       <c r="Q99" s="4"/>
       <c r="R99" s="4"/>
     </row>
-    <row r="100" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A100" s="27"/>
       <c r="B100" s="27"/>
       <c r="C100" s="27"/>
@@ -9019,7 +9029,7 @@
       <c r="Q100" s="4"/>
       <c r="R100" s="4"/>
     </row>
-    <row r="101" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A101" s="28"/>
       <c r="B101" s="28"/>
       <c r="C101" s="28"/>
@@ -9057,18 +9067,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F222774-5003-490D-9078-78D1F6F89A4A}">
   <dimension ref="A1:R96"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="78.44140625" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="78.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9094,7 +9104,7 @@
       <c r="Q1" s="4"/>
       <c r="R1" s="4"/>
     </row>
-    <row r="2" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -9122,7 +9132,7 @@
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
     </row>
-    <row r="3" spans="1:18" ht="92.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="94.5" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
@@ -9150,7 +9160,7 @@
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
     </row>
-    <row r="4" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="54" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
@@ -9178,7 +9188,7 @@
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
     </row>
-    <row r="5" spans="1:18" ht="66" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
@@ -9206,7 +9216,7 @@
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
     </row>
-    <row r="6" spans="1:18" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="81" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
         <v>12</v>
       </c>
@@ -9234,7 +9244,7 @@
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
     </row>
-    <row r="7" spans="1:18" ht="66" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>14</v>
       </c>
@@ -9262,7 +9272,7 @@
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
     </row>
-    <row r="8" spans="1:18" ht="118.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="108" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
         <v>16</v>
       </c>
@@ -9290,7 +9300,7 @@
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
     </row>
-    <row r="9" spans="1:18" ht="105.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" ht="94.5" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
         <v>18</v>
       </c>
@@ -9318,7 +9328,7 @@
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
     </row>
-    <row r="10" spans="1:18" ht="66" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
@@ -9346,7 +9356,7 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
     </row>
-    <row r="11" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" ht="27" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>28</v>
       </c>
@@ -9372,7 +9382,7 @@
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
     </row>
-    <row r="12" spans="1:18" ht="92.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" ht="94.5" x14ac:dyDescent="0.3">
       <c r="A12" s="33" t="s">
         <v>29</v>
       </c>
@@ -9398,7 +9408,7 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
     </row>
-    <row r="13" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="33" t="s">
         <v>32</v>
       </c>
@@ -9424,7 +9434,7 @@
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
     </row>
-    <row r="14" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="14" t="s">
         <v>22</v>
       </c>
@@ -9449,7 +9459,7 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
     </row>
-    <row r="15" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="16"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
@@ -9469,7 +9479,7 @@
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
     </row>
-    <row r="16" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -9493,7 +9503,7 @@
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
     </row>
-    <row r="17" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>2</v>
       </c>
@@ -9519,7 +9529,7 @@
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
     </row>
-    <row r="18" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" ht="54" x14ac:dyDescent="0.3">
       <c r="A18" s="29" t="s">
         <v>36</v>
       </c>
@@ -9547,7 +9557,7 @@
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
     </row>
-    <row r="19" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" ht="27" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>40</v>
       </c>
@@ -9575,7 +9585,7 @@
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
     </row>
-    <row r="20" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>54</v>
       </c>
@@ -9603,7 +9613,7 @@
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
     </row>
-    <row r="21" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" ht="27" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>56</v>
       </c>
@@ -9631,7 +9641,7 @@
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
     </row>
-    <row r="22" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" ht="27" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>58</v>
       </c>
@@ -9659,7 +9669,7 @@
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
     </row>
-    <row r="23" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>54</v>
       </c>
@@ -9687,7 +9697,7 @@
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
     </row>
-    <row r="24" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" ht="27" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>60</v>
       </c>
@@ -9715,7 +9725,7 @@
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
     </row>
-    <row r="25" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>86</v>
       </c>
@@ -9743,7 +9753,7 @@
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
     </row>
-    <row r="26" spans="1:18" ht="66" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>76</v>
       </c>
@@ -9771,7 +9781,7 @@
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
     </row>
-    <row r="27" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" ht="27" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>76</v>
       </c>
@@ -9799,7 +9809,7 @@
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
     </row>
-    <row r="28" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>76</v>
       </c>
@@ -9827,7 +9837,7 @@
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
     </row>
-    <row r="29" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" ht="27" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>76</v>
       </c>
@@ -9855,7 +9865,7 @@
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
     </row>
-    <row r="30" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" ht="27" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>76</v>
       </c>
@@ -9883,7 +9893,7 @@
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
     </row>
-    <row r="31" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="9"/>
@@ -9903,7 +9913,7 @@
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
     </row>
-    <row r="32" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="9"/>
@@ -9923,7 +9933,7 @@
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
     </row>
-    <row r="33" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="9"/>
@@ -9943,7 +9953,7 @@
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
     </row>
-    <row r="34" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="14" t="s">
         <v>22</v>
       </c>
@@ -9968,7 +9978,7 @@
       <c r="Q34" s="4"/>
       <c r="R34" s="4"/>
     </row>
-    <row r="35" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="16"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -9988,7 +9998,7 @@
       <c r="Q35" s="4"/>
       <c r="R35" s="4"/>
     </row>
-    <row r="36" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>0</v>
       </c>
@@ -10012,7 +10022,7 @@
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
     </row>
-    <row r="37" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
         <v>2</v>
       </c>
@@ -10038,7 +10048,7 @@
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
     </row>
-    <row r="38" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18" ht="54" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
         <v>40</v>
       </c>
@@ -10066,7 +10076,7 @@
       <c r="Q38" s="4"/>
       <c r="R38" s="4"/>
     </row>
-    <row r="39" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" ht="27" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>160</v>
       </c>
@@ -10094,7 +10104,7 @@
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
     </row>
-    <row r="40" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
         <v>160</v>
       </c>
@@ -10122,7 +10132,7 @@
       <c r="Q40" s="4"/>
       <c r="R40" s="4"/>
     </row>
-    <row r="41" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
         <v>160</v>
       </c>
@@ -10150,7 +10160,7 @@
       <c r="Q41" s="4"/>
       <c r="R41" s="4"/>
     </row>
-    <row r="42" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
         <v>160</v>
       </c>
@@ -10178,7 +10188,7 @@
       <c r="Q42" s="4"/>
       <c r="R42" s="4"/>
     </row>
-    <row r="43" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18" ht="27" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
         <v>160</v>
       </c>
@@ -10206,11 +10216,19 @@
       <c r="Q43" s="4"/>
       <c r="R43" s="4"/>
     </row>
-    <row r="44" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A44" s="7"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
+    <row r="44" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
+      <c r="A44" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B44" s="7">
+        <v>9</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>186</v>
+      </c>
       <c r="E44" s="10"/>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
@@ -10226,7 +10244,7 @@
       <c r="Q44" s="4"/>
       <c r="R44" s="4"/>
     </row>
-    <row r="45" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="23"/>
       <c r="B45" s="23"/>
       <c r="C45" s="24"/>
@@ -10246,13 +10264,13 @@
       <c r="Q45" s="4"/>
       <c r="R45" s="4"/>
     </row>
-    <row r="46" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="14" t="s">
         <v>22</v>
       </c>
       <c r="B46" s="14">
         <f>SUM(B38:B45)</f>
-        <v>24.5</v>
+        <v>33.5</v>
       </c>
       <c r="C46" s="15"/>
       <c r="D46" s="15"/>
@@ -10271,7 +10289,7 @@
       <c r="Q46" s="4"/>
       <c r="R46" s="4"/>
     </row>
-    <row r="47" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="16"/>
       <c r="B47" s="16"/>
       <c r="C47" s="16"/>
@@ -10291,7 +10309,7 @@
       <c r="Q47" s="4"/>
       <c r="R47" s="4"/>
     </row>
-    <row r="48" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>0</v>
       </c>
@@ -10315,7 +10333,7 @@
       <c r="Q48" s="4"/>
       <c r="R48" s="4"/>
     </row>
-    <row r="49" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
         <v>2</v>
       </c>
@@ -10341,7 +10359,7 @@
       <c r="Q49" s="4"/>
       <c r="R49" s="4"/>
     </row>
-    <row r="50" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A50" s="19"/>
       <c r="B50" s="19"/>
       <c r="C50" s="20"/>
@@ -10361,7 +10379,7 @@
       <c r="Q50" s="4"/>
       <c r="R50" s="4"/>
     </row>
-    <row r="51" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A51" s="7"/>
       <c r="B51" s="7"/>
       <c r="C51" s="9"/>
@@ -10381,7 +10399,7 @@
       <c r="Q51" s="4"/>
       <c r="R51" s="4"/>
     </row>
-    <row r="52" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A52" s="7"/>
       <c r="B52" s="7"/>
       <c r="C52" s="9"/>
@@ -10401,7 +10419,7 @@
       <c r="Q52" s="4"/>
       <c r="R52" s="4"/>
     </row>
-    <row r="53" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A53" s="7"/>
       <c r="B53" s="7"/>
       <c r="C53" s="9"/>
@@ -10421,7 +10439,7 @@
       <c r="Q53" s="4"/>
       <c r="R53" s="4"/>
     </row>
-    <row r="54" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A54" s="7"/>
       <c r="B54" s="7"/>
       <c r="C54" s="9"/>
@@ -10441,7 +10459,7 @@
       <c r="Q54" s="4"/>
       <c r="R54" s="4"/>
     </row>
-    <row r="55" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A55" s="7"/>
       <c r="B55" s="7"/>
       <c r="C55" s="9"/>
@@ -10461,7 +10479,7 @@
       <c r="Q55" s="4"/>
       <c r="R55" s="4"/>
     </row>
-    <row r="56" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A56" s="25"/>
       <c r="B56" s="25"/>
       <c r="C56" s="26"/>
@@ -10481,7 +10499,7 @@
       <c r="Q56" s="4"/>
       <c r="R56" s="4"/>
     </row>
-    <row r="57" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A57" s="25"/>
       <c r="B57" s="25"/>
       <c r="C57" s="26"/>
@@ -10501,7 +10519,7 @@
       <c r="Q57" s="4"/>
       <c r="R57" s="4"/>
     </row>
-    <row r="58" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A58" s="25"/>
       <c r="B58" s="25"/>
       <c r="C58" s="26"/>
@@ -10521,7 +10539,7 @@
       <c r="Q58" s="4"/>
       <c r="R58" s="4"/>
     </row>
-    <row r="59" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A59" s="25"/>
       <c r="B59" s="25"/>
       <c r="C59" s="26"/>
@@ -10541,7 +10559,7 @@
       <c r="Q59" s="4"/>
       <c r="R59" s="4"/>
     </row>
-    <row r="60" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="23"/>
       <c r="B60" s="23"/>
       <c r="C60" s="24"/>
@@ -10561,7 +10579,7 @@
       <c r="Q60" s="4"/>
       <c r="R60" s="4"/>
     </row>
-    <row r="61" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="14" t="s">
         <v>22</v>
       </c>
@@ -10586,7 +10604,7 @@
       <c r="Q61" s="4"/>
       <c r="R61" s="4"/>
     </row>
-    <row r="62" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="16"/>
       <c r="B62" s="16"/>
       <c r="C62" s="16"/>
@@ -10606,7 +10624,7 @@
       <c r="Q62" s="4"/>
       <c r="R62" s="4"/>
     </row>
-    <row r="63" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>0</v>
       </c>
@@ -10630,7 +10648,7 @@
       <c r="Q63" s="4"/>
       <c r="R63" s="4"/>
     </row>
-    <row r="64" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="5" t="s">
         <v>2</v>
       </c>
@@ -10656,7 +10674,7 @@
       <c r="Q64" s="4"/>
       <c r="R64" s="4"/>
     </row>
-    <row r="65" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A65" s="19"/>
       <c r="B65" s="19"/>
       <c r="C65" s="20"/>
@@ -10676,7 +10694,7 @@
       <c r="Q65" s="4"/>
       <c r="R65" s="4"/>
     </row>
-    <row r="66" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A66" s="7"/>
       <c r="B66" s="7"/>
       <c r="C66" s="9"/>
@@ -10696,7 +10714,7 @@
       <c r="Q66" s="4"/>
       <c r="R66" s="4"/>
     </row>
-    <row r="67" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A67" s="7"/>
       <c r="B67" s="7"/>
       <c r="C67" s="9"/>
@@ -10716,7 +10734,7 @@
       <c r="Q67" s="4"/>
       <c r="R67" s="4"/>
     </row>
-    <row r="68" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A68" s="7"/>
       <c r="B68" s="7"/>
       <c r="C68" s="9"/>
@@ -10736,7 +10754,7 @@
       <c r="Q68" s="4"/>
       <c r="R68" s="4"/>
     </row>
-    <row r="69" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A69" s="7"/>
       <c r="B69" s="7"/>
       <c r="C69" s="9"/>
@@ -10756,7 +10774,7 @@
       <c r="Q69" s="4"/>
       <c r="R69" s="4"/>
     </row>
-    <row r="70" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="23"/>
       <c r="B70" s="23"/>
       <c r="C70" s="24"/>
@@ -10776,7 +10794,7 @@
       <c r="Q70" s="4"/>
       <c r="R70" s="4"/>
     </row>
-    <row r="71" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="14" t="s">
         <v>22</v>
       </c>
@@ -10801,7 +10819,7 @@
       <c r="Q71" s="4"/>
       <c r="R71" s="4"/>
     </row>
-    <row r="72" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="16"/>
       <c r="B72" s="16"/>
       <c r="C72" s="16"/>
@@ -10821,7 +10839,7 @@
       <c r="Q72" s="4"/>
       <c r="R72" s="4"/>
     </row>
-    <row r="73" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>0</v>
       </c>
@@ -10845,7 +10863,7 @@
       <c r="Q73" s="4"/>
       <c r="R73" s="4"/>
     </row>
-    <row r="74" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="5" t="s">
         <v>2</v>
       </c>
@@ -10871,7 +10889,7 @@
       <c r="Q74" s="4"/>
       <c r="R74" s="4"/>
     </row>
-    <row r="75" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A75" s="19"/>
       <c r="B75" s="19"/>
       <c r="C75" s="20"/>
@@ -10891,7 +10909,7 @@
       <c r="Q75" s="4"/>
       <c r="R75" s="4"/>
     </row>
-    <row r="76" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A76" s="7"/>
       <c r="B76" s="7"/>
       <c r="C76" s="9"/>
@@ -10911,7 +10929,7 @@
       <c r="Q76" s="4"/>
       <c r="R76" s="4"/>
     </row>
-    <row r="77" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A77" s="7"/>
       <c r="B77" s="7"/>
       <c r="C77" s="9"/>
@@ -10931,7 +10949,7 @@
       <c r="Q77" s="4"/>
       <c r="R77" s="4"/>
     </row>
-    <row r="78" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A78" s="7"/>
       <c r="B78" s="7"/>
       <c r="C78" s="9"/>
@@ -10951,7 +10969,7 @@
       <c r="Q78" s="4"/>
       <c r="R78" s="4"/>
     </row>
-    <row r="79" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A79" s="7"/>
       <c r="B79" s="7"/>
       <c r="C79" s="9"/>
@@ -10971,7 +10989,7 @@
       <c r="Q79" s="4"/>
       <c r="R79" s="4"/>
     </row>
-    <row r="80" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A80" s="7"/>
       <c r="B80" s="7"/>
       <c r="C80" s="9"/>
@@ -10991,7 +11009,7 @@
       <c r="Q80" s="4"/>
       <c r="R80" s="4"/>
     </row>
-    <row r="81" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A81" s="7"/>
       <c r="B81" s="7"/>
       <c r="C81" s="9"/>
@@ -11011,7 +11029,7 @@
       <c r="Q81" s="4"/>
       <c r="R81" s="4"/>
     </row>
-    <row r="82" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="23"/>
       <c r="B82" s="23"/>
       <c r="C82" s="24"/>
@@ -11031,7 +11049,7 @@
       <c r="Q82" s="4"/>
       <c r="R82" s="4"/>
     </row>
-    <row r="83" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="14" t="s">
         <v>22</v>
       </c>
@@ -11056,7 +11074,7 @@
       <c r="Q83" s="4"/>
       <c r="R83" s="4"/>
     </row>
-    <row r="84" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A84" s="16"/>
       <c r="B84" s="16"/>
       <c r="C84" s="16"/>
@@ -11076,7 +11094,7 @@
       <c r="Q84" s="4"/>
       <c r="R84" s="4"/>
     </row>
-    <row r="85" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A85" s="27"/>
       <c r="B85" s="27"/>
       <c r="C85" s="27"/>
@@ -11096,7 +11114,7 @@
       <c r="Q85" s="4"/>
       <c r="R85" s="4"/>
     </row>
-    <row r="86" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A86" s="27"/>
       <c r="B86" s="27"/>
       <c r="C86" s="27"/>
@@ -11116,7 +11134,7 @@
       <c r="Q86" s="4"/>
       <c r="R86" s="4"/>
     </row>
-    <row r="87" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A87" s="27"/>
       <c r="B87" s="27"/>
       <c r="C87" s="27"/>
@@ -11136,7 +11154,7 @@
       <c r="Q87" s="4"/>
       <c r="R87" s="4"/>
     </row>
-    <row r="88" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A88" s="27"/>
       <c r="B88" s="27"/>
       <c r="C88" s="27"/>
@@ -11156,7 +11174,7 @@
       <c r="Q88" s="4"/>
       <c r="R88" s="4"/>
     </row>
-    <row r="89" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A89" s="27"/>
       <c r="B89" s="27"/>
       <c r="C89" s="27"/>
@@ -11176,7 +11194,7 @@
       <c r="Q89" s="4"/>
       <c r="R89" s="4"/>
     </row>
-    <row r="90" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A90" s="27"/>
       <c r="B90" s="27"/>
       <c r="C90" s="27"/>
@@ -11196,7 +11214,7 @@
       <c r="Q90" s="4"/>
       <c r="R90" s="4"/>
     </row>
-    <row r="91" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A91" s="27"/>
       <c r="B91" s="27"/>
       <c r="C91" s="27"/>
@@ -11216,7 +11234,7 @@
       <c r="Q91" s="4"/>
       <c r="R91" s="4"/>
     </row>
-    <row r="92" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A92" s="27"/>
       <c r="B92" s="27"/>
       <c r="C92" s="27"/>
@@ -11236,7 +11254,7 @@
       <c r="Q92" s="4"/>
       <c r="R92" s="4"/>
     </row>
-    <row r="93" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A93" s="27"/>
       <c r="B93" s="27"/>
       <c r="C93" s="27"/>
@@ -11256,7 +11274,7 @@
       <c r="Q93" s="4"/>
       <c r="R93" s="4"/>
     </row>
-    <row r="94" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A94" s="27"/>
       <c r="B94" s="27"/>
       <c r="C94" s="27"/>
@@ -11276,7 +11294,7 @@
       <c r="Q94" s="4"/>
       <c r="R94" s="4"/>
     </row>
-    <row r="95" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A95" s="27"/>
       <c r="B95" s="27"/>
       <c r="C95" s="27"/>
@@ -11296,7 +11314,7 @@
       <c r="Q95" s="4"/>
       <c r="R95" s="4"/>
     </row>
-    <row r="96" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A96" s="28"/>
       <c r="B96" s="28"/>
       <c r="C96" s="28"/>

--- a/LM_Journal_Travail_V1.0.xlsx
+++ b/LM_Journal_Travail_V1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programmes\VS2019\Projets\Projet Gerber\Love-Mirroring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1338F63-D9E1-4BC9-AC51-E51FFC33751F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2839157A-147B-48EA-870B-84E468005374}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4500" yWindow="2115" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="189">
   <si>
     <t>Jalon</t>
   </si>
@@ -635,14 +635,22 @@
     <t>Création d'un controlleur pour chercher des titres en fonction de leur titre. Je dois trouver un autre moyen de chercher des musiques et je dois réfléchir à la manière de l'implémenter dans l'application. Je peux récupérer facilement des pistes si je mets des mots-clés. J'ai aussi changer un peu la structure du projet MVC pour regrouper les liens sur la gestion du compte de l'utilisateur. Je vais continuer mon développement sur Spotify et entrer en phase de test pour mon développement.</t>
   </si>
   <si>
-    <t>06.05.202</t>
-  </si>
-  <si>
     <t>Amélioration des tâches précèdentes (Gestion des exceptions)
 Gestion des rôles commencé
 Afficher rôles Ok
 Créer rôle Ok
 Ajouter rôle a un utilisateur en attente</t>
+  </si>
+  <si>
+    <t>07.05.2020</t>
+  </si>
+  <si>
+    <t>06.05.2020</t>
+  </si>
+  <si>
+    <t>Ajout d'un rôle à un utilisateur OK
+Supprimer un rôle d'un utilisateur OK
+Ajout des Autororize sur les controlluers en attente</t>
   </si>
 </sst>
 </file>
@@ -9067,8 +9075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F222774-5003-490D-9078-78D1F6F89A4A}">
   <dimension ref="A1:R96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -10224,10 +10232,10 @@
         <v>9</v>
       </c>
       <c r="C44" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="D44" s="9" t="s">
         <v>185</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>186</v>
       </c>
       <c r="E44" s="10"/>
       <c r="F44" s="4"/>
@@ -10244,11 +10252,19 @@
       <c r="Q44" s="4"/>
       <c r="R44" s="4"/>
     </row>
-    <row r="45" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="23"/>
-      <c r="B45" s="23"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
+    <row r="45" spans="1:18" ht="41.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="B45" s="23">
+        <v>9</v>
+      </c>
+      <c r="C45" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="D45" s="24" t="s">
+        <v>188</v>
+      </c>
       <c r="E45" s="10"/>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
@@ -10270,7 +10286,7 @@
       </c>
       <c r="B46" s="14">
         <f>SUM(B38:B45)</f>
-        <v>33.5</v>
+        <v>42.5</v>
       </c>
       <c r="C46" s="15"/>
       <c r="D46" s="15"/>

--- a/LM_Journal_Travail_V1.0.xlsx
+++ b/LM_Journal_Travail_V1.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programmes\VS2019\Projets\Projet Gerber\Love-Mirroring\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\Love-Mirroring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2839157A-147B-48EA-870B-84E468005374}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2FC9A94-DAE6-4FD0-860A-C2281BB8DAAD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4500" yWindow="2115" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Equipe" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <definedName name="NBLecons">#REF!</definedName>
     <definedName name="TachesPlanifiees">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="193">
   <si>
     <t>Jalon</t>
   </si>
@@ -651,6 +651,18 @@
     <t>Ajout d'un rôle à un utilisateur OK
 Supprimer un rôle d'un utilisateur OK
 Ajout des Autororize sur les controlluers en attente</t>
+  </si>
+  <si>
+    <t>Code Review et Test</t>
+  </si>
+  <si>
+    <t>J'ai fait un peu de code Review sur mes contrôleurs dans l'API et j'ai commenté mon code. J'ai aussi commencé à faire quelques tests pour gérer les BadRequest.</t>
+  </si>
+  <si>
+    <t>Test et code Review</t>
+  </si>
+  <si>
+    <t>J'ai testé les préférences pour gérer les erreurs en cas de suppression de nœuds dans le client. J'ai aussi gérer les erreurs lors de l'enregistrement des préférences avec une réinitialisation en cas d'erreur. Le quiz ne peut pas être rempli deux fois et la recherche d'utilisateur n'est pas autorisée s'il n'a pas enregistré ses préférences ou qu'il n'a pas répondu au Quiz.</t>
   </si>
 </sst>
 </file>
@@ -4295,10 +4307,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DB7A04D-A66F-4A89-83F1-9B353075A776}">
-  <dimension ref="A1:R101"/>
+  <dimension ref="A1:R103"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -5672,16 +5684,19 @@
       <c r="Q50" s="4"/>
       <c r="R50" s="4"/>
     </row>
-    <row r="51" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B51" s="14">
-        <f>SUM(B38:B50)</f>
-        <v>37.5</v>
-      </c>
-      <c r="C51" s="15"/>
-      <c r="D51" s="15"/>
+    <row r="51" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="42" t="s">
+        <v>189</v>
+      </c>
+      <c r="B51" s="45">
+        <v>2</v>
+      </c>
+      <c r="C51" s="43">
+        <v>43958</v>
+      </c>
+      <c r="D51" s="44" t="s">
+        <v>190</v>
+      </c>
       <c r="E51" s="10"/>
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
@@ -5697,11 +5712,19 @@
       <c r="Q51" s="4"/>
       <c r="R51" s="4"/>
     </row>
-    <row r="52" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="16"/>
-      <c r="B52" s="16"/>
-      <c r="C52" s="16"/>
-      <c r="D52" s="16"/>
+    <row r="52" spans="1:18" ht="68.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="42" t="s">
+        <v>191</v>
+      </c>
+      <c r="B52" s="45">
+        <v>3</v>
+      </c>
+      <c r="C52" s="43">
+        <v>43959</v>
+      </c>
+      <c r="D52" s="44" t="s">
+        <v>192</v>
+      </c>
       <c r="E52" s="10"/>
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
@@ -5717,15 +5740,16 @@
       <c r="Q52" s="4"/>
       <c r="R52" s="4"/>
     </row>
-    <row r="53" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B53" s="2">
-        <v>4</v>
-      </c>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
+    <row r="53" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B53" s="14">
+        <f>SUM(B38:B52)</f>
+        <v>42.5</v>
+      </c>
+      <c r="C53" s="15"/>
+      <c r="D53" s="15"/>
       <c r="E53" s="10"/>
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
@@ -5741,17 +5765,11 @@
       <c r="Q53" s="4"/>
       <c r="R53" s="4"/>
     </row>
-    <row r="54" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5" t="s">
-        <v>5</v>
-      </c>
+    <row r="54" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="16"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="16"/>
       <c r="E54" s="10"/>
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
@@ -5767,11 +5785,15 @@
       <c r="Q54" s="4"/>
       <c r="R54" s="4"/>
     </row>
-    <row r="55" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A55" s="19"/>
-      <c r="B55" s="19"/>
-      <c r="C55" s="20"/>
-      <c r="D55" s="20"/>
+    <row r="55" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" s="2">
+        <v>4</v>
+      </c>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
       <c r="E55" s="10"/>
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
@@ -5787,11 +5809,17 @@
       <c r="Q55" s="4"/>
       <c r="R55" s="4"/>
     </row>
-    <row r="56" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A56" s="7"/>
-      <c r="B56" s="7"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
+    <row r="56" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="E56" s="10"/>
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
@@ -5808,10 +5836,10 @@
       <c r="R56" s="4"/>
     </row>
     <row r="57" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A57" s="7"/>
-      <c r="B57" s="7"/>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
+      <c r="A57" s="19"/>
+      <c r="B57" s="19"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="20"/>
       <c r="E57" s="10"/>
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
@@ -5888,10 +5916,10 @@
       <c r="R60" s="4"/>
     </row>
     <row r="61" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A61" s="25"/>
-      <c r="B61" s="25"/>
-      <c r="C61" s="26"/>
-      <c r="D61" s="26"/>
+      <c r="A61" s="7"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
       <c r="E61" s="10"/>
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
@@ -5908,10 +5936,10 @@
       <c r="R61" s="4"/>
     </row>
     <row r="62" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A62" s="25"/>
-      <c r="B62" s="25"/>
-      <c r="C62" s="26"/>
-      <c r="D62" s="26"/>
+      <c r="A62" s="7"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
       <c r="E62" s="10"/>
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
@@ -5967,11 +5995,11 @@
       <c r="Q64" s="4"/>
       <c r="R64" s="4"/>
     </row>
-    <row r="65" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="23"/>
-      <c r="B65" s="23"/>
-      <c r="C65" s="24"/>
-      <c r="D65" s="24"/>
+    <row r="65" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A65" s="25"/>
+      <c r="B65" s="25"/>
+      <c r="C65" s="26"/>
+      <c r="D65" s="26"/>
       <c r="E65" s="10"/>
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
@@ -5987,16 +6015,11 @@
       <c r="Q65" s="4"/>
       <c r="R65" s="4"/>
     </row>
-    <row r="66" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B66" s="14">
-        <f>SUM(B55:B65)</f>
-        <v>0</v>
-      </c>
-      <c r="C66" s="15"/>
-      <c r="D66" s="15"/>
+    <row r="66" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A66" s="25"/>
+      <c r="B66" s="25"/>
+      <c r="C66" s="26"/>
+      <c r="D66" s="26"/>
       <c r="E66" s="10"/>
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
@@ -6013,10 +6036,10 @@
       <c r="R66" s="4"/>
     </row>
     <row r="67" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="16"/>
-      <c r="B67" s="16"/>
-      <c r="C67" s="16"/>
-      <c r="D67" s="16"/>
+      <c r="A67" s="23"/>
+      <c r="B67" s="23"/>
+      <c r="C67" s="24"/>
+      <c r="D67" s="24"/>
       <c r="E67" s="10"/>
       <c r="F67" s="4"/>
       <c r="G67" s="4"/>
@@ -6032,15 +6055,16 @@
       <c r="Q67" s="4"/>
       <c r="R67" s="4"/>
     </row>
-    <row r="68" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="1" t="s">
+    <row r="68" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B68" s="14">
+        <f>SUM(B57:B67)</f>
         <v>0</v>
       </c>
-      <c r="B68" s="2">
-        <v>5</v>
-      </c>
-      <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
+      <c r="C68" s="15"/>
+      <c r="D68" s="15"/>
       <c r="E68" s="10"/>
       <c r="F68" s="4"/>
       <c r="G68" s="4"/>
@@ -6056,17 +6080,11 @@
       <c r="Q68" s="4"/>
       <c r="R68" s="4"/>
     </row>
-    <row r="69" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B69" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C69" s="5"/>
-      <c r="D69" s="5" t="s">
-        <v>5</v>
-      </c>
+    <row r="69" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="16"/>
+      <c r="B69" s="16"/>
+      <c r="C69" s="16"/>
+      <c r="D69" s="16"/>
       <c r="E69" s="10"/>
       <c r="F69" s="4"/>
       <c r="G69" s="4"/>
@@ -6082,11 +6100,15 @@
       <c r="Q69" s="4"/>
       <c r="R69" s="4"/>
     </row>
-    <row r="70" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A70" s="19"/>
-      <c r="B70" s="19"/>
-      <c r="C70" s="20"/>
-      <c r="D70" s="20"/>
+    <row r="70" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B70" s="2">
+        <v>5</v>
+      </c>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
       <c r="E70" s="10"/>
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
@@ -6102,11 +6124,17 @@
       <c r="Q70" s="4"/>
       <c r="R70" s="4"/>
     </row>
-    <row r="71" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A71" s="7"/>
-      <c r="B71" s="7"/>
-      <c r="C71" s="9"/>
-      <c r="D71" s="9"/>
+    <row r="71" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="E71" s="10"/>
       <c r="F71" s="4"/>
       <c r="G71" s="4"/>
@@ -6123,10 +6151,10 @@
       <c r="R71" s="4"/>
     </row>
     <row r="72" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A72" s="7"/>
-      <c r="B72" s="7"/>
-      <c r="C72" s="9"/>
-      <c r="D72" s="9"/>
+      <c r="A72" s="19"/>
+      <c r="B72" s="19"/>
+      <c r="C72" s="20"/>
+      <c r="D72" s="20"/>
       <c r="E72" s="10"/>
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
@@ -6182,11 +6210,11 @@
       <c r="Q74" s="4"/>
       <c r="R74" s="4"/>
     </row>
-    <row r="75" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="23"/>
-      <c r="B75" s="23"/>
-      <c r="C75" s="24"/>
-      <c r="D75" s="24"/>
+    <row r="75" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A75" s="7"/>
+      <c r="B75" s="7"/>
+      <c r="C75" s="9"/>
+      <c r="D75" s="9"/>
       <c r="E75" s="10"/>
       <c r="F75" s="4"/>
       <c r="G75" s="4"/>
@@ -6202,16 +6230,11 @@
       <c r="Q75" s="4"/>
       <c r="R75" s="4"/>
     </row>
-    <row r="76" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B76" s="14">
-        <f>SUM(B70:B75)</f>
-        <v>0</v>
-      </c>
-      <c r="C76" s="15"/>
-      <c r="D76" s="15"/>
+    <row r="76" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A76" s="7"/>
+      <c r="B76" s="7"/>
+      <c r="C76" s="9"/>
+      <c r="D76" s="9"/>
       <c r="E76" s="10"/>
       <c r="F76" s="4"/>
       <c r="G76" s="4"/>
@@ -6228,10 +6251,10 @@
       <c r="R76" s="4"/>
     </row>
     <row r="77" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="16"/>
-      <c r="B77" s="16"/>
-      <c r="C77" s="16"/>
-      <c r="D77" s="16"/>
+      <c r="A77" s="23"/>
+      <c r="B77" s="23"/>
+      <c r="C77" s="24"/>
+      <c r="D77" s="24"/>
       <c r="E77" s="10"/>
       <c r="F77" s="4"/>
       <c r="G77" s="4"/>
@@ -6247,15 +6270,16 @@
       <c r="Q77" s="4"/>
       <c r="R77" s="4"/>
     </row>
-    <row r="78" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="1" t="s">
+    <row r="78" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B78" s="14">
+        <f>SUM(B72:B77)</f>
         <v>0</v>
       </c>
-      <c r="B78" s="2">
-        <v>6</v>
-      </c>
-      <c r="C78" s="3"/>
-      <c r="D78" s="3"/>
+      <c r="C78" s="15"/>
+      <c r="D78" s="15"/>
       <c r="E78" s="10"/>
       <c r="F78" s="4"/>
       <c r="G78" s="4"/>
@@ -6271,17 +6295,11 @@
       <c r="Q78" s="4"/>
       <c r="R78" s="4"/>
     </row>
-    <row r="79" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B79" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C79" s="5"/>
-      <c r="D79" s="5" t="s">
-        <v>5</v>
-      </c>
+    <row r="79" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="16"/>
+      <c r="B79" s="16"/>
+      <c r="C79" s="16"/>
+      <c r="D79" s="16"/>
       <c r="E79" s="10"/>
       <c r="F79" s="4"/>
       <c r="G79" s="4"/>
@@ -6297,11 +6315,15 @@
       <c r="Q79" s="4"/>
       <c r="R79" s="4"/>
     </row>
-    <row r="80" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A80" s="19"/>
-      <c r="B80" s="19"/>
-      <c r="C80" s="20"/>
-      <c r="D80" s="20"/>
+    <row r="80" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B80" s="2">
+        <v>6</v>
+      </c>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
       <c r="E80" s="10"/>
       <c r="F80" s="4"/>
       <c r="G80" s="4"/>
@@ -6317,11 +6339,17 @@
       <c r="Q80" s="4"/>
       <c r="R80" s="4"/>
     </row>
-    <row r="81" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A81" s="7"/>
-      <c r="B81" s="7"/>
-      <c r="C81" s="9"/>
-      <c r="D81" s="9"/>
+    <row r="81" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="E81" s="10"/>
       <c r="F81" s="4"/>
       <c r="G81" s="4"/>
@@ -6338,10 +6366,10 @@
       <c r="R81" s="4"/>
     </row>
     <row r="82" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A82" s="7"/>
-      <c r="B82" s="7"/>
-      <c r="C82" s="9"/>
-      <c r="D82" s="9"/>
+      <c r="A82" s="19"/>
+      <c r="B82" s="19"/>
+      <c r="C82" s="20"/>
+      <c r="D82" s="20"/>
       <c r="E82" s="10"/>
       <c r="F82" s="4"/>
       <c r="G82" s="4"/>
@@ -6437,11 +6465,11 @@
       <c r="Q86" s="4"/>
       <c r="R86" s="4"/>
     </row>
-    <row r="87" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="23"/>
-      <c r="B87" s="23"/>
-      <c r="C87" s="24"/>
-      <c r="D87" s="24"/>
+    <row r="87" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A87" s="7"/>
+      <c r="B87" s="7"/>
+      <c r="C87" s="9"/>
+      <c r="D87" s="9"/>
       <c r="E87" s="10"/>
       <c r="F87" s="4"/>
       <c r="G87" s="4"/>
@@ -6457,16 +6485,11 @@
       <c r="Q87" s="4"/>
       <c r="R87" s="4"/>
     </row>
-    <row r="88" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B88" s="14">
-        <f>SUM(B80:B87)</f>
-        <v>0</v>
-      </c>
-      <c r="C88" s="15"/>
-      <c r="D88" s="15"/>
+    <row r="88" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A88" s="7"/>
+      <c r="B88" s="7"/>
+      <c r="C88" s="9"/>
+      <c r="D88" s="9"/>
       <c r="E88" s="10"/>
       <c r="F88" s="4"/>
       <c r="G88" s="4"/>
@@ -6482,11 +6505,11 @@
       <c r="Q88" s="4"/>
       <c r="R88" s="4"/>
     </row>
-    <row r="89" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A89" s="16"/>
-      <c r="B89" s="16"/>
-      <c r="C89" s="16"/>
-      <c r="D89" s="16"/>
+    <row r="89" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="23"/>
+      <c r="B89" s="23"/>
+      <c r="C89" s="24"/>
+      <c r="D89" s="24"/>
       <c r="E89" s="10"/>
       <c r="F89" s="4"/>
       <c r="G89" s="4"/>
@@ -6502,11 +6525,16 @@
       <c r="Q89" s="4"/>
       <c r="R89" s="4"/>
     </row>
-    <row r="90" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A90" s="27"/>
-      <c r="B90" s="27"/>
-      <c r="C90" s="27"/>
-      <c r="D90" s="27"/>
+    <row r="90" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B90" s="14">
+        <f>SUM(B82:B89)</f>
+        <v>0</v>
+      </c>
+      <c r="C90" s="15"/>
+      <c r="D90" s="15"/>
       <c r="E90" s="10"/>
       <c r="F90" s="4"/>
       <c r="G90" s="4"/>
@@ -6523,10 +6551,10 @@
       <c r="R90" s="4"/>
     </row>
     <row r="91" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A91" s="27"/>
-      <c r="B91" s="27"/>
-      <c r="C91" s="27"/>
-      <c r="D91" s="27"/>
+      <c r="A91" s="16"/>
+      <c r="B91" s="16"/>
+      <c r="C91" s="16"/>
+      <c r="D91" s="16"/>
       <c r="E91" s="10"/>
       <c r="F91" s="4"/>
       <c r="G91" s="4"/>
@@ -6707,20 +6735,60 @@
       <c r="B100" s="27"/>
       <c r="C100" s="27"/>
       <c r="D100" s="27"/>
+      <c r="E100" s="10"/>
+      <c r="F100" s="4"/>
+      <c r="G100" s="4"/>
+      <c r="H100" s="4"/>
+      <c r="I100" s="4"/>
+      <c r="J100" s="4"/>
+      <c r="K100" s="4"/>
+      <c r="L100" s="4"/>
+      <c r="M100" s="4"/>
+      <c r="N100" s="4"/>
+      <c r="O100" s="4"/>
+      <c r="P100" s="4"/>
+      <c r="Q100" s="4"/>
+      <c r="R100" s="4"/>
     </row>
     <row r="101" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A101" s="28"/>
-      <c r="B101" s="28"/>
-      <c r="C101" s="28"/>
-      <c r="D101" s="28"/>
+      <c r="A101" s="27"/>
+      <c r="B101" s="27"/>
+      <c r="C101" s="27"/>
+      <c r="D101" s="27"/>
+      <c r="E101" s="10"/>
+      <c r="F101" s="4"/>
+      <c r="G101" s="4"/>
+      <c r="H101" s="4"/>
+      <c r="I101" s="4"/>
+      <c r="J101" s="4"/>
+      <c r="K101" s="4"/>
+      <c r="L101" s="4"/>
+      <c r="M101" s="4"/>
+      <c r="N101" s="4"/>
+      <c r="O101" s="4"/>
+      <c r="P101" s="4"/>
+      <c r="Q101" s="4"/>
+      <c r="R101" s="4"/>
+    </row>
+    <row r="102" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A102" s="27"/>
+      <c r="B102" s="27"/>
+      <c r="C102" s="27"/>
+      <c r="D102" s="27"/>
+    </row>
+    <row r="103" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A103" s="28"/>
+      <c r="B103" s="28"/>
+      <c r="C103" s="28"/>
+      <c r="D103" s="28"/>
     </row>
   </sheetData>
   <dataValidations xWindow="188" yWindow="522" count="2">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" prompt="Dépassement de durée - Le nombre de minutes introduites dépasse la durée d'une période. Veuillez confirmer ... Le calcul du total sera juste dans tous les cas._x000a_" sqref="B12 B34 B51 B66 B76 B88" xr:uid="{41F29EDA-D509-4469-8DFB-6A4CE4CEAE07}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" prompt="Dépassement de durée - Le nombre de minutes introduites dépasse la durée d'une période. Veuillez confirmer ... Le calcul du total sera juste dans tous les cas._x000a_" sqref="B12 B34 B53 B68 B78 B90" xr:uid="{41F29EDA-D509-4469-8DFB-6A4CE4CEAE07}">
       <formula1>0</formula1>
       <formula2>DureePeriode-1</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" prompt="Durée en 1/3 de période - Le nombre doit être de type entier" sqref="B80:B87 B38:B39 B55:B65 B70:B75 B10:B11 B3:B8 B16:B33 B41:B45" xr:uid="{3039B7E3-952E-4B34-B612-E5A0C049619C}">
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" prompt="Durée en 1/3 de période - Le nombre doit être de type entier" sqref="B82:B89 B38:B39 B57:B67 B72:B77 B10:B11 B3:B8 B16:B33 B41:B45" xr:uid="{3039B7E3-952E-4B34-B612-E5A0C049619C}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -9075,7 +9143,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F222774-5003-490D-9078-78D1F6F89A4A}">
   <dimension ref="A1:R96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+    <sheetView topLeftCell="A39" workbookViewId="0">
       <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>

--- a/LM_Journal_Travail_V1.0.xlsx
+++ b/LM_Journal_Travail_V1.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\Love-Mirroring\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programmes\VS2019\Projets\Projet Gerber\Love-Mirroring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2FC9A94-DAE6-4FD0-860A-C2281BB8DAAD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8CAF1FF-415A-4DDF-9308-9C39A6D03A41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4845" yWindow="2460" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Equipe" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <definedName name="NBLecons">#REF!</definedName>
     <definedName name="TachesPlanifiees">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="195">
   <si>
     <t>Jalon</t>
   </si>
@@ -663,6 +663,13 @@
   </si>
   <si>
     <t>J'ai testé les préférences pour gérer les erreurs en cas de suppression de nœuds dans le client. J'ai aussi gérer les erreurs lors de l'enregistrement des préférences avec une réinitialisation en cas d'erreur. Le quiz ne peut pas être rempli deux fois et la recherche d'utilisateur n'est pas autorisée s'il n'a pas enregistré ses préférences ou qu'il n'a pas répondu au Quiz.</t>
+  </si>
+  <si>
+    <t>08.05.2020</t>
+  </si>
+  <si>
+    <t>Ajout des authorize avec Tim
+En Test</t>
   </si>
 </sst>
 </file>
@@ -4309,7 +4316,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DB7A04D-A66F-4A89-83F1-9B353075A776}">
   <dimension ref="A1:R103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
@@ -9141,10 +9148,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F222774-5003-490D-9078-78D1F6F89A4A}">
-  <dimension ref="A1:R96"/>
+  <dimension ref="A1:R98"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -10349,15 +10356,18 @@
       <c r="R45" s="4"/>
     </row>
     <row r="46" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B46" s="14">
-        <f>SUM(B38:B45)</f>
-        <v>42.5</v>
-      </c>
-      <c r="C46" s="15"/>
-      <c r="D46" s="15"/>
+      <c r="A46" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="B46" s="42">
+        <v>4.5</v>
+      </c>
+      <c r="C46" s="44" t="s">
+        <v>193</v>
+      </c>
+      <c r="D46" s="44" t="s">
+        <v>194</v>
+      </c>
       <c r="E46" s="10"/>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
@@ -10374,10 +10384,10 @@
       <c r="R46" s="4"/>
     </row>
     <row r="47" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="16"/>
-      <c r="B47" s="16"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
+      <c r="A47" s="42"/>
+      <c r="B47" s="42"/>
+      <c r="C47" s="44"/>
+      <c r="D47" s="44"/>
       <c r="E47" s="10"/>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
@@ -10393,15 +10403,16 @@
       <c r="Q47" s="4"/>
       <c r="R47" s="4"/>
     </row>
-    <row r="48" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B48" s="2">
-        <v>4</v>
-      </c>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
+    <row r="48" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B48" s="14">
+        <f>SUM(B38:B46)</f>
+        <v>47</v>
+      </c>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
       <c r="E48" s="10"/>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
@@ -10417,17 +10428,11 @@
       <c r="Q48" s="4"/>
       <c r="R48" s="4"/>
     </row>
-    <row r="49" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5" t="s">
-        <v>5</v>
-      </c>
+    <row r="49" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="16"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
       <c r="E49" s="10"/>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
@@ -10443,11 +10448,15 @@
       <c r="Q49" s="4"/>
       <c r="R49" s="4"/>
     </row>
-    <row r="50" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A50" s="19"/>
-      <c r="B50" s="19"/>
-      <c r="C50" s="20"/>
-      <c r="D50" s="20"/>
+    <row r="50" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" s="2">
+        <v>4</v>
+      </c>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
       <c r="E50" s="10"/>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
@@ -10463,11 +10472,17 @@
       <c r="Q50" s="4"/>
       <c r="R50" s="4"/>
     </row>
-    <row r="51" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A51" s="7"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
+    <row r="51" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="E51" s="10"/>
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
@@ -10484,10 +10499,10 @@
       <c r="R51" s="4"/>
     </row>
     <row r="52" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A52" s="7"/>
-      <c r="B52" s="7"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
+      <c r="A52" s="19"/>
+      <c r="B52" s="19"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="20"/>
       <c r="E52" s="10"/>
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
@@ -10564,10 +10579,10 @@
       <c r="R55" s="4"/>
     </row>
     <row r="56" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A56" s="25"/>
-      <c r="B56" s="25"/>
-      <c r="C56" s="26"/>
-      <c r="D56" s="26"/>
+      <c r="A56" s="7"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
       <c r="E56" s="10"/>
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
@@ -10584,10 +10599,10 @@
       <c r="R56" s="4"/>
     </row>
     <row r="57" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A57" s="25"/>
-      <c r="B57" s="25"/>
-      <c r="C57" s="26"/>
-      <c r="D57" s="26"/>
+      <c r="A57" s="7"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
       <c r="E57" s="10"/>
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
@@ -10643,11 +10658,11 @@
       <c r="Q59" s="4"/>
       <c r="R59" s="4"/>
     </row>
-    <row r="60" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="23"/>
-      <c r="B60" s="23"/>
-      <c r="C60" s="24"/>
-      <c r="D60" s="24"/>
+    <row r="60" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A60" s="25"/>
+      <c r="B60" s="25"/>
+      <c r="C60" s="26"/>
+      <c r="D60" s="26"/>
       <c r="E60" s="10"/>
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
@@ -10663,16 +10678,11 @@
       <c r="Q60" s="4"/>
       <c r="R60" s="4"/>
     </row>
-    <row r="61" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B61" s="14">
-        <f>SUM(B50:B60)</f>
-        <v>0</v>
-      </c>
-      <c r="C61" s="15"/>
-      <c r="D61" s="15"/>
+    <row r="61" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A61" s="25"/>
+      <c r="B61" s="25"/>
+      <c r="C61" s="26"/>
+      <c r="D61" s="26"/>
       <c r="E61" s="10"/>
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
@@ -10689,10 +10699,10 @@
       <c r="R61" s="4"/>
     </row>
     <row r="62" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="16"/>
-      <c r="B62" s="16"/>
-      <c r="C62" s="16"/>
-      <c r="D62" s="16"/>
+      <c r="A62" s="23"/>
+      <c r="B62" s="23"/>
+      <c r="C62" s="24"/>
+      <c r="D62" s="24"/>
       <c r="E62" s="10"/>
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
@@ -10708,15 +10718,16 @@
       <c r="Q62" s="4"/>
       <c r="R62" s="4"/>
     </row>
-    <row r="63" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="1" t="s">
+    <row r="63" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B63" s="14">
+        <f>SUM(B52:B62)</f>
         <v>0</v>
       </c>
-      <c r="B63" s="2">
-        <v>5</v>
-      </c>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
+      <c r="C63" s="15"/>
+      <c r="D63" s="15"/>
       <c r="E63" s="10"/>
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
@@ -10732,17 +10743,11 @@
       <c r="Q63" s="4"/>
       <c r="R63" s="4"/>
     </row>
-    <row r="64" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C64" s="5"/>
-      <c r="D64" s="5" t="s">
-        <v>5</v>
-      </c>
+    <row r="64" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="16"/>
+      <c r="B64" s="16"/>
+      <c r="C64" s="16"/>
+      <c r="D64" s="16"/>
       <c r="E64" s="10"/>
       <c r="F64" s="4"/>
       <c r="G64" s="4"/>
@@ -10758,11 +10763,15 @@
       <c r="Q64" s="4"/>
       <c r="R64" s="4"/>
     </row>
-    <row r="65" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A65" s="19"/>
-      <c r="B65" s="19"/>
-      <c r="C65" s="20"/>
-      <c r="D65" s="20"/>
+    <row r="65" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65" s="2">
+        <v>5</v>
+      </c>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
       <c r="E65" s="10"/>
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
@@ -10778,11 +10787,17 @@
       <c r="Q65" s="4"/>
       <c r="R65" s="4"/>
     </row>
-    <row r="66" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A66" s="7"/>
-      <c r="B66" s="7"/>
-      <c r="C66" s="9"/>
-      <c r="D66" s="9"/>
+    <row r="66" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="E66" s="10"/>
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
@@ -10799,10 +10814,10 @@
       <c r="R66" s="4"/>
     </row>
     <row r="67" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A67" s="7"/>
-      <c r="B67" s="7"/>
-      <c r="C67" s="9"/>
-      <c r="D67" s="9"/>
+      <c r="A67" s="19"/>
+      <c r="B67" s="19"/>
+      <c r="C67" s="20"/>
+      <c r="D67" s="20"/>
       <c r="E67" s="10"/>
       <c r="F67" s="4"/>
       <c r="G67" s="4"/>
@@ -10858,11 +10873,11 @@
       <c r="Q69" s="4"/>
       <c r="R69" s="4"/>
     </row>
-    <row r="70" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="23"/>
-      <c r="B70" s="23"/>
-      <c r="C70" s="24"/>
-      <c r="D70" s="24"/>
+    <row r="70" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A70" s="7"/>
+      <c r="B70" s="7"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
       <c r="E70" s="10"/>
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
@@ -10878,16 +10893,11 @@
       <c r="Q70" s="4"/>
       <c r="R70" s="4"/>
     </row>
-    <row r="71" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B71" s="14">
-        <f>SUM(B65:B70)</f>
-        <v>0</v>
-      </c>
-      <c r="C71" s="15"/>
-      <c r="D71" s="15"/>
+    <row r="71" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A71" s="7"/>
+      <c r="B71" s="7"/>
+      <c r="C71" s="9"/>
+      <c r="D71" s="9"/>
       <c r="E71" s="10"/>
       <c r="F71" s="4"/>
       <c r="G71" s="4"/>
@@ -10904,10 +10914,10 @@
       <c r="R71" s="4"/>
     </row>
     <row r="72" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="16"/>
-      <c r="B72" s="16"/>
-      <c r="C72" s="16"/>
-      <c r="D72" s="16"/>
+      <c r="A72" s="23"/>
+      <c r="B72" s="23"/>
+      <c r="C72" s="24"/>
+      <c r="D72" s="24"/>
       <c r="E72" s="10"/>
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
@@ -10923,15 +10933,16 @@
       <c r="Q72" s="4"/>
       <c r="R72" s="4"/>
     </row>
-    <row r="73" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="1" t="s">
+    <row r="73" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B73" s="14">
+        <f>SUM(B67:B72)</f>
         <v>0</v>
       </c>
-      <c r="B73" s="2">
-        <v>6</v>
-      </c>
-      <c r="C73" s="3"/>
-      <c r="D73" s="3"/>
+      <c r="C73" s="15"/>
+      <c r="D73" s="15"/>
       <c r="E73" s="10"/>
       <c r="F73" s="4"/>
       <c r="G73" s="4"/>
@@ -10947,17 +10958,11 @@
       <c r="Q73" s="4"/>
       <c r="R73" s="4"/>
     </row>
-    <row r="74" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B74" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C74" s="5"/>
-      <c r="D74" s="5" t="s">
-        <v>5</v>
-      </c>
+    <row r="74" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="16"/>
+      <c r="B74" s="16"/>
+      <c r="C74" s="16"/>
+      <c r="D74" s="16"/>
       <c r="E74" s="10"/>
       <c r="F74" s="4"/>
       <c r="G74" s="4"/>
@@ -10973,11 +10978,15 @@
       <c r="Q74" s="4"/>
       <c r="R74" s="4"/>
     </row>
-    <row r="75" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A75" s="19"/>
-      <c r="B75" s="19"/>
-      <c r="C75" s="20"/>
-      <c r="D75" s="20"/>
+    <row r="75" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B75" s="2">
+        <v>6</v>
+      </c>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
       <c r="E75" s="10"/>
       <c r="F75" s="4"/>
       <c r="G75" s="4"/>
@@ -10993,11 +11002,17 @@
       <c r="Q75" s="4"/>
       <c r="R75" s="4"/>
     </row>
-    <row r="76" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A76" s="7"/>
-      <c r="B76" s="7"/>
-      <c r="C76" s="9"/>
-      <c r="D76" s="9"/>
+    <row r="76" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="E76" s="10"/>
       <c r="F76" s="4"/>
       <c r="G76" s="4"/>
@@ -11014,10 +11029,10 @@
       <c r="R76" s="4"/>
     </row>
     <row r="77" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A77" s="7"/>
-      <c r="B77" s="7"/>
-      <c r="C77" s="9"/>
-      <c r="D77" s="9"/>
+      <c r="A77" s="19"/>
+      <c r="B77" s="19"/>
+      <c r="C77" s="20"/>
+      <c r="D77" s="20"/>
       <c r="E77" s="10"/>
       <c r="F77" s="4"/>
       <c r="G77" s="4"/>
@@ -11113,11 +11128,11 @@
       <c r="Q81" s="4"/>
       <c r="R81" s="4"/>
     </row>
-    <row r="82" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="23"/>
-      <c r="B82" s="23"/>
-      <c r="C82" s="24"/>
-      <c r="D82" s="24"/>
+    <row r="82" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A82" s="7"/>
+      <c r="B82" s="7"/>
+      <c r="C82" s="9"/>
+      <c r="D82" s="9"/>
       <c r="E82" s="10"/>
       <c r="F82" s="4"/>
       <c r="G82" s="4"/>
@@ -11133,16 +11148,11 @@
       <c r="Q82" s="4"/>
       <c r="R82" s="4"/>
     </row>
-    <row r="83" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B83" s="14">
-        <f>SUM(B75:B82)</f>
-        <v>0</v>
-      </c>
-      <c r="C83" s="15"/>
-      <c r="D83" s="15"/>
+    <row r="83" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A83" s="7"/>
+      <c r="B83" s="7"/>
+      <c r="C83" s="9"/>
+      <c r="D83" s="9"/>
       <c r="E83" s="10"/>
       <c r="F83" s="4"/>
       <c r="G83" s="4"/>
@@ -11158,11 +11168,11 @@
       <c r="Q83" s="4"/>
       <c r="R83" s="4"/>
     </row>
-    <row r="84" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A84" s="16"/>
-      <c r="B84" s="16"/>
-      <c r="C84" s="16"/>
-      <c r="D84" s="16"/>
+    <row r="84" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="23"/>
+      <c r="B84" s="23"/>
+      <c r="C84" s="24"/>
+      <c r="D84" s="24"/>
       <c r="E84" s="10"/>
       <c r="F84" s="4"/>
       <c r="G84" s="4"/>
@@ -11178,11 +11188,16 @@
       <c r="Q84" s="4"/>
       <c r="R84" s="4"/>
     </row>
-    <row r="85" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A85" s="27"/>
-      <c r="B85" s="27"/>
-      <c r="C85" s="27"/>
-      <c r="D85" s="27"/>
+    <row r="85" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B85" s="14">
+        <f>SUM(B77:B84)</f>
+        <v>0</v>
+      </c>
+      <c r="C85" s="15"/>
+      <c r="D85" s="15"/>
       <c r="E85" s="10"/>
       <c r="F85" s="4"/>
       <c r="G85" s="4"/>
@@ -11199,10 +11214,10 @@
       <c r="R85" s="4"/>
     </row>
     <row r="86" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A86" s="27"/>
-      <c r="B86" s="27"/>
-      <c r="C86" s="27"/>
-      <c r="D86" s="27"/>
+      <c r="A86" s="16"/>
+      <c r="B86" s="16"/>
+      <c r="C86" s="16"/>
+      <c r="D86" s="16"/>
       <c r="E86" s="10"/>
       <c r="F86" s="4"/>
       <c r="G86" s="4"/>
@@ -11399,10 +11414,10 @@
       <c r="R95" s="4"/>
     </row>
     <row r="96" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A96" s="28"/>
-      <c r="B96" s="28"/>
-      <c r="C96" s="28"/>
-      <c r="D96" s="28"/>
+      <c r="A96" s="27"/>
+      <c r="B96" s="27"/>
+      <c r="C96" s="27"/>
+      <c r="D96" s="27"/>
       <c r="E96" s="10"/>
       <c r="F96" s="4"/>
       <c r="G96" s="4"/>
@@ -11418,12 +11433,52 @@
       <c r="Q96" s="4"/>
       <c r="R96" s="4"/>
     </row>
+    <row r="97" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A97" s="27"/>
+      <c r="B97" s="27"/>
+      <c r="C97" s="27"/>
+      <c r="D97" s="27"/>
+      <c r="E97" s="10"/>
+      <c r="F97" s="4"/>
+      <c r="G97" s="4"/>
+      <c r="H97" s="4"/>
+      <c r="I97" s="4"/>
+      <c r="J97" s="4"/>
+      <c r="K97" s="4"/>
+      <c r="L97" s="4"/>
+      <c r="M97" s="4"/>
+      <c r="N97" s="4"/>
+      <c r="O97" s="4"/>
+      <c r="P97" s="4"/>
+      <c r="Q97" s="4"/>
+      <c r="R97" s="4"/>
+    </row>
+    <row r="98" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A98" s="28"/>
+      <c r="B98" s="28"/>
+      <c r="C98" s="28"/>
+      <c r="D98" s="28"/>
+      <c r="E98" s="10"/>
+      <c r="F98" s="4"/>
+      <c r="G98" s="4"/>
+      <c r="H98" s="4"/>
+      <c r="I98" s="4"/>
+      <c r="J98" s="4"/>
+      <c r="K98" s="4"/>
+      <c r="L98" s="4"/>
+      <c r="M98" s="4"/>
+      <c r="N98" s="4"/>
+      <c r="O98" s="4"/>
+      <c r="P98" s="4"/>
+      <c r="Q98" s="4"/>
+      <c r="R98" s="4"/>
+    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" prompt="Durée en 1/3 de période - Le nombre doit être de type entier" sqref="B75:B82 B10:B13 B38:B39 B41:B45 B50:B60 B65:B70 B3:B8 B18:B33" xr:uid="{64471589-AB55-4AF0-A3CB-2C4DA302E1FD}">
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" prompt="Durée en 1/3 de période - Le nombre doit être de type entier" sqref="B77:B84 B10:B13 B38:B39 B41:B47 B52:B62 B67:B72 B3:B8 B18:B33" xr:uid="{64471589-AB55-4AF0-A3CB-2C4DA302E1FD}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" prompt="Dépassement de durée - Le nombre de minutes introduites dépasse la durée d'une période. Veuillez confirmer ... Le calcul du total sera juste dans tous les cas._x000a_" sqref="B83 B34 B46 B61 B71 B14" xr:uid="{E5C4B3DD-C4A0-4BDF-8596-69EE95FDEE2C}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" prompt="Dépassement de durée - Le nombre de minutes introduites dépasse la durée d'une période. Veuillez confirmer ... Le calcul du total sera juste dans tous les cas._x000a_" sqref="B85 B34 B48 B63 B73 B14" xr:uid="{E5C4B3DD-C4A0-4BDF-8596-69EE95FDEE2C}">
       <formula1>0</formula1>
       <formula2>DureePeriode-1</formula2>
     </dataValidation>

--- a/LM_Journal_Travail_V1.0.xlsx
+++ b/LM_Journal_Travail_V1.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programmes\VS2019\Projets\Projet Gerber\Love-Mirroring\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\Love-Mirroring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8CAF1FF-415A-4DDF-9308-9C39A6D03A41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF555F8-48E0-4047-8AF8-95089E31B868}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4845" yWindow="2460" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Equipe" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <definedName name="NBLecons">#REF!</definedName>
     <definedName name="TachesPlanifiees">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="197">
   <si>
     <t>Jalon</t>
   </si>
@@ -670,6 +670,12 @@
   <si>
     <t>Ajout des authorize avec Tim
 En Test</t>
+  </si>
+  <si>
+    <t>Correction bug et ajout du match</t>
+  </si>
+  <si>
+    <t>J'ai corrigé plusieus bug et j'ai contrôlé l'ensemble de mes contrôleurs pour qu'ils fonctionnent en DEV. Je vais tester demain la version PROD. J'ai adapté la base de données car il manquait des contraintes. J'ai aussi ajouté un symbole pour dire à l'utilisateur quand un profil qu'il a liké et devenu un match (deux utilisateurs qui se sont likés). J'ai créé de nouveaux comptes pour tester de A à Z le fonctionnement de l'application.</t>
   </si>
 </sst>
 </file>
@@ -4314,10 +4320,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DB7A04D-A66F-4A89-83F1-9B353075A776}">
-  <dimension ref="A1:R103"/>
+  <dimension ref="A1:R104"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -5747,16 +5753,19 @@
       <c r="Q52" s="4"/>
       <c r="R52" s="4"/>
     </row>
-    <row r="53" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B53" s="14">
-        <f>SUM(B38:B52)</f>
-        <v>42.5</v>
-      </c>
-      <c r="C53" s="15"/>
-      <c r="D53" s="15"/>
+    <row r="53" spans="1:18" ht="81.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="42" t="s">
+        <v>195</v>
+      </c>
+      <c r="B53" s="45">
+        <v>7</v>
+      </c>
+      <c r="C53" s="43">
+        <v>43960</v>
+      </c>
+      <c r="D53" s="44" t="s">
+        <v>196</v>
+      </c>
       <c r="E53" s="10"/>
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
@@ -5773,10 +5782,15 @@
       <c r="R53" s="4"/>
     </row>
     <row r="54" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="16"/>
-      <c r="B54" s="16"/>
-      <c r="C54" s="16"/>
-      <c r="D54" s="16"/>
+      <c r="A54" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B54" s="14">
+        <f>SUM(B38:B53)</f>
+        <v>49.5</v>
+      </c>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
       <c r="E54" s="10"/>
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
@@ -5792,15 +5806,11 @@
       <c r="Q54" s="4"/>
       <c r="R54" s="4"/>
     </row>
-    <row r="55" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B55" s="2">
-        <v>4</v>
-      </c>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
+    <row r="55" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="16"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="16"/>
       <c r="E55" s="10"/>
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
@@ -5816,17 +5826,15 @@
       <c r="Q55" s="4"/>
       <c r="R55" s="4"/>
     </row>
-    <row r="56" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5" t="s">
-        <v>5</v>
-      </c>
+    <row r="56" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56" s="2">
+        <v>4</v>
+      </c>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
       <c r="E56" s="10"/>
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
@@ -5842,11 +5850,17 @@
       <c r="Q56" s="4"/>
       <c r="R56" s="4"/>
     </row>
-    <row r="57" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A57" s="19"/>
-      <c r="B57" s="19"/>
-      <c r="C57" s="20"/>
-      <c r="D57" s="20"/>
+    <row r="57" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="E57" s="10"/>
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
@@ -5863,10 +5877,10 @@
       <c r="R57" s="4"/>
     </row>
     <row r="58" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A58" s="7"/>
-      <c r="B58" s="7"/>
-      <c r="C58" s="9"/>
-      <c r="D58" s="9"/>
+      <c r="A58" s="19"/>
+      <c r="B58" s="19"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="20"/>
       <c r="E58" s="10"/>
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
@@ -5963,10 +5977,10 @@
       <c r="R62" s="4"/>
     </row>
     <row r="63" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A63" s="25"/>
-      <c r="B63" s="25"/>
-      <c r="C63" s="26"/>
-      <c r="D63" s="26"/>
+      <c r="A63" s="7"/>
+      <c r="B63" s="7"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
       <c r="E63" s="10"/>
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
@@ -6042,11 +6056,11 @@
       <c r="Q66" s="4"/>
       <c r="R66" s="4"/>
     </row>
-    <row r="67" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="23"/>
-      <c r="B67" s="23"/>
-      <c r="C67" s="24"/>
-      <c r="D67" s="24"/>
+    <row r="67" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A67" s="25"/>
+      <c r="B67" s="25"/>
+      <c r="C67" s="26"/>
+      <c r="D67" s="26"/>
       <c r="E67" s="10"/>
       <c r="F67" s="4"/>
       <c r="G67" s="4"/>
@@ -6063,15 +6077,10 @@
       <c r="R67" s="4"/>
     </row>
     <row r="68" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B68" s="14">
-        <f>SUM(B57:B67)</f>
-        <v>0</v>
-      </c>
-      <c r="C68" s="15"/>
-      <c r="D68" s="15"/>
+      <c r="A68" s="23"/>
+      <c r="B68" s="23"/>
+      <c r="C68" s="24"/>
+      <c r="D68" s="24"/>
       <c r="E68" s="10"/>
       <c r="F68" s="4"/>
       <c r="G68" s="4"/>
@@ -6088,10 +6097,15 @@
       <c r="R68" s="4"/>
     </row>
     <row r="69" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="16"/>
-      <c r="B69" s="16"/>
-      <c r="C69" s="16"/>
-      <c r="D69" s="16"/>
+      <c r="A69" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B69" s="14">
+        <f>SUM(B58:B68)</f>
+        <v>0</v>
+      </c>
+      <c r="C69" s="15"/>
+      <c r="D69" s="15"/>
       <c r="E69" s="10"/>
       <c r="F69" s="4"/>
       <c r="G69" s="4"/>
@@ -6107,15 +6121,11 @@
       <c r="Q69" s="4"/>
       <c r="R69" s="4"/>
     </row>
-    <row r="70" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B70" s="2">
-        <v>5</v>
-      </c>
-      <c r="C70" s="3"/>
-      <c r="D70" s="3"/>
+    <row r="70" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="16"/>
+      <c r="B70" s="16"/>
+      <c r="C70" s="16"/>
+      <c r="D70" s="16"/>
       <c r="E70" s="10"/>
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
@@ -6131,17 +6141,15 @@
       <c r="Q70" s="4"/>
       <c r="R70" s="4"/>
     </row>
-    <row r="71" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B71" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C71" s="5"/>
-      <c r="D71" s="5" t="s">
+    <row r="71" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B71" s="2">
         <v>5</v>
       </c>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
       <c r="E71" s="10"/>
       <c r="F71" s="4"/>
       <c r="G71" s="4"/>
@@ -6157,11 +6165,17 @@
       <c r="Q71" s="4"/>
       <c r="R71" s="4"/>
     </row>
-    <row r="72" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A72" s="19"/>
-      <c r="B72" s="19"/>
-      <c r="C72" s="20"/>
-      <c r="D72" s="20"/>
+    <row r="72" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="E72" s="10"/>
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
@@ -6178,10 +6192,10 @@
       <c r="R72" s="4"/>
     </row>
     <row r="73" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A73" s="7"/>
-      <c r="B73" s="7"/>
-      <c r="C73" s="9"/>
-      <c r="D73" s="9"/>
+      <c r="A73" s="19"/>
+      <c r="B73" s="19"/>
+      <c r="C73" s="20"/>
+      <c r="D73" s="20"/>
       <c r="E73" s="10"/>
       <c r="F73" s="4"/>
       <c r="G73" s="4"/>
@@ -6257,11 +6271,11 @@
       <c r="Q76" s="4"/>
       <c r="R76" s="4"/>
     </row>
-    <row r="77" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="23"/>
-      <c r="B77" s="23"/>
-      <c r="C77" s="24"/>
-      <c r="D77" s="24"/>
+    <row r="77" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A77" s="7"/>
+      <c r="B77" s="7"/>
+      <c r="C77" s="9"/>
+      <c r="D77" s="9"/>
       <c r="E77" s="10"/>
       <c r="F77" s="4"/>
       <c r="G77" s="4"/>
@@ -6278,15 +6292,10 @@
       <c r="R77" s="4"/>
     </row>
     <row r="78" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B78" s="14">
-        <f>SUM(B72:B77)</f>
-        <v>0</v>
-      </c>
-      <c r="C78" s="15"/>
-      <c r="D78" s="15"/>
+      <c r="A78" s="23"/>
+      <c r="B78" s="23"/>
+      <c r="C78" s="24"/>
+      <c r="D78" s="24"/>
       <c r="E78" s="10"/>
       <c r="F78" s="4"/>
       <c r="G78" s="4"/>
@@ -6303,10 +6312,15 @@
       <c r="R78" s="4"/>
     </row>
     <row r="79" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="16"/>
-      <c r="B79" s="16"/>
-      <c r="C79" s="16"/>
-      <c r="D79" s="16"/>
+      <c r="A79" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B79" s="14">
+        <f>SUM(B73:B78)</f>
+        <v>0</v>
+      </c>
+      <c r="C79" s="15"/>
+      <c r="D79" s="15"/>
       <c r="E79" s="10"/>
       <c r="F79" s="4"/>
       <c r="G79" s="4"/>
@@ -6322,15 +6336,11 @@
       <c r="Q79" s="4"/>
       <c r="R79" s="4"/>
     </row>
-    <row r="80" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B80" s="2">
-        <v>6</v>
-      </c>
-      <c r="C80" s="3"/>
-      <c r="D80" s="3"/>
+    <row r="80" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="16"/>
+      <c r="B80" s="16"/>
+      <c r="C80" s="16"/>
+      <c r="D80" s="16"/>
       <c r="E80" s="10"/>
       <c r="F80" s="4"/>
       <c r="G80" s="4"/>
@@ -6346,17 +6356,15 @@
       <c r="Q80" s="4"/>
       <c r="R80" s="4"/>
     </row>
-    <row r="81" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B81" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C81" s="5"/>
-      <c r="D81" s="5" t="s">
-        <v>5</v>
-      </c>
+    <row r="81" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B81" s="2">
+        <v>6</v>
+      </c>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
       <c r="E81" s="10"/>
       <c r="F81" s="4"/>
       <c r="G81" s="4"/>
@@ -6372,11 +6380,17 @@
       <c r="Q81" s="4"/>
       <c r="R81" s="4"/>
     </row>
-    <row r="82" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A82" s="19"/>
-      <c r="B82" s="19"/>
-      <c r="C82" s="20"/>
-      <c r="D82" s="20"/>
+    <row r="82" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="E82" s="10"/>
       <c r="F82" s="4"/>
       <c r="G82" s="4"/>
@@ -6393,10 +6407,10 @@
       <c r="R82" s="4"/>
     </row>
     <row r="83" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A83" s="7"/>
-      <c r="B83" s="7"/>
-      <c r="C83" s="9"/>
-      <c r="D83" s="9"/>
+      <c r="A83" s="19"/>
+      <c r="B83" s="19"/>
+      <c r="C83" s="20"/>
+      <c r="D83" s="20"/>
       <c r="E83" s="10"/>
       <c r="F83" s="4"/>
       <c r="G83" s="4"/>
@@ -6512,11 +6526,11 @@
       <c r="Q88" s="4"/>
       <c r="R88" s="4"/>
     </row>
-    <row r="89" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="23"/>
-      <c r="B89" s="23"/>
-      <c r="C89" s="24"/>
-      <c r="D89" s="24"/>
+    <row r="89" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A89" s="7"/>
+      <c r="B89" s="7"/>
+      <c r="C89" s="9"/>
+      <c r="D89" s="9"/>
       <c r="E89" s="10"/>
       <c r="F89" s="4"/>
       <c r="G89" s="4"/>
@@ -6533,15 +6547,10 @@
       <c r="R89" s="4"/>
     </row>
     <row r="90" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B90" s="14">
-        <f>SUM(B82:B89)</f>
-        <v>0</v>
-      </c>
-      <c r="C90" s="15"/>
-      <c r="D90" s="15"/>
+      <c r="A90" s="23"/>
+      <c r="B90" s="23"/>
+      <c r="C90" s="24"/>
+      <c r="D90" s="24"/>
       <c r="E90" s="10"/>
       <c r="F90" s="4"/>
       <c r="G90" s="4"/>
@@ -6557,11 +6566,16 @@
       <c r="Q90" s="4"/>
       <c r="R90" s="4"/>
     </row>
-    <row r="91" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A91" s="16"/>
-      <c r="B91" s="16"/>
-      <c r="C91" s="16"/>
-      <c r="D91" s="16"/>
+    <row r="91" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B91" s="14">
+        <f>SUM(B83:B90)</f>
+        <v>0</v>
+      </c>
+      <c r="C91" s="15"/>
+      <c r="D91" s="15"/>
       <c r="E91" s="10"/>
       <c r="F91" s="4"/>
       <c r="G91" s="4"/>
@@ -6578,10 +6592,10 @@
       <c r="R91" s="4"/>
     </row>
     <row r="92" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A92" s="27"/>
-      <c r="B92" s="27"/>
-      <c r="C92" s="27"/>
-      <c r="D92" s="27"/>
+      <c r="A92" s="16"/>
+      <c r="B92" s="16"/>
+      <c r="C92" s="16"/>
+      <c r="D92" s="16"/>
       <c r="E92" s="10"/>
       <c r="F92" s="4"/>
       <c r="G92" s="4"/>
@@ -6782,20 +6796,40 @@
       <c r="B102" s="27"/>
       <c r="C102" s="27"/>
       <c r="D102" s="27"/>
+      <c r="E102" s="10"/>
+      <c r="F102" s="4"/>
+      <c r="G102" s="4"/>
+      <c r="H102" s="4"/>
+      <c r="I102" s="4"/>
+      <c r="J102" s="4"/>
+      <c r="K102" s="4"/>
+      <c r="L102" s="4"/>
+      <c r="M102" s="4"/>
+      <c r="N102" s="4"/>
+      <c r="O102" s="4"/>
+      <c r="P102" s="4"/>
+      <c r="Q102" s="4"/>
+      <c r="R102" s="4"/>
     </row>
     <row r="103" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A103" s="28"/>
-      <c r="B103" s="28"/>
-      <c r="C103" s="28"/>
-      <c r="D103" s="28"/>
+      <c r="A103" s="27"/>
+      <c r="B103" s="27"/>
+      <c r="C103" s="27"/>
+      <c r="D103" s="27"/>
+    </row>
+    <row r="104" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A104" s="28"/>
+      <c r="B104" s="28"/>
+      <c r="C104" s="28"/>
+      <c r="D104" s="28"/>
     </row>
   </sheetData>
   <dataValidations xWindow="188" yWindow="522" count="2">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" prompt="Dépassement de durée - Le nombre de minutes introduites dépasse la durée d'une période. Veuillez confirmer ... Le calcul du total sera juste dans tous les cas._x000a_" sqref="B12 B34 B53 B68 B78 B90" xr:uid="{41F29EDA-D509-4469-8DFB-6A4CE4CEAE07}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" prompt="Dépassement de durée - Le nombre de minutes introduites dépasse la durée d'une période. Veuillez confirmer ... Le calcul du total sera juste dans tous les cas._x000a_" sqref="B12 B34 B54 B69 B79 B91" xr:uid="{41F29EDA-D509-4469-8DFB-6A4CE4CEAE07}">
       <formula1>0</formula1>
       <formula2>DureePeriode-1</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" prompt="Durée en 1/3 de période - Le nombre doit être de type entier" sqref="B82:B89 B38:B39 B57:B67 B72:B77 B10:B11 B3:B8 B16:B33 B41:B45" xr:uid="{3039B7E3-952E-4B34-B612-E5A0C049619C}">
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" prompt="Durée en 1/3 de période - Le nombre doit être de type entier" sqref="B83:B90 B38:B39 B58:B68 B73:B78 B10:B11 B3:B8 B16:B33 B41:B45" xr:uid="{3039B7E3-952E-4B34-B612-E5A0C049619C}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -9150,7 +9184,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F222774-5003-490D-9078-78D1F6F89A4A}">
   <dimension ref="A1:R98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+    <sheetView topLeftCell="A42" workbookViewId="0">
       <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>

--- a/LM_Journal_Travail_V1.0.xlsx
+++ b/LM_Journal_Travail_V1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\Love-Mirroring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF555F8-48E0-4047-8AF8-95089E31B868}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22082C77-9125-4DD5-8883-BB7027787508}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="199">
   <si>
     <t>Jalon</t>
   </si>
@@ -676,6 +676,12 @@
   </si>
   <si>
     <t>J'ai corrigé plusieus bug et j'ai contrôlé l'ensemble de mes contrôleurs pour qu'ils fonctionnent en DEV. Je vais tester demain la version PROD. J'ai adapté la base de données car il manquait des contraintes. J'ai aussi ajouté un symbole pour dire à l'utilisateur quand un profil qu'il a liké et devenu un match (deux utilisateurs qui se sont likés). J'ai créé de nouveaux comptes pour tester de A à Z le fonctionnement de l'application.</t>
+  </si>
+  <si>
+    <t>Mise en production + Sprint Backlog et ProductBacklog + Concept de test</t>
+  </si>
+  <si>
+    <t>J'ai mis à jour le Sprint Backlog et le Product Backlog. J'ai mis en production ma partie avec l'aide de Monsieur Allemann et j'ai effectué des tests pour m'assurer du bon fonctionnement de mes fonctionnalités. J'ai aussi complété le document Concept de test et j'ai rempli le procès-verbal de test qui sera ensuite rempli par mes collègues.</t>
   </si>
 </sst>
 </file>
@@ -4320,10 +4326,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DB7A04D-A66F-4A89-83F1-9B353075A776}">
-  <dimension ref="A1:R104"/>
+  <dimension ref="A1:R105"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -5781,16 +5787,19 @@
       <c r="Q53" s="4"/>
       <c r="R53" s="4"/>
     </row>
-    <row r="54" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B54" s="14">
-        <f>SUM(B38:B53)</f>
-        <v>49.5</v>
-      </c>
-      <c r="C54" s="15"/>
-      <c r="D54" s="15"/>
+    <row r="54" spans="1:18" ht="81.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="B54" s="45">
+        <v>4</v>
+      </c>
+      <c r="C54" s="43">
+        <v>43961</v>
+      </c>
+      <c r="D54" s="44" t="s">
+        <v>198</v>
+      </c>
       <c r="E54" s="10"/>
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
@@ -5807,10 +5816,15 @@
       <c r="R54" s="4"/>
     </row>
     <row r="55" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="16"/>
-      <c r="B55" s="16"/>
-      <c r="C55" s="16"/>
-      <c r="D55" s="16"/>
+      <c r="A55" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B55" s="14">
+        <f>SUM(B38:B54)</f>
+        <v>53.5</v>
+      </c>
+      <c r="C55" s="15"/>
+      <c r="D55" s="15"/>
       <c r="E55" s="10"/>
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
@@ -5826,15 +5840,11 @@
       <c r="Q55" s="4"/>
       <c r="R55" s="4"/>
     </row>
-    <row r="56" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B56" s="2">
-        <v>4</v>
-      </c>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
+    <row r="56" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="16"/>
+      <c r="B56" s="16"/>
+      <c r="C56" s="16"/>
+      <c r="D56" s="16"/>
       <c r="E56" s="10"/>
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
@@ -5850,17 +5860,15 @@
       <c r="Q56" s="4"/>
       <c r="R56" s="4"/>
     </row>
-    <row r="57" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5" t="s">
-        <v>5</v>
-      </c>
+    <row r="57" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57" s="2">
+        <v>4</v>
+      </c>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
       <c r="E57" s="10"/>
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
@@ -5876,11 +5884,17 @@
       <c r="Q57" s="4"/>
       <c r="R57" s="4"/>
     </row>
-    <row r="58" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A58" s="19"/>
-      <c r="B58" s="19"/>
-      <c r="C58" s="20"/>
-      <c r="D58" s="20"/>
+    <row r="58" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="E58" s="10"/>
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
@@ -5897,10 +5911,10 @@
       <c r="R58" s="4"/>
     </row>
     <row r="59" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A59" s="7"/>
-      <c r="B59" s="7"/>
-      <c r="C59" s="9"/>
-      <c r="D59" s="9"/>
+      <c r="A59" s="19"/>
+      <c r="B59" s="19"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="20"/>
       <c r="E59" s="10"/>
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
@@ -5997,10 +6011,10 @@
       <c r="R63" s="4"/>
     </row>
     <row r="64" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A64" s="25"/>
-      <c r="B64" s="25"/>
-      <c r="C64" s="26"/>
-      <c r="D64" s="26"/>
+      <c r="A64" s="7"/>
+      <c r="B64" s="7"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
       <c r="E64" s="10"/>
       <c r="F64" s="4"/>
       <c r="G64" s="4"/>
@@ -6076,11 +6090,11 @@
       <c r="Q67" s="4"/>
       <c r="R67" s="4"/>
     </row>
-    <row r="68" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="23"/>
-      <c r="B68" s="23"/>
-      <c r="C68" s="24"/>
-      <c r="D68" s="24"/>
+    <row r="68" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A68" s="25"/>
+      <c r="B68" s="25"/>
+      <c r="C68" s="26"/>
+      <c r="D68" s="26"/>
       <c r="E68" s="10"/>
       <c r="F68" s="4"/>
       <c r="G68" s="4"/>
@@ -6097,15 +6111,10 @@
       <c r="R68" s="4"/>
     </row>
     <row r="69" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B69" s="14">
-        <f>SUM(B58:B68)</f>
-        <v>0</v>
-      </c>
-      <c r="C69" s="15"/>
-      <c r="D69" s="15"/>
+      <c r="A69" s="23"/>
+      <c r="B69" s="23"/>
+      <c r="C69" s="24"/>
+      <c r="D69" s="24"/>
       <c r="E69" s="10"/>
       <c r="F69" s="4"/>
       <c r="G69" s="4"/>
@@ -6122,10 +6131,15 @@
       <c r="R69" s="4"/>
     </row>
     <row r="70" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="16"/>
-      <c r="B70" s="16"/>
-      <c r="C70" s="16"/>
-      <c r="D70" s="16"/>
+      <c r="A70" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B70" s="14">
+        <f>SUM(B59:B69)</f>
+        <v>0</v>
+      </c>
+      <c r="C70" s="15"/>
+      <c r="D70" s="15"/>
       <c r="E70" s="10"/>
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
@@ -6141,15 +6155,11 @@
       <c r="Q70" s="4"/>
       <c r="R70" s="4"/>
     </row>
-    <row r="71" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B71" s="2">
-        <v>5</v>
-      </c>
-      <c r="C71" s="3"/>
-      <c r="D71" s="3"/>
+    <row r="71" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="16"/>
+      <c r="B71" s="16"/>
+      <c r="C71" s="16"/>
+      <c r="D71" s="16"/>
       <c r="E71" s="10"/>
       <c r="F71" s="4"/>
       <c r="G71" s="4"/>
@@ -6165,17 +6175,15 @@
       <c r="Q71" s="4"/>
       <c r="R71" s="4"/>
     </row>
-    <row r="72" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B72" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C72" s="5"/>
-      <c r="D72" s="5" t="s">
+    <row r="72" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72" s="2">
         <v>5</v>
       </c>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
       <c r="E72" s="10"/>
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
@@ -6191,11 +6199,17 @@
       <c r="Q72" s="4"/>
       <c r="R72" s="4"/>
     </row>
-    <row r="73" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A73" s="19"/>
-      <c r="B73" s="19"/>
-      <c r="C73" s="20"/>
-      <c r="D73" s="20"/>
+    <row r="73" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="E73" s="10"/>
       <c r="F73" s="4"/>
       <c r="G73" s="4"/>
@@ -6212,10 +6226,10 @@
       <c r="R73" s="4"/>
     </row>
     <row r="74" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A74" s="7"/>
-      <c r="B74" s="7"/>
-      <c r="C74" s="9"/>
-      <c r="D74" s="9"/>
+      <c r="A74" s="19"/>
+      <c r="B74" s="19"/>
+      <c r="C74" s="20"/>
+      <c r="D74" s="20"/>
       <c r="E74" s="10"/>
       <c r="F74" s="4"/>
       <c r="G74" s="4"/>
@@ -6291,11 +6305,11 @@
       <c r="Q77" s="4"/>
       <c r="R77" s="4"/>
     </row>
-    <row r="78" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="23"/>
-      <c r="B78" s="23"/>
-      <c r="C78" s="24"/>
-      <c r="D78" s="24"/>
+    <row r="78" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A78" s="7"/>
+      <c r="B78" s="7"/>
+      <c r="C78" s="9"/>
+      <c r="D78" s="9"/>
       <c r="E78" s="10"/>
       <c r="F78" s="4"/>
       <c r="G78" s="4"/>
@@ -6312,15 +6326,10 @@
       <c r="R78" s="4"/>
     </row>
     <row r="79" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B79" s="14">
-        <f>SUM(B73:B78)</f>
-        <v>0</v>
-      </c>
-      <c r="C79" s="15"/>
-      <c r="D79" s="15"/>
+      <c r="A79" s="23"/>
+      <c r="B79" s="23"/>
+      <c r="C79" s="24"/>
+      <c r="D79" s="24"/>
       <c r="E79" s="10"/>
       <c r="F79" s="4"/>
       <c r="G79" s="4"/>
@@ -6337,10 +6346,15 @@
       <c r="R79" s="4"/>
     </row>
     <row r="80" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="16"/>
-      <c r="B80" s="16"/>
-      <c r="C80" s="16"/>
-      <c r="D80" s="16"/>
+      <c r="A80" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B80" s="14">
+        <f>SUM(B74:B79)</f>
+        <v>0</v>
+      </c>
+      <c r="C80" s="15"/>
+      <c r="D80" s="15"/>
       <c r="E80" s="10"/>
       <c r="F80" s="4"/>
       <c r="G80" s="4"/>
@@ -6356,15 +6370,11 @@
       <c r="Q80" s="4"/>
       <c r="R80" s="4"/>
     </row>
-    <row r="81" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B81" s="2">
-        <v>6</v>
-      </c>
-      <c r="C81" s="3"/>
-      <c r="D81" s="3"/>
+    <row r="81" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="16"/>
+      <c r="B81" s="16"/>
+      <c r="C81" s="16"/>
+      <c r="D81" s="16"/>
       <c r="E81" s="10"/>
       <c r="F81" s="4"/>
       <c r="G81" s="4"/>
@@ -6380,17 +6390,15 @@
       <c r="Q81" s="4"/>
       <c r="R81" s="4"/>
     </row>
-    <row r="82" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B82" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C82" s="5"/>
-      <c r="D82" s="5" t="s">
-        <v>5</v>
-      </c>
+    <row r="82" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B82" s="2">
+        <v>6</v>
+      </c>
+      <c r="C82" s="3"/>
+      <c r="D82" s="3"/>
       <c r="E82" s="10"/>
       <c r="F82" s="4"/>
       <c r="G82" s="4"/>
@@ -6406,11 +6414,17 @@
       <c r="Q82" s="4"/>
       <c r="R82" s="4"/>
     </row>
-    <row r="83" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A83" s="19"/>
-      <c r="B83" s="19"/>
-      <c r="C83" s="20"/>
-      <c r="D83" s="20"/>
+    <row r="83" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="E83" s="10"/>
       <c r="F83" s="4"/>
       <c r="G83" s="4"/>
@@ -6427,10 +6441,10 @@
       <c r="R83" s="4"/>
     </row>
     <row r="84" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A84" s="7"/>
-      <c r="B84" s="7"/>
-      <c r="C84" s="9"/>
-      <c r="D84" s="9"/>
+      <c r="A84" s="19"/>
+      <c r="B84" s="19"/>
+      <c r="C84" s="20"/>
+      <c r="D84" s="20"/>
       <c r="E84" s="10"/>
       <c r="F84" s="4"/>
       <c r="G84" s="4"/>
@@ -6546,11 +6560,11 @@
       <c r="Q89" s="4"/>
       <c r="R89" s="4"/>
     </row>
-    <row r="90" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="23"/>
-      <c r="B90" s="23"/>
-      <c r="C90" s="24"/>
-      <c r="D90" s="24"/>
+    <row r="90" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A90" s="7"/>
+      <c r="B90" s="7"/>
+      <c r="C90" s="9"/>
+      <c r="D90" s="9"/>
       <c r="E90" s="10"/>
       <c r="F90" s="4"/>
       <c r="G90" s="4"/>
@@ -6567,15 +6581,10 @@
       <c r="R90" s="4"/>
     </row>
     <row r="91" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B91" s="14">
-        <f>SUM(B83:B90)</f>
-        <v>0</v>
-      </c>
-      <c r="C91" s="15"/>
-      <c r="D91" s="15"/>
+      <c r="A91" s="23"/>
+      <c r="B91" s="23"/>
+      <c r="C91" s="24"/>
+      <c r="D91" s="24"/>
       <c r="E91" s="10"/>
       <c r="F91" s="4"/>
       <c r="G91" s="4"/>
@@ -6591,11 +6600,16 @@
       <c r="Q91" s="4"/>
       <c r="R91" s="4"/>
     </row>
-    <row r="92" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A92" s="16"/>
-      <c r="B92" s="16"/>
-      <c r="C92" s="16"/>
-      <c r="D92" s="16"/>
+    <row r="92" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B92" s="14">
+        <f>SUM(B84:B91)</f>
+        <v>0</v>
+      </c>
+      <c r="C92" s="15"/>
+      <c r="D92" s="15"/>
       <c r="E92" s="10"/>
       <c r="F92" s="4"/>
       <c r="G92" s="4"/>
@@ -6612,10 +6626,10 @@
       <c r="R92" s="4"/>
     </row>
     <row r="93" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A93" s="27"/>
-      <c r="B93" s="27"/>
-      <c r="C93" s="27"/>
-      <c r="D93" s="27"/>
+      <c r="A93" s="16"/>
+      <c r="B93" s="16"/>
+      <c r="C93" s="16"/>
+      <c r="D93" s="16"/>
       <c r="E93" s="10"/>
       <c r="F93" s="4"/>
       <c r="G93" s="4"/>
@@ -6816,20 +6830,40 @@
       <c r="B103" s="27"/>
       <c r="C103" s="27"/>
       <c r="D103" s="27"/>
+      <c r="E103" s="10"/>
+      <c r="F103" s="4"/>
+      <c r="G103" s="4"/>
+      <c r="H103" s="4"/>
+      <c r="I103" s="4"/>
+      <c r="J103" s="4"/>
+      <c r="K103" s="4"/>
+      <c r="L103" s="4"/>
+      <c r="M103" s="4"/>
+      <c r="N103" s="4"/>
+      <c r="O103" s="4"/>
+      <c r="P103" s="4"/>
+      <c r="Q103" s="4"/>
+      <c r="R103" s="4"/>
     </row>
     <row r="104" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A104" s="28"/>
-      <c r="B104" s="28"/>
-      <c r="C104" s="28"/>
-      <c r="D104" s="28"/>
+      <c r="A104" s="27"/>
+      <c r="B104" s="27"/>
+      <c r="C104" s="27"/>
+      <c r="D104" s="27"/>
+    </row>
+    <row r="105" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A105" s="28"/>
+      <c r="B105" s="28"/>
+      <c r="C105" s="28"/>
+      <c r="D105" s="28"/>
     </row>
   </sheetData>
   <dataValidations xWindow="188" yWindow="522" count="2">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" prompt="Dépassement de durée - Le nombre de minutes introduites dépasse la durée d'une période. Veuillez confirmer ... Le calcul du total sera juste dans tous les cas._x000a_" sqref="B12 B34 B54 B69 B79 B91" xr:uid="{41F29EDA-D509-4469-8DFB-6A4CE4CEAE07}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" prompt="Dépassement de durée - Le nombre de minutes introduites dépasse la durée d'une période. Veuillez confirmer ... Le calcul du total sera juste dans tous les cas._x000a_" sqref="B12 B34 B55 B70 B80 B92" xr:uid="{41F29EDA-D509-4469-8DFB-6A4CE4CEAE07}">
       <formula1>0</formula1>
       <formula2>DureePeriode-1</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" prompt="Durée en 1/3 de période - Le nombre doit être de type entier" sqref="B83:B90 B38:B39 B58:B68 B73:B78 B10:B11 B3:B8 B16:B33 B41:B45" xr:uid="{3039B7E3-952E-4B34-B612-E5A0C049619C}">
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" prompt="Durée en 1/3 de période - Le nombre doit être de type entier" sqref="B84:B91 B38:B39 B59:B69 B74:B79 B10:B11 B3:B8 B16:B33 B41:B45" xr:uid="{3039B7E3-952E-4B34-B612-E5A0C049619C}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>

--- a/LM_Journal_Travail_V1.0.xlsx
+++ b/LM_Journal_Travail_V1.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\Love-Mirroring\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programmes\VS2019\Projets\Projet Gerber\Love-Mirroring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22082C77-9125-4DD5-8883-BB7027787508}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07195D73-A88D-4DCB-82E9-E064B2114E6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4845" yWindow="2460" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Equipe" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <definedName name="NBLecons">#REF!</definedName>
     <definedName name="TachesPlanifiees">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="202">
   <si>
     <t>Jalon</t>
   </si>
@@ -682,6 +682,15 @@
   </si>
   <si>
     <t>J'ai mis à jour le Sprint Backlog et le Product Backlog. J'ai mis en production ma partie avec l'aide de Monsieur Allemann et j'ai effectué des tests pour m'assurer du bon fonctionnement de mes fonctionnalités. J'ai aussi complété le document Concept de test et j'ai rempli le procès-verbal de test qui sera ensuite rempli par mes collègues.</t>
+  </si>
+  <si>
+    <t>11.05.2020</t>
+  </si>
+  <si>
+    <t>Applications des claims en cours</t>
+  </si>
+  <si>
+    <t>10.05.2020</t>
   </si>
 </sst>
 </file>
@@ -4328,7 +4337,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DB7A04D-A66F-4A89-83F1-9B353075A776}">
   <dimension ref="A1:R105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
@@ -6875,7 +6884,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716E2DDB-6361-470B-ACF3-8FDF9046203A}">
   <dimension ref="A1:R101"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
@@ -9216,10 +9225,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F222774-5003-490D-9078-78D1F6F89A4A}">
-  <dimension ref="A1:R98"/>
+  <dimension ref="A1:R100"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -10452,10 +10461,18 @@
       <c r="R46" s="4"/>
     </row>
     <row r="47" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="42"/>
-      <c r="B47" s="42"/>
-      <c r="C47" s="44"/>
-      <c r="D47" s="44"/>
+      <c r="A47" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="B47" s="42">
+        <v>2</v>
+      </c>
+      <c r="C47" s="44" t="s">
+        <v>201</v>
+      </c>
+      <c r="D47" s="44" t="s">
+        <v>200</v>
+      </c>
       <c r="E47" s="10"/>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
@@ -10471,16 +10488,19 @@
       <c r="Q47" s="4"/>
       <c r="R47" s="4"/>
     </row>
-    <row r="48" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B48" s="14">
-        <f>SUM(B38:B46)</f>
-        <v>47</v>
-      </c>
-      <c r="C48" s="15"/>
-      <c r="D48" s="15"/>
+    <row r="48" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="B48" s="42">
+        <v>4</v>
+      </c>
+      <c r="C48" s="44" t="s">
+        <v>199</v>
+      </c>
+      <c r="D48" s="44" t="s">
+        <v>200</v>
+      </c>
       <c r="E48" s="10"/>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
@@ -10497,10 +10517,10 @@
       <c r="R48" s="4"/>
     </row>
     <row r="49" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="16"/>
-      <c r="B49" s="16"/>
-      <c r="C49" s="16"/>
-      <c r="D49" s="16"/>
+      <c r="A49" s="42"/>
+      <c r="B49" s="42"/>
+      <c r="C49" s="44"/>
+      <c r="D49" s="44"/>
       <c r="E49" s="10"/>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
@@ -10516,15 +10536,16 @@
       <c r="Q49" s="4"/>
       <c r="R49" s="4"/>
     </row>
-    <row r="50" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B50" s="2">
-        <v>4</v>
-      </c>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
+    <row r="50" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B50" s="14">
+        <f>SUM(B38:B49)</f>
+        <v>53</v>
+      </c>
+      <c r="C50" s="15"/>
+      <c r="D50" s="15"/>
       <c r="E50" s="10"/>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
@@ -10540,17 +10561,11 @@
       <c r="Q50" s="4"/>
       <c r="R50" s="4"/>
     </row>
-    <row r="51" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5" t="s">
-        <v>5</v>
-      </c>
+    <row r="51" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="16"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="16"/>
       <c r="E51" s="10"/>
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
@@ -10566,11 +10581,15 @@
       <c r="Q51" s="4"/>
       <c r="R51" s="4"/>
     </row>
-    <row r="52" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A52" s="19"/>
-      <c r="B52" s="19"/>
-      <c r="C52" s="20"/>
-      <c r="D52" s="20"/>
+    <row r="52" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" s="2">
+        <v>4</v>
+      </c>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
       <c r="E52" s="10"/>
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
@@ -10586,11 +10605,17 @@
       <c r="Q52" s="4"/>
       <c r="R52" s="4"/>
     </row>
-    <row r="53" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A53" s="7"/>
-      <c r="B53" s="7"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
+    <row r="53" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="E53" s="10"/>
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
@@ -10607,10 +10632,10 @@
       <c r="R53" s="4"/>
     </row>
     <row r="54" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A54" s="7"/>
-      <c r="B54" s="7"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
+      <c r="A54" s="19"/>
+      <c r="B54" s="19"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="20"/>
       <c r="E54" s="10"/>
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
@@ -10687,10 +10712,10 @@
       <c r="R57" s="4"/>
     </row>
     <row r="58" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A58" s="25"/>
-      <c r="B58" s="25"/>
-      <c r="C58" s="26"/>
-      <c r="D58" s="26"/>
+      <c r="A58" s="7"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
       <c r="E58" s="10"/>
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
@@ -10707,10 +10732,10 @@
       <c r="R58" s="4"/>
     </row>
     <row r="59" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A59" s="25"/>
-      <c r="B59" s="25"/>
-      <c r="C59" s="26"/>
-      <c r="D59" s="26"/>
+      <c r="A59" s="7"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
       <c r="E59" s="10"/>
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
@@ -10766,11 +10791,11 @@
       <c r="Q61" s="4"/>
       <c r="R61" s="4"/>
     </row>
-    <row r="62" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="23"/>
-      <c r="B62" s="23"/>
-      <c r="C62" s="24"/>
-      <c r="D62" s="24"/>
+    <row r="62" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A62" s="25"/>
+      <c r="B62" s="25"/>
+      <c r="C62" s="26"/>
+      <c r="D62" s="26"/>
       <c r="E62" s="10"/>
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
@@ -10786,16 +10811,11 @@
       <c r="Q62" s="4"/>
       <c r="R62" s="4"/>
     </row>
-    <row r="63" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B63" s="14">
-        <f>SUM(B52:B62)</f>
-        <v>0</v>
-      </c>
-      <c r="C63" s="15"/>
-      <c r="D63" s="15"/>
+    <row r="63" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A63" s="25"/>
+      <c r="B63" s="25"/>
+      <c r="C63" s="26"/>
+      <c r="D63" s="26"/>
       <c r="E63" s="10"/>
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
@@ -10812,10 +10832,10 @@
       <c r="R63" s="4"/>
     </row>
     <row r="64" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="16"/>
-      <c r="B64" s="16"/>
-      <c r="C64" s="16"/>
-      <c r="D64" s="16"/>
+      <c r="A64" s="23"/>
+      <c r="B64" s="23"/>
+      <c r="C64" s="24"/>
+      <c r="D64" s="24"/>
       <c r="E64" s="10"/>
       <c r="F64" s="4"/>
       <c r="G64" s="4"/>
@@ -10831,15 +10851,16 @@
       <c r="Q64" s="4"/>
       <c r="R64" s="4"/>
     </row>
-    <row r="65" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="1" t="s">
+    <row r="65" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B65" s="14">
+        <f>SUM(B54:B64)</f>
         <v>0</v>
       </c>
-      <c r="B65" s="2">
-        <v>5</v>
-      </c>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
+      <c r="C65" s="15"/>
+      <c r="D65" s="15"/>
       <c r="E65" s="10"/>
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
@@ -10855,17 +10876,11 @@
       <c r="Q65" s="4"/>
       <c r="R65" s="4"/>
     </row>
-    <row r="66" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C66" s="5"/>
-      <c r="D66" s="5" t="s">
-        <v>5</v>
-      </c>
+    <row r="66" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="16"/>
+      <c r="B66" s="16"/>
+      <c r="C66" s="16"/>
+      <c r="D66" s="16"/>
       <c r="E66" s="10"/>
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
@@ -10881,11 +10896,15 @@
       <c r="Q66" s="4"/>
       <c r="R66" s="4"/>
     </row>
-    <row r="67" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A67" s="19"/>
-      <c r="B67" s="19"/>
-      <c r="C67" s="20"/>
-      <c r="D67" s="20"/>
+    <row r="67" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B67" s="2">
+        <v>5</v>
+      </c>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
       <c r="E67" s="10"/>
       <c r="F67" s="4"/>
       <c r="G67" s="4"/>
@@ -10901,11 +10920,17 @@
       <c r="Q67" s="4"/>
       <c r="R67" s="4"/>
     </row>
-    <row r="68" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A68" s="7"/>
-      <c r="B68" s="7"/>
-      <c r="C68" s="9"/>
-      <c r="D68" s="9"/>
+    <row r="68" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="E68" s="10"/>
       <c r="F68" s="4"/>
       <c r="G68" s="4"/>
@@ -10922,10 +10947,10 @@
       <c r="R68" s="4"/>
     </row>
     <row r="69" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A69" s="7"/>
-      <c r="B69" s="7"/>
-      <c r="C69" s="9"/>
-      <c r="D69" s="9"/>
+      <c r="A69" s="19"/>
+      <c r="B69" s="19"/>
+      <c r="C69" s="20"/>
+      <c r="D69" s="20"/>
       <c r="E69" s="10"/>
       <c r="F69" s="4"/>
       <c r="G69" s="4"/>
@@ -10981,11 +11006,11 @@
       <c r="Q71" s="4"/>
       <c r="R71" s="4"/>
     </row>
-    <row r="72" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="23"/>
-      <c r="B72" s="23"/>
-      <c r="C72" s="24"/>
-      <c r="D72" s="24"/>
+    <row r="72" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A72" s="7"/>
+      <c r="B72" s="7"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
       <c r="E72" s="10"/>
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
@@ -11001,16 +11026,11 @@
       <c r="Q72" s="4"/>
       <c r="R72" s="4"/>
     </row>
-    <row r="73" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B73" s="14">
-        <f>SUM(B67:B72)</f>
-        <v>0</v>
-      </c>
-      <c r="C73" s="15"/>
-      <c r="D73" s="15"/>
+    <row r="73" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A73" s="7"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="9"/>
       <c r="E73" s="10"/>
       <c r="F73" s="4"/>
       <c r="G73" s="4"/>
@@ -11027,10 +11047,10 @@
       <c r="R73" s="4"/>
     </row>
     <row r="74" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="16"/>
-      <c r="B74" s="16"/>
-      <c r="C74" s="16"/>
-      <c r="D74" s="16"/>
+      <c r="A74" s="23"/>
+      <c r="B74" s="23"/>
+      <c r="C74" s="24"/>
+      <c r="D74" s="24"/>
       <c r="E74" s="10"/>
       <c r="F74" s="4"/>
       <c r="G74" s="4"/>
@@ -11046,15 +11066,16 @@
       <c r="Q74" s="4"/>
       <c r="R74" s="4"/>
     </row>
-    <row r="75" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="1" t="s">
+    <row r="75" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B75" s="14">
+        <f>SUM(B69:B74)</f>
         <v>0</v>
       </c>
-      <c r="B75" s="2">
-        <v>6</v>
-      </c>
-      <c r="C75" s="3"/>
-      <c r="D75" s="3"/>
+      <c r="C75" s="15"/>
+      <c r="D75" s="15"/>
       <c r="E75" s="10"/>
       <c r="F75" s="4"/>
       <c r="G75" s="4"/>
@@ -11070,17 +11091,11 @@
       <c r="Q75" s="4"/>
       <c r="R75" s="4"/>
     </row>
-    <row r="76" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B76" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C76" s="5"/>
-      <c r="D76" s="5" t="s">
-        <v>5</v>
-      </c>
+    <row r="76" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="16"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="16"/>
+      <c r="D76" s="16"/>
       <c r="E76" s="10"/>
       <c r="F76" s="4"/>
       <c r="G76" s="4"/>
@@ -11096,11 +11111,15 @@
       <c r="Q76" s="4"/>
       <c r="R76" s="4"/>
     </row>
-    <row r="77" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A77" s="19"/>
-      <c r="B77" s="19"/>
-      <c r="C77" s="20"/>
-      <c r="D77" s="20"/>
+    <row r="77" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B77" s="2">
+        <v>6</v>
+      </c>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
       <c r="E77" s="10"/>
       <c r="F77" s="4"/>
       <c r="G77" s="4"/>
@@ -11116,11 +11135,17 @@
       <c r="Q77" s="4"/>
       <c r="R77" s="4"/>
     </row>
-    <row r="78" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A78" s="7"/>
-      <c r="B78" s="7"/>
-      <c r="C78" s="9"/>
-      <c r="D78" s="9"/>
+    <row r="78" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="E78" s="10"/>
       <c r="F78" s="4"/>
       <c r="G78" s="4"/>
@@ -11137,10 +11162,10 @@
       <c r="R78" s="4"/>
     </row>
     <row r="79" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A79" s="7"/>
-      <c r="B79" s="7"/>
-      <c r="C79" s="9"/>
-      <c r="D79" s="9"/>
+      <c r="A79" s="19"/>
+      <c r="B79" s="19"/>
+      <c r="C79" s="20"/>
+      <c r="D79" s="20"/>
       <c r="E79" s="10"/>
       <c r="F79" s="4"/>
       <c r="G79" s="4"/>
@@ -11236,11 +11261,11 @@
       <c r="Q83" s="4"/>
       <c r="R83" s="4"/>
     </row>
-    <row r="84" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="23"/>
-      <c r="B84" s="23"/>
-      <c r="C84" s="24"/>
-      <c r="D84" s="24"/>
+    <row r="84" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A84" s="7"/>
+      <c r="B84" s="7"/>
+      <c r="C84" s="9"/>
+      <c r="D84" s="9"/>
       <c r="E84" s="10"/>
       <c r="F84" s="4"/>
       <c r="G84" s="4"/>
@@ -11256,16 +11281,11 @@
       <c r="Q84" s="4"/>
       <c r="R84" s="4"/>
     </row>
-    <row r="85" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B85" s="14">
-        <f>SUM(B77:B84)</f>
-        <v>0</v>
-      </c>
-      <c r="C85" s="15"/>
-      <c r="D85" s="15"/>
+    <row r="85" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A85" s="7"/>
+      <c r="B85" s="7"/>
+      <c r="C85" s="9"/>
+      <c r="D85" s="9"/>
       <c r="E85" s="10"/>
       <c r="F85" s="4"/>
       <c r="G85" s="4"/>
@@ -11281,11 +11301,11 @@
       <c r="Q85" s="4"/>
       <c r="R85" s="4"/>
     </row>
-    <row r="86" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A86" s="16"/>
-      <c r="B86" s="16"/>
-      <c r="C86" s="16"/>
-      <c r="D86" s="16"/>
+    <row r="86" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="23"/>
+      <c r="B86" s="23"/>
+      <c r="C86" s="24"/>
+      <c r="D86" s="24"/>
       <c r="E86" s="10"/>
       <c r="F86" s="4"/>
       <c r="G86" s="4"/>
@@ -11301,11 +11321,16 @@
       <c r="Q86" s="4"/>
       <c r="R86" s="4"/>
     </row>
-    <row r="87" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A87" s="27"/>
-      <c r="B87" s="27"/>
-      <c r="C87" s="27"/>
-      <c r="D87" s="27"/>
+    <row r="87" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B87" s="14">
+        <f>SUM(B79:B86)</f>
+        <v>0</v>
+      </c>
+      <c r="C87" s="15"/>
+      <c r="D87" s="15"/>
       <c r="E87" s="10"/>
       <c r="F87" s="4"/>
       <c r="G87" s="4"/>
@@ -11322,10 +11347,10 @@
       <c r="R87" s="4"/>
     </row>
     <row r="88" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A88" s="27"/>
-      <c r="B88" s="27"/>
-      <c r="C88" s="27"/>
-      <c r="D88" s="27"/>
+      <c r="A88" s="16"/>
+      <c r="B88" s="16"/>
+      <c r="C88" s="16"/>
+      <c r="D88" s="16"/>
       <c r="E88" s="10"/>
       <c r="F88" s="4"/>
       <c r="G88" s="4"/>
@@ -11522,10 +11547,10 @@
       <c r="R97" s="4"/>
     </row>
     <row r="98" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A98" s="28"/>
-      <c r="B98" s="28"/>
-      <c r="C98" s="28"/>
-      <c r="D98" s="28"/>
+      <c r="A98" s="27"/>
+      <c r="B98" s="27"/>
+      <c r="C98" s="27"/>
+      <c r="D98" s="27"/>
       <c r="E98" s="10"/>
       <c r="F98" s="4"/>
       <c r="G98" s="4"/>
@@ -11541,12 +11566,52 @@
       <c r="Q98" s="4"/>
       <c r="R98" s="4"/>
     </row>
+    <row r="99" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A99" s="27"/>
+      <c r="B99" s="27"/>
+      <c r="C99" s="27"/>
+      <c r="D99" s="27"/>
+      <c r="E99" s="10"/>
+      <c r="F99" s="4"/>
+      <c r="G99" s="4"/>
+      <c r="H99" s="4"/>
+      <c r="I99" s="4"/>
+      <c r="J99" s="4"/>
+      <c r="K99" s="4"/>
+      <c r="L99" s="4"/>
+      <c r="M99" s="4"/>
+      <c r="N99" s="4"/>
+      <c r="O99" s="4"/>
+      <c r="P99" s="4"/>
+      <c r="Q99" s="4"/>
+      <c r="R99" s="4"/>
+    </row>
+    <row r="100" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A100" s="28"/>
+      <c r="B100" s="28"/>
+      <c r="C100" s="28"/>
+      <c r="D100" s="28"/>
+      <c r="E100" s="10"/>
+      <c r="F100" s="4"/>
+      <c r="G100" s="4"/>
+      <c r="H100" s="4"/>
+      <c r="I100" s="4"/>
+      <c r="J100" s="4"/>
+      <c r="K100" s="4"/>
+      <c r="L100" s="4"/>
+      <c r="M100" s="4"/>
+      <c r="N100" s="4"/>
+      <c r="O100" s="4"/>
+      <c r="P100" s="4"/>
+      <c r="Q100" s="4"/>
+      <c r="R100" s="4"/>
+    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" prompt="Durée en 1/3 de période - Le nombre doit être de type entier" sqref="B77:B84 B10:B13 B38:B39 B41:B47 B52:B62 B67:B72 B3:B8 B18:B33" xr:uid="{64471589-AB55-4AF0-A3CB-2C4DA302E1FD}">
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" prompt="Durée en 1/3 de période - Le nombre doit être de type entier" sqref="B79:B86 B10:B13 B38:B39 B18:B33 B54:B64 B69:B74 B3:B8 B41:B49" xr:uid="{64471589-AB55-4AF0-A3CB-2C4DA302E1FD}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" prompt="Dépassement de durée - Le nombre de minutes introduites dépasse la durée d'une période. Veuillez confirmer ... Le calcul du total sera juste dans tous les cas._x000a_" sqref="B85 B34 B48 B63 B73 B14" xr:uid="{E5C4B3DD-C4A0-4BDF-8596-69EE95FDEE2C}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" prompt="Dépassement de durée - Le nombre de minutes introduites dépasse la durée d'une période. Veuillez confirmer ... Le calcul du total sera juste dans tous les cas._x000a_" sqref="B87 B34 B50 B65 B75 B14" xr:uid="{E5C4B3DD-C4A0-4BDF-8596-69EE95FDEE2C}">
       <formula1>0</formula1>
       <formula2>DureePeriode-1</formula2>
     </dataValidation>

--- a/LM_Journal_Travail_V1.0.xlsx
+++ b/LM_Journal_Travail_V1.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programmes\VS2019\Projets\Projet Gerber\Love-Mirroring\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repositories\Love-Mirroring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07195D73-A88D-4DCB-82E9-E064B2114E6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F1DA2CA-7A93-4D8C-AED1-F29EDFE44369}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4845" yWindow="2460" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Equipe" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <definedName name="NBLecons">#REF!</definedName>
     <definedName name="TachesPlanifiees">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="242">
   <si>
     <t>Jalon</t>
   </si>
@@ -692,6 +692,127 @@
   <si>
     <t>10.05.2020</t>
   </si>
+  <si>
+    <t>Accéder au compte</t>
+  </si>
+  <si>
+    <t>Effacer le compte</t>
+  </si>
+  <si>
+    <t>Souvent eu des problèmes quand on rajoutait des tables, il faut les drop cascade</t>
+  </si>
+  <si>
+    <t>Details compte</t>
+  </si>
+  <si>
+    <t>Edit compte</t>
+  </si>
+  <si>
+    <t>Suppression compte</t>
+  </si>
+  <si>
+    <t>Correction de l'incrément de Hans</t>
+  </si>
+  <si>
+    <t>Ecriture linq ne marchait pas, J'ai aidé Monsieur Berger et montré comment faire une requête en "lambda" pour que ce soit plus épurée compréhensible et surtout fonctionnelle</t>
+  </si>
+  <si>
+    <t>Ajout de la tracabilité</t>
+  </si>
+  <si>
+    <t>reste à stocker dans la bdd</t>
+  </si>
+  <si>
+    <t>Ajout de la table User Log et ajout dans les modèles existants</t>
+  </si>
+  <si>
+    <t>Sert à stocker la trace de l'utilsateur (ip et quel page il a visité)</t>
+  </si>
+  <si>
+    <t>Correction pour le tracage de l'ip</t>
+  </si>
+  <si>
+    <t>Il manquait une dépendance d'injection…</t>
+  </si>
+  <si>
+    <t>Ajout du tracage</t>
+  </si>
+  <si>
+    <t>Permet de sélectionner quelles actions l'on veut tracer</t>
+  </si>
+  <si>
+    <t>Corriger le delete car pas de cascade sur User</t>
+  </si>
+  <si>
+    <t>script de la base de données mal faite, j'ai du corriger</t>
+  </si>
+  <si>
+    <t>Correction de AdminController</t>
+  </si>
+  <si>
+    <t>Hans a mis un controller qui ne se compile pas sur le Git</t>
+  </si>
+  <si>
+    <t>Système de paiement avec Stripe</t>
+  </si>
+  <si>
+    <t>J'ai effectué un test avec succès</t>
+  </si>
+  <si>
+    <t>Stripe</t>
+  </si>
+  <si>
+    <t>Initialisation du paiement avec Stripe, intilialiser la charge, créer la vue avec le formulaire</t>
+  </si>
+  <si>
+    <t>Créer un point d'accès pour Stripe (webHook) qui permetera de recevoir du Json de la part de Stripe ( ex: paiement réussi)</t>
+  </si>
+  <si>
+    <t>Choix de l'abonnement ou historique + mise en production</t>
+  </si>
+  <si>
+    <t>Image</t>
+  </si>
+  <si>
+    <t>Mise en place de la class Image</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>J'ai aidé Hans pour qu'il puisse mettre en place les roles, vu qu'il arrivait pas
+On ne peut pas utiliser les role avec [Authorize(Role="Admin")], avec Id4 il faut passer les roles dans un claim puis initialiser les policy dans le startup, pour qu'on puisse utiliser un [Authorize(Policy="Admin")], ce qui est bien dans le fait de passer les roles dans un claim, c'est que si on est sur une plateforme (exemple Xamarin) on peut également les récupérer</t>
+  </si>
+  <si>
+    <t>Correctionde l'api pour les images pour la production (utiliser Path.Combine m'a permis d'éliminer les erreurs)</t>
+  </si>
+  <si>
+    <t>Déploiement</t>
+  </si>
+  <si>
+    <t>Déploiement, deux trois corrections fait avec Monsieur Berger pour sa partie</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Effectuer divers test sur l'application pour voir si des erreurs se généraient</t>
+  </si>
+  <si>
+    <t>Code review</t>
+  </si>
+  <si>
+    <t>J'ai effectuer du code review avec Monsieur Berger pour sa partie, mais c'est pas encore fini</t>
+  </si>
+  <si>
+    <t>Documents</t>
+  </si>
+  <si>
+    <t>Concept de test et procès verbal de test à remplir</t>
+  </si>
+  <si>
+    <t>Relecture des livrables</t>
+  </si>
 </sst>
 </file>
 
@@ -701,7 +822,7 @@
     <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy"/>
     <numFmt numFmtId="165" formatCode="dd\.mm\.yy"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -752,6 +873,12 @@
     </font>
     <font>
       <sz val="10"/>
+      <color theme="1"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Century Gothic"/>
       <family val="2"/>
@@ -996,7 +1123,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1124,6 +1251,33 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6882,10 +7036,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716E2DDB-6361-470B-ACF3-8FDF9046203A}">
-  <dimension ref="A1:R101"/>
+  <dimension ref="A1:R117"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -7953,7 +8107,7 @@
       <c r="Q41" s="4"/>
       <c r="R41" s="4"/>
     </row>
-    <row r="42" spans="1:18" ht="15" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
         <v>2</v>
       </c>
@@ -7979,11 +8133,2842 @@
       <c r="Q42" s="4"/>
       <c r="R42" s="4"/>
     </row>
-    <row r="43" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A43" s="7"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="20"/>
+    <row r="43" spans="1:18" s="50" customFormat="1" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A43" s="33" t="s">
+        <v>202</v>
+      </c>
+      <c r="B43" s="33">
+        <v>1.5</v>
+      </c>
+      <c r="C43" s="46"/>
+      <c r="D43" s="47"/>
+      <c r="E43" s="48"/>
+      <c r="F43" s="49"/>
+      <c r="G43" s="49"/>
+      <c r="H43" s="49"/>
+      <c r="I43" s="49"/>
+      <c r="J43" s="49"/>
+      <c r="K43" s="49"/>
+      <c r="L43" s="49"/>
+      <c r="M43" s="49"/>
+      <c r="N43" s="49"/>
+      <c r="O43" s="49"/>
+      <c r="P43" s="49"/>
+      <c r="Q43" s="49"/>
+      <c r="R43" s="49"/>
+    </row>
+    <row r="44" spans="1:18" s="50" customFormat="1" ht="27" x14ac:dyDescent="0.3">
+      <c r="A44" s="33" t="s">
+        <v>203</v>
+      </c>
+      <c r="B44" s="33">
+        <v>4</v>
+      </c>
+      <c r="C44" s="46"/>
+      <c r="D44" s="51" t="s">
+        <v>204</v>
+      </c>
+      <c r="E44" s="48"/>
+      <c r="F44" s="49"/>
+      <c r="G44" s="49"/>
+      <c r="H44" s="49"/>
+      <c r="I44" s="49"/>
+      <c r="J44" s="49"/>
+      <c r="K44" s="49"/>
+      <c r="L44" s="49"/>
+      <c r="M44" s="49"/>
+      <c r="N44" s="49"/>
+      <c r="O44" s="49"/>
+      <c r="P44" s="49"/>
+      <c r="Q44" s="49"/>
+      <c r="R44" s="49"/>
+    </row>
+    <row r="45" spans="1:18" s="50" customFormat="1" ht="27" x14ac:dyDescent="0.3">
+      <c r="A45" s="33" t="s">
+        <v>205</v>
+      </c>
+      <c r="B45" s="33">
+        <v>1.5</v>
+      </c>
+      <c r="C45" s="52"/>
+      <c r="D45" s="51"/>
+      <c r="E45" s="48"/>
+      <c r="F45" s="49"/>
+      <c r="G45" s="49"/>
+      <c r="H45" s="49"/>
+      <c r="I45" s="49"/>
+      <c r="J45" s="49"/>
+      <c r="K45" s="49"/>
+      <c r="L45" s="49"/>
+      <c r="M45" s="49"/>
+      <c r="N45" s="49"/>
+      <c r="O45" s="49"/>
+      <c r="P45" s="49"/>
+      <c r="Q45" s="49"/>
+      <c r="R45" s="49"/>
+    </row>
+    <row r="46" spans="1:18" s="50" customFormat="1" ht="27" x14ac:dyDescent="0.3">
+      <c r="A46" s="33" t="s">
+        <v>206</v>
+      </c>
+      <c r="B46" s="33">
+        <v>3</v>
+      </c>
+      <c r="C46" s="51"/>
+      <c r="D46" s="51"/>
+      <c r="E46" s="48"/>
+      <c r="F46" s="49"/>
+      <c r="G46" s="49"/>
+      <c r="H46" s="49"/>
+      <c r="I46" s="49"/>
+      <c r="J46" s="49"/>
+      <c r="K46" s="49"/>
+      <c r="L46" s="49"/>
+      <c r="M46" s="49"/>
+      <c r="N46" s="49"/>
+      <c r="O46" s="49"/>
+      <c r="P46" s="49"/>
+      <c r="Q46" s="49"/>
+      <c r="R46" s="49"/>
+    </row>
+    <row r="47" spans="1:18" s="50" customFormat="1" ht="27" x14ac:dyDescent="0.3">
+      <c r="A47" s="33" t="s">
+        <v>207</v>
+      </c>
+      <c r="B47" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="C47" s="51"/>
+      <c r="D47" s="51"/>
+      <c r="E47" s="48"/>
+      <c r="F47" s="49"/>
+      <c r="G47" s="49"/>
+      <c r="H47" s="49"/>
+      <c r="I47" s="49"/>
+      <c r="J47" s="49"/>
+      <c r="K47" s="49"/>
+      <c r="L47" s="49"/>
+      <c r="M47" s="49"/>
+      <c r="N47" s="49"/>
+      <c r="O47" s="49"/>
+      <c r="P47" s="49"/>
+      <c r="Q47" s="49"/>
+      <c r="R47" s="49"/>
+    </row>
+    <row r="48" spans="1:18" s="50" customFormat="1" ht="54" x14ac:dyDescent="0.3">
+      <c r="A48" s="33" t="s">
+        <v>208</v>
+      </c>
+      <c r="B48" s="33">
+        <v>2</v>
+      </c>
+      <c r="C48" s="51"/>
+      <c r="D48" s="51" t="s">
+        <v>209</v>
+      </c>
+      <c r="E48" s="48"/>
+      <c r="F48" s="49"/>
+      <c r="G48" s="49"/>
+      <c r="H48" s="49"/>
+      <c r="I48" s="49"/>
+      <c r="J48" s="49"/>
+      <c r="K48" s="49"/>
+      <c r="L48" s="49"/>
+      <c r="M48" s="49"/>
+      <c r="N48" s="49"/>
+      <c r="O48" s="49"/>
+      <c r="P48" s="49"/>
+      <c r="Q48" s="49"/>
+      <c r="R48" s="49"/>
+    </row>
+    <row r="49" spans="1:18" s="50" customFormat="1" ht="27" x14ac:dyDescent="0.3">
+      <c r="A49" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="B49" s="33">
+        <v>2</v>
+      </c>
+      <c r="C49" s="51"/>
+      <c r="D49" s="51" t="s">
+        <v>211</v>
+      </c>
+      <c r="E49" s="48"/>
+      <c r="F49" s="49"/>
+      <c r="G49" s="49"/>
+      <c r="H49" s="49"/>
+      <c r="I49" s="49"/>
+      <c r="J49" s="49"/>
+      <c r="K49" s="49"/>
+      <c r="L49" s="49"/>
+      <c r="M49" s="49"/>
+      <c r="N49" s="49"/>
+      <c r="O49" s="49"/>
+      <c r="P49" s="49"/>
+      <c r="Q49" s="49"/>
+      <c r="R49" s="49"/>
+    </row>
+    <row r="50" spans="1:18" s="50" customFormat="1" ht="94.5" x14ac:dyDescent="0.3">
+      <c r="A50" s="53" t="s">
+        <v>212</v>
+      </c>
+      <c r="B50" s="53">
+        <v>2</v>
+      </c>
+      <c r="C50" s="54"/>
+      <c r="D50" s="54" t="s">
+        <v>213</v>
+      </c>
+      <c r="E50" s="48"/>
+      <c r="F50" s="49"/>
+      <c r="G50" s="49"/>
+      <c r="H50" s="49"/>
+      <c r="I50" s="49"/>
+      <c r="J50" s="49"/>
+      <c r="K50" s="49"/>
+      <c r="L50" s="49"/>
+      <c r="M50" s="49"/>
+      <c r="N50" s="49"/>
+      <c r="O50" s="49"/>
+      <c r="P50" s="49"/>
+      <c r="Q50" s="49"/>
+      <c r="R50" s="49"/>
+    </row>
+    <row r="51" spans="1:18" s="50" customFormat="1" ht="54" x14ac:dyDescent="0.3">
+      <c r="A51" s="53" t="s">
+        <v>214</v>
+      </c>
+      <c r="B51" s="53">
+        <v>1.5</v>
+      </c>
+      <c r="C51" s="54"/>
+      <c r="D51" s="54" t="s">
+        <v>215</v>
+      </c>
+      <c r="E51" s="48"/>
+      <c r="F51" s="49"/>
+      <c r="G51" s="49"/>
+      <c r="H51" s="49"/>
+      <c r="I51" s="49"/>
+      <c r="J51" s="49"/>
+      <c r="K51" s="49"/>
+      <c r="L51" s="49"/>
+      <c r="M51" s="49"/>
+      <c r="N51" s="49"/>
+      <c r="O51" s="49"/>
+      <c r="P51" s="49"/>
+      <c r="Q51" s="49"/>
+      <c r="R51" s="49"/>
+    </row>
+    <row r="52" spans="1:18" s="50" customFormat="1" ht="27" x14ac:dyDescent="0.3">
+      <c r="A52" s="53" t="s">
+        <v>216</v>
+      </c>
+      <c r="B52" s="53">
+        <v>2</v>
+      </c>
+      <c r="C52" s="54"/>
+      <c r="D52" s="54" t="s">
+        <v>217</v>
+      </c>
+      <c r="E52" s="48"/>
+      <c r="F52" s="49"/>
+      <c r="G52" s="49"/>
+      <c r="H52" s="49"/>
+      <c r="I52" s="49"/>
+      <c r="J52" s="49"/>
+      <c r="K52" s="49"/>
+      <c r="L52" s="49"/>
+      <c r="M52" s="49"/>
+      <c r="N52" s="49"/>
+      <c r="O52" s="49"/>
+      <c r="P52" s="49"/>
+      <c r="Q52" s="49"/>
+      <c r="R52" s="49"/>
+    </row>
+    <row r="53" spans="1:18" s="50" customFormat="1" ht="67.5" x14ac:dyDescent="0.3">
+      <c r="A53" s="53" t="s">
+        <v>218</v>
+      </c>
+      <c r="B53" s="53">
+        <v>1.5</v>
+      </c>
+      <c r="C53" s="54"/>
+      <c r="D53" s="54" t="s">
+        <v>219</v>
+      </c>
+      <c r="E53" s="48"/>
+      <c r="F53" s="49"/>
+      <c r="G53" s="49"/>
+      <c r="H53" s="49"/>
+      <c r="I53" s="49"/>
+      <c r="J53" s="49"/>
+      <c r="K53" s="49"/>
+      <c r="L53" s="49"/>
+      <c r="M53" s="49"/>
+      <c r="N53" s="49"/>
+      <c r="O53" s="49"/>
+      <c r="P53" s="49"/>
+      <c r="Q53" s="49"/>
+      <c r="R53" s="49"/>
+    </row>
+    <row r="54" spans="1:18" s="50" customFormat="1" ht="54" x14ac:dyDescent="0.3">
+      <c r="A54" s="53" t="s">
+        <v>220</v>
+      </c>
+      <c r="B54" s="53">
+        <v>0.5</v>
+      </c>
+      <c r="C54" s="54"/>
+      <c r="D54" s="54" t="s">
+        <v>221</v>
+      </c>
+      <c r="E54" s="48"/>
+      <c r="F54" s="49"/>
+      <c r="G54" s="49"/>
+      <c r="H54" s="49"/>
+      <c r="I54" s="49"/>
+      <c r="J54" s="49"/>
+      <c r="K54" s="49"/>
+      <c r="L54" s="49"/>
+      <c r="M54" s="49"/>
+      <c r="N54" s="49"/>
+      <c r="O54" s="49"/>
+      <c r="P54" s="49"/>
+      <c r="Q54" s="49"/>
+      <c r="R54" s="49"/>
+    </row>
+    <row r="55" spans="1:18" s="50" customFormat="1" ht="67.5" x14ac:dyDescent="0.3">
+      <c r="A55" s="53" t="s">
+        <v>222</v>
+      </c>
+      <c r="B55" s="53">
+        <v>1.5</v>
+      </c>
+      <c r="C55" s="54"/>
+      <c r="D55" s="54" t="s">
+        <v>223</v>
+      </c>
+      <c r="E55" s="48"/>
+      <c r="F55" s="49"/>
+      <c r="G55" s="49"/>
+      <c r="H55" s="49"/>
+      <c r="I55" s="49"/>
+      <c r="J55" s="49"/>
+      <c r="K55" s="49"/>
+      <c r="L55" s="49"/>
+      <c r="M55" s="49"/>
+      <c r="N55" s="49"/>
+      <c r="O55" s="49"/>
+      <c r="P55" s="49"/>
+      <c r="Q55" s="49"/>
+      <c r="R55" s="49"/>
+    </row>
+    <row r="56" spans="1:18" s="50" customFormat="1" ht="27" x14ac:dyDescent="0.3">
+      <c r="A56" s="53" t="s">
+        <v>224</v>
+      </c>
+      <c r="B56" s="53">
+        <v>3.5</v>
+      </c>
+      <c r="C56" s="54"/>
+      <c r="D56" s="54" t="s">
+        <v>225</v>
+      </c>
+      <c r="E56" s="48"/>
+      <c r="F56" s="49"/>
+      <c r="G56" s="49"/>
+      <c r="H56" s="49"/>
+      <c r="I56" s="49"/>
+      <c r="J56" s="49"/>
+      <c r="K56" s="49"/>
+      <c r="L56" s="49"/>
+      <c r="M56" s="49"/>
+      <c r="N56" s="49"/>
+      <c r="O56" s="49"/>
+      <c r="P56" s="49"/>
+      <c r="Q56" s="49"/>
+      <c r="R56" s="49"/>
+    </row>
+    <row r="57" spans="1:18" s="50" customFormat="1" ht="27" x14ac:dyDescent="0.3">
+      <c r="A57" s="53" t="s">
+        <v>224</v>
+      </c>
+      <c r="B57" s="53">
+        <v>1</v>
+      </c>
+      <c r="C57" s="54"/>
+      <c r="D57" s="54" t="s">
+        <v>226</v>
+      </c>
+      <c r="E57" s="48"/>
+      <c r="F57" s="49"/>
+      <c r="G57" s="49"/>
+      <c r="H57" s="49"/>
+      <c r="I57" s="49"/>
+      <c r="J57" s="49"/>
+      <c r="K57" s="49"/>
+      <c r="L57" s="49"/>
+      <c r="M57" s="49"/>
+      <c r="N57" s="49"/>
+      <c r="O57" s="49"/>
+      <c r="P57" s="49"/>
+      <c r="Q57" s="49"/>
+      <c r="R57" s="49"/>
+    </row>
+    <row r="58" spans="1:18" s="50" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A58" s="53" t="s">
+        <v>224</v>
+      </c>
+      <c r="B58" s="53">
+        <v>4.5</v>
+      </c>
+      <c r="C58" s="54"/>
+      <c r="D58" s="54" t="s">
+        <v>227</v>
+      </c>
+      <c r="E58" s="48"/>
+      <c r="F58" s="49"/>
+      <c r="G58" s="49"/>
+      <c r="H58" s="49"/>
+      <c r="I58" s="49"/>
+      <c r="J58" s="49"/>
+      <c r="K58" s="49"/>
+      <c r="L58" s="49"/>
+      <c r="M58" s="49"/>
+      <c r="N58" s="49"/>
+      <c r="O58" s="49"/>
+      <c r="P58" s="49"/>
+      <c r="Q58" s="49"/>
+      <c r="R58" s="49"/>
+    </row>
+    <row r="59" spans="1:18" s="50" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A59" s="53" t="s">
+        <v>228</v>
+      </c>
+      <c r="B59" s="53">
+        <v>3.5</v>
+      </c>
+      <c r="C59" s="54"/>
+      <c r="D59" s="54" t="s">
+        <v>229</v>
+      </c>
+      <c r="E59" s="48"/>
+      <c r="F59" s="49"/>
+      <c r="G59" s="49"/>
+      <c r="H59" s="49"/>
+      <c r="I59" s="49"/>
+      <c r="J59" s="49"/>
+      <c r="K59" s="49"/>
+      <c r="L59" s="49"/>
+      <c r="M59" s="49"/>
+      <c r="N59" s="49"/>
+      <c r="O59" s="49"/>
+      <c r="P59" s="49"/>
+      <c r="Q59" s="49"/>
+      <c r="R59" s="49"/>
+    </row>
+    <row r="60" spans="1:18" s="50" customFormat="1" ht="81" x14ac:dyDescent="0.3">
+      <c r="A60" s="53" t="s">
+        <v>230</v>
+      </c>
+      <c r="B60" s="53">
+        <v>3</v>
+      </c>
+      <c r="C60" s="54"/>
+      <c r="D60" s="54" t="s">
+        <v>231</v>
+      </c>
+      <c r="E60" s="48"/>
+      <c r="F60" s="49"/>
+      <c r="G60" s="49"/>
+      <c r="H60" s="49"/>
+      <c r="I60" s="49"/>
+      <c r="J60" s="49"/>
+      <c r="K60" s="49"/>
+      <c r="L60" s="49"/>
+      <c r="M60" s="49"/>
+      <c r="N60" s="49"/>
+      <c r="O60" s="49"/>
+      <c r="P60" s="49"/>
+      <c r="Q60" s="49"/>
+      <c r="R60" s="49"/>
+    </row>
+    <row r="61" spans="1:18" s="50" customFormat="1" ht="27" x14ac:dyDescent="0.3">
+      <c r="A61" s="53" t="s">
+        <v>228</v>
+      </c>
+      <c r="B61" s="53">
+        <v>2</v>
+      </c>
+      <c r="C61" s="54"/>
+      <c r="D61" s="54" t="s">
+        <v>232</v>
+      </c>
+      <c r="E61" s="48"/>
+      <c r="F61" s="49"/>
+      <c r="G61" s="49"/>
+      <c r="H61" s="49"/>
+      <c r="I61" s="49"/>
+      <c r="J61" s="49"/>
+      <c r="K61" s="49"/>
+      <c r="L61" s="49"/>
+      <c r="M61" s="49"/>
+      <c r="N61" s="49"/>
+      <c r="O61" s="49"/>
+      <c r="P61" s="49"/>
+      <c r="Q61" s="49"/>
+      <c r="R61" s="49"/>
+    </row>
+    <row r="62" spans="1:18" s="50" customFormat="1" ht="27" x14ac:dyDescent="0.3">
+      <c r="A62" s="53" t="s">
+        <v>233</v>
+      </c>
+      <c r="B62" s="53">
+        <v>1</v>
+      </c>
+      <c r="C62" s="54"/>
+      <c r="D62" s="54" t="s">
+        <v>234</v>
+      </c>
+      <c r="E62" s="48"/>
+      <c r="F62" s="49"/>
+      <c r="G62" s="49"/>
+      <c r="H62" s="49"/>
+      <c r="I62" s="49"/>
+      <c r="J62" s="49"/>
+      <c r="K62" s="49"/>
+      <c r="L62" s="49"/>
+      <c r="M62" s="49"/>
+      <c r="N62" s="49"/>
+      <c r="O62" s="49"/>
+      <c r="P62" s="49"/>
+      <c r="Q62" s="49"/>
+      <c r="R62" s="49"/>
+    </row>
+    <row r="63" spans="1:18" s="50" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A63" s="53" t="s">
+        <v>235</v>
+      </c>
+      <c r="B63" s="53">
+        <v>3</v>
+      </c>
+      <c r="C63" s="54"/>
+      <c r="D63" s="54" t="s">
+        <v>236</v>
+      </c>
+      <c r="E63" s="48"/>
+      <c r="F63" s="49"/>
+      <c r="G63" s="49"/>
+      <c r="H63" s="49"/>
+      <c r="I63" s="49"/>
+      <c r="J63" s="49"/>
+      <c r="K63" s="49"/>
+      <c r="L63" s="49"/>
+      <c r="M63" s="49"/>
+      <c r="N63" s="49"/>
+      <c r="O63" s="49"/>
+      <c r="P63" s="49"/>
+      <c r="Q63" s="49"/>
+      <c r="R63" s="49"/>
+    </row>
+    <row r="64" spans="1:18" s="50" customFormat="1" ht="27" x14ac:dyDescent="0.3">
+      <c r="A64" s="53" t="s">
+        <v>237</v>
+      </c>
+      <c r="B64" s="53">
+        <v>2</v>
+      </c>
+      <c r="C64" s="54"/>
+      <c r="D64" s="54" t="s">
+        <v>238</v>
+      </c>
+      <c r="E64" s="48"/>
+      <c r="F64" s="49"/>
+      <c r="G64" s="49"/>
+      <c r="H64" s="49"/>
+      <c r="I64" s="49"/>
+      <c r="J64" s="49"/>
+      <c r="K64" s="49"/>
+      <c r="L64" s="49"/>
+      <c r="M64" s="49"/>
+      <c r="N64" s="49"/>
+      <c r="O64" s="49"/>
+      <c r="P64" s="49"/>
+      <c r="Q64" s="49"/>
+      <c r="R64" s="49"/>
+    </row>
+    <row r="65" spans="1:18" s="50" customFormat="1" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="55" t="s">
+        <v>239</v>
+      </c>
+      <c r="B65" s="55">
+        <v>1</v>
+      </c>
+      <c r="C65" s="56"/>
+      <c r="D65" s="56" t="s">
+        <v>240</v>
+      </c>
+      <c r="E65" s="48"/>
+      <c r="F65" s="49"/>
+      <c r="G65" s="49"/>
+      <c r="H65" s="49"/>
+      <c r="I65" s="49"/>
+      <c r="J65" s="49"/>
+      <c r="K65" s="49"/>
+      <c r="L65" s="49"/>
+      <c r="M65" s="49"/>
+      <c r="N65" s="49"/>
+      <c r="O65" s="49"/>
+      <c r="P65" s="49"/>
+      <c r="Q65" s="49"/>
+      <c r="R65" s="49"/>
+    </row>
+    <row r="66" spans="1:18" s="50" customFormat="1" ht="41.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="53" t="s">
+        <v>241</v>
+      </c>
+      <c r="B66" s="53">
+        <v>2</v>
+      </c>
+      <c r="C66" s="54"/>
+      <c r="D66" s="54"/>
+      <c r="E66" s="48"/>
+      <c r="F66" s="49"/>
+      <c r="G66" s="49"/>
+      <c r="H66" s="49"/>
+      <c r="I66" s="49"/>
+      <c r="J66" s="49"/>
+      <c r="K66" s="49"/>
+      <c r="L66" s="49"/>
+      <c r="M66" s="49"/>
+      <c r="N66" s="49"/>
+      <c r="O66" s="49"/>
+      <c r="P66" s="49"/>
+      <c r="Q66" s="49"/>
+      <c r="R66" s="49"/>
+    </row>
+    <row r="67" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B67" s="14">
+        <f>SUM(B43:B66)</f>
+        <v>50</v>
+      </c>
+      <c r="C67" s="15"/>
+      <c r="D67" s="15"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="4"/>
+      <c r="K67" s="4"/>
+      <c r="L67" s="4"/>
+      <c r="M67" s="4"/>
+      <c r="N67" s="4"/>
+      <c r="O67" s="4"/>
+      <c r="P67" s="4"/>
+      <c r="Q67" s="4"/>
+      <c r="R67" s="4"/>
+    </row>
+    <row r="68" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A68" s="16"/>
+      <c r="B68" s="16"/>
+      <c r="C68" s="16"/>
+      <c r="D68" s="16"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="4"/>
+      <c r="J68" s="4"/>
+      <c r="K68" s="4"/>
+      <c r="L68" s="4"/>
+      <c r="M68" s="4"/>
+      <c r="N68" s="4"/>
+      <c r="O68" s="4"/>
+      <c r="P68" s="4"/>
+      <c r="Q68" s="4"/>
+      <c r="R68" s="4"/>
+    </row>
+    <row r="69" spans="1:18" ht="18" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B69" s="2">
+        <v>4</v>
+      </c>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
+      <c r="I69" s="4"/>
+      <c r="J69" s="4"/>
+      <c r="K69" s="4"/>
+      <c r="L69" s="4"/>
+      <c r="M69" s="4"/>
+      <c r="N69" s="4"/>
+      <c r="O69" s="4"/>
+      <c r="P69" s="4"/>
+      <c r="Q69" s="4"/>
+      <c r="R69" s="4"/>
+    </row>
+    <row r="70" spans="1:18" ht="15" x14ac:dyDescent="0.3">
+      <c r="A70" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E70" s="10"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4"/>
+      <c r="I70" s="4"/>
+      <c r="J70" s="4"/>
+      <c r="K70" s="4"/>
+      <c r="L70" s="4"/>
+      <c r="M70" s="4"/>
+      <c r="N70" s="4"/>
+      <c r="O70" s="4"/>
+      <c r="P70" s="4"/>
+      <c r="Q70" s="4"/>
+      <c r="R70" s="4"/>
+    </row>
+    <row r="71" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A71" s="19"/>
+      <c r="B71" s="19"/>
+      <c r="C71" s="20"/>
+      <c r="D71" s="20"/>
+      <c r="E71" s="10"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
+      <c r="I71" s="4"/>
+      <c r="J71" s="4"/>
+      <c r="K71" s="4"/>
+      <c r="L71" s="4"/>
+      <c r="M71" s="4"/>
+      <c r="N71" s="4"/>
+      <c r="O71" s="4"/>
+      <c r="P71" s="4"/>
+      <c r="Q71" s="4"/>
+      <c r="R71" s="4"/>
+    </row>
+    <row r="72" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A72" s="7"/>
+      <c r="B72" s="7"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="10"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="4"/>
+      <c r="I72" s="4"/>
+      <c r="J72" s="4"/>
+      <c r="K72" s="4"/>
+      <c r="L72" s="4"/>
+      <c r="M72" s="4"/>
+      <c r="N72" s="4"/>
+      <c r="O72" s="4"/>
+      <c r="P72" s="4"/>
+      <c r="Q72" s="4"/>
+      <c r="R72" s="4"/>
+    </row>
+    <row r="73" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="7"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="10"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
+      <c r="H73" s="4"/>
+      <c r="I73" s="4"/>
+      <c r="J73" s="4"/>
+      <c r="K73" s="4"/>
+      <c r="L73" s="4"/>
+      <c r="M73" s="4"/>
+      <c r="N73" s="4"/>
+      <c r="O73" s="4"/>
+      <c r="P73" s="4"/>
+      <c r="Q73" s="4"/>
+      <c r="R73" s="4"/>
+    </row>
+    <row r="74" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="7"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="9"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="10"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="4"/>
+      <c r="I74" s="4"/>
+      <c r="J74" s="4"/>
+      <c r="K74" s="4"/>
+      <c r="L74" s="4"/>
+      <c r="M74" s="4"/>
+      <c r="N74" s="4"/>
+      <c r="O74" s="4"/>
+      <c r="P74" s="4"/>
+      <c r="Q74" s="4"/>
+      <c r="R74" s="4"/>
+    </row>
+    <row r="75" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="7"/>
+      <c r="B75" s="7"/>
+      <c r="C75" s="9"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="10"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="4"/>
+      <c r="I75" s="4"/>
+      <c r="J75" s="4"/>
+      <c r="K75" s="4"/>
+      <c r="L75" s="4"/>
+      <c r="M75" s="4"/>
+      <c r="N75" s="4"/>
+      <c r="O75" s="4"/>
+      <c r="P75" s="4"/>
+      <c r="Q75" s="4"/>
+      <c r="R75" s="4"/>
+    </row>
+    <row r="76" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="7"/>
+      <c r="B76" s="7"/>
+      <c r="C76" s="9"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="10"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
+      <c r="I76" s="4"/>
+      <c r="J76" s="4"/>
+      <c r="K76" s="4"/>
+      <c r="L76" s="4"/>
+      <c r="M76" s="4"/>
+      <c r="N76" s="4"/>
+      <c r="O76" s="4"/>
+      <c r="P76" s="4"/>
+      <c r="Q76" s="4"/>
+      <c r="R76" s="4"/>
+    </row>
+    <row r="77" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="25"/>
+      <c r="B77" s="25"/>
+      <c r="C77" s="26"/>
+      <c r="D77" s="26"/>
+      <c r="E77" s="10"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="4"/>
+      <c r="I77" s="4"/>
+      <c r="J77" s="4"/>
+      <c r="K77" s="4"/>
+      <c r="L77" s="4"/>
+      <c r="M77" s="4"/>
+      <c r="N77" s="4"/>
+      <c r="O77" s="4"/>
+      <c r="P77" s="4"/>
+      <c r="Q77" s="4"/>
+      <c r="R77" s="4"/>
+    </row>
+    <row r="78" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="25"/>
+      <c r="B78" s="25"/>
+      <c r="C78" s="26"/>
+      <c r="D78" s="26"/>
+      <c r="E78" s="10"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="4"/>
+      <c r="I78" s="4"/>
+      <c r="J78" s="4"/>
+      <c r="K78" s="4"/>
+      <c r="L78" s="4"/>
+      <c r="M78" s="4"/>
+      <c r="N78" s="4"/>
+      <c r="O78" s="4"/>
+      <c r="P78" s="4"/>
+      <c r="Q78" s="4"/>
+      <c r="R78" s="4"/>
+    </row>
+    <row r="79" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="25"/>
+      <c r="B79" s="25"/>
+      <c r="C79" s="26"/>
+      <c r="D79" s="26"/>
+      <c r="E79" s="10"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="4"/>
+      <c r="I79" s="4"/>
+      <c r="J79" s="4"/>
+      <c r="K79" s="4"/>
+      <c r="L79" s="4"/>
+      <c r="M79" s="4"/>
+      <c r="N79" s="4"/>
+      <c r="O79" s="4"/>
+      <c r="P79" s="4"/>
+      <c r="Q79" s="4"/>
+      <c r="R79" s="4"/>
+    </row>
+    <row r="80" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="25"/>
+      <c r="B80" s="25"/>
+      <c r="C80" s="26"/>
+      <c r="D80" s="26"/>
+      <c r="E80" s="10"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="4"/>
+      <c r="I80" s="4"/>
+      <c r="J80" s="4"/>
+      <c r="K80" s="4"/>
+      <c r="L80" s="4"/>
+      <c r="M80" s="4"/>
+      <c r="N80" s="4"/>
+      <c r="O80" s="4"/>
+      <c r="P80" s="4"/>
+      <c r="Q80" s="4"/>
+      <c r="R80" s="4"/>
+    </row>
+    <row r="81" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="23"/>
+      <c r="B81" s="23"/>
+      <c r="C81" s="24"/>
+      <c r="D81" s="24"/>
+      <c r="E81" s="10"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="4"/>
+      <c r="I81" s="4"/>
+      <c r="J81" s="4"/>
+      <c r="K81" s="4"/>
+      <c r="L81" s="4"/>
+      <c r="M81" s="4"/>
+      <c r="N81" s="4"/>
+      <c r="O81" s="4"/>
+      <c r="P81" s="4"/>
+      <c r="Q81" s="4"/>
+      <c r="R81" s="4"/>
+    </row>
+    <row r="82" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B82" s="14">
+        <f>SUM(B71:B81)</f>
+        <v>0</v>
+      </c>
+      <c r="C82" s="15"/>
+      <c r="D82" s="15"/>
+      <c r="E82" s="10"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="4"/>
+      <c r="I82" s="4"/>
+      <c r="J82" s="4"/>
+      <c r="K82" s="4"/>
+      <c r="L82" s="4"/>
+      <c r="M82" s="4"/>
+      <c r="N82" s="4"/>
+      <c r="O82" s="4"/>
+      <c r="P82" s="4"/>
+      <c r="Q82" s="4"/>
+      <c r="R82" s="4"/>
+    </row>
+    <row r="83" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="16"/>
+      <c r="B83" s="16"/>
+      <c r="C83" s="16"/>
+      <c r="D83" s="16"/>
+      <c r="E83" s="10"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="4"/>
+      <c r="I83" s="4"/>
+      <c r="J83" s="4"/>
+      <c r="K83" s="4"/>
+      <c r="L83" s="4"/>
+      <c r="M83" s="4"/>
+      <c r="N83" s="4"/>
+      <c r="O83" s="4"/>
+      <c r="P83" s="4"/>
+      <c r="Q83" s="4"/>
+      <c r="R83" s="4"/>
+    </row>
+    <row r="84" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B84" s="2">
+        <v>5</v>
+      </c>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="10"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="4"/>
+      <c r="H84" s="4"/>
+      <c r="I84" s="4"/>
+      <c r="J84" s="4"/>
+      <c r="K84" s="4"/>
+      <c r="L84" s="4"/>
+      <c r="M84" s="4"/>
+      <c r="N84" s="4"/>
+      <c r="O84" s="4"/>
+      <c r="P84" s="4"/>
+      <c r="Q84" s="4"/>
+      <c r="R84" s="4"/>
+    </row>
+    <row r="85" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E85" s="10"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
+      <c r="H85" s="4"/>
+      <c r="I85" s="4"/>
+      <c r="J85" s="4"/>
+      <c r="K85" s="4"/>
+      <c r="L85" s="4"/>
+      <c r="M85" s="4"/>
+      <c r="N85" s="4"/>
+      <c r="O85" s="4"/>
+      <c r="P85" s="4"/>
+      <c r="Q85" s="4"/>
+      <c r="R85" s="4"/>
+    </row>
+    <row r="86" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="19"/>
+      <c r="B86" s="19"/>
+      <c r="C86" s="20"/>
+      <c r="D86" s="20"/>
+      <c r="E86" s="10"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
+      <c r="H86" s="4"/>
+      <c r="I86" s="4"/>
+      <c r="J86" s="4"/>
+      <c r="K86" s="4"/>
+      <c r="L86" s="4"/>
+      <c r="M86" s="4"/>
+      <c r="N86" s="4"/>
+      <c r="O86" s="4"/>
+      <c r="P86" s="4"/>
+      <c r="Q86" s="4"/>
+      <c r="R86" s="4"/>
+    </row>
+    <row r="87" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="7"/>
+      <c r="B87" s="7"/>
+      <c r="C87" s="9"/>
+      <c r="D87" s="9"/>
+      <c r="E87" s="10"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="4"/>
+      <c r="H87" s="4"/>
+      <c r="I87" s="4"/>
+      <c r="J87" s="4"/>
+      <c r="K87" s="4"/>
+      <c r="L87" s="4"/>
+      <c r="M87" s="4"/>
+      <c r="N87" s="4"/>
+      <c r="O87" s="4"/>
+      <c r="P87" s="4"/>
+      <c r="Q87" s="4"/>
+      <c r="R87" s="4"/>
+    </row>
+    <row r="88" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A88" s="7"/>
+      <c r="B88" s="7"/>
+      <c r="C88" s="9"/>
+      <c r="D88" s="9"/>
+      <c r="E88" s="10"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="4"/>
+      <c r="H88" s="4"/>
+      <c r="I88" s="4"/>
+      <c r="J88" s="4"/>
+      <c r="K88" s="4"/>
+      <c r="L88" s="4"/>
+      <c r="M88" s="4"/>
+      <c r="N88" s="4"/>
+      <c r="O88" s="4"/>
+      <c r="P88" s="4"/>
+      <c r="Q88" s="4"/>
+      <c r="R88" s="4"/>
+    </row>
+    <row r="89" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A89" s="7"/>
+      <c r="B89" s="7"/>
+      <c r="C89" s="9"/>
+      <c r="D89" s="9"/>
+      <c r="E89" s="10"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="4"/>
+      <c r="H89" s="4"/>
+      <c r="I89" s="4"/>
+      <c r="J89" s="4"/>
+      <c r="K89" s="4"/>
+      <c r="L89" s="4"/>
+      <c r="M89" s="4"/>
+      <c r="N89" s="4"/>
+      <c r="O89" s="4"/>
+      <c r="P89" s="4"/>
+      <c r="Q89" s="4"/>
+      <c r="R89" s="4"/>
+    </row>
+    <row r="90" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A90" s="7"/>
+      <c r="B90" s="7"/>
+      <c r="C90" s="9"/>
+      <c r="D90" s="9"/>
+      <c r="E90" s="10"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="4"/>
+      <c r="H90" s="4"/>
+      <c r="I90" s="4"/>
+      <c r="J90" s="4"/>
+      <c r="K90" s="4"/>
+      <c r="L90" s="4"/>
+      <c r="M90" s="4"/>
+      <c r="N90" s="4"/>
+      <c r="O90" s="4"/>
+      <c r="P90" s="4"/>
+      <c r="Q90" s="4"/>
+      <c r="R90" s="4"/>
+    </row>
+    <row r="91" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A91" s="23"/>
+      <c r="B91" s="23"/>
+      <c r="C91" s="24"/>
+      <c r="D91" s="24"/>
+      <c r="E91" s="10"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="4"/>
+      <c r="H91" s="4"/>
+      <c r="I91" s="4"/>
+      <c r="J91" s="4"/>
+      <c r="K91" s="4"/>
+      <c r="L91" s="4"/>
+      <c r="M91" s="4"/>
+      <c r="N91" s="4"/>
+      <c r="O91" s="4"/>
+      <c r="P91" s="4"/>
+      <c r="Q91" s="4"/>
+      <c r="R91" s="4"/>
+    </row>
+    <row r="92" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+      <c r="A92" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B92" s="14">
+        <f>SUM(B86:B91)</f>
+        <v>0</v>
+      </c>
+      <c r="C92" s="15"/>
+      <c r="D92" s="15"/>
+      <c r="E92" s="10"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="4"/>
+      <c r="H92" s="4"/>
+      <c r="I92" s="4"/>
+      <c r="J92" s="4"/>
+      <c r="K92" s="4"/>
+      <c r="L92" s="4"/>
+      <c r="M92" s="4"/>
+      <c r="N92" s="4"/>
+      <c r="O92" s="4"/>
+      <c r="P92" s="4"/>
+      <c r="Q92" s="4"/>
+      <c r="R92" s="4"/>
+    </row>
+    <row r="93" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A93" s="16"/>
+      <c r="B93" s="16"/>
+      <c r="C93" s="16"/>
+      <c r="D93" s="16"/>
+      <c r="E93" s="10"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="4"/>
+      <c r="H93" s="4"/>
+      <c r="I93" s="4"/>
+      <c r="J93" s="4"/>
+      <c r="K93" s="4"/>
+      <c r="L93" s="4"/>
+      <c r="M93" s="4"/>
+      <c r="N93" s="4"/>
+      <c r="O93" s="4"/>
+      <c r="P93" s="4"/>
+      <c r="Q93" s="4"/>
+      <c r="R93" s="4"/>
+    </row>
+    <row r="94" spans="1:18" ht="18" x14ac:dyDescent="0.3">
+      <c r="A94" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B94" s="2">
+        <v>6</v>
+      </c>
+      <c r="C94" s="3"/>
+      <c r="D94" s="3"/>
+      <c r="E94" s="10"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="4"/>
+      <c r="H94" s="4"/>
+      <c r="I94" s="4"/>
+      <c r="J94" s="4"/>
+      <c r="K94" s="4"/>
+      <c r="L94" s="4"/>
+      <c r="M94" s="4"/>
+      <c r="N94" s="4"/>
+      <c r="O94" s="4"/>
+      <c r="P94" s="4"/>
+      <c r="Q94" s="4"/>
+      <c r="R94" s="4"/>
+    </row>
+    <row r="95" spans="1:18" ht="15" x14ac:dyDescent="0.3">
+      <c r="A95" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C95" s="5"/>
+      <c r="D95" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E95" s="10"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="4"/>
+      <c r="H95" s="4"/>
+      <c r="I95" s="4"/>
+      <c r="J95" s="4"/>
+      <c r="K95" s="4"/>
+      <c r="L95" s="4"/>
+      <c r="M95" s="4"/>
+      <c r="N95" s="4"/>
+      <c r="O95" s="4"/>
+      <c r="P95" s="4"/>
+      <c r="Q95" s="4"/>
+      <c r="R95" s="4"/>
+    </row>
+    <row r="96" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A96" s="19"/>
+      <c r="B96" s="19"/>
+      <c r="C96" s="20"/>
+      <c r="D96" s="20"/>
+      <c r="E96" s="10"/>
+      <c r="F96" s="4"/>
+      <c r="G96" s="4"/>
+      <c r="H96" s="4"/>
+      <c r="I96" s="4"/>
+      <c r="J96" s="4"/>
+      <c r="K96" s="4"/>
+      <c r="L96" s="4"/>
+      <c r="M96" s="4"/>
+      <c r="N96" s="4"/>
+      <c r="O96" s="4"/>
+      <c r="P96" s="4"/>
+      <c r="Q96" s="4"/>
+      <c r="R96" s="4"/>
+    </row>
+    <row r="97" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A97" s="7"/>
+      <c r="B97" s="7"/>
+      <c r="C97" s="9"/>
+      <c r="D97" s="9"/>
+      <c r="E97" s="10"/>
+      <c r="F97" s="4"/>
+      <c r="G97" s="4"/>
+      <c r="H97" s="4"/>
+      <c r="I97" s="4"/>
+      <c r="J97" s="4"/>
+      <c r="K97" s="4"/>
+      <c r="L97" s="4"/>
+      <c r="M97" s="4"/>
+      <c r="N97" s="4"/>
+      <c r="O97" s="4"/>
+      <c r="P97" s="4"/>
+      <c r="Q97" s="4"/>
+      <c r="R97" s="4"/>
+    </row>
+    <row r="98" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A98" s="7"/>
+      <c r="B98" s="7"/>
+      <c r="C98" s="9"/>
+      <c r="D98" s="9"/>
+      <c r="E98" s="10"/>
+      <c r="F98" s="4"/>
+      <c r="G98" s="4"/>
+      <c r="H98" s="4"/>
+      <c r="I98" s="4"/>
+      <c r="J98" s="4"/>
+      <c r="K98" s="4"/>
+      <c r="L98" s="4"/>
+      <c r="M98" s="4"/>
+      <c r="N98" s="4"/>
+      <c r="O98" s="4"/>
+      <c r="P98" s="4"/>
+      <c r="Q98" s="4"/>
+      <c r="R98" s="4"/>
+    </row>
+    <row r="99" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A99" s="7"/>
+      <c r="B99" s="7"/>
+      <c r="C99" s="9"/>
+      <c r="D99" s="9"/>
+      <c r="E99" s="10"/>
+      <c r="F99" s="4"/>
+      <c r="G99" s="4"/>
+      <c r="H99" s="4"/>
+      <c r="I99" s="4"/>
+      <c r="J99" s="4"/>
+      <c r="K99" s="4"/>
+      <c r="L99" s="4"/>
+      <c r="M99" s="4"/>
+      <c r="N99" s="4"/>
+      <c r="O99" s="4"/>
+      <c r="P99" s="4"/>
+      <c r="Q99" s="4"/>
+      <c r="R99" s="4"/>
+    </row>
+    <row r="100" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A100" s="7"/>
+      <c r="B100" s="7"/>
+      <c r="C100" s="9"/>
+      <c r="D100" s="9"/>
+      <c r="E100" s="10"/>
+      <c r="F100" s="4"/>
+      <c r="G100" s="4"/>
+      <c r="H100" s="4"/>
+      <c r="I100" s="4"/>
+      <c r="J100" s="4"/>
+      <c r="K100" s="4"/>
+      <c r="L100" s="4"/>
+      <c r="M100" s="4"/>
+      <c r="N100" s="4"/>
+      <c r="O100" s="4"/>
+      <c r="P100" s="4"/>
+      <c r="Q100" s="4"/>
+      <c r="R100" s="4"/>
+    </row>
+    <row r="101" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A101" s="7"/>
+      <c r="B101" s="7"/>
+      <c r="C101" s="9"/>
+      <c r="D101" s="9"/>
+      <c r="E101" s="10"/>
+      <c r="F101" s="4"/>
+      <c r="G101" s="4"/>
+      <c r="H101" s="4"/>
+      <c r="I101" s="4"/>
+      <c r="J101" s="4"/>
+      <c r="K101" s="4"/>
+      <c r="L101" s="4"/>
+      <c r="M101" s="4"/>
+      <c r="N101" s="4"/>
+      <c r="O101" s="4"/>
+      <c r="P101" s="4"/>
+      <c r="Q101" s="4"/>
+      <c r="R101" s="4"/>
+    </row>
+    <row r="102" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A102" s="7"/>
+      <c r="B102" s="7"/>
+      <c r="C102" s="9"/>
+      <c r="D102" s="9"/>
+      <c r="E102" s="10"/>
+      <c r="F102" s="4"/>
+      <c r="G102" s="4"/>
+      <c r="H102" s="4"/>
+      <c r="I102" s="4"/>
+      <c r="J102" s="4"/>
+      <c r="K102" s="4"/>
+      <c r="L102" s="4"/>
+      <c r="M102" s="4"/>
+      <c r="N102" s="4"/>
+      <c r="O102" s="4"/>
+      <c r="P102" s="4"/>
+      <c r="Q102" s="4"/>
+      <c r="R102" s="4"/>
+    </row>
+    <row r="103" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A103" s="23"/>
+      <c r="B103" s="23"/>
+      <c r="C103" s="24"/>
+      <c r="D103" s="24"/>
+      <c r="E103" s="10"/>
+      <c r="F103" s="4"/>
+      <c r="G103" s="4"/>
+      <c r="H103" s="4"/>
+      <c r="I103" s="4"/>
+      <c r="J103" s="4"/>
+      <c r="K103" s="4"/>
+      <c r="L103" s="4"/>
+      <c r="M103" s="4"/>
+      <c r="N103" s="4"/>
+      <c r="O103" s="4"/>
+      <c r="P103" s="4"/>
+      <c r="Q103" s="4"/>
+      <c r="R103" s="4"/>
+    </row>
+    <row r="104" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+      <c r="A104" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B104" s="14">
+        <f>SUM(B96:B103)</f>
+        <v>0</v>
+      </c>
+      <c r="C104" s="15"/>
+      <c r="D104" s="15"/>
+      <c r="E104" s="10"/>
+      <c r="F104" s="4"/>
+      <c r="G104" s="4"/>
+      <c r="H104" s="4"/>
+      <c r="I104" s="4"/>
+      <c r="J104" s="4"/>
+      <c r="K104" s="4"/>
+      <c r="L104" s="4"/>
+      <c r="M104" s="4"/>
+      <c r="N104" s="4"/>
+      <c r="O104" s="4"/>
+      <c r="P104" s="4"/>
+      <c r="Q104" s="4"/>
+      <c r="R104" s="4"/>
+    </row>
+    <row r="105" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A105" s="16"/>
+      <c r="B105" s="16"/>
+      <c r="C105" s="16"/>
+      <c r="D105" s="16"/>
+      <c r="E105" s="10"/>
+      <c r="F105" s="4"/>
+      <c r="G105" s="4"/>
+      <c r="H105" s="4"/>
+      <c r="I105" s="4"/>
+      <c r="J105" s="4"/>
+      <c r="K105" s="4"/>
+      <c r="L105" s="4"/>
+      <c r="M105" s="4"/>
+      <c r="N105" s="4"/>
+      <c r="O105" s="4"/>
+      <c r="P105" s="4"/>
+      <c r="Q105" s="4"/>
+      <c r="R105" s="4"/>
+    </row>
+    <row r="106" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A106" s="27"/>
+      <c r="B106" s="27"/>
+      <c r="C106" s="27"/>
+      <c r="D106" s="27"/>
+      <c r="E106" s="10"/>
+      <c r="F106" s="4"/>
+      <c r="G106" s="4"/>
+      <c r="H106" s="4"/>
+      <c r="I106" s="4"/>
+      <c r="J106" s="4"/>
+      <c r="K106" s="4"/>
+      <c r="L106" s="4"/>
+      <c r="M106" s="4"/>
+      <c r="N106" s="4"/>
+      <c r="O106" s="4"/>
+      <c r="P106" s="4"/>
+      <c r="Q106" s="4"/>
+      <c r="R106" s="4"/>
+    </row>
+    <row r="107" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A107" s="27"/>
+      <c r="B107" s="27"/>
+      <c r="C107" s="27"/>
+      <c r="D107" s="27"/>
+      <c r="E107" s="10"/>
+      <c r="F107" s="4"/>
+      <c r="G107" s="4"/>
+      <c r="H107" s="4"/>
+      <c r="I107" s="4"/>
+      <c r="J107" s="4"/>
+      <c r="K107" s="4"/>
+      <c r="L107" s="4"/>
+      <c r="M107" s="4"/>
+      <c r="N107" s="4"/>
+      <c r="O107" s="4"/>
+      <c r="P107" s="4"/>
+      <c r="Q107" s="4"/>
+      <c r="R107" s="4"/>
+    </row>
+    <row r="108" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A108" s="27"/>
+      <c r="B108" s="27"/>
+      <c r="C108" s="27"/>
+      <c r="D108" s="27"/>
+      <c r="E108" s="10"/>
+      <c r="F108" s="4"/>
+      <c r="G108" s="4"/>
+      <c r="H108" s="4"/>
+      <c r="I108" s="4"/>
+      <c r="J108" s="4"/>
+      <c r="K108" s="4"/>
+      <c r="L108" s="4"/>
+      <c r="M108" s="4"/>
+      <c r="N108" s="4"/>
+      <c r="O108" s="4"/>
+      <c r="P108" s="4"/>
+      <c r="Q108" s="4"/>
+      <c r="R108" s="4"/>
+    </row>
+    <row r="109" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A109" s="27"/>
+      <c r="B109" s="27"/>
+      <c r="C109" s="27"/>
+      <c r="D109" s="27"/>
+      <c r="E109" s="10"/>
+      <c r="F109" s="4"/>
+      <c r="G109" s="4"/>
+      <c r="H109" s="4"/>
+      <c r="I109" s="4"/>
+      <c r="J109" s="4"/>
+      <c r="K109" s="4"/>
+      <c r="L109" s="4"/>
+      <c r="M109" s="4"/>
+      <c r="N109" s="4"/>
+      <c r="O109" s="4"/>
+      <c r="P109" s="4"/>
+      <c r="Q109" s="4"/>
+      <c r="R109" s="4"/>
+    </row>
+    <row r="110" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A110" s="27"/>
+      <c r="B110" s="27"/>
+      <c r="C110" s="27"/>
+      <c r="D110" s="27"/>
+      <c r="E110" s="10"/>
+      <c r="F110" s="4"/>
+      <c r="G110" s="4"/>
+      <c r="H110" s="4"/>
+      <c r="I110" s="4"/>
+      <c r="J110" s="4"/>
+      <c r="K110" s="4"/>
+      <c r="L110" s="4"/>
+      <c r="M110" s="4"/>
+      <c r="N110" s="4"/>
+      <c r="O110" s="4"/>
+      <c r="P110" s="4"/>
+      <c r="Q110" s="4"/>
+      <c r="R110" s="4"/>
+    </row>
+    <row r="111" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A111" s="27"/>
+      <c r="B111" s="27"/>
+      <c r="C111" s="27"/>
+      <c r="D111" s="27"/>
+      <c r="E111" s="10"/>
+      <c r="F111" s="4"/>
+      <c r="G111" s="4"/>
+      <c r="H111" s="4"/>
+      <c r="I111" s="4"/>
+      <c r="J111" s="4"/>
+      <c r="K111" s="4"/>
+      <c r="L111" s="4"/>
+      <c r="M111" s="4"/>
+      <c r="N111" s="4"/>
+      <c r="O111" s="4"/>
+      <c r="P111" s="4"/>
+      <c r="Q111" s="4"/>
+      <c r="R111" s="4"/>
+    </row>
+    <row r="112" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A112" s="27"/>
+      <c r="B112" s="27"/>
+      <c r="C112" s="27"/>
+      <c r="D112" s="27"/>
+      <c r="E112" s="10"/>
+      <c r="F112" s="4"/>
+      <c r="G112" s="4"/>
+      <c r="H112" s="4"/>
+      <c r="I112" s="4"/>
+      <c r="J112" s="4"/>
+      <c r="K112" s="4"/>
+      <c r="L112" s="4"/>
+      <c r="M112" s="4"/>
+      <c r="N112" s="4"/>
+      <c r="O112" s="4"/>
+      <c r="P112" s="4"/>
+      <c r="Q112" s="4"/>
+      <c r="R112" s="4"/>
+    </row>
+    <row r="113" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A113" s="27"/>
+      <c r="B113" s="27"/>
+      <c r="C113" s="27"/>
+      <c r="D113" s="27"/>
+      <c r="E113" s="10"/>
+      <c r="F113" s="4"/>
+      <c r="G113" s="4"/>
+      <c r="H113" s="4"/>
+      <c r="I113" s="4"/>
+      <c r="J113" s="4"/>
+      <c r="K113" s="4"/>
+      <c r="L113" s="4"/>
+      <c r="M113" s="4"/>
+      <c r="N113" s="4"/>
+      <c r="O113" s="4"/>
+      <c r="P113" s="4"/>
+      <c r="Q113" s="4"/>
+      <c r="R113" s="4"/>
+    </row>
+    <row r="114" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A114" s="27"/>
+      <c r="B114" s="27"/>
+      <c r="C114" s="27"/>
+      <c r="D114" s="27"/>
+      <c r="E114" s="10"/>
+      <c r="F114" s="4"/>
+      <c r="G114" s="4"/>
+      <c r="H114" s="4"/>
+      <c r="I114" s="4"/>
+      <c r="J114" s="4"/>
+      <c r="K114" s="4"/>
+      <c r="L114" s="4"/>
+      <c r="M114" s="4"/>
+      <c r="N114" s="4"/>
+      <c r="O114" s="4"/>
+      <c r="P114" s="4"/>
+      <c r="Q114" s="4"/>
+      <c r="R114" s="4"/>
+    </row>
+    <row r="115" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A115" s="27"/>
+      <c r="B115" s="27"/>
+      <c r="C115" s="27"/>
+      <c r="D115" s="27"/>
+      <c r="E115" s="10"/>
+      <c r="F115" s="4"/>
+      <c r="G115" s="4"/>
+      <c r="H115" s="4"/>
+      <c r="I115" s="4"/>
+      <c r="J115" s="4"/>
+      <c r="K115" s="4"/>
+      <c r="L115" s="4"/>
+      <c r="M115" s="4"/>
+      <c r="N115" s="4"/>
+      <c r="O115" s="4"/>
+      <c r="P115" s="4"/>
+      <c r="Q115" s="4"/>
+      <c r="R115" s="4"/>
+    </row>
+    <row r="116" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A116" s="27"/>
+      <c r="B116" s="27"/>
+      <c r="C116" s="27"/>
+      <c r="D116" s="27"/>
+      <c r="E116" s="10"/>
+      <c r="F116" s="4"/>
+      <c r="G116" s="4"/>
+      <c r="H116" s="4"/>
+      <c r="I116" s="4"/>
+      <c r="J116" s="4"/>
+      <c r="K116" s="4"/>
+      <c r="L116" s="4"/>
+      <c r="M116" s="4"/>
+      <c r="N116" s="4"/>
+      <c r="O116" s="4"/>
+      <c r="P116" s="4"/>
+      <c r="Q116" s="4"/>
+      <c r="R116" s="4"/>
+    </row>
+    <row r="117" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A117" s="28"/>
+      <c r="B117" s="28"/>
+      <c r="C117" s="28"/>
+      <c r="D117" s="28"/>
+      <c r="E117" s="10"/>
+      <c r="F117" s="4"/>
+      <c r="G117" s="4"/>
+      <c r="H117" s="4"/>
+      <c r="I117" s="4"/>
+      <c r="J117" s="4"/>
+      <c r="K117" s="4"/>
+      <c r="L117" s="4"/>
+      <c r="M117" s="4"/>
+      <c r="N117" s="4"/>
+      <c r="O117" s="4"/>
+      <c r="P117" s="4"/>
+      <c r="Q117" s="4"/>
+      <c r="R117" s="4"/>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" prompt="Durée en 1/3 de période - Le nombre doit être de type entier" sqref="B96:B103 B17:B38 B71:B81 B86:B91 B3:B8 B10:B12 B43:B44 B46:B66" xr:uid="{76F8C2A5-22FC-42B6-BF5F-FD1899EE52B8}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" prompt="Dépassement de durée - Le nombre de minutes introduites dépasse la durée d'une période. Veuillez confirmer ... Le calcul du total sera juste dans tous les cas._x000a_" sqref="B13 B39 B67 B82 B92 B104" xr:uid="{BD151BE4-B931-4CBD-823B-9C753DC07C8D}">
+      <formula1>0</formula1>
+      <formula2>DureePeriode-1</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F222774-5003-490D-9078-78D1F6F89A4A}">
+  <dimension ref="A1:R100"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="78.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+    </row>
+    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+    </row>
+    <row r="3" spans="1:18" ht="94.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="7">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8">
+        <v>43906</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="10"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+    </row>
+    <row r="4" spans="1:18" ht="54" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="7">
+        <v>2</v>
+      </c>
+      <c r="C4" s="8">
+        <v>43906</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+    </row>
+    <row r="5" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="7">
+        <v>2</v>
+      </c>
+      <c r="C5" s="8">
+        <v>43907</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+    </row>
+    <row r="6" spans="1:18" ht="81" x14ac:dyDescent="0.3">
+      <c r="A6" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="25">
+        <v>2</v>
+      </c>
+      <c r="C6" s="8">
+        <v>43908</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+    </row>
+    <row r="7" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="29">
+        <v>2</v>
+      </c>
+      <c r="C7" s="11">
+        <v>43909</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+    </row>
+    <row r="8" spans="1:18" ht="108" x14ac:dyDescent="0.3">
+      <c r="A8" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="29">
+        <v>2</v>
+      </c>
+      <c r="C8" s="11">
+        <v>43910</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+    </row>
+    <row r="9" spans="1:18" ht="94.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="31">
+        <v>3</v>
+      </c>
+      <c r="C9" s="11">
+        <v>43911</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+    </row>
+    <row r="10" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="7">
+        <v>1</v>
+      </c>
+      <c r="C10" s="8">
+        <v>43913</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+    </row>
+    <row r="11" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="7">
+        <v>3</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="10"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+    </row>
+    <row r="12" spans="1:18" ht="94.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+    </row>
+    <row r="13" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+    </row>
+    <row r="14" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="14">
+        <f>SUM(B3:B13)</f>
+        <v>21</v>
+      </c>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+    </row>
+    <row r="15" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+    </row>
+    <row r="16" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="2">
+        <v>2</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+    </row>
+    <row r="17" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="10"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+    </row>
+    <row r="18" spans="1:18" ht="54" x14ac:dyDescent="0.3">
+      <c r="A18" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="7">
+        <v>2</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="10"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+    </row>
+    <row r="19" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="7">
+        <v>4</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E19" s="10"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+    </row>
+    <row r="20" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="7">
+        <v>2</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E20" s="10"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+    </row>
+    <row r="21" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="7">
+        <v>1</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" s="10"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+    </row>
+    <row r="22" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" s="10"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+    </row>
+    <row r="23" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="7">
+        <v>1</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E23" s="10"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+    </row>
+    <row r="24" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E24" s="10"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+    </row>
+    <row r="25" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25" s="7">
+        <v>3</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E25" s="10"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+    </row>
+    <row r="26" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
+      <c r="A26" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" s="7">
+        <v>7</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E26" s="10"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+    </row>
+    <row r="27" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+      <c r="A27" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E27" s="10"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+    </row>
+    <row r="28" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A28" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E28" s="10"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+    </row>
+    <row r="29" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+      <c r="A29" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B29" s="7">
+        <v>8</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="E29" s="10"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+    </row>
+    <row r="30" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+      <c r="A30" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B30" s="7">
+        <v>6</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="E30" s="10"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+    </row>
+    <row r="31" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4"/>
+    </row>
+    <row r="32" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
+    </row>
+    <row r="33" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
+    </row>
+    <row r="34" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="14">
+        <f>SUM(B18:B33)</f>
+        <v>51</v>
+      </c>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="4"/>
+    </row>
+    <row r="35" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="16"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
+    </row>
+    <row r="36" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="2">
+        <v>3</v>
+      </c>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="4"/>
+    </row>
+    <row r="37" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E37" s="10"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="4"/>
+    </row>
+    <row r="38" spans="1:18" ht="54" x14ac:dyDescent="0.3">
+      <c r="A38" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="7">
+        <v>3</v>
+      </c>
+      <c r="C38" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="D38" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="E38" s="10"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="4"/>
+    </row>
+    <row r="39" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+      <c r="A39" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B39" s="7">
+        <v>4</v>
+      </c>
+      <c r="C39" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="E39" s="10"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="4"/>
+    </row>
+    <row r="40" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A40" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B40" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="C40" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="E40" s="10"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="4"/>
+    </row>
+    <row r="41" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A41" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B41" s="7">
+        <v>4</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="E41" s="10"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="4"/>
+    </row>
+    <row r="42" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A42" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B42" s="7">
+        <v>4</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="E42" s="10"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="4"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="4"/>
+    </row>
+    <row r="43" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+      <c r="A43" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B43" s="7">
+        <v>5</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>180</v>
+      </c>
       <c r="E43" s="10"/>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
@@ -7999,11 +10984,19 @@
       <c r="Q43" s="4"/>
       <c r="R43" s="4"/>
     </row>
-    <row r="44" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A44" s="7"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="9"/>
+    <row r="44" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
+      <c r="A44" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B44" s="7">
+        <v>9</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>185</v>
+      </c>
       <c r="E44" s="10"/>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
@@ -8019,11 +11012,19 @@
       <c r="Q44" s="4"/>
       <c r="R44" s="4"/>
     </row>
-    <row r="45" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A45" s="7"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="9"/>
+    <row r="45" spans="1:18" ht="41.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="B45" s="23">
+        <v>9</v>
+      </c>
+      <c r="C45" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="D45" s="24" t="s">
+        <v>188</v>
+      </c>
       <c r="E45" s="10"/>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
@@ -8039,11 +11040,19 @@
       <c r="Q45" s="4"/>
       <c r="R45" s="4"/>
     </row>
-    <row r="46" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A46" s="7"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
+    <row r="46" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="B46" s="42">
+        <v>4.5</v>
+      </c>
+      <c r="C46" s="44" t="s">
+        <v>193</v>
+      </c>
+      <c r="D46" s="44" t="s">
+        <v>194</v>
+      </c>
       <c r="E46" s="10"/>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
@@ -8059,11 +11068,19 @@
       <c r="Q46" s="4"/>
       <c r="R46" s="4"/>
     </row>
-    <row r="47" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A47" s="7"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
+    <row r="47" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="B47" s="42">
+        <v>2</v>
+      </c>
+      <c r="C47" s="44" t="s">
+        <v>201</v>
+      </c>
+      <c r="D47" s="44" t="s">
+        <v>200</v>
+      </c>
       <c r="E47" s="10"/>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
@@ -8079,11 +11096,19 @@
       <c r="Q47" s="4"/>
       <c r="R47" s="4"/>
     </row>
-    <row r="48" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A48" s="7"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
+    <row r="48" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="B48" s="42">
+        <v>4</v>
+      </c>
+      <c r="C48" s="44" t="s">
+        <v>199</v>
+      </c>
+      <c r="D48" s="44" t="s">
+        <v>200</v>
+      </c>
       <c r="E48" s="10"/>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
@@ -8099,11 +11124,11 @@
       <c r="Q48" s="4"/>
       <c r="R48" s="4"/>
     </row>
-    <row r="49" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A49" s="7"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
+    <row r="49" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="42"/>
+      <c r="B49" s="42"/>
+      <c r="C49" s="44"/>
+      <c r="D49" s="44"/>
       <c r="E49" s="10"/>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
@@ -8119,11 +11144,16 @@
       <c r="Q49" s="4"/>
       <c r="R49" s="4"/>
     </row>
-    <row r="50" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A50" s="23"/>
-      <c r="B50" s="23"/>
-      <c r="C50" s="24"/>
-      <c r="D50" s="24"/>
+    <row r="50" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B50" s="14">
+        <f>SUM(B38:B49)</f>
+        <v>53</v>
+      </c>
+      <c r="C50" s="15"/>
+      <c r="D50" s="15"/>
       <c r="E50" s="10"/>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
@@ -8139,16 +11169,11 @@
       <c r="Q50" s="4"/>
       <c r="R50" s="4"/>
     </row>
-    <row r="51" spans="1:18" ht="27" x14ac:dyDescent="0.3">
-      <c r="A51" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B51" s="14">
-        <f>SUM(B43:B50)</f>
-        <v>0</v>
-      </c>
-      <c r="C51" s="15"/>
-      <c r="D51" s="15"/>
+    <row r="51" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="16"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="16"/>
       <c r="E51" s="10"/>
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
@@ -8164,11 +11189,15 @@
       <c r="Q51" s="4"/>
       <c r="R51" s="4"/>
     </row>
-    <row r="52" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A52" s="16"/>
-      <c r="B52" s="16"/>
-      <c r="C52" s="16"/>
-      <c r="D52" s="16"/>
+    <row r="52" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" s="2">
+        <v>4</v>
+      </c>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
       <c r="E52" s="10"/>
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
@@ -8184,15 +11213,17 @@
       <c r="Q52" s="4"/>
       <c r="R52" s="4"/>
     </row>
-    <row r="53" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B53" s="2">
-        <v>4</v>
-      </c>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
+    <row r="53" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="E53" s="10"/>
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
@@ -8208,17 +11239,11 @@
       <c r="Q53" s="4"/>
       <c r="R53" s="4"/>
     </row>
-    <row r="54" spans="1:18" ht="15" x14ac:dyDescent="0.3">
-      <c r="A54" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5" t="s">
-        <v>5</v>
-      </c>
+    <row r="54" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A54" s="19"/>
+      <c r="B54" s="19"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="20"/>
       <c r="E54" s="10"/>
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
@@ -8235,10 +11260,10 @@
       <c r="R54" s="4"/>
     </row>
     <row r="55" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A55" s="19"/>
-      <c r="B55" s="19"/>
-      <c r="C55" s="20"/>
-      <c r="D55" s="20"/>
+      <c r="A55" s="7"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
       <c r="E55" s="10"/>
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
@@ -8274,7 +11299,7 @@
       <c r="Q56" s="4"/>
       <c r="R56" s="4"/>
     </row>
-    <row r="57" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A57" s="7"/>
       <c r="B57" s="7"/>
       <c r="C57" s="9"/>
@@ -8294,7 +11319,7 @@
       <c r="Q57" s="4"/>
       <c r="R57" s="4"/>
     </row>
-    <row r="58" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A58" s="7"/>
       <c r="B58" s="7"/>
       <c r="C58" s="9"/>
@@ -8314,7 +11339,7 @@
       <c r="Q58" s="4"/>
       <c r="R58" s="4"/>
     </row>
-    <row r="59" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A59" s="7"/>
       <c r="B59" s="7"/>
       <c r="C59" s="9"/>
@@ -8334,11 +11359,11 @@
       <c r="Q59" s="4"/>
       <c r="R59" s="4"/>
     </row>
-    <row r="60" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="7"/>
-      <c r="B60" s="7"/>
-      <c r="C60" s="9"/>
-      <c r="D60" s="9"/>
+    <row r="60" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A60" s="25"/>
+      <c r="B60" s="25"/>
+      <c r="C60" s="26"/>
+      <c r="D60" s="26"/>
       <c r="E60" s="10"/>
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
@@ -8354,7 +11379,7 @@
       <c r="Q60" s="4"/>
       <c r="R60" s="4"/>
     </row>
-    <row r="61" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A61" s="25"/>
       <c r="B61" s="25"/>
       <c r="C61" s="26"/>
@@ -8374,7 +11399,7 @@
       <c r="Q61" s="4"/>
       <c r="R61" s="4"/>
     </row>
-    <row r="62" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A62" s="25"/>
       <c r="B62" s="25"/>
       <c r="C62" s="26"/>
@@ -8394,7 +11419,7 @@
       <c r="Q62" s="4"/>
       <c r="R62" s="4"/>
     </row>
-    <row r="63" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A63" s="25"/>
       <c r="B63" s="25"/>
       <c r="C63" s="26"/>
@@ -8415,10 +11440,10 @@
       <c r="R63" s="4"/>
     </row>
     <row r="64" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="25"/>
-      <c r="B64" s="25"/>
-      <c r="C64" s="26"/>
-      <c r="D64" s="26"/>
+      <c r="A64" s="23"/>
+      <c r="B64" s="23"/>
+      <c r="C64" s="24"/>
+      <c r="D64" s="24"/>
       <c r="E64" s="10"/>
       <c r="F64" s="4"/>
       <c r="G64" s="4"/>
@@ -8434,11 +11459,16 @@
       <c r="Q64" s="4"/>
       <c r="R64" s="4"/>
     </row>
-    <row r="65" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="23"/>
-      <c r="B65" s="23"/>
-      <c r="C65" s="24"/>
-      <c r="D65" s="24"/>
+    <row r="65" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B65" s="14">
+        <f>SUM(B54:B64)</f>
+        <v>0</v>
+      </c>
+      <c r="C65" s="15"/>
+      <c r="D65" s="15"/>
       <c r="E65" s="10"/>
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
@@ -8454,16 +11484,11 @@
       <c r="Q65" s="4"/>
       <c r="R65" s="4"/>
     </row>
-    <row r="66" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B66" s="14">
-        <f>SUM(B55:B65)</f>
-        <v>0</v>
-      </c>
-      <c r="C66" s="15"/>
-      <c r="D66" s="15"/>
+    <row r="66" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="16"/>
+      <c r="B66" s="16"/>
+      <c r="C66" s="16"/>
+      <c r="D66" s="16"/>
       <c r="E66" s="10"/>
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
@@ -8479,11 +11504,15 @@
       <c r="Q66" s="4"/>
       <c r="R66" s="4"/>
     </row>
-    <row r="67" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="16"/>
-      <c r="B67" s="16"/>
-      <c r="C67" s="16"/>
-      <c r="D67" s="16"/>
+    <row r="67" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B67" s="2">
+        <v>5</v>
+      </c>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
       <c r="E67" s="10"/>
       <c r="F67" s="4"/>
       <c r="G67" s="4"/>
@@ -8499,15 +11528,17 @@
       <c r="Q67" s="4"/>
       <c r="R67" s="4"/>
     </row>
-    <row r="68" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B68" s="2">
+    <row r="68" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
       <c r="E68" s="10"/>
       <c r="F68" s="4"/>
       <c r="G68" s="4"/>
@@ -8523,17 +11554,11 @@
       <c r="Q68" s="4"/>
       <c r="R68" s="4"/>
     </row>
-    <row r="69" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B69" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C69" s="5"/>
-      <c r="D69" s="5" t="s">
-        <v>5</v>
-      </c>
+    <row r="69" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A69" s="19"/>
+      <c r="B69" s="19"/>
+      <c r="C69" s="20"/>
+      <c r="D69" s="20"/>
       <c r="E69" s="10"/>
       <c r="F69" s="4"/>
       <c r="G69" s="4"/>
@@ -8549,11 +11574,11 @@
       <c r="Q69" s="4"/>
       <c r="R69" s="4"/>
     </row>
-    <row r="70" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="19"/>
-      <c r="B70" s="19"/>
-      <c r="C70" s="20"/>
-      <c r="D70" s="20"/>
+    <row r="70" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A70" s="7"/>
+      <c r="B70" s="7"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
       <c r="E70" s="10"/>
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
@@ -8569,7 +11594,7 @@
       <c r="Q70" s="4"/>
       <c r="R70" s="4"/>
     </row>
-    <row r="71" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A71" s="7"/>
       <c r="B71" s="7"/>
       <c r="C71" s="9"/>
@@ -8629,11 +11654,11 @@
       <c r="Q73" s="4"/>
       <c r="R73" s="4"/>
     </row>
-    <row r="74" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A74" s="7"/>
-      <c r="B74" s="7"/>
-      <c r="C74" s="9"/>
-      <c r="D74" s="9"/>
+    <row r="74" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="23"/>
+      <c r="B74" s="23"/>
+      <c r="C74" s="24"/>
+      <c r="D74" s="24"/>
       <c r="E74" s="10"/>
       <c r="F74" s="4"/>
       <c r="G74" s="4"/>
@@ -8649,11 +11674,16 @@
       <c r="Q74" s="4"/>
       <c r="R74" s="4"/>
     </row>
-    <row r="75" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A75" s="23"/>
-      <c r="B75" s="23"/>
-      <c r="C75" s="24"/>
-      <c r="D75" s="24"/>
+    <row r="75" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B75" s="14">
+        <f>SUM(B69:B74)</f>
+        <v>0</v>
+      </c>
+      <c r="C75" s="15"/>
+      <c r="D75" s="15"/>
       <c r="E75" s="10"/>
       <c r="F75" s="4"/>
       <c r="G75" s="4"/>
@@ -8669,16 +11699,11 @@
       <c r="Q75" s="4"/>
       <c r="R75" s="4"/>
     </row>
-    <row r="76" spans="1:18" ht="27" x14ac:dyDescent="0.3">
-      <c r="A76" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B76" s="14">
-        <f>SUM(B70:B75)</f>
-        <v>0</v>
-      </c>
-      <c r="C76" s="15"/>
-      <c r="D76" s="15"/>
+    <row r="76" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="16"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="16"/>
+      <c r="D76" s="16"/>
       <c r="E76" s="10"/>
       <c r="F76" s="4"/>
       <c r="G76" s="4"/>
@@ -8694,11 +11719,15 @@
       <c r="Q76" s="4"/>
       <c r="R76" s="4"/>
     </row>
-    <row r="77" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A77" s="16"/>
-      <c r="B77" s="16"/>
-      <c r="C77" s="16"/>
-      <c r="D77" s="16"/>
+    <row r="77" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B77" s="2">
+        <v>6</v>
+      </c>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
       <c r="E77" s="10"/>
       <c r="F77" s="4"/>
       <c r="G77" s="4"/>
@@ -8714,15 +11743,17 @@
       <c r="Q77" s="4"/>
       <c r="R77" s="4"/>
     </row>
-    <row r="78" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A78" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B78" s="2">
-        <v>6</v>
-      </c>
-      <c r="C78" s="3"/>
-      <c r="D78" s="3"/>
+    <row r="78" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="E78" s="10"/>
       <c r="F78" s="4"/>
       <c r="G78" s="4"/>
@@ -8738,17 +11769,11 @@
       <c r="Q78" s="4"/>
       <c r="R78" s="4"/>
     </row>
-    <row r="79" spans="1:18" ht="15" x14ac:dyDescent="0.3">
-      <c r="A79" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B79" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C79" s="5"/>
-      <c r="D79" s="5" t="s">
-        <v>5</v>
-      </c>
+    <row r="79" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A79" s="19"/>
+      <c r="B79" s="19"/>
+      <c r="C79" s="20"/>
+      <c r="D79" s="20"/>
       <c r="E79" s="10"/>
       <c r="F79" s="4"/>
       <c r="G79" s="4"/>
@@ -8765,10 +11790,10 @@
       <c r="R79" s="4"/>
     </row>
     <row r="80" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A80" s="19"/>
-      <c r="B80" s="19"/>
-      <c r="C80" s="20"/>
-      <c r="D80" s="20"/>
+      <c r="A80" s="7"/>
+      <c r="B80" s="7"/>
+      <c r="C80" s="9"/>
+      <c r="D80" s="9"/>
       <c r="E80" s="10"/>
       <c r="F80" s="4"/>
       <c r="G80" s="4"/>
@@ -8884,11 +11909,11 @@
       <c r="Q85" s="4"/>
       <c r="R85" s="4"/>
     </row>
-    <row r="86" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A86" s="7"/>
-      <c r="B86" s="7"/>
-      <c r="C86" s="9"/>
-      <c r="D86" s="9"/>
+    <row r="86" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="23"/>
+      <c r="B86" s="23"/>
+      <c r="C86" s="24"/>
+      <c r="D86" s="24"/>
       <c r="E86" s="10"/>
       <c r="F86" s="4"/>
       <c r="G86" s="4"/>
@@ -8904,11 +11929,16 @@
       <c r="Q86" s="4"/>
       <c r="R86" s="4"/>
     </row>
-    <row r="87" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A87" s="23"/>
-      <c r="B87" s="23"/>
-      <c r="C87" s="24"/>
-      <c r="D87" s="24"/>
+    <row r="87" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B87" s="14">
+        <f>SUM(B79:B86)</f>
+        <v>0</v>
+      </c>
+      <c r="C87" s="15"/>
+      <c r="D87" s="15"/>
       <c r="E87" s="10"/>
       <c r="F87" s="4"/>
       <c r="G87" s="4"/>
@@ -8924,16 +11954,11 @@
       <c r="Q87" s="4"/>
       <c r="R87" s="4"/>
     </row>
-    <row r="88" spans="1:18" ht="27" x14ac:dyDescent="0.3">
-      <c r="A88" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B88" s="14">
-        <f>SUM(B80:B87)</f>
-        <v>0</v>
-      </c>
-      <c r="C88" s="15"/>
-      <c r="D88" s="15"/>
+    <row r="88" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A88" s="16"/>
+      <c r="B88" s="16"/>
+      <c r="C88" s="16"/>
+      <c r="D88" s="16"/>
       <c r="E88" s="10"/>
       <c r="F88" s="4"/>
       <c r="G88" s="4"/>
@@ -8950,10 +11975,10 @@
       <c r="R88" s="4"/>
     </row>
     <row r="89" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A89" s="16"/>
-      <c r="B89" s="16"/>
-      <c r="C89" s="16"/>
-      <c r="D89" s="16"/>
+      <c r="A89" s="27"/>
+      <c r="B89" s="27"/>
+      <c r="C89" s="27"/>
+      <c r="D89" s="27"/>
       <c r="E89" s="10"/>
       <c r="F89" s="4"/>
       <c r="G89" s="4"/>
@@ -9170,2423 +12195,6 @@
       <c r="R99" s="4"/>
     </row>
     <row r="100" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A100" s="27"/>
-      <c r="B100" s="27"/>
-      <c r="C100" s="27"/>
-      <c r="D100" s="27"/>
-      <c r="E100" s="10"/>
-      <c r="F100" s="4"/>
-      <c r="G100" s="4"/>
-      <c r="H100" s="4"/>
-      <c r="I100" s="4"/>
-      <c r="J100" s="4"/>
-      <c r="K100" s="4"/>
-      <c r="L100" s="4"/>
-      <c r="M100" s="4"/>
-      <c r="N100" s="4"/>
-      <c r="O100" s="4"/>
-      <c r="P100" s="4"/>
-      <c r="Q100" s="4"/>
-      <c r="R100" s="4"/>
-    </row>
-    <row r="101" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A101" s="28"/>
-      <c r="B101" s="28"/>
-      <c r="C101" s="28"/>
-      <c r="D101" s="28"/>
-      <c r="E101" s="10"/>
-      <c r="F101" s="4"/>
-      <c r="G101" s="4"/>
-      <c r="H101" s="4"/>
-      <c r="I101" s="4"/>
-      <c r="J101" s="4"/>
-      <c r="K101" s="4"/>
-      <c r="L101" s="4"/>
-      <c r="M101" s="4"/>
-      <c r="N101" s="4"/>
-      <c r="O101" s="4"/>
-      <c r="P101" s="4"/>
-      <c r="Q101" s="4"/>
-      <c r="R101" s="4"/>
-    </row>
-  </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" prompt="Durée en 1/3 de période - Le nombre doit être de type entier" sqref="B80:B87 B17:B38 B43:B44 B46:B50 B55:B65 B70:B75 B3:B8 B10:B12" xr:uid="{76F8C2A5-22FC-42B6-BF5F-FD1899EE52B8}">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" prompt="Dépassement de durée - Le nombre de minutes introduites dépasse la durée d'une période. Veuillez confirmer ... Le calcul du total sera juste dans tous les cas._x000a_" sqref="B13 B39 B51 B66 B76 B88" xr:uid="{BD151BE4-B931-4CBD-823B-9C753DC07C8D}">
-      <formula1>0</formula1>
-      <formula2>DureePeriode-1</formula2>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F222774-5003-490D-9078-78D1F6F89A4A}">
-  <dimension ref="A1:R100"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="78.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-    </row>
-    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-    </row>
-    <row r="3" spans="1:18" ht="94.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="7">
-        <v>1</v>
-      </c>
-      <c r="C3" s="8">
-        <v>43906</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-    </row>
-    <row r="4" spans="1:18" ht="54" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="7">
-        <v>2</v>
-      </c>
-      <c r="C4" s="8">
-        <v>43906</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-    </row>
-    <row r="5" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="7">
-        <v>2</v>
-      </c>
-      <c r="C5" s="8">
-        <v>43907</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-    </row>
-    <row r="6" spans="1:18" ht="81" x14ac:dyDescent="0.3">
-      <c r="A6" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="25">
-        <v>2</v>
-      </c>
-      <c r="C6" s="8">
-        <v>43908</v>
-      </c>
-      <c r="D6" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-    </row>
-    <row r="7" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="29">
-        <v>2</v>
-      </c>
-      <c r="C7" s="11">
-        <v>43909</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-    </row>
-    <row r="8" spans="1:18" ht="108" x14ac:dyDescent="0.3">
-      <c r="A8" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="29">
-        <v>2</v>
-      </c>
-      <c r="C8" s="11">
-        <v>43910</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-    </row>
-    <row r="9" spans="1:18" ht="94.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="31">
-        <v>3</v>
-      </c>
-      <c r="C9" s="11">
-        <v>43911</v>
-      </c>
-      <c r="D9" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-    </row>
-    <row r="10" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="7">
-        <v>1</v>
-      </c>
-      <c r="C10" s="8">
-        <v>43913</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-    </row>
-    <row r="11" spans="1:18" ht="27" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="7">
-        <v>3</v>
-      </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-    </row>
-    <row r="12" spans="1:18" ht="94.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-    </row>
-    <row r="13" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="7">
-        <v>2.5</v>
-      </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-    </row>
-    <row r="14" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="14">
-        <f>SUM(B3:B13)</f>
-        <v>21</v>
-      </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-    </row>
-    <row r="15" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-    </row>
-    <row r="16" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="2">
-        <v>2</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-    </row>
-    <row r="17" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-    </row>
-    <row r="18" spans="1:18" ht="54" x14ac:dyDescent="0.3">
-      <c r="A18" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="7">
-        <v>2</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-    </row>
-    <row r="19" spans="1:18" ht="27" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="7">
-        <v>4</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-    </row>
-    <row r="20" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B20" s="7">
-        <v>2</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-    </row>
-    <row r="21" spans="1:18" ht="27" x14ac:dyDescent="0.3">
-      <c r="A21" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B21" s="7">
-        <v>1</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
-    </row>
-    <row r="22" spans="1:18" ht="27" x14ac:dyDescent="0.3">
-      <c r="A22" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B22" s="7">
-        <v>3.5</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
-    </row>
-    <row r="23" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A23" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B23" s="7">
-        <v>1</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="E23" s="10"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="4"/>
-    </row>
-    <row r="24" spans="1:18" ht="27" x14ac:dyDescent="0.3">
-      <c r="A24" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B24" s="7">
-        <v>4.5</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E24" s="10"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="4"/>
-    </row>
-    <row r="25" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A25" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="B25" s="7">
-        <v>3</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="E25" s="10"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="4"/>
-    </row>
-    <row r="26" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
-      <c r="A26" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B26" s="7">
-        <v>7</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="E26" s="10"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="4"/>
-    </row>
-    <row r="27" spans="1:18" ht="27" x14ac:dyDescent="0.3">
-      <c r="A27" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B27" s="7">
-        <v>4.5</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="E27" s="10"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="4"/>
-    </row>
-    <row r="28" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A28" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B28" s="7">
-        <v>4.5</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="E28" s="10"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="4"/>
-    </row>
-    <row r="29" spans="1:18" ht="27" x14ac:dyDescent="0.3">
-      <c r="A29" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B29" s="7">
-        <v>8</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="E29" s="10"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="4"/>
-    </row>
-    <row r="30" spans="1:18" ht="27" x14ac:dyDescent="0.3">
-      <c r="A30" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B30" s="7">
-        <v>6</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="E30" s="10"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
-      <c r="P30" s="4"/>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="4"/>
-    </row>
-    <row r="31" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
-      <c r="O31" s="4"/>
-      <c r="P31" s="4"/>
-      <c r="Q31" s="4"/>
-      <c r="R31" s="4"/>
-    </row>
-    <row r="32" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
-      <c r="O32" s="4"/>
-      <c r="P32" s="4"/>
-      <c r="Q32" s="4"/>
-      <c r="R32" s="4"/>
-    </row>
-    <row r="33" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
-      <c r="N33" s="4"/>
-      <c r="O33" s="4"/>
-      <c r="P33" s="4"/>
-      <c r="Q33" s="4"/>
-      <c r="R33" s="4"/>
-    </row>
-    <row r="34" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B34" s="14">
-        <f>SUM(B18:B33)</f>
-        <v>51</v>
-      </c>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4"/>
-      <c r="N34" s="4"/>
-      <c r="O34" s="4"/>
-      <c r="P34" s="4"/>
-      <c r="Q34" s="4"/>
-      <c r="R34" s="4"/>
-    </row>
-    <row r="35" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="16"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4"/>
-      <c r="N35" s="4"/>
-      <c r="O35" s="4"/>
-      <c r="P35" s="4"/>
-      <c r="Q35" s="4"/>
-      <c r="R35" s="4"/>
-    </row>
-    <row r="36" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B36" s="2">
-        <v>3</v>
-      </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
-      <c r="M36" s="4"/>
-      <c r="N36" s="4"/>
-      <c r="O36" s="4"/>
-      <c r="P36" s="4"/>
-      <c r="Q36" s="4"/>
-      <c r="R36" s="4"/>
-    </row>
-    <row r="37" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E37" s="10"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
-      <c r="M37" s="4"/>
-      <c r="N37" s="4"/>
-      <c r="O37" s="4"/>
-      <c r="P37" s="4"/>
-      <c r="Q37" s="4"/>
-      <c r="R37" s="4"/>
-    </row>
-    <row r="38" spans="1:18" ht="54" x14ac:dyDescent="0.3">
-      <c r="A38" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B38" s="7">
-        <v>3</v>
-      </c>
-      <c r="C38" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="D38" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="E38" s="10"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
-      <c r="M38" s="4"/>
-      <c r="N38" s="4"/>
-      <c r="O38" s="4"/>
-      <c r="P38" s="4"/>
-      <c r="Q38" s="4"/>
-      <c r="R38" s="4"/>
-    </row>
-    <row r="39" spans="1:18" ht="27" x14ac:dyDescent="0.3">
-      <c r="A39" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="B39" s="7">
-        <v>4</v>
-      </c>
-      <c r="C39" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="E39" s="10"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
-      <c r="L39" s="4"/>
-      <c r="M39" s="4"/>
-      <c r="N39" s="4"/>
-      <c r="O39" s="4"/>
-      <c r="P39" s="4"/>
-      <c r="Q39" s="4"/>
-      <c r="R39" s="4"/>
-    </row>
-    <row r="40" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A40" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="B40" s="7">
-        <v>4.5</v>
-      </c>
-      <c r="C40" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="E40" s="10"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="4"/>
-      <c r="L40" s="4"/>
-      <c r="M40" s="4"/>
-      <c r="N40" s="4"/>
-      <c r="O40" s="4"/>
-      <c r="P40" s="4"/>
-      <c r="Q40" s="4"/>
-      <c r="R40" s="4"/>
-    </row>
-    <row r="41" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A41" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="B41" s="7">
-        <v>4</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="E41" s="10"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
-      <c r="M41" s="4"/>
-      <c r="N41" s="4"/>
-      <c r="O41" s="4"/>
-      <c r="P41" s="4"/>
-      <c r="Q41" s="4"/>
-      <c r="R41" s="4"/>
-    </row>
-    <row r="42" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A42" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="B42" s="7">
-        <v>4</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="E42" s="10"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
-      <c r="L42" s="4"/>
-      <c r="M42" s="4"/>
-      <c r="N42" s="4"/>
-      <c r="O42" s="4"/>
-      <c r="P42" s="4"/>
-      <c r="Q42" s="4"/>
-      <c r="R42" s="4"/>
-    </row>
-    <row r="43" spans="1:18" ht="27" x14ac:dyDescent="0.3">
-      <c r="A43" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="B43" s="7">
-        <v>5</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="E43" s="10"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="4"/>
-      <c r="L43" s="4"/>
-      <c r="M43" s="4"/>
-      <c r="N43" s="4"/>
-      <c r="O43" s="4"/>
-      <c r="P43" s="4"/>
-      <c r="Q43" s="4"/>
-      <c r="R43" s="4"/>
-    </row>
-    <row r="44" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
-      <c r="A44" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="B44" s="7">
-        <v>9</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="E44" s="10"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
-      <c r="K44" s="4"/>
-      <c r="L44" s="4"/>
-      <c r="M44" s="4"/>
-      <c r="N44" s="4"/>
-      <c r="O44" s="4"/>
-      <c r="P44" s="4"/>
-      <c r="Q44" s="4"/>
-      <c r="R44" s="4"/>
-    </row>
-    <row r="45" spans="1:18" ht="41.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="B45" s="23">
-        <v>9</v>
-      </c>
-      <c r="C45" s="24" t="s">
-        <v>186</v>
-      </c>
-      <c r="D45" s="24" t="s">
-        <v>188</v>
-      </c>
-      <c r="E45" s="10"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
-      <c r="K45" s="4"/>
-      <c r="L45" s="4"/>
-      <c r="M45" s="4"/>
-      <c r="N45" s="4"/>
-      <c r="O45" s="4"/>
-      <c r="P45" s="4"/>
-      <c r="Q45" s="4"/>
-      <c r="R45" s="4"/>
-    </row>
-    <row r="46" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="42" t="s">
-        <v>160</v>
-      </c>
-      <c r="B46" s="42">
-        <v>4.5</v>
-      </c>
-      <c r="C46" s="44" t="s">
-        <v>193</v>
-      </c>
-      <c r="D46" s="44" t="s">
-        <v>194</v>
-      </c>
-      <c r="E46" s="10"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
-      <c r="K46" s="4"/>
-      <c r="L46" s="4"/>
-      <c r="M46" s="4"/>
-      <c r="N46" s="4"/>
-      <c r="O46" s="4"/>
-      <c r="P46" s="4"/>
-      <c r="Q46" s="4"/>
-      <c r="R46" s="4"/>
-    </row>
-    <row r="47" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="42" t="s">
-        <v>160</v>
-      </c>
-      <c r="B47" s="42">
-        <v>2</v>
-      </c>
-      <c r="C47" s="44" t="s">
-        <v>201</v>
-      </c>
-      <c r="D47" s="44" t="s">
-        <v>200</v>
-      </c>
-      <c r="E47" s="10"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
-      <c r="K47" s="4"/>
-      <c r="L47" s="4"/>
-      <c r="M47" s="4"/>
-      <c r="N47" s="4"/>
-      <c r="O47" s="4"/>
-      <c r="P47" s="4"/>
-      <c r="Q47" s="4"/>
-      <c r="R47" s="4"/>
-    </row>
-    <row r="48" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="42" t="s">
-        <v>160</v>
-      </c>
-      <c r="B48" s="42">
-        <v>4</v>
-      </c>
-      <c r="C48" s="44" t="s">
-        <v>199</v>
-      </c>
-      <c r="D48" s="44" t="s">
-        <v>200</v>
-      </c>
-      <c r="E48" s="10"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
-      <c r="J48" s="4"/>
-      <c r="K48" s="4"/>
-      <c r="L48" s="4"/>
-      <c r="M48" s="4"/>
-      <c r="N48" s="4"/>
-      <c r="O48" s="4"/>
-      <c r="P48" s="4"/>
-      <c r="Q48" s="4"/>
-      <c r="R48" s="4"/>
-    </row>
-    <row r="49" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="42"/>
-      <c r="B49" s="42"/>
-      <c r="C49" s="44"/>
-      <c r="D49" s="44"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="4"/>
-      <c r="J49" s="4"/>
-      <c r="K49" s="4"/>
-      <c r="L49" s="4"/>
-      <c r="M49" s="4"/>
-      <c r="N49" s="4"/>
-      <c r="O49" s="4"/>
-      <c r="P49" s="4"/>
-      <c r="Q49" s="4"/>
-      <c r="R49" s="4"/>
-    </row>
-    <row r="50" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B50" s="14">
-        <f>SUM(B38:B49)</f>
-        <v>53</v>
-      </c>
-      <c r="C50" s="15"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
-      <c r="I50" s="4"/>
-      <c r="J50" s="4"/>
-      <c r="K50" s="4"/>
-      <c r="L50" s="4"/>
-      <c r="M50" s="4"/>
-      <c r="N50" s="4"/>
-      <c r="O50" s="4"/>
-      <c r="P50" s="4"/>
-      <c r="Q50" s="4"/>
-      <c r="R50" s="4"/>
-    </row>
-    <row r="51" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="16"/>
-      <c r="B51" s="16"/>
-      <c r="C51" s="16"/>
-      <c r="D51" s="16"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-      <c r="I51" s="4"/>
-      <c r="J51" s="4"/>
-      <c r="K51" s="4"/>
-      <c r="L51" s="4"/>
-      <c r="M51" s="4"/>
-      <c r="N51" s="4"/>
-      <c r="O51" s="4"/>
-      <c r="P51" s="4"/>
-      <c r="Q51" s="4"/>
-      <c r="R51" s="4"/>
-    </row>
-    <row r="52" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B52" s="2">
-        <v>4</v>
-      </c>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
-      <c r="I52" s="4"/>
-      <c r="J52" s="4"/>
-      <c r="K52" s="4"/>
-      <c r="L52" s="4"/>
-      <c r="M52" s="4"/>
-      <c r="N52" s="4"/>
-      <c r="O52" s="4"/>
-      <c r="P52" s="4"/>
-      <c r="Q52" s="4"/>
-      <c r="R52" s="4"/>
-    </row>
-    <row r="53" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E53" s="10"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="4"/>
-      <c r="I53" s="4"/>
-      <c r="J53" s="4"/>
-      <c r="K53" s="4"/>
-      <c r="L53" s="4"/>
-      <c r="M53" s="4"/>
-      <c r="N53" s="4"/>
-      <c r="O53" s="4"/>
-      <c r="P53" s="4"/>
-      <c r="Q53" s="4"/>
-      <c r="R53" s="4"/>
-    </row>
-    <row r="54" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A54" s="19"/>
-      <c r="B54" s="19"/>
-      <c r="C54" s="20"/>
-      <c r="D54" s="20"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
-      <c r="I54" s="4"/>
-      <c r="J54" s="4"/>
-      <c r="K54" s="4"/>
-      <c r="L54" s="4"/>
-      <c r="M54" s="4"/>
-      <c r="N54" s="4"/>
-      <c r="O54" s="4"/>
-      <c r="P54" s="4"/>
-      <c r="Q54" s="4"/>
-      <c r="R54" s="4"/>
-    </row>
-    <row r="55" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A55" s="7"/>
-      <c r="B55" s="7"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
-      <c r="I55" s="4"/>
-      <c r="J55" s="4"/>
-      <c r="K55" s="4"/>
-      <c r="L55" s="4"/>
-      <c r="M55" s="4"/>
-      <c r="N55" s="4"/>
-      <c r="O55" s="4"/>
-      <c r="P55" s="4"/>
-      <c r="Q55" s="4"/>
-      <c r="R55" s="4"/>
-    </row>
-    <row r="56" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A56" s="7"/>
-      <c r="B56" s="7"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="4"/>
-      <c r="G56" s="4"/>
-      <c r="H56" s="4"/>
-      <c r="I56" s="4"/>
-      <c r="J56" s="4"/>
-      <c r="K56" s="4"/>
-      <c r="L56" s="4"/>
-      <c r="M56" s="4"/>
-      <c r="N56" s="4"/>
-      <c r="O56" s="4"/>
-      <c r="P56" s="4"/>
-      <c r="Q56" s="4"/>
-      <c r="R56" s="4"/>
-    </row>
-    <row r="57" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A57" s="7"/>
-      <c r="B57" s="7"/>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
-      <c r="I57" s="4"/>
-      <c r="J57" s="4"/>
-      <c r="K57" s="4"/>
-      <c r="L57" s="4"/>
-      <c r="M57" s="4"/>
-      <c r="N57" s="4"/>
-      <c r="O57" s="4"/>
-      <c r="P57" s="4"/>
-      <c r="Q57" s="4"/>
-      <c r="R57" s="4"/>
-    </row>
-    <row r="58" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A58" s="7"/>
-      <c r="B58" s="7"/>
-      <c r="C58" s="9"/>
-      <c r="D58" s="9"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4"/>
-      <c r="I58" s="4"/>
-      <c r="J58" s="4"/>
-      <c r="K58" s="4"/>
-      <c r="L58" s="4"/>
-      <c r="M58" s="4"/>
-      <c r="N58" s="4"/>
-      <c r="O58" s="4"/>
-      <c r="P58" s="4"/>
-      <c r="Q58" s="4"/>
-      <c r="R58" s="4"/>
-    </row>
-    <row r="59" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A59" s="7"/>
-      <c r="B59" s="7"/>
-      <c r="C59" s="9"/>
-      <c r="D59" s="9"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
-      <c r="H59" s="4"/>
-      <c r="I59" s="4"/>
-      <c r="J59" s="4"/>
-      <c r="K59" s="4"/>
-      <c r="L59" s="4"/>
-      <c r="M59" s="4"/>
-      <c r="N59" s="4"/>
-      <c r="O59" s="4"/>
-      <c r="P59" s="4"/>
-      <c r="Q59" s="4"/>
-      <c r="R59" s="4"/>
-    </row>
-    <row r="60" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A60" s="25"/>
-      <c r="B60" s="25"/>
-      <c r="C60" s="26"/>
-      <c r="D60" s="26"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="4"/>
-      <c r="G60" s="4"/>
-      <c r="H60" s="4"/>
-      <c r="I60" s="4"/>
-      <c r="J60" s="4"/>
-      <c r="K60" s="4"/>
-      <c r="L60" s="4"/>
-      <c r="M60" s="4"/>
-      <c r="N60" s="4"/>
-      <c r="O60" s="4"/>
-      <c r="P60" s="4"/>
-      <c r="Q60" s="4"/>
-      <c r="R60" s="4"/>
-    </row>
-    <row r="61" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A61" s="25"/>
-      <c r="B61" s="25"/>
-      <c r="C61" s="26"/>
-      <c r="D61" s="26"/>
-      <c r="E61" s="10"/>
-      <c r="F61" s="4"/>
-      <c r="G61" s="4"/>
-      <c r="H61" s="4"/>
-      <c r="I61" s="4"/>
-      <c r="J61" s="4"/>
-      <c r="K61" s="4"/>
-      <c r="L61" s="4"/>
-      <c r="M61" s="4"/>
-      <c r="N61" s="4"/>
-      <c r="O61" s="4"/>
-      <c r="P61" s="4"/>
-      <c r="Q61" s="4"/>
-      <c r="R61" s="4"/>
-    </row>
-    <row r="62" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A62" s="25"/>
-      <c r="B62" s="25"/>
-      <c r="C62" s="26"/>
-      <c r="D62" s="26"/>
-      <c r="E62" s="10"/>
-      <c r="F62" s="4"/>
-      <c r="G62" s="4"/>
-      <c r="H62" s="4"/>
-      <c r="I62" s="4"/>
-      <c r="J62" s="4"/>
-      <c r="K62" s="4"/>
-      <c r="L62" s="4"/>
-      <c r="M62" s="4"/>
-      <c r="N62" s="4"/>
-      <c r="O62" s="4"/>
-      <c r="P62" s="4"/>
-      <c r="Q62" s="4"/>
-      <c r="R62" s="4"/>
-    </row>
-    <row r="63" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A63" s="25"/>
-      <c r="B63" s="25"/>
-      <c r="C63" s="26"/>
-      <c r="D63" s="26"/>
-      <c r="E63" s="10"/>
-      <c r="F63" s="4"/>
-      <c r="G63" s="4"/>
-      <c r="H63" s="4"/>
-      <c r="I63" s="4"/>
-      <c r="J63" s="4"/>
-      <c r="K63" s="4"/>
-      <c r="L63" s="4"/>
-      <c r="M63" s="4"/>
-      <c r="N63" s="4"/>
-      <c r="O63" s="4"/>
-      <c r="P63" s="4"/>
-      <c r="Q63" s="4"/>
-      <c r="R63" s="4"/>
-    </row>
-    <row r="64" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="23"/>
-      <c r="B64" s="23"/>
-      <c r="C64" s="24"/>
-      <c r="D64" s="24"/>
-      <c r="E64" s="10"/>
-      <c r="F64" s="4"/>
-      <c r="G64" s="4"/>
-      <c r="H64" s="4"/>
-      <c r="I64" s="4"/>
-      <c r="J64" s="4"/>
-      <c r="K64" s="4"/>
-      <c r="L64" s="4"/>
-      <c r="M64" s="4"/>
-      <c r="N64" s="4"/>
-      <c r="O64" s="4"/>
-      <c r="P64" s="4"/>
-      <c r="Q64" s="4"/>
-      <c r="R64" s="4"/>
-    </row>
-    <row r="65" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B65" s="14">
-        <f>SUM(B54:B64)</f>
-        <v>0</v>
-      </c>
-      <c r="C65" s="15"/>
-      <c r="D65" s="15"/>
-      <c r="E65" s="10"/>
-      <c r="F65" s="4"/>
-      <c r="G65" s="4"/>
-      <c r="H65" s="4"/>
-      <c r="I65" s="4"/>
-      <c r="J65" s="4"/>
-      <c r="K65" s="4"/>
-      <c r="L65" s="4"/>
-      <c r="M65" s="4"/>
-      <c r="N65" s="4"/>
-      <c r="O65" s="4"/>
-      <c r="P65" s="4"/>
-      <c r="Q65" s="4"/>
-      <c r="R65" s="4"/>
-    </row>
-    <row r="66" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="16"/>
-      <c r="B66" s="16"/>
-      <c r="C66" s="16"/>
-      <c r="D66" s="16"/>
-      <c r="E66" s="10"/>
-      <c r="F66" s="4"/>
-      <c r="G66" s="4"/>
-      <c r="H66" s="4"/>
-      <c r="I66" s="4"/>
-      <c r="J66" s="4"/>
-      <c r="K66" s="4"/>
-      <c r="L66" s="4"/>
-      <c r="M66" s="4"/>
-      <c r="N66" s="4"/>
-      <c r="O66" s="4"/>
-      <c r="P66" s="4"/>
-      <c r="Q66" s="4"/>
-      <c r="R66" s="4"/>
-    </row>
-    <row r="67" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B67" s="2">
-        <v>5</v>
-      </c>
-      <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
-      <c r="E67" s="10"/>
-      <c r="F67" s="4"/>
-      <c r="G67" s="4"/>
-      <c r="H67" s="4"/>
-      <c r="I67" s="4"/>
-      <c r="J67" s="4"/>
-      <c r="K67" s="4"/>
-      <c r="L67" s="4"/>
-      <c r="M67" s="4"/>
-      <c r="N67" s="4"/>
-      <c r="O67" s="4"/>
-      <c r="P67" s="4"/>
-      <c r="Q67" s="4"/>
-      <c r="R67" s="4"/>
-    </row>
-    <row r="68" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B68" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C68" s="5"/>
-      <c r="D68" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E68" s="10"/>
-      <c r="F68" s="4"/>
-      <c r="G68" s="4"/>
-      <c r="H68" s="4"/>
-      <c r="I68" s="4"/>
-      <c r="J68" s="4"/>
-      <c r="K68" s="4"/>
-      <c r="L68" s="4"/>
-      <c r="M68" s="4"/>
-      <c r="N68" s="4"/>
-      <c r="O68" s="4"/>
-      <c r="P68" s="4"/>
-      <c r="Q68" s="4"/>
-      <c r="R68" s="4"/>
-    </row>
-    <row r="69" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A69" s="19"/>
-      <c r="B69" s="19"/>
-      <c r="C69" s="20"/>
-      <c r="D69" s="20"/>
-      <c r="E69" s="10"/>
-      <c r="F69" s="4"/>
-      <c r="G69" s="4"/>
-      <c r="H69" s="4"/>
-      <c r="I69" s="4"/>
-      <c r="J69" s="4"/>
-      <c r="K69" s="4"/>
-      <c r="L69" s="4"/>
-      <c r="M69" s="4"/>
-      <c r="N69" s="4"/>
-      <c r="O69" s="4"/>
-      <c r="P69" s="4"/>
-      <c r="Q69" s="4"/>
-      <c r="R69" s="4"/>
-    </row>
-    <row r="70" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A70" s="7"/>
-      <c r="B70" s="7"/>
-      <c r="C70" s="9"/>
-      <c r="D70" s="9"/>
-      <c r="E70" s="10"/>
-      <c r="F70" s="4"/>
-      <c r="G70" s="4"/>
-      <c r="H70" s="4"/>
-      <c r="I70" s="4"/>
-      <c r="J70" s="4"/>
-      <c r="K70" s="4"/>
-      <c r="L70" s="4"/>
-      <c r="M70" s="4"/>
-      <c r="N70" s="4"/>
-      <c r="O70" s="4"/>
-      <c r="P70" s="4"/>
-      <c r="Q70" s="4"/>
-      <c r="R70" s="4"/>
-    </row>
-    <row r="71" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A71" s="7"/>
-      <c r="B71" s="7"/>
-      <c r="C71" s="9"/>
-      <c r="D71" s="9"/>
-      <c r="E71" s="10"/>
-      <c r="F71" s="4"/>
-      <c r="G71" s="4"/>
-      <c r="H71" s="4"/>
-      <c r="I71" s="4"/>
-      <c r="J71" s="4"/>
-      <c r="K71" s="4"/>
-      <c r="L71" s="4"/>
-      <c r="M71" s="4"/>
-      <c r="N71" s="4"/>
-      <c r="O71" s="4"/>
-      <c r="P71" s="4"/>
-      <c r="Q71" s="4"/>
-      <c r="R71" s="4"/>
-    </row>
-    <row r="72" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A72" s="7"/>
-      <c r="B72" s="7"/>
-      <c r="C72" s="9"/>
-      <c r="D72" s="9"/>
-      <c r="E72" s="10"/>
-      <c r="F72" s="4"/>
-      <c r="G72" s="4"/>
-      <c r="H72" s="4"/>
-      <c r="I72" s="4"/>
-      <c r="J72" s="4"/>
-      <c r="K72" s="4"/>
-      <c r="L72" s="4"/>
-      <c r="M72" s="4"/>
-      <c r="N72" s="4"/>
-      <c r="O72" s="4"/>
-      <c r="P72" s="4"/>
-      <c r="Q72" s="4"/>
-      <c r="R72" s="4"/>
-    </row>
-    <row r="73" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A73" s="7"/>
-      <c r="B73" s="7"/>
-      <c r="C73" s="9"/>
-      <c r="D73" s="9"/>
-      <c r="E73" s="10"/>
-      <c r="F73" s="4"/>
-      <c r="G73" s="4"/>
-      <c r="H73" s="4"/>
-      <c r="I73" s="4"/>
-      <c r="J73" s="4"/>
-      <c r="K73" s="4"/>
-      <c r="L73" s="4"/>
-      <c r="M73" s="4"/>
-      <c r="N73" s="4"/>
-      <c r="O73" s="4"/>
-      <c r="P73" s="4"/>
-      <c r="Q73" s="4"/>
-      <c r="R73" s="4"/>
-    </row>
-    <row r="74" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="23"/>
-      <c r="B74" s="23"/>
-      <c r="C74" s="24"/>
-      <c r="D74" s="24"/>
-      <c r="E74" s="10"/>
-      <c r="F74" s="4"/>
-      <c r="G74" s="4"/>
-      <c r="H74" s="4"/>
-      <c r="I74" s="4"/>
-      <c r="J74" s="4"/>
-      <c r="K74" s="4"/>
-      <c r="L74" s="4"/>
-      <c r="M74" s="4"/>
-      <c r="N74" s="4"/>
-      <c r="O74" s="4"/>
-      <c r="P74" s="4"/>
-      <c r="Q74" s="4"/>
-      <c r="R74" s="4"/>
-    </row>
-    <row r="75" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B75" s="14">
-        <f>SUM(B69:B74)</f>
-        <v>0</v>
-      </c>
-      <c r="C75" s="15"/>
-      <c r="D75" s="15"/>
-      <c r="E75" s="10"/>
-      <c r="F75" s="4"/>
-      <c r="G75" s="4"/>
-      <c r="H75" s="4"/>
-      <c r="I75" s="4"/>
-      <c r="J75" s="4"/>
-      <c r="K75" s="4"/>
-      <c r="L75" s="4"/>
-      <c r="M75" s="4"/>
-      <c r="N75" s="4"/>
-      <c r="O75" s="4"/>
-      <c r="P75" s="4"/>
-      <c r="Q75" s="4"/>
-      <c r="R75" s="4"/>
-    </row>
-    <row r="76" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="16"/>
-      <c r="B76" s="16"/>
-      <c r="C76" s="16"/>
-      <c r="D76" s="16"/>
-      <c r="E76" s="10"/>
-      <c r="F76" s="4"/>
-      <c r="G76" s="4"/>
-      <c r="H76" s="4"/>
-      <c r="I76" s="4"/>
-      <c r="J76" s="4"/>
-      <c r="K76" s="4"/>
-      <c r="L76" s="4"/>
-      <c r="M76" s="4"/>
-      <c r="N76" s="4"/>
-      <c r="O76" s="4"/>
-      <c r="P76" s="4"/>
-      <c r="Q76" s="4"/>
-      <c r="R76" s="4"/>
-    </row>
-    <row r="77" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B77" s="2">
-        <v>6</v>
-      </c>
-      <c r="C77" s="3"/>
-      <c r="D77" s="3"/>
-      <c r="E77" s="10"/>
-      <c r="F77" s="4"/>
-      <c r="G77" s="4"/>
-      <c r="H77" s="4"/>
-      <c r="I77" s="4"/>
-      <c r="J77" s="4"/>
-      <c r="K77" s="4"/>
-      <c r="L77" s="4"/>
-      <c r="M77" s="4"/>
-      <c r="N77" s="4"/>
-      <c r="O77" s="4"/>
-      <c r="P77" s="4"/>
-      <c r="Q77" s="4"/>
-      <c r="R77" s="4"/>
-    </row>
-    <row r="78" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B78" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C78" s="5"/>
-      <c r="D78" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E78" s="10"/>
-      <c r="F78" s="4"/>
-      <c r="G78" s="4"/>
-      <c r="H78" s="4"/>
-      <c r="I78" s="4"/>
-      <c r="J78" s="4"/>
-      <c r="K78" s="4"/>
-      <c r="L78" s="4"/>
-      <c r="M78" s="4"/>
-      <c r="N78" s="4"/>
-      <c r="O78" s="4"/>
-      <c r="P78" s="4"/>
-      <c r="Q78" s="4"/>
-      <c r="R78" s="4"/>
-    </row>
-    <row r="79" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A79" s="19"/>
-      <c r="B79" s="19"/>
-      <c r="C79" s="20"/>
-      <c r="D79" s="20"/>
-      <c r="E79" s="10"/>
-      <c r="F79" s="4"/>
-      <c r="G79" s="4"/>
-      <c r="H79" s="4"/>
-      <c r="I79" s="4"/>
-      <c r="J79" s="4"/>
-      <c r="K79" s="4"/>
-      <c r="L79" s="4"/>
-      <c r="M79" s="4"/>
-      <c r="N79" s="4"/>
-      <c r="O79" s="4"/>
-      <c r="P79" s="4"/>
-      <c r="Q79" s="4"/>
-      <c r="R79" s="4"/>
-    </row>
-    <row r="80" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A80" s="7"/>
-      <c r="B80" s="7"/>
-      <c r="C80" s="9"/>
-      <c r="D80" s="9"/>
-      <c r="E80" s="10"/>
-      <c r="F80" s="4"/>
-      <c r="G80" s="4"/>
-      <c r="H80" s="4"/>
-      <c r="I80" s="4"/>
-      <c r="J80" s="4"/>
-      <c r="K80" s="4"/>
-      <c r="L80" s="4"/>
-      <c r="M80" s="4"/>
-      <c r="N80" s="4"/>
-      <c r="O80" s="4"/>
-      <c r="P80" s="4"/>
-      <c r="Q80" s="4"/>
-      <c r="R80" s="4"/>
-    </row>
-    <row r="81" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A81" s="7"/>
-      <c r="B81" s="7"/>
-      <c r="C81" s="9"/>
-      <c r="D81" s="9"/>
-      <c r="E81" s="10"/>
-      <c r="F81" s="4"/>
-      <c r="G81" s="4"/>
-      <c r="H81" s="4"/>
-      <c r="I81" s="4"/>
-      <c r="J81" s="4"/>
-      <c r="K81" s="4"/>
-      <c r="L81" s="4"/>
-      <c r="M81" s="4"/>
-      <c r="N81" s="4"/>
-      <c r="O81" s="4"/>
-      <c r="P81" s="4"/>
-      <c r="Q81" s="4"/>
-      <c r="R81" s="4"/>
-    </row>
-    <row r="82" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A82" s="7"/>
-      <c r="B82" s="7"/>
-      <c r="C82" s="9"/>
-      <c r="D82" s="9"/>
-      <c r="E82" s="10"/>
-      <c r="F82" s="4"/>
-      <c r="G82" s="4"/>
-      <c r="H82" s="4"/>
-      <c r="I82" s="4"/>
-      <c r="J82" s="4"/>
-      <c r="K82" s="4"/>
-      <c r="L82" s="4"/>
-      <c r="M82" s="4"/>
-      <c r="N82" s="4"/>
-      <c r="O82" s="4"/>
-      <c r="P82" s="4"/>
-      <c r="Q82" s="4"/>
-      <c r="R82" s="4"/>
-    </row>
-    <row r="83" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A83" s="7"/>
-      <c r="B83" s="7"/>
-      <c r="C83" s="9"/>
-      <c r="D83" s="9"/>
-      <c r="E83" s="10"/>
-      <c r="F83" s="4"/>
-      <c r="G83" s="4"/>
-      <c r="H83" s="4"/>
-      <c r="I83" s="4"/>
-      <c r="J83" s="4"/>
-      <c r="K83" s="4"/>
-      <c r="L83" s="4"/>
-      <c r="M83" s="4"/>
-      <c r="N83" s="4"/>
-      <c r="O83" s="4"/>
-      <c r="P83" s="4"/>
-      <c r="Q83" s="4"/>
-      <c r="R83" s="4"/>
-    </row>
-    <row r="84" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A84" s="7"/>
-      <c r="B84" s="7"/>
-      <c r="C84" s="9"/>
-      <c r="D84" s="9"/>
-      <c r="E84" s="10"/>
-      <c r="F84" s="4"/>
-      <c r="G84" s="4"/>
-      <c r="H84" s="4"/>
-      <c r="I84" s="4"/>
-      <c r="J84" s="4"/>
-      <c r="K84" s="4"/>
-      <c r="L84" s="4"/>
-      <c r="M84" s="4"/>
-      <c r="N84" s="4"/>
-      <c r="O84" s="4"/>
-      <c r="P84" s="4"/>
-      <c r="Q84" s="4"/>
-      <c r="R84" s="4"/>
-    </row>
-    <row r="85" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A85" s="7"/>
-      <c r="B85" s="7"/>
-      <c r="C85" s="9"/>
-      <c r="D85" s="9"/>
-      <c r="E85" s="10"/>
-      <c r="F85" s="4"/>
-      <c r="G85" s="4"/>
-      <c r="H85" s="4"/>
-      <c r="I85" s="4"/>
-      <c r="J85" s="4"/>
-      <c r="K85" s="4"/>
-      <c r="L85" s="4"/>
-      <c r="M85" s="4"/>
-      <c r="N85" s="4"/>
-      <c r="O85" s="4"/>
-      <c r="P85" s="4"/>
-      <c r="Q85" s="4"/>
-      <c r="R85" s="4"/>
-    </row>
-    <row r="86" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="23"/>
-      <c r="B86" s="23"/>
-      <c r="C86" s="24"/>
-      <c r="D86" s="24"/>
-      <c r="E86" s="10"/>
-      <c r="F86" s="4"/>
-      <c r="G86" s="4"/>
-      <c r="H86" s="4"/>
-      <c r="I86" s="4"/>
-      <c r="J86" s="4"/>
-      <c r="K86" s="4"/>
-      <c r="L86" s="4"/>
-      <c r="M86" s="4"/>
-      <c r="N86" s="4"/>
-      <c r="O86" s="4"/>
-      <c r="P86" s="4"/>
-      <c r="Q86" s="4"/>
-      <c r="R86" s="4"/>
-    </row>
-    <row r="87" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B87" s="14">
-        <f>SUM(B79:B86)</f>
-        <v>0</v>
-      </c>
-      <c r="C87" s="15"/>
-      <c r="D87" s="15"/>
-      <c r="E87" s="10"/>
-      <c r="F87" s="4"/>
-      <c r="G87" s="4"/>
-      <c r="H87" s="4"/>
-      <c r="I87" s="4"/>
-      <c r="J87" s="4"/>
-      <c r="K87" s="4"/>
-      <c r="L87" s="4"/>
-      <c r="M87" s="4"/>
-      <c r="N87" s="4"/>
-      <c r="O87" s="4"/>
-      <c r="P87" s="4"/>
-      <c r="Q87" s="4"/>
-      <c r="R87" s="4"/>
-    </row>
-    <row r="88" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A88" s="16"/>
-      <c r="B88" s="16"/>
-      <c r="C88" s="16"/>
-      <c r="D88" s="16"/>
-      <c r="E88" s="10"/>
-      <c r="F88" s="4"/>
-      <c r="G88" s="4"/>
-      <c r="H88" s="4"/>
-      <c r="I88" s="4"/>
-      <c r="J88" s="4"/>
-      <c r="K88" s="4"/>
-      <c r="L88" s="4"/>
-      <c r="M88" s="4"/>
-      <c r="N88" s="4"/>
-      <c r="O88" s="4"/>
-      <c r="P88" s="4"/>
-      <c r="Q88" s="4"/>
-      <c r="R88" s="4"/>
-    </row>
-    <row r="89" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A89" s="27"/>
-      <c r="B89" s="27"/>
-      <c r="C89" s="27"/>
-      <c r="D89" s="27"/>
-      <c r="E89" s="10"/>
-      <c r="F89" s="4"/>
-      <c r="G89" s="4"/>
-      <c r="H89" s="4"/>
-      <c r="I89" s="4"/>
-      <c r="J89" s="4"/>
-      <c r="K89" s="4"/>
-      <c r="L89" s="4"/>
-      <c r="M89" s="4"/>
-      <c r="N89" s="4"/>
-      <c r="O89" s="4"/>
-      <c r="P89" s="4"/>
-      <c r="Q89" s="4"/>
-      <c r="R89" s="4"/>
-    </row>
-    <row r="90" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A90" s="27"/>
-      <c r="B90" s="27"/>
-      <c r="C90" s="27"/>
-      <c r="D90" s="27"/>
-      <c r="E90" s="10"/>
-      <c r="F90" s="4"/>
-      <c r="G90" s="4"/>
-      <c r="H90" s="4"/>
-      <c r="I90" s="4"/>
-      <c r="J90" s="4"/>
-      <c r="K90" s="4"/>
-      <c r="L90" s="4"/>
-      <c r="M90" s="4"/>
-      <c r="N90" s="4"/>
-      <c r="O90" s="4"/>
-      <c r="P90" s="4"/>
-      <c r="Q90" s="4"/>
-      <c r="R90" s="4"/>
-    </row>
-    <row r="91" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A91" s="27"/>
-      <c r="B91" s="27"/>
-      <c r="C91" s="27"/>
-      <c r="D91" s="27"/>
-      <c r="E91" s="10"/>
-      <c r="F91" s="4"/>
-      <c r="G91" s="4"/>
-      <c r="H91" s="4"/>
-      <c r="I91" s="4"/>
-      <c r="J91" s="4"/>
-      <c r="K91" s="4"/>
-      <c r="L91" s="4"/>
-      <c r="M91" s="4"/>
-      <c r="N91" s="4"/>
-      <c r="O91" s="4"/>
-      <c r="P91" s="4"/>
-      <c r="Q91" s="4"/>
-      <c r="R91" s="4"/>
-    </row>
-    <row r="92" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A92" s="27"/>
-      <c r="B92" s="27"/>
-      <c r="C92" s="27"/>
-      <c r="D92" s="27"/>
-      <c r="E92" s="10"/>
-      <c r="F92" s="4"/>
-      <c r="G92" s="4"/>
-      <c r="H92" s="4"/>
-      <c r="I92" s="4"/>
-      <c r="J92" s="4"/>
-      <c r="K92" s="4"/>
-      <c r="L92" s="4"/>
-      <c r="M92" s="4"/>
-      <c r="N92" s="4"/>
-      <c r="O92" s="4"/>
-      <c r="P92" s="4"/>
-      <c r="Q92" s="4"/>
-      <c r="R92" s="4"/>
-    </row>
-    <row r="93" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A93" s="27"/>
-      <c r="B93" s="27"/>
-      <c r="C93" s="27"/>
-      <c r="D93" s="27"/>
-      <c r="E93" s="10"/>
-      <c r="F93" s="4"/>
-      <c r="G93" s="4"/>
-      <c r="H93" s="4"/>
-      <c r="I93" s="4"/>
-      <c r="J93" s="4"/>
-      <c r="K93" s="4"/>
-      <c r="L93" s="4"/>
-      <c r="M93" s="4"/>
-      <c r="N93" s="4"/>
-      <c r="O93" s="4"/>
-      <c r="P93" s="4"/>
-      <c r="Q93" s="4"/>
-      <c r="R93" s="4"/>
-    </row>
-    <row r="94" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A94" s="27"/>
-      <c r="B94" s="27"/>
-      <c r="C94" s="27"/>
-      <c r="D94" s="27"/>
-      <c r="E94" s="10"/>
-      <c r="F94" s="4"/>
-      <c r="G94" s="4"/>
-      <c r="H94" s="4"/>
-      <c r="I94" s="4"/>
-      <c r="J94" s="4"/>
-      <c r="K94" s="4"/>
-      <c r="L94" s="4"/>
-      <c r="M94" s="4"/>
-      <c r="N94" s="4"/>
-      <c r="O94" s="4"/>
-      <c r="P94" s="4"/>
-      <c r="Q94" s="4"/>
-      <c r="R94" s="4"/>
-    </row>
-    <row r="95" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A95" s="27"/>
-      <c r="B95" s="27"/>
-      <c r="C95" s="27"/>
-      <c r="D95" s="27"/>
-      <c r="E95" s="10"/>
-      <c r="F95" s="4"/>
-      <c r="G95" s="4"/>
-      <c r="H95" s="4"/>
-      <c r="I95" s="4"/>
-      <c r="J95" s="4"/>
-      <c r="K95" s="4"/>
-      <c r="L95" s="4"/>
-      <c r="M95" s="4"/>
-      <c r="N95" s="4"/>
-      <c r="O95" s="4"/>
-      <c r="P95" s="4"/>
-      <c r="Q95" s="4"/>
-      <c r="R95" s="4"/>
-    </row>
-    <row r="96" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A96" s="27"/>
-      <c r="B96" s="27"/>
-      <c r="C96" s="27"/>
-      <c r="D96" s="27"/>
-      <c r="E96" s="10"/>
-      <c r="F96" s="4"/>
-      <c r="G96" s="4"/>
-      <c r="H96" s="4"/>
-      <c r="I96" s="4"/>
-      <c r="J96" s="4"/>
-      <c r="K96" s="4"/>
-      <c r="L96" s="4"/>
-      <c r="M96" s="4"/>
-      <c r="N96" s="4"/>
-      <c r="O96" s="4"/>
-      <c r="P96" s="4"/>
-      <c r="Q96" s="4"/>
-      <c r="R96" s="4"/>
-    </row>
-    <row r="97" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A97" s="27"/>
-      <c r="B97" s="27"/>
-      <c r="C97" s="27"/>
-      <c r="D97" s="27"/>
-      <c r="E97" s="10"/>
-      <c r="F97" s="4"/>
-      <c r="G97" s="4"/>
-      <c r="H97" s="4"/>
-      <c r="I97" s="4"/>
-      <c r="J97" s="4"/>
-      <c r="K97" s="4"/>
-      <c r="L97" s="4"/>
-      <c r="M97" s="4"/>
-      <c r="N97" s="4"/>
-      <c r="O97" s="4"/>
-      <c r="P97" s="4"/>
-      <c r="Q97" s="4"/>
-      <c r="R97" s="4"/>
-    </row>
-    <row r="98" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A98" s="27"/>
-      <c r="B98" s="27"/>
-      <c r="C98" s="27"/>
-      <c r="D98" s="27"/>
-      <c r="E98" s="10"/>
-      <c r="F98" s="4"/>
-      <c r="G98" s="4"/>
-      <c r="H98" s="4"/>
-      <c r="I98" s="4"/>
-      <c r="J98" s="4"/>
-      <c r="K98" s="4"/>
-      <c r="L98" s="4"/>
-      <c r="M98" s="4"/>
-      <c r="N98" s="4"/>
-      <c r="O98" s="4"/>
-      <c r="P98" s="4"/>
-      <c r="Q98" s="4"/>
-      <c r="R98" s="4"/>
-    </row>
-    <row r="99" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A99" s="27"/>
-      <c r="B99" s="27"/>
-      <c r="C99" s="27"/>
-      <c r="D99" s="27"/>
-      <c r="E99" s="10"/>
-      <c r="F99" s="4"/>
-      <c r="G99" s="4"/>
-      <c r="H99" s="4"/>
-      <c r="I99" s="4"/>
-      <c r="J99" s="4"/>
-      <c r="K99" s="4"/>
-      <c r="L99" s="4"/>
-      <c r="M99" s="4"/>
-      <c r="N99" s="4"/>
-      <c r="O99" s="4"/>
-      <c r="P99" s="4"/>
-      <c r="Q99" s="4"/>
-      <c r="R99" s="4"/>
-    </row>
-    <row r="100" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A100" s="28"/>
       <c r="B100" s="28"/>
       <c r="C100" s="28"/>

--- a/LM_Journal_Travail_V1.0.xlsx
+++ b/LM_Journal_Travail_V1.0.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repositories\Love-Mirroring\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\Love-Mirroring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F1DA2CA-7A93-4D8C-AED1-F29EDFE44369}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27B58ED2-F55B-423A-8CBF-92ABEDF914BF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Equipe" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="244">
   <si>
     <t>Jalon</t>
   </si>
@@ -812,6 +812,12 @@
   </si>
   <si>
     <t>Relecture des livrables</t>
+  </si>
+  <si>
+    <t>J'ai mis à jour le Sprint Backlog et le Product Backlog. J'ai granularisé les user stories pour qu'on ait une vue d'ensemble de ce qu'il reste à faire. J'ai aussi revérifié les fonctionnalités en production et ma partie fonctionne et elle est prête pour la démo.</t>
+  </si>
+  <si>
+    <t>Product Backlog + Sprint Backlog</t>
   </si>
 </sst>
 </file>
@@ -4489,10 +4495,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DB7A04D-A66F-4A89-83F1-9B353075A776}">
-  <dimension ref="A1:R105"/>
+  <dimension ref="A1:R106"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -5978,16 +5984,19 @@
       <c r="Q54" s="4"/>
       <c r="R54" s="4"/>
     </row>
-    <row r="55" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B55" s="14">
-        <f>SUM(B38:B54)</f>
-        <v>53.5</v>
-      </c>
-      <c r="C55" s="15"/>
-      <c r="D55" s="15"/>
+    <row r="55" spans="1:18" ht="54.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="42" t="s">
+        <v>243</v>
+      </c>
+      <c r="B55" s="45">
+        <v>2</v>
+      </c>
+      <c r="C55" s="43">
+        <v>43962</v>
+      </c>
+      <c r="D55" s="44" t="s">
+        <v>242</v>
+      </c>
       <c r="E55" s="10"/>
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
@@ -6004,10 +6013,15 @@
       <c r="R55" s="4"/>
     </row>
     <row r="56" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="16"/>
-      <c r="B56" s="16"/>
-      <c r="C56" s="16"/>
-      <c r="D56" s="16"/>
+      <c r="A56" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B56" s="14">
+        <f>SUM(B38:B55)</f>
+        <v>55.5</v>
+      </c>
+      <c r="C56" s="15"/>
+      <c r="D56" s="15"/>
       <c r="E56" s="10"/>
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
@@ -6023,15 +6037,11 @@
       <c r="Q56" s="4"/>
       <c r="R56" s="4"/>
     </row>
-    <row r="57" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B57" s="2">
-        <v>4</v>
-      </c>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
+    <row r="57" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="16"/>
+      <c r="B57" s="16"/>
+      <c r="C57" s="16"/>
+      <c r="D57" s="16"/>
       <c r="E57" s="10"/>
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
@@ -6047,17 +6057,15 @@
       <c r="Q57" s="4"/>
       <c r="R57" s="4"/>
     </row>
-    <row r="58" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5" t="s">
-        <v>5</v>
-      </c>
+    <row r="58" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58" s="2">
+        <v>4</v>
+      </c>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
       <c r="E58" s="10"/>
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
@@ -6073,11 +6081,17 @@
       <c r="Q58" s="4"/>
       <c r="R58" s="4"/>
     </row>
-    <row r="59" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A59" s="19"/>
-      <c r="B59" s="19"/>
-      <c r="C59" s="20"/>
-      <c r="D59" s="20"/>
+    <row r="59" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="E59" s="10"/>
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
@@ -6094,10 +6108,10 @@
       <c r="R59" s="4"/>
     </row>
     <row r="60" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A60" s="7"/>
-      <c r="B60" s="7"/>
-      <c r="C60" s="9"/>
-      <c r="D60" s="9"/>
+      <c r="A60" s="19"/>
+      <c r="B60" s="19"/>
+      <c r="C60" s="20"/>
+      <c r="D60" s="20"/>
       <c r="E60" s="10"/>
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
@@ -6194,10 +6208,10 @@
       <c r="R64" s="4"/>
     </row>
     <row r="65" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A65" s="25"/>
-      <c r="B65" s="25"/>
-      <c r="C65" s="26"/>
-      <c r="D65" s="26"/>
+      <c r="A65" s="7"/>
+      <c r="B65" s="7"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
       <c r="E65" s="10"/>
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
@@ -6273,11 +6287,11 @@
       <c r="Q68" s="4"/>
       <c r="R68" s="4"/>
     </row>
-    <row r="69" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="23"/>
-      <c r="B69" s="23"/>
-      <c r="C69" s="24"/>
-      <c r="D69" s="24"/>
+    <row r="69" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A69" s="25"/>
+      <c r="B69" s="25"/>
+      <c r="C69" s="26"/>
+      <c r="D69" s="26"/>
       <c r="E69" s="10"/>
       <c r="F69" s="4"/>
       <c r="G69" s="4"/>
@@ -6294,15 +6308,10 @@
       <c r="R69" s="4"/>
     </row>
     <row r="70" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B70" s="14">
-        <f>SUM(B59:B69)</f>
-        <v>0</v>
-      </c>
-      <c r="C70" s="15"/>
-      <c r="D70" s="15"/>
+      <c r="A70" s="23"/>
+      <c r="B70" s="23"/>
+      <c r="C70" s="24"/>
+      <c r="D70" s="24"/>
       <c r="E70" s="10"/>
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
@@ -6319,10 +6328,15 @@
       <c r="R70" s="4"/>
     </row>
     <row r="71" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="16"/>
-      <c r="B71" s="16"/>
-      <c r="C71" s="16"/>
-      <c r="D71" s="16"/>
+      <c r="A71" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B71" s="14">
+        <f>SUM(B60:B70)</f>
+        <v>0</v>
+      </c>
+      <c r="C71" s="15"/>
+      <c r="D71" s="15"/>
       <c r="E71" s="10"/>
       <c r="F71" s="4"/>
       <c r="G71" s="4"/>
@@ -6338,15 +6352,11 @@
       <c r="Q71" s="4"/>
       <c r="R71" s="4"/>
     </row>
-    <row r="72" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B72" s="2">
-        <v>5</v>
-      </c>
-      <c r="C72" s="3"/>
-      <c r="D72" s="3"/>
+    <row r="72" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="16"/>
+      <c r="B72" s="16"/>
+      <c r="C72" s="16"/>
+      <c r="D72" s="16"/>
       <c r="E72" s="10"/>
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
@@ -6362,17 +6372,15 @@
       <c r="Q72" s="4"/>
       <c r="R72" s="4"/>
     </row>
-    <row r="73" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B73" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C73" s="5"/>
-      <c r="D73" s="5" t="s">
+    <row r="73" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73" s="2">
         <v>5</v>
       </c>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
       <c r="E73" s="10"/>
       <c r="F73" s="4"/>
       <c r="G73" s="4"/>
@@ -6388,11 +6396,17 @@
       <c r="Q73" s="4"/>
       <c r="R73" s="4"/>
     </row>
-    <row r="74" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A74" s="19"/>
-      <c r="B74" s="19"/>
-      <c r="C74" s="20"/>
-      <c r="D74" s="20"/>
+    <row r="74" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="E74" s="10"/>
       <c r="F74" s="4"/>
       <c r="G74" s="4"/>
@@ -6409,10 +6423,10 @@
       <c r="R74" s="4"/>
     </row>
     <row r="75" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A75" s="7"/>
-      <c r="B75" s="7"/>
-      <c r="C75" s="9"/>
-      <c r="D75" s="9"/>
+      <c r="A75" s="19"/>
+      <c r="B75" s="19"/>
+      <c r="C75" s="20"/>
+      <c r="D75" s="20"/>
       <c r="E75" s="10"/>
       <c r="F75" s="4"/>
       <c r="G75" s="4"/>
@@ -6488,11 +6502,11 @@
       <c r="Q78" s="4"/>
       <c r="R78" s="4"/>
     </row>
-    <row r="79" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="23"/>
-      <c r="B79" s="23"/>
-      <c r="C79" s="24"/>
-      <c r="D79" s="24"/>
+    <row r="79" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A79" s="7"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="9"/>
+      <c r="D79" s="9"/>
       <c r="E79" s="10"/>
       <c r="F79" s="4"/>
       <c r="G79" s="4"/>
@@ -6509,15 +6523,10 @@
       <c r="R79" s="4"/>
     </row>
     <row r="80" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B80" s="14">
-        <f>SUM(B74:B79)</f>
-        <v>0</v>
-      </c>
-      <c r="C80" s="15"/>
-      <c r="D80" s="15"/>
+      <c r="A80" s="23"/>
+      <c r="B80" s="23"/>
+      <c r="C80" s="24"/>
+      <c r="D80" s="24"/>
       <c r="E80" s="10"/>
       <c r="F80" s="4"/>
       <c r="G80" s="4"/>
@@ -6534,10 +6543,15 @@
       <c r="R80" s="4"/>
     </row>
     <row r="81" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="16"/>
-      <c r="B81" s="16"/>
-      <c r="C81" s="16"/>
-      <c r="D81" s="16"/>
+      <c r="A81" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B81" s="14">
+        <f>SUM(B75:B80)</f>
+        <v>0</v>
+      </c>
+      <c r="C81" s="15"/>
+      <c r="D81" s="15"/>
       <c r="E81" s="10"/>
       <c r="F81" s="4"/>
       <c r="G81" s="4"/>
@@ -6553,15 +6567,11 @@
       <c r="Q81" s="4"/>
       <c r="R81" s="4"/>
     </row>
-    <row r="82" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B82" s="2">
-        <v>6</v>
-      </c>
-      <c r="C82" s="3"/>
-      <c r="D82" s="3"/>
+    <row r="82" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="16"/>
+      <c r="B82" s="16"/>
+      <c r="C82" s="16"/>
+      <c r="D82" s="16"/>
       <c r="E82" s="10"/>
       <c r="F82" s="4"/>
       <c r="G82" s="4"/>
@@ -6577,17 +6587,15 @@
       <c r="Q82" s="4"/>
       <c r="R82" s="4"/>
     </row>
-    <row r="83" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B83" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C83" s="5"/>
-      <c r="D83" s="5" t="s">
-        <v>5</v>
-      </c>
+    <row r="83" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B83" s="2">
+        <v>6</v>
+      </c>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
       <c r="E83" s="10"/>
       <c r="F83" s="4"/>
       <c r="G83" s="4"/>
@@ -6603,11 +6611,17 @@
       <c r="Q83" s="4"/>
       <c r="R83" s="4"/>
     </row>
-    <row r="84" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A84" s="19"/>
-      <c r="B84" s="19"/>
-      <c r="C84" s="20"/>
-      <c r="D84" s="20"/>
+    <row r="84" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="E84" s="10"/>
       <c r="F84" s="4"/>
       <c r="G84" s="4"/>
@@ -6624,10 +6638,10 @@
       <c r="R84" s="4"/>
     </row>
     <row r="85" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A85" s="7"/>
-      <c r="B85" s="7"/>
-      <c r="C85" s="9"/>
-      <c r="D85" s="9"/>
+      <c r="A85" s="19"/>
+      <c r="B85" s="19"/>
+      <c r="C85" s="20"/>
+      <c r="D85" s="20"/>
       <c r="E85" s="10"/>
       <c r="F85" s="4"/>
       <c r="G85" s="4"/>
@@ -6743,11 +6757,11 @@
       <c r="Q90" s="4"/>
       <c r="R90" s="4"/>
     </row>
-    <row r="91" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="23"/>
-      <c r="B91" s="23"/>
-      <c r="C91" s="24"/>
-      <c r="D91" s="24"/>
+    <row r="91" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A91" s="7"/>
+      <c r="B91" s="7"/>
+      <c r="C91" s="9"/>
+      <c r="D91" s="9"/>
       <c r="E91" s="10"/>
       <c r="F91" s="4"/>
       <c r="G91" s="4"/>
@@ -6764,15 +6778,10 @@
       <c r="R91" s="4"/>
     </row>
     <row r="92" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B92" s="14">
-        <f>SUM(B84:B91)</f>
-        <v>0</v>
-      </c>
-      <c r="C92" s="15"/>
-      <c r="D92" s="15"/>
+      <c r="A92" s="23"/>
+      <c r="B92" s="23"/>
+      <c r="C92" s="24"/>
+      <c r="D92" s="24"/>
       <c r="E92" s="10"/>
       <c r="F92" s="4"/>
       <c r="G92" s="4"/>
@@ -6788,11 +6797,16 @@
       <c r="Q92" s="4"/>
       <c r="R92" s="4"/>
     </row>
-    <row r="93" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A93" s="16"/>
-      <c r="B93" s="16"/>
-      <c r="C93" s="16"/>
-      <c r="D93" s="16"/>
+    <row r="93" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B93" s="14">
+        <f>SUM(B85:B92)</f>
+        <v>0</v>
+      </c>
+      <c r="C93" s="15"/>
+      <c r="D93" s="15"/>
       <c r="E93" s="10"/>
       <c r="F93" s="4"/>
       <c r="G93" s="4"/>
@@ -6809,10 +6823,10 @@
       <c r="R93" s="4"/>
     </row>
     <row r="94" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A94" s="27"/>
-      <c r="B94" s="27"/>
-      <c r="C94" s="27"/>
-      <c r="D94" s="27"/>
+      <c r="A94" s="16"/>
+      <c r="B94" s="16"/>
+      <c r="C94" s="16"/>
+      <c r="D94" s="16"/>
       <c r="E94" s="10"/>
       <c r="F94" s="4"/>
       <c r="G94" s="4"/>
@@ -7013,20 +7027,40 @@
       <c r="B104" s="27"/>
       <c r="C104" s="27"/>
       <c r="D104" s="27"/>
+      <c r="E104" s="10"/>
+      <c r="F104" s="4"/>
+      <c r="G104" s="4"/>
+      <c r="H104" s="4"/>
+      <c r="I104" s="4"/>
+      <c r="J104" s="4"/>
+      <c r="K104" s="4"/>
+      <c r="L104" s="4"/>
+      <c r="M104" s="4"/>
+      <c r="N104" s="4"/>
+      <c r="O104" s="4"/>
+      <c r="P104" s="4"/>
+      <c r="Q104" s="4"/>
+      <c r="R104" s="4"/>
     </row>
     <row r="105" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A105" s="28"/>
-      <c r="B105" s="28"/>
-      <c r="C105" s="28"/>
-      <c r="D105" s="28"/>
+      <c r="A105" s="27"/>
+      <c r="B105" s="27"/>
+      <c r="C105" s="27"/>
+      <c r="D105" s="27"/>
+    </row>
+    <row r="106" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A106" s="28"/>
+      <c r="B106" s="28"/>
+      <c r="C106" s="28"/>
+      <c r="D106" s="28"/>
     </row>
   </sheetData>
   <dataValidations xWindow="188" yWindow="522" count="2">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" prompt="Dépassement de durée - Le nombre de minutes introduites dépasse la durée d'une période. Veuillez confirmer ... Le calcul du total sera juste dans tous les cas._x000a_" sqref="B12 B34 B55 B70 B80 B92" xr:uid="{41F29EDA-D509-4469-8DFB-6A4CE4CEAE07}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" prompt="Dépassement de durée - Le nombre de minutes introduites dépasse la durée d'une période. Veuillez confirmer ... Le calcul du total sera juste dans tous les cas._x000a_" sqref="B12 B34 B56 B71 B81 B93" xr:uid="{41F29EDA-D509-4469-8DFB-6A4CE4CEAE07}">
       <formula1>0</formula1>
       <formula2>DureePeriode-1</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" prompt="Durée en 1/3 de période - Le nombre doit être de type entier" sqref="B84:B91 B38:B39 B59:B69 B74:B79 B10:B11 B3:B8 B16:B33 B41:B45" xr:uid="{3039B7E3-952E-4B34-B612-E5A0C049619C}">
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" prompt="Durée en 1/3 de période - Le nombre doit être de type entier" sqref="B85:B92 B38:B39 B60:B70 B75:B80 B10:B11 B3:B8 B16:B33 B41:B45" xr:uid="{3039B7E3-952E-4B34-B612-E5A0C049619C}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -7038,7 +7072,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716E2DDB-6361-470B-ACF3-8FDF9046203A}">
   <dimension ref="A1:R117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+    <sheetView topLeftCell="A59" workbookViewId="0">
       <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>

--- a/LM_Journal_Travail_V1.0.xlsx
+++ b/LM_Journal_Travail_V1.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\Love-Mirroring\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programmes\VS2019\Projets\Projet Gerber\Love-Mirroring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27B58ED2-F55B-423A-8CBF-92ABEDF914BF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A37805C6-1A2D-4A82-BCB0-C94D370A6940}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4845" yWindow="2460" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Equipe" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <definedName name="NBLecons">#REF!</definedName>
     <definedName name="TachesPlanifiees">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="245">
   <si>
     <t>Jalon</t>
   </si>
@@ -818,6 +818,10 @@
   </si>
   <si>
     <t>Product Backlog + Sprint Backlog</t>
+  </si>
+  <si>
+    <t>Acces Controleur Admin Succes
+Acces selon Policy Echec</t>
   </si>
 </sst>
 </file>
@@ -4497,7 +4501,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DB7A04D-A66F-4A89-83F1-9B353075A776}">
   <dimension ref="A1:R106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
@@ -9869,8 +9873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F222774-5003-490D-9078-78D1F6F89A4A}">
   <dimension ref="A1:R100"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -11130,18 +11134,18 @@
       <c r="Q47" s="4"/>
       <c r="R47" s="4"/>
     </row>
-    <row r="48" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="42" t="s">
         <v>160</v>
       </c>
       <c r="B48" s="42">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C48" s="44" t="s">
         <v>199</v>
       </c>
       <c r="D48" s="44" t="s">
-        <v>200</v>
+        <v>244</v>
       </c>
       <c r="E48" s="10"/>
       <c r="F48" s="4"/>
@@ -11184,7 +11188,7 @@
       </c>
       <c r="B50" s="14">
         <f>SUM(B38:B49)</f>
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C50" s="15"/>
       <c r="D50" s="15"/>

--- a/LM_Journal_Travail_V1.0.xlsx
+++ b/LM_Journal_Travail_V1.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programmes\VS2019\Projets\Projet Gerber\Love-Mirroring\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\Love-Mirroring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A37805C6-1A2D-4A82-BCB0-C94D370A6940}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0CE6371-9947-470E-91BD-B65C1B36FFE1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4845" yWindow="2460" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Equipe" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <definedName name="NBLecons">#REF!</definedName>
     <definedName name="TachesPlanifiees">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="247">
   <si>
     <t>Jalon</t>
   </si>
@@ -822,6 +822,12 @@
   <si>
     <t>Acces Controleur Admin Succes
 Acces selon Policy Echec</t>
+  </si>
+  <si>
+    <t>Administration</t>
+  </si>
+  <si>
+    <t>J'ai essayé de sécuriser l'API avec les policy mais nous avons un problème avec le claims de l'utilisateur. J'ai fait beaucoup de recherches sans succès pour aujourd'hui. Je me suis aussi attaqué à la partie bannissement d'un utilisateur. Mon collègue Monsieur Morsch l'avait déjà modélisé mais j'ai adapté le formulaire car ça fonctionne par date. L'utilisateur est banni jusqu'à une certaines dates j'ai modifié le formulaire et je dois vérifier la partie traitement.</t>
   </si>
 </sst>
 </file>
@@ -1133,7 +1139,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1287,6 +1293,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4501,8 +4510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DB7A04D-A66F-4A89-83F1-9B353075A776}">
   <dimension ref="A1:R106"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -6111,11 +6120,19 @@
       <c r="Q59" s="4"/>
       <c r="R59" s="4"/>
     </row>
-    <row r="60" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A60" s="19"/>
-      <c r="B60" s="19"/>
-      <c r="C60" s="20"/>
-      <c r="D60" s="20"/>
+    <row r="60" spans="1:18" ht="81" x14ac:dyDescent="0.3">
+      <c r="A60" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="B60" s="19">
+        <v>4</v>
+      </c>
+      <c r="C60" s="57">
+        <v>43966</v>
+      </c>
+      <c r="D60" s="20" t="s">
+        <v>246</v>
+      </c>
       <c r="E60" s="10"/>
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
@@ -6337,7 +6354,7 @@
       </c>
       <c r="B71" s="14">
         <f>SUM(B60:B70)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C71" s="15"/>
       <c r="D71" s="15"/>
@@ -9873,7 +9890,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F222774-5003-490D-9078-78D1F6F89A4A}">
   <dimension ref="A1:R100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>

--- a/LM_Journal_Travail_V1.0.xlsx
+++ b/LM_Journal_Travail_V1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\Love-Mirroring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0CE6371-9947-470E-91BD-B65C1B36FFE1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{188607D5-9CD6-4FBE-9D13-8FED3E4A444B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="249">
   <si>
     <t>Jalon</t>
   </si>
@@ -828,6 +828,12 @@
   </si>
   <si>
     <t>J'ai essayé de sécuriser l'API avec les policy mais nous avons un problème avec le claims de l'utilisateur. J'ai fait beaucoup de recherches sans succès pour aujourd'hui. Je me suis aussi attaqué à la partie bannissement d'un utilisateur. Mon collègue Monsieur Morsch l'avait déjà modélisé mais j'ai adapté le formulaire car ça fonctionne par date. L'utilisateur est banni jusqu'à une certaines dates j'ai modifié le formulaire et je dois vérifier la partie traitement.</t>
+  </si>
+  <si>
+    <t>Je modifie l'interface administration pour qu'elle ressorte mieux graphiquement et j'y ajoute des fonctionnalités comme la liste des utilisateurs. Il est possible de bannir un utilisateur et il est redirigé sur une page lui indiquant qu'il est banni de l'application.</t>
+  </si>
+  <si>
+    <t>J'ai implémenté une extension javascript pour le datepicker avec l'aide de Monsieur Allemann car il avait déjà utilisé ça dans un ancien projet. J'ai eu quelques soucis au niveau du format mais maintenant le plugin marche.</t>
   </si>
 </sst>
 </file>
@@ -938,7 +944,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -1135,11 +1141,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1296,6 +1315,15 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4508,10 +4536,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DB7A04D-A66F-4A89-83F1-9B353075A776}">
-  <dimension ref="A1:R106"/>
+  <dimension ref="A1:R107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -6148,11 +6176,19 @@
       <c r="Q60" s="4"/>
       <c r="R60" s="4"/>
     </row>
-    <row r="61" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A61" s="7"/>
-      <c r="B61" s="7"/>
-      <c r="C61" s="9"/>
-      <c r="D61" s="9"/>
+    <row r="61" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A61" s="58" t="s">
+        <v>245</v>
+      </c>
+      <c r="B61" s="58">
+        <v>1</v>
+      </c>
+      <c r="C61" s="59">
+        <v>43967</v>
+      </c>
+      <c r="D61" s="60" t="s">
+        <v>248</v>
+      </c>
       <c r="E61" s="10"/>
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
@@ -6168,11 +6204,19 @@
       <c r="Q61" s="4"/>
       <c r="R61" s="4"/>
     </row>
-    <row r="62" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A62" s="7"/>
-      <c r="B62" s="7"/>
-      <c r="C62" s="9"/>
-      <c r="D62" s="9"/>
+    <row r="62" spans="1:18" ht="54" x14ac:dyDescent="0.3">
+      <c r="A62" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="B62" s="7">
+        <v>3</v>
+      </c>
+      <c r="C62" s="35">
+        <v>43968</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>247</v>
+      </c>
       <c r="E62" s="10"/>
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
@@ -6249,10 +6293,10 @@
       <c r="R65" s="4"/>
     </row>
     <row r="66" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A66" s="25"/>
-      <c r="B66" s="25"/>
-      <c r="C66" s="26"/>
-      <c r="D66" s="26"/>
+      <c r="A66" s="7"/>
+      <c r="B66" s="7"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
       <c r="E66" s="10"/>
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
@@ -6328,11 +6372,11 @@
       <c r="Q69" s="4"/>
       <c r="R69" s="4"/>
     </row>
-    <row r="70" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="23"/>
-      <c r="B70" s="23"/>
-      <c r="C70" s="24"/>
-      <c r="D70" s="24"/>
+    <row r="70" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A70" s="25"/>
+      <c r="B70" s="25"/>
+      <c r="C70" s="26"/>
+      <c r="D70" s="26"/>
       <c r="E70" s="10"/>
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
@@ -6349,15 +6393,10 @@
       <c r="R70" s="4"/>
     </row>
     <row r="71" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B71" s="14">
-        <f>SUM(B60:B70)</f>
-        <v>4</v>
-      </c>
-      <c r="C71" s="15"/>
-      <c r="D71" s="15"/>
+      <c r="A71" s="23"/>
+      <c r="B71" s="23"/>
+      <c r="C71" s="24"/>
+      <c r="D71" s="24"/>
       <c r="E71" s="10"/>
       <c r="F71" s="4"/>
       <c r="G71" s="4"/>
@@ -6374,10 +6413,15 @@
       <c r="R71" s="4"/>
     </row>
     <row r="72" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="16"/>
-      <c r="B72" s="16"/>
-      <c r="C72" s="16"/>
-      <c r="D72" s="16"/>
+      <c r="A72" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B72" s="14">
+        <f>SUM(B60:B71)</f>
+        <v>8</v>
+      </c>
+      <c r="C72" s="15"/>
+      <c r="D72" s="15"/>
       <c r="E72" s="10"/>
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
@@ -6393,15 +6437,11 @@
       <c r="Q72" s="4"/>
       <c r="R72" s="4"/>
     </row>
-    <row r="73" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B73" s="2">
-        <v>5</v>
-      </c>
-      <c r="C73" s="3"/>
-      <c r="D73" s="3"/>
+    <row r="73" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="16"/>
+      <c r="B73" s="16"/>
+      <c r="C73" s="16"/>
+      <c r="D73" s="16"/>
       <c r="E73" s="10"/>
       <c r="F73" s="4"/>
       <c r="G73" s="4"/>
@@ -6417,17 +6457,15 @@
       <c r="Q73" s="4"/>
       <c r="R73" s="4"/>
     </row>
-    <row r="74" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B74" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C74" s="5"/>
-      <c r="D74" s="5" t="s">
+    <row r="74" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74" s="2">
         <v>5</v>
       </c>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
       <c r="E74" s="10"/>
       <c r="F74" s="4"/>
       <c r="G74" s="4"/>
@@ -6443,11 +6481,17 @@
       <c r="Q74" s="4"/>
       <c r="R74" s="4"/>
     </row>
-    <row r="75" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A75" s="19"/>
-      <c r="B75" s="19"/>
-      <c r="C75" s="20"/>
-      <c r="D75" s="20"/>
+    <row r="75" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="E75" s="10"/>
       <c r="F75" s="4"/>
       <c r="G75" s="4"/>
@@ -6464,10 +6508,10 @@
       <c r="R75" s="4"/>
     </row>
     <row r="76" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A76" s="7"/>
-      <c r="B76" s="7"/>
-      <c r="C76" s="9"/>
-      <c r="D76" s="9"/>
+      <c r="A76" s="19"/>
+      <c r="B76" s="19"/>
+      <c r="C76" s="20"/>
+      <c r="D76" s="20"/>
       <c r="E76" s="10"/>
       <c r="F76" s="4"/>
       <c r="G76" s="4"/>
@@ -6543,11 +6587,11 @@
       <c r="Q79" s="4"/>
       <c r="R79" s="4"/>
     </row>
-    <row r="80" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="23"/>
-      <c r="B80" s="23"/>
-      <c r="C80" s="24"/>
-      <c r="D80" s="24"/>
+    <row r="80" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A80" s="7"/>
+      <c r="B80" s="7"/>
+      <c r="C80" s="9"/>
+      <c r="D80" s="9"/>
       <c r="E80" s="10"/>
       <c r="F80" s="4"/>
       <c r="G80" s="4"/>
@@ -6564,15 +6608,10 @@
       <c r="R80" s="4"/>
     </row>
     <row r="81" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B81" s="14">
-        <f>SUM(B75:B80)</f>
-        <v>0</v>
-      </c>
-      <c r="C81" s="15"/>
-      <c r="D81" s="15"/>
+      <c r="A81" s="23"/>
+      <c r="B81" s="23"/>
+      <c r="C81" s="24"/>
+      <c r="D81" s="24"/>
       <c r="E81" s="10"/>
       <c r="F81" s="4"/>
       <c r="G81" s="4"/>
@@ -6589,10 +6628,15 @@
       <c r="R81" s="4"/>
     </row>
     <row r="82" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="16"/>
-      <c r="B82" s="16"/>
-      <c r="C82" s="16"/>
-      <c r="D82" s="16"/>
+      <c r="A82" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B82" s="14">
+        <f>SUM(B76:B81)</f>
+        <v>0</v>
+      </c>
+      <c r="C82" s="15"/>
+      <c r="D82" s="15"/>
       <c r="E82" s="10"/>
       <c r="F82" s="4"/>
       <c r="G82" s="4"/>
@@ -6608,15 +6652,11 @@
       <c r="Q82" s="4"/>
       <c r="R82" s="4"/>
     </row>
-    <row r="83" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B83" s="2">
-        <v>6</v>
-      </c>
-      <c r="C83" s="3"/>
-      <c r="D83" s="3"/>
+    <row r="83" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="16"/>
+      <c r="B83" s="16"/>
+      <c r="C83" s="16"/>
+      <c r="D83" s="16"/>
       <c r="E83" s="10"/>
       <c r="F83" s="4"/>
       <c r="G83" s="4"/>
@@ -6632,17 +6672,15 @@
       <c r="Q83" s="4"/>
       <c r="R83" s="4"/>
     </row>
-    <row r="84" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B84" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C84" s="5"/>
-      <c r="D84" s="5" t="s">
-        <v>5</v>
-      </c>
+    <row r="84" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B84" s="2">
+        <v>6</v>
+      </c>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3"/>
       <c r="E84" s="10"/>
       <c r="F84" s="4"/>
       <c r="G84" s="4"/>
@@ -6658,11 +6696,17 @@
       <c r="Q84" s="4"/>
       <c r="R84" s="4"/>
     </row>
-    <row r="85" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A85" s="19"/>
-      <c r="B85" s="19"/>
-      <c r="C85" s="20"/>
-      <c r="D85" s="20"/>
+    <row r="85" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="E85" s="10"/>
       <c r="F85" s="4"/>
       <c r="G85" s="4"/>
@@ -6679,10 +6723,10 @@
       <c r="R85" s="4"/>
     </row>
     <row r="86" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A86" s="7"/>
-      <c r="B86" s="7"/>
-      <c r="C86" s="9"/>
-      <c r="D86" s="9"/>
+      <c r="A86" s="19"/>
+      <c r="B86" s="19"/>
+      <c r="C86" s="20"/>
+      <c r="D86" s="20"/>
       <c r="E86" s="10"/>
       <c r="F86" s="4"/>
       <c r="G86" s="4"/>
@@ -6798,11 +6842,11 @@
       <c r="Q91" s="4"/>
       <c r="R91" s="4"/>
     </row>
-    <row r="92" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="23"/>
-      <c r="B92" s="23"/>
-      <c r="C92" s="24"/>
-      <c r="D92" s="24"/>
+    <row r="92" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A92" s="7"/>
+      <c r="B92" s="7"/>
+      <c r="C92" s="9"/>
+      <c r="D92" s="9"/>
       <c r="E92" s="10"/>
       <c r="F92" s="4"/>
       <c r="G92" s="4"/>
@@ -6819,15 +6863,10 @@
       <c r="R92" s="4"/>
     </row>
     <row r="93" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B93" s="14">
-        <f>SUM(B85:B92)</f>
-        <v>0</v>
-      </c>
-      <c r="C93" s="15"/>
-      <c r="D93" s="15"/>
+      <c r="A93" s="23"/>
+      <c r="B93" s="23"/>
+      <c r="C93" s="24"/>
+      <c r="D93" s="24"/>
       <c r="E93" s="10"/>
       <c r="F93" s="4"/>
       <c r="G93" s="4"/>
@@ -6843,11 +6882,16 @@
       <c r="Q93" s="4"/>
       <c r="R93" s="4"/>
     </row>
-    <row r="94" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A94" s="16"/>
-      <c r="B94" s="16"/>
-      <c r="C94" s="16"/>
-      <c r="D94" s="16"/>
+    <row r="94" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B94" s="14">
+        <f>SUM(B86:B93)</f>
+        <v>0</v>
+      </c>
+      <c r="C94" s="15"/>
+      <c r="D94" s="15"/>
       <c r="E94" s="10"/>
       <c r="F94" s="4"/>
       <c r="G94" s="4"/>
@@ -6864,10 +6908,10 @@
       <c r="R94" s="4"/>
     </row>
     <row r="95" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A95" s="27"/>
-      <c r="B95" s="27"/>
-      <c r="C95" s="27"/>
-      <c r="D95" s="27"/>
+      <c r="A95" s="16"/>
+      <c r="B95" s="16"/>
+      <c r="C95" s="16"/>
+      <c r="D95" s="16"/>
       <c r="E95" s="10"/>
       <c r="F95" s="4"/>
       <c r="G95" s="4"/>
@@ -7068,20 +7112,40 @@
       <c r="B105" s="27"/>
       <c r="C105" s="27"/>
       <c r="D105" s="27"/>
+      <c r="E105" s="10"/>
+      <c r="F105" s="4"/>
+      <c r="G105" s="4"/>
+      <c r="H105" s="4"/>
+      <c r="I105" s="4"/>
+      <c r="J105" s="4"/>
+      <c r="K105" s="4"/>
+      <c r="L105" s="4"/>
+      <c r="M105" s="4"/>
+      <c r="N105" s="4"/>
+      <c r="O105" s="4"/>
+      <c r="P105" s="4"/>
+      <c r="Q105" s="4"/>
+      <c r="R105" s="4"/>
     </row>
     <row r="106" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A106" s="28"/>
-      <c r="B106" s="28"/>
-      <c r="C106" s="28"/>
-      <c r="D106" s="28"/>
+      <c r="A106" s="27"/>
+      <c r="B106" s="27"/>
+      <c r="C106" s="27"/>
+      <c r="D106" s="27"/>
+    </row>
+    <row r="107" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A107" s="28"/>
+      <c r="B107" s="28"/>
+      <c r="C107" s="28"/>
+      <c r="D107" s="28"/>
     </row>
   </sheetData>
   <dataValidations xWindow="188" yWindow="522" count="2">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" prompt="Dépassement de durée - Le nombre de minutes introduites dépasse la durée d'une période. Veuillez confirmer ... Le calcul du total sera juste dans tous les cas._x000a_" sqref="B12 B34 B56 B71 B81 B93" xr:uid="{41F29EDA-D509-4469-8DFB-6A4CE4CEAE07}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" prompt="Dépassement de durée - Le nombre de minutes introduites dépasse la durée d'une période. Veuillez confirmer ... Le calcul du total sera juste dans tous les cas._x000a_" sqref="B12 B34 B56 B72 B82 B94" xr:uid="{41F29EDA-D509-4469-8DFB-6A4CE4CEAE07}">
       <formula1>0</formula1>
       <formula2>DureePeriode-1</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" prompt="Durée en 1/3 de période - Le nombre doit être de type entier" sqref="B85:B92 B38:B39 B60:B70 B75:B80 B10:B11 B3:B8 B16:B33 B41:B45" xr:uid="{3039B7E3-952E-4B34-B612-E5A0C049619C}">
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" prompt="Durée en 1/3 de période - Le nombre doit être de type entier" sqref="B86:B93 B38:B39 B60:B71 B76:B81 B10:B11 B3:B8 B16:B33 B41:B45" xr:uid="{3039B7E3-952E-4B34-B612-E5A0C049619C}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>

--- a/LM_Journal_Travail_V1.0.xlsx
+++ b/LM_Journal_Travail_V1.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\Love-Mirroring\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programmes\VS2019\Projets\Projet Gerber\Love-Mirroring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{188607D5-9CD6-4FBE-9D13-8FED3E4A444B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2DF707E-F2B4-49F2-B00B-852C234E3C4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5190" yWindow="2805" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Equipe" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <definedName name="NBLecons">#REF!</definedName>
     <definedName name="TachesPlanifiees">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="253">
   <si>
     <t>Jalon</t>
   </si>
@@ -834,6 +834,18 @@
   </si>
   <si>
     <t>J'ai implémenté une extension javascript pour le datepicker avec l'aide de Monsieur Allemann car il avait déjà utilisé ça dans un ancien projet. J'ai eu quelques soucis au niveau du format mais maintenant le plugin marche.</t>
+  </si>
+  <si>
+    <t>15.05.2020</t>
+  </si>
+  <si>
+    <t>Recherche de comment rénitilialiser un mot de passe sans utiliser UserManger d'Identtity</t>
+  </si>
+  <si>
+    <t>18.05.2020</t>
+  </si>
+  <si>
+    <t>Génération de mot de passe en cours en attente de confirmation côté user</t>
   </si>
 </sst>
 </file>
@@ -4538,7 +4550,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DB7A04D-A66F-4A89-83F1-9B353075A776}">
   <dimension ref="A1:R107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+    <sheetView topLeftCell="A58" workbookViewId="0">
       <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
@@ -9954,8 +9966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F222774-5003-490D-9078-78D1F6F89A4A}">
   <dimension ref="A1:R100"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -11358,11 +11370,19 @@
       <c r="Q53" s="4"/>
       <c r="R53" s="4"/>
     </row>
-    <row r="54" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A54" s="19"/>
-      <c r="B54" s="19"/>
-      <c r="C54" s="20"/>
-      <c r="D54" s="20"/>
+    <row r="54" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+      <c r="A54" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="B54" s="19">
+        <v>4</v>
+      </c>
+      <c r="C54" s="20" t="s">
+        <v>249</v>
+      </c>
+      <c r="D54" s="20" t="s">
+        <v>250</v>
+      </c>
       <c r="E54" s="10"/>
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
@@ -11379,10 +11399,18 @@
       <c r="R54" s="4"/>
     </row>
     <row r="55" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A55" s="7"/>
-      <c r="B55" s="7"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
+      <c r="A55" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B55" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>252</v>
+      </c>
       <c r="E55" s="10"/>
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
@@ -11584,7 +11612,7 @@
       </c>
       <c r="B65" s="14">
         <f>SUM(B54:B64)</f>
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="C65" s="15"/>
       <c r="D65" s="15"/>

--- a/LM_Journal_Travail_V1.0.xlsx
+++ b/LM_Journal_Travail_V1.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programmes\VS2019\Projets\Projet Gerber\Love-Mirroring\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\Love-Mirroring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2DF707E-F2B4-49F2-B00B-852C234E3C4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B2E44B3-AC81-4F79-AEF1-52712AD56F93}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5190" yWindow="2805" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Equipe" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <definedName name="NBLecons">#REF!</definedName>
     <definedName name="TachesPlanifiees">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="254">
   <si>
     <t>Jalon</t>
   </si>
@@ -846,6 +846,9 @@
   </si>
   <si>
     <t>Génération de mot de passe en cours en attente de confirmation côté user</t>
+  </si>
+  <si>
+    <t>J'ai affiché la liste des utilisateurs pour pouvoir avoir une vue plus globale car la recherche peut être pratique mais elle limite quand même l'administrateur. J'ai pu affiché la liste des utilisateurs banni et on peut enlevé le lockout de l'utilisateur avec un simple lien. J'ai aussi affiché le nombre d'actions effectuées sur le sites et j'ai mis la possibilité de réinitialiser le quiz depuis l'interface d'administration.</t>
   </si>
 </sst>
 </file>
@@ -4550,8 +4553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DB7A04D-A66F-4A89-83F1-9B353075A776}">
   <dimension ref="A1:R107"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -6244,11 +6247,19 @@
       <c r="Q62" s="4"/>
       <c r="R62" s="4"/>
     </row>
-    <row r="63" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A63" s="7"/>
-      <c r="B63" s="7"/>
-      <c r="C63" s="9"/>
-      <c r="D63" s="9"/>
+    <row r="63" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
+      <c r="A63" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="B63" s="7">
+        <v>4</v>
+      </c>
+      <c r="C63" s="35">
+        <v>43969</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>253</v>
+      </c>
       <c r="E63" s="10"/>
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
@@ -6430,7 +6441,7 @@
       </c>
       <c r="B72" s="14">
         <f>SUM(B60:B71)</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C72" s="15"/>
       <c r="D72" s="15"/>
@@ -7169,7 +7180,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716E2DDB-6361-470B-ACF3-8FDF9046203A}">
   <dimension ref="A1:R117"/>
   <sheetViews>
-    <sheetView topLeftCell="A59" workbookViewId="0">
+    <sheetView topLeftCell="A32" workbookViewId="0">
       <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
@@ -9966,8 +9977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F222774-5003-490D-9078-78D1F6F89A4A}">
   <dimension ref="A1:R100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>

--- a/LM_Journal_Travail_V1.0.xlsx
+++ b/LM_Journal_Travail_V1.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\Love-Mirroring\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programmes\VS2019\Projets\Projet Gerber\Love-Mirroring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B2E44B3-AC81-4F79-AEF1-52712AD56F93}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0343DD4C-7D94-470C-89F1-DC9B3B27AA99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5190" yWindow="2805" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Equipe" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <definedName name="NBLecons">#REF!</definedName>
     <definedName name="TachesPlanifiees">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="258">
   <si>
     <t>Jalon</t>
   </si>
@@ -849,6 +849,21 @@
   </si>
   <si>
     <t>J'ai affiché la liste des utilisateurs pour pouvoir avoir une vue plus globale car la recherche peut être pratique mais elle limite quand même l'administrateur. J'ai pu affiché la liste des utilisateurs banni et on peut enlevé le lockout de l'utilisateur avec un simple lien. J'ai aussi affiché le nombre d'actions effectuées sur le sites et j'ai mis la possibilité de réinitialiser le quiz depuis l'interface d'administration.</t>
+  </si>
+  <si>
+    <t>19.05.2020</t>
+  </si>
+  <si>
+    <t>Génération de mot de passe OK
+Hashage OK
+Envoie du mail OK
+Test de connexion avec le nouveaux mot de passe OK</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>Recherche sur l'implémentation d'un chat privé</t>
   </si>
 </sst>
 </file>
@@ -4553,7 +4568,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DB7A04D-A66F-4A89-83F1-9B353075A776}">
   <dimension ref="A1:R107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
@@ -9977,8 +9992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F222774-5003-490D-9078-78D1F6F89A4A}">
   <dimension ref="A1:R100"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -11437,11 +11452,19 @@
       <c r="Q55" s="4"/>
       <c r="R55" s="4"/>
     </row>
-    <row r="56" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A56" s="7"/>
-      <c r="B56" s="7"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
+    <row r="56" spans="1:18" ht="54" x14ac:dyDescent="0.3">
+      <c r="A56" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B56" s="7">
+        <v>3</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>255</v>
+      </c>
       <c r="E56" s="10"/>
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
@@ -11458,10 +11481,18 @@
       <c r="R56" s="4"/>
     </row>
     <row r="57" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A57" s="7"/>
-      <c r="B57" s="7"/>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
+      <c r="A57" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="B57" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>257</v>
+      </c>
       <c r="E57" s="10"/>
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
@@ -11623,7 +11654,7 @@
       </c>
       <c r="B65" s="14">
         <f>SUM(B54:B64)</f>
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="C65" s="15"/>
       <c r="D65" s="15"/>

--- a/LM_Journal_Travail_V1.0.xlsx
+++ b/LM_Journal_Travail_V1.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programmes\VS2019\Projets\Projet Gerber\Love-Mirroring\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\Love-Mirroring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0343DD4C-7D94-470C-89F1-DC9B3B27AA99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9B4F4C5-C7B5-4923-A126-6CF4B2E668E3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5190" yWindow="2805" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Equipe" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <definedName name="NBLecons">#REF!</definedName>
     <definedName name="TachesPlanifiees">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="260">
   <si>
     <t>Jalon</t>
   </si>
@@ -864,6 +864,12 @@
   </si>
   <si>
     <t>Recherche sur l'implémentation d'un chat privé</t>
+  </si>
+  <si>
+    <t>Login Facebook</t>
+  </si>
+  <si>
+    <t>Je peux me connecter avec Facebook et je peux récupérer les informations du compte que j'utilise mais il reste un problème au niveau des Claims que je dois résoudre après il sera possible d'utiliser l'application avec un compte Facebook. Il faut que je réfléchisse aussi à comment intégrer le profil avec l'authentification Facebook. J'ai aussi regardé dans la documentation comment récupérer différents informations qui pourrait être exploitées comme la récupération des photos ou d'autres informations.</t>
   </si>
 </sst>
 </file>
@@ -4568,7 +4574,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DB7A04D-A66F-4A89-83F1-9B353075A776}">
   <dimension ref="A1:R107"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
@@ -6290,11 +6296,19 @@
       <c r="Q63" s="4"/>
       <c r="R63" s="4"/>
     </row>
-    <row r="64" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A64" s="7"/>
-      <c r="B64" s="7"/>
-      <c r="C64" s="9"/>
-      <c r="D64" s="9"/>
+    <row r="64" spans="1:18" ht="94.5" x14ac:dyDescent="0.3">
+      <c r="A64" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="B64" s="36">
+        <v>5.5</v>
+      </c>
+      <c r="C64" s="35">
+        <v>43970</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>259</v>
+      </c>
       <c r="E64" s="10"/>
       <c r="F64" s="4"/>
       <c r="G64" s="4"/>
@@ -6456,7 +6470,7 @@
       </c>
       <c r="B72" s="14">
         <f>SUM(B60:B71)</f>
-        <v>12</v>
+        <v>17.5</v>
       </c>
       <c r="C72" s="15"/>
       <c r="D72" s="15"/>
@@ -7178,7 +7192,7 @@
       <c r="D107" s="28"/>
     </row>
   </sheetData>
-  <dataValidations xWindow="188" yWindow="522" count="2">
+  <dataValidations xWindow="186" yWindow="616" count="2">
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" prompt="Dépassement de durée - Le nombre de minutes introduites dépasse la durée d'une période. Veuillez confirmer ... Le calcul du total sera juste dans tous les cas._x000a_" sqref="B12 B34 B56 B72 B82 B94" xr:uid="{41F29EDA-D509-4469-8DFB-6A4CE4CEAE07}">
       <formula1>0</formula1>
       <formula2>DureePeriode-1</formula2>
@@ -9992,7 +10006,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F222774-5003-490D-9078-78D1F6F89A4A}">
   <dimension ref="A1:R100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>

--- a/LM_Journal_Travail_V1.0.xlsx
+++ b/LM_Journal_Travail_V1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\Love-Mirroring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9B4F4C5-C7B5-4923-A126-6CF4B2E668E3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A31B627B-1824-4361-8B35-2C07E47FC04C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="261">
   <si>
     <t>Jalon</t>
   </si>
@@ -870,6 +870,9 @@
   </si>
   <si>
     <t>Je peux me connecter avec Facebook et je peux récupérer les informations du compte que j'utilise mais il reste un problème au niveau des Claims que je dois résoudre après il sera possible d'utiliser l'application avec un compte Facebook. Il faut que je réfléchisse aussi à comment intégrer le profil avec l'authentification Facebook. J'ai aussi regardé dans la documentation comment récupérer différents informations qui pourrait être exploitées comme la récupération des photos ou d'autres informations.</t>
+  </si>
+  <si>
+    <t>Le login facebook est opérationnel et les fonctionnalités du site fonctionnent avec un compte facebook. Il faut que je fasse encore quelques changements pour l'affichage de certaines données mais on peut utiliser l'application via facebook. C'est intéressant de voir que le mot de passe n'est pas révélé par Identity dans les détails de l'utilisateur. Cela rajoute une sécurité et permet à l'utilisateur d'avoir confiance en notre application.</t>
   </si>
 </sst>
 </file>
@@ -4575,7 +4578,7 @@
   <dimension ref="A1:R107"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -6324,11 +6327,19 @@
       <c r="Q64" s="4"/>
       <c r="R64" s="4"/>
     </row>
-    <row r="65" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A65" s="7"/>
-      <c r="B65" s="7"/>
-      <c r="C65" s="9"/>
-      <c r="D65" s="9"/>
+    <row r="65" spans="1:18" ht="81" x14ac:dyDescent="0.3">
+      <c r="A65" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="B65" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="C65" s="35">
+        <v>43971</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>260</v>
+      </c>
       <c r="E65" s="10"/>
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
@@ -6470,7 +6481,7 @@
       </c>
       <c r="B72" s="14">
         <f>SUM(B60:B71)</f>
-        <v>17.5</v>
+        <v>21</v>
       </c>
       <c r="C72" s="15"/>
       <c r="D72" s="15"/>
@@ -7209,7 +7220,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716E2DDB-6361-470B-ACF3-8FDF9046203A}">
   <dimension ref="A1:R117"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
+    <sheetView topLeftCell="A59" workbookViewId="0">
       <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>

--- a/LM_Journal_Travail_V1.0.xlsx
+++ b/LM_Journal_Travail_V1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\Love-Mirroring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A31B627B-1824-4361-8B35-2C07E47FC04C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7555CD2-01A0-4146-8BE8-A9AAA91F9D69}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="262">
   <si>
     <t>Jalon</t>
   </si>
@@ -873,6 +873,9 @@
   </si>
   <si>
     <t>Le login facebook est opérationnel et les fonctionnalités du site fonctionnent avec un compte facebook. Il faut que je fasse encore quelques changements pour l'affichage de certaines données mais on peut utiliser l'application via facebook. C'est intéressant de voir que le mot de passe n'est pas révélé par Identity dans les détails de l'utilisateur. Cela rajoute une sécurité et permet à l'utilisateur d'avoir confiance en notre application.</t>
+  </si>
+  <si>
+    <t>J'ai modifié le fonctionnement de l'inscription en ajoutant un champ permettant de contrôler si l'utilisateur a bien complété son compte. Il faut que j'adapte encore quelques processus mais dans l'ensemble le login facebook fonctionne parfaitement.</t>
   </si>
 </sst>
 </file>
@@ -4577,8 +4580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DB7A04D-A66F-4A89-83F1-9B353075A776}">
   <dimension ref="A1:R107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -6355,11 +6358,19 @@
       <c r="Q65" s="4"/>
       <c r="R65" s="4"/>
     </row>
-    <row r="66" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A66" s="7"/>
-      <c r="B66" s="7"/>
-      <c r="C66" s="9"/>
-      <c r="D66" s="9"/>
+    <row r="66" spans="1:18" ht="54" x14ac:dyDescent="0.3">
+      <c r="A66" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="B66" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="C66" s="35">
+        <v>43972</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>261</v>
+      </c>
       <c r="E66" s="10"/>
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
@@ -6481,7 +6492,7 @@
       </c>
       <c r="B72" s="14">
         <f>SUM(B60:B71)</f>
-        <v>21</v>
+        <v>22.5</v>
       </c>
       <c r="C72" s="15"/>
       <c r="D72" s="15"/>

--- a/LM_Journal_Travail_V1.0.xlsx
+++ b/LM_Journal_Travail_V1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\Love-Mirroring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7555CD2-01A0-4146-8BE8-A9AAA91F9D69}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00A9E413-BC23-403A-98DC-28CD6D787C5B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="264">
   <si>
     <t>Jalon</t>
   </si>
@@ -876,6 +876,12 @@
   </si>
   <si>
     <t>J'ai modifié le fonctionnement de l'inscription en ajoutant un champ permettant de contrôler si l'utilisateur a bien complété son compte. Il faut que j'adapte encore quelques processus mais dans l'ensemble le login facebook fonctionne parfaitement.</t>
+  </si>
+  <si>
+    <t>Je me suis fait quelques réflexions sur la manière d'exploiter Spotify dans notre application. J'ai modifié certains de mes documents et je vais repenser la façon d'exploiter les données de Spotify.</t>
+  </si>
+  <si>
+    <t>J'ai adapté l'API pour qu'elle me retourne des titres en fonction d'un titre de musique que l'utilisateur a entré et j'ai fait une méthode qui permet de récupérer l'ensemble des sons qui ont déjà été utilisé par d'autres utilisateurs. Le but est de pouvoir soit trouver un son qui n'est pas listé et de l'ajouté à nos préférences ou d'utiliser ceux qui ont déjà été mentionné dans les préférences.</t>
   </si>
 </sst>
 </file>
@@ -1200,7 +1206,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1366,6 +1372,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4581,7 +4590,7 @@
   <dimension ref="A1:R107"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+      <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -6386,11 +6395,19 @@
       <c r="Q66" s="4"/>
       <c r="R66" s="4"/>
     </row>
-    <row r="67" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A67" s="25"/>
-      <c r="B67" s="25"/>
-      <c r="C67" s="26"/>
-      <c r="D67" s="26"/>
+    <row r="67" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A67" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B67" s="25">
+        <v>1</v>
+      </c>
+      <c r="C67" s="61">
+        <v>43974</v>
+      </c>
+      <c r="D67" s="26" t="s">
+        <v>262</v>
+      </c>
       <c r="E67" s="10"/>
       <c r="F67" s="4"/>
       <c r="G67" s="4"/>
@@ -6406,11 +6423,19 @@
       <c r="Q67" s="4"/>
       <c r="R67" s="4"/>
     </row>
-    <row r="68" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A68" s="25"/>
-      <c r="B68" s="25"/>
-      <c r="C68" s="26"/>
-      <c r="D68" s="26"/>
+    <row r="68" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
+      <c r="A68" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B68" s="25">
+        <v>3</v>
+      </c>
+      <c r="C68" s="61">
+        <v>43975</v>
+      </c>
+      <c r="D68" s="26" t="s">
+        <v>263</v>
+      </c>
       <c r="E68" s="10"/>
       <c r="F68" s="4"/>
       <c r="G68" s="4"/>
@@ -6492,7 +6517,7 @@
       </c>
       <c r="B72" s="14">
         <f>SUM(B60:B71)</f>
-        <v>22.5</v>
+        <v>26.5</v>
       </c>
       <c r="C72" s="15"/>
       <c r="D72" s="15"/>

--- a/LM_Journal_Travail_V1.0.xlsx
+++ b/LM_Journal_Travail_V1.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\Love-Mirroring\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programmes\VS2019\Projets\Projet Gerber\Love-Mirroring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00A9E413-BC23-403A-98DC-28CD6D787C5B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7A92A93-FAF4-43EA-ABB7-050330E5BFE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5190" yWindow="2805" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Equipe" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <definedName name="NBLecons">#REF!</definedName>
     <definedName name="TachesPlanifiees">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="268">
   <si>
     <t>Jalon</t>
   </si>
@@ -882,6 +882,20 @@
   </si>
   <si>
     <t>J'ai adapté l'API pour qu'elle me retourne des titres en fonction d'un titre de musique que l'utilisateur a entré et j'ai fait une méthode qui permet de récupérer l'ensemble des sons qui ont déjà été utilisé par d'autres utilisateurs. Le but est de pouvoir soit trouver un son qui n'est pas listé et de l'ajouté à nos préférences ou d'utiliser ceux qui ont déjà été mentionné dans les préférences.</t>
+  </si>
+  <si>
+    <t>22.05.2020</t>
+  </si>
+  <si>
+    <t>Création de la logique est de l'interdace graphique du chat</t>
+  </si>
+  <si>
+    <t>24.05.2020</t>
+  </si>
+  <si>
+    <t>Finalisation du chat
+Envoie des messages OK
+Affichage des messages OK</t>
   </si>
 </sst>
 </file>
@@ -4589,7 +4603,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DB7A04D-A66F-4A89-83F1-9B353075A776}">
   <dimension ref="A1:R107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
@@ -10053,8 +10067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F222774-5003-490D-9078-78D1F6F89A4A}">
   <dimension ref="A1:R100"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -11570,10 +11584,18 @@
       <c r="R57" s="4"/>
     </row>
     <row r="58" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A58" s="7"/>
-      <c r="B58" s="7"/>
-      <c r="C58" s="9"/>
-      <c r="D58" s="9"/>
+      <c r="A58" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="B58" s="7">
+        <v>4</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>265</v>
+      </c>
       <c r="E58" s="10"/>
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
@@ -11589,11 +11611,19 @@
       <c r="Q58" s="4"/>
       <c r="R58" s="4"/>
     </row>
-    <row r="59" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A59" s="7"/>
-      <c r="B59" s="7"/>
-      <c r="C59" s="9"/>
-      <c r="D59" s="9"/>
+    <row r="59" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A59" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="B59" s="7">
+        <v>8</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>267</v>
+      </c>
       <c r="E59" s="10"/>
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
@@ -11715,7 +11745,7 @@
       </c>
       <c r="B65" s="14">
         <f>SUM(B54:B64)</f>
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C65" s="15"/>
       <c r="D65" s="15"/>

--- a/LM_Journal_Travail_V1.0.xlsx
+++ b/LM_Journal_Travail_V1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programmes\VS2019\Projets\Projet Gerber\Love-Mirroring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7A92A93-FAF4-43EA-ABB7-050330E5BFE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC5E01A2-D730-47EF-823E-EB9B3CA594F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5190" yWindow="2805" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="271">
   <si>
     <t>Jalon</t>
   </si>
@@ -896,6 +896,15 @@
     <t>Finalisation du chat
 Envoie des messages OK
 Affichage des messages OK</t>
+  </si>
+  <si>
+    <t>25.05.2020</t>
+  </si>
+  <si>
+    <t>Résolution des problèmes de suppression de compte qui avait un like côté user et admin</t>
+  </si>
+  <si>
+    <t>User/Admin</t>
   </si>
 </sst>
 </file>
@@ -10067,8 +10076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F222774-5003-490D-9078-78D1F6F89A4A}">
   <dimension ref="A1:R100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -11639,11 +11648,19 @@
       <c r="Q59" s="4"/>
       <c r="R59" s="4"/>
     </row>
-    <row r="60" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A60" s="25"/>
-      <c r="B60" s="25"/>
-      <c r="C60" s="26"/>
-      <c r="D60" s="26"/>
+    <row r="60" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+      <c r="A60" s="25" t="s">
+        <v>270</v>
+      </c>
+      <c r="B60" s="25">
+        <v>5</v>
+      </c>
+      <c r="C60" s="26" t="s">
+        <v>268</v>
+      </c>
+      <c r="D60" s="26" t="s">
+        <v>269</v>
+      </c>
       <c r="E60" s="10"/>
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
@@ -11745,7 +11762,7 @@
       </c>
       <c r="B65" s="14">
         <f>SUM(B54:B64)</f>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C65" s="15"/>
       <c r="D65" s="15"/>

--- a/LM_Journal_Travail_V1.0.xlsx
+++ b/LM_Journal_Travail_V1.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programmes\VS2019\Projets\Projet Gerber\Love-Mirroring\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\Love-Mirroring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC5E01A2-D730-47EF-823E-EB9B3CA594F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8D9C3C2-822E-4910-BB93-13E5B1B335A5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5190" yWindow="2805" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Equipe" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <definedName name="NBLecons">#REF!</definedName>
     <definedName name="TachesPlanifiees">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="273">
   <si>
     <t>Jalon</t>
   </si>
@@ -905,6 +905,12 @@
   </si>
   <si>
     <t>User/Admin</t>
+  </si>
+  <si>
+    <t>Spotify + Trello</t>
+  </si>
+  <si>
+    <t>L'utilisatuer peut désormais enregistrer une musique dans ses préférences. Le prochain objectif c'est qu'il puisse la modifier et il faut encore l'intégrer à l'algorithme. Après discussion avec le mandant nous avons modifié notre façon de gérer le projet et j'ai adapté le trello selon la demande.</t>
   </si>
 </sst>
 </file>
@@ -4612,8 +4618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DB7A04D-A66F-4A89-83F1-9B353075A776}">
   <dimension ref="A1:R107"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -6474,11 +6480,19 @@
       <c r="Q68" s="4"/>
       <c r="R68" s="4"/>
     </row>
-    <row r="69" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A69" s="25"/>
-      <c r="B69" s="25"/>
-      <c r="C69" s="26"/>
-      <c r="D69" s="26"/>
+    <row r="69" spans="1:18" ht="54" x14ac:dyDescent="0.3">
+      <c r="A69" s="25" t="s">
+        <v>271</v>
+      </c>
+      <c r="B69" s="25">
+        <v>4</v>
+      </c>
+      <c r="C69" s="61">
+        <v>43976</v>
+      </c>
+      <c r="D69" s="26" t="s">
+        <v>272</v>
+      </c>
       <c r="E69" s="10"/>
       <c r="F69" s="4"/>
       <c r="G69" s="4"/>
@@ -6540,7 +6554,7 @@
       </c>
       <c r="B72" s="14">
         <f>SUM(B60:B71)</f>
-        <v>26.5</v>
+        <v>30.5</v>
       </c>
       <c r="C72" s="15"/>
       <c r="D72" s="15"/>
@@ -10076,7 +10090,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F222774-5003-490D-9078-78D1F6F89A4A}">
   <dimension ref="A1:R100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>

--- a/LM_Journal_Travail_V1.0.xlsx
+++ b/LM_Journal_Travail_V1.0.xlsx
@@ -5,18 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\Love-Mirroring\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paul\Documents\GitHub\Love-Mirroring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{188607D5-9CD6-4FBE-9D13-8FED3E4A444B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBA5C19A-794A-4D38-BDFD-879283793BA4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Equipe" sheetId="1" r:id="rId1"/>
     <sheet name="Sébastien Berger" sheetId="4" r:id="rId2"/>
     <sheet name="Tim Allemann" sheetId="8" r:id="rId3"/>
     <sheet name="Hans Morsch" sheetId="9" r:id="rId4"/>
+    <sheet name="Paul Gillet" sheetId="10" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_Toc493855087" localSheetId="3">'Hans Morsch'!$A$12</definedName>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="257">
   <si>
     <t>Jalon</t>
   </si>
@@ -834,6 +835,33 @@
   </si>
   <si>
     <t>J'ai implémenté une extension javascript pour le datepicker avec l'aide de Monsieur Allemann car il avait déjà utilisé ça dans un ancien projet. J'ai eu quelques soucis au niveau du format mais maintenant le plugin marche.</t>
+  </si>
+  <si>
+    <t>Reprise du projet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Présentation des choses qui ont été faites et assignation à des tâches.
+Explication de ce qui doit être fait.
+</t>
+  </si>
+  <si>
+    <t>Création avec l'api du CRUD pour les sexes côté admin.
+Affichage des Sexes, affichage des détails</t>
+  </si>
+  <si>
+    <t>Modification et suppression des Sexes</t>
+  </si>
+  <si>
+    <t>Modification interface administration - Finalisation CRUD Sexes</t>
+  </si>
+  <si>
+    <t>Modification interface administration -Commencement CRUD Sexes</t>
+  </si>
+  <si>
+    <t>Modification interface administration - CRUD Sexualités</t>
+  </si>
+  <si>
+    <t>25,05,20</t>
   </si>
 </sst>
 </file>
@@ -1546,20 +1574,20 @@
   </sheetPr>
   <dimension ref="A1:R1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="6.140625" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
-    <col min="4" max="4" width="78.42578125" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="6.109375" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" customWidth="1"/>
+    <col min="4" max="4" width="78.44140625" customWidth="1"/>
+    <col min="5" max="6" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1585,7 +1613,7 @@
       <c r="Q1" s="4"/>
       <c r="R1" s="4"/>
     </row>
-    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -1613,7 +1641,7 @@
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
     </row>
-    <row r="3" spans="1:18" ht="94.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
@@ -1641,7 +1669,7 @@
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
     </row>
-    <row r="4" spans="1:18" ht="54" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
@@ -1669,7 +1697,7 @@
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
     </row>
-    <row r="5" spans="1:18" ht="54" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
@@ -1697,7 +1725,7 @@
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
     </row>
-    <row r="6" spans="1:18" ht="81" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
         <v>12</v>
       </c>
@@ -1725,7 +1753,7 @@
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
     </row>
-    <row r="7" spans="1:18" ht="54" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>14</v>
       </c>
@@ -1753,7 +1781,7 @@
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
     </row>
-    <row r="8" spans="1:18" ht="94.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
         <v>16</v>
       </c>
@@ -1781,7 +1809,7 @@
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
     </row>
-    <row r="9" spans="1:18" ht="81" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
         <v>18</v>
       </c>
@@ -1809,7 +1837,7 @@
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
     </row>
-    <row r="10" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" ht="66" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
@@ -1837,7 +1865,7 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
     </row>
-    <row r="11" spans="1:18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="8"/>
@@ -1857,7 +1885,7 @@
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
     </row>
-    <row r="12" spans="1:18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="14" t="s">
         <v>22</v>
       </c>
@@ -1882,7 +1910,7 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
     </row>
-    <row r="13" spans="1:18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="16"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
@@ -1902,7 +1930,7 @@
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
     </row>
-    <row r="14" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -1926,7 +1954,7 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
     </row>
-    <row r="15" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>2</v>
       </c>
@@ -1952,7 +1980,7 @@
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
     </row>
-    <row r="16" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A16" s="37" t="s">
         <v>95</v>
       </c>
@@ -1980,7 +2008,7 @@
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
     </row>
-    <row r="17" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>99</v>
       </c>
@@ -2008,7 +2036,7 @@
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
     </row>
-    <row r="18" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="9"/>
@@ -2028,7 +2056,7 @@
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
     </row>
-    <row r="19" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="9"/>
@@ -2048,7 +2076,7 @@
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
     </row>
-    <row r="20" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="9"/>
@@ -4538,18 +4566,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DB7A04D-A66F-4A89-83F1-9B353075A776}">
   <dimension ref="A1:R107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+    <sheetView topLeftCell="A58" workbookViewId="0">
       <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="78.42578125" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="78.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4575,7 +4603,7 @@
       <c r="Q1" s="4"/>
       <c r="R1" s="4"/>
     </row>
-    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -4603,7 +4631,7 @@
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
     </row>
-    <row r="3" spans="1:18" ht="94.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
@@ -4631,7 +4659,7 @@
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
     </row>
-    <row r="4" spans="1:18" ht="54" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
@@ -4659,7 +4687,7 @@
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
     </row>
-    <row r="5" spans="1:18" ht="54" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
@@ -4687,7 +4715,7 @@
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
     </row>
-    <row r="6" spans="1:18" ht="81" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
         <v>12</v>
       </c>
@@ -4715,7 +4743,7 @@
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
     </row>
-    <row r="7" spans="1:18" ht="54" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>14</v>
       </c>
@@ -4743,7 +4771,7 @@
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
     </row>
-    <row r="8" spans="1:18" ht="81" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
         <v>16</v>
       </c>
@@ -4771,7 +4799,7 @@
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
     </row>
-    <row r="9" spans="1:18" ht="81" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
         <v>18</v>
       </c>
@@ -4799,7 +4827,7 @@
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
     </row>
-    <row r="10" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
@@ -4827,7 +4855,7 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
     </row>
-    <row r="11" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>34</v>
       </c>
@@ -4855,7 +4883,7 @@
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
     </row>
-    <row r="12" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="14" t="s">
         <v>22</v>
       </c>
@@ -4880,7 +4908,7 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
     </row>
-    <row r="13" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="16"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
@@ -4900,7 +4928,7 @@
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
     </row>
-    <row r="14" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -4924,7 +4952,7 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
     </row>
-    <row r="15" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>2</v>
       </c>
@@ -4950,7 +4978,7 @@
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
     </row>
-    <row r="16" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
         <v>36</v>
       </c>
@@ -4978,7 +5006,7 @@
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
     </row>
-    <row r="17" spans="1:18" ht="81" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>38</v>
       </c>
@@ -5006,7 +5034,7 @@
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
     </row>
-    <row r="18" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>42</v>
       </c>
@@ -5034,7 +5062,7 @@
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
     </row>
-    <row r="19" spans="1:18" ht="81" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>44</v>
       </c>
@@ -5062,7 +5090,7 @@
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
     </row>
-    <row r="20" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>46</v>
       </c>
@@ -5090,7 +5118,7 @@
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
     </row>
-    <row r="21" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" ht="66" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>48</v>
       </c>
@@ -5118,7 +5146,7 @@
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
     </row>
-    <row r="22" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>50</v>
       </c>
@@ -5146,7 +5174,7 @@
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
     </row>
-    <row r="23" spans="1:18" ht="121.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>73</v>
       </c>
@@ -5174,7 +5202,7 @@
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
     </row>
-    <row r="24" spans="1:18" ht="54" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>52</v>
       </c>
@@ -5202,7 +5230,7 @@
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
     </row>
-    <row r="25" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" ht="66" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>62</v>
       </c>
@@ -5230,7 +5258,7 @@
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
     </row>
-    <row r="26" spans="1:18" ht="54" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>63</v>
       </c>
@@ -5258,7 +5286,7 @@
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
     </row>
-    <row r="27" spans="1:18" ht="81" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>65</v>
       </c>
@@ -5286,7 +5314,7 @@
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
     </row>
-    <row r="28" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>69</v>
       </c>
@@ -5314,7 +5342,7 @@
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
     </row>
-    <row r="29" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>71</v>
       </c>
@@ -5342,7 +5370,7 @@
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
     </row>
-    <row r="30" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>88</v>
       </c>
@@ -5370,7 +5398,7 @@
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
     </row>
-    <row r="31" spans="1:18" ht="54" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>90</v>
       </c>
@@ -5398,7 +5426,7 @@
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
     </row>
-    <row r="32" spans="1:18" ht="54" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" ht="66" x14ac:dyDescent="0.3">
       <c r="A32" s="38" t="s">
         <v>97</v>
       </c>
@@ -5426,7 +5454,7 @@
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
     </row>
-    <row r="33" spans="1:18" ht="54.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:18" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="38" t="s">
         <v>142</v>
       </c>
@@ -5454,7 +5482,7 @@
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
     </row>
-    <row r="34" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="14" t="s">
         <v>22</v>
       </c>
@@ -5479,7 +5507,7 @@
       <c r="Q34" s="4"/>
       <c r="R34" s="4"/>
     </row>
-    <row r="35" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="16"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -5499,7 +5527,7 @@
       <c r="Q35" s="4"/>
       <c r="R35" s="4"/>
     </row>
-    <row r="36" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>0</v>
       </c>
@@ -5523,7 +5551,7 @@
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
     </row>
-    <row r="37" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
         <v>2</v>
       </c>
@@ -5549,7 +5577,7 @@
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
     </row>
-    <row r="38" spans="1:18" ht="54" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
         <v>148</v>
       </c>
@@ -5577,7 +5605,7 @@
       <c r="Q38" s="4"/>
       <c r="R38" s="4"/>
     </row>
-    <row r="39" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>150</v>
       </c>
@@ -5605,7 +5633,7 @@
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
     </row>
-    <row r="40" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
         <v>152</v>
       </c>
@@ -5633,7 +5661,7 @@
       <c r="Q40" s="4"/>
       <c r="R40" s="4"/>
     </row>
-    <row r="41" spans="1:18" ht="54" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
         <v>154</v>
       </c>
@@ -5661,7 +5689,7 @@
       <c r="Q41" s="4"/>
       <c r="R41" s="4"/>
     </row>
-    <row r="42" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
         <v>156</v>
       </c>
@@ -5689,7 +5717,7 @@
       <c r="Q42" s="4"/>
       <c r="R42" s="4"/>
     </row>
-    <row r="43" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
         <v>158</v>
       </c>
@@ -5717,7 +5745,7 @@
       <c r="Q43" s="4"/>
       <c r="R43" s="4"/>
     </row>
-    <row r="44" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
         <v>165</v>
       </c>
@@ -5745,7 +5773,7 @@
       <c r="Q44" s="4"/>
       <c r="R44" s="4"/>
     </row>
-    <row r="45" spans="1:18" ht="81.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:18" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="23" t="s">
         <v>167</v>
       </c>
@@ -5773,7 +5801,7 @@
       <c r="Q45" s="4"/>
       <c r="R45" s="4"/>
     </row>
-    <row r="46" spans="1:18" ht="108.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:18" ht="106.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="23" t="s">
         <v>169</v>
       </c>
@@ -5801,7 +5829,7 @@
       <c r="Q46" s="4"/>
       <c r="R46" s="4"/>
     </row>
-    <row r="47" spans="1:18" ht="41.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:18" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="42" t="s">
         <v>171</v>
       </c>
@@ -5829,7 +5857,7 @@
       <c r="Q47" s="4"/>
       <c r="R47" s="4"/>
     </row>
-    <row r="48" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="42" t="s">
         <v>173</v>
       </c>
@@ -5857,7 +5885,7 @@
       <c r="Q48" s="4"/>
       <c r="R48" s="4"/>
     </row>
-    <row r="49" spans="1:18" ht="41.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:18" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="42" t="s">
         <v>181</v>
       </c>
@@ -5885,7 +5913,7 @@
       <c r="Q49" s="4"/>
       <c r="R49" s="4"/>
     </row>
-    <row r="50" spans="1:18" ht="81.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:18" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="42" t="s">
         <v>183</v>
       </c>
@@ -5913,7 +5941,7 @@
       <c r="Q50" s="4"/>
       <c r="R50" s="4"/>
     </row>
-    <row r="51" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="42" t="s">
         <v>189</v>
       </c>
@@ -5941,7 +5969,7 @@
       <c r="Q51" s="4"/>
       <c r="R51" s="4"/>
     </row>
-    <row r="52" spans="1:18" ht="68.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:18" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="42" t="s">
         <v>191</v>
       </c>
@@ -5969,7 +5997,7 @@
       <c r="Q52" s="4"/>
       <c r="R52" s="4"/>
     </row>
-    <row r="53" spans="1:18" ht="81.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:18" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="42" t="s">
         <v>195</v>
       </c>
@@ -5997,7 +6025,7 @@
       <c r="Q53" s="4"/>
       <c r="R53" s="4"/>
     </row>
-    <row r="54" spans="1:18" ht="81.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:18" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="42" t="s">
         <v>197</v>
       </c>
@@ -6025,7 +6053,7 @@
       <c r="Q54" s="4"/>
       <c r="R54" s="4"/>
     </row>
-    <row r="55" spans="1:18" ht="54.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:18" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="42" t="s">
         <v>243</v>
       </c>
@@ -6053,7 +6081,7 @@
       <c r="Q55" s="4"/>
       <c r="R55" s="4"/>
     </row>
-    <row r="56" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="14" t="s">
         <v>22</v>
       </c>
@@ -6078,7 +6106,7 @@
       <c r="Q56" s="4"/>
       <c r="R56" s="4"/>
     </row>
-    <row r="57" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="16"/>
       <c r="B57" s="16"/>
       <c r="C57" s="16"/>
@@ -6098,7 +6126,7 @@
       <c r="Q57" s="4"/>
       <c r="R57" s="4"/>
     </row>
-    <row r="58" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>0</v>
       </c>
@@ -6122,7 +6150,7 @@
       <c r="Q58" s="4"/>
       <c r="R58" s="4"/>
     </row>
-    <row r="59" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="5" t="s">
         <v>2</v>
       </c>
@@ -6148,7 +6176,7 @@
       <c r="Q59" s="4"/>
       <c r="R59" s="4"/>
     </row>
-    <row r="60" spans="1:18" ht="81" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:18" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A60" s="19" t="s">
         <v>245</v>
       </c>
@@ -6176,7 +6204,7 @@
       <c r="Q60" s="4"/>
       <c r="R60" s="4"/>
     </row>
-    <row r="61" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A61" s="58" t="s">
         <v>245</v>
       </c>
@@ -6204,7 +6232,7 @@
       <c r="Q61" s="4"/>
       <c r="R61" s="4"/>
     </row>
-    <row r="62" spans="1:18" ht="54" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A62" s="7" t="s">
         <v>245</v>
       </c>
@@ -6232,7 +6260,7 @@
       <c r="Q62" s="4"/>
       <c r="R62" s="4"/>
     </row>
-    <row r="63" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A63" s="7"/>
       <c r="B63" s="7"/>
       <c r="C63" s="9"/>
@@ -6252,7 +6280,7 @@
       <c r="Q63" s="4"/>
       <c r="R63" s="4"/>
     </row>
-    <row r="64" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A64" s="7"/>
       <c r="B64" s="7"/>
       <c r="C64" s="9"/>
@@ -6272,7 +6300,7 @@
       <c r="Q64" s="4"/>
       <c r="R64" s="4"/>
     </row>
-    <row r="65" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A65" s="7"/>
       <c r="B65" s="7"/>
       <c r="C65" s="9"/>
@@ -6292,7 +6320,7 @@
       <c r="Q65" s="4"/>
       <c r="R65" s="4"/>
     </row>
-    <row r="66" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A66" s="7"/>
       <c r="B66" s="7"/>
       <c r="C66" s="9"/>
@@ -6312,7 +6340,7 @@
       <c r="Q66" s="4"/>
       <c r="R66" s="4"/>
     </row>
-    <row r="67" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A67" s="25"/>
       <c r="B67" s="25"/>
       <c r="C67" s="26"/>
@@ -6332,7 +6360,7 @@
       <c r="Q67" s="4"/>
       <c r="R67" s="4"/>
     </row>
-    <row r="68" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A68" s="25"/>
       <c r="B68" s="25"/>
       <c r="C68" s="26"/>
@@ -6352,7 +6380,7 @@
       <c r="Q68" s="4"/>
       <c r="R68" s="4"/>
     </row>
-    <row r="69" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A69" s="25"/>
       <c r="B69" s="25"/>
       <c r="C69" s="26"/>
@@ -6372,7 +6400,7 @@
       <c r="Q69" s="4"/>
       <c r="R69" s="4"/>
     </row>
-    <row r="70" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A70" s="25"/>
       <c r="B70" s="25"/>
       <c r="C70" s="26"/>
@@ -6392,7 +6420,7 @@
       <c r="Q70" s="4"/>
       <c r="R70" s="4"/>
     </row>
-    <row r="71" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="23"/>
       <c r="B71" s="23"/>
       <c r="C71" s="24"/>
@@ -6412,7 +6440,7 @@
       <c r="Q71" s="4"/>
       <c r="R71" s="4"/>
     </row>
-    <row r="72" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="14" t="s">
         <v>22</v>
       </c>
@@ -6437,7 +6465,7 @@
       <c r="Q72" s="4"/>
       <c r="R72" s="4"/>
     </row>
-    <row r="73" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="16"/>
       <c r="B73" s="16"/>
       <c r="C73" s="16"/>
@@ -6457,7 +6485,7 @@
       <c r="Q73" s="4"/>
       <c r="R73" s="4"/>
     </row>
-    <row r="74" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>0</v>
       </c>
@@ -6481,7 +6509,7 @@
       <c r="Q74" s="4"/>
       <c r="R74" s="4"/>
     </row>
-    <row r="75" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="5" t="s">
         <v>2</v>
       </c>
@@ -6507,7 +6535,7 @@
       <c r="Q75" s="4"/>
       <c r="R75" s="4"/>
     </row>
-    <row r="76" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A76" s="19"/>
       <c r="B76" s="19"/>
       <c r="C76" s="20"/>
@@ -6527,7 +6555,7 @@
       <c r="Q76" s="4"/>
       <c r="R76" s="4"/>
     </row>
-    <row r="77" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A77" s="7"/>
       <c r="B77" s="7"/>
       <c r="C77" s="9"/>
@@ -6547,7 +6575,7 @@
       <c r="Q77" s="4"/>
       <c r="R77" s="4"/>
     </row>
-    <row r="78" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A78" s="7"/>
       <c r="B78" s="7"/>
       <c r="C78" s="9"/>
@@ -6567,7 +6595,7 @@
       <c r="Q78" s="4"/>
       <c r="R78" s="4"/>
     </row>
-    <row r="79" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A79" s="7"/>
       <c r="B79" s="7"/>
       <c r="C79" s="9"/>
@@ -6587,7 +6615,7 @@
       <c r="Q79" s="4"/>
       <c r="R79" s="4"/>
     </row>
-    <row r="80" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A80" s="7"/>
       <c r="B80" s="7"/>
       <c r="C80" s="9"/>
@@ -6607,7 +6635,7 @@
       <c r="Q80" s="4"/>
       <c r="R80" s="4"/>
     </row>
-    <row r="81" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="23"/>
       <c r="B81" s="23"/>
       <c r="C81" s="24"/>
@@ -6627,7 +6655,7 @@
       <c r="Q81" s="4"/>
       <c r="R81" s="4"/>
     </row>
-    <row r="82" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="14" t="s">
         <v>22</v>
       </c>
@@ -6652,7 +6680,7 @@
       <c r="Q82" s="4"/>
       <c r="R82" s="4"/>
     </row>
-    <row r="83" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="16"/>
       <c r="B83" s="16"/>
       <c r="C83" s="16"/>
@@ -6672,7 +6700,7 @@
       <c r="Q83" s="4"/>
       <c r="R83" s="4"/>
     </row>
-    <row r="84" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
         <v>0</v>
       </c>
@@ -6696,7 +6724,7 @@
       <c r="Q84" s="4"/>
       <c r="R84" s="4"/>
     </row>
-    <row r="85" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="5" t="s">
         <v>2</v>
       </c>
@@ -6722,7 +6750,7 @@
       <c r="Q85" s="4"/>
       <c r="R85" s="4"/>
     </row>
-    <row r="86" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A86" s="19"/>
       <c r="B86" s="19"/>
       <c r="C86" s="20"/>
@@ -6742,7 +6770,7 @@
       <c r="Q86" s="4"/>
       <c r="R86" s="4"/>
     </row>
-    <row r="87" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A87" s="7"/>
       <c r="B87" s="7"/>
       <c r="C87" s="9"/>
@@ -6762,7 +6790,7 @@
       <c r="Q87" s="4"/>
       <c r="R87" s="4"/>
     </row>
-    <row r="88" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A88" s="7"/>
       <c r="B88" s="7"/>
       <c r="C88" s="9"/>
@@ -6782,7 +6810,7 @@
       <c r="Q88" s="4"/>
       <c r="R88" s="4"/>
     </row>
-    <row r="89" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A89" s="7"/>
       <c r="B89" s="7"/>
       <c r="C89" s="9"/>
@@ -6802,7 +6830,7 @@
       <c r="Q89" s="4"/>
       <c r="R89" s="4"/>
     </row>
-    <row r="90" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A90" s="7"/>
       <c r="B90" s="7"/>
       <c r="C90" s="9"/>
@@ -6822,7 +6850,7 @@
       <c r="Q90" s="4"/>
       <c r="R90" s="4"/>
     </row>
-    <row r="91" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A91" s="7"/>
       <c r="B91" s="7"/>
       <c r="C91" s="9"/>
@@ -6842,7 +6870,7 @@
       <c r="Q91" s="4"/>
       <c r="R91" s="4"/>
     </row>
-    <row r="92" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A92" s="7"/>
       <c r="B92" s="7"/>
       <c r="C92" s="9"/>
@@ -6862,7 +6890,7 @@
       <c r="Q92" s="4"/>
       <c r="R92" s="4"/>
     </row>
-    <row r="93" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="23"/>
       <c r="B93" s="23"/>
       <c r="C93" s="24"/>
@@ -6882,7 +6910,7 @@
       <c r="Q93" s="4"/>
       <c r="R93" s="4"/>
     </row>
-    <row r="94" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="14" t="s">
         <v>22</v>
       </c>
@@ -6907,7 +6935,7 @@
       <c r="Q94" s="4"/>
       <c r="R94" s="4"/>
     </row>
-    <row r="95" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A95" s="16"/>
       <c r="B95" s="16"/>
       <c r="C95" s="16"/>
@@ -6927,7 +6955,7 @@
       <c r="Q95" s="4"/>
       <c r="R95" s="4"/>
     </row>
-    <row r="96" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A96" s="27"/>
       <c r="B96" s="27"/>
       <c r="C96" s="27"/>
@@ -6947,7 +6975,7 @@
       <c r="Q96" s="4"/>
       <c r="R96" s="4"/>
     </row>
-    <row r="97" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A97" s="27"/>
       <c r="B97" s="27"/>
       <c r="C97" s="27"/>
@@ -6967,7 +6995,7 @@
       <c r="Q97" s="4"/>
       <c r="R97" s="4"/>
     </row>
-    <row r="98" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A98" s="27"/>
       <c r="B98" s="27"/>
       <c r="C98" s="27"/>
@@ -6987,7 +7015,7 @@
       <c r="Q98" s="4"/>
       <c r="R98" s="4"/>
     </row>
-    <row r="99" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A99" s="27"/>
       <c r="B99" s="27"/>
       <c r="C99" s="27"/>
@@ -7007,7 +7035,7 @@
       <c r="Q99" s="4"/>
       <c r="R99" s="4"/>
     </row>
-    <row r="100" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A100" s="27"/>
       <c r="B100" s="27"/>
       <c r="C100" s="27"/>
@@ -7027,7 +7055,7 @@
       <c r="Q100" s="4"/>
       <c r="R100" s="4"/>
     </row>
-    <row r="101" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A101" s="27"/>
       <c r="B101" s="27"/>
       <c r="C101" s="27"/>
@@ -7047,7 +7075,7 @@
       <c r="Q101" s="4"/>
       <c r="R101" s="4"/>
     </row>
-    <row r="102" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A102" s="27"/>
       <c r="B102" s="27"/>
       <c r="C102" s="27"/>
@@ -7067,7 +7095,7 @@
       <c r="Q102" s="4"/>
       <c r="R102" s="4"/>
     </row>
-    <row r="103" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A103" s="27"/>
       <c r="B103" s="27"/>
       <c r="C103" s="27"/>
@@ -7087,7 +7115,7 @@
       <c r="Q103" s="4"/>
       <c r="R103" s="4"/>
     </row>
-    <row r="104" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A104" s="27"/>
       <c r="B104" s="27"/>
       <c r="C104" s="27"/>
@@ -7107,7 +7135,7 @@
       <c r="Q104" s="4"/>
       <c r="R104" s="4"/>
     </row>
-    <row r="105" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A105" s="27"/>
       <c r="B105" s="27"/>
       <c r="C105" s="27"/>
@@ -7127,13 +7155,13 @@
       <c r="Q105" s="4"/>
       <c r="R105" s="4"/>
     </row>
-    <row r="106" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A106" s="27"/>
       <c r="B106" s="27"/>
       <c r="C106" s="27"/>
       <c r="D106" s="27"/>
     </row>
-    <row r="107" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A107" s="28"/>
       <c r="B107" s="28"/>
       <c r="C107" s="28"/>
@@ -7157,18 +7185,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716E2DDB-6361-470B-ACF3-8FDF9046203A}">
   <dimension ref="A1:R117"/>
   <sheetViews>
-    <sheetView topLeftCell="A59" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="78.42578125" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="78.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7194,7 +7222,7 @@
       <c r="Q1" s="4"/>
       <c r="R1" s="4"/>
     </row>
-    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -7222,7 +7250,7 @@
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
     </row>
-    <row r="3" spans="1:18" ht="94.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
@@ -7250,7 +7278,7 @@
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
     </row>
-    <row r="4" spans="1:18" ht="54" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
@@ -7278,7 +7306,7 @@
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
     </row>
-    <row r="5" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="66" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
@@ -7306,7 +7334,7 @@
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
     </row>
-    <row r="6" spans="1:18" ht="81" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
         <v>12</v>
       </c>
@@ -7334,7 +7362,7 @@
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
     </row>
-    <row r="7" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="66" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>14</v>
       </c>
@@ -7362,7 +7390,7 @@
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
     </row>
-    <row r="8" spans="1:18" ht="108" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
         <v>16</v>
       </c>
@@ -7390,7 +7418,7 @@
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
     </row>
-    <row r="9" spans="1:18" ht="94.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
         <v>18</v>
       </c>
@@ -7418,7 +7446,7 @@
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
     </row>
-    <row r="10" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" ht="66" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
@@ -7446,7 +7474,7 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
     </row>
-    <row r="11" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>23</v>
       </c>
@@ -7472,7 +7500,7 @@
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
     </row>
-    <row r="12" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>25</v>
       </c>
@@ -7498,7 +7526,7 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
     </row>
-    <row r="13" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
         <v>22</v>
       </c>
@@ -7523,7 +7551,7 @@
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
     </row>
-    <row r="14" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A14" s="16"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
@@ -7543,7 +7571,7 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
     </row>
-    <row r="15" spans="1:18" ht="18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -7593,7 +7621,7 @@
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
     </row>
-    <row r="17" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
         <v>103</v>
       </c>
@@ -7619,7 +7647,7 @@
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
     </row>
-    <row r="18" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>105</v>
       </c>
@@ -7643,7 +7671,7 @@
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
     </row>
-    <row r="19" spans="1:18" ht="54" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>106</v>
       </c>
@@ -7669,7 +7697,7 @@
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
     </row>
-    <row r="20" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>108</v>
       </c>
@@ -7695,7 +7723,7 @@
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
     </row>
-    <row r="21" spans="1:18" ht="54" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>110</v>
       </c>
@@ -7721,7 +7749,7 @@
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
     </row>
-    <row r="22" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" ht="66" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>112</v>
       </c>
@@ -7747,7 +7775,7 @@
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
     </row>
-    <row r="23" spans="1:18" ht="81" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>114</v>
       </c>
@@ -7773,7 +7801,7 @@
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
     </row>
-    <row r="24" spans="1:18" ht="108" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>116</v>
       </c>
@@ -7799,7 +7827,7 @@
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
     </row>
-    <row r="25" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>118</v>
       </c>
@@ -7825,7 +7853,7 @@
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
     </row>
-    <row r="26" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>120</v>
       </c>
@@ -7851,7 +7879,7 @@
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
     </row>
-    <row r="27" spans="1:18" ht="121.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>122</v>
       </c>
@@ -7877,7 +7905,7 @@
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
     </row>
-    <row r="28" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>124</v>
       </c>
@@ -7903,7 +7931,7 @@
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
     </row>
-    <row r="29" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>126</v>
       </c>
@@ -7929,7 +7957,7 @@
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
     </row>
-    <row r="30" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>124</v>
       </c>
@@ -7955,7 +7983,7 @@
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
     </row>
-    <row r="31" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>129</v>
       </c>
@@ -7981,7 +8009,7 @@
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
     </row>
-    <row r="32" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>131</v>
       </c>
@@ -8007,7 +8035,7 @@
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
     </row>
-    <row r="33" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>133</v>
       </c>
@@ -8033,7 +8061,7 @@
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
     </row>
-    <row r="34" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>134</v>
       </c>
@@ -8059,7 +8087,7 @@
       <c r="Q34" s="4"/>
       <c r="R34" s="4"/>
     </row>
-    <row r="35" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>136</v>
       </c>
@@ -8085,7 +8113,7 @@
       <c r="Q35" s="4"/>
       <c r="R35" s="4"/>
     </row>
-    <row r="36" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>138</v>
       </c>
@@ -8111,7 +8139,7 @@
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
     </row>
-    <row r="37" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
         <v>140</v>
       </c>
@@ -8137,7 +8165,7 @@
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
     </row>
-    <row r="38" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="9"/>
@@ -8157,7 +8185,7 @@
       <c r="Q38" s="4"/>
       <c r="R38" s="4"/>
     </row>
-    <row r="39" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="14" t="s">
         <v>22</v>
       </c>
@@ -8182,7 +8210,7 @@
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
     </row>
-    <row r="40" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A40" s="16"/>
       <c r="B40" s="16"/>
       <c r="C40" s="16"/>
@@ -8202,7 +8230,7 @@
       <c r="Q40" s="4"/>
       <c r="R40" s="4"/>
     </row>
-    <row r="41" spans="1:18" ht="18" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>0</v>
       </c>
@@ -8226,7 +8254,7 @@
       <c r="Q41" s="4"/>
       <c r="R41" s="4"/>
     </row>
-    <row r="42" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
         <v>2</v>
       </c>
@@ -8252,7 +8280,7 @@
       <c r="Q42" s="4"/>
       <c r="R42" s="4"/>
     </row>
-    <row r="43" spans="1:18" s="50" customFormat="1" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18" s="50" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A43" s="33" t="s">
         <v>202</v>
       </c>
@@ -8276,7 +8304,7 @@
       <c r="Q43" s="49"/>
       <c r="R43" s="49"/>
     </row>
-    <row r="44" spans="1:18" s="50" customFormat="1" ht="27" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" s="50" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A44" s="33" t="s">
         <v>203</v>
       </c>
@@ -8302,7 +8330,7 @@
       <c r="Q44" s="49"/>
       <c r="R44" s="49"/>
     </row>
-    <row r="45" spans="1:18" s="50" customFormat="1" ht="27" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:18" s="50" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A45" s="33" t="s">
         <v>205</v>
       </c>
@@ -8326,7 +8354,7 @@
       <c r="Q45" s="49"/>
       <c r="R45" s="49"/>
     </row>
-    <row r="46" spans="1:18" s="50" customFormat="1" ht="27" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:18" s="50" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A46" s="33" t="s">
         <v>206</v>
       </c>
@@ -8350,7 +8378,7 @@
       <c r="Q46" s="49"/>
       <c r="R46" s="49"/>
     </row>
-    <row r="47" spans="1:18" s="50" customFormat="1" ht="27" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:18" s="50" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A47" s="33" t="s">
         <v>207</v>
       </c>
@@ -8374,7 +8402,7 @@
       <c r="Q47" s="49"/>
       <c r="R47" s="49"/>
     </row>
-    <row r="48" spans="1:18" s="50" customFormat="1" ht="54" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:18" s="50" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A48" s="33" t="s">
         <v>208</v>
       </c>
@@ -8400,7 +8428,7 @@
       <c r="Q48" s="49"/>
       <c r="R48" s="49"/>
     </row>
-    <row r="49" spans="1:18" s="50" customFormat="1" ht="27" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:18" s="50" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A49" s="33" t="s">
         <v>210</v>
       </c>
@@ -8426,7 +8454,7 @@
       <c r="Q49" s="49"/>
       <c r="R49" s="49"/>
     </row>
-    <row r="50" spans="1:18" s="50" customFormat="1" ht="94.5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:18" s="50" customFormat="1" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A50" s="53" t="s">
         <v>212</v>
       </c>
@@ -8452,7 +8480,7 @@
       <c r="Q50" s="49"/>
       <c r="R50" s="49"/>
     </row>
-    <row r="51" spans="1:18" s="50" customFormat="1" ht="54" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:18" s="50" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A51" s="53" t="s">
         <v>214</v>
       </c>
@@ -8478,7 +8506,7 @@
       <c r="Q51" s="49"/>
       <c r="R51" s="49"/>
     </row>
-    <row r="52" spans="1:18" s="50" customFormat="1" ht="27" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:18" s="50" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A52" s="53" t="s">
         <v>216</v>
       </c>
@@ -8504,7 +8532,7 @@
       <c r="Q52" s="49"/>
       <c r="R52" s="49"/>
     </row>
-    <row r="53" spans="1:18" s="50" customFormat="1" ht="67.5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:18" s="50" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A53" s="53" t="s">
         <v>218</v>
       </c>
@@ -8530,7 +8558,7 @@
       <c r="Q53" s="49"/>
       <c r="R53" s="49"/>
     </row>
-    <row r="54" spans="1:18" s="50" customFormat="1" ht="54" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:18" s="50" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A54" s="53" t="s">
         <v>220</v>
       </c>
@@ -8556,7 +8584,7 @@
       <c r="Q54" s="49"/>
       <c r="R54" s="49"/>
     </row>
-    <row r="55" spans="1:18" s="50" customFormat="1" ht="67.5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:18" s="50" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A55" s="53" t="s">
         <v>222</v>
       </c>
@@ -8582,7 +8610,7 @@
       <c r="Q55" s="49"/>
       <c r="R55" s="49"/>
     </row>
-    <row r="56" spans="1:18" s="50" customFormat="1" ht="27" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:18" s="50" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A56" s="53" t="s">
         <v>224</v>
       </c>
@@ -8608,7 +8636,7 @@
       <c r="Q56" s="49"/>
       <c r="R56" s="49"/>
     </row>
-    <row r="57" spans="1:18" s="50" customFormat="1" ht="27" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:18" s="50" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A57" s="53" t="s">
         <v>224</v>
       </c>
@@ -8634,7 +8662,7 @@
       <c r="Q57" s="49"/>
       <c r="R57" s="49"/>
     </row>
-    <row r="58" spans="1:18" s="50" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:18" s="50" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A58" s="53" t="s">
         <v>224</v>
       </c>
@@ -8660,7 +8688,7 @@
       <c r="Q58" s="49"/>
       <c r="R58" s="49"/>
     </row>
-    <row r="59" spans="1:18" s="50" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:18" s="50" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A59" s="53" t="s">
         <v>228</v>
       </c>
@@ -8686,7 +8714,7 @@
       <c r="Q59" s="49"/>
       <c r="R59" s="49"/>
     </row>
-    <row r="60" spans="1:18" s="50" customFormat="1" ht="81" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:18" s="50" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A60" s="53" t="s">
         <v>230</v>
       </c>
@@ -8712,7 +8740,7 @@
       <c r="Q60" s="49"/>
       <c r="R60" s="49"/>
     </row>
-    <row r="61" spans="1:18" s="50" customFormat="1" ht="27" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:18" s="50" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A61" s="53" t="s">
         <v>228</v>
       </c>
@@ -8738,7 +8766,7 @@
       <c r="Q61" s="49"/>
       <c r="R61" s="49"/>
     </row>
-    <row r="62" spans="1:18" s="50" customFormat="1" ht="27" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:18" s="50" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A62" s="53" t="s">
         <v>233</v>
       </c>
@@ -8764,7 +8792,7 @@
       <c r="Q62" s="49"/>
       <c r="R62" s="49"/>
     </row>
-    <row r="63" spans="1:18" s="50" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:18" s="50" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A63" s="53" t="s">
         <v>235</v>
       </c>
@@ -8790,7 +8818,7 @@
       <c r="Q63" s="49"/>
       <c r="R63" s="49"/>
     </row>
-    <row r="64" spans="1:18" s="50" customFormat="1" ht="27" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:18" s="50" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A64" s="53" t="s">
         <v>237</v>
       </c>
@@ -8816,7 +8844,7 @@
       <c r="Q64" s="49"/>
       <c r="R64" s="49"/>
     </row>
-    <row r="65" spans="1:18" s="50" customFormat="1" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:18" s="50" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="55" t="s">
         <v>239</v>
       </c>
@@ -8842,7 +8870,7 @@
       <c r="Q65" s="49"/>
       <c r="R65" s="49"/>
     </row>
-    <row r="66" spans="1:18" s="50" customFormat="1" ht="41.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:18" s="50" customFormat="1" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="53" t="s">
         <v>241</v>
       </c>
@@ -8866,7 +8894,7 @@
       <c r="Q66" s="49"/>
       <c r="R66" s="49"/>
     </row>
-    <row r="67" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="14" t="s">
         <v>22</v>
       </c>
@@ -8891,7 +8919,7 @@
       <c r="Q67" s="4"/>
       <c r="R67" s="4"/>
     </row>
-    <row r="68" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A68" s="16"/>
       <c r="B68" s="16"/>
       <c r="C68" s="16"/>
@@ -8911,7 +8939,7 @@
       <c r="Q68" s="4"/>
       <c r="R68" s="4"/>
     </row>
-    <row r="69" spans="1:18" ht="18" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>0</v>
       </c>
@@ -8961,7 +8989,7 @@
       <c r="Q70" s="4"/>
       <c r="R70" s="4"/>
     </row>
-    <row r="71" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A71" s="19"/>
       <c r="B71" s="19"/>
       <c r="C71" s="20"/>
@@ -8981,7 +9009,7 @@
       <c r="Q71" s="4"/>
       <c r="R71" s="4"/>
     </row>
-    <row r="72" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A72" s="7"/>
       <c r="B72" s="7"/>
       <c r="C72" s="9"/>
@@ -9001,7 +9029,7 @@
       <c r="Q72" s="4"/>
       <c r="R72" s="4"/>
     </row>
-    <row r="73" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="7"/>
       <c r="B73" s="7"/>
       <c r="C73" s="9"/>
@@ -9021,7 +9049,7 @@
       <c r="Q73" s="4"/>
       <c r="R73" s="4"/>
     </row>
-    <row r="74" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="7"/>
       <c r="B74" s="7"/>
       <c r="C74" s="9"/>
@@ -9041,7 +9069,7 @@
       <c r="Q74" s="4"/>
       <c r="R74" s="4"/>
     </row>
-    <row r="75" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="7"/>
       <c r="B75" s="7"/>
       <c r="C75" s="9"/>
@@ -9061,7 +9089,7 @@
       <c r="Q75" s="4"/>
       <c r="R75" s="4"/>
     </row>
-    <row r="76" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="7"/>
       <c r="B76" s="7"/>
       <c r="C76" s="9"/>
@@ -9081,7 +9109,7 @@
       <c r="Q76" s="4"/>
       <c r="R76" s="4"/>
     </row>
-    <row r="77" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="25"/>
       <c r="B77" s="25"/>
       <c r="C77" s="26"/>
@@ -9101,7 +9129,7 @@
       <c r="Q77" s="4"/>
       <c r="R77" s="4"/>
     </row>
-    <row r="78" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="25"/>
       <c r="B78" s="25"/>
       <c r="C78" s="26"/>
@@ -9121,7 +9149,7 @@
       <c r="Q78" s="4"/>
       <c r="R78" s="4"/>
     </row>
-    <row r="79" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="25"/>
       <c r="B79" s="25"/>
       <c r="C79" s="26"/>
@@ -9141,7 +9169,7 @@
       <c r="Q79" s="4"/>
       <c r="R79" s="4"/>
     </row>
-    <row r="80" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="25"/>
       <c r="B80" s="25"/>
       <c r="C80" s="26"/>
@@ -9161,7 +9189,7 @@
       <c r="Q80" s="4"/>
       <c r="R80" s="4"/>
     </row>
-    <row r="81" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="23"/>
       <c r="B81" s="23"/>
       <c r="C81" s="24"/>
@@ -9181,7 +9209,7 @@
       <c r="Q81" s="4"/>
       <c r="R81" s="4"/>
     </row>
-    <row r="82" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="14" t="s">
         <v>22</v>
       </c>
@@ -9206,7 +9234,7 @@
       <c r="Q82" s="4"/>
       <c r="R82" s="4"/>
     </row>
-    <row r="83" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="16"/>
       <c r="B83" s="16"/>
       <c r="C83" s="16"/>
@@ -9226,7 +9254,7 @@
       <c r="Q83" s="4"/>
       <c r="R83" s="4"/>
     </row>
-    <row r="84" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
         <v>0</v>
       </c>
@@ -9250,7 +9278,7 @@
       <c r="Q84" s="4"/>
       <c r="R84" s="4"/>
     </row>
-    <row r="85" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="5" t="s">
         <v>2</v>
       </c>
@@ -9276,7 +9304,7 @@
       <c r="Q85" s="4"/>
       <c r="R85" s="4"/>
     </row>
-    <row r="86" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="19"/>
       <c r="B86" s="19"/>
       <c r="C86" s="20"/>
@@ -9296,7 +9324,7 @@
       <c r="Q86" s="4"/>
       <c r="R86" s="4"/>
     </row>
-    <row r="87" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="7"/>
       <c r="B87" s="7"/>
       <c r="C87" s="9"/>
@@ -9316,7 +9344,7 @@
       <c r="Q87" s="4"/>
       <c r="R87" s="4"/>
     </row>
-    <row r="88" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A88" s="7"/>
       <c r="B88" s="7"/>
       <c r="C88" s="9"/>
@@ -9336,7 +9364,7 @@
       <c r="Q88" s="4"/>
       <c r="R88" s="4"/>
     </row>
-    <row r="89" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A89" s="7"/>
       <c r="B89" s="7"/>
       <c r="C89" s="9"/>
@@ -9356,7 +9384,7 @@
       <c r="Q89" s="4"/>
       <c r="R89" s="4"/>
     </row>
-    <row r="90" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A90" s="7"/>
       <c r="B90" s="7"/>
       <c r="C90" s="9"/>
@@ -9376,7 +9404,7 @@
       <c r="Q90" s="4"/>
       <c r="R90" s="4"/>
     </row>
-    <row r="91" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A91" s="23"/>
       <c r="B91" s="23"/>
       <c r="C91" s="24"/>
@@ -9396,7 +9424,7 @@
       <c r="Q91" s="4"/>
       <c r="R91" s="4"/>
     </row>
-    <row r="92" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A92" s="14" t="s">
         <v>22</v>
       </c>
@@ -9421,7 +9449,7 @@
       <c r="Q92" s="4"/>
       <c r="R92" s="4"/>
     </row>
-    <row r="93" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A93" s="16"/>
       <c r="B93" s="16"/>
       <c r="C93" s="16"/>
@@ -9441,7 +9469,7 @@
       <c r="Q93" s="4"/>
       <c r="R93" s="4"/>
     </row>
-    <row r="94" spans="1:18" ht="18" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>0</v>
       </c>
@@ -9491,7 +9519,7 @@
       <c r="Q95" s="4"/>
       <c r="R95" s="4"/>
     </row>
-    <row r="96" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A96" s="19"/>
       <c r="B96" s="19"/>
       <c r="C96" s="20"/>
@@ -9511,7 +9539,7 @@
       <c r="Q96" s="4"/>
       <c r="R96" s="4"/>
     </row>
-    <row r="97" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A97" s="7"/>
       <c r="B97" s="7"/>
       <c r="C97" s="9"/>
@@ -9531,7 +9559,7 @@
       <c r="Q97" s="4"/>
       <c r="R97" s="4"/>
     </row>
-    <row r="98" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A98" s="7"/>
       <c r="B98" s="7"/>
       <c r="C98" s="9"/>
@@ -9551,7 +9579,7 @@
       <c r="Q98" s="4"/>
       <c r="R98" s="4"/>
     </row>
-    <row r="99" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A99" s="7"/>
       <c r="B99" s="7"/>
       <c r="C99" s="9"/>
@@ -9571,7 +9599,7 @@
       <c r="Q99" s="4"/>
       <c r="R99" s="4"/>
     </row>
-    <row r="100" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A100" s="7"/>
       <c r="B100" s="7"/>
       <c r="C100" s="9"/>
@@ -9591,7 +9619,7 @@
       <c r="Q100" s="4"/>
       <c r="R100" s="4"/>
     </row>
-    <row r="101" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A101" s="7"/>
       <c r="B101" s="7"/>
       <c r="C101" s="9"/>
@@ -9611,7 +9639,7 @@
       <c r="Q101" s="4"/>
       <c r="R101" s="4"/>
     </row>
-    <row r="102" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A102" s="7"/>
       <c r="B102" s="7"/>
       <c r="C102" s="9"/>
@@ -9631,7 +9659,7 @@
       <c r="Q102" s="4"/>
       <c r="R102" s="4"/>
     </row>
-    <row r="103" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A103" s="23"/>
       <c r="B103" s="23"/>
       <c r="C103" s="24"/>
@@ -9651,7 +9679,7 @@
       <c r="Q103" s="4"/>
       <c r="R103" s="4"/>
     </row>
-    <row r="104" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A104" s="14" t="s">
         <v>22</v>
       </c>
@@ -9676,7 +9704,7 @@
       <c r="Q104" s="4"/>
       <c r="R104" s="4"/>
     </row>
-    <row r="105" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A105" s="16"/>
       <c r="B105" s="16"/>
       <c r="C105" s="16"/>
@@ -9696,7 +9724,7 @@
       <c r="Q105" s="4"/>
       <c r="R105" s="4"/>
     </row>
-    <row r="106" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A106" s="27"/>
       <c r="B106" s="27"/>
       <c r="C106" s="27"/>
@@ -9716,7 +9744,7 @@
       <c r="Q106" s="4"/>
       <c r="R106" s="4"/>
     </row>
-    <row r="107" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A107" s="27"/>
       <c r="B107" s="27"/>
       <c r="C107" s="27"/>
@@ -9736,7 +9764,7 @@
       <c r="Q107" s="4"/>
       <c r="R107" s="4"/>
     </row>
-    <row r="108" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A108" s="27"/>
       <c r="B108" s="27"/>
       <c r="C108" s="27"/>
@@ -9756,7 +9784,7 @@
       <c r="Q108" s="4"/>
       <c r="R108" s="4"/>
     </row>
-    <row r="109" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A109" s="27"/>
       <c r="B109" s="27"/>
       <c r="C109" s="27"/>
@@ -9776,7 +9804,7 @@
       <c r="Q109" s="4"/>
       <c r="R109" s="4"/>
     </row>
-    <row r="110" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A110" s="27"/>
       <c r="B110" s="27"/>
       <c r="C110" s="27"/>
@@ -9796,7 +9824,7 @@
       <c r="Q110" s="4"/>
       <c r="R110" s="4"/>
     </row>
-    <row r="111" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A111" s="27"/>
       <c r="B111" s="27"/>
       <c r="C111" s="27"/>
@@ -9816,7 +9844,7 @@
       <c r="Q111" s="4"/>
       <c r="R111" s="4"/>
     </row>
-    <row r="112" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A112" s="27"/>
       <c r="B112" s="27"/>
       <c r="C112" s="27"/>
@@ -9836,7 +9864,7 @@
       <c r="Q112" s="4"/>
       <c r="R112" s="4"/>
     </row>
-    <row r="113" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A113" s="27"/>
       <c r="B113" s="27"/>
       <c r="C113" s="27"/>
@@ -9856,7 +9884,7 @@
       <c r="Q113" s="4"/>
       <c r="R113" s="4"/>
     </row>
-    <row r="114" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A114" s="27"/>
       <c r="B114" s="27"/>
       <c r="C114" s="27"/>
@@ -9876,7 +9904,7 @@
       <c r="Q114" s="4"/>
       <c r="R114" s="4"/>
     </row>
-    <row r="115" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A115" s="27"/>
       <c r="B115" s="27"/>
       <c r="C115" s="27"/>
@@ -9896,7 +9924,7 @@
       <c r="Q115" s="4"/>
       <c r="R115" s="4"/>
     </row>
-    <row r="116" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A116" s="27"/>
       <c r="B116" s="27"/>
       <c r="C116" s="27"/>
@@ -9916,7 +9944,7 @@
       <c r="Q116" s="4"/>
       <c r="R116" s="4"/>
     </row>
-    <row r="117" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A117" s="28"/>
       <c r="B117" s="28"/>
       <c r="C117" s="28"/>
@@ -9954,18 +9982,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F222774-5003-490D-9078-78D1F6F89A4A}">
   <dimension ref="A1:R100"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="78.42578125" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="78.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9991,7 +10019,7 @@
       <c r="Q1" s="4"/>
       <c r="R1" s="4"/>
     </row>
-    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -10019,7 +10047,7 @@
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
     </row>
-    <row r="3" spans="1:18" ht="94.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
@@ -10047,7 +10075,7 @@
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
     </row>
-    <row r="4" spans="1:18" ht="54" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
@@ -10075,7 +10103,7 @@
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
     </row>
-    <row r="5" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="66" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
@@ -10103,7 +10131,7 @@
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
     </row>
-    <row r="6" spans="1:18" ht="81" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
         <v>12</v>
       </c>
@@ -10131,7 +10159,7 @@
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
     </row>
-    <row r="7" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="66" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>14</v>
       </c>
@@ -10159,7 +10187,7 @@
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
     </row>
-    <row r="8" spans="1:18" ht="108" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
         <v>16</v>
       </c>
@@ -10187,7 +10215,7 @@
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
     </row>
-    <row r="9" spans="1:18" ht="94.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
         <v>18</v>
       </c>
@@ -10215,7 +10243,7 @@
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
     </row>
-    <row r="10" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" ht="66" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
@@ -10243,7 +10271,7 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
     </row>
-    <row r="11" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>28</v>
       </c>
@@ -10269,7 +10297,7 @@
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
     </row>
-    <row r="12" spans="1:18" ht="94.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A12" s="33" t="s">
         <v>29</v>
       </c>
@@ -10295,7 +10323,7 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
     </row>
-    <row r="13" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="33" t="s">
         <v>32</v>
       </c>
@@ -10321,7 +10349,7 @@
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
     </row>
-    <row r="14" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="14" t="s">
         <v>22</v>
       </c>
@@ -10346,7 +10374,7 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
     </row>
-    <row r="15" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="16"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
@@ -10366,7 +10394,7 @@
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
     </row>
-    <row r="16" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -10390,7 +10418,7 @@
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
     </row>
-    <row r="17" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>2</v>
       </c>
@@ -10416,7 +10444,7 @@
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
     </row>
-    <row r="18" spans="1:18" ht="54" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A18" s="29" t="s">
         <v>36</v>
       </c>
@@ -10444,7 +10472,7 @@
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
     </row>
-    <row r="19" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>40</v>
       </c>
@@ -10472,7 +10500,7 @@
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
     </row>
-    <row r="20" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>54</v>
       </c>
@@ -10500,7 +10528,7 @@
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
     </row>
-    <row r="21" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>56</v>
       </c>
@@ -10528,7 +10556,7 @@
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
     </row>
-    <row r="22" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>58</v>
       </c>
@@ -10556,7 +10584,7 @@
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
     </row>
-    <row r="23" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>54</v>
       </c>
@@ -10584,7 +10612,7 @@
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
     </row>
-    <row r="24" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>60</v>
       </c>
@@ -10612,7 +10640,7 @@
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
     </row>
-    <row r="25" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>86</v>
       </c>
@@ -10640,7 +10668,7 @@
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
     </row>
-    <row r="26" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" ht="66" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>76</v>
       </c>
@@ -10668,7 +10696,7 @@
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
     </row>
-    <row r="27" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>76</v>
       </c>
@@ -10696,7 +10724,7 @@
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
     </row>
-    <row r="28" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>76</v>
       </c>
@@ -10724,7 +10752,7 @@
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
     </row>
-    <row r="29" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>76</v>
       </c>
@@ -10752,7 +10780,7 @@
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
     </row>
-    <row r="30" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>76</v>
       </c>
@@ -10780,7 +10808,7 @@
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
     </row>
-    <row r="31" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="9"/>
@@ -10800,7 +10828,7 @@
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
     </row>
-    <row r="32" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="9"/>
@@ -10820,7 +10848,7 @@
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
     </row>
-    <row r="33" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="9"/>
@@ -10840,7 +10868,7 @@
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
     </row>
-    <row r="34" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="14" t="s">
         <v>22</v>
       </c>
@@ -10865,7 +10893,7 @@
       <c r="Q34" s="4"/>
       <c r="R34" s="4"/>
     </row>
-    <row r="35" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="16"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -10885,7 +10913,7 @@
       <c r="Q35" s="4"/>
       <c r="R35" s="4"/>
     </row>
-    <row r="36" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>0</v>
       </c>
@@ -10909,7 +10937,7 @@
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
     </row>
-    <row r="37" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
         <v>2</v>
       </c>
@@ -10935,7 +10963,7 @@
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
     </row>
-    <row r="38" spans="1:18" ht="54" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
         <v>40</v>
       </c>
@@ -10963,7 +10991,7 @@
       <c r="Q38" s="4"/>
       <c r="R38" s="4"/>
     </row>
-    <row r="39" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>160</v>
       </c>
@@ -10991,7 +11019,7 @@
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
     </row>
-    <row r="40" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
         <v>160</v>
       </c>
@@ -11019,7 +11047,7 @@
       <c r="Q40" s="4"/>
       <c r="R40" s="4"/>
     </row>
-    <row r="41" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
         <v>160</v>
       </c>
@@ -11047,7 +11075,7 @@
       <c r="Q41" s="4"/>
       <c r="R41" s="4"/>
     </row>
-    <row r="42" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
         <v>160</v>
       </c>
@@ -11075,7 +11103,7 @@
       <c r="Q42" s="4"/>
       <c r="R42" s="4"/>
     </row>
-    <row r="43" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
         <v>160</v>
       </c>
@@ -11103,7 +11131,7 @@
       <c r="Q43" s="4"/>
       <c r="R43" s="4"/>
     </row>
-    <row r="44" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" ht="66" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
         <v>160</v>
       </c>
@@ -11131,7 +11159,7 @@
       <c r="Q44" s="4"/>
       <c r="R44" s="4"/>
     </row>
-    <row r="45" spans="1:18" ht="41.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:18" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="23" t="s">
         <v>160</v>
       </c>
@@ -11159,7 +11187,7 @@
       <c r="Q45" s="4"/>
       <c r="R45" s="4"/>
     </row>
-    <row r="46" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="42" t="s">
         <v>160</v>
       </c>
@@ -11187,7 +11215,7 @@
       <c r="Q46" s="4"/>
       <c r="R46" s="4"/>
     </row>
-    <row r="47" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="42" t="s">
         <v>160</v>
       </c>
@@ -11215,7 +11243,7 @@
       <c r="Q47" s="4"/>
       <c r="R47" s="4"/>
     </row>
-    <row r="48" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="42" t="s">
         <v>160</v>
       </c>
@@ -11243,7 +11271,7 @@
       <c r="Q48" s="4"/>
       <c r="R48" s="4"/>
     </row>
-    <row r="49" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="42"/>
       <c r="B49" s="42"/>
       <c r="C49" s="44"/>
@@ -11263,7 +11291,7 @@
       <c r="Q49" s="4"/>
       <c r="R49" s="4"/>
     </row>
-    <row r="50" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="14" t="s">
         <v>22</v>
       </c>
@@ -11288,7 +11316,7 @@
       <c r="Q50" s="4"/>
       <c r="R50" s="4"/>
     </row>
-    <row r="51" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="16"/>
       <c r="B51" s="16"/>
       <c r="C51" s="16"/>
@@ -11308,7 +11336,7 @@
       <c r="Q51" s="4"/>
       <c r="R51" s="4"/>
     </row>
-    <row r="52" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>0</v>
       </c>
@@ -11332,7 +11360,7 @@
       <c r="Q52" s="4"/>
       <c r="R52" s="4"/>
     </row>
-    <row r="53" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="s">
         <v>2</v>
       </c>
@@ -11358,7 +11386,7 @@
       <c r="Q53" s="4"/>
       <c r="R53" s="4"/>
     </row>
-    <row r="54" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A54" s="19"/>
       <c r="B54" s="19"/>
       <c r="C54" s="20"/>
@@ -11378,7 +11406,7 @@
       <c r="Q54" s="4"/>
       <c r="R54" s="4"/>
     </row>
-    <row r="55" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A55" s="7"/>
       <c r="B55" s="7"/>
       <c r="C55" s="9"/>
@@ -11398,7 +11426,7 @@
       <c r="Q55" s="4"/>
       <c r="R55" s="4"/>
     </row>
-    <row r="56" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A56" s="7"/>
       <c r="B56" s="7"/>
       <c r="C56" s="9"/>
@@ -11418,7 +11446,7 @@
       <c r="Q56" s="4"/>
       <c r="R56" s="4"/>
     </row>
-    <row r="57" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A57" s="7"/>
       <c r="B57" s="7"/>
       <c r="C57" s="9"/>
@@ -11438,7 +11466,7 @@
       <c r="Q57" s="4"/>
       <c r="R57" s="4"/>
     </row>
-    <row r="58" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A58" s="7"/>
       <c r="B58" s="7"/>
       <c r="C58" s="9"/>
@@ -11458,7 +11486,7 @@
       <c r="Q58" s="4"/>
       <c r="R58" s="4"/>
     </row>
-    <row r="59" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A59" s="7"/>
       <c r="B59" s="7"/>
       <c r="C59" s="9"/>
@@ -11478,7 +11506,7 @@
       <c r="Q59" s="4"/>
       <c r="R59" s="4"/>
     </row>
-    <row r="60" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A60" s="25"/>
       <c r="B60" s="25"/>
       <c r="C60" s="26"/>
@@ -11498,7 +11526,7 @@
       <c r="Q60" s="4"/>
       <c r="R60" s="4"/>
     </row>
-    <row r="61" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A61" s="25"/>
       <c r="B61" s="25"/>
       <c r="C61" s="26"/>
@@ -11518,7 +11546,7 @@
       <c r="Q61" s="4"/>
       <c r="R61" s="4"/>
     </row>
-    <row r="62" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A62" s="25"/>
       <c r="B62" s="25"/>
       <c r="C62" s="26"/>
@@ -11538,7 +11566,7 @@
       <c r="Q62" s="4"/>
       <c r="R62" s="4"/>
     </row>
-    <row r="63" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A63" s="25"/>
       <c r="B63" s="25"/>
       <c r="C63" s="26"/>
@@ -11558,7 +11586,7 @@
       <c r="Q63" s="4"/>
       <c r="R63" s="4"/>
     </row>
-    <row r="64" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="23"/>
       <c r="B64" s="23"/>
       <c r="C64" s="24"/>
@@ -11578,7 +11606,7 @@
       <c r="Q64" s="4"/>
       <c r="R64" s="4"/>
     </row>
-    <row r="65" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="14" t="s">
         <v>22</v>
       </c>
@@ -11603,7 +11631,7 @@
       <c r="Q65" s="4"/>
       <c r="R65" s="4"/>
     </row>
-    <row r="66" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="16"/>
       <c r="B66" s="16"/>
       <c r="C66" s="16"/>
@@ -11623,7 +11651,7 @@
       <c r="Q66" s="4"/>
       <c r="R66" s="4"/>
     </row>
-    <row r="67" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>0</v>
       </c>
@@ -11647,7 +11675,7 @@
       <c r="Q67" s="4"/>
       <c r="R67" s="4"/>
     </row>
-    <row r="68" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="5" t="s">
         <v>2</v>
       </c>
@@ -11673,7 +11701,7 @@
       <c r="Q68" s="4"/>
       <c r="R68" s="4"/>
     </row>
-    <row r="69" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A69" s="19"/>
       <c r="B69" s="19"/>
       <c r="C69" s="20"/>
@@ -11693,7 +11721,7 @@
       <c r="Q69" s="4"/>
       <c r="R69" s="4"/>
     </row>
-    <row r="70" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A70" s="7"/>
       <c r="B70" s="7"/>
       <c r="C70" s="9"/>
@@ -11713,7 +11741,7 @@
       <c r="Q70" s="4"/>
       <c r="R70" s="4"/>
     </row>
-    <row r="71" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A71" s="7"/>
       <c r="B71" s="7"/>
       <c r="C71" s="9"/>
@@ -11733,7 +11761,7 @@
       <c r="Q71" s="4"/>
       <c r="R71" s="4"/>
     </row>
-    <row r="72" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A72" s="7"/>
       <c r="B72" s="7"/>
       <c r="C72" s="9"/>
@@ -11753,7 +11781,7 @@
       <c r="Q72" s="4"/>
       <c r="R72" s="4"/>
     </row>
-    <row r="73" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A73" s="7"/>
       <c r="B73" s="7"/>
       <c r="C73" s="9"/>
@@ -11773,7 +11801,7 @@
       <c r="Q73" s="4"/>
       <c r="R73" s="4"/>
     </row>
-    <row r="74" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="23"/>
       <c r="B74" s="23"/>
       <c r="C74" s="24"/>
@@ -11793,7 +11821,7 @@
       <c r="Q74" s="4"/>
       <c r="R74" s="4"/>
     </row>
-    <row r="75" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="14" t="s">
         <v>22</v>
       </c>
@@ -11818,7 +11846,7 @@
       <c r="Q75" s="4"/>
       <c r="R75" s="4"/>
     </row>
-    <row r="76" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="16"/>
       <c r="B76" s="16"/>
       <c r="C76" s="16"/>
@@ -11838,7 +11866,7 @@
       <c r="Q76" s="4"/>
       <c r="R76" s="4"/>
     </row>
-    <row r="77" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
         <v>0</v>
       </c>
@@ -11862,7 +11890,7 @@
       <c r="Q77" s="4"/>
       <c r="R77" s="4"/>
     </row>
-    <row r="78" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="5" t="s">
         <v>2</v>
       </c>
@@ -11888,7 +11916,7 @@
       <c r="Q78" s="4"/>
       <c r="R78" s="4"/>
     </row>
-    <row r="79" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A79" s="19"/>
       <c r="B79" s="19"/>
       <c r="C79" s="20"/>
@@ -11908,7 +11936,7 @@
       <c r="Q79" s="4"/>
       <c r="R79" s="4"/>
     </row>
-    <row r="80" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A80" s="7"/>
       <c r="B80" s="7"/>
       <c r="C80" s="9"/>
@@ -11928,7 +11956,7 @@
       <c r="Q80" s="4"/>
       <c r="R80" s="4"/>
     </row>
-    <row r="81" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A81" s="7"/>
       <c r="B81" s="7"/>
       <c r="C81" s="9"/>
@@ -11948,7 +11976,7 @@
       <c r="Q81" s="4"/>
       <c r="R81" s="4"/>
     </row>
-    <row r="82" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A82" s="7"/>
       <c r="B82" s="7"/>
       <c r="C82" s="9"/>
@@ -11968,7 +11996,7 @@
       <c r="Q82" s="4"/>
       <c r="R82" s="4"/>
     </row>
-    <row r="83" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A83" s="7"/>
       <c r="B83" s="7"/>
       <c r="C83" s="9"/>
@@ -11988,7 +12016,7 @@
       <c r="Q83" s="4"/>
       <c r="R83" s="4"/>
     </row>
-    <row r="84" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A84" s="7"/>
       <c r="B84" s="7"/>
       <c r="C84" s="9"/>
@@ -12008,7 +12036,7 @@
       <c r="Q84" s="4"/>
       <c r="R84" s="4"/>
     </row>
-    <row r="85" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A85" s="7"/>
       <c r="B85" s="7"/>
       <c r="C85" s="9"/>
@@ -12028,7 +12056,7 @@
       <c r="Q85" s="4"/>
       <c r="R85" s="4"/>
     </row>
-    <row r="86" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="23"/>
       <c r="B86" s="23"/>
       <c r="C86" s="24"/>
@@ -12048,7 +12076,7 @@
       <c r="Q86" s="4"/>
       <c r="R86" s="4"/>
     </row>
-    <row r="87" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="14" t="s">
         <v>22</v>
       </c>
@@ -12073,7 +12101,7 @@
       <c r="Q87" s="4"/>
       <c r="R87" s="4"/>
     </row>
-    <row r="88" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A88" s="16"/>
       <c r="B88" s="16"/>
       <c r="C88" s="16"/>
@@ -12093,7 +12121,7 @@
       <c r="Q88" s="4"/>
       <c r="R88" s="4"/>
     </row>
-    <row r="89" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A89" s="27"/>
       <c r="B89" s="27"/>
       <c r="C89" s="27"/>
@@ -12113,7 +12141,7 @@
       <c r="Q89" s="4"/>
       <c r="R89" s="4"/>
     </row>
-    <row r="90" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A90" s="27"/>
       <c r="B90" s="27"/>
       <c r="C90" s="27"/>
@@ -12133,7 +12161,7 @@
       <c r="Q90" s="4"/>
       <c r="R90" s="4"/>
     </row>
-    <row r="91" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A91" s="27"/>
       <c r="B91" s="27"/>
       <c r="C91" s="27"/>
@@ -12153,7 +12181,7 @@
       <c r="Q91" s="4"/>
       <c r="R91" s="4"/>
     </row>
-    <row r="92" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A92" s="27"/>
       <c r="B92" s="27"/>
       <c r="C92" s="27"/>
@@ -12173,7 +12201,7 @@
       <c r="Q92" s="4"/>
       <c r="R92" s="4"/>
     </row>
-    <row r="93" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A93" s="27"/>
       <c r="B93" s="27"/>
       <c r="C93" s="27"/>
@@ -12193,7 +12221,7 @@
       <c r="Q93" s="4"/>
       <c r="R93" s="4"/>
     </row>
-    <row r="94" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A94" s="27"/>
       <c r="B94" s="27"/>
       <c r="C94" s="27"/>
@@ -12213,7 +12241,7 @@
       <c r="Q94" s="4"/>
       <c r="R94" s="4"/>
     </row>
-    <row r="95" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A95" s="27"/>
       <c r="B95" s="27"/>
       <c r="C95" s="27"/>
@@ -12233,7 +12261,7 @@
       <c r="Q95" s="4"/>
       <c r="R95" s="4"/>
     </row>
-    <row r="96" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A96" s="27"/>
       <c r="B96" s="27"/>
       <c r="C96" s="27"/>
@@ -12253,7 +12281,7 @@
       <c r="Q96" s="4"/>
       <c r="R96" s="4"/>
     </row>
-    <row r="97" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A97" s="27"/>
       <c r="B97" s="27"/>
       <c r="C97" s="27"/>
@@ -12273,7 +12301,7 @@
       <c r="Q97" s="4"/>
       <c r="R97" s="4"/>
     </row>
-    <row r="98" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A98" s="27"/>
       <c r="B98" s="27"/>
       <c r="C98" s="27"/>
@@ -12293,7 +12321,7 @@
       <c r="Q98" s="4"/>
       <c r="R98" s="4"/>
     </row>
-    <row r="99" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A99" s="27"/>
       <c r="B99" s="27"/>
       <c r="C99" s="27"/>
@@ -12313,7 +12341,7 @@
       <c r="Q99" s="4"/>
       <c r="R99" s="4"/>
     </row>
-    <row r="100" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A100" s="28"/>
       <c r="B100" s="28"/>
       <c r="C100" s="28"/>
@@ -12346,4 +12374,511 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04752183-13CB-498C-B47A-4401EA9BDEF9}">
+  <dimension ref="A1:D65"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.109375" customWidth="1"/>
+    <col min="4" max="4" width="46.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A3" s="33" t="s">
+        <v>249</v>
+      </c>
+      <c r="B3" s="33">
+        <v>4</v>
+      </c>
+      <c r="C3" s="46">
+        <v>43969</v>
+      </c>
+      <c r="D3" s="47" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A4" s="33" t="s">
+        <v>254</v>
+      </c>
+      <c r="B4" s="33">
+        <v>4</v>
+      </c>
+      <c r="C4" s="46">
+        <v>43970</v>
+      </c>
+      <c r="D4" s="51" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A5" s="33" t="s">
+        <v>253</v>
+      </c>
+      <c r="B5" s="33">
+        <v>3</v>
+      </c>
+      <c r="C5" s="46">
+        <v>43976</v>
+      </c>
+      <c r="D5" s="51" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A6" s="33" t="s">
+        <v>255</v>
+      </c>
+      <c r="B6" s="33">
+        <v>1</v>
+      </c>
+      <c r="C6" s="51" t="s">
+        <v>256</v>
+      </c>
+      <c r="D6" s="51"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="33"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="33"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="33"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="53"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="53"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="53"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="53"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="53"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="53"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="53"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="53"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="53"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="53"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="53"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="53"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="53"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="54"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="53"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="53"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="54"/>
+    </row>
+    <row r="25" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="55"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="56"/>
+    </row>
+    <row r="26" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="53"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
+    </row>
+    <row r="27" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="14"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+    </row>
+    <row r="28" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="16"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+    </row>
+    <row r="29" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="2">
+        <v>4</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+    </row>
+    <row r="30" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="19"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="25"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="25"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="25"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="25"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
+    </row>
+    <row r="41" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="23"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
+    </row>
+    <row r="42" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B42" s="14">
+        <f>SUM(B31:B41)</f>
+        <v>0</v>
+      </c>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+    </row>
+    <row r="43" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="16"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+    </row>
+    <row r="44" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" s="2">
+        <v>5</v>
+      </c>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+    </row>
+    <row r="45" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="19"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="20"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="7"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="7"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="7"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="7"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+    </row>
+    <row r="51" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="23"/>
+      <c r="B51" s="23"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="24"/>
+    </row>
+    <row r="52" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B52" s="14">
+        <f>SUM(B46:B51)</f>
+        <v>0</v>
+      </c>
+      <c r="C52" s="15"/>
+      <c r="D52" s="15"/>
+    </row>
+    <row r="53" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="16"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="16"/>
+    </row>
+    <row r="54" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54" s="2">
+        <v>6</v>
+      </c>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+    </row>
+    <row r="55" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="19"/>
+      <c r="B56" s="19"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="20"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="7"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="7"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="7"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="7"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="7"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="7"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+    </row>
+    <row r="63" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="23"/>
+      <c r="B63" s="23"/>
+      <c r="C63" s="24"/>
+      <c r="D63" s="24"/>
+    </row>
+    <row r="64" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B64" s="14">
+        <f>SUM(B56:B63)</f>
+        <v>0</v>
+      </c>
+      <c r="C64" s="15"/>
+      <c r="D64" s="15"/>
+    </row>
+    <row r="65" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A65" s="16"/>
+      <c r="B65" s="16"/>
+      <c r="C65" s="16"/>
+      <c r="D65" s="16"/>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" prompt="Dépassement de durée - Le nombre de minutes introduites dépasse la durée d'une période. Veuillez confirmer ... Le calcul du total sera juste dans tous les cas._x000a_" sqref="B27 B42 B52 B64" xr:uid="{DA0CB379-8208-4014-8C0C-0521765B9A4F}">
+      <formula1>0</formula1>
+      <formula2>DureePeriode-1</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" prompt="Durée en 1/3 de période - Le nombre doit être de type entier" sqref="B56:B63 B31:B41 B46:B51 B3:B4 B6:B26" xr:uid="{FBF1D711-E5DD-4569-8B54-987F2C077F7C}">
+      <formula1>0</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/LM_Journal_Travail_V1.0.xlsx
+++ b/LM_Journal_Travail_V1.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paul\Documents\GitHub\Love-Mirroring\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programmes\VS2019\Projets\Projet Gerber\Love-Mirroring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBA5C19A-794A-4D38-BDFD-879283793BA4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A20CE9A-8A2D-4648-8BA3-02FFCA6C0B87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="375" yWindow="7050" windowWidth="21600" windowHeight="11385" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Equipe" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <definedName name="NBLecons">#REF!</definedName>
     <definedName name="TachesPlanifiees">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="281">
   <si>
     <t>Jalon</t>
   </si>
@@ -862,6 +862,83 @@
   </si>
   <si>
     <t>25,05,20</t>
+  </si>
+  <si>
+    <t>J'ai affiché la liste des utilisateurs pour pouvoir avoir une vue plus globale car la recherche peut être pratique mais elle limite quand même l'administrateur. J'ai pu affiché la liste des utilisateurs banni et on peut enlevé le lockout de l'utilisateur avec un simple lien. J'ai aussi affiché le nombre d'actions effectuées sur le sites et j'ai mis la possibilité de réinitialiser le quiz depuis l'interface d'administration.</t>
+  </si>
+  <si>
+    <t>Login Facebook</t>
+  </si>
+  <si>
+    <t>Je peux me connecter avec Facebook et je peux récupérer les informations du compte que j'utilise mais il reste un problème au niveau des Claims que je dois résoudre après il sera possible d'utiliser l'application avec un compte Facebook. Il faut que je réfléchisse aussi à comment intégrer le profil avec l'authentification Facebook. J'ai aussi regardé dans la documentation comment récupérer différents informations qui pourrait être exploitées comme la récupération des photos ou d'autres informations.</t>
+  </si>
+  <si>
+    <t>Le login facebook est opérationnel et les fonctionnalités du site fonctionnent avec un compte facebook. Il faut que je fasse encore quelques changements pour l'affichage de certaines données mais on peut utiliser l'application via facebook. C'est intéressant de voir que le mot de passe n'est pas révélé par Identity dans les détails de l'utilisateur. Cela rajoute une sécurité et permet à l'utilisateur d'avoir confiance en notre application.</t>
+  </si>
+  <si>
+    <t>J'ai modifié le fonctionnement de l'inscription en ajoutant un champ permettant de contrôler si l'utilisateur a bien complété son compte. Il faut que j'adapte encore quelques processus mais dans l'ensemble le login facebook fonctionne parfaitement.</t>
+  </si>
+  <si>
+    <t>Je me suis fait quelques réflexions sur la manière d'exploiter Spotify dans notre application. J'ai modifié certains de mes documents et je vais repenser la façon d'exploiter les données de Spotify.</t>
+  </si>
+  <si>
+    <t>J'ai adapté l'API pour qu'elle me retourne des titres en fonction d'un titre de musique que l'utilisateur a entré et j'ai fait une méthode qui permet de récupérer l'ensemble des sons qui ont déjà été utilisé par d'autres utilisateurs. Le but est de pouvoir soit trouver un son qui n'est pas listé et de l'ajouté à nos préférences ou d'utiliser ceux qui ont déjà été mentionné dans les préférences.</t>
+  </si>
+  <si>
+    <t>Spotify + Trello</t>
+  </si>
+  <si>
+    <t>L'utilisatuer peut désormais enregistrer une musique dans ses préférences. Le prochain objectif c'est qu'il puisse la modifier et il faut encore l'intégrer à l'algorithme. Après discussion avec le mandant nous avons modifié notre façon de gérer le projet et j'ai adapté le trello selon la demande.</t>
+  </si>
+  <si>
+    <t>15.05.2020</t>
+  </si>
+  <si>
+    <t>Recherche de comment rénitilialiser un mot de passe sans utiliser UserManger d'Identtity</t>
+  </si>
+  <si>
+    <t>18.05.2020</t>
+  </si>
+  <si>
+    <t>Génération de mot de passe en cours en attente de confirmation côté user</t>
+  </si>
+  <si>
+    <t>19.05.2020</t>
+  </si>
+  <si>
+    <t>Génération de mot de passe OK
+Hashage OK
+Envoie du mail OK
+Test de connexion avec le nouveaux mot de passe OK</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>Recherche sur l'implémentation d'un chat privé</t>
+  </si>
+  <si>
+    <t>22.05.2020</t>
+  </si>
+  <si>
+    <t>Création de la logique est de l'interdace graphique du chat</t>
+  </si>
+  <si>
+    <t>24.05.2020</t>
+  </si>
+  <si>
+    <t>Finalisation du chat
+Envoie des messages OK
+Affichage des messages OK</t>
+  </si>
+  <si>
+    <t>User/Admin</t>
+  </si>
+  <si>
+    <t>25.05.2020</t>
+  </si>
+  <si>
+    <t>Résolution des problèmes de suppression de compte qui avait un like côté user et admin</t>
   </si>
 </sst>
 </file>
@@ -1186,7 +1263,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1352,6 +1429,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1574,20 +1654,20 @@
   </sheetPr>
   <dimension ref="A1:R1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="6.109375" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" customWidth="1"/>
-    <col min="4" max="4" width="78.44140625" customWidth="1"/>
-    <col min="5" max="6" width="14.44140625" customWidth="1"/>
+    <col min="2" max="2" width="6.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="78.42578125" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1613,7 +1693,7 @@
       <c r="Q1" s="4"/>
       <c r="R1" s="4"/>
     </row>
-    <row r="2" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -1641,7 +1721,7 @@
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
     </row>
-    <row r="3" spans="1:18" ht="92.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="94.5" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
@@ -1669,7 +1749,7 @@
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
     </row>
-    <row r="4" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="54" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
@@ -1697,7 +1777,7 @@
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
     </row>
-    <row r="5" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="54" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
@@ -1725,7 +1805,7 @@
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
     </row>
-    <row r="6" spans="1:18" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="81" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
         <v>12</v>
       </c>
@@ -1753,7 +1833,7 @@
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
     </row>
-    <row r="7" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="54" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>14</v>
       </c>
@@ -1781,7 +1861,7 @@
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
     </row>
-    <row r="8" spans="1:18" ht="92.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="94.5" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
         <v>16</v>
       </c>
@@ -1809,7 +1889,7 @@
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
     </row>
-    <row r="9" spans="1:18" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" ht="81" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
         <v>18</v>
       </c>
@@ -1837,7 +1917,7 @@
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
     </row>
-    <row r="10" spans="1:18" ht="66" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
@@ -1865,7 +1945,7 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
     </row>
-    <row r="11" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="8"/>
@@ -1885,7 +1965,7 @@
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
     </row>
-    <row r="12" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="14" t="s">
         <v>22</v>
       </c>
@@ -1910,7 +1990,7 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
     </row>
-    <row r="13" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="16"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
@@ -1930,7 +2010,7 @@
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
     </row>
-    <row r="14" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -1954,7 +2034,7 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
     </row>
-    <row r="15" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>2</v>
       </c>
@@ -1980,7 +2060,7 @@
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
     </row>
-    <row r="16" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" ht="27" x14ac:dyDescent="0.3">
       <c r="A16" s="37" t="s">
         <v>95</v>
       </c>
@@ -2008,7 +2088,7 @@
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
     </row>
-    <row r="17" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" ht="27" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>99</v>
       </c>
@@ -2036,7 +2116,7 @@
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
     </row>
-    <row r="18" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="9"/>
@@ -2056,7 +2136,7 @@
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
     </row>
-    <row r="19" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="9"/>
@@ -2076,7 +2156,7 @@
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
     </row>
-    <row r="20" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="9"/>
@@ -4566,18 +4646,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DB7A04D-A66F-4A89-83F1-9B353075A776}">
   <dimension ref="A1:R107"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60:D69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5546875" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="78.44140625" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="78.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4603,7 +4683,7 @@
       <c r="Q1" s="4"/>
       <c r="R1" s="4"/>
     </row>
-    <row r="2" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -4631,7 +4711,7 @@
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
     </row>
-    <row r="3" spans="1:18" ht="92.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="94.5" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
@@ -4659,7 +4739,7 @@
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
     </row>
-    <row r="4" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="54" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
@@ -4687,7 +4767,7 @@
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
     </row>
-    <row r="5" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="54" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
@@ -4715,7 +4795,7 @@
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
     </row>
-    <row r="6" spans="1:18" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="81" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
         <v>12</v>
       </c>
@@ -4743,7 +4823,7 @@
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
     </row>
-    <row r="7" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="54" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>14</v>
       </c>
@@ -4771,7 +4851,7 @@
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
     </row>
-    <row r="8" spans="1:18" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="81" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
         <v>16</v>
       </c>
@@ -4799,7 +4879,7 @@
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
     </row>
-    <row r="9" spans="1:18" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" ht="81" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
         <v>18</v>
       </c>
@@ -4827,7 +4907,7 @@
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
     </row>
-    <row r="10" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
@@ -4855,7 +4935,7 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
     </row>
-    <row r="11" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>34</v>
       </c>
@@ -4883,7 +4963,7 @@
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
     </row>
-    <row r="12" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="14" t="s">
         <v>22</v>
       </c>
@@ -4908,7 +4988,7 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
     </row>
-    <row r="13" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="16"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
@@ -4928,7 +5008,7 @@
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
     </row>
-    <row r="14" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -4952,7 +5032,7 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
     </row>
-    <row r="15" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>2</v>
       </c>
@@ -4978,7 +5058,7 @@
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
     </row>
-    <row r="16" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
         <v>36</v>
       </c>
@@ -5006,7 +5086,7 @@
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
     </row>
-    <row r="17" spans="1:18" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" ht="81" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>38</v>
       </c>
@@ -5034,7 +5114,7 @@
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
     </row>
-    <row r="18" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>42</v>
       </c>
@@ -5062,7 +5142,7 @@
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
     </row>
-    <row r="19" spans="1:18" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" ht="81" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>44</v>
       </c>
@@ -5090,7 +5170,7 @@
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
     </row>
-    <row r="20" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>46</v>
       </c>
@@ -5118,7 +5198,7 @@
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
     </row>
-    <row r="21" spans="1:18" ht="66" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>48</v>
       </c>
@@ -5146,7 +5226,7 @@
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
     </row>
-    <row r="22" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" ht="27" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>50</v>
       </c>
@@ -5174,7 +5254,7 @@
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
     </row>
-    <row r="23" spans="1:18" ht="118.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" ht="121.5" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>73</v>
       </c>
@@ -5202,7 +5282,7 @@
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
     </row>
-    <row r="24" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" ht="54" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>52</v>
       </c>
@@ -5230,7 +5310,7 @@
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
     </row>
-    <row r="25" spans="1:18" ht="66" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>62</v>
       </c>
@@ -5258,7 +5338,7 @@
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
     </row>
-    <row r="26" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" ht="54" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>63</v>
       </c>
@@ -5286,7 +5366,7 @@
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
     </row>
-    <row r="27" spans="1:18" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" ht="81" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>65</v>
       </c>
@@ -5314,7 +5394,7 @@
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
     </row>
-    <row r="28" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>69</v>
       </c>
@@ -5342,7 +5422,7 @@
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
     </row>
-    <row r="29" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>71</v>
       </c>
@@ -5370,7 +5450,7 @@
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
     </row>
-    <row r="30" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>88</v>
       </c>
@@ -5398,7 +5478,7 @@
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
     </row>
-    <row r="31" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" ht="54" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>90</v>
       </c>
@@ -5426,7 +5506,7 @@
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
     </row>
-    <row r="32" spans="1:18" ht="66" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" ht="54" x14ac:dyDescent="0.3">
       <c r="A32" s="38" t="s">
         <v>97</v>
       </c>
@@ -5454,7 +5534,7 @@
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
     </row>
-    <row r="33" spans="1:18" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:18" ht="54.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="38" t="s">
         <v>142</v>
       </c>
@@ -5482,7 +5562,7 @@
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
     </row>
-    <row r="34" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="14" t="s">
         <v>22</v>
       </c>
@@ -5507,7 +5587,7 @@
       <c r="Q34" s="4"/>
       <c r="R34" s="4"/>
     </row>
-    <row r="35" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="16"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -5527,7 +5607,7 @@
       <c r="Q35" s="4"/>
       <c r="R35" s="4"/>
     </row>
-    <row r="36" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>0</v>
       </c>
@@ -5551,7 +5631,7 @@
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
     </row>
-    <row r="37" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
         <v>2</v>
       </c>
@@ -5577,7 +5657,7 @@
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
     </row>
-    <row r="38" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18" ht="54" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
         <v>148</v>
       </c>
@@ -5605,7 +5685,7 @@
       <c r="Q38" s="4"/>
       <c r="R38" s="4"/>
     </row>
-    <row r="39" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" ht="27" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>150</v>
       </c>
@@ -5633,7 +5713,7 @@
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
     </row>
-    <row r="40" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
         <v>152</v>
       </c>
@@ -5661,7 +5741,7 @@
       <c r="Q40" s="4"/>
       <c r="R40" s="4"/>
     </row>
-    <row r="41" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" ht="54" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
         <v>154</v>
       </c>
@@ -5689,7 +5769,7 @@
       <c r="Q41" s="4"/>
       <c r="R41" s="4"/>
     </row>
-    <row r="42" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" ht="27" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
         <v>156</v>
       </c>
@@ -5717,7 +5797,7 @@
       <c r="Q42" s="4"/>
       <c r="R42" s="4"/>
     </row>
-    <row r="43" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18" ht="27" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
         <v>158</v>
       </c>
@@ -5745,7 +5825,7 @@
       <c r="Q43" s="4"/>
       <c r="R43" s="4"/>
     </row>
-    <row r="44" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
         <v>165</v>
       </c>
@@ -5773,7 +5853,7 @@
       <c r="Q44" s="4"/>
       <c r="R44" s="4"/>
     </row>
-    <row r="45" spans="1:18" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:18" ht="81.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="23" t="s">
         <v>167</v>
       </c>
@@ -5801,7 +5881,7 @@
       <c r="Q45" s="4"/>
       <c r="R45" s="4"/>
     </row>
-    <row r="46" spans="1:18" ht="106.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:18" ht="108.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="23" t="s">
         <v>169</v>
       </c>
@@ -5829,7 +5909,7 @@
       <c r="Q46" s="4"/>
       <c r="R46" s="4"/>
     </row>
-    <row r="47" spans="1:18" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:18" ht="41.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="42" t="s">
         <v>171</v>
       </c>
@@ -5857,7 +5937,7 @@
       <c r="Q47" s="4"/>
       <c r="R47" s="4"/>
     </row>
-    <row r="48" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="42" t="s">
         <v>173</v>
       </c>
@@ -5885,7 +5965,7 @@
       <c r="Q48" s="4"/>
       <c r="R48" s="4"/>
     </row>
-    <row r="49" spans="1:18" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:18" ht="41.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="42" t="s">
         <v>181</v>
       </c>
@@ -5913,7 +5993,7 @@
       <c r="Q49" s="4"/>
       <c r="R49" s="4"/>
     </row>
-    <row r="50" spans="1:18" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:18" ht="81.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="42" t="s">
         <v>183</v>
       </c>
@@ -5941,7 +6021,7 @@
       <c r="Q50" s="4"/>
       <c r="R50" s="4"/>
     </row>
-    <row r="51" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="42" t="s">
         <v>189</v>
       </c>
@@ -5969,7 +6049,7 @@
       <c r="Q51" s="4"/>
       <c r="R51" s="4"/>
     </row>
-    <row r="52" spans="1:18" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:18" ht="68.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="42" t="s">
         <v>191</v>
       </c>
@@ -5997,7 +6077,7 @@
       <c r="Q52" s="4"/>
       <c r="R52" s="4"/>
     </row>
-    <row r="53" spans="1:18" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:18" ht="81.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="42" t="s">
         <v>195</v>
       </c>
@@ -6025,7 +6105,7 @@
       <c r="Q53" s="4"/>
       <c r="R53" s="4"/>
     </row>
-    <row r="54" spans="1:18" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:18" ht="81.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="42" t="s">
         <v>197</v>
       </c>
@@ -6053,7 +6133,7 @@
       <c r="Q54" s="4"/>
       <c r="R54" s="4"/>
     </row>
-    <row r="55" spans="1:18" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:18" ht="54.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="42" t="s">
         <v>243</v>
       </c>
@@ -6081,7 +6161,7 @@
       <c r="Q55" s="4"/>
       <c r="R55" s="4"/>
     </row>
-    <row r="56" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="14" t="s">
         <v>22</v>
       </c>
@@ -6106,7 +6186,7 @@
       <c r="Q56" s="4"/>
       <c r="R56" s="4"/>
     </row>
-    <row r="57" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="16"/>
       <c r="B57" s="16"/>
       <c r="C57" s="16"/>
@@ -6126,7 +6206,7 @@
       <c r="Q57" s="4"/>
       <c r="R57" s="4"/>
     </row>
-    <row r="58" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>0</v>
       </c>
@@ -6150,7 +6230,7 @@
       <c r="Q58" s="4"/>
       <c r="R58" s="4"/>
     </row>
-    <row r="59" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="5" t="s">
         <v>2</v>
       </c>
@@ -6176,7 +6256,7 @@
       <c r="Q59" s="4"/>
       <c r="R59" s="4"/>
     </row>
-    <row r="60" spans="1:18" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:18" ht="81" x14ac:dyDescent="0.3">
       <c r="A60" s="19" t="s">
         <v>245</v>
       </c>
@@ -6204,7 +6284,7 @@
       <c r="Q60" s="4"/>
       <c r="R60" s="4"/>
     </row>
-    <row r="61" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A61" s="58" t="s">
         <v>245</v>
       </c>
@@ -6232,7 +6312,7 @@
       <c r="Q61" s="4"/>
       <c r="R61" s="4"/>
     </row>
-    <row r="62" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:18" ht="54" x14ac:dyDescent="0.3">
       <c r="A62" s="7" t="s">
         <v>245</v>
       </c>
@@ -6260,11 +6340,19 @@
       <c r="Q62" s="4"/>
       <c r="R62" s="4"/>
     </row>
-    <row r="63" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A63" s="7"/>
-      <c r="B63" s="7"/>
-      <c r="C63" s="9"/>
-      <c r="D63" s="9"/>
+    <row r="63" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
+      <c r="A63" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="B63" s="7">
+        <v>4</v>
+      </c>
+      <c r="C63" s="35">
+        <v>43969</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>257</v>
+      </c>
       <c r="E63" s="10"/>
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
@@ -6280,11 +6368,19 @@
       <c r="Q63" s="4"/>
       <c r="R63" s="4"/>
     </row>
-    <row r="64" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A64" s="7"/>
-      <c r="B64" s="7"/>
-      <c r="C64" s="9"/>
-      <c r="D64" s="9"/>
+    <row r="64" spans="1:18" ht="94.5" x14ac:dyDescent="0.3">
+      <c r="A64" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="B64" s="7">
+        <v>5.5</v>
+      </c>
+      <c r="C64" s="35">
+        <v>43970</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>259</v>
+      </c>
       <c r="E64" s="10"/>
       <c r="F64" s="4"/>
       <c r="G64" s="4"/>
@@ -6300,11 +6396,19 @@
       <c r="Q64" s="4"/>
       <c r="R64" s="4"/>
     </row>
-    <row r="65" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A65" s="7"/>
-      <c r="B65" s="7"/>
-      <c r="C65" s="9"/>
-      <c r="D65" s="9"/>
+    <row r="65" spans="1:18" ht="81" x14ac:dyDescent="0.3">
+      <c r="A65" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="B65" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="C65" s="35">
+        <v>43971</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>260</v>
+      </c>
       <c r="E65" s="10"/>
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
@@ -6320,11 +6424,19 @@
       <c r="Q65" s="4"/>
       <c r="R65" s="4"/>
     </row>
-    <row r="66" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A66" s="7"/>
-      <c r="B66" s="7"/>
-      <c r="C66" s="9"/>
-      <c r="D66" s="9"/>
+    <row r="66" spans="1:18" ht="54" x14ac:dyDescent="0.3">
+      <c r="A66" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="B66" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="C66" s="35">
+        <v>43972</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>261</v>
+      </c>
       <c r="E66" s="10"/>
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
@@ -6340,11 +6452,19 @@
       <c r="Q66" s="4"/>
       <c r="R66" s="4"/>
     </row>
-    <row r="67" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A67" s="25"/>
-      <c r="B67" s="25"/>
-      <c r="C67" s="26"/>
-      <c r="D67" s="26"/>
+    <row r="67" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A67" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B67" s="25">
+        <v>1</v>
+      </c>
+      <c r="C67" s="61">
+        <v>43974</v>
+      </c>
+      <c r="D67" s="26" t="s">
+        <v>262</v>
+      </c>
       <c r="E67" s="10"/>
       <c r="F67" s="4"/>
       <c r="G67" s="4"/>
@@ -6360,11 +6480,19 @@
       <c r="Q67" s="4"/>
       <c r="R67" s="4"/>
     </row>
-    <row r="68" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A68" s="25"/>
-      <c r="B68" s="25"/>
-      <c r="C68" s="26"/>
-      <c r="D68" s="26"/>
+    <row r="68" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
+      <c r="A68" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B68" s="25">
+        <v>3</v>
+      </c>
+      <c r="C68" s="61">
+        <v>43975</v>
+      </c>
+      <c r="D68" s="26" t="s">
+        <v>263</v>
+      </c>
       <c r="E68" s="10"/>
       <c r="F68" s="4"/>
       <c r="G68" s="4"/>
@@ -6380,11 +6508,19 @@
       <c r="Q68" s="4"/>
       <c r="R68" s="4"/>
     </row>
-    <row r="69" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A69" s="25"/>
-      <c r="B69" s="25"/>
-      <c r="C69" s="26"/>
-      <c r="D69" s="26"/>
+    <row r="69" spans="1:18" ht="54" x14ac:dyDescent="0.3">
+      <c r="A69" s="25" t="s">
+        <v>264</v>
+      </c>
+      <c r="B69" s="25">
+        <v>4</v>
+      </c>
+      <c r="C69" s="61">
+        <v>43976</v>
+      </c>
+      <c r="D69" s="26" t="s">
+        <v>265</v>
+      </c>
       <c r="E69" s="10"/>
       <c r="F69" s="4"/>
       <c r="G69" s="4"/>
@@ -6400,7 +6536,7 @@
       <c r="Q69" s="4"/>
       <c r="R69" s="4"/>
     </row>
-    <row r="70" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A70" s="25"/>
       <c r="B70" s="25"/>
       <c r="C70" s="26"/>
@@ -6420,7 +6556,7 @@
       <c r="Q70" s="4"/>
       <c r="R70" s="4"/>
     </row>
-    <row r="71" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="23"/>
       <c r="B71" s="23"/>
       <c r="C71" s="24"/>
@@ -6440,13 +6576,13 @@
       <c r="Q71" s="4"/>
       <c r="R71" s="4"/>
     </row>
-    <row r="72" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="14" t="s">
         <v>22</v>
       </c>
       <c r="B72" s="14">
         <f>SUM(B60:B71)</f>
-        <v>8</v>
+        <v>30.5</v>
       </c>
       <c r="C72" s="15"/>
       <c r="D72" s="15"/>
@@ -6465,7 +6601,7 @@
       <c r="Q72" s="4"/>
       <c r="R72" s="4"/>
     </row>
-    <row r="73" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="16"/>
       <c r="B73" s="16"/>
       <c r="C73" s="16"/>
@@ -6485,7 +6621,7 @@
       <c r="Q73" s="4"/>
       <c r="R73" s="4"/>
     </row>
-    <row r="74" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>0</v>
       </c>
@@ -6509,7 +6645,7 @@
       <c r="Q74" s="4"/>
       <c r="R74" s="4"/>
     </row>
-    <row r="75" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="5" t="s">
         <v>2</v>
       </c>
@@ -6535,7 +6671,7 @@
       <c r="Q75" s="4"/>
       <c r="R75" s="4"/>
     </row>
-    <row r="76" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A76" s="19"/>
       <c r="B76" s="19"/>
       <c r="C76" s="20"/>
@@ -6555,7 +6691,7 @@
       <c r="Q76" s="4"/>
       <c r="R76" s="4"/>
     </row>
-    <row r="77" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A77" s="7"/>
       <c r="B77" s="7"/>
       <c r="C77" s="9"/>
@@ -6575,7 +6711,7 @@
       <c r="Q77" s="4"/>
       <c r="R77" s="4"/>
     </row>
-    <row r="78" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A78" s="7"/>
       <c r="B78" s="7"/>
       <c r="C78" s="9"/>
@@ -6595,7 +6731,7 @@
       <c r="Q78" s="4"/>
       <c r="R78" s="4"/>
     </row>
-    <row r="79" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A79" s="7"/>
       <c r="B79" s="7"/>
       <c r="C79" s="9"/>
@@ -6615,7 +6751,7 @@
       <c r="Q79" s="4"/>
       <c r="R79" s="4"/>
     </row>
-    <row r="80" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A80" s="7"/>
       <c r="B80" s="7"/>
       <c r="C80" s="9"/>
@@ -6635,7 +6771,7 @@
       <c r="Q80" s="4"/>
       <c r="R80" s="4"/>
     </row>
-    <row r="81" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="23"/>
       <c r="B81" s="23"/>
       <c r="C81" s="24"/>
@@ -6655,7 +6791,7 @@
       <c r="Q81" s="4"/>
       <c r="R81" s="4"/>
     </row>
-    <row r="82" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="14" t="s">
         <v>22</v>
       </c>
@@ -6680,7 +6816,7 @@
       <c r="Q82" s="4"/>
       <c r="R82" s="4"/>
     </row>
-    <row r="83" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="16"/>
       <c r="B83" s="16"/>
       <c r="C83" s="16"/>
@@ -6700,7 +6836,7 @@
       <c r="Q83" s="4"/>
       <c r="R83" s="4"/>
     </row>
-    <row r="84" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
         <v>0</v>
       </c>
@@ -6724,7 +6860,7 @@
       <c r="Q84" s="4"/>
       <c r="R84" s="4"/>
     </row>
-    <row r="85" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="5" t="s">
         <v>2</v>
       </c>
@@ -6750,7 +6886,7 @@
       <c r="Q85" s="4"/>
       <c r="R85" s="4"/>
     </row>
-    <row r="86" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A86" s="19"/>
       <c r="B86" s="19"/>
       <c r="C86" s="20"/>
@@ -6770,7 +6906,7 @@
       <c r="Q86" s="4"/>
       <c r="R86" s="4"/>
     </row>
-    <row r="87" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A87" s="7"/>
       <c r="B87" s="7"/>
       <c r="C87" s="9"/>
@@ -6790,7 +6926,7 @@
       <c r="Q87" s="4"/>
       <c r="R87" s="4"/>
     </row>
-    <row r="88" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A88" s="7"/>
       <c r="B88" s="7"/>
       <c r="C88" s="9"/>
@@ -6810,7 +6946,7 @@
       <c r="Q88" s="4"/>
       <c r="R88" s="4"/>
     </row>
-    <row r="89" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A89" s="7"/>
       <c r="B89" s="7"/>
       <c r="C89" s="9"/>
@@ -6830,7 +6966,7 @@
       <c r="Q89" s="4"/>
       <c r="R89" s="4"/>
     </row>
-    <row r="90" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A90" s="7"/>
       <c r="B90" s="7"/>
       <c r="C90" s="9"/>
@@ -6850,7 +6986,7 @@
       <c r="Q90" s="4"/>
       <c r="R90" s="4"/>
     </row>
-    <row r="91" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A91" s="7"/>
       <c r="B91" s="7"/>
       <c r="C91" s="9"/>
@@ -6870,7 +7006,7 @@
       <c r="Q91" s="4"/>
       <c r="R91" s="4"/>
     </row>
-    <row r="92" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A92" s="7"/>
       <c r="B92" s="7"/>
       <c r="C92" s="9"/>
@@ -6890,7 +7026,7 @@
       <c r="Q92" s="4"/>
       <c r="R92" s="4"/>
     </row>
-    <row r="93" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="23"/>
       <c r="B93" s="23"/>
       <c r="C93" s="24"/>
@@ -6910,7 +7046,7 @@
       <c r="Q93" s="4"/>
       <c r="R93" s="4"/>
     </row>
-    <row r="94" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="14" t="s">
         <v>22</v>
       </c>
@@ -6935,7 +7071,7 @@
       <c r="Q94" s="4"/>
       <c r="R94" s="4"/>
     </row>
-    <row r="95" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A95" s="16"/>
       <c r="B95" s="16"/>
       <c r="C95" s="16"/>
@@ -6955,7 +7091,7 @@
       <c r="Q95" s="4"/>
       <c r="R95" s="4"/>
     </row>
-    <row r="96" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A96" s="27"/>
       <c r="B96" s="27"/>
       <c r="C96" s="27"/>
@@ -6975,7 +7111,7 @@
       <c r="Q96" s="4"/>
       <c r="R96" s="4"/>
     </row>
-    <row r="97" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A97" s="27"/>
       <c r="B97" s="27"/>
       <c r="C97" s="27"/>
@@ -6995,7 +7131,7 @@
       <c r="Q97" s="4"/>
       <c r="R97" s="4"/>
     </row>
-    <row r="98" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A98" s="27"/>
       <c r="B98" s="27"/>
       <c r="C98" s="27"/>
@@ -7015,7 +7151,7 @@
       <c r="Q98" s="4"/>
       <c r="R98" s="4"/>
     </row>
-    <row r="99" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A99" s="27"/>
       <c r="B99" s="27"/>
       <c r="C99" s="27"/>
@@ -7035,7 +7171,7 @@
       <c r="Q99" s="4"/>
       <c r="R99" s="4"/>
     </row>
-    <row r="100" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A100" s="27"/>
       <c r="B100" s="27"/>
       <c r="C100" s="27"/>
@@ -7055,7 +7191,7 @@
       <c r="Q100" s="4"/>
       <c r="R100" s="4"/>
     </row>
-    <row r="101" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A101" s="27"/>
       <c r="B101" s="27"/>
       <c r="C101" s="27"/>
@@ -7075,7 +7211,7 @@
       <c r="Q101" s="4"/>
       <c r="R101" s="4"/>
     </row>
-    <row r="102" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A102" s="27"/>
       <c r="B102" s="27"/>
       <c r="C102" s="27"/>
@@ -7095,7 +7231,7 @@
       <c r="Q102" s="4"/>
       <c r="R102" s="4"/>
     </row>
-    <row r="103" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A103" s="27"/>
       <c r="B103" s="27"/>
       <c r="C103" s="27"/>
@@ -7115,7 +7251,7 @@
       <c r="Q103" s="4"/>
       <c r="R103" s="4"/>
     </row>
-    <row r="104" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A104" s="27"/>
       <c r="B104" s="27"/>
       <c r="C104" s="27"/>
@@ -7135,7 +7271,7 @@
       <c r="Q104" s="4"/>
       <c r="R104" s="4"/>
     </row>
-    <row r="105" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A105" s="27"/>
       <c r="B105" s="27"/>
       <c r="C105" s="27"/>
@@ -7155,13 +7291,13 @@
       <c r="Q105" s="4"/>
       <c r="R105" s="4"/>
     </row>
-    <row r="106" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A106" s="27"/>
       <c r="B106" s="27"/>
       <c r="C106" s="27"/>
       <c r="D106" s="27"/>
     </row>
-    <row r="107" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A107" s="28"/>
       <c r="B107" s="28"/>
       <c r="C107" s="28"/>
@@ -7173,7 +7309,7 @@
       <formula1>0</formula1>
       <formula2>DureePeriode-1</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" prompt="Durée en 1/3 de période - Le nombre doit être de type entier" sqref="B86:B93 B38:B39 B60:B71 B76:B81 B10:B11 B3:B8 B16:B33 B41:B45" xr:uid="{3039B7E3-952E-4B34-B612-E5A0C049619C}">
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" prompt="Durée en 1/3 de période - Le nombre doit être de type entier" sqref="B86:B93 B38:B39 B41:B45 B76:B81 B10:B11 B3:B8 B16:B33 B60:B71" xr:uid="{3039B7E3-952E-4B34-B612-E5A0C049619C}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -7185,18 +7321,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716E2DDB-6361-470B-ACF3-8FDF9046203A}">
   <dimension ref="A1:R117"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A61" workbookViewId="0">
       <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="78.44140625" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="78.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7222,7 +7358,7 @@
       <c r="Q1" s="4"/>
       <c r="R1" s="4"/>
     </row>
-    <row r="2" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -7250,7 +7386,7 @@
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
     </row>
-    <row r="3" spans="1:18" ht="92.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="94.5" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
@@ -7278,7 +7414,7 @@
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
     </row>
-    <row r="4" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="54" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
@@ -7306,7 +7442,7 @@
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
     </row>
-    <row r="5" spans="1:18" ht="66" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
@@ -7334,7 +7470,7 @@
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
     </row>
-    <row r="6" spans="1:18" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="81" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
         <v>12</v>
       </c>
@@ -7362,7 +7498,7 @@
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
     </row>
-    <row r="7" spans="1:18" ht="66" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>14</v>
       </c>
@@ -7390,7 +7526,7 @@
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
     </row>
-    <row r="8" spans="1:18" ht="118.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="108" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
         <v>16</v>
       </c>
@@ -7418,7 +7554,7 @@
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
     </row>
-    <row r="9" spans="1:18" ht="105.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" ht="94.5" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
         <v>18</v>
       </c>
@@ -7446,7 +7582,7 @@
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
     </row>
-    <row r="10" spans="1:18" ht="66" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
@@ -7474,7 +7610,7 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
     </row>
-    <row r="11" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>23</v>
       </c>
@@ -7500,7 +7636,7 @@
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
     </row>
-    <row r="12" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>25</v>
       </c>
@@ -7526,7 +7662,7 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
     </row>
-    <row r="13" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" ht="27" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
         <v>22</v>
       </c>
@@ -7551,7 +7687,7 @@
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
     </row>
-    <row r="14" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A14" s="16"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
@@ -7571,7 +7707,7 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
     </row>
-    <row r="15" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" ht="18" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -7621,7 +7757,7 @@
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
     </row>
-    <row r="17" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" ht="27" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
         <v>103</v>
       </c>
@@ -7647,7 +7783,7 @@
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
     </row>
-    <row r="18" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>105</v>
       </c>
@@ -7671,7 +7807,7 @@
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
     </row>
-    <row r="19" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" ht="54" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>106</v>
       </c>
@@ -7697,7 +7833,7 @@
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
     </row>
-    <row r="20" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>108</v>
       </c>
@@ -7723,7 +7859,7 @@
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
     </row>
-    <row r="21" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" ht="54" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>110</v>
       </c>
@@ -7749,7 +7885,7 @@
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
     </row>
-    <row r="22" spans="1:18" ht="66" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>112</v>
       </c>
@@ -7775,7 +7911,7 @@
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
     </row>
-    <row r="23" spans="1:18" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" ht="81" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>114</v>
       </c>
@@ -7801,7 +7937,7 @@
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
     </row>
-    <row r="24" spans="1:18" ht="105.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" ht="108" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>116</v>
       </c>
@@ -7827,7 +7963,7 @@
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
     </row>
-    <row r="25" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" ht="27" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>118</v>
       </c>
@@ -7853,7 +7989,7 @@
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
     </row>
-    <row r="26" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>120</v>
       </c>
@@ -7879,7 +8015,7 @@
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
     </row>
-    <row r="27" spans="1:18" ht="118.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" ht="121.5" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>122</v>
       </c>
@@ -7905,7 +8041,7 @@
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
     </row>
-    <row r="28" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>124</v>
       </c>
@@ -7931,7 +8067,7 @@
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
     </row>
-    <row r="29" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>126</v>
       </c>
@@ -7957,7 +8093,7 @@
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
     </row>
-    <row r="30" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>124</v>
       </c>
@@ -7983,7 +8119,7 @@
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
     </row>
-    <row r="31" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" ht="27" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>129</v>
       </c>
@@ -8009,7 +8145,7 @@
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
     </row>
-    <row r="32" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" ht="27" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>131</v>
       </c>
@@ -8035,7 +8171,7 @@
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
     </row>
-    <row r="33" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>133</v>
       </c>
@@ -8061,7 +8197,7 @@
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
     </row>
-    <row r="34" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" ht="27" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>134</v>
       </c>
@@ -8087,7 +8223,7 @@
       <c r="Q34" s="4"/>
       <c r="R34" s="4"/>
     </row>
-    <row r="35" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>136</v>
       </c>
@@ -8113,7 +8249,7 @@
       <c r="Q35" s="4"/>
       <c r="R35" s="4"/>
     </row>
-    <row r="36" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" ht="27" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>138</v>
       </c>
@@ -8139,7 +8275,7 @@
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
     </row>
-    <row r="37" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" ht="27" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
         <v>140</v>
       </c>
@@ -8165,7 +8301,7 @@
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
     </row>
-    <row r="38" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="9"/>
@@ -8185,7 +8321,7 @@
       <c r="Q38" s="4"/>
       <c r="R38" s="4"/>
     </row>
-    <row r="39" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="14" t="s">
         <v>22</v>
       </c>
@@ -8210,7 +8346,7 @@
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
     </row>
-    <row r="40" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A40" s="16"/>
       <c r="B40" s="16"/>
       <c r="C40" s="16"/>
@@ -8230,7 +8366,7 @@
       <c r="Q40" s="4"/>
       <c r="R40" s="4"/>
     </row>
-    <row r="41" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" ht="18" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>0</v>
       </c>
@@ -8254,7 +8390,7 @@
       <c r="Q41" s="4"/>
       <c r="R41" s="4"/>
     </row>
-    <row r="42" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
         <v>2</v>
       </c>
@@ -8280,7 +8416,7 @@
       <c r="Q42" s="4"/>
       <c r="R42" s="4"/>
     </row>
-    <row r="43" spans="1:18" s="50" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18" s="50" customFormat="1" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A43" s="33" t="s">
         <v>202</v>
       </c>
@@ -8304,7 +8440,7 @@
       <c r="Q43" s="49"/>
       <c r="R43" s="49"/>
     </row>
-    <row r="44" spans="1:18" s="50" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" s="50" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A44" s="33" t="s">
         <v>203</v>
       </c>
@@ -8330,7 +8466,7 @@
       <c r="Q44" s="49"/>
       <c r="R44" s="49"/>
     </row>
-    <row r="45" spans="1:18" s="50" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:18" s="50" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A45" s="33" t="s">
         <v>205</v>
       </c>
@@ -8354,7 +8490,7 @@
       <c r="Q45" s="49"/>
       <c r="R45" s="49"/>
     </row>
-    <row r="46" spans="1:18" s="50" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:18" s="50" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A46" s="33" t="s">
         <v>206</v>
       </c>
@@ -8378,7 +8514,7 @@
       <c r="Q46" s="49"/>
       <c r="R46" s="49"/>
     </row>
-    <row r="47" spans="1:18" s="50" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:18" s="50" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A47" s="33" t="s">
         <v>207</v>
       </c>
@@ -8402,7 +8538,7 @@
       <c r="Q47" s="49"/>
       <c r="R47" s="49"/>
     </row>
-    <row r="48" spans="1:18" s="50" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:18" s="50" customFormat="1" ht="54" x14ac:dyDescent="0.3">
       <c r="A48" s="33" t="s">
         <v>208</v>
       </c>
@@ -8428,7 +8564,7 @@
       <c r="Q48" s="49"/>
       <c r="R48" s="49"/>
     </row>
-    <row r="49" spans="1:18" s="50" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:18" s="50" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A49" s="33" t="s">
         <v>210</v>
       </c>
@@ -8454,7 +8590,7 @@
       <c r="Q49" s="49"/>
       <c r="R49" s="49"/>
     </row>
-    <row r="50" spans="1:18" s="50" customFormat="1" ht="92.4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:18" s="50" customFormat="1" ht="94.5" x14ac:dyDescent="0.3">
       <c r="A50" s="53" t="s">
         <v>212</v>
       </c>
@@ -8480,7 +8616,7 @@
       <c r="Q50" s="49"/>
       <c r="R50" s="49"/>
     </row>
-    <row r="51" spans="1:18" s="50" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:18" s="50" customFormat="1" ht="54" x14ac:dyDescent="0.3">
       <c r="A51" s="53" t="s">
         <v>214</v>
       </c>
@@ -8506,7 +8642,7 @@
       <c r="Q51" s="49"/>
       <c r="R51" s="49"/>
     </row>
-    <row r="52" spans="1:18" s="50" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:18" s="50" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A52" s="53" t="s">
         <v>216</v>
       </c>
@@ -8532,7 +8668,7 @@
       <c r="Q52" s="49"/>
       <c r="R52" s="49"/>
     </row>
-    <row r="53" spans="1:18" s="50" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:18" s="50" customFormat="1" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A53" s="53" t="s">
         <v>218</v>
       </c>
@@ -8558,7 +8694,7 @@
       <c r="Q53" s="49"/>
       <c r="R53" s="49"/>
     </row>
-    <row r="54" spans="1:18" s="50" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:18" s="50" customFormat="1" ht="54" x14ac:dyDescent="0.3">
       <c r="A54" s="53" t="s">
         <v>220</v>
       </c>
@@ -8584,7 +8720,7 @@
       <c r="Q54" s="49"/>
       <c r="R54" s="49"/>
     </row>
-    <row r="55" spans="1:18" s="50" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:18" s="50" customFormat="1" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A55" s="53" t="s">
         <v>222</v>
       </c>
@@ -8610,7 +8746,7 @@
       <c r="Q55" s="49"/>
       <c r="R55" s="49"/>
     </row>
-    <row r="56" spans="1:18" s="50" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:18" s="50" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A56" s="53" t="s">
         <v>224</v>
       </c>
@@ -8636,7 +8772,7 @@
       <c r="Q56" s="49"/>
       <c r="R56" s="49"/>
     </row>
-    <row r="57" spans="1:18" s="50" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:18" s="50" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A57" s="53" t="s">
         <v>224</v>
       </c>
@@ -8662,7 +8798,7 @@
       <c r="Q57" s="49"/>
       <c r="R57" s="49"/>
     </row>
-    <row r="58" spans="1:18" s="50" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:18" s="50" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A58" s="53" t="s">
         <v>224</v>
       </c>
@@ -8688,7 +8824,7 @@
       <c r="Q58" s="49"/>
       <c r="R58" s="49"/>
     </row>
-    <row r="59" spans="1:18" s="50" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:18" s="50" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A59" s="53" t="s">
         <v>228</v>
       </c>
@@ -8714,7 +8850,7 @@
       <c r="Q59" s="49"/>
       <c r="R59" s="49"/>
     </row>
-    <row r="60" spans="1:18" s="50" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:18" s="50" customFormat="1" ht="81" x14ac:dyDescent="0.3">
       <c r="A60" s="53" t="s">
         <v>230</v>
       </c>
@@ -8740,7 +8876,7 @@
       <c r="Q60" s="49"/>
       <c r="R60" s="49"/>
     </row>
-    <row r="61" spans="1:18" s="50" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:18" s="50" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A61" s="53" t="s">
         <v>228</v>
       </c>
@@ -8766,7 +8902,7 @@
       <c r="Q61" s="49"/>
       <c r="R61" s="49"/>
     </row>
-    <row r="62" spans="1:18" s="50" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:18" s="50" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A62" s="53" t="s">
         <v>233</v>
       </c>
@@ -8792,7 +8928,7 @@
       <c r="Q62" s="49"/>
       <c r="R62" s="49"/>
     </row>
-    <row r="63" spans="1:18" s="50" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:18" s="50" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A63" s="53" t="s">
         <v>235</v>
       </c>
@@ -8818,7 +8954,7 @@
       <c r="Q63" s="49"/>
       <c r="R63" s="49"/>
     </row>
-    <row r="64" spans="1:18" s="50" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:18" s="50" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A64" s="53" t="s">
         <v>237</v>
       </c>
@@ -8844,7 +8980,7 @@
       <c r="Q64" s="49"/>
       <c r="R64" s="49"/>
     </row>
-    <row r="65" spans="1:18" s="50" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:18" s="50" customFormat="1" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="55" t="s">
         <v>239</v>
       </c>
@@ -8870,7 +9006,7 @@
       <c r="Q65" s="49"/>
       <c r="R65" s="49"/>
     </row>
-    <row r="66" spans="1:18" s="50" customFormat="1" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:18" s="50" customFormat="1" ht="41.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="53" t="s">
         <v>241</v>
       </c>
@@ -8894,7 +9030,7 @@
       <c r="Q66" s="49"/>
       <c r="R66" s="49"/>
     </row>
-    <row r="67" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="14" t="s">
         <v>22</v>
       </c>
@@ -8919,7 +9055,7 @@
       <c r="Q67" s="4"/>
       <c r="R67" s="4"/>
     </row>
-    <row r="68" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A68" s="16"/>
       <c r="B68" s="16"/>
       <c r="C68" s="16"/>
@@ -8939,7 +9075,7 @@
       <c r="Q68" s="4"/>
       <c r="R68" s="4"/>
     </row>
-    <row r="69" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:18" ht="18" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>0</v>
       </c>
@@ -8989,7 +9125,7 @@
       <c r="Q70" s="4"/>
       <c r="R70" s="4"/>
     </row>
-    <row r="71" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A71" s="19"/>
       <c r="B71" s="19"/>
       <c r="C71" s="20"/>
@@ -9009,7 +9145,7 @@
       <c r="Q71" s="4"/>
       <c r="R71" s="4"/>
     </row>
-    <row r="72" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A72" s="7"/>
       <c r="B72" s="7"/>
       <c r="C72" s="9"/>
@@ -9029,7 +9165,7 @@
       <c r="Q72" s="4"/>
       <c r="R72" s="4"/>
     </row>
-    <row r="73" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="7"/>
       <c r="B73" s="7"/>
       <c r="C73" s="9"/>
@@ -9049,7 +9185,7 @@
       <c r="Q73" s="4"/>
       <c r="R73" s="4"/>
     </row>
-    <row r="74" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="7"/>
       <c r="B74" s="7"/>
       <c r="C74" s="9"/>
@@ -9069,7 +9205,7 @@
       <c r="Q74" s="4"/>
       <c r="R74" s="4"/>
     </row>
-    <row r="75" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="7"/>
       <c r="B75" s="7"/>
       <c r="C75" s="9"/>
@@ -9089,7 +9225,7 @@
       <c r="Q75" s="4"/>
       <c r="R75" s="4"/>
     </row>
-    <row r="76" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="7"/>
       <c r="B76" s="7"/>
       <c r="C76" s="9"/>
@@ -9109,7 +9245,7 @@
       <c r="Q76" s="4"/>
       <c r="R76" s="4"/>
     </row>
-    <row r="77" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="25"/>
       <c r="B77" s="25"/>
       <c r="C77" s="26"/>
@@ -9129,7 +9265,7 @@
       <c r="Q77" s="4"/>
       <c r="R77" s="4"/>
     </row>
-    <row r="78" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="25"/>
       <c r="B78" s="25"/>
       <c r="C78" s="26"/>
@@ -9149,7 +9285,7 @@
       <c r="Q78" s="4"/>
       <c r="R78" s="4"/>
     </row>
-    <row r="79" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="25"/>
       <c r="B79" s="25"/>
       <c r="C79" s="26"/>
@@ -9169,7 +9305,7 @@
       <c r="Q79" s="4"/>
       <c r="R79" s="4"/>
     </row>
-    <row r="80" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="25"/>
       <c r="B80" s="25"/>
       <c r="C80" s="26"/>
@@ -9189,7 +9325,7 @@
       <c r="Q80" s="4"/>
       <c r="R80" s="4"/>
     </row>
-    <row r="81" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="23"/>
       <c r="B81" s="23"/>
       <c r="C81" s="24"/>
@@ -9209,7 +9345,7 @@
       <c r="Q81" s="4"/>
       <c r="R81" s="4"/>
     </row>
-    <row r="82" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="14" t="s">
         <v>22</v>
       </c>
@@ -9234,7 +9370,7 @@
       <c r="Q82" s="4"/>
       <c r="R82" s="4"/>
     </row>
-    <row r="83" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="16"/>
       <c r="B83" s="16"/>
       <c r="C83" s="16"/>
@@ -9254,7 +9390,7 @@
       <c r="Q83" s="4"/>
       <c r="R83" s="4"/>
     </row>
-    <row r="84" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
         <v>0</v>
       </c>
@@ -9278,7 +9414,7 @@
       <c r="Q84" s="4"/>
       <c r="R84" s="4"/>
     </row>
-    <row r="85" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="5" t="s">
         <v>2</v>
       </c>
@@ -9304,7 +9440,7 @@
       <c r="Q85" s="4"/>
       <c r="R85" s="4"/>
     </row>
-    <row r="86" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="19"/>
       <c r="B86" s="19"/>
       <c r="C86" s="20"/>
@@ -9324,7 +9460,7 @@
       <c r="Q86" s="4"/>
       <c r="R86" s="4"/>
     </row>
-    <row r="87" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="7"/>
       <c r="B87" s="7"/>
       <c r="C87" s="9"/>
@@ -9344,7 +9480,7 @@
       <c r="Q87" s="4"/>
       <c r="R87" s="4"/>
     </row>
-    <row r="88" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A88" s="7"/>
       <c r="B88" s="7"/>
       <c r="C88" s="9"/>
@@ -9364,7 +9500,7 @@
       <c r="Q88" s="4"/>
       <c r="R88" s="4"/>
     </row>
-    <row r="89" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A89" s="7"/>
       <c r="B89" s="7"/>
       <c r="C89" s="9"/>
@@ -9384,7 +9520,7 @@
       <c r="Q89" s="4"/>
       <c r="R89" s="4"/>
     </row>
-    <row r="90" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A90" s="7"/>
       <c r="B90" s="7"/>
       <c r="C90" s="9"/>
@@ -9404,7 +9540,7 @@
       <c r="Q90" s="4"/>
       <c r="R90" s="4"/>
     </row>
-    <row r="91" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A91" s="23"/>
       <c r="B91" s="23"/>
       <c r="C91" s="24"/>
@@ -9424,7 +9560,7 @@
       <c r="Q91" s="4"/>
       <c r="R91" s="4"/>
     </row>
-    <row r="92" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:18" ht="27" x14ac:dyDescent="0.3">
       <c r="A92" s="14" t="s">
         <v>22</v>
       </c>
@@ -9449,7 +9585,7 @@
       <c r="Q92" s="4"/>
       <c r="R92" s="4"/>
     </row>
-    <row r="93" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A93" s="16"/>
       <c r="B93" s="16"/>
       <c r="C93" s="16"/>
@@ -9469,7 +9605,7 @@
       <c r="Q93" s="4"/>
       <c r="R93" s="4"/>
     </row>
-    <row r="94" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:18" ht="18" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>0</v>
       </c>
@@ -9519,7 +9655,7 @@
       <c r="Q95" s="4"/>
       <c r="R95" s="4"/>
     </row>
-    <row r="96" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A96" s="19"/>
       <c r="B96" s="19"/>
       <c r="C96" s="20"/>
@@ -9539,7 +9675,7 @@
       <c r="Q96" s="4"/>
       <c r="R96" s="4"/>
     </row>
-    <row r="97" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A97" s="7"/>
       <c r="B97" s="7"/>
       <c r="C97" s="9"/>
@@ -9559,7 +9695,7 @@
       <c r="Q97" s="4"/>
       <c r="R97" s="4"/>
     </row>
-    <row r="98" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A98" s="7"/>
       <c r="B98" s="7"/>
       <c r="C98" s="9"/>
@@ -9579,7 +9715,7 @@
       <c r="Q98" s="4"/>
       <c r="R98" s="4"/>
     </row>
-    <row r="99" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A99" s="7"/>
       <c r="B99" s="7"/>
       <c r="C99" s="9"/>
@@ -9599,7 +9735,7 @@
       <c r="Q99" s="4"/>
       <c r="R99" s="4"/>
     </row>
-    <row r="100" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A100" s="7"/>
       <c r="B100" s="7"/>
       <c r="C100" s="9"/>
@@ -9619,7 +9755,7 @@
       <c r="Q100" s="4"/>
       <c r="R100" s="4"/>
     </row>
-    <row r="101" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A101" s="7"/>
       <c r="B101" s="7"/>
       <c r="C101" s="9"/>
@@ -9639,7 +9775,7 @@
       <c r="Q101" s="4"/>
       <c r="R101" s="4"/>
     </row>
-    <row r="102" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A102" s="7"/>
       <c r="B102" s="7"/>
       <c r="C102" s="9"/>
@@ -9659,7 +9795,7 @@
       <c r="Q102" s="4"/>
       <c r="R102" s="4"/>
     </row>
-    <row r="103" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A103" s="23"/>
       <c r="B103" s="23"/>
       <c r="C103" s="24"/>
@@ -9679,7 +9815,7 @@
       <c r="Q103" s="4"/>
       <c r="R103" s="4"/>
     </row>
-    <row r="104" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:18" ht="27" x14ac:dyDescent="0.3">
       <c r="A104" s="14" t="s">
         <v>22</v>
       </c>
@@ -9704,7 +9840,7 @@
       <c r="Q104" s="4"/>
       <c r="R104" s="4"/>
     </row>
-    <row r="105" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A105" s="16"/>
       <c r="B105" s="16"/>
       <c r="C105" s="16"/>
@@ -9724,7 +9860,7 @@
       <c r="Q105" s="4"/>
       <c r="R105" s="4"/>
     </row>
-    <row r="106" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A106" s="27"/>
       <c r="B106" s="27"/>
       <c r="C106" s="27"/>
@@ -9744,7 +9880,7 @@
       <c r="Q106" s="4"/>
       <c r="R106" s="4"/>
     </row>
-    <row r="107" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A107" s="27"/>
       <c r="B107" s="27"/>
       <c r="C107" s="27"/>
@@ -9764,7 +9900,7 @@
       <c r="Q107" s="4"/>
       <c r="R107" s="4"/>
     </row>
-    <row r="108" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A108" s="27"/>
       <c r="B108" s="27"/>
       <c r="C108" s="27"/>
@@ -9784,7 +9920,7 @@
       <c r="Q108" s="4"/>
       <c r="R108" s="4"/>
     </row>
-    <row r="109" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A109" s="27"/>
       <c r="B109" s="27"/>
       <c r="C109" s="27"/>
@@ -9804,7 +9940,7 @@
       <c r="Q109" s="4"/>
       <c r="R109" s="4"/>
     </row>
-    <row r="110" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A110" s="27"/>
       <c r="B110" s="27"/>
       <c r="C110" s="27"/>
@@ -9824,7 +9960,7 @@
       <c r="Q110" s="4"/>
       <c r="R110" s="4"/>
     </row>
-    <row r="111" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A111" s="27"/>
       <c r="B111" s="27"/>
       <c r="C111" s="27"/>
@@ -9844,7 +9980,7 @@
       <c r="Q111" s="4"/>
       <c r="R111" s="4"/>
     </row>
-    <row r="112" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A112" s="27"/>
       <c r="B112" s="27"/>
       <c r="C112" s="27"/>
@@ -9864,7 +10000,7 @@
       <c r="Q112" s="4"/>
       <c r="R112" s="4"/>
     </row>
-    <row r="113" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A113" s="27"/>
       <c r="B113" s="27"/>
       <c r="C113" s="27"/>
@@ -9884,7 +10020,7 @@
       <c r="Q113" s="4"/>
       <c r="R113" s="4"/>
     </row>
-    <row r="114" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A114" s="27"/>
       <c r="B114" s="27"/>
       <c r="C114" s="27"/>
@@ -9904,7 +10040,7 @@
       <c r="Q114" s="4"/>
       <c r="R114" s="4"/>
     </row>
-    <row r="115" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A115" s="27"/>
       <c r="B115" s="27"/>
       <c r="C115" s="27"/>
@@ -9924,7 +10060,7 @@
       <c r="Q115" s="4"/>
       <c r="R115" s="4"/>
     </row>
-    <row r="116" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A116" s="27"/>
       <c r="B116" s="27"/>
       <c r="C116" s="27"/>
@@ -9944,7 +10080,7 @@
       <c r="Q116" s="4"/>
       <c r="R116" s="4"/>
     </row>
-    <row r="117" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A117" s="28"/>
       <c r="B117" s="28"/>
       <c r="C117" s="28"/>
@@ -9982,18 +10118,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F222774-5003-490D-9078-78D1F6F89A4A}">
   <dimension ref="A1:R100"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54:D60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="78.44140625" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="78.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10019,7 +10155,7 @@
       <c r="Q1" s="4"/>
       <c r="R1" s="4"/>
     </row>
-    <row r="2" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -10047,7 +10183,7 @@
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
     </row>
-    <row r="3" spans="1:18" ht="92.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="94.5" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
@@ -10075,7 +10211,7 @@
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
     </row>
-    <row r="4" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="54" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
@@ -10103,7 +10239,7 @@
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
     </row>
-    <row r="5" spans="1:18" ht="66" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
@@ -10131,7 +10267,7 @@
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
     </row>
-    <row r="6" spans="1:18" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="81" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
         <v>12</v>
       </c>
@@ -10159,7 +10295,7 @@
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
     </row>
-    <row r="7" spans="1:18" ht="66" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>14</v>
       </c>
@@ -10187,7 +10323,7 @@
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
     </row>
-    <row r="8" spans="1:18" ht="118.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="108" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
         <v>16</v>
       </c>
@@ -10215,7 +10351,7 @@
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
     </row>
-    <row r="9" spans="1:18" ht="105.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" ht="94.5" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
         <v>18</v>
       </c>
@@ -10243,7 +10379,7 @@
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
     </row>
-    <row r="10" spans="1:18" ht="66" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
@@ -10271,7 +10407,7 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
     </row>
-    <row r="11" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" ht="27" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>28</v>
       </c>
@@ -10297,7 +10433,7 @@
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
     </row>
-    <row r="12" spans="1:18" ht="92.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" ht="94.5" x14ac:dyDescent="0.3">
       <c r="A12" s="33" t="s">
         <v>29</v>
       </c>
@@ -10323,7 +10459,7 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
     </row>
-    <row r="13" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="33" t="s">
         <v>32</v>
       </c>
@@ -10349,7 +10485,7 @@
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
     </row>
-    <row r="14" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="14" t="s">
         <v>22</v>
       </c>
@@ -10374,7 +10510,7 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
     </row>
-    <row r="15" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="16"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
@@ -10394,7 +10530,7 @@
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
     </row>
-    <row r="16" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -10418,7 +10554,7 @@
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
     </row>
-    <row r="17" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>2</v>
       </c>
@@ -10444,7 +10580,7 @@
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
     </row>
-    <row r="18" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" ht="54" x14ac:dyDescent="0.3">
       <c r="A18" s="29" t="s">
         <v>36</v>
       </c>
@@ -10472,7 +10608,7 @@
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
     </row>
-    <row r="19" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" ht="27" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>40</v>
       </c>
@@ -10500,7 +10636,7 @@
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
     </row>
-    <row r="20" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>54</v>
       </c>
@@ -10528,7 +10664,7 @@
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
     </row>
-    <row r="21" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" ht="27" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>56</v>
       </c>
@@ -10556,7 +10692,7 @@
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
     </row>
-    <row r="22" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" ht="27" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>58</v>
       </c>
@@ -10584,7 +10720,7 @@
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
     </row>
-    <row r="23" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>54</v>
       </c>
@@ -10612,7 +10748,7 @@
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
     </row>
-    <row r="24" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" ht="27" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>60</v>
       </c>
@@ -10640,7 +10776,7 @@
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
     </row>
-    <row r="25" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>86</v>
       </c>
@@ -10668,7 +10804,7 @@
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
     </row>
-    <row r="26" spans="1:18" ht="66" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>76</v>
       </c>
@@ -10696,7 +10832,7 @@
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
     </row>
-    <row r="27" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" ht="27" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>76</v>
       </c>
@@ -10724,7 +10860,7 @@
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
     </row>
-    <row r="28" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>76</v>
       </c>
@@ -10752,7 +10888,7 @@
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
     </row>
-    <row r="29" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" ht="27" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>76</v>
       </c>
@@ -10780,7 +10916,7 @@
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
     </row>
-    <row r="30" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" ht="27" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>76</v>
       </c>
@@ -10808,7 +10944,7 @@
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
     </row>
-    <row r="31" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="9"/>
@@ -10828,7 +10964,7 @@
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
     </row>
-    <row r="32" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="9"/>
@@ -10848,7 +10984,7 @@
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
     </row>
-    <row r="33" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="9"/>
@@ -10868,7 +11004,7 @@
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
     </row>
-    <row r="34" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="14" t="s">
         <v>22</v>
       </c>
@@ -10893,7 +11029,7 @@
       <c r="Q34" s="4"/>
       <c r="R34" s="4"/>
     </row>
-    <row r="35" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="16"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -10913,7 +11049,7 @@
       <c r="Q35" s="4"/>
       <c r="R35" s="4"/>
     </row>
-    <row r="36" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>0</v>
       </c>
@@ -10937,7 +11073,7 @@
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
     </row>
-    <row r="37" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
         <v>2</v>
       </c>
@@ -10963,7 +11099,7 @@
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
     </row>
-    <row r="38" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18" ht="54" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
         <v>40</v>
       </c>
@@ -10991,7 +11127,7 @@
       <c r="Q38" s="4"/>
       <c r="R38" s="4"/>
     </row>
-    <row r="39" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" ht="27" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>160</v>
       </c>
@@ -11019,7 +11155,7 @@
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
     </row>
-    <row r="40" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
         <v>160</v>
       </c>
@@ -11047,7 +11183,7 @@
       <c r="Q40" s="4"/>
       <c r="R40" s="4"/>
     </row>
-    <row r="41" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
         <v>160</v>
       </c>
@@ -11075,7 +11211,7 @@
       <c r="Q41" s="4"/>
       <c r="R41" s="4"/>
     </row>
-    <row r="42" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
         <v>160</v>
       </c>
@@ -11103,7 +11239,7 @@
       <c r="Q42" s="4"/>
       <c r="R42" s="4"/>
     </row>
-    <row r="43" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18" ht="27" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
         <v>160</v>
       </c>
@@ -11131,7 +11267,7 @@
       <c r="Q43" s="4"/>
       <c r="R43" s="4"/>
     </row>
-    <row r="44" spans="1:18" ht="66" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
         <v>160</v>
       </c>
@@ -11159,7 +11295,7 @@
       <c r="Q44" s="4"/>
       <c r="R44" s="4"/>
     </row>
-    <row r="45" spans="1:18" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:18" ht="41.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="23" t="s">
         <v>160</v>
       </c>
@@ -11187,7 +11323,7 @@
       <c r="Q45" s="4"/>
       <c r="R45" s="4"/>
     </row>
-    <row r="46" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="42" t="s">
         <v>160</v>
       </c>
@@ -11215,7 +11351,7 @@
       <c r="Q46" s="4"/>
       <c r="R46" s="4"/>
     </row>
-    <row r="47" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="42" t="s">
         <v>160</v>
       </c>
@@ -11243,7 +11379,7 @@
       <c r="Q47" s="4"/>
       <c r="R47" s="4"/>
     </row>
-    <row r="48" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="42" t="s">
         <v>160</v>
       </c>
@@ -11271,7 +11407,7 @@
       <c r="Q48" s="4"/>
       <c r="R48" s="4"/>
     </row>
-    <row r="49" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="42"/>
       <c r="B49" s="42"/>
       <c r="C49" s="44"/>
@@ -11291,7 +11427,7 @@
       <c r="Q49" s="4"/>
       <c r="R49" s="4"/>
     </row>
-    <row r="50" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="14" t="s">
         <v>22</v>
       </c>
@@ -11316,7 +11452,7 @@
       <c r="Q50" s="4"/>
       <c r="R50" s="4"/>
     </row>
-    <row r="51" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="16"/>
       <c r="B51" s="16"/>
       <c r="C51" s="16"/>
@@ -11336,7 +11472,7 @@
       <c r="Q51" s="4"/>
       <c r="R51" s="4"/>
     </row>
-    <row r="52" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>0</v>
       </c>
@@ -11360,7 +11496,7 @@
       <c r="Q52" s="4"/>
       <c r="R52" s="4"/>
     </row>
-    <row r="53" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="s">
         <v>2</v>
       </c>
@@ -11386,11 +11522,19 @@
       <c r="Q53" s="4"/>
       <c r="R53" s="4"/>
     </row>
-    <row r="54" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A54" s="19"/>
-      <c r="B54" s="19"/>
-      <c r="C54" s="20"/>
-      <c r="D54" s="20"/>
+    <row r="54" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+      <c r="A54" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="B54" s="19">
+        <v>4</v>
+      </c>
+      <c r="C54" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="D54" s="20" t="s">
+        <v>267</v>
+      </c>
       <c r="E54" s="10"/>
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
@@ -11406,11 +11550,19 @@
       <c r="Q54" s="4"/>
       <c r="R54" s="4"/>
     </row>
-    <row r="55" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A55" s="7"/>
-      <c r="B55" s="7"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
+    <row r="55" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A55" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B55" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>269</v>
+      </c>
       <c r="E55" s="10"/>
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
@@ -11426,11 +11578,19 @@
       <c r="Q55" s="4"/>
       <c r="R55" s="4"/>
     </row>
-    <row r="56" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A56" s="7"/>
-      <c r="B56" s="7"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
+    <row r="56" spans="1:18" ht="54" x14ac:dyDescent="0.3">
+      <c r="A56" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B56" s="7">
+        <v>3</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>271</v>
+      </c>
       <c r="E56" s="10"/>
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
@@ -11446,11 +11606,19 @@
       <c r="Q56" s="4"/>
       <c r="R56" s="4"/>
     </row>
-    <row r="57" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A57" s="7"/>
-      <c r="B57" s="7"/>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
+    <row r="57" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A57" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="B57" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>273</v>
+      </c>
       <c r="E57" s="10"/>
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
@@ -11466,11 +11634,19 @@
       <c r="Q57" s="4"/>
       <c r="R57" s="4"/>
     </row>
-    <row r="58" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A58" s="7"/>
-      <c r="B58" s="7"/>
-      <c r="C58" s="9"/>
-      <c r="D58" s="9"/>
+    <row r="58" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A58" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="B58" s="7">
+        <v>4</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>275</v>
+      </c>
       <c r="E58" s="10"/>
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
@@ -11486,11 +11662,19 @@
       <c r="Q58" s="4"/>
       <c r="R58" s="4"/>
     </row>
-    <row r="59" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A59" s="7"/>
-      <c r="B59" s="7"/>
-      <c r="C59" s="9"/>
-      <c r="D59" s="9"/>
+    <row r="59" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A59" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="B59" s="7">
+        <v>8</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>277</v>
+      </c>
       <c r="E59" s="10"/>
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
@@ -11506,11 +11690,19 @@
       <c r="Q59" s="4"/>
       <c r="R59" s="4"/>
     </row>
-    <row r="60" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A60" s="25"/>
-      <c r="B60" s="25"/>
-      <c r="C60" s="26"/>
-      <c r="D60" s="26"/>
+    <row r="60" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+      <c r="A60" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="B60" s="25">
+        <v>5</v>
+      </c>
+      <c r="C60" s="26" t="s">
+        <v>279</v>
+      </c>
+      <c r="D60" s="26" t="s">
+        <v>280</v>
+      </c>
       <c r="E60" s="10"/>
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
@@ -11526,7 +11718,7 @@
       <c r="Q60" s="4"/>
       <c r="R60" s="4"/>
     </row>
-    <row r="61" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A61" s="25"/>
       <c r="B61" s="25"/>
       <c r="C61" s="26"/>
@@ -11546,7 +11738,7 @@
       <c r="Q61" s="4"/>
       <c r="R61" s="4"/>
     </row>
-    <row r="62" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A62" s="25"/>
       <c r="B62" s="25"/>
       <c r="C62" s="26"/>
@@ -11566,7 +11758,7 @@
       <c r="Q62" s="4"/>
       <c r="R62" s="4"/>
     </row>
-    <row r="63" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A63" s="25"/>
       <c r="B63" s="25"/>
       <c r="C63" s="26"/>
@@ -11586,7 +11778,7 @@
       <c r="Q63" s="4"/>
       <c r="R63" s="4"/>
     </row>
-    <row r="64" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="23"/>
       <c r="B64" s="23"/>
       <c r="C64" s="24"/>
@@ -11606,13 +11798,13 @@
       <c r="Q64" s="4"/>
       <c r="R64" s="4"/>
     </row>
-    <row r="65" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="14" t="s">
         <v>22</v>
       </c>
       <c r="B65" s="14">
         <f>SUM(B54:B64)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C65" s="15"/>
       <c r="D65" s="15"/>
@@ -11631,7 +11823,7 @@
       <c r="Q65" s="4"/>
       <c r="R65" s="4"/>
     </row>
-    <row r="66" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="16"/>
       <c r="B66" s="16"/>
       <c r="C66" s="16"/>
@@ -11651,7 +11843,7 @@
       <c r="Q66" s="4"/>
       <c r="R66" s="4"/>
     </row>
-    <row r="67" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>0</v>
       </c>
@@ -11675,7 +11867,7 @@
       <c r="Q67" s="4"/>
       <c r="R67" s="4"/>
     </row>
-    <row r="68" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="5" t="s">
         <v>2</v>
       </c>
@@ -11701,7 +11893,7 @@
       <c r="Q68" s="4"/>
       <c r="R68" s="4"/>
     </row>
-    <row r="69" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A69" s="19"/>
       <c r="B69" s="19"/>
       <c r="C69" s="20"/>
@@ -11721,7 +11913,7 @@
       <c r="Q69" s="4"/>
       <c r="R69" s="4"/>
     </row>
-    <row r="70" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A70" s="7"/>
       <c r="B70" s="7"/>
       <c r="C70" s="9"/>
@@ -11741,7 +11933,7 @@
       <c r="Q70" s="4"/>
       <c r="R70" s="4"/>
     </row>
-    <row r="71" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A71" s="7"/>
       <c r="B71" s="7"/>
       <c r="C71" s="9"/>
@@ -11761,7 +11953,7 @@
       <c r="Q71" s="4"/>
       <c r="R71" s="4"/>
     </row>
-    <row r="72" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A72" s="7"/>
       <c r="B72" s="7"/>
       <c r="C72" s="9"/>
@@ -11781,7 +11973,7 @@
       <c r="Q72" s="4"/>
       <c r="R72" s="4"/>
     </row>
-    <row r="73" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A73" s="7"/>
       <c r="B73" s="7"/>
       <c r="C73" s="9"/>
@@ -11801,7 +11993,7 @@
       <c r="Q73" s="4"/>
       <c r="R73" s="4"/>
     </row>
-    <row r="74" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="23"/>
       <c r="B74" s="23"/>
       <c r="C74" s="24"/>
@@ -11821,7 +12013,7 @@
       <c r="Q74" s="4"/>
       <c r="R74" s="4"/>
     </row>
-    <row r="75" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="14" t="s">
         <v>22</v>
       </c>
@@ -11846,7 +12038,7 @@
       <c r="Q75" s="4"/>
       <c r="R75" s="4"/>
     </row>
-    <row r="76" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="16"/>
       <c r="B76" s="16"/>
       <c r="C76" s="16"/>
@@ -11866,7 +12058,7 @@
       <c r="Q76" s="4"/>
       <c r="R76" s="4"/>
     </row>
-    <row r="77" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
         <v>0</v>
       </c>
@@ -11890,7 +12082,7 @@
       <c r="Q77" s="4"/>
       <c r="R77" s="4"/>
     </row>
-    <row r="78" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="5" t="s">
         <v>2</v>
       </c>
@@ -11916,7 +12108,7 @@
       <c r="Q78" s="4"/>
       <c r="R78" s="4"/>
     </row>
-    <row r="79" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A79" s="19"/>
       <c r="B79" s="19"/>
       <c r="C79" s="20"/>
@@ -11936,7 +12128,7 @@
       <c r="Q79" s="4"/>
       <c r="R79" s="4"/>
     </row>
-    <row r="80" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A80" s="7"/>
       <c r="B80" s="7"/>
       <c r="C80" s="9"/>
@@ -11956,7 +12148,7 @@
       <c r="Q80" s="4"/>
       <c r="R80" s="4"/>
     </row>
-    <row r="81" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A81" s="7"/>
       <c r="B81" s="7"/>
       <c r="C81" s="9"/>
@@ -11976,7 +12168,7 @@
       <c r="Q81" s="4"/>
       <c r="R81" s="4"/>
     </row>
-    <row r="82" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A82" s="7"/>
       <c r="B82" s="7"/>
       <c r="C82" s="9"/>
@@ -11996,7 +12188,7 @@
       <c r="Q82" s="4"/>
       <c r="R82" s="4"/>
     </row>
-    <row r="83" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A83" s="7"/>
       <c r="B83" s="7"/>
       <c r="C83" s="9"/>
@@ -12016,7 +12208,7 @@
       <c r="Q83" s="4"/>
       <c r="R83" s="4"/>
     </row>
-    <row r="84" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A84" s="7"/>
       <c r="B84" s="7"/>
       <c r="C84" s="9"/>
@@ -12036,7 +12228,7 @@
       <c r="Q84" s="4"/>
       <c r="R84" s="4"/>
     </row>
-    <row r="85" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A85" s="7"/>
       <c r="B85" s="7"/>
       <c r="C85" s="9"/>
@@ -12056,7 +12248,7 @@
       <c r="Q85" s="4"/>
       <c r="R85" s="4"/>
     </row>
-    <row r="86" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="23"/>
       <c r="B86" s="23"/>
       <c r="C86" s="24"/>
@@ -12076,7 +12268,7 @@
       <c r="Q86" s="4"/>
       <c r="R86" s="4"/>
     </row>
-    <row r="87" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="14" t="s">
         <v>22</v>
       </c>
@@ -12101,7 +12293,7 @@
       <c r="Q87" s="4"/>
       <c r="R87" s="4"/>
     </row>
-    <row r="88" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A88" s="16"/>
       <c r="B88" s="16"/>
       <c r="C88" s="16"/>
@@ -12121,7 +12313,7 @@
       <c r="Q88" s="4"/>
       <c r="R88" s="4"/>
     </row>
-    <row r="89" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A89" s="27"/>
       <c r="B89" s="27"/>
       <c r="C89" s="27"/>
@@ -12141,7 +12333,7 @@
       <c r="Q89" s="4"/>
       <c r="R89" s="4"/>
     </row>
-    <row r="90" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A90" s="27"/>
       <c r="B90" s="27"/>
       <c r="C90" s="27"/>
@@ -12161,7 +12353,7 @@
       <c r="Q90" s="4"/>
       <c r="R90" s="4"/>
     </row>
-    <row r="91" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A91" s="27"/>
       <c r="B91" s="27"/>
       <c r="C91" s="27"/>
@@ -12181,7 +12373,7 @@
       <c r="Q91" s="4"/>
       <c r="R91" s="4"/>
     </row>
-    <row r="92" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A92" s="27"/>
       <c r="B92" s="27"/>
       <c r="C92" s="27"/>
@@ -12201,7 +12393,7 @@
       <c r="Q92" s="4"/>
       <c r="R92" s="4"/>
     </row>
-    <row r="93" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A93" s="27"/>
       <c r="B93" s="27"/>
       <c r="C93" s="27"/>
@@ -12221,7 +12413,7 @@
       <c r="Q93" s="4"/>
       <c r="R93" s="4"/>
     </row>
-    <row r="94" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A94" s="27"/>
       <c r="B94" s="27"/>
       <c r="C94" s="27"/>
@@ -12241,7 +12433,7 @@
       <c r="Q94" s="4"/>
       <c r="R94" s="4"/>
     </row>
-    <row r="95" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A95" s="27"/>
       <c r="B95" s="27"/>
       <c r="C95" s="27"/>
@@ -12261,7 +12453,7 @@
       <c r="Q95" s="4"/>
       <c r="R95" s="4"/>
     </row>
-    <row r="96" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A96" s="27"/>
       <c r="B96" s="27"/>
       <c r="C96" s="27"/>
@@ -12281,7 +12473,7 @@
       <c r="Q96" s="4"/>
       <c r="R96" s="4"/>
     </row>
-    <row r="97" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A97" s="27"/>
       <c r="B97" s="27"/>
       <c r="C97" s="27"/>
@@ -12301,7 +12493,7 @@
       <c r="Q97" s="4"/>
       <c r="R97" s="4"/>
     </row>
-    <row r="98" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A98" s="27"/>
       <c r="B98" s="27"/>
       <c r="C98" s="27"/>
@@ -12321,7 +12513,7 @@
       <c r="Q98" s="4"/>
       <c r="R98" s="4"/>
     </row>
-    <row r="99" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A99" s="27"/>
       <c r="B99" s="27"/>
       <c r="C99" s="27"/>
@@ -12341,7 +12533,7 @@
       <c r="Q99" s="4"/>
       <c r="R99" s="4"/>
     </row>
-    <row r="100" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A100" s="28"/>
       <c r="B100" s="28"/>
       <c r="C100" s="28"/>
@@ -12363,7 +12555,7 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" prompt="Durée en 1/3 de période - Le nombre doit être de type entier" sqref="B79:B86 B10:B13 B38:B39 B18:B33 B54:B64 B69:B74 B3:B8 B41:B49" xr:uid="{64471589-AB55-4AF0-A3CB-2C4DA302E1FD}">
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" prompt="Durée en 1/3 de période - Le nombre doit être de type entier" sqref="B79:B86 B10:B13 B38:B39 B18:B33 B41:B49 B69:B74 B3:B8 B54:B64" xr:uid="{64471589-AB55-4AF0-A3CB-2C4DA302E1FD}">
       <formula1>0</formula1>
     </dataValidation>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" prompt="Dépassement de durée - Le nombre de minutes introduites dépasse la durée d'une période. Veuillez confirmer ... Le calcul du total sera juste dans tous les cas._x000a_" sqref="B87 B34 B50 B65 B75 B14" xr:uid="{E5C4B3DD-C4A0-4BDF-8596-69EE95FDEE2C}">
@@ -12381,16 +12573,16 @@
   <dimension ref="A1:D65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.109375" customWidth="1"/>
-    <col min="4" max="4" width="46.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.140625" customWidth="1"/>
+    <col min="4" max="4" width="46.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12400,7 +12592,7 @@
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -12414,7 +12606,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="54" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
         <v>249</v>
       </c>
@@ -12428,7 +12620,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="54" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
         <v>254</v>
       </c>
@@ -12442,7 +12634,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
         <v>253</v>
       </c>
@@ -12456,7 +12648,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="27" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
         <v>255</v>
       </c>
@@ -12576,19 +12768,19 @@
       <c r="C24" s="54"/>
       <c r="D24" s="54"/>
     </row>
-    <row r="25" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="55"/>
       <c r="B25" s="55"/>
       <c r="C25" s="56"/>
       <c r="D25" s="56"/>
     </row>
-    <row r="26" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="53"/>
       <c r="B26" s="53"/>
       <c r="C26" s="54"/>
       <c r="D26" s="54"/>
     </row>
-    <row r="27" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="14" t="s">
         <v>22</v>
       </c>
@@ -12596,13 +12788,13 @@
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
     </row>
-    <row r="28" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="16"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
       <c r="D28" s="16"/>
     </row>
-    <row r="29" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
@@ -12612,7 +12804,7 @@
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
     </row>
-    <row r="30" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>2</v>
       </c>
@@ -12684,13 +12876,13 @@
       <c r="C40" s="26"/>
       <c r="D40" s="26"/>
     </row>
-    <row r="41" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="23"/>
       <c r="B41" s="23"/>
       <c r="C41" s="24"/>
       <c r="D41" s="24"/>
     </row>
-    <row r="42" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="14" t="s">
         <v>22</v>
       </c>
@@ -12701,13 +12893,13 @@
       <c r="C42" s="15"/>
       <c r="D42" s="15"/>
     </row>
-    <row r="43" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="16"/>
       <c r="B43" s="16"/>
       <c r="C43" s="16"/>
       <c r="D43" s="16"/>
     </row>
-    <row r="44" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>0</v>
       </c>
@@ -12717,7 +12909,7 @@
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
     </row>
-    <row r="45" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>2</v>
       </c>
@@ -12759,13 +12951,13 @@
       <c r="C50" s="9"/>
       <c r="D50" s="9"/>
     </row>
-    <row r="51" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="23"/>
       <c r="B51" s="23"/>
       <c r="C51" s="24"/>
       <c r="D51" s="24"/>
     </row>
-    <row r="52" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="14" t="s">
         <v>22</v>
       </c>
@@ -12776,13 +12968,13 @@
       <c r="C52" s="15"/>
       <c r="D52" s="15"/>
     </row>
-    <row r="53" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="16"/>
       <c r="B53" s="16"/>
       <c r="C53" s="16"/>
       <c r="D53" s="16"/>
     </row>
-    <row r="54" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>0</v>
       </c>
@@ -12792,7 +12984,7 @@
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
     </row>
-    <row r="55" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
         <v>2</v>
       </c>
@@ -12846,13 +13038,13 @@
       <c r="C62" s="9"/>
       <c r="D62" s="9"/>
     </row>
-    <row r="63" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="23"/>
       <c r="B63" s="23"/>
       <c r="C63" s="24"/>
       <c r="D63" s="24"/>
     </row>
-    <row r="64" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="14" t="s">
         <v>22</v>
       </c>
@@ -12863,7 +13055,7 @@
       <c r="C64" s="15"/>
       <c r="D64" s="15"/>
     </row>
-    <row r="65" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A65" s="16"/>
       <c r="B65" s="16"/>
       <c r="C65" s="16"/>

--- a/LM_Journal_Travail_V1.0.xlsx
+++ b/LM_Journal_Travail_V1.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programmes\VS2019\Projets\Projet Gerber\Love-Mirroring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A20CE9A-8A2D-4648-8BA3-02FFCA6C0B87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{532F3FA8-D801-4422-B81C-5769089D5ACF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="375" yWindow="7050" windowWidth="21600" windowHeight="11385" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="375" yWindow="4215" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Equipe" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="283">
   <si>
     <t>Jalon</t>
   </si>
@@ -939,6 +939,13 @@
   </si>
   <si>
     <t>Résolution des problèmes de suppression de compte qui avait un like côté user et admin</t>
+  </si>
+  <si>
+    <t>26.05.2020</t>
+  </si>
+  <si>
+    <t>Chat corrigé
+Début du signalement et bloquage d'utilisateur</t>
   </si>
 </sst>
 </file>
@@ -4647,7 +4654,7 @@
   <dimension ref="A1:R107"/>
   <sheetViews>
     <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60:D69"/>
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -10118,8 +10125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F222774-5003-490D-9078-78D1F6F89A4A}">
   <dimension ref="A1:R100"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54:D60"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -11718,11 +11725,19 @@
       <c r="Q60" s="4"/>
       <c r="R60" s="4"/>
     </row>
-    <row r="61" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A61" s="25"/>
-      <c r="B61" s="25"/>
-      <c r="C61" s="26"/>
-      <c r="D61" s="26"/>
+    <row r="61" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+      <c r="A61" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="B61" s="25">
+        <v>3</v>
+      </c>
+      <c r="C61" s="26" t="s">
+        <v>281</v>
+      </c>
+      <c r="D61" s="26" t="s">
+        <v>282</v>
+      </c>
       <c r="E61" s="10"/>
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
@@ -11804,7 +11819,7 @@
       </c>
       <c r="B65" s="14">
         <f>SUM(B54:B64)</f>
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C65" s="15"/>
       <c r="D65" s="15"/>
@@ -12572,7 +12587,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04752183-13CB-498C-B47A-4401EA9BDEF9}">
   <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>

--- a/LM_Journal_Travail_V1.0.xlsx
+++ b/LM_Journal_Travail_V1.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programmes\VS2019\Projets\Projet Gerber\Love-Mirroring\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\Love-Mirroring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{532F3FA8-D801-4422-B81C-5769089D5ACF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AAFF587-6028-4633-9A21-6FE8580A1943}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="375" yWindow="4215" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Equipe" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <definedName name="NBLecons">#REF!</definedName>
     <definedName name="TachesPlanifiees">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="285">
   <si>
     <t>Jalon</t>
   </si>
@@ -946,6 +946,12 @@
   <si>
     <t>Chat corrigé
 Début du signalement et bloquage d'utilisateur</t>
+  </si>
+  <si>
+    <t>Ad + Trello</t>
+  </si>
+  <si>
+    <t>Correction de deux trois éléments dans le trello et intégration du CRUD pour les publicités dans la partie Administration, j'ai scaffold la base de donnée sur le projet et j'ai créé la table qui contiendra les publicités. Le CRUD fonctionne je vais maintenant essayer d'intégrer les publicités sur le site.</t>
   </si>
 </sst>
 </file>
@@ -4653,8 +4659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DB7A04D-A66F-4A89-83F1-9B353075A776}">
   <dimension ref="A1:R107"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -6543,11 +6549,19 @@
       <c r="Q69" s="4"/>
       <c r="R69" s="4"/>
     </row>
-    <row r="70" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A70" s="25"/>
-      <c r="B70" s="25"/>
-      <c r="C70" s="26"/>
-      <c r="D70" s="26"/>
+    <row r="70" spans="1:18" ht="54" x14ac:dyDescent="0.3">
+      <c r="A70" s="25" t="s">
+        <v>283</v>
+      </c>
+      <c r="B70" s="25">
+        <v>4.5</v>
+      </c>
+      <c r="C70" s="61">
+        <v>43977</v>
+      </c>
+      <c r="D70" s="26" t="s">
+        <v>284</v>
+      </c>
       <c r="E70" s="10"/>
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
@@ -6589,7 +6603,7 @@
       </c>
       <c r="B72" s="14">
         <f>SUM(B60:B71)</f>
-        <v>30.5</v>
+        <v>35</v>
       </c>
       <c r="C72" s="15"/>
       <c r="D72" s="15"/>
@@ -10125,7 +10139,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F222774-5003-490D-9078-78D1F6F89A4A}">
   <dimension ref="A1:R100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>

--- a/LM_Journal_Travail_V1.0.xlsx
+++ b/LM_Journal_Travail_V1.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\Love-Mirroring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AAFF587-6028-4633-9A21-6FE8580A1943}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35979477-834C-4A76-8BEA-AA658F52C99C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Equipe" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="287">
   <si>
     <t>Jalon</t>
   </si>
@@ -952,6 +952,12 @@
   </si>
   <si>
     <t>Correction de deux trois éléments dans le trello et intégration du CRUD pour les publicités dans la partie Administration, j'ai scaffold la base de donnée sur le projet et j'ai créé la table qui contiendra les publicités. Le CRUD fonctionne je vais maintenant essayer d'intégrer les publicités sur le site.</t>
+  </si>
+  <si>
+    <t>Publicités</t>
+  </si>
+  <si>
+    <t>J'ai modifié le contrôleur pour les publicités j'ai eu pas mal de souci pour traiter l'image que j'ai finalement converti en bytes et en base64 pour pouvoir la décoder dans l'API. Il me reste plus qu'à faire la fonction Edit et le Delete et afficher des pubs aléatoire sur la page de l'application.</t>
   </si>
 </sst>
 </file>
@@ -4660,7 +4666,7 @@
   <dimension ref="A1:R107"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="D70" sqref="D70"/>
+      <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -6577,11 +6583,19 @@
       <c r="Q70" s="4"/>
       <c r="R70" s="4"/>
     </row>
-    <row r="71" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="23"/>
-      <c r="B71" s="23"/>
-      <c r="C71" s="24"/>
-      <c r="D71" s="24"/>
+    <row r="71" spans="1:18" ht="54.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="23" t="s">
+        <v>285</v>
+      </c>
+      <c r="B71" s="23">
+        <v>4</v>
+      </c>
+      <c r="C71" s="41">
+        <v>43979</v>
+      </c>
+      <c r="D71" s="24" t="s">
+        <v>286</v>
+      </c>
       <c r="E71" s="10"/>
       <c r="F71" s="4"/>
       <c r="G71" s="4"/>
@@ -6603,7 +6617,7 @@
       </c>
       <c r="B72" s="14">
         <f>SUM(B60:B71)</f>
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C72" s="15"/>
       <c r="D72" s="15"/>

--- a/LM_Journal_Travail_V1.0.xlsx
+++ b/LM_Journal_Travail_V1.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\Love-Mirroring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35979477-834C-4A76-8BEA-AA658F52C99C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E4B803-2CD9-481E-8F9E-02C0A5131DA5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Equipe" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="293">
   <si>
     <t>Jalon</t>
   </si>
@@ -958,6 +958,24 @@
   </si>
   <si>
     <t>J'ai modifié le contrôleur pour les publicités j'ai eu pas mal de souci pour traiter l'image que j'ai finalement converti en bytes et en base64 pour pouvoir la décoder dans l'API. Il me reste plus qu'à faire la fonction Edit et le Delete et afficher des pubs aléatoire sur la page de l'application.</t>
+  </si>
+  <si>
+    <t>J'affiche des publicités sur la page d'accueil avec un lien j'ai aussi regardé pour adapter l'EDIT et j'ai effectué quelques tests sur la plateforme en DEV. Monsieur Allemann va déployer ma version et je pourrais faire des tests en production.</t>
+  </si>
+  <si>
+    <t>Daily Scrum</t>
+  </si>
+  <si>
+    <t>3 semaines</t>
+  </si>
+  <si>
+    <t>Daily SCRUM régulier de l'équipe</t>
+  </si>
+  <si>
+    <t>Production + Test</t>
+  </si>
+  <si>
+    <t>Mise en production et test des fonctionnalités en équipe</t>
   </si>
 </sst>
 </file>
@@ -1673,8 +1691,8 @@
   </sheetPr>
   <dimension ref="A1:R1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2766,10 +2784,18 @@
       <c r="R47" s="4"/>
     </row>
     <row r="48" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="19"/>
-      <c r="B48" s="19"/>
-      <c r="C48" s="20"/>
-      <c r="D48" s="20"/>
+      <c r="A48" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="B48" s="19">
+        <v>3.5</v>
+      </c>
+      <c r="C48" s="20" t="s">
+        <v>289</v>
+      </c>
+      <c r="D48" s="20" t="s">
+        <v>290</v>
+      </c>
       <c r="E48" s="10"/>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
@@ -2785,11 +2811,19 @@
       <c r="Q48" s="4"/>
       <c r="R48" s="4"/>
     </row>
-    <row r="49" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="7"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
+    <row r="49" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+      <c r="A49" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="B49" s="7">
+        <v>4</v>
+      </c>
+      <c r="C49" s="35">
+        <v>43982</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>292</v>
+      </c>
       <c r="E49" s="10"/>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
@@ -2991,7 +3025,7 @@
       </c>
       <c r="B59" s="14">
         <f>SUM(B48:B58)</f>
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="C59" s="15"/>
       <c r="D59" s="15"/>
@@ -4663,10 +4697,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DB7A04D-A66F-4A89-83F1-9B353075A776}">
-  <dimension ref="A1:R107"/>
+  <dimension ref="A1:R108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -6611,16 +6645,19 @@
       <c r="Q71" s="4"/>
       <c r="R71" s="4"/>
     </row>
-    <row r="72" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B72" s="14">
-        <f>SUM(B60:B71)</f>
-        <v>39</v>
-      </c>
-      <c r="C72" s="15"/>
-      <c r="D72" s="15"/>
+    <row r="72" spans="1:18" ht="41.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="42" t="s">
+        <v>285</v>
+      </c>
+      <c r="B72" s="42">
+        <v>4</v>
+      </c>
+      <c r="C72" s="43">
+        <v>43980</v>
+      </c>
+      <c r="D72" s="44" t="s">
+        <v>287</v>
+      </c>
       <c r="E72" s="10"/>
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
@@ -6637,10 +6674,15 @@
       <c r="R72" s="4"/>
     </row>
     <row r="73" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="16"/>
-      <c r="B73" s="16"/>
-      <c r="C73" s="16"/>
-      <c r="D73" s="16"/>
+      <c r="A73" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B73" s="14">
+        <f>SUM(B60:B72)</f>
+        <v>43</v>
+      </c>
+      <c r="C73" s="15"/>
+      <c r="D73" s="15"/>
       <c r="E73" s="10"/>
       <c r="F73" s="4"/>
       <c r="G73" s="4"/>
@@ -6656,15 +6698,11 @@
       <c r="Q73" s="4"/>
       <c r="R73" s="4"/>
     </row>
-    <row r="74" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B74" s="2">
-        <v>5</v>
-      </c>
-      <c r="C74" s="3"/>
-      <c r="D74" s="3"/>
+    <row r="74" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="16"/>
+      <c r="B74" s="16"/>
+      <c r="C74" s="16"/>
+      <c r="D74" s="16"/>
       <c r="E74" s="10"/>
       <c r="F74" s="4"/>
       <c r="G74" s="4"/>
@@ -6680,17 +6718,15 @@
       <c r="Q74" s="4"/>
       <c r="R74" s="4"/>
     </row>
-    <row r="75" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B75" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C75" s="5"/>
-      <c r="D75" s="5" t="s">
+    <row r="75" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B75" s="2">
         <v>5</v>
       </c>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
       <c r="E75" s="10"/>
       <c r="F75" s="4"/>
       <c r="G75" s="4"/>
@@ -6706,11 +6742,17 @@
       <c r="Q75" s="4"/>
       <c r="R75" s="4"/>
     </row>
-    <row r="76" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A76" s="19"/>
-      <c r="B76" s="19"/>
-      <c r="C76" s="20"/>
-      <c r="D76" s="20"/>
+    <row r="76" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="E76" s="10"/>
       <c r="F76" s="4"/>
       <c r="G76" s="4"/>
@@ -6727,10 +6769,10 @@
       <c r="R76" s="4"/>
     </row>
     <row r="77" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A77" s="7"/>
-      <c r="B77" s="7"/>
-      <c r="C77" s="9"/>
-      <c r="D77" s="9"/>
+      <c r="A77" s="19"/>
+      <c r="B77" s="19"/>
+      <c r="C77" s="20"/>
+      <c r="D77" s="20"/>
       <c r="E77" s="10"/>
       <c r="F77" s="4"/>
       <c r="G77" s="4"/>
@@ -6806,11 +6848,11 @@
       <c r="Q80" s="4"/>
       <c r="R80" s="4"/>
     </row>
-    <row r="81" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="23"/>
-      <c r="B81" s="23"/>
-      <c r="C81" s="24"/>
-      <c r="D81" s="24"/>
+    <row r="81" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A81" s="7"/>
+      <c r="B81" s="7"/>
+      <c r="C81" s="9"/>
+      <c r="D81" s="9"/>
       <c r="E81" s="10"/>
       <c r="F81" s="4"/>
       <c r="G81" s="4"/>
@@ -6827,15 +6869,10 @@
       <c r="R81" s="4"/>
     </row>
     <row r="82" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B82" s="14">
-        <f>SUM(B76:B81)</f>
-        <v>0</v>
-      </c>
-      <c r="C82" s="15"/>
-      <c r="D82" s="15"/>
+      <c r="A82" s="23"/>
+      <c r="B82" s="23"/>
+      <c r="C82" s="24"/>
+      <c r="D82" s="24"/>
       <c r="E82" s="10"/>
       <c r="F82" s="4"/>
       <c r="G82" s="4"/>
@@ -6852,10 +6889,15 @@
       <c r="R82" s="4"/>
     </row>
     <row r="83" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="16"/>
-      <c r="B83" s="16"/>
-      <c r="C83" s="16"/>
-      <c r="D83" s="16"/>
+      <c r="A83" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B83" s="14">
+        <f>SUM(B77:B82)</f>
+        <v>0</v>
+      </c>
+      <c r="C83" s="15"/>
+      <c r="D83" s="15"/>
       <c r="E83" s="10"/>
       <c r="F83" s="4"/>
       <c r="G83" s="4"/>
@@ -6871,15 +6913,11 @@
       <c r="Q83" s="4"/>
       <c r="R83" s="4"/>
     </row>
-    <row r="84" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B84" s="2">
-        <v>6</v>
-      </c>
-      <c r="C84" s="3"/>
-      <c r="D84" s="3"/>
+    <row r="84" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="16"/>
+      <c r="B84" s="16"/>
+      <c r="C84" s="16"/>
+      <c r="D84" s="16"/>
       <c r="E84" s="10"/>
       <c r="F84" s="4"/>
       <c r="G84" s="4"/>
@@ -6895,17 +6933,15 @@
       <c r="Q84" s="4"/>
       <c r="R84" s="4"/>
     </row>
-    <row r="85" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B85" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C85" s="5"/>
-      <c r="D85" s="5" t="s">
-        <v>5</v>
-      </c>
+    <row r="85" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B85" s="2">
+        <v>6</v>
+      </c>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
       <c r="E85" s="10"/>
       <c r="F85" s="4"/>
       <c r="G85" s="4"/>
@@ -6921,11 +6957,17 @@
       <c r="Q85" s="4"/>
       <c r="R85" s="4"/>
     </row>
-    <row r="86" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A86" s="19"/>
-      <c r="B86" s="19"/>
-      <c r="C86" s="20"/>
-      <c r="D86" s="20"/>
+    <row r="86" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="E86" s="10"/>
       <c r="F86" s="4"/>
       <c r="G86" s="4"/>
@@ -6942,10 +6984,10 @@
       <c r="R86" s="4"/>
     </row>
     <row r="87" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A87" s="7"/>
-      <c r="B87" s="7"/>
-      <c r="C87" s="9"/>
-      <c r="D87" s="9"/>
+      <c r="A87" s="19"/>
+      <c r="B87" s="19"/>
+      <c r="C87" s="20"/>
+      <c r="D87" s="20"/>
       <c r="E87" s="10"/>
       <c r="F87" s="4"/>
       <c r="G87" s="4"/>
@@ -7061,11 +7103,11 @@
       <c r="Q92" s="4"/>
       <c r="R92" s="4"/>
     </row>
-    <row r="93" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="23"/>
-      <c r="B93" s="23"/>
-      <c r="C93" s="24"/>
-      <c r="D93" s="24"/>
+    <row r="93" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A93" s="7"/>
+      <c r="B93" s="7"/>
+      <c r="C93" s="9"/>
+      <c r="D93" s="9"/>
       <c r="E93" s="10"/>
       <c r="F93" s="4"/>
       <c r="G93" s="4"/>
@@ -7082,15 +7124,10 @@
       <c r="R93" s="4"/>
     </row>
     <row r="94" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B94" s="14">
-        <f>SUM(B86:B93)</f>
-        <v>0</v>
-      </c>
-      <c r="C94" s="15"/>
-      <c r="D94" s="15"/>
+      <c r="A94" s="23"/>
+      <c r="B94" s="23"/>
+      <c r="C94" s="24"/>
+      <c r="D94" s="24"/>
       <c r="E94" s="10"/>
       <c r="F94" s="4"/>
       <c r="G94" s="4"/>
@@ -7106,11 +7143,16 @@
       <c r="Q94" s="4"/>
       <c r="R94" s="4"/>
     </row>
-    <row r="95" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A95" s="16"/>
-      <c r="B95" s="16"/>
-      <c r="C95" s="16"/>
-      <c r="D95" s="16"/>
+    <row r="95" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B95" s="14">
+        <f>SUM(B87:B94)</f>
+        <v>0</v>
+      </c>
+      <c r="C95" s="15"/>
+      <c r="D95" s="15"/>
       <c r="E95" s="10"/>
       <c r="F95" s="4"/>
       <c r="G95" s="4"/>
@@ -7127,10 +7169,10 @@
       <c r="R95" s="4"/>
     </row>
     <row r="96" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A96" s="27"/>
-      <c r="B96" s="27"/>
-      <c r="C96" s="27"/>
-      <c r="D96" s="27"/>
+      <c r="A96" s="16"/>
+      <c r="B96" s="16"/>
+      <c r="C96" s="16"/>
+      <c r="D96" s="16"/>
       <c r="E96" s="10"/>
       <c r="F96" s="4"/>
       <c r="G96" s="4"/>
@@ -7331,20 +7373,40 @@
       <c r="B106" s="27"/>
       <c r="C106" s="27"/>
       <c r="D106" s="27"/>
+      <c r="E106" s="10"/>
+      <c r="F106" s="4"/>
+      <c r="G106" s="4"/>
+      <c r="H106" s="4"/>
+      <c r="I106" s="4"/>
+      <c r="J106" s="4"/>
+      <c r="K106" s="4"/>
+      <c r="L106" s="4"/>
+      <c r="M106" s="4"/>
+      <c r="N106" s="4"/>
+      <c r="O106" s="4"/>
+      <c r="P106" s="4"/>
+      <c r="Q106" s="4"/>
+      <c r="R106" s="4"/>
     </row>
     <row r="107" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A107" s="28"/>
-      <c r="B107" s="28"/>
-      <c r="C107" s="28"/>
-      <c r="D107" s="28"/>
+      <c r="A107" s="27"/>
+      <c r="B107" s="27"/>
+      <c r="C107" s="27"/>
+      <c r="D107" s="27"/>
+    </row>
+    <row r="108" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A108" s="28"/>
+      <c r="B108" s="28"/>
+      <c r="C108" s="28"/>
+      <c r="D108" s="28"/>
     </row>
   </sheetData>
   <dataValidations xWindow="188" yWindow="522" count="2">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" prompt="Dépassement de durée - Le nombre de minutes introduites dépasse la durée d'une période. Veuillez confirmer ... Le calcul du total sera juste dans tous les cas._x000a_" sqref="B12 B34 B56 B72 B82 B94" xr:uid="{41F29EDA-D509-4469-8DFB-6A4CE4CEAE07}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" prompt="Dépassement de durée - Le nombre de minutes introduites dépasse la durée d'une période. Veuillez confirmer ... Le calcul du total sera juste dans tous les cas._x000a_" sqref="B12 B34 B56 B73 B83 B95" xr:uid="{41F29EDA-D509-4469-8DFB-6A4CE4CEAE07}">
       <formula1>0</formula1>
       <formula2>DureePeriode-1</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" prompt="Durée en 1/3 de période - Le nombre doit être de type entier" sqref="B86:B93 B38:B39 B41:B45 B76:B81 B10:B11 B3:B8 B16:B33 B60:B71" xr:uid="{3039B7E3-952E-4B34-B612-E5A0C049619C}">
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" prompt="Durée en 1/3 de période - Le nombre doit être de type entier" sqref="B87:B94 B38:B39 B41:B45 B77:B82 B10:B11 B3:B8 B16:B33 B60:B72" xr:uid="{3039B7E3-952E-4B34-B612-E5A0C049619C}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>

--- a/LM_Journal_Travail_V1.0.xlsx
+++ b/LM_Journal_Travail_V1.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\Love-Mirroring\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programmes\VS2019\Projets\Projet Gerber\Love-Mirroring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E4B803-2CD9-481E-8F9E-02C0A5131DA5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{759AC786-B675-4CA3-9181-EA4D8C171502}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Equipe" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <definedName name="NBLecons">#REF!</definedName>
     <definedName name="TachesPlanifiees">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="295">
   <si>
     <t>Jalon</t>
   </si>
@@ -976,6 +976,14 @@
   </si>
   <si>
     <t>Mise en production et test des fonctionnalités en équipe</t>
+  </si>
+  <si>
+    <t>29.05.2020</t>
+  </si>
+  <si>
+    <t>Permet à l'utilisateur de signaler un utilisateur
+Raison, nom, details OK
+Email reçu OK</t>
   </si>
 </sst>
 </file>
@@ -1691,7 +1699,7 @@
   </sheetPr>
   <dimension ref="A1:R1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
@@ -10215,8 +10223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F222774-5003-490D-9078-78D1F6F89A4A}">
   <dimension ref="A1:R100"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -11843,11 +11851,19 @@
       <c r="Q61" s="4"/>
       <c r="R61" s="4"/>
     </row>
-    <row r="62" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A62" s="25"/>
-      <c r="B62" s="25"/>
-      <c r="C62" s="26"/>
-      <c r="D62" s="26"/>
+    <row r="62" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A62" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="B62" s="25">
+        <v>3</v>
+      </c>
+      <c r="C62" s="26" t="s">
+        <v>293</v>
+      </c>
+      <c r="D62" s="26" t="s">
+        <v>294</v>
+      </c>
       <c r="E62" s="10"/>
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
@@ -11909,7 +11925,7 @@
       </c>
       <c r="B65" s="14">
         <f>SUM(B54:B64)</f>
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C65" s="15"/>
       <c r="D65" s="15"/>

--- a/LM_Journal_Travail_V1.0.xlsx
+++ b/LM_Journal_Travail_V1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programmes\VS2019\Projets\Projet Gerber\Love-Mirroring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{759AC786-B675-4CA3-9181-EA4D8C171502}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD05DEA-871C-4E7B-8AE1-DD6B326AE4E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="298">
   <si>
     <t>Jalon</t>
   </si>
@@ -984,6 +984,19 @@
     <t>Permet à l'utilisateur de signaler un utilisateur
 Raison, nom, details OK
 Email reçu OK</t>
+  </si>
+  <si>
+    <t>Production</t>
+  </si>
+  <si>
+    <t>30.05.2020</t>
+  </si>
+  <si>
+    <t>Test rénitialisation mot de passe côté administrateur OK
+Test envoie de mail à l'administrateur pour signalement d'un utilisateur OK
+Test Chat Echec les messages ne s'affiche pas des 2 côtés
+Correction du chat
+Test Chat Ok</t>
   </si>
 </sst>
 </file>
@@ -10223,8 +10236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F222774-5003-490D-9078-78D1F6F89A4A}">
   <dimension ref="A1:R100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -11879,11 +11892,19 @@
       <c r="Q62" s="4"/>
       <c r="R62" s="4"/>
     </row>
-    <row r="63" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A63" s="25"/>
-      <c r="B63" s="25"/>
-      <c r="C63" s="26"/>
-      <c r="D63" s="26"/>
+    <row r="63" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
+      <c r="A63" s="25" t="s">
+        <v>295</v>
+      </c>
+      <c r="B63" s="25">
+        <v>3</v>
+      </c>
+      <c r="C63" s="26" t="s">
+        <v>296</v>
+      </c>
+      <c r="D63" s="26" t="s">
+        <v>297</v>
+      </c>
       <c r="E63" s="10"/>
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
@@ -11925,7 +11946,7 @@
       </c>
       <c r="B65" s="14">
         <f>SUM(B54:B64)</f>
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C65" s="15"/>
       <c r="D65" s="15"/>

--- a/LM_Journal_Travail_V1.0.xlsx
+++ b/LM_Journal_Travail_V1.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paul\Documents\GitHub\Love-Mirroring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBA5C19A-794A-4D38-BDFD-879283793BA4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50D71629-CD07-479F-A6DC-EC2CCF92FFC0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Equipe" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="271">
   <si>
     <t>Jalon</t>
   </si>
@@ -858,21 +858,66 @@
     <t>Modification interface administration -Commencement CRUD Sexes</t>
   </si>
   <si>
-    <t>Modification interface administration - CRUD Sexualités</t>
-  </si>
-  <si>
-    <t>25,05,20</t>
+    <t>Affichage, création, modification, 
+suppression des sexualités</t>
+  </si>
+  <si>
+    <t>Recherche pour les demandes de contact</t>
+  </si>
+  <si>
+    <t>Demandes de contact</t>
+  </si>
+  <si>
+    <t>Création de l'interface et modification du script SQL afin d'ajouter des tables dans la BD</t>
+  </si>
+  <si>
+    <t>Modification interface administration - interface Sexualités</t>
+  </si>
+  <si>
+    <t>interface Corpulences</t>
+  </si>
+  <si>
+    <t>interface Religions</t>
+  </si>
+  <si>
+    <t>interface Styles</t>
+  </si>
+  <si>
+    <t>interface Questions</t>
+  </si>
+  <si>
+    <t>interface Profils</t>
+  </si>
+  <si>
+    <t>interface Reponses</t>
+  </si>
+  <si>
+    <t>interface Cheveux tailles</t>
+  </si>
+  <si>
+    <t>interface Cheveux couleurs</t>
+  </si>
+  <si>
+    <t>"</t>
+  </si>
+  <si>
+    <t>Affichage de toutes les réponses d'une demande de contact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Procédure de test
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy"/>
     <numFmt numFmtId="165" formatCode="dd\.mm\.yy"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -929,6 +974,12 @@
     </font>
     <font>
       <sz val="9"/>
+      <color theme="1"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="24"/>
       <color theme="1"/>
       <name val="Century Gothic"/>
       <family val="2"/>
@@ -1186,7 +1237,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1353,6 +1404,45 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4566,7 +4656,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DB7A04D-A66F-4A89-83F1-9B353075A776}">
   <dimension ref="A1:R107"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
@@ -7185,8 +7275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716E2DDB-6361-470B-ACF3-8FDF9046203A}">
   <dimension ref="A1:R117"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -9982,8 +10072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F222774-5003-490D-9078-78D1F6F89A4A}">
   <dimension ref="A1:R100"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -12378,10 +12468,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04752183-13CB-498C-B47A-4401EA9BDEF9}">
-  <dimension ref="A1:D65"/>
+  <dimension ref="A1:D67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -12456,101 +12546,153 @@
         <v>252</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
+        <v>259</v>
+      </c>
+      <c r="B6" s="33">
+        <v>2</v>
+      </c>
+      <c r="C6" s="61">
+        <v>43976</v>
+      </c>
+      <c r="D6" s="51" t="s">
         <v>255</v>
       </c>
-      <c r="B6" s="33">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="33" t="s">
+        <v>260</v>
+      </c>
+      <c r="B7" s="68">
+        <v>6</v>
+      </c>
+      <c r="C7" s="65">
+        <v>43977</v>
+      </c>
+      <c r="D7" s="71" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="33" t="s">
+        <v>261</v>
+      </c>
+      <c r="B8" s="69"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="72"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="33" t="s">
+        <v>262</v>
+      </c>
+      <c r="B9" s="69"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="72"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="53" t="s">
+        <v>263</v>
+      </c>
+      <c r="B10" s="69"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="72"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="53" t="s">
+        <v>264</v>
+      </c>
+      <c r="B11" s="69"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="72"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="53" t="s">
+        <v>265</v>
+      </c>
+      <c r="B12" s="69"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="72"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="62" t="s">
+        <v>266</v>
+      </c>
+      <c r="B13" s="69"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="72"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="62" t="s">
+        <v>267</v>
+      </c>
+      <c r="B14" s="70"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="73"/>
+    </row>
+    <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A15" s="53" t="s">
+        <v>256</v>
+      </c>
+      <c r="B15" s="53">
         <v>1</v>
       </c>
-      <c r="C6" s="51" t="s">
-        <v>256</v>
-      </c>
-      <c r="D6" s="51"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="33"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="33"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="33"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="53"/>
-      <c r="B10" s="53"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="53"/>
-      <c r="B11" s="53"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="53"/>
-      <c r="B12" s="53"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="53"/>
-      <c r="B13" s="53"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="53"/>
-      <c r="B14" s="53"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="53"/>
-      <c r="B15" s="53"/>
-      <c r="C15" s="54"/>
+      <c r="C15" s="67"/>
       <c r="D15" s="54"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="53"/>
-      <c r="B16" s="53"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
+    <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A16" s="68" t="s">
+        <v>257</v>
+      </c>
+      <c r="B16" s="63">
+        <v>2.5</v>
+      </c>
+      <c r="C16" s="64">
+        <v>43978</v>
+      </c>
+      <c r="D16" s="54" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="53"/>
-      <c r="B17" s="53"/>
-      <c r="C17" s="54"/>
+      <c r="A17" s="69"/>
+      <c r="B17" s="53">
+        <v>4</v>
+      </c>
+      <c r="C17" s="64">
+        <v>43979</v>
+      </c>
       <c r="D17" s="54"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="53"/>
-      <c r="B18" s="53"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
+    <row r="18" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A18" s="69"/>
+      <c r="B18" s="53">
+        <v>4</v>
+      </c>
+      <c r="C18" s="64">
+        <v>43980</v>
+      </c>
+      <c r="D18" s="54" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="53"/>
+      <c r="A19" s="70"/>
       <c r="B19" s="53"/>
-      <c r="C19" s="54"/>
+      <c r="C19" s="64">
+        <v>43982</v>
+      </c>
       <c r="D19" s="54"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A20" s="53"/>
       <c r="B20" s="53"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
+      <c r="C20" s="64">
+        <v>43982</v>
+      </c>
+      <c r="D20" s="54" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="53"/>
@@ -12576,71 +12718,74 @@
       <c r="C24" s="54"/>
       <c r="D24" s="54"/>
     </row>
-    <row r="25" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="55"/>
-      <c r="B25" s="55"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="56"/>
-    </row>
-    <row r="26" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="53"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="53"/>
       <c r="B26" s="53"/>
       <c r="C26" s="54"/>
       <c r="D26" s="54"/>
     </row>
     <row r="27" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="55"/>
+      <c r="B27" s="55"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="56"/>
+    </row>
+    <row r="28" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="53"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+    </row>
+    <row r="29" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-    </row>
-    <row r="28" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="16"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-    </row>
-    <row r="29" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
+      <c r="B29" s="14">
+        <f>SUM(B3:B27)</f>
+        <v>30.5</v>
+      </c>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+    </row>
+    <row r="30" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="16"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+    </row>
+    <row r="31" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B31" s="2">
         <v>4</v>
       </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-    </row>
-    <row r="30" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="5" t="s">
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+    </row>
+    <row r="32" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B32" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5" t="s">
+      <c r="C32" s="5"/>
+      <c r="D32" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="19"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-    </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
+      <c r="A33" s="19"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
@@ -12661,16 +12806,16 @@
       <c r="D36" s="9"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="25"/>
-      <c r="B37" s="25"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="25"/>
-      <c r="B38" s="25"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="25"/>
@@ -12684,68 +12829,68 @@
       <c r="C40" s="26"/>
       <c r="D40" s="26"/>
     </row>
-    <row r="41" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="23"/>
-      <c r="B41" s="23"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
-    </row>
-    <row r="42" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="14" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="25"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="26"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="25"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="26"/>
+    </row>
+    <row r="43" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="23"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+    </row>
+    <row r="44" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B42" s="14">
-        <f>SUM(B31:B41)</f>
+      <c r="B44" s="14">
+        <f>SUM(B33:B43)</f>
         <v>0</v>
       </c>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-    </row>
-    <row r="43" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="16"/>
-      <c r="B43" s="16"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
-    </row>
-    <row r="44" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+    </row>
+    <row r="45" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="16"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+    </row>
+    <row r="46" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B46" s="2">
         <v>5</v>
       </c>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-    </row>
-    <row r="45" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="5" t="s">
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+    </row>
+    <row r="47" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B47" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5" t="s">
+      <c r="C47" s="5"/>
+      <c r="D47" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="19"/>
-      <c r="B46" s="19"/>
-      <c r="C46" s="20"/>
-      <c r="D46" s="20"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="7"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-    </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="7"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
+      <c r="A48" s="19"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
@@ -12759,68 +12904,68 @@
       <c r="C50" s="9"/>
       <c r="D50" s="9"/>
     </row>
-    <row r="51" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="23"/>
-      <c r="B51" s="23"/>
-      <c r="C51" s="24"/>
-      <c r="D51" s="24"/>
-    </row>
-    <row r="52" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="14" t="s">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="7"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="7"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+    </row>
+    <row r="53" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="23"/>
+      <c r="B53" s="23"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="24"/>
+    </row>
+    <row r="54" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B52" s="14">
-        <f>SUM(B46:B51)</f>
+      <c r="B54" s="14">
+        <f>SUM(B48:B53)</f>
         <v>0</v>
       </c>
-      <c r="C52" s="15"/>
-      <c r="D52" s="15"/>
-    </row>
-    <row r="53" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="16"/>
-      <c r="B53" s="16"/>
-      <c r="C53" s="16"/>
-      <c r="D53" s="16"/>
-    </row>
-    <row r="54" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
+    </row>
+    <row r="55" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="16"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="16"/>
+    </row>
+    <row r="56" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B54" s="2">
+      <c r="B56" s="2">
         <v>6</v>
       </c>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-    </row>
-    <row r="55" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="5" t="s">
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+    </row>
+    <row r="57" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B57" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5" t="s">
+      <c r="C57" s="5"/>
+      <c r="D57" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="19"/>
-      <c r="B56" s="19"/>
-      <c r="C56" s="20"/>
-      <c r="D56" s="20"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="7"/>
-      <c r="B57" s="7"/>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
-    </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="7"/>
-      <c r="B58" s="7"/>
-      <c r="C58" s="9"/>
-      <c r="D58" s="9"/>
+      <c r="A58" s="19"/>
+      <c r="B58" s="19"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="20"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="7"/>
@@ -12846,39 +12991,58 @@
       <c r="C62" s="9"/>
       <c r="D62" s="9"/>
     </row>
-    <row r="63" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="23"/>
-      <c r="B63" s="23"/>
-      <c r="C63" s="24"/>
-      <c r="D63" s="24"/>
-    </row>
-    <row r="64" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="14" t="s">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="7"/>
+      <c r="B63" s="7"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="7"/>
+      <c r="B64" s="7"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+    </row>
+    <row r="65" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="23"/>
+      <c r="B65" s="23"/>
+      <c r="C65" s="24"/>
+      <c r="D65" s="24"/>
+    </row>
+    <row r="66" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B64" s="14">
-        <f>SUM(B56:B63)</f>
+      <c r="B66" s="14">
+        <f>SUM(B58:B65)</f>
         <v>0</v>
       </c>
-      <c r="C64" s="15"/>
-      <c r="D64" s="15"/>
-    </row>
-    <row r="65" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A65" s="16"/>
-      <c r="B65" s="16"/>
-      <c r="C65" s="16"/>
-      <c r="D65" s="16"/>
+      <c r="C66" s="15"/>
+      <c r="D66" s="15"/>
+    </row>
+    <row r="67" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A67" s="16"/>
+      <c r="B67" s="16"/>
+      <c r="C67" s="16"/>
+      <c r="D67" s="16"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C7:C15"/>
+    <mergeCell ref="B7:B14"/>
+    <mergeCell ref="D7:D14"/>
+    <mergeCell ref="A16:A19"/>
+  </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" prompt="Dépassement de durée - Le nombre de minutes introduites dépasse la durée d'une période. Veuillez confirmer ... Le calcul du total sera juste dans tous les cas._x000a_" sqref="B27 B42 B52 B64" xr:uid="{DA0CB379-8208-4014-8C0C-0521765B9A4F}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" prompt="Dépassement de durée - Le nombre de minutes introduites dépasse la durée d'une période. Veuillez confirmer ... Le calcul du total sera juste dans tous les cas._x000a_" sqref="B29 B44 B54 B66" xr:uid="{DA0CB379-8208-4014-8C0C-0521765B9A4F}">
       <formula1>0</formula1>
       <formula2>DureePeriode-1</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" prompt="Durée en 1/3 de période - Le nombre doit être de type entier" sqref="B56:B63 B31:B41 B46:B51 B3:B4 B6:B26" xr:uid="{FBF1D711-E5DD-4569-8B54-987F2C077F7C}">
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" prompt="Durée en 1/3 de période - Le nombre doit être de type entier" sqref="B58:B65 B33:B43 B48:B53 B3:B4 B6:B7 B15:B28" xr:uid="{FBF1D711-E5DD-4569-8B54-987F2C077F7C}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/LM_Journal_Travail_V1.0.xlsx
+++ b/LM_Journal_Travail_V1.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paul\Documents\GitHub\Love-Mirroring\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programmes\VS2019\Projets\Projet Gerber\Love-Mirroring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50D71629-CD07-479F-A6DC-EC2CCF92FFC0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF9D3392-56BB-4979-A9A7-E74503ED688E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-840" yWindow="4920" windowWidth="21600" windowHeight="11385" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Equipe" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <definedName name="NBLecons">#REF!</definedName>
     <definedName name="TachesPlanifiees">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="314">
   <si>
     <t>Jalon</t>
   </si>
@@ -906,6 +906,148 @@
   <si>
     <t xml:space="preserve">Procédure de test
 </t>
+  </si>
+  <si>
+    <t>Daily Scrum</t>
+  </si>
+  <si>
+    <t>3 semaines</t>
+  </si>
+  <si>
+    <t>Daily SCRUM régulier de l'équipe</t>
+  </si>
+  <si>
+    <t>Production + Test</t>
+  </si>
+  <si>
+    <t>Mise en production et test des fonctionnalités en équipe</t>
+  </si>
+  <si>
+    <t>J'ai affiché la liste des utilisateurs pour pouvoir avoir une vue plus globale car la recherche peut être pratique mais elle limite quand même l'administrateur. J'ai pu affiché la liste des utilisateurs banni et on peut enlevé le lockout de l'utilisateur avec un simple lien. J'ai aussi affiché le nombre d'actions effectuées sur le sites et j'ai mis la possibilité de réinitialiser le quiz depuis l'interface d'administration.</t>
+  </si>
+  <si>
+    <t>Login Facebook</t>
+  </si>
+  <si>
+    <t>Je peux me connecter avec Facebook et je peux récupérer les informations du compte que j'utilise mais il reste un problème au niveau des Claims que je dois résoudre après il sera possible d'utiliser l'application avec un compte Facebook. Il faut que je réfléchisse aussi à comment intégrer le profil avec l'authentification Facebook. J'ai aussi regardé dans la documentation comment récupérer différents informations qui pourrait être exploitées comme la récupération des photos ou d'autres informations.</t>
+  </si>
+  <si>
+    <t>Le login facebook est opérationnel et les fonctionnalités du site fonctionnent avec un compte facebook. Il faut que je fasse encore quelques changements pour l'affichage de certaines données mais on peut utiliser l'application via facebook. C'est intéressant de voir que le mot de passe n'est pas révélé par Identity dans les détails de l'utilisateur. Cela rajoute une sécurité et permet à l'utilisateur d'avoir confiance en notre application.</t>
+  </si>
+  <si>
+    <t>J'ai modifié le fonctionnement de l'inscription en ajoutant un champ permettant de contrôler si l'utilisateur a bien complété son compte. Il faut que j'adapte encore quelques processus mais dans l'ensemble le login facebook fonctionne parfaitement.</t>
+  </si>
+  <si>
+    <t>Je me suis fait quelques réflexions sur la manière d'exploiter Spotify dans notre application. J'ai modifié certains de mes documents et je vais repenser la façon d'exploiter les données de Spotify.</t>
+  </si>
+  <si>
+    <t>J'ai adapté l'API pour qu'elle me retourne des titres en fonction d'un titre de musique que l'utilisateur a entré et j'ai fait une méthode qui permet de récupérer l'ensemble des sons qui ont déjà été utilisé par d'autres utilisateurs. Le but est de pouvoir soit trouver un son qui n'est pas listé et de l'ajouté à nos préférences ou d'utiliser ceux qui ont déjà été mentionné dans les préférences.</t>
+  </si>
+  <si>
+    <t>Spotify + Trello</t>
+  </si>
+  <si>
+    <t>L'utilisatuer peut désormais enregistrer une musique dans ses préférences. Le prochain objectif c'est qu'il puisse la modifier et il faut encore l'intégrer à l'algorithme. Après discussion avec le mandant nous avons modifié notre façon de gérer le projet et j'ai adapté le trello selon la demande.</t>
+  </si>
+  <si>
+    <t>Ad + Trello</t>
+  </si>
+  <si>
+    <t>Correction de deux trois éléments dans le trello et intégration du CRUD pour les publicités dans la partie Administration, j'ai scaffold la base de donnée sur le projet et j'ai créé la table qui contiendra les publicités. Le CRUD fonctionne je vais maintenant essayer d'intégrer les publicités sur le site.</t>
+  </si>
+  <si>
+    <t>Publicités</t>
+  </si>
+  <si>
+    <t>J'ai modifié le contrôleur pour les publicités j'ai eu pas mal de souci pour traiter l'image que j'ai finalement converti en bytes et en base64 pour pouvoir la décoder dans l'API. Il me reste plus qu'à faire la fonction Edit et le Delete et afficher des pubs aléatoire sur la page de l'application.</t>
+  </si>
+  <si>
+    <t>J'affiche des publicités sur la page d'accueil avec un lien j'ai aussi regardé pour adapter l'EDIT et j'ai effectué quelques tests sur la plateforme en DEV. Monsieur Allemann va déployer ma version et je pourrais faire des tests en production.</t>
+  </si>
+  <si>
+    <t>15.05.2020</t>
+  </si>
+  <si>
+    <t>Recherche de comment rénitilialiser un mot de passe sans utiliser UserManger d'Identtity</t>
+  </si>
+  <si>
+    <t>18.05.2020</t>
+  </si>
+  <si>
+    <t>Génération de mot de passe en cours en attente de confirmation côté user</t>
+  </si>
+  <si>
+    <t>19.05.2020</t>
+  </si>
+  <si>
+    <t>Génération de mot de passe OK
+Hashage OK
+Envoie du mail OK
+Test de connexion avec le nouveaux mot de passe OK</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>Recherche sur l'implémentation d'un chat privé</t>
+  </si>
+  <si>
+    <t>22.05.2020</t>
+  </si>
+  <si>
+    <t>Création de la logique est de l'interdace graphique du chat</t>
+  </si>
+  <si>
+    <t>24.05.2020</t>
+  </si>
+  <si>
+    <t>Finalisation du chat
+Envoie des messages OK
+Affichage des messages OK</t>
+  </si>
+  <si>
+    <t>User/Admin</t>
+  </si>
+  <si>
+    <t>25.05.2020</t>
+  </si>
+  <si>
+    <t>Résolution des problèmes de suppression de compte qui avait un like côté user et admin</t>
+  </si>
+  <si>
+    <t>26.05.2020</t>
+  </si>
+  <si>
+    <t>Chat corrigé
+Début du signalement et bloquage d'utilisateur</t>
+  </si>
+  <si>
+    <t>29.05.2020</t>
+  </si>
+  <si>
+    <t>Permet à l'utilisateur de signaler un utilisateur
+Raison, nom, details OK
+Email reçu OK</t>
+  </si>
+  <si>
+    <t>Production</t>
+  </si>
+  <si>
+    <t>30.05.2020</t>
+  </si>
+  <si>
+    <t>Test rénitialisation mot de passe côté administrateur OK
+Test envoie de mail à l'administrateur pour signalement d'un utilisateur OK
+Test Chat Echec les messages ne s'affiche pas des 2 côtés
+Correction du chat
+Test Chat Ok</t>
+  </si>
+  <si>
+    <t>31.05.2020</t>
+  </si>
+  <si>
+    <t>Debug du unlike
+Unlike corrigé</t>
   </si>
 </sst>
 </file>
@@ -1237,7 +1379,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1443,6 +1585,9 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1664,20 +1809,20 @@
   </sheetPr>
   <dimension ref="A1:R1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="6.109375" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" customWidth="1"/>
-    <col min="4" max="4" width="78.44140625" customWidth="1"/>
-    <col min="5" max="6" width="14.44140625" customWidth="1"/>
+    <col min="2" max="2" width="6.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="78.42578125" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1703,7 +1848,7 @@
       <c r="Q1" s="4"/>
       <c r="R1" s="4"/>
     </row>
-    <row r="2" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -1731,7 +1876,7 @@
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
     </row>
-    <row r="3" spans="1:18" ht="92.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="94.5" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
@@ -1759,7 +1904,7 @@
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
     </row>
-    <row r="4" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="54" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
@@ -1787,7 +1932,7 @@
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
     </row>
-    <row r="5" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="54" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
@@ -1815,7 +1960,7 @@
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
     </row>
-    <row r="6" spans="1:18" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="81" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
         <v>12</v>
       </c>
@@ -1843,7 +1988,7 @@
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
     </row>
-    <row r="7" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="54" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>14</v>
       </c>
@@ -1871,7 +2016,7 @@
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
     </row>
-    <row r="8" spans="1:18" ht="92.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="94.5" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
         <v>16</v>
       </c>
@@ -1899,7 +2044,7 @@
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
     </row>
-    <row r="9" spans="1:18" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" ht="81" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
         <v>18</v>
       </c>
@@ -1927,7 +2072,7 @@
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
     </row>
-    <row r="10" spans="1:18" ht="66" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
@@ -1955,7 +2100,7 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
     </row>
-    <row r="11" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="8"/>
@@ -1975,7 +2120,7 @@
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
     </row>
-    <row r="12" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="14" t="s">
         <v>22</v>
       </c>
@@ -2000,7 +2145,7 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
     </row>
-    <row r="13" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="16"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
@@ -2020,7 +2165,7 @@
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
     </row>
-    <row r="14" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -2044,7 +2189,7 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
     </row>
-    <row r="15" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>2</v>
       </c>
@@ -2070,7 +2215,7 @@
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
     </row>
-    <row r="16" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" ht="27" x14ac:dyDescent="0.3">
       <c r="A16" s="37" t="s">
         <v>95</v>
       </c>
@@ -2098,7 +2243,7 @@
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
     </row>
-    <row r="17" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" ht="27" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>99</v>
       </c>
@@ -2126,7 +2271,7 @@
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
     </row>
-    <row r="18" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="9"/>
@@ -2146,7 +2291,7 @@
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
     </row>
-    <row r="19" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="9"/>
@@ -2166,7 +2311,7 @@
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
     </row>
-    <row r="20" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="9"/>
@@ -2757,10 +2902,18 @@
       <c r="R47" s="4"/>
     </row>
     <row r="48" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="19"/>
-      <c r="B48" s="19"/>
-      <c r="C48" s="20"/>
-      <c r="D48" s="20"/>
+      <c r="A48" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="B48" s="19">
+        <v>3.5</v>
+      </c>
+      <c r="C48" s="20" t="s">
+        <v>272</v>
+      </c>
+      <c r="D48" s="20" t="s">
+        <v>273</v>
+      </c>
       <c r="E48" s="10"/>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
@@ -2777,10 +2930,18 @@
       <c r="R48" s="4"/>
     </row>
     <row r="49" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="7"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
+      <c r="A49" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B49" s="7">
+        <v>4</v>
+      </c>
+      <c r="C49" s="35">
+        <v>43982</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>275</v>
+      </c>
       <c r="E49" s="10"/>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
@@ -2982,7 +3143,7 @@
       </c>
       <c r="B59" s="14">
         <f>SUM(B48:B58)</f>
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="C59" s="15"/>
       <c r="D59" s="15"/>
@@ -4639,7 +4800,7 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" prompt="Durée en 1/3 de période - Le nombre doit être de type entier" sqref="B73:B80 B16:B31 B36:B37 B39:B43 B48:B58 B63:B68 B10:B11 B3:B8" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" prompt="Durée en 1/3 de période - Le nombre doit être de type entier" sqref="B73:B80 B16:B31 B36:B37 B39:B43 B3:B8 B63:B68 B10:B11 B48:B58" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>0</formula1>
     </dataValidation>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" prompt="Dépassement de durée - Le nombre de minutes introduites dépasse la durée d'une période. Veuillez confirmer ... Le calcul du total sera juste dans tous les cas._x000a_" sqref="B12 B32 B44 B59 B69 B81" xr:uid="{00000000-0002-0000-0000-000001000000}">
@@ -4656,18 +4817,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DB7A04D-A66F-4A89-83F1-9B353075A776}">
   <dimension ref="A1:R107"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63:D72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5546875" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="78.44140625" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="78.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4693,7 +4854,7 @@
       <c r="Q1" s="4"/>
       <c r="R1" s="4"/>
     </row>
-    <row r="2" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -4721,7 +4882,7 @@
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
     </row>
-    <row r="3" spans="1:18" ht="92.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="94.5" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
@@ -4749,7 +4910,7 @@
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
     </row>
-    <row r="4" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="54" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
@@ -4777,7 +4938,7 @@
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
     </row>
-    <row r="5" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="54" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
@@ -4805,7 +4966,7 @@
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
     </row>
-    <row r="6" spans="1:18" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="81" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
         <v>12</v>
       </c>
@@ -4833,7 +4994,7 @@
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
     </row>
-    <row r="7" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="54" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>14</v>
       </c>
@@ -4861,7 +5022,7 @@
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
     </row>
-    <row r="8" spans="1:18" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="81" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
         <v>16</v>
       </c>
@@ -4889,7 +5050,7 @@
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
     </row>
-    <row r="9" spans="1:18" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" ht="81" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
         <v>18</v>
       </c>
@@ -4917,7 +5078,7 @@
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
     </row>
-    <row r="10" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
@@ -4945,7 +5106,7 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
     </row>
-    <row r="11" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>34</v>
       </c>
@@ -4973,7 +5134,7 @@
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
     </row>
-    <row r="12" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="14" t="s">
         <v>22</v>
       </c>
@@ -4998,7 +5159,7 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
     </row>
-    <row r="13" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="16"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
@@ -5018,7 +5179,7 @@
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
     </row>
-    <row r="14" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -5042,7 +5203,7 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
     </row>
-    <row r="15" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>2</v>
       </c>
@@ -5068,7 +5229,7 @@
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
     </row>
-    <row r="16" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
         <v>36</v>
       </c>
@@ -5096,7 +5257,7 @@
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
     </row>
-    <row r="17" spans="1:18" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" ht="81" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>38</v>
       </c>
@@ -5124,7 +5285,7 @@
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
     </row>
-    <row r="18" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>42</v>
       </c>
@@ -5152,7 +5313,7 @@
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
     </row>
-    <row r="19" spans="1:18" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" ht="81" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>44</v>
       </c>
@@ -5180,7 +5341,7 @@
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
     </row>
-    <row r="20" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>46</v>
       </c>
@@ -5208,7 +5369,7 @@
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
     </row>
-    <row r="21" spans="1:18" ht="66" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>48</v>
       </c>
@@ -5236,7 +5397,7 @@
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
     </row>
-    <row r="22" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" ht="27" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>50</v>
       </c>
@@ -5264,7 +5425,7 @@
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
     </row>
-    <row r="23" spans="1:18" ht="118.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" ht="121.5" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>73</v>
       </c>
@@ -5292,7 +5453,7 @@
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
     </row>
-    <row r="24" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" ht="54" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>52</v>
       </c>
@@ -5320,7 +5481,7 @@
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
     </row>
-    <row r="25" spans="1:18" ht="66" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>62</v>
       </c>
@@ -5348,7 +5509,7 @@
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
     </row>
-    <row r="26" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" ht="54" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>63</v>
       </c>
@@ -5376,7 +5537,7 @@
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
     </row>
-    <row r="27" spans="1:18" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" ht="81" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>65</v>
       </c>
@@ -5404,7 +5565,7 @@
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
     </row>
-    <row r="28" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>69</v>
       </c>
@@ -5432,7 +5593,7 @@
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
     </row>
-    <row r="29" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>71</v>
       </c>
@@ -5460,7 +5621,7 @@
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
     </row>
-    <row r="30" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>88</v>
       </c>
@@ -5488,7 +5649,7 @@
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
     </row>
-    <row r="31" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" ht="54" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>90</v>
       </c>
@@ -5516,7 +5677,7 @@
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
     </row>
-    <row r="32" spans="1:18" ht="66" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" ht="54" x14ac:dyDescent="0.3">
       <c r="A32" s="38" t="s">
         <v>97</v>
       </c>
@@ -5544,7 +5705,7 @@
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
     </row>
-    <row r="33" spans="1:18" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:18" ht="54.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="38" t="s">
         <v>142</v>
       </c>
@@ -5572,7 +5733,7 @@
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
     </row>
-    <row r="34" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="14" t="s">
         <v>22</v>
       </c>
@@ -5597,7 +5758,7 @@
       <c r="Q34" s="4"/>
       <c r="R34" s="4"/>
     </row>
-    <row r="35" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="16"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -5617,7 +5778,7 @@
       <c r="Q35" s="4"/>
       <c r="R35" s="4"/>
     </row>
-    <row r="36" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>0</v>
       </c>
@@ -5641,7 +5802,7 @@
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
     </row>
-    <row r="37" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
         <v>2</v>
       </c>
@@ -5667,7 +5828,7 @@
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
     </row>
-    <row r="38" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18" ht="54" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
         <v>148</v>
       </c>
@@ -5695,7 +5856,7 @@
       <c r="Q38" s="4"/>
       <c r="R38" s="4"/>
     </row>
-    <row r="39" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" ht="27" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>150</v>
       </c>
@@ -5723,7 +5884,7 @@
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
     </row>
-    <row r="40" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
         <v>152</v>
       </c>
@@ -5751,7 +5912,7 @@
       <c r="Q40" s="4"/>
       <c r="R40" s="4"/>
     </row>
-    <row r="41" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" ht="54" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
         <v>154</v>
       </c>
@@ -5779,7 +5940,7 @@
       <c r="Q41" s="4"/>
       <c r="R41" s="4"/>
     </row>
-    <row r="42" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" ht="27" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
         <v>156</v>
       </c>
@@ -5807,7 +5968,7 @@
       <c r="Q42" s="4"/>
       <c r="R42" s="4"/>
     </row>
-    <row r="43" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18" ht="27" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
         <v>158</v>
       </c>
@@ -5835,7 +5996,7 @@
       <c r="Q43" s="4"/>
       <c r="R43" s="4"/>
     </row>
-    <row r="44" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
         <v>165</v>
       </c>
@@ -5863,7 +6024,7 @@
       <c r="Q44" s="4"/>
       <c r="R44" s="4"/>
     </row>
-    <row r="45" spans="1:18" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:18" ht="81.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="23" t="s">
         <v>167</v>
       </c>
@@ -5891,7 +6052,7 @@
       <c r="Q45" s="4"/>
       <c r="R45" s="4"/>
     </row>
-    <row r="46" spans="1:18" ht="106.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:18" ht="108.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="23" t="s">
         <v>169</v>
       </c>
@@ -5919,7 +6080,7 @@
       <c r="Q46" s="4"/>
       <c r="R46" s="4"/>
     </row>
-    <row r="47" spans="1:18" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:18" ht="41.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="42" t="s">
         <v>171</v>
       </c>
@@ -5947,7 +6108,7 @@
       <c r="Q47" s="4"/>
       <c r="R47" s="4"/>
     </row>
-    <row r="48" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="42" t="s">
         <v>173</v>
       </c>
@@ -5975,7 +6136,7 @@
       <c r="Q48" s="4"/>
       <c r="R48" s="4"/>
     </row>
-    <row r="49" spans="1:18" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:18" ht="41.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="42" t="s">
         <v>181</v>
       </c>
@@ -6003,7 +6164,7 @@
       <c r="Q49" s="4"/>
       <c r="R49" s="4"/>
     </row>
-    <row r="50" spans="1:18" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:18" ht="81.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="42" t="s">
         <v>183</v>
       </c>
@@ -6031,7 +6192,7 @@
       <c r="Q50" s="4"/>
       <c r="R50" s="4"/>
     </row>
-    <row r="51" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="42" t="s">
         <v>189</v>
       </c>
@@ -6059,7 +6220,7 @@
       <c r="Q51" s="4"/>
       <c r="R51" s="4"/>
     </row>
-    <row r="52" spans="1:18" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:18" ht="68.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="42" t="s">
         <v>191</v>
       </c>
@@ -6087,7 +6248,7 @@
       <c r="Q52" s="4"/>
       <c r="R52" s="4"/>
     </row>
-    <row r="53" spans="1:18" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:18" ht="81.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="42" t="s">
         <v>195</v>
       </c>
@@ -6115,7 +6276,7 @@
       <c r="Q53" s="4"/>
       <c r="R53" s="4"/>
     </row>
-    <row r="54" spans="1:18" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:18" ht="81.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="42" t="s">
         <v>197</v>
       </c>
@@ -6143,7 +6304,7 @@
       <c r="Q54" s="4"/>
       <c r="R54" s="4"/>
     </row>
-    <row r="55" spans="1:18" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:18" ht="54.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="42" t="s">
         <v>243</v>
       </c>
@@ -6171,7 +6332,7 @@
       <c r="Q55" s="4"/>
       <c r="R55" s="4"/>
     </row>
-    <row r="56" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="14" t="s">
         <v>22</v>
       </c>
@@ -6196,7 +6357,7 @@
       <c r="Q56" s="4"/>
       <c r="R56" s="4"/>
     </row>
-    <row r="57" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="16"/>
       <c r="B57" s="16"/>
       <c r="C57" s="16"/>
@@ -6216,7 +6377,7 @@
       <c r="Q57" s="4"/>
       <c r="R57" s="4"/>
     </row>
-    <row r="58" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>0</v>
       </c>
@@ -6240,7 +6401,7 @@
       <c r="Q58" s="4"/>
       <c r="R58" s="4"/>
     </row>
-    <row r="59" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="5" t="s">
         <v>2</v>
       </c>
@@ -6266,7 +6427,7 @@
       <c r="Q59" s="4"/>
       <c r="R59" s="4"/>
     </row>
-    <row r="60" spans="1:18" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:18" ht="81" x14ac:dyDescent="0.3">
       <c r="A60" s="19" t="s">
         <v>245</v>
       </c>
@@ -6294,7 +6455,7 @@
       <c r="Q60" s="4"/>
       <c r="R60" s="4"/>
     </row>
-    <row r="61" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A61" s="58" t="s">
         <v>245</v>
       </c>
@@ -6322,7 +6483,7 @@
       <c r="Q61" s="4"/>
       <c r="R61" s="4"/>
     </row>
-    <row r="62" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:18" ht="54" x14ac:dyDescent="0.3">
       <c r="A62" s="7" t="s">
         <v>245</v>
       </c>
@@ -6350,11 +6511,19 @@
       <c r="Q62" s="4"/>
       <c r="R62" s="4"/>
     </row>
-    <row r="63" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A63" s="7"/>
-      <c r="B63" s="7"/>
-      <c r="C63" s="9"/>
-      <c r="D63" s="9"/>
+    <row r="63" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
+      <c r="A63" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="B63" s="7">
+        <v>4</v>
+      </c>
+      <c r="C63" s="35">
+        <v>43969</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>276</v>
+      </c>
       <c r="E63" s="10"/>
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
@@ -6370,11 +6539,19 @@
       <c r="Q63" s="4"/>
       <c r="R63" s="4"/>
     </row>
-    <row r="64" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A64" s="7"/>
-      <c r="B64" s="7"/>
-      <c r="C64" s="9"/>
-      <c r="D64" s="9"/>
+    <row r="64" spans="1:18" ht="94.5" x14ac:dyDescent="0.3">
+      <c r="A64" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="B64" s="7">
+        <v>5.5</v>
+      </c>
+      <c r="C64" s="35">
+        <v>43970</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>278</v>
+      </c>
       <c r="E64" s="10"/>
       <c r="F64" s="4"/>
       <c r="G64" s="4"/>
@@ -6390,11 +6567,19 @@
       <c r="Q64" s="4"/>
       <c r="R64" s="4"/>
     </row>
-    <row r="65" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A65" s="7"/>
-      <c r="B65" s="7"/>
-      <c r="C65" s="9"/>
-      <c r="D65" s="9"/>
+    <row r="65" spans="1:18" ht="81" x14ac:dyDescent="0.3">
+      <c r="A65" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="B65" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="C65" s="35">
+        <v>43971</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>279</v>
+      </c>
       <c r="E65" s="10"/>
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
@@ -6410,11 +6595,19 @@
       <c r="Q65" s="4"/>
       <c r="R65" s="4"/>
     </row>
-    <row r="66" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A66" s="7"/>
-      <c r="B66" s="7"/>
-      <c r="C66" s="9"/>
-      <c r="D66" s="9"/>
+    <row r="66" spans="1:18" ht="54" x14ac:dyDescent="0.3">
+      <c r="A66" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="B66" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="C66" s="35">
+        <v>43972</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>280</v>
+      </c>
       <c r="E66" s="10"/>
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
@@ -6430,11 +6623,19 @@
       <c r="Q66" s="4"/>
       <c r="R66" s="4"/>
     </row>
-    <row r="67" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A67" s="25"/>
-      <c r="B67" s="25"/>
-      <c r="C67" s="26"/>
-      <c r="D67" s="26"/>
+    <row r="67" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A67" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B67" s="25">
+        <v>1</v>
+      </c>
+      <c r="C67" s="74">
+        <v>43974</v>
+      </c>
+      <c r="D67" s="26" t="s">
+        <v>281</v>
+      </c>
       <c r="E67" s="10"/>
       <c r="F67" s="4"/>
       <c r="G67" s="4"/>
@@ -6450,11 +6651,19 @@
       <c r="Q67" s="4"/>
       <c r="R67" s="4"/>
     </row>
-    <row r="68" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A68" s="25"/>
-      <c r="B68" s="25"/>
-      <c r="C68" s="26"/>
-      <c r="D68" s="26"/>
+    <row r="68" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
+      <c r="A68" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B68" s="25">
+        <v>3</v>
+      </c>
+      <c r="C68" s="74">
+        <v>43975</v>
+      </c>
+      <c r="D68" s="26" t="s">
+        <v>282</v>
+      </c>
       <c r="E68" s="10"/>
       <c r="F68" s="4"/>
       <c r="G68" s="4"/>
@@ -6470,11 +6679,19 @@
       <c r="Q68" s="4"/>
       <c r="R68" s="4"/>
     </row>
-    <row r="69" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A69" s="25"/>
-      <c r="B69" s="25"/>
-      <c r="C69" s="26"/>
-      <c r="D69" s="26"/>
+    <row r="69" spans="1:18" ht="54" x14ac:dyDescent="0.3">
+      <c r="A69" s="25" t="s">
+        <v>283</v>
+      </c>
+      <c r="B69" s="25">
+        <v>4</v>
+      </c>
+      <c r="C69" s="74">
+        <v>43976</v>
+      </c>
+      <c r="D69" s="26" t="s">
+        <v>284</v>
+      </c>
       <c r="E69" s="10"/>
       <c r="F69" s="4"/>
       <c r="G69" s="4"/>
@@ -6490,11 +6707,19 @@
       <c r="Q69" s="4"/>
       <c r="R69" s="4"/>
     </row>
-    <row r="70" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A70" s="25"/>
-      <c r="B70" s="25"/>
-      <c r="C70" s="26"/>
-      <c r="D70" s="26"/>
+    <row r="70" spans="1:18" ht="54" x14ac:dyDescent="0.3">
+      <c r="A70" s="25" t="s">
+        <v>285</v>
+      </c>
+      <c r="B70" s="25">
+        <v>4.5</v>
+      </c>
+      <c r="C70" s="74">
+        <v>43977</v>
+      </c>
+      <c r="D70" s="26" t="s">
+        <v>286</v>
+      </c>
       <c r="E70" s="10"/>
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
@@ -6510,11 +6735,19 @@
       <c r="Q70" s="4"/>
       <c r="R70" s="4"/>
     </row>
-    <row r="71" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="23"/>
-      <c r="B71" s="23"/>
-      <c r="C71" s="24"/>
-      <c r="D71" s="24"/>
+    <row r="71" spans="1:18" ht="54.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="B71" s="23">
+        <v>4</v>
+      </c>
+      <c r="C71" s="41">
+        <v>43979</v>
+      </c>
+      <c r="D71" s="24" t="s">
+        <v>288</v>
+      </c>
       <c r="E71" s="10"/>
       <c r="F71" s="4"/>
       <c r="G71" s="4"/>
@@ -6530,16 +6763,19 @@
       <c r="Q71" s="4"/>
       <c r="R71" s="4"/>
     </row>
-    <row r="72" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B72" s="14">
-        <f>SUM(B60:B71)</f>
-        <v>8</v>
-      </c>
-      <c r="C72" s="15"/>
-      <c r="D72" s="15"/>
+    <row r="72" spans="1:18" ht="41.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="42" t="s">
+        <v>287</v>
+      </c>
+      <c r="B72" s="42">
+        <v>4</v>
+      </c>
+      <c r="C72" s="43">
+        <v>43980</v>
+      </c>
+      <c r="D72" s="44" t="s">
+        <v>289</v>
+      </c>
       <c r="E72" s="10"/>
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
@@ -6555,7 +6791,7 @@
       <c r="Q72" s="4"/>
       <c r="R72" s="4"/>
     </row>
-    <row r="73" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="16"/>
       <c r="B73" s="16"/>
       <c r="C73" s="16"/>
@@ -6575,7 +6811,7 @@
       <c r="Q73" s="4"/>
       <c r="R73" s="4"/>
     </row>
-    <row r="74" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>0</v>
       </c>
@@ -6599,7 +6835,7 @@
       <c r="Q74" s="4"/>
       <c r="R74" s="4"/>
     </row>
-    <row r="75" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="5" t="s">
         <v>2</v>
       </c>
@@ -6625,7 +6861,7 @@
       <c r="Q75" s="4"/>
       <c r="R75" s="4"/>
     </row>
-    <row r="76" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A76" s="19"/>
       <c r="B76" s="19"/>
       <c r="C76" s="20"/>
@@ -6645,7 +6881,7 @@
       <c r="Q76" s="4"/>
       <c r="R76" s="4"/>
     </row>
-    <row r="77" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A77" s="7"/>
       <c r="B77" s="7"/>
       <c r="C77" s="9"/>
@@ -6665,7 +6901,7 @@
       <c r="Q77" s="4"/>
       <c r="R77" s="4"/>
     </row>
-    <row r="78" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A78" s="7"/>
       <c r="B78" s="7"/>
       <c r="C78" s="9"/>
@@ -6685,7 +6921,7 @@
       <c r="Q78" s="4"/>
       <c r="R78" s="4"/>
     </row>
-    <row r="79" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A79" s="7"/>
       <c r="B79" s="7"/>
       <c r="C79" s="9"/>
@@ -6705,7 +6941,7 @@
       <c r="Q79" s="4"/>
       <c r="R79" s="4"/>
     </row>
-    <row r="80" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A80" s="7"/>
       <c r="B80" s="7"/>
       <c r="C80" s="9"/>
@@ -6725,7 +6961,7 @@
       <c r="Q80" s="4"/>
       <c r="R80" s="4"/>
     </row>
-    <row r="81" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="23"/>
       <c r="B81" s="23"/>
       <c r="C81" s="24"/>
@@ -6745,7 +6981,7 @@
       <c r="Q81" s="4"/>
       <c r="R81" s="4"/>
     </row>
-    <row r="82" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="14" t="s">
         <v>22</v>
       </c>
@@ -6770,7 +7006,7 @@
       <c r="Q82" s="4"/>
       <c r="R82" s="4"/>
     </row>
-    <row r="83" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="16"/>
       <c r="B83" s="16"/>
       <c r="C83" s="16"/>
@@ -6790,7 +7026,7 @@
       <c r="Q83" s="4"/>
       <c r="R83" s="4"/>
     </row>
-    <row r="84" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
         <v>0</v>
       </c>
@@ -6814,7 +7050,7 @@
       <c r="Q84" s="4"/>
       <c r="R84" s="4"/>
     </row>
-    <row r="85" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="5" t="s">
         <v>2</v>
       </c>
@@ -6840,7 +7076,7 @@
       <c r="Q85" s="4"/>
       <c r="R85" s="4"/>
     </row>
-    <row r="86" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A86" s="19"/>
       <c r="B86" s="19"/>
       <c r="C86" s="20"/>
@@ -6860,7 +7096,7 @@
       <c r="Q86" s="4"/>
       <c r="R86" s="4"/>
     </row>
-    <row r="87" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A87" s="7"/>
       <c r="B87" s="7"/>
       <c r="C87" s="9"/>
@@ -6880,7 +7116,7 @@
       <c r="Q87" s="4"/>
       <c r="R87" s="4"/>
     </row>
-    <row r="88" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A88" s="7"/>
       <c r="B88" s="7"/>
       <c r="C88" s="9"/>
@@ -6900,7 +7136,7 @@
       <c r="Q88" s="4"/>
       <c r="R88" s="4"/>
     </row>
-    <row r="89" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A89" s="7"/>
       <c r="B89" s="7"/>
       <c r="C89" s="9"/>
@@ -6920,7 +7156,7 @@
       <c r="Q89" s="4"/>
       <c r="R89" s="4"/>
     </row>
-    <row r="90" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A90" s="7"/>
       <c r="B90" s="7"/>
       <c r="C90" s="9"/>
@@ -6940,7 +7176,7 @@
       <c r="Q90" s="4"/>
       <c r="R90" s="4"/>
     </row>
-    <row r="91" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A91" s="7"/>
       <c r="B91" s="7"/>
       <c r="C91" s="9"/>
@@ -6960,7 +7196,7 @@
       <c r="Q91" s="4"/>
       <c r="R91" s="4"/>
     </row>
-    <row r="92" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A92" s="7"/>
       <c r="B92" s="7"/>
       <c r="C92" s="9"/>
@@ -6980,7 +7216,7 @@
       <c r="Q92" s="4"/>
       <c r="R92" s="4"/>
     </row>
-    <row r="93" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="23"/>
       <c r="B93" s="23"/>
       <c r="C93" s="24"/>
@@ -7000,7 +7236,7 @@
       <c r="Q93" s="4"/>
       <c r="R93" s="4"/>
     </row>
-    <row r="94" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="14" t="s">
         <v>22</v>
       </c>
@@ -7025,7 +7261,7 @@
       <c r="Q94" s="4"/>
       <c r="R94" s="4"/>
     </row>
-    <row r="95" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A95" s="16"/>
       <c r="B95" s="16"/>
       <c r="C95" s="16"/>
@@ -7045,7 +7281,7 @@
       <c r="Q95" s="4"/>
       <c r="R95" s="4"/>
     </row>
-    <row r="96" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A96" s="27"/>
       <c r="B96" s="27"/>
       <c r="C96" s="27"/>
@@ -7065,7 +7301,7 @@
       <c r="Q96" s="4"/>
       <c r="R96" s="4"/>
     </row>
-    <row r="97" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A97" s="27"/>
       <c r="B97" s="27"/>
       <c r="C97" s="27"/>
@@ -7085,7 +7321,7 @@
       <c r="Q97" s="4"/>
       <c r="R97" s="4"/>
     </row>
-    <row r="98" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A98" s="27"/>
       <c r="B98" s="27"/>
       <c r="C98" s="27"/>
@@ -7105,7 +7341,7 @@
       <c r="Q98" s="4"/>
       <c r="R98" s="4"/>
     </row>
-    <row r="99" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A99" s="27"/>
       <c r="B99" s="27"/>
       <c r="C99" s="27"/>
@@ -7125,7 +7361,7 @@
       <c r="Q99" s="4"/>
       <c r="R99" s="4"/>
     </row>
-    <row r="100" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A100" s="27"/>
       <c r="B100" s="27"/>
       <c r="C100" s="27"/>
@@ -7145,7 +7381,7 @@
       <c r="Q100" s="4"/>
       <c r="R100" s="4"/>
     </row>
-    <row r="101" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A101" s="27"/>
       <c r="B101" s="27"/>
       <c r="C101" s="27"/>
@@ -7165,7 +7401,7 @@
       <c r="Q101" s="4"/>
       <c r="R101" s="4"/>
     </row>
-    <row r="102" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A102" s="27"/>
       <c r="B102" s="27"/>
       <c r="C102" s="27"/>
@@ -7185,7 +7421,7 @@
       <c r="Q102" s="4"/>
       <c r="R102" s="4"/>
     </row>
-    <row r="103" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A103" s="27"/>
       <c r="B103" s="27"/>
       <c r="C103" s="27"/>
@@ -7205,7 +7441,7 @@
       <c r="Q103" s="4"/>
       <c r="R103" s="4"/>
     </row>
-    <row r="104" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A104" s="27"/>
       <c r="B104" s="27"/>
       <c r="C104" s="27"/>
@@ -7225,7 +7461,7 @@
       <c r="Q104" s="4"/>
       <c r="R104" s="4"/>
     </row>
-    <row r="105" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A105" s="27"/>
       <c r="B105" s="27"/>
       <c r="C105" s="27"/>
@@ -7245,13 +7481,13 @@
       <c r="Q105" s="4"/>
       <c r="R105" s="4"/>
     </row>
-    <row r="106" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A106" s="27"/>
       <c r="B106" s="27"/>
       <c r="C106" s="27"/>
       <c r="D106" s="27"/>
     </row>
-    <row r="107" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A107" s="28"/>
       <c r="B107" s="28"/>
       <c r="C107" s="28"/>
@@ -7259,11 +7495,11 @@
     </row>
   </sheetData>
   <dataValidations xWindow="188" yWindow="522" count="2">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" prompt="Dépassement de durée - Le nombre de minutes introduites dépasse la durée d'une période. Veuillez confirmer ... Le calcul du total sera juste dans tous les cas._x000a_" sqref="B12 B34 B56 B72 B82 B94" xr:uid="{41F29EDA-D509-4469-8DFB-6A4CE4CEAE07}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" prompt="Dépassement de durée - Le nombre de minutes introduites dépasse la durée d'une période. Veuillez confirmer ... Le calcul du total sera juste dans tous les cas._x000a_" sqref="B12 B34 B56 B94 B82" xr:uid="{41F29EDA-D509-4469-8DFB-6A4CE4CEAE07}">
       <formula1>0</formula1>
       <formula2>DureePeriode-1</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" prompt="Durée en 1/3 de période - Le nombre doit être de type entier" sqref="B86:B93 B38:B39 B60:B71 B76:B81 B10:B11 B3:B8 B16:B33 B41:B45" xr:uid="{3039B7E3-952E-4B34-B612-E5A0C049619C}">
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" prompt="Durée en 1/3 de période - Le nombre doit être de type entier" sqref="B86:B93 B38:B39 B41:B45 B76:B81 B10:B11 B3:B8 B16:B33 B60:B72" xr:uid="{3039B7E3-952E-4B34-B612-E5A0C049619C}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -7275,18 +7511,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716E2DDB-6361-470B-ACF3-8FDF9046203A}">
   <dimension ref="A1:R117"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="78.44140625" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="78.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7312,7 +7548,7 @@
       <c r="Q1" s="4"/>
       <c r="R1" s="4"/>
     </row>
-    <row r="2" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -7340,7 +7576,7 @@
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
     </row>
-    <row r="3" spans="1:18" ht="92.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="94.5" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
@@ -7368,7 +7604,7 @@
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
     </row>
-    <row r="4" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="54" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
@@ -7396,7 +7632,7 @@
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
     </row>
-    <row r="5" spans="1:18" ht="66" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
@@ -7424,7 +7660,7 @@
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
     </row>
-    <row r="6" spans="1:18" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="81" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
         <v>12</v>
       </c>
@@ -7452,7 +7688,7 @@
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
     </row>
-    <row r="7" spans="1:18" ht="66" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>14</v>
       </c>
@@ -7480,7 +7716,7 @@
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
     </row>
-    <row r="8" spans="1:18" ht="118.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="108" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
         <v>16</v>
       </c>
@@ -7508,7 +7744,7 @@
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
     </row>
-    <row r="9" spans="1:18" ht="105.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" ht="94.5" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
         <v>18</v>
       </c>
@@ -7536,7 +7772,7 @@
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
     </row>
-    <row r="10" spans="1:18" ht="66" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
@@ -7564,7 +7800,7 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
     </row>
-    <row r="11" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>23</v>
       </c>
@@ -7590,7 +7826,7 @@
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
     </row>
-    <row r="12" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>25</v>
       </c>
@@ -7616,7 +7852,7 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
     </row>
-    <row r="13" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" ht="27" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
         <v>22</v>
       </c>
@@ -7641,7 +7877,7 @@
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
     </row>
-    <row r="14" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A14" s="16"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
@@ -7661,7 +7897,7 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
     </row>
-    <row r="15" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" ht="18" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -7711,7 +7947,7 @@
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
     </row>
-    <row r="17" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" ht="27" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
         <v>103</v>
       </c>
@@ -7737,7 +7973,7 @@
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
     </row>
-    <row r="18" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>105</v>
       </c>
@@ -7761,7 +7997,7 @@
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
     </row>
-    <row r="19" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" ht="54" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>106</v>
       </c>
@@ -7787,7 +8023,7 @@
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
     </row>
-    <row r="20" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>108</v>
       </c>
@@ -7813,7 +8049,7 @@
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
     </row>
-    <row r="21" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" ht="54" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>110</v>
       </c>
@@ -7839,7 +8075,7 @@
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
     </row>
-    <row r="22" spans="1:18" ht="66" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>112</v>
       </c>
@@ -7865,7 +8101,7 @@
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
     </row>
-    <row r="23" spans="1:18" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" ht="81" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>114</v>
       </c>
@@ -7891,7 +8127,7 @@
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
     </row>
-    <row r="24" spans="1:18" ht="105.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" ht="108" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>116</v>
       </c>
@@ -7917,7 +8153,7 @@
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
     </row>
-    <row r="25" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" ht="27" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>118</v>
       </c>
@@ -7943,7 +8179,7 @@
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
     </row>
-    <row r="26" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>120</v>
       </c>
@@ -7969,7 +8205,7 @@
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
     </row>
-    <row r="27" spans="1:18" ht="118.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" ht="121.5" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>122</v>
       </c>
@@ -7995,7 +8231,7 @@
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
     </row>
-    <row r="28" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>124</v>
       </c>
@@ -8021,7 +8257,7 @@
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
     </row>
-    <row r="29" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>126</v>
       </c>
@@ -8047,7 +8283,7 @@
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
     </row>
-    <row r="30" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>124</v>
       </c>
@@ -8073,7 +8309,7 @@
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
     </row>
-    <row r="31" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" ht="27" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>129</v>
       </c>
@@ -8099,7 +8335,7 @@
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
     </row>
-    <row r="32" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" ht="27" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>131</v>
       </c>
@@ -8125,7 +8361,7 @@
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
     </row>
-    <row r="33" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>133</v>
       </c>
@@ -8151,7 +8387,7 @@
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
     </row>
-    <row r="34" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" ht="27" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>134</v>
       </c>
@@ -8177,7 +8413,7 @@
       <c r="Q34" s="4"/>
       <c r="R34" s="4"/>
     </row>
-    <row r="35" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>136</v>
       </c>
@@ -8203,7 +8439,7 @@
       <c r="Q35" s="4"/>
       <c r="R35" s="4"/>
     </row>
-    <row r="36" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" ht="27" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>138</v>
       </c>
@@ -8229,7 +8465,7 @@
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
     </row>
-    <row r="37" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" ht="27" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
         <v>140</v>
       </c>
@@ -8255,7 +8491,7 @@
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
     </row>
-    <row r="38" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="9"/>
@@ -8275,7 +8511,7 @@
       <c r="Q38" s="4"/>
       <c r="R38" s="4"/>
     </row>
-    <row r="39" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="14" t="s">
         <v>22</v>
       </c>
@@ -8300,7 +8536,7 @@
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
     </row>
-    <row r="40" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A40" s="16"/>
       <c r="B40" s="16"/>
       <c r="C40" s="16"/>
@@ -8320,7 +8556,7 @@
       <c r="Q40" s="4"/>
       <c r="R40" s="4"/>
     </row>
-    <row r="41" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" ht="18" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>0</v>
       </c>
@@ -8344,7 +8580,7 @@
       <c r="Q41" s="4"/>
       <c r="R41" s="4"/>
     </row>
-    <row r="42" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
         <v>2</v>
       </c>
@@ -8370,7 +8606,7 @@
       <c r="Q42" s="4"/>
       <c r="R42" s="4"/>
     </row>
-    <row r="43" spans="1:18" s="50" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18" s="50" customFormat="1" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A43" s="33" t="s">
         <v>202</v>
       </c>
@@ -8394,7 +8630,7 @@
       <c r="Q43" s="49"/>
       <c r="R43" s="49"/>
     </row>
-    <row r="44" spans="1:18" s="50" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" s="50" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A44" s="33" t="s">
         <v>203</v>
       </c>
@@ -8420,7 +8656,7 @@
       <c r="Q44" s="49"/>
       <c r="R44" s="49"/>
     </row>
-    <row r="45" spans="1:18" s="50" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:18" s="50" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A45" s="33" t="s">
         <v>205</v>
       </c>
@@ -8444,7 +8680,7 @@
       <c r="Q45" s="49"/>
       <c r="R45" s="49"/>
     </row>
-    <row r="46" spans="1:18" s="50" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:18" s="50" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A46" s="33" t="s">
         <v>206</v>
       </c>
@@ -8468,7 +8704,7 @@
       <c r="Q46" s="49"/>
       <c r="R46" s="49"/>
     </row>
-    <row r="47" spans="1:18" s="50" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:18" s="50" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A47" s="33" t="s">
         <v>207</v>
       </c>
@@ -8492,7 +8728,7 @@
       <c r="Q47" s="49"/>
       <c r="R47" s="49"/>
     </row>
-    <row r="48" spans="1:18" s="50" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:18" s="50" customFormat="1" ht="54" x14ac:dyDescent="0.3">
       <c r="A48" s="33" t="s">
         <v>208</v>
       </c>
@@ -8518,7 +8754,7 @@
       <c r="Q48" s="49"/>
       <c r="R48" s="49"/>
     </row>
-    <row r="49" spans="1:18" s="50" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:18" s="50" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A49" s="33" t="s">
         <v>210</v>
       </c>
@@ -8544,7 +8780,7 @@
       <c r="Q49" s="49"/>
       <c r="R49" s="49"/>
     </row>
-    <row r="50" spans="1:18" s="50" customFormat="1" ht="92.4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:18" s="50" customFormat="1" ht="94.5" x14ac:dyDescent="0.3">
       <c r="A50" s="53" t="s">
         <v>212</v>
       </c>
@@ -8570,7 +8806,7 @@
       <c r="Q50" s="49"/>
       <c r="R50" s="49"/>
     </row>
-    <row r="51" spans="1:18" s="50" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:18" s="50" customFormat="1" ht="54" x14ac:dyDescent="0.3">
       <c r="A51" s="53" t="s">
         <v>214</v>
       </c>
@@ -8596,7 +8832,7 @@
       <c r="Q51" s="49"/>
       <c r="R51" s="49"/>
     </row>
-    <row r="52" spans="1:18" s="50" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:18" s="50" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A52" s="53" t="s">
         <v>216</v>
       </c>
@@ -8622,7 +8858,7 @@
       <c r="Q52" s="49"/>
       <c r="R52" s="49"/>
     </row>
-    <row r="53" spans="1:18" s="50" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:18" s="50" customFormat="1" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A53" s="53" t="s">
         <v>218</v>
       </c>
@@ -8648,7 +8884,7 @@
       <c r="Q53" s="49"/>
       <c r="R53" s="49"/>
     </row>
-    <row r="54" spans="1:18" s="50" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:18" s="50" customFormat="1" ht="54" x14ac:dyDescent="0.3">
       <c r="A54" s="53" t="s">
         <v>220</v>
       </c>
@@ -8674,7 +8910,7 @@
       <c r="Q54" s="49"/>
       <c r="R54" s="49"/>
     </row>
-    <row r="55" spans="1:18" s="50" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:18" s="50" customFormat="1" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A55" s="53" t="s">
         <v>222</v>
       </c>
@@ -8700,7 +8936,7 @@
       <c r="Q55" s="49"/>
       <c r="R55" s="49"/>
     </row>
-    <row r="56" spans="1:18" s="50" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:18" s="50" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A56" s="53" t="s">
         <v>224</v>
       </c>
@@ -8726,7 +8962,7 @@
       <c r="Q56" s="49"/>
       <c r="R56" s="49"/>
     </row>
-    <row r="57" spans="1:18" s="50" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:18" s="50" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A57" s="53" t="s">
         <v>224</v>
       </c>
@@ -8752,7 +8988,7 @@
       <c r="Q57" s="49"/>
       <c r="R57" s="49"/>
     </row>
-    <row r="58" spans="1:18" s="50" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:18" s="50" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A58" s="53" t="s">
         <v>224</v>
       </c>
@@ -8778,7 +9014,7 @@
       <c r="Q58" s="49"/>
       <c r="R58" s="49"/>
     </row>
-    <row r="59" spans="1:18" s="50" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:18" s="50" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A59" s="53" t="s">
         <v>228</v>
       </c>
@@ -8804,7 +9040,7 @@
       <c r="Q59" s="49"/>
       <c r="R59" s="49"/>
     </row>
-    <row r="60" spans="1:18" s="50" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:18" s="50" customFormat="1" ht="81" x14ac:dyDescent="0.3">
       <c r="A60" s="53" t="s">
         <v>230</v>
       </c>
@@ -8830,7 +9066,7 @@
       <c r="Q60" s="49"/>
       <c r="R60" s="49"/>
     </row>
-    <row r="61" spans="1:18" s="50" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:18" s="50" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A61" s="53" t="s">
         <v>228</v>
       </c>
@@ -8856,7 +9092,7 @@
       <c r="Q61" s="49"/>
       <c r="R61" s="49"/>
     </row>
-    <row r="62" spans="1:18" s="50" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:18" s="50" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A62" s="53" t="s">
         <v>233</v>
       </c>
@@ -8882,7 +9118,7 @@
       <c r="Q62" s="49"/>
       <c r="R62" s="49"/>
     </row>
-    <row r="63" spans="1:18" s="50" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:18" s="50" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A63" s="53" t="s">
         <v>235</v>
       </c>
@@ -8908,7 +9144,7 @@
       <c r="Q63" s="49"/>
       <c r="R63" s="49"/>
     </row>
-    <row r="64" spans="1:18" s="50" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:18" s="50" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A64" s="53" t="s">
         <v>237</v>
       </c>
@@ -8934,7 +9170,7 @@
       <c r="Q64" s="49"/>
       <c r="R64" s="49"/>
     </row>
-    <row r="65" spans="1:18" s="50" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:18" s="50" customFormat="1" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="55" t="s">
         <v>239</v>
       </c>
@@ -8960,7 +9196,7 @@
       <c r="Q65" s="49"/>
       <c r="R65" s="49"/>
     </row>
-    <row r="66" spans="1:18" s="50" customFormat="1" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:18" s="50" customFormat="1" ht="41.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="53" t="s">
         <v>241</v>
       </c>
@@ -8984,7 +9220,7 @@
       <c r="Q66" s="49"/>
       <c r="R66" s="49"/>
     </row>
-    <row r="67" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="14" t="s">
         <v>22</v>
       </c>
@@ -9009,7 +9245,7 @@
       <c r="Q67" s="4"/>
       <c r="R67" s="4"/>
     </row>
-    <row r="68" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A68" s="16"/>
       <c r="B68" s="16"/>
       <c r="C68" s="16"/>
@@ -9029,7 +9265,7 @@
       <c r="Q68" s="4"/>
       <c r="R68" s="4"/>
     </row>
-    <row r="69" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:18" ht="18" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>0</v>
       </c>
@@ -9079,7 +9315,7 @@
       <c r="Q70" s="4"/>
       <c r="R70" s="4"/>
     </row>
-    <row r="71" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A71" s="19"/>
       <c r="B71" s="19"/>
       <c r="C71" s="20"/>
@@ -9099,7 +9335,7 @@
       <c r="Q71" s="4"/>
       <c r="R71" s="4"/>
     </row>
-    <row r="72" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A72" s="7"/>
       <c r="B72" s="7"/>
       <c r="C72" s="9"/>
@@ -9119,7 +9355,7 @@
       <c r="Q72" s="4"/>
       <c r="R72" s="4"/>
     </row>
-    <row r="73" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="7"/>
       <c r="B73" s="7"/>
       <c r="C73" s="9"/>
@@ -9139,7 +9375,7 @@
       <c r="Q73" s="4"/>
       <c r="R73" s="4"/>
     </row>
-    <row r="74" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="7"/>
       <c r="B74" s="7"/>
       <c r="C74" s="9"/>
@@ -9159,7 +9395,7 @@
       <c r="Q74" s="4"/>
       <c r="R74" s="4"/>
     </row>
-    <row r="75" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="7"/>
       <c r="B75" s="7"/>
       <c r="C75" s="9"/>
@@ -9179,7 +9415,7 @@
       <c r="Q75" s="4"/>
       <c r="R75" s="4"/>
     </row>
-    <row r="76" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="7"/>
       <c r="B76" s="7"/>
       <c r="C76" s="9"/>
@@ -9199,7 +9435,7 @@
       <c r="Q76" s="4"/>
       <c r="R76" s="4"/>
     </row>
-    <row r="77" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="25"/>
       <c r="B77" s="25"/>
       <c r="C77" s="26"/>
@@ -9219,7 +9455,7 @@
       <c r="Q77" s="4"/>
       <c r="R77" s="4"/>
     </row>
-    <row r="78" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="25"/>
       <c r="B78" s="25"/>
       <c r="C78" s="26"/>
@@ -9239,7 +9475,7 @@
       <c r="Q78" s="4"/>
       <c r="R78" s="4"/>
     </row>
-    <row r="79" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="25"/>
       <c r="B79" s="25"/>
       <c r="C79" s="26"/>
@@ -9259,7 +9495,7 @@
       <c r="Q79" s="4"/>
       <c r="R79" s="4"/>
     </row>
-    <row r="80" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="25"/>
       <c r="B80" s="25"/>
       <c r="C80" s="26"/>
@@ -9279,7 +9515,7 @@
       <c r="Q80" s="4"/>
       <c r="R80" s="4"/>
     </row>
-    <row r="81" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="23"/>
       <c r="B81" s="23"/>
       <c r="C81" s="24"/>
@@ -9299,7 +9535,7 @@
       <c r="Q81" s="4"/>
       <c r="R81" s="4"/>
     </row>
-    <row r="82" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="14" t="s">
         <v>22</v>
       </c>
@@ -9324,7 +9560,7 @@
       <c r="Q82" s="4"/>
       <c r="R82" s="4"/>
     </row>
-    <row r="83" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="16"/>
       <c r="B83" s="16"/>
       <c r="C83" s="16"/>
@@ -9344,7 +9580,7 @@
       <c r="Q83" s="4"/>
       <c r="R83" s="4"/>
     </row>
-    <row r="84" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
         <v>0</v>
       </c>
@@ -9368,7 +9604,7 @@
       <c r="Q84" s="4"/>
       <c r="R84" s="4"/>
     </row>
-    <row r="85" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="5" t="s">
         <v>2</v>
       </c>
@@ -9394,7 +9630,7 @@
       <c r="Q85" s="4"/>
       <c r="R85" s="4"/>
     </row>
-    <row r="86" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="19"/>
       <c r="B86" s="19"/>
       <c r="C86" s="20"/>
@@ -9414,7 +9650,7 @@
       <c r="Q86" s="4"/>
       <c r="R86" s="4"/>
     </row>
-    <row r="87" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="7"/>
       <c r="B87" s="7"/>
       <c r="C87" s="9"/>
@@ -9434,7 +9670,7 @@
       <c r="Q87" s="4"/>
       <c r="R87" s="4"/>
     </row>
-    <row r="88" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A88" s="7"/>
       <c r="B88" s="7"/>
       <c r="C88" s="9"/>
@@ -9454,7 +9690,7 @@
       <c r="Q88" s="4"/>
       <c r="R88" s="4"/>
     </row>
-    <row r="89" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A89" s="7"/>
       <c r="B89" s="7"/>
       <c r="C89" s="9"/>
@@ -9474,7 +9710,7 @@
       <c r="Q89" s="4"/>
       <c r="R89" s="4"/>
     </row>
-    <row r="90" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A90" s="7"/>
       <c r="B90" s="7"/>
       <c r="C90" s="9"/>
@@ -9494,7 +9730,7 @@
       <c r="Q90" s="4"/>
       <c r="R90" s="4"/>
     </row>
-    <row r="91" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A91" s="23"/>
       <c r="B91" s="23"/>
       <c r="C91" s="24"/>
@@ -9514,7 +9750,7 @@
       <c r="Q91" s="4"/>
       <c r="R91" s="4"/>
     </row>
-    <row r="92" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:18" ht="27" x14ac:dyDescent="0.3">
       <c r="A92" s="14" t="s">
         <v>22</v>
       </c>
@@ -9539,7 +9775,7 @@
       <c r="Q92" s="4"/>
       <c r="R92" s="4"/>
     </row>
-    <row r="93" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A93" s="16"/>
       <c r="B93" s="16"/>
       <c r="C93" s="16"/>
@@ -9559,7 +9795,7 @@
       <c r="Q93" s="4"/>
       <c r="R93" s="4"/>
     </row>
-    <row r="94" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:18" ht="18" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>0</v>
       </c>
@@ -9609,7 +9845,7 @@
       <c r="Q95" s="4"/>
       <c r="R95" s="4"/>
     </row>
-    <row r="96" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A96" s="19"/>
       <c r="B96" s="19"/>
       <c r="C96" s="20"/>
@@ -9629,7 +9865,7 @@
       <c r="Q96" s="4"/>
       <c r="R96" s="4"/>
     </row>
-    <row r="97" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A97" s="7"/>
       <c r="B97" s="7"/>
       <c r="C97" s="9"/>
@@ -9649,7 +9885,7 @@
       <c r="Q97" s="4"/>
       <c r="R97" s="4"/>
     </row>
-    <row r="98" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A98" s="7"/>
       <c r="B98" s="7"/>
       <c r="C98" s="9"/>
@@ -9669,7 +9905,7 @@
       <c r="Q98" s="4"/>
       <c r="R98" s="4"/>
     </row>
-    <row r="99" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A99" s="7"/>
       <c r="B99" s="7"/>
       <c r="C99" s="9"/>
@@ -9689,7 +9925,7 @@
       <c r="Q99" s="4"/>
       <c r="R99" s="4"/>
     </row>
-    <row r="100" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A100" s="7"/>
       <c r="B100" s="7"/>
       <c r="C100" s="9"/>
@@ -9709,7 +9945,7 @@
       <c r="Q100" s="4"/>
       <c r="R100" s="4"/>
     </row>
-    <row r="101" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A101" s="7"/>
       <c r="B101" s="7"/>
       <c r="C101" s="9"/>
@@ -9729,7 +9965,7 @@
       <c r="Q101" s="4"/>
       <c r="R101" s="4"/>
     </row>
-    <row r="102" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A102" s="7"/>
       <c r="B102" s="7"/>
       <c r="C102" s="9"/>
@@ -9749,7 +9985,7 @@
       <c r="Q102" s="4"/>
       <c r="R102" s="4"/>
     </row>
-    <row r="103" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A103" s="23"/>
       <c r="B103" s="23"/>
       <c r="C103" s="24"/>
@@ -9769,7 +10005,7 @@
       <c r="Q103" s="4"/>
       <c r="R103" s="4"/>
     </row>
-    <row r="104" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:18" ht="27" x14ac:dyDescent="0.3">
       <c r="A104" s="14" t="s">
         <v>22</v>
       </c>
@@ -9794,7 +10030,7 @@
       <c r="Q104" s="4"/>
       <c r="R104" s="4"/>
     </row>
-    <row r="105" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A105" s="16"/>
       <c r="B105" s="16"/>
       <c r="C105" s="16"/>
@@ -9814,7 +10050,7 @@
       <c r="Q105" s="4"/>
       <c r="R105" s="4"/>
     </row>
-    <row r="106" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A106" s="27"/>
       <c r="B106" s="27"/>
       <c r="C106" s="27"/>
@@ -9834,7 +10070,7 @@
       <c r="Q106" s="4"/>
       <c r="R106" s="4"/>
     </row>
-    <row r="107" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A107" s="27"/>
       <c r="B107" s="27"/>
       <c r="C107" s="27"/>
@@ -9854,7 +10090,7 @@
       <c r="Q107" s="4"/>
       <c r="R107" s="4"/>
     </row>
-    <row r="108" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A108" s="27"/>
       <c r="B108" s="27"/>
       <c r="C108" s="27"/>
@@ -9874,7 +10110,7 @@
       <c r="Q108" s="4"/>
       <c r="R108" s="4"/>
     </row>
-    <row r="109" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A109" s="27"/>
       <c r="B109" s="27"/>
       <c r="C109" s="27"/>
@@ -9894,7 +10130,7 @@
       <c r="Q109" s="4"/>
       <c r="R109" s="4"/>
     </row>
-    <row r="110" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A110" s="27"/>
       <c r="B110" s="27"/>
       <c r="C110" s="27"/>
@@ -9914,7 +10150,7 @@
       <c r="Q110" s="4"/>
       <c r="R110" s="4"/>
     </row>
-    <row r="111" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A111" s="27"/>
       <c r="B111" s="27"/>
       <c r="C111" s="27"/>
@@ -9934,7 +10170,7 @@
       <c r="Q111" s="4"/>
       <c r="R111" s="4"/>
     </row>
-    <row r="112" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A112" s="27"/>
       <c r="B112" s="27"/>
       <c r="C112" s="27"/>
@@ -9954,7 +10190,7 @@
       <c r="Q112" s="4"/>
       <c r="R112" s="4"/>
     </row>
-    <row r="113" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A113" s="27"/>
       <c r="B113" s="27"/>
       <c r="C113" s="27"/>
@@ -9974,7 +10210,7 @@
       <c r="Q113" s="4"/>
       <c r="R113" s="4"/>
     </row>
-    <row r="114" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A114" s="27"/>
       <c r="B114" s="27"/>
       <c r="C114" s="27"/>
@@ -9994,7 +10230,7 @@
       <c r="Q114" s="4"/>
       <c r="R114" s="4"/>
     </row>
-    <row r="115" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A115" s="27"/>
       <c r="B115" s="27"/>
       <c r="C115" s="27"/>
@@ -10014,7 +10250,7 @@
       <c r="Q115" s="4"/>
       <c r="R115" s="4"/>
     </row>
-    <row r="116" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A116" s="27"/>
       <c r="B116" s="27"/>
       <c r="C116" s="27"/>
@@ -10034,7 +10270,7 @@
       <c r="Q116" s="4"/>
       <c r="R116" s="4"/>
     </row>
-    <row r="117" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A117" s="28"/>
       <c r="B117" s="28"/>
       <c r="C117" s="28"/>
@@ -10072,18 +10308,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F222774-5003-490D-9078-78D1F6F89A4A}">
   <dimension ref="A1:R100"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="78.44140625" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="78.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10109,7 +10345,7 @@
       <c r="Q1" s="4"/>
       <c r="R1" s="4"/>
     </row>
-    <row r="2" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -10137,7 +10373,7 @@
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
     </row>
-    <row r="3" spans="1:18" ht="92.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="94.5" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
@@ -10165,7 +10401,7 @@
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
     </row>
-    <row r="4" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="54" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
@@ -10193,7 +10429,7 @@
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
     </row>
-    <row r="5" spans="1:18" ht="66" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
@@ -10221,7 +10457,7 @@
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
     </row>
-    <row r="6" spans="1:18" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="81" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
         <v>12</v>
       </c>
@@ -10249,7 +10485,7 @@
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
     </row>
-    <row r="7" spans="1:18" ht="66" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>14</v>
       </c>
@@ -10277,7 +10513,7 @@
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
     </row>
-    <row r="8" spans="1:18" ht="118.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="108" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
         <v>16</v>
       </c>
@@ -10305,7 +10541,7 @@
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
     </row>
-    <row r="9" spans="1:18" ht="105.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" ht="94.5" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
         <v>18</v>
       </c>
@@ -10333,7 +10569,7 @@
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
     </row>
-    <row r="10" spans="1:18" ht="66" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
@@ -10361,7 +10597,7 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
     </row>
-    <row r="11" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" ht="27" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>28</v>
       </c>
@@ -10387,7 +10623,7 @@
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
     </row>
-    <row r="12" spans="1:18" ht="92.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" ht="94.5" x14ac:dyDescent="0.3">
       <c r="A12" s="33" t="s">
         <v>29</v>
       </c>
@@ -10413,7 +10649,7 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
     </row>
-    <row r="13" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="33" t="s">
         <v>32</v>
       </c>
@@ -10439,7 +10675,7 @@
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
     </row>
-    <row r="14" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="14" t="s">
         <v>22</v>
       </c>
@@ -10464,7 +10700,7 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
     </row>
-    <row r="15" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="16"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
@@ -10484,7 +10720,7 @@
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
     </row>
-    <row r="16" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -10508,7 +10744,7 @@
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
     </row>
-    <row r="17" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>2</v>
       </c>
@@ -10534,7 +10770,7 @@
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
     </row>
-    <row r="18" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" ht="54" x14ac:dyDescent="0.3">
       <c r="A18" s="29" t="s">
         <v>36</v>
       </c>
@@ -10562,7 +10798,7 @@
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
     </row>
-    <row r="19" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" ht="27" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>40</v>
       </c>
@@ -10590,7 +10826,7 @@
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
     </row>
-    <row r="20" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>54</v>
       </c>
@@ -10618,7 +10854,7 @@
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
     </row>
-    <row r="21" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" ht="27" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>56</v>
       </c>
@@ -10646,7 +10882,7 @@
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
     </row>
-    <row r="22" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" ht="27" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>58</v>
       </c>
@@ -10674,7 +10910,7 @@
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
     </row>
-    <row r="23" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>54</v>
       </c>
@@ -10702,7 +10938,7 @@
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
     </row>
-    <row r="24" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" ht="27" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>60</v>
       </c>
@@ -10730,7 +10966,7 @@
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
     </row>
-    <row r="25" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>86</v>
       </c>
@@ -10758,7 +10994,7 @@
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
     </row>
-    <row r="26" spans="1:18" ht="66" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>76</v>
       </c>
@@ -10786,7 +11022,7 @@
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
     </row>
-    <row r="27" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" ht="27" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>76</v>
       </c>
@@ -10814,7 +11050,7 @@
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
     </row>
-    <row r="28" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>76</v>
       </c>
@@ -10842,7 +11078,7 @@
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
     </row>
-    <row r="29" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" ht="27" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>76</v>
       </c>
@@ -10870,7 +11106,7 @@
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
     </row>
-    <row r="30" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" ht="27" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>76</v>
       </c>
@@ -10898,7 +11134,7 @@
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
     </row>
-    <row r="31" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="9"/>
@@ -10918,7 +11154,7 @@
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
     </row>
-    <row r="32" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="9"/>
@@ -10938,7 +11174,7 @@
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
     </row>
-    <row r="33" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="9"/>
@@ -10958,7 +11194,7 @@
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
     </row>
-    <row r="34" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="14" t="s">
         <v>22</v>
       </c>
@@ -10983,7 +11219,7 @@
       <c r="Q34" s="4"/>
       <c r="R34" s="4"/>
     </row>
-    <row r="35" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="16"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -11003,7 +11239,7 @@
       <c r="Q35" s="4"/>
       <c r="R35" s="4"/>
     </row>
-    <row r="36" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>0</v>
       </c>
@@ -11027,7 +11263,7 @@
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
     </row>
-    <row r="37" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
         <v>2</v>
       </c>
@@ -11053,7 +11289,7 @@
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
     </row>
-    <row r="38" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18" ht="54" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
         <v>40</v>
       </c>
@@ -11081,7 +11317,7 @@
       <c r="Q38" s="4"/>
       <c r="R38" s="4"/>
     </row>
-    <row r="39" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" ht="27" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>160</v>
       </c>
@@ -11109,7 +11345,7 @@
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
     </row>
-    <row r="40" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
         <v>160</v>
       </c>
@@ -11137,7 +11373,7 @@
       <c r="Q40" s="4"/>
       <c r="R40" s="4"/>
     </row>
-    <row r="41" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
         <v>160</v>
       </c>
@@ -11165,7 +11401,7 @@
       <c r="Q41" s="4"/>
       <c r="R41" s="4"/>
     </row>
-    <row r="42" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
         <v>160</v>
       </c>
@@ -11193,7 +11429,7 @@
       <c r="Q42" s="4"/>
       <c r="R42" s="4"/>
     </row>
-    <row r="43" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18" ht="27" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
         <v>160</v>
       </c>
@@ -11221,7 +11457,7 @@
       <c r="Q43" s="4"/>
       <c r="R43" s="4"/>
     </row>
-    <row r="44" spans="1:18" ht="66" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
         <v>160</v>
       </c>
@@ -11249,7 +11485,7 @@
       <c r="Q44" s="4"/>
       <c r="R44" s="4"/>
     </row>
-    <row r="45" spans="1:18" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:18" ht="41.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="23" t="s">
         <v>160</v>
       </c>
@@ -11277,7 +11513,7 @@
       <c r="Q45" s="4"/>
       <c r="R45" s="4"/>
     </row>
-    <row r="46" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="42" t="s">
         <v>160</v>
       </c>
@@ -11305,7 +11541,7 @@
       <c r="Q46" s="4"/>
       <c r="R46" s="4"/>
     </row>
-    <row r="47" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="42" t="s">
         <v>160</v>
       </c>
@@ -11333,7 +11569,7 @@
       <c r="Q47" s="4"/>
       <c r="R47" s="4"/>
     </row>
-    <row r="48" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="42" t="s">
         <v>160</v>
       </c>
@@ -11361,7 +11597,7 @@
       <c r="Q48" s="4"/>
       <c r="R48" s="4"/>
     </row>
-    <row r="49" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="42"/>
       <c r="B49" s="42"/>
       <c r="C49" s="44"/>
@@ -11381,7 +11617,7 @@
       <c r="Q49" s="4"/>
       <c r="R49" s="4"/>
     </row>
-    <row r="50" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="14" t="s">
         <v>22</v>
       </c>
@@ -11406,7 +11642,7 @@
       <c r="Q50" s="4"/>
       <c r="R50" s="4"/>
     </row>
-    <row r="51" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="16"/>
       <c r="B51" s="16"/>
       <c r="C51" s="16"/>
@@ -11426,7 +11662,7 @@
       <c r="Q51" s="4"/>
       <c r="R51" s="4"/>
     </row>
-    <row r="52" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>0</v>
       </c>
@@ -11450,7 +11686,7 @@
       <c r="Q52" s="4"/>
       <c r="R52" s="4"/>
     </row>
-    <row r="53" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="s">
         <v>2</v>
       </c>
@@ -11476,11 +11712,19 @@
       <c r="Q53" s="4"/>
       <c r="R53" s="4"/>
     </row>
-    <row r="54" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A54" s="19"/>
-      <c r="B54" s="19"/>
-      <c r="C54" s="20"/>
-      <c r="D54" s="20"/>
+    <row r="54" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+      <c r="A54" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="B54" s="19">
+        <v>4</v>
+      </c>
+      <c r="C54" s="20" t="s">
+        <v>290</v>
+      </c>
+      <c r="D54" s="20" t="s">
+        <v>291</v>
+      </c>
       <c r="E54" s="10"/>
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
@@ -11496,11 +11740,19 @@
       <c r="Q54" s="4"/>
       <c r="R54" s="4"/>
     </row>
-    <row r="55" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A55" s="7"/>
-      <c r="B55" s="7"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
+    <row r="55" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A55" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B55" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>293</v>
+      </c>
       <c r="E55" s="10"/>
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
@@ -11516,11 +11768,19 @@
       <c r="Q55" s="4"/>
       <c r="R55" s="4"/>
     </row>
-    <row r="56" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A56" s="7"/>
-      <c r="B56" s="7"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
+    <row r="56" spans="1:18" ht="54" x14ac:dyDescent="0.3">
+      <c r="A56" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B56" s="7">
+        <v>3</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>295</v>
+      </c>
       <c r="E56" s="10"/>
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
@@ -11536,11 +11796,19 @@
       <c r="Q56" s="4"/>
       <c r="R56" s="4"/>
     </row>
-    <row r="57" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A57" s="7"/>
-      <c r="B57" s="7"/>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
+    <row r="57" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A57" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="B57" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>297</v>
+      </c>
       <c r="E57" s="10"/>
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
@@ -11556,11 +11824,19 @@
       <c r="Q57" s="4"/>
       <c r="R57" s="4"/>
     </row>
-    <row r="58" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A58" s="7"/>
-      <c r="B58" s="7"/>
-      <c r="C58" s="9"/>
-      <c r="D58" s="9"/>
+    <row r="58" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A58" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="B58" s="7">
+        <v>4</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>299</v>
+      </c>
       <c r="E58" s="10"/>
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
@@ -11576,11 +11852,19 @@
       <c r="Q58" s="4"/>
       <c r="R58" s="4"/>
     </row>
-    <row r="59" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A59" s="7"/>
-      <c r="B59" s="7"/>
-      <c r="C59" s="9"/>
-      <c r="D59" s="9"/>
+    <row r="59" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A59" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="B59" s="7">
+        <v>8</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>301</v>
+      </c>
       <c r="E59" s="10"/>
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
@@ -11596,11 +11880,19 @@
       <c r="Q59" s="4"/>
       <c r="R59" s="4"/>
     </row>
-    <row r="60" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A60" s="25"/>
-      <c r="B60" s="25"/>
-      <c r="C60" s="26"/>
-      <c r="D60" s="26"/>
+    <row r="60" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+      <c r="A60" s="25" t="s">
+        <v>302</v>
+      </c>
+      <c r="B60" s="25">
+        <v>5</v>
+      </c>
+      <c r="C60" s="26" t="s">
+        <v>303</v>
+      </c>
+      <c r="D60" s="26" t="s">
+        <v>304</v>
+      </c>
       <c r="E60" s="10"/>
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
@@ -11616,11 +11908,19 @@
       <c r="Q60" s="4"/>
       <c r="R60" s="4"/>
     </row>
-    <row r="61" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A61" s="25"/>
-      <c r="B61" s="25"/>
-      <c r="C61" s="26"/>
-      <c r="D61" s="26"/>
+    <row r="61" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+      <c r="A61" s="25" t="s">
+        <v>296</v>
+      </c>
+      <c r="B61" s="25">
+        <v>3</v>
+      </c>
+      <c r="C61" s="26" t="s">
+        <v>305</v>
+      </c>
+      <c r="D61" s="26" t="s">
+        <v>306</v>
+      </c>
       <c r="E61" s="10"/>
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
@@ -11636,11 +11936,19 @@
       <c r="Q61" s="4"/>
       <c r="R61" s="4"/>
     </row>
-    <row r="62" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A62" s="25"/>
-      <c r="B62" s="25"/>
-      <c r="C62" s="26"/>
-      <c r="D62" s="26"/>
+    <row r="62" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A62" s="25" t="s">
+        <v>296</v>
+      </c>
+      <c r="B62" s="25">
+        <v>3</v>
+      </c>
+      <c r="C62" s="26" t="s">
+        <v>307</v>
+      </c>
+      <c r="D62" s="26" t="s">
+        <v>308</v>
+      </c>
       <c r="E62" s="10"/>
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
@@ -11656,11 +11964,19 @@
       <c r="Q62" s="4"/>
       <c r="R62" s="4"/>
     </row>
-    <row r="63" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A63" s="25"/>
-      <c r="B63" s="25"/>
-      <c r="C63" s="26"/>
-      <c r="D63" s="26"/>
+    <row r="63" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
+      <c r="A63" s="25" t="s">
+        <v>309</v>
+      </c>
+      <c r="B63" s="25">
+        <v>3</v>
+      </c>
+      <c r="C63" s="26" t="s">
+        <v>310</v>
+      </c>
+      <c r="D63" s="26" t="s">
+        <v>311</v>
+      </c>
       <c r="E63" s="10"/>
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
@@ -11676,11 +11992,19 @@
       <c r="Q63" s="4"/>
       <c r="R63" s="4"/>
     </row>
-    <row r="64" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="23"/>
-      <c r="B64" s="23"/>
-      <c r="C64" s="24"/>
-      <c r="D64" s="24"/>
+    <row r="64" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="23" t="s">
+        <v>309</v>
+      </c>
+      <c r="B64" s="23">
+        <v>4</v>
+      </c>
+      <c r="C64" s="24" t="s">
+        <v>312</v>
+      </c>
+      <c r="D64" s="24" t="s">
+        <v>313</v>
+      </c>
       <c r="E64" s="10"/>
       <c r="F64" s="4"/>
       <c r="G64" s="4"/>
@@ -11696,13 +12020,13 @@
       <c r="Q64" s="4"/>
       <c r="R64" s="4"/>
     </row>
-    <row r="65" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="14" t="s">
         <v>22</v>
       </c>
       <c r="B65" s="14">
         <f>SUM(B54:B64)</f>
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="C65" s="15"/>
       <c r="D65" s="15"/>
@@ -11721,7 +12045,7 @@
       <c r="Q65" s="4"/>
       <c r="R65" s="4"/>
     </row>
-    <row r="66" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="16"/>
       <c r="B66" s="16"/>
       <c r="C66" s="16"/>
@@ -11741,7 +12065,7 @@
       <c r="Q66" s="4"/>
       <c r="R66" s="4"/>
     </row>
-    <row r="67" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>0</v>
       </c>
@@ -11765,7 +12089,7 @@
       <c r="Q67" s="4"/>
       <c r="R67" s="4"/>
     </row>
-    <row r="68" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="5" t="s">
         <v>2</v>
       </c>
@@ -11791,7 +12115,7 @@
       <c r="Q68" s="4"/>
       <c r="R68" s="4"/>
     </row>
-    <row r="69" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A69" s="19"/>
       <c r="B69" s="19"/>
       <c r="C69" s="20"/>
@@ -11811,7 +12135,7 @@
       <c r="Q69" s="4"/>
       <c r="R69" s="4"/>
     </row>
-    <row r="70" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A70" s="7"/>
       <c r="B70" s="7"/>
       <c r="C70" s="9"/>
@@ -11831,7 +12155,7 @@
       <c r="Q70" s="4"/>
       <c r="R70" s="4"/>
     </row>
-    <row r="71" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A71" s="7"/>
       <c r="B71" s="7"/>
       <c r="C71" s="9"/>
@@ -11851,7 +12175,7 @@
       <c r="Q71" s="4"/>
       <c r="R71" s="4"/>
     </row>
-    <row r="72" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A72" s="7"/>
       <c r="B72" s="7"/>
       <c r="C72" s="9"/>
@@ -11871,7 +12195,7 @@
       <c r="Q72" s="4"/>
       <c r="R72" s="4"/>
     </row>
-    <row r="73" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A73" s="7"/>
       <c r="B73" s="7"/>
       <c r="C73" s="9"/>
@@ -11891,7 +12215,7 @@
       <c r="Q73" s="4"/>
       <c r="R73" s="4"/>
     </row>
-    <row r="74" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="23"/>
       <c r="B74" s="23"/>
       <c r="C74" s="24"/>
@@ -11911,7 +12235,7 @@
       <c r="Q74" s="4"/>
       <c r="R74" s="4"/>
     </row>
-    <row r="75" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="14" t="s">
         <v>22</v>
       </c>
@@ -11936,7 +12260,7 @@
       <c r="Q75" s="4"/>
       <c r="R75" s="4"/>
     </row>
-    <row r="76" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="16"/>
       <c r="B76" s="16"/>
       <c r="C76" s="16"/>
@@ -11956,7 +12280,7 @@
       <c r="Q76" s="4"/>
       <c r="R76" s="4"/>
     </row>
-    <row r="77" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
         <v>0</v>
       </c>
@@ -11980,7 +12304,7 @@
       <c r="Q77" s="4"/>
       <c r="R77" s="4"/>
     </row>
-    <row r="78" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="5" t="s">
         <v>2</v>
       </c>
@@ -12006,7 +12330,7 @@
       <c r="Q78" s="4"/>
       <c r="R78" s="4"/>
     </row>
-    <row r="79" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A79" s="19"/>
       <c r="B79" s="19"/>
       <c r="C79" s="20"/>
@@ -12026,7 +12350,7 @@
       <c r="Q79" s="4"/>
       <c r="R79" s="4"/>
     </row>
-    <row r="80" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A80" s="7"/>
       <c r="B80" s="7"/>
       <c r="C80" s="9"/>
@@ -12046,7 +12370,7 @@
       <c r="Q80" s="4"/>
       <c r="R80" s="4"/>
     </row>
-    <row r="81" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A81" s="7"/>
       <c r="B81" s="7"/>
       <c r="C81" s="9"/>
@@ -12066,7 +12390,7 @@
       <c r="Q81" s="4"/>
       <c r="R81" s="4"/>
     </row>
-    <row r="82" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A82" s="7"/>
       <c r="B82" s="7"/>
       <c r="C82" s="9"/>
@@ -12086,7 +12410,7 @@
       <c r="Q82" s="4"/>
       <c r="R82" s="4"/>
     </row>
-    <row r="83" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A83" s="7"/>
       <c r="B83" s="7"/>
       <c r="C83" s="9"/>
@@ -12106,7 +12430,7 @@
       <c r="Q83" s="4"/>
       <c r="R83" s="4"/>
     </row>
-    <row r="84" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A84" s="7"/>
       <c r="B84" s="7"/>
       <c r="C84" s="9"/>
@@ -12126,7 +12450,7 @@
       <c r="Q84" s="4"/>
       <c r="R84" s="4"/>
     </row>
-    <row r="85" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A85" s="7"/>
       <c r="B85" s="7"/>
       <c r="C85" s="9"/>
@@ -12146,7 +12470,7 @@
       <c r="Q85" s="4"/>
       <c r="R85" s="4"/>
     </row>
-    <row r="86" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="23"/>
       <c r="B86" s="23"/>
       <c r="C86" s="24"/>
@@ -12166,7 +12490,7 @@
       <c r="Q86" s="4"/>
       <c r="R86" s="4"/>
     </row>
-    <row r="87" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="14" t="s">
         <v>22</v>
       </c>
@@ -12191,7 +12515,7 @@
       <c r="Q87" s="4"/>
       <c r="R87" s="4"/>
     </row>
-    <row r="88" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A88" s="16"/>
       <c r="B88" s="16"/>
       <c r="C88" s="16"/>
@@ -12211,7 +12535,7 @@
       <c r="Q88" s="4"/>
       <c r="R88" s="4"/>
     </row>
-    <row r="89" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A89" s="27"/>
       <c r="B89" s="27"/>
       <c r="C89" s="27"/>
@@ -12231,7 +12555,7 @@
       <c r="Q89" s="4"/>
       <c r="R89" s="4"/>
     </row>
-    <row r="90" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A90" s="27"/>
       <c r="B90" s="27"/>
       <c r="C90" s="27"/>
@@ -12251,7 +12575,7 @@
       <c r="Q90" s="4"/>
       <c r="R90" s="4"/>
     </row>
-    <row r="91" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A91" s="27"/>
       <c r="B91" s="27"/>
       <c r="C91" s="27"/>
@@ -12271,7 +12595,7 @@
       <c r="Q91" s="4"/>
       <c r="R91" s="4"/>
     </row>
-    <row r="92" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A92" s="27"/>
       <c r="B92" s="27"/>
       <c r="C92" s="27"/>
@@ -12291,7 +12615,7 @@
       <c r="Q92" s="4"/>
       <c r="R92" s="4"/>
     </row>
-    <row r="93" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A93" s="27"/>
       <c r="B93" s="27"/>
       <c r="C93" s="27"/>
@@ -12311,7 +12635,7 @@
       <c r="Q93" s="4"/>
       <c r="R93" s="4"/>
     </row>
-    <row r="94" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A94" s="27"/>
       <c r="B94" s="27"/>
       <c r="C94" s="27"/>
@@ -12331,7 +12655,7 @@
       <c r="Q94" s="4"/>
       <c r="R94" s="4"/>
     </row>
-    <row r="95" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A95" s="27"/>
       <c r="B95" s="27"/>
       <c r="C95" s="27"/>
@@ -12351,7 +12675,7 @@
       <c r="Q95" s="4"/>
       <c r="R95" s="4"/>
     </row>
-    <row r="96" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A96" s="27"/>
       <c r="B96" s="27"/>
       <c r="C96" s="27"/>
@@ -12371,7 +12695,7 @@
       <c r="Q96" s="4"/>
       <c r="R96" s="4"/>
     </row>
-    <row r="97" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A97" s="27"/>
       <c r="B97" s="27"/>
       <c r="C97" s="27"/>
@@ -12391,7 +12715,7 @@
       <c r="Q97" s="4"/>
       <c r="R97" s="4"/>
     </row>
-    <row r="98" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A98" s="27"/>
       <c r="B98" s="27"/>
       <c r="C98" s="27"/>
@@ -12411,7 +12735,7 @@
       <c r="Q98" s="4"/>
       <c r="R98" s="4"/>
     </row>
-    <row r="99" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A99" s="27"/>
       <c r="B99" s="27"/>
       <c r="C99" s="27"/>
@@ -12431,7 +12755,7 @@
       <c r="Q99" s="4"/>
       <c r="R99" s="4"/>
     </row>
-    <row r="100" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A100" s="28"/>
       <c r="B100" s="28"/>
       <c r="C100" s="28"/>
@@ -12453,7 +12777,7 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" prompt="Durée en 1/3 de période - Le nombre doit être de type entier" sqref="B79:B86 B10:B13 B38:B39 B18:B33 B54:B64 B69:B74 B3:B8 B41:B49" xr:uid="{64471589-AB55-4AF0-A3CB-2C4DA302E1FD}">
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" prompt="Durée en 1/3 de période - Le nombre doit être de type entier" sqref="B79:B86 B10:B13 B38:B39 B18:B33 B41:B49 B69:B74 B3:B8 B54:B64" xr:uid="{64471589-AB55-4AF0-A3CB-2C4DA302E1FD}">
       <formula1>0</formula1>
     </dataValidation>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" prompt="Dépassement de durée - Le nombre de minutes introduites dépasse la durée d'une période. Veuillez confirmer ... Le calcul du total sera juste dans tous les cas._x000a_" sqref="B87 B34 B50 B65 B75 B14" xr:uid="{E5C4B3DD-C4A0-4BDF-8596-69EE95FDEE2C}">
@@ -12470,17 +12794,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04752183-13CB-498C-B47A-4401EA9BDEF9}">
   <dimension ref="A1:D67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.109375" customWidth="1"/>
-    <col min="4" max="4" width="46.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.140625" customWidth="1"/>
+    <col min="4" max="4" width="46.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12490,7 +12814,7 @@
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -12504,7 +12828,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="54" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
         <v>249</v>
       </c>
@@ -12518,7 +12842,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="54" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
         <v>254</v>
       </c>
@@ -12532,7 +12856,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
         <v>253</v>
       </c>
@@ -12546,7 +12870,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
         <v>259</v>
       </c>
@@ -12630,7 +12954,7 @@
       <c r="C14" s="66"/>
       <c r="D14" s="73"/>
     </row>
-    <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="27" x14ac:dyDescent="0.25">
       <c r="A15" s="53" t="s">
         <v>256</v>
       </c>
@@ -12640,7 +12964,7 @@
       <c r="C15" s="67"/>
       <c r="D15" s="54"/>
     </row>
-    <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="27" x14ac:dyDescent="0.25">
       <c r="A16" s="68" t="s">
         <v>257</v>
       </c>
@@ -12664,7 +12988,7 @@
       </c>
       <c r="D17" s="54"/>
     </row>
-    <row r="18" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="27" x14ac:dyDescent="0.25">
       <c r="A18" s="69"/>
       <c r="B18" s="53">
         <v>4</v>
@@ -12684,7 +13008,7 @@
       </c>
       <c r="D19" s="54"/>
     </row>
-    <row r="20" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="27" x14ac:dyDescent="0.25">
       <c r="A20" s="53"/>
       <c r="B20" s="53"/>
       <c r="C20" s="64">
@@ -12730,19 +13054,19 @@
       <c r="C26" s="54"/>
       <c r="D26" s="54"/>
     </row>
-    <row r="27" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="55"/>
       <c r="B27" s="55"/>
       <c r="C27" s="56"/>
       <c r="D27" s="56"/>
     </row>
-    <row r="28" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="53"/>
       <c r="B28" s="53"/>
       <c r="C28" s="54"/>
       <c r="D28" s="54"/>
     </row>
-    <row r="29" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="14" t="s">
         <v>22</v>
       </c>
@@ -12753,13 +13077,13 @@
       <c r="C29" s="15"/>
       <c r="D29" s="15"/>
     </row>
-    <row r="30" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="16"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
       <c r="D30" s="16"/>
     </row>
-    <row r="31" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>0</v>
       </c>
@@ -12769,7 +13093,7 @@
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
     </row>
-    <row r="32" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>2</v>
       </c>
@@ -12841,13 +13165,13 @@
       <c r="C42" s="26"/>
       <c r="D42" s="26"/>
     </row>
-    <row r="43" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="23"/>
       <c r="B43" s="23"/>
       <c r="C43" s="24"/>
       <c r="D43" s="24"/>
     </row>
-    <row r="44" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="14" t="s">
         <v>22</v>
       </c>
@@ -12858,13 +13182,13 @@
       <c r="C44" s="15"/>
       <c r="D44" s="15"/>
     </row>
-    <row r="45" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="16"/>
       <c r="B45" s="16"/>
       <c r="C45" s="16"/>
       <c r="D45" s="16"/>
     </row>
-    <row r="46" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>0</v>
       </c>
@@ -12874,7 +13198,7 @@
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
     </row>
-    <row r="47" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
         <v>2</v>
       </c>
@@ -12916,13 +13240,13 @@
       <c r="C52" s="9"/>
       <c r="D52" s="9"/>
     </row>
-    <row r="53" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="23"/>
       <c r="B53" s="23"/>
       <c r="C53" s="24"/>
       <c r="D53" s="24"/>
     </row>
-    <row r="54" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="14" t="s">
         <v>22</v>
       </c>
@@ -12933,13 +13257,13 @@
       <c r="C54" s="15"/>
       <c r="D54" s="15"/>
     </row>
-    <row r="55" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="16"/>
       <c r="B55" s="16"/>
       <c r="C55" s="16"/>
       <c r="D55" s="16"/>
     </row>
-    <row r="56" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>0</v>
       </c>
@@ -12949,7 +13273,7 @@
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
     </row>
-    <row r="57" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
         <v>2</v>
       </c>
@@ -13003,13 +13327,13 @@
       <c r="C64" s="9"/>
       <c r="D64" s="9"/>
     </row>
-    <row r="65" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="23"/>
       <c r="B65" s="23"/>
       <c r="C65" s="24"/>
       <c r="D65" s="24"/>
     </row>
-    <row r="66" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="14" t="s">
         <v>22</v>
       </c>
@@ -13020,7 +13344,7 @@
       <c r="C66" s="15"/>
       <c r="D66" s="15"/>
     </row>
-    <row r="67" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A67" s="16"/>
       <c r="B67" s="16"/>
       <c r="C67" s="16"/>

--- a/LM_Journal_Travail_V1.0.xlsx
+++ b/LM_Journal_Travail_V1.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programmes\VS2019\Projets\Projet Gerber\Love-Mirroring\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\Love-Mirroring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF9D3392-56BB-4979-A9A7-E74503ED688E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{410FC245-90E6-4E1F-87F6-923DCE4B17F4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-840" yWindow="4920" windowWidth="21600" windowHeight="11385" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Equipe" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <definedName name="NBLecons">#REF!</definedName>
     <definedName name="TachesPlanifiees">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="316">
   <si>
     <t>Jalon</t>
   </si>
@@ -1048,6 +1048,12 @@
   <si>
     <t>Debug du unlike
 Unlike corrigé</t>
+  </si>
+  <si>
+    <t>J'ai testé des fonctionnalités et j'ai identifié les bugs que je dois corriger.</t>
+  </si>
+  <si>
+    <t>Test + Correction</t>
   </si>
 </sst>
 </file>
@@ -1559,6 +1565,9 @@
     <xf numFmtId="14" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1585,9 +1594,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1810,7 +1816,7 @@
   <dimension ref="A1:R1000"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+      <selection activeCell="A49" sqref="A49:XFD49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2929,7 +2935,7 @@
       <c r="Q48" s="4"/>
       <c r="R48" s="4"/>
     </row>
-    <row r="49" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:18" ht="27" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
         <v>274</v>
       </c>
@@ -4815,10 +4821,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DB7A04D-A66F-4A89-83F1-9B353075A776}">
-  <dimension ref="A1:R107"/>
+  <dimension ref="A1:R110"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63:D72"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -6630,7 +6636,7 @@
       <c r="B67" s="25">
         <v>1</v>
       </c>
-      <c r="C67" s="74">
+      <c r="C67" s="65">
         <v>43974</v>
       </c>
       <c r="D67" s="26" t="s">
@@ -6658,7 +6664,7 @@
       <c r="B68" s="25">
         <v>3</v>
       </c>
-      <c r="C68" s="74">
+      <c r="C68" s="65">
         <v>43975</v>
       </c>
       <c r="D68" s="26" t="s">
@@ -6686,7 +6692,7 @@
       <c r="B69" s="25">
         <v>4</v>
       </c>
-      <c r="C69" s="74">
+      <c r="C69" s="65">
         <v>43976</v>
       </c>
       <c r="D69" s="26" t="s">
@@ -6714,7 +6720,7 @@
       <c r="B70" s="25">
         <v>4.5</v>
       </c>
-      <c r="C70" s="74">
+      <c r="C70" s="65">
         <v>43977</v>
       </c>
       <c r="D70" s="26" t="s">
@@ -6792,10 +6798,18 @@
       <c r="R72" s="4"/>
     </row>
     <row r="73" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="16"/>
-      <c r="B73" s="16"/>
-      <c r="C73" s="16"/>
-      <c r="D73" s="16"/>
+      <c r="A73" s="42" t="s">
+        <v>235</v>
+      </c>
+      <c r="B73" s="42">
+        <v>2</v>
+      </c>
+      <c r="C73" s="43">
+        <v>43981</v>
+      </c>
+      <c r="D73" s="44" t="s">
+        <v>314</v>
+      </c>
       <c r="E73" s="10"/>
       <c r="F73" s="4"/>
       <c r="G73" s="4"/>
@@ -6811,15 +6825,13 @@
       <c r="Q73" s="4"/>
       <c r="R73" s="4"/>
     </row>
-    <row r="74" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B74" s="2">
-        <v>5</v>
-      </c>
-      <c r="C74" s="3"/>
-      <c r="D74" s="3"/>
+    <row r="74" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="42" t="s">
+        <v>315</v>
+      </c>
+      <c r="B74" s="42"/>
+      <c r="C74" s="43"/>
+      <c r="D74" s="44"/>
       <c r="E74" s="10"/>
       <c r="F74" s="4"/>
       <c r="G74" s="4"/>
@@ -6835,17 +6847,16 @@
       <c r="Q74" s="4"/>
       <c r="R74" s="4"/>
     </row>
-    <row r="75" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B75" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C75" s="5"/>
-      <c r="D75" s="5" t="s">
-        <v>5</v>
-      </c>
+    <row r="75" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B75" s="14">
+        <f>SUM(B60:B73)</f>
+        <v>45</v>
+      </c>
+      <c r="C75" s="15"/>
+      <c r="D75" s="15"/>
       <c r="E75" s="10"/>
       <c r="F75" s="4"/>
       <c r="G75" s="4"/>
@@ -6861,11 +6872,11 @@
       <c r="Q75" s="4"/>
       <c r="R75" s="4"/>
     </row>
-    <row r="76" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A76" s="19"/>
-      <c r="B76" s="19"/>
-      <c r="C76" s="20"/>
-      <c r="D76" s="20"/>
+    <row r="76" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="16"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="16"/>
+      <c r="D76" s="16"/>
       <c r="E76" s="10"/>
       <c r="F76" s="4"/>
       <c r="G76" s="4"/>
@@ -6881,11 +6892,15 @@
       <c r="Q76" s="4"/>
       <c r="R76" s="4"/>
     </row>
-    <row r="77" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A77" s="7"/>
-      <c r="B77" s="7"/>
-      <c r="C77" s="9"/>
-      <c r="D77" s="9"/>
+    <row r="77" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B77" s="2">
+        <v>5</v>
+      </c>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
       <c r="E77" s="10"/>
       <c r="F77" s="4"/>
       <c r="G77" s="4"/>
@@ -6901,11 +6916,17 @@
       <c r="Q77" s="4"/>
       <c r="R77" s="4"/>
     </row>
-    <row r="78" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A78" s="7"/>
-      <c r="B78" s="7"/>
-      <c r="C78" s="9"/>
-      <c r="D78" s="9"/>
+    <row r="78" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="E78" s="10"/>
       <c r="F78" s="4"/>
       <c r="G78" s="4"/>
@@ -6922,10 +6943,10 @@
       <c r="R78" s="4"/>
     </row>
     <row r="79" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A79" s="7"/>
-      <c r="B79" s="7"/>
-      <c r="C79" s="9"/>
-      <c r="D79" s="9"/>
+      <c r="A79" s="19"/>
+      <c r="B79" s="19"/>
+      <c r="C79" s="20"/>
+      <c r="D79" s="20"/>
       <c r="E79" s="10"/>
       <c r="F79" s="4"/>
       <c r="G79" s="4"/>
@@ -6961,11 +6982,11 @@
       <c r="Q80" s="4"/>
       <c r="R80" s="4"/>
     </row>
-    <row r="81" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="23"/>
-      <c r="B81" s="23"/>
-      <c r="C81" s="24"/>
-      <c r="D81" s="24"/>
+    <row r="81" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A81" s="7"/>
+      <c r="B81" s="7"/>
+      <c r="C81" s="9"/>
+      <c r="D81" s="9"/>
       <c r="E81" s="10"/>
       <c r="F81" s="4"/>
       <c r="G81" s="4"/>
@@ -6981,16 +7002,11 @@
       <c r="Q81" s="4"/>
       <c r="R81" s="4"/>
     </row>
-    <row r="82" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B82" s="14">
-        <f>SUM(B76:B81)</f>
-        <v>0</v>
-      </c>
-      <c r="C82" s="15"/>
-      <c r="D82" s="15"/>
+    <row r="82" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A82" s="7"/>
+      <c r="B82" s="7"/>
+      <c r="C82" s="9"/>
+      <c r="D82" s="9"/>
       <c r="E82" s="10"/>
       <c r="F82" s="4"/>
       <c r="G82" s="4"/>
@@ -7006,11 +7022,11 @@
       <c r="Q82" s="4"/>
       <c r="R82" s="4"/>
     </row>
-    <row r="83" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="16"/>
-      <c r="B83" s="16"/>
-      <c r="C83" s="16"/>
-      <c r="D83" s="16"/>
+    <row r="83" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A83" s="7"/>
+      <c r="B83" s="7"/>
+      <c r="C83" s="9"/>
+      <c r="D83" s="9"/>
       <c r="E83" s="10"/>
       <c r="F83" s="4"/>
       <c r="G83" s="4"/>
@@ -7026,15 +7042,11 @@
       <c r="Q83" s="4"/>
       <c r="R83" s="4"/>
     </row>
-    <row r="84" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B84" s="2">
-        <v>6</v>
-      </c>
-      <c r="C84" s="3"/>
-      <c r="D84" s="3"/>
+    <row r="84" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="23"/>
+      <c r="B84" s="23"/>
+      <c r="C84" s="24"/>
+      <c r="D84" s="24"/>
       <c r="E84" s="10"/>
       <c r="F84" s="4"/>
       <c r="G84" s="4"/>
@@ -7050,17 +7062,16 @@
       <c r="Q84" s="4"/>
       <c r="R84" s="4"/>
     </row>
-    <row r="85" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B85" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C85" s="5"/>
-      <c r="D85" s="5" t="s">
-        <v>5</v>
-      </c>
+    <row r="85" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B85" s="14">
+        <f>SUM(B79:B84)</f>
+        <v>0</v>
+      </c>
+      <c r="C85" s="15"/>
+      <c r="D85" s="15"/>
       <c r="E85" s="10"/>
       <c r="F85" s="4"/>
       <c r="G85" s="4"/>
@@ -7076,11 +7087,11 @@
       <c r="Q85" s="4"/>
       <c r="R85" s="4"/>
     </row>
-    <row r="86" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A86" s="19"/>
-      <c r="B86" s="19"/>
-      <c r="C86" s="20"/>
-      <c r="D86" s="20"/>
+    <row r="86" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="16"/>
+      <c r="B86" s="16"/>
+      <c r="C86" s="16"/>
+      <c r="D86" s="16"/>
       <c r="E86" s="10"/>
       <c r="F86" s="4"/>
       <c r="G86" s="4"/>
@@ -7096,11 +7107,15 @@
       <c r="Q86" s="4"/>
       <c r="R86" s="4"/>
     </row>
-    <row r="87" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A87" s="7"/>
-      <c r="B87" s="7"/>
-      <c r="C87" s="9"/>
-      <c r="D87" s="9"/>
+    <row r="87" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B87" s="2">
+        <v>6</v>
+      </c>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
       <c r="E87" s="10"/>
       <c r="F87" s="4"/>
       <c r="G87" s="4"/>
@@ -7116,11 +7131,17 @@
       <c r="Q87" s="4"/>
       <c r="R87" s="4"/>
     </row>
-    <row r="88" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A88" s="7"/>
-      <c r="B88" s="7"/>
-      <c r="C88" s="9"/>
-      <c r="D88" s="9"/>
+    <row r="88" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="E88" s="10"/>
       <c r="F88" s="4"/>
       <c r="G88" s="4"/>
@@ -7137,10 +7158,10 @@
       <c r="R88" s="4"/>
     </row>
     <row r="89" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A89" s="7"/>
-      <c r="B89" s="7"/>
-      <c r="C89" s="9"/>
-      <c r="D89" s="9"/>
+      <c r="A89" s="19"/>
+      <c r="B89" s="19"/>
+      <c r="C89" s="20"/>
+      <c r="D89" s="20"/>
       <c r="E89" s="10"/>
       <c r="F89" s="4"/>
       <c r="G89" s="4"/>
@@ -7216,11 +7237,11 @@
       <c r="Q92" s="4"/>
       <c r="R92" s="4"/>
     </row>
-    <row r="93" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="23"/>
-      <c r="B93" s="23"/>
-      <c r="C93" s="24"/>
-      <c r="D93" s="24"/>
+    <row r="93" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A93" s="7"/>
+      <c r="B93" s="7"/>
+      <c r="C93" s="9"/>
+      <c r="D93" s="9"/>
       <c r="E93" s="10"/>
       <c r="F93" s="4"/>
       <c r="G93" s="4"/>
@@ -7236,16 +7257,11 @@
       <c r="Q93" s="4"/>
       <c r="R93" s="4"/>
     </row>
-    <row r="94" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B94" s="14">
-        <f>SUM(B86:B93)</f>
-        <v>0</v>
-      </c>
-      <c r="C94" s="15"/>
-      <c r="D94" s="15"/>
+    <row r="94" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A94" s="7"/>
+      <c r="B94" s="7"/>
+      <c r="C94" s="9"/>
+      <c r="D94" s="9"/>
       <c r="E94" s="10"/>
       <c r="F94" s="4"/>
       <c r="G94" s="4"/>
@@ -7262,10 +7278,10 @@
       <c r="R94" s="4"/>
     </row>
     <row r="95" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A95" s="16"/>
-      <c r="B95" s="16"/>
-      <c r="C95" s="16"/>
-      <c r="D95" s="16"/>
+      <c r="A95" s="7"/>
+      <c r="B95" s="7"/>
+      <c r="C95" s="9"/>
+      <c r="D95" s="9"/>
       <c r="E95" s="10"/>
       <c r="F95" s="4"/>
       <c r="G95" s="4"/>
@@ -7281,11 +7297,11 @@
       <c r="Q95" s="4"/>
       <c r="R95" s="4"/>
     </row>
-    <row r="96" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A96" s="27"/>
-      <c r="B96" s="27"/>
-      <c r="C96" s="27"/>
-      <c r="D96" s="27"/>
+    <row r="96" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="23"/>
+      <c r="B96" s="23"/>
+      <c r="C96" s="24"/>
+      <c r="D96" s="24"/>
       <c r="E96" s="10"/>
       <c r="F96" s="4"/>
       <c r="G96" s="4"/>
@@ -7301,11 +7317,16 @@
       <c r="Q96" s="4"/>
       <c r="R96" s="4"/>
     </row>
-    <row r="97" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A97" s="27"/>
-      <c r="B97" s="27"/>
-      <c r="C97" s="27"/>
-      <c r="D97" s="27"/>
+    <row r="97" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B97" s="14">
+        <f>SUM(B89:B96)</f>
+        <v>0</v>
+      </c>
+      <c r="C97" s="15"/>
+      <c r="D97" s="15"/>
       <c r="E97" s="10"/>
       <c r="F97" s="4"/>
       <c r="G97" s="4"/>
@@ -7322,10 +7343,10 @@
       <c r="R97" s="4"/>
     </row>
     <row r="98" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A98" s="27"/>
-      <c r="B98" s="27"/>
-      <c r="C98" s="27"/>
-      <c r="D98" s="27"/>
+      <c r="A98" s="16"/>
+      <c r="B98" s="16"/>
+      <c r="C98" s="16"/>
+      <c r="D98" s="16"/>
       <c r="E98" s="10"/>
       <c r="F98" s="4"/>
       <c r="G98" s="4"/>
@@ -7486,24 +7507,85 @@
       <c r="B106" s="27"/>
       <c r="C106" s="27"/>
       <c r="D106" s="27"/>
+      <c r="E106" s="10"/>
+      <c r="F106" s="4"/>
+      <c r="G106" s="4"/>
+      <c r="H106" s="4"/>
+      <c r="I106" s="4"/>
+      <c r="J106" s="4"/>
+      <c r="K106" s="4"/>
+      <c r="L106" s="4"/>
+      <c r="M106" s="4"/>
+      <c r="N106" s="4"/>
+      <c r="O106" s="4"/>
+      <c r="P106" s="4"/>
+      <c r="Q106" s="4"/>
+      <c r="R106" s="4"/>
     </row>
     <row r="107" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A107" s="28"/>
-      <c r="B107" s="28"/>
-      <c r="C107" s="28"/>
-      <c r="D107" s="28"/>
+      <c r="A107" s="27"/>
+      <c r="B107" s="27"/>
+      <c r="C107" s="27"/>
+      <c r="D107" s="27"/>
+      <c r="E107" s="10"/>
+      <c r="F107" s="4"/>
+      <c r="G107" s="4"/>
+      <c r="H107" s="4"/>
+      <c r="I107" s="4"/>
+      <c r="J107" s="4"/>
+      <c r="K107" s="4"/>
+      <c r="L107" s="4"/>
+      <c r="M107" s="4"/>
+      <c r="N107" s="4"/>
+      <c r="O107" s="4"/>
+      <c r="P107" s="4"/>
+      <c r="Q107" s="4"/>
+      <c r="R107" s="4"/>
+    </row>
+    <row r="108" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A108" s="27"/>
+      <c r="B108" s="27"/>
+      <c r="C108" s="27"/>
+      <c r="D108" s="27"/>
+      <c r="E108" s="10"/>
+      <c r="F108" s="4"/>
+      <c r="G108" s="4"/>
+      <c r="H108" s="4"/>
+      <c r="I108" s="4"/>
+      <c r="J108" s="4"/>
+      <c r="K108" s="4"/>
+      <c r="L108" s="4"/>
+      <c r="M108" s="4"/>
+      <c r="N108" s="4"/>
+      <c r="O108" s="4"/>
+      <c r="P108" s="4"/>
+      <c r="Q108" s="4"/>
+      <c r="R108" s="4"/>
+    </row>
+    <row r="109" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A109" s="27"/>
+      <c r="B109" s="27"/>
+      <c r="C109" s="27"/>
+      <c r="D109" s="27"/>
+    </row>
+    <row r="110" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A110" s="28"/>
+      <c r="B110" s="28"/>
+      <c r="C110" s="28"/>
+      <c r="D110" s="28"/>
     </row>
   </sheetData>
   <dataValidations xWindow="188" yWindow="522" count="2">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" prompt="Dépassement de durée - Le nombre de minutes introduites dépasse la durée d'une période. Veuillez confirmer ... Le calcul du total sera juste dans tous les cas._x000a_" sqref="B12 B34 B56 B94 B82" xr:uid="{41F29EDA-D509-4469-8DFB-6A4CE4CEAE07}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" prompt="Dépassement de durée - Le nombre de minutes introduites dépasse la durée d'une période. Veuillez confirmer ... Le calcul du total sera juste dans tous les cas._x000a_" sqref="B12 B34 B56 B97 B85 B75 G75" xr:uid="{41F29EDA-D509-4469-8DFB-6A4CE4CEAE07}">
       <formula1>0</formula1>
       <formula2>DureePeriode-1</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" prompt="Durée en 1/3 de période - Le nombre doit être de type entier" sqref="B86:B93 B38:B39 B41:B45 B76:B81 B10:B11 B3:B8 B16:B33 B60:B72" xr:uid="{3039B7E3-952E-4B34-B612-E5A0C049619C}">
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" prompt="Durée en 1/3 de période - Le nombre doit être de type entier" sqref="B89:B96 B38:B39 B41:B45 B79:B84 B10:B11 B3:B8 B16:B33 B60:B75" xr:uid="{3039B7E3-952E-4B34-B612-E5A0C049619C}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -12794,7 +12876,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04752183-13CB-498C-B47A-4401EA9BDEF9}">
   <dimension ref="A1:D67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -12888,13 +12970,13 @@
       <c r="A7" s="33" t="s">
         <v>260</v>
       </c>
-      <c r="B7" s="68">
+      <c r="B7" s="69">
         <v>6</v>
       </c>
-      <c r="C7" s="65">
+      <c r="C7" s="66">
         <v>43977</v>
       </c>
-      <c r="D7" s="71" t="s">
+      <c r="D7" s="72" t="s">
         <v>268</v>
       </c>
     </row>
@@ -12902,57 +12984,57 @@
       <c r="A8" s="33" t="s">
         <v>261</v>
       </c>
-      <c r="B8" s="69"/>
-      <c r="C8" s="66"/>
-      <c r="D8" s="72"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="73"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
         <v>262</v>
       </c>
-      <c r="B9" s="69"/>
-      <c r="C9" s="66"/>
-      <c r="D9" s="72"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="73"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="53" t="s">
         <v>263</v>
       </c>
-      <c r="B10" s="69"/>
-      <c r="C10" s="66"/>
-      <c r="D10" s="72"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="73"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="53" t="s">
         <v>264</v>
       </c>
-      <c r="B11" s="69"/>
-      <c r="C11" s="66"/>
-      <c r="D11" s="72"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="73"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="53" t="s">
         <v>265</v>
       </c>
-      <c r="B12" s="69"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="72"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="73"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="62" t="s">
         <v>266</v>
       </c>
-      <c r="B13" s="69"/>
-      <c r="C13" s="66"/>
-      <c r="D13" s="72"/>
+      <c r="B13" s="70"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="73"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="62" t="s">
         <v>267</v>
       </c>
-      <c r="B14" s="70"/>
-      <c r="C14" s="66"/>
-      <c r="D14" s="73"/>
+      <c r="B14" s="71"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="74"/>
     </row>
     <row r="15" spans="1:4" ht="27" x14ac:dyDescent="0.25">
       <c r="A15" s="53" t="s">
@@ -12961,11 +13043,11 @@
       <c r="B15" s="53">
         <v>1</v>
       </c>
-      <c r="C15" s="67"/>
+      <c r="C15" s="68"/>
       <c r="D15" s="54"/>
     </row>
     <row r="16" spans="1:4" ht="27" x14ac:dyDescent="0.25">
-      <c r="A16" s="68" t="s">
+      <c r="A16" s="69" t="s">
         <v>257</v>
       </c>
       <c r="B16" s="63">
@@ -12979,7 +13061,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="69"/>
+      <c r="A17" s="70"/>
       <c r="B17" s="53">
         <v>4</v>
       </c>
@@ -12989,7 +13071,7 @@
       <c r="D17" s="54"/>
     </row>
     <row r="18" spans="1:4" ht="27" x14ac:dyDescent="0.25">
-      <c r="A18" s="69"/>
+      <c r="A18" s="70"/>
       <c r="B18" s="53">
         <v>4</v>
       </c>
@@ -13001,7 +13083,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="70"/>
+      <c r="A19" s="71"/>
       <c r="B19" s="53"/>
       <c r="C19" s="64">
         <v>43982</v>

--- a/LM_Journal_Travail_V1.0.xlsx
+++ b/LM_Journal_Travail_V1.0.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\Love-Mirroring\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paul\Documents\GitHub\Love-Mirroring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{410FC245-90E6-4E1F-87F6-923DCE4B17F4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F74AA46D-B5CF-4B78-A143-9B3FDE4A3E32}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Equipe" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="317">
   <si>
     <t>Jalon</t>
   </si>
@@ -901,13 +901,6 @@
     <t>"</t>
   </si>
   <si>
-    <t>Affichage de toutes les réponses d'une demande de contact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Procédure de test
-</t>
-  </si>
-  <si>
     <t>Daily Scrum</t>
   </si>
   <si>
@@ -1054,6 +1047,16 @@
   </si>
   <si>
     <t>Test + Correction</t>
+  </si>
+  <si>
+    <t>Côté admin: Affichage de toutes les réponses d'une demande de contact</t>
+  </si>
+  <si>
+    <t>Côté utilisateur: affichage des demandes de contact de l'utilisateur connecté</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Procédure de test: quand je veux voir les réponses, je ne peux voir que le texte et la valeur de la réponse, il manque l'affichage du profil et de la question.
+</t>
   </si>
 </sst>
 </file>
@@ -1385,7 +1388,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1568,6 +1571,12 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1594,6 +1603,16 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1819,16 +1838,16 @@
       <selection activeCell="A49" sqref="A49:XFD49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="6.140625" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
-    <col min="4" max="4" width="78.42578125" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="6.109375" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" customWidth="1"/>
+    <col min="4" max="4" width="78.44140625" customWidth="1"/>
+    <col min="5" max="6" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1854,7 +1873,7 @@
       <c r="Q1" s="4"/>
       <c r="R1" s="4"/>
     </row>
-    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -1882,7 +1901,7 @@
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
     </row>
-    <row r="3" spans="1:18" ht="94.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
@@ -1910,7 +1929,7 @@
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
     </row>
-    <row r="4" spans="1:18" ht="54" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
@@ -1938,7 +1957,7 @@
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
     </row>
-    <row r="5" spans="1:18" ht="54" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
@@ -1966,7 +1985,7 @@
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
     </row>
-    <row r="6" spans="1:18" ht="81" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
         <v>12</v>
       </c>
@@ -1994,7 +2013,7 @@
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
     </row>
-    <row r="7" spans="1:18" ht="54" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>14</v>
       </c>
@@ -2022,7 +2041,7 @@
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
     </row>
-    <row r="8" spans="1:18" ht="94.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
         <v>16</v>
       </c>
@@ -2050,7 +2069,7 @@
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
     </row>
-    <row r="9" spans="1:18" ht="81" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
         <v>18</v>
       </c>
@@ -2078,7 +2097,7 @@
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
     </row>
-    <row r="10" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" ht="66" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
@@ -2106,7 +2125,7 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
     </row>
-    <row r="11" spans="1:18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="8"/>
@@ -2126,7 +2145,7 @@
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
     </row>
-    <row r="12" spans="1:18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="14" t="s">
         <v>22</v>
       </c>
@@ -2151,7 +2170,7 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
     </row>
-    <row r="13" spans="1:18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="16"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
@@ -2171,7 +2190,7 @@
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
     </row>
-    <row r="14" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -2195,7 +2214,7 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
     </row>
-    <row r="15" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>2</v>
       </c>
@@ -2221,7 +2240,7 @@
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
     </row>
-    <row r="16" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A16" s="37" t="s">
         <v>95</v>
       </c>
@@ -2249,7 +2268,7 @@
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
     </row>
-    <row r="17" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>99</v>
       </c>
@@ -2277,7 +2296,7 @@
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
     </row>
-    <row r="18" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="9"/>
@@ -2297,7 +2316,7 @@
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
     </row>
-    <row r="19" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="9"/>
@@ -2317,7 +2336,7 @@
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
     </row>
-    <row r="20" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="9"/>
@@ -2909,16 +2928,16 @@
     </row>
     <row r="48" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="19" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B48" s="19">
         <v>3.5</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D48" s="20" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E48" s="10"/>
       <c r="F48" s="4"/>
@@ -2935,9 +2954,9 @@
       <c r="Q48" s="4"/>
       <c r="R48" s="4"/>
     </row>
-    <row r="49" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B49" s="7">
         <v>4</v>
@@ -2946,7 +2965,7 @@
         <v>43982</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E49" s="10"/>
       <c r="F49" s="4"/>
@@ -4823,18 +4842,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DB7A04D-A66F-4A89-83F1-9B353075A776}">
   <dimension ref="A1:R110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="78.42578125" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="78.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4860,7 +4879,7 @@
       <c r="Q1" s="4"/>
       <c r="R1" s="4"/>
     </row>
-    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -4888,7 +4907,7 @@
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
     </row>
-    <row r="3" spans="1:18" ht="94.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
@@ -4916,7 +4935,7 @@
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
     </row>
-    <row r="4" spans="1:18" ht="54" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
@@ -4944,7 +4963,7 @@
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
     </row>
-    <row r="5" spans="1:18" ht="54" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
@@ -4972,7 +4991,7 @@
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
     </row>
-    <row r="6" spans="1:18" ht="81" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
         <v>12</v>
       </c>
@@ -5000,7 +5019,7 @@
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
     </row>
-    <row r="7" spans="1:18" ht="54" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>14</v>
       </c>
@@ -5028,7 +5047,7 @@
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
     </row>
-    <row r="8" spans="1:18" ht="81" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
         <v>16</v>
       </c>
@@ -5056,7 +5075,7 @@
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
     </row>
-    <row r="9" spans="1:18" ht="81" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
         <v>18</v>
       </c>
@@ -5084,7 +5103,7 @@
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
     </row>
-    <row r="10" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
@@ -5112,7 +5131,7 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
     </row>
-    <row r="11" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>34</v>
       </c>
@@ -5140,7 +5159,7 @@
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
     </row>
-    <row r="12" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="14" t="s">
         <v>22</v>
       </c>
@@ -5165,7 +5184,7 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
     </row>
-    <row r="13" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="16"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
@@ -5185,7 +5204,7 @@
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
     </row>
-    <row r="14" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -5209,7 +5228,7 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
     </row>
-    <row r="15" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>2</v>
       </c>
@@ -5235,7 +5254,7 @@
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
     </row>
-    <row r="16" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
         <v>36</v>
       </c>
@@ -5263,7 +5282,7 @@
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
     </row>
-    <row r="17" spans="1:18" ht="81" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>38</v>
       </c>
@@ -5291,7 +5310,7 @@
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
     </row>
-    <row r="18" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>42</v>
       </c>
@@ -5319,7 +5338,7 @@
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
     </row>
-    <row r="19" spans="1:18" ht="81" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>44</v>
       </c>
@@ -5347,7 +5366,7 @@
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
     </row>
-    <row r="20" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>46</v>
       </c>
@@ -5375,7 +5394,7 @@
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
     </row>
-    <row r="21" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" ht="66" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>48</v>
       </c>
@@ -5403,7 +5422,7 @@
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
     </row>
-    <row r="22" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>50</v>
       </c>
@@ -5431,7 +5450,7 @@
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
     </row>
-    <row r="23" spans="1:18" ht="121.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>73</v>
       </c>
@@ -5459,7 +5478,7 @@
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
     </row>
-    <row r="24" spans="1:18" ht="54" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>52</v>
       </c>
@@ -5487,7 +5506,7 @@
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
     </row>
-    <row r="25" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" ht="66" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>62</v>
       </c>
@@ -5515,7 +5534,7 @@
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
     </row>
-    <row r="26" spans="1:18" ht="54" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>63</v>
       </c>
@@ -5543,7 +5562,7 @@
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
     </row>
-    <row r="27" spans="1:18" ht="81" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>65</v>
       </c>
@@ -5571,7 +5590,7 @@
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
     </row>
-    <row r="28" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>69</v>
       </c>
@@ -5599,7 +5618,7 @@
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
     </row>
-    <row r="29" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>71</v>
       </c>
@@ -5627,7 +5646,7 @@
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
     </row>
-    <row r="30" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>88</v>
       </c>
@@ -5655,7 +5674,7 @@
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
     </row>
-    <row r="31" spans="1:18" ht="54" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>90</v>
       </c>
@@ -5683,7 +5702,7 @@
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
     </row>
-    <row r="32" spans="1:18" ht="54" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" ht="66" x14ac:dyDescent="0.3">
       <c r="A32" s="38" t="s">
         <v>97</v>
       </c>
@@ -5711,7 +5730,7 @@
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
     </row>
-    <row r="33" spans="1:18" ht="54.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:18" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="38" t="s">
         <v>142</v>
       </c>
@@ -5739,7 +5758,7 @@
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
     </row>
-    <row r="34" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="14" t="s">
         <v>22</v>
       </c>
@@ -5764,7 +5783,7 @@
       <c r="Q34" s="4"/>
       <c r="R34" s="4"/>
     </row>
-    <row r="35" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="16"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -5784,7 +5803,7 @@
       <c r="Q35" s="4"/>
       <c r="R35" s="4"/>
     </row>
-    <row r="36" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>0</v>
       </c>
@@ -5808,7 +5827,7 @@
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
     </row>
-    <row r="37" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
         <v>2</v>
       </c>
@@ -5834,7 +5853,7 @@
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
     </row>
-    <row r="38" spans="1:18" ht="54" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
         <v>148</v>
       </c>
@@ -5862,7 +5881,7 @@
       <c r="Q38" s="4"/>
       <c r="R38" s="4"/>
     </row>
-    <row r="39" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>150</v>
       </c>
@@ -5890,7 +5909,7 @@
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
     </row>
-    <row r="40" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
         <v>152</v>
       </c>
@@ -5918,7 +5937,7 @@
       <c r="Q40" s="4"/>
       <c r="R40" s="4"/>
     </row>
-    <row r="41" spans="1:18" ht="54" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
         <v>154</v>
       </c>
@@ -5946,7 +5965,7 @@
       <c r="Q41" s="4"/>
       <c r="R41" s="4"/>
     </row>
-    <row r="42" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
         <v>156</v>
       </c>
@@ -5974,7 +5993,7 @@
       <c r="Q42" s="4"/>
       <c r="R42" s="4"/>
     </row>
-    <row r="43" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
         <v>158</v>
       </c>
@@ -6002,7 +6021,7 @@
       <c r="Q43" s="4"/>
       <c r="R43" s="4"/>
     </row>
-    <row r="44" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
         <v>165</v>
       </c>
@@ -6030,7 +6049,7 @@
       <c r="Q44" s="4"/>
       <c r="R44" s="4"/>
     </row>
-    <row r="45" spans="1:18" ht="81.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:18" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="23" t="s">
         <v>167</v>
       </c>
@@ -6058,7 +6077,7 @@
       <c r="Q45" s="4"/>
       <c r="R45" s="4"/>
     </row>
-    <row r="46" spans="1:18" ht="108.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:18" ht="106.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="23" t="s">
         <v>169</v>
       </c>
@@ -6086,7 +6105,7 @@
       <c r="Q46" s="4"/>
       <c r="R46" s="4"/>
     </row>
-    <row r="47" spans="1:18" ht="41.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:18" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="42" t="s">
         <v>171</v>
       </c>
@@ -6114,7 +6133,7 @@
       <c r="Q47" s="4"/>
       <c r="R47" s="4"/>
     </row>
-    <row r="48" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="42" t="s">
         <v>173</v>
       </c>
@@ -6142,7 +6161,7 @@
       <c r="Q48" s="4"/>
       <c r="R48" s="4"/>
     </row>
-    <row r="49" spans="1:18" ht="41.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:18" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="42" t="s">
         <v>181</v>
       </c>
@@ -6170,7 +6189,7 @@
       <c r="Q49" s="4"/>
       <c r="R49" s="4"/>
     </row>
-    <row r="50" spans="1:18" ht="81.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:18" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="42" t="s">
         <v>183</v>
       </c>
@@ -6198,7 +6217,7 @@
       <c r="Q50" s="4"/>
       <c r="R50" s="4"/>
     </row>
-    <row r="51" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="42" t="s">
         <v>189</v>
       </c>
@@ -6226,7 +6245,7 @@
       <c r="Q51" s="4"/>
       <c r="R51" s="4"/>
     </row>
-    <row r="52" spans="1:18" ht="68.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:18" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="42" t="s">
         <v>191</v>
       </c>
@@ -6254,7 +6273,7 @@
       <c r="Q52" s="4"/>
       <c r="R52" s="4"/>
     </row>
-    <row r="53" spans="1:18" ht="81.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:18" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="42" t="s">
         <v>195</v>
       </c>
@@ -6282,7 +6301,7 @@
       <c r="Q53" s="4"/>
       <c r="R53" s="4"/>
     </row>
-    <row r="54" spans="1:18" ht="81.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:18" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="42" t="s">
         <v>197</v>
       </c>
@@ -6310,7 +6329,7 @@
       <c r="Q54" s="4"/>
       <c r="R54" s="4"/>
     </row>
-    <row r="55" spans="1:18" ht="54.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:18" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="42" t="s">
         <v>243</v>
       </c>
@@ -6338,7 +6357,7 @@
       <c r="Q55" s="4"/>
       <c r="R55" s="4"/>
     </row>
-    <row r="56" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="14" t="s">
         <v>22</v>
       </c>
@@ -6363,7 +6382,7 @@
       <c r="Q56" s="4"/>
       <c r="R56" s="4"/>
     </row>
-    <row r="57" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="16"/>
       <c r="B57" s="16"/>
       <c r="C57" s="16"/>
@@ -6383,7 +6402,7 @@
       <c r="Q57" s="4"/>
       <c r="R57" s="4"/>
     </row>
-    <row r="58" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>0</v>
       </c>
@@ -6407,7 +6426,7 @@
       <c r="Q58" s="4"/>
       <c r="R58" s="4"/>
     </row>
-    <row r="59" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="5" t="s">
         <v>2</v>
       </c>
@@ -6433,7 +6452,7 @@
       <c r="Q59" s="4"/>
       <c r="R59" s="4"/>
     </row>
-    <row r="60" spans="1:18" ht="81" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:18" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A60" s="19" t="s">
         <v>245</v>
       </c>
@@ -6461,7 +6480,7 @@
       <c r="Q60" s="4"/>
       <c r="R60" s="4"/>
     </row>
-    <row r="61" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A61" s="58" t="s">
         <v>245</v>
       </c>
@@ -6489,7 +6508,7 @@
       <c r="Q61" s="4"/>
       <c r="R61" s="4"/>
     </row>
-    <row r="62" spans="1:18" ht="54" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A62" s="7" t="s">
         <v>245</v>
       </c>
@@ -6517,7 +6536,7 @@
       <c r="Q62" s="4"/>
       <c r="R62" s="4"/>
     </row>
-    <row r="63" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:18" ht="66" x14ac:dyDescent="0.3">
       <c r="A63" s="7" t="s">
         <v>245</v>
       </c>
@@ -6528,7 +6547,7 @@
         <v>43969</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E63" s="10"/>
       <c r="F63" s="4"/>
@@ -6545,9 +6564,9 @@
       <c r="Q63" s="4"/>
       <c r="R63" s="4"/>
     </row>
-    <row r="64" spans="1:18" ht="94.5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:18" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A64" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B64" s="7">
         <v>5.5</v>
@@ -6556,7 +6575,7 @@
         <v>43970</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E64" s="10"/>
       <c r="F64" s="4"/>
@@ -6573,9 +6592,9 @@
       <c r="Q64" s="4"/>
       <c r="R64" s="4"/>
     </row>
-    <row r="65" spans="1:18" ht="81" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:18" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A65" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B65" s="7">
         <v>3.5</v>
@@ -6584,7 +6603,7 @@
         <v>43971</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E65" s="10"/>
       <c r="F65" s="4"/>
@@ -6601,9 +6620,9 @@
       <c r="Q65" s="4"/>
       <c r="R65" s="4"/>
     </row>
-    <row r="66" spans="1:18" ht="54" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A66" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B66" s="7">
         <v>1.5</v>
@@ -6612,7 +6631,7 @@
         <v>43972</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E66" s="10"/>
       <c r="F66" s="4"/>
@@ -6629,7 +6648,7 @@
       <c r="Q66" s="4"/>
       <c r="R66" s="4"/>
     </row>
-    <row r="67" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A67" s="25" t="s">
         <v>183</v>
       </c>
@@ -6640,7 +6659,7 @@
         <v>43974</v>
       </c>
       <c r="D67" s="26" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E67" s="10"/>
       <c r="F67" s="4"/>
@@ -6657,7 +6676,7 @@
       <c r="Q67" s="4"/>
       <c r="R67" s="4"/>
     </row>
-    <row r="68" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:18" ht="66" x14ac:dyDescent="0.3">
       <c r="A68" s="25" t="s">
         <v>183</v>
       </c>
@@ -6668,7 +6687,7 @@
         <v>43975</v>
       </c>
       <c r="D68" s="26" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E68" s="10"/>
       <c r="F68" s="4"/>
@@ -6685,9 +6704,9 @@
       <c r="Q68" s="4"/>
       <c r="R68" s="4"/>
     </row>
-    <row r="69" spans="1:18" ht="54" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A69" s="25" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B69" s="25">
         <v>4</v>
@@ -6696,7 +6715,7 @@
         <v>43976</v>
       </c>
       <c r="D69" s="26" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E69" s="10"/>
       <c r="F69" s="4"/>
@@ -6713,9 +6732,9 @@
       <c r="Q69" s="4"/>
       <c r="R69" s="4"/>
     </row>
-    <row r="70" spans="1:18" ht="54" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A70" s="25" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B70" s="25">
         <v>4.5</v>
@@ -6724,7 +6743,7 @@
         <v>43977</v>
       </c>
       <c r="D70" s="26" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E70" s="10"/>
       <c r="F70" s="4"/>
@@ -6741,9 +6760,9 @@
       <c r="Q70" s="4"/>
       <c r="R70" s="4"/>
     </row>
-    <row r="71" spans="1:18" ht="54.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:18" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="23" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B71" s="23">
         <v>4</v>
@@ -6752,7 +6771,7 @@
         <v>43979</v>
       </c>
       <c r="D71" s="24" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E71" s="10"/>
       <c r="F71" s="4"/>
@@ -6769,9 +6788,9 @@
       <c r="Q71" s="4"/>
       <c r="R71" s="4"/>
     </row>
-    <row r="72" spans="1:18" ht="41.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:18" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="42" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B72" s="42">
         <v>4</v>
@@ -6780,7 +6799,7 @@
         <v>43980</v>
       </c>
       <c r="D72" s="44" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E72" s="10"/>
       <c r="F72" s="4"/>
@@ -6797,7 +6816,7 @@
       <c r="Q72" s="4"/>
       <c r="R72" s="4"/>
     </row>
-    <row r="73" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="42" t="s">
         <v>235</v>
       </c>
@@ -6808,7 +6827,7 @@
         <v>43981</v>
       </c>
       <c r="D73" s="44" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E73" s="10"/>
       <c r="F73" s="4"/>
@@ -6825,9 +6844,9 @@
       <c r="Q73" s="4"/>
       <c r="R73" s="4"/>
     </row>
-    <row r="74" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="42" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B74" s="42"/>
       <c r="C74" s="43"/>
@@ -6847,7 +6866,7 @@
       <c r="Q74" s="4"/>
       <c r="R74" s="4"/>
     </row>
-    <row r="75" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="14" t="s">
         <v>22</v>
       </c>
@@ -6872,7 +6891,7 @@
       <c r="Q75" s="4"/>
       <c r="R75" s="4"/>
     </row>
-    <row r="76" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="16"/>
       <c r="B76" s="16"/>
       <c r="C76" s="16"/>
@@ -6892,7 +6911,7 @@
       <c r="Q76" s="4"/>
       <c r="R76" s="4"/>
     </row>
-    <row r="77" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
         <v>0</v>
       </c>
@@ -6916,7 +6935,7 @@
       <c r="Q77" s="4"/>
       <c r="R77" s="4"/>
     </row>
-    <row r="78" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="5" t="s">
         <v>2</v>
       </c>
@@ -6942,7 +6961,7 @@
       <c r="Q78" s="4"/>
       <c r="R78" s="4"/>
     </row>
-    <row r="79" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A79" s="19"/>
       <c r="B79" s="19"/>
       <c r="C79" s="20"/>
@@ -6962,7 +6981,7 @@
       <c r="Q79" s="4"/>
       <c r="R79" s="4"/>
     </row>
-    <row r="80" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A80" s="7"/>
       <c r="B80" s="7"/>
       <c r="C80" s="9"/>
@@ -6982,7 +7001,7 @@
       <c r="Q80" s="4"/>
       <c r="R80" s="4"/>
     </row>
-    <row r="81" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A81" s="7"/>
       <c r="B81" s="7"/>
       <c r="C81" s="9"/>
@@ -7002,7 +7021,7 @@
       <c r="Q81" s="4"/>
       <c r="R81" s="4"/>
     </row>
-    <row r="82" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A82" s="7"/>
       <c r="B82" s="7"/>
       <c r="C82" s="9"/>
@@ -7022,7 +7041,7 @@
       <c r="Q82" s="4"/>
       <c r="R82" s="4"/>
     </row>
-    <row r="83" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A83" s="7"/>
       <c r="B83" s="7"/>
       <c r="C83" s="9"/>
@@ -7042,7 +7061,7 @@
       <c r="Q83" s="4"/>
       <c r="R83" s="4"/>
     </row>
-    <row r="84" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="23"/>
       <c r="B84" s="23"/>
       <c r="C84" s="24"/>
@@ -7062,7 +7081,7 @@
       <c r="Q84" s="4"/>
       <c r="R84" s="4"/>
     </row>
-    <row r="85" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="14" t="s">
         <v>22</v>
       </c>
@@ -7087,7 +7106,7 @@
       <c r="Q85" s="4"/>
       <c r="R85" s="4"/>
     </row>
-    <row r="86" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="16"/>
       <c r="B86" s="16"/>
       <c r="C86" s="16"/>
@@ -7107,7 +7126,7 @@
       <c r="Q86" s="4"/>
       <c r="R86" s="4"/>
     </row>
-    <row r="87" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
         <v>0</v>
       </c>
@@ -7131,7 +7150,7 @@
       <c r="Q87" s="4"/>
       <c r="R87" s="4"/>
     </row>
-    <row r="88" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="5" t="s">
         <v>2</v>
       </c>
@@ -7157,7 +7176,7 @@
       <c r="Q88" s="4"/>
       <c r="R88" s="4"/>
     </row>
-    <row r="89" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A89" s="19"/>
       <c r="B89" s="19"/>
       <c r="C89" s="20"/>
@@ -7177,7 +7196,7 @@
       <c r="Q89" s="4"/>
       <c r="R89" s="4"/>
     </row>
-    <row r="90" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A90" s="7"/>
       <c r="B90" s="7"/>
       <c r="C90" s="9"/>
@@ -7197,7 +7216,7 @@
       <c r="Q90" s="4"/>
       <c r="R90" s="4"/>
     </row>
-    <row r="91" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A91" s="7"/>
       <c r="B91" s="7"/>
       <c r="C91" s="9"/>
@@ -7217,7 +7236,7 @@
       <c r="Q91" s="4"/>
       <c r="R91" s="4"/>
     </row>
-    <row r="92" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A92" s="7"/>
       <c r="B92" s="7"/>
       <c r="C92" s="9"/>
@@ -7237,7 +7256,7 @@
       <c r="Q92" s="4"/>
       <c r="R92" s="4"/>
     </row>
-    <row r="93" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A93" s="7"/>
       <c r="B93" s="7"/>
       <c r="C93" s="9"/>
@@ -7257,7 +7276,7 @@
       <c r="Q93" s="4"/>
       <c r="R93" s="4"/>
     </row>
-    <row r="94" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A94" s="7"/>
       <c r="B94" s="7"/>
       <c r="C94" s="9"/>
@@ -7277,7 +7296,7 @@
       <c r="Q94" s="4"/>
       <c r="R94" s="4"/>
     </row>
-    <row r="95" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A95" s="7"/>
       <c r="B95" s="7"/>
       <c r="C95" s="9"/>
@@ -7297,7 +7316,7 @@
       <c r="Q95" s="4"/>
       <c r="R95" s="4"/>
     </row>
-    <row r="96" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="23"/>
       <c r="B96" s="23"/>
       <c r="C96" s="24"/>
@@ -7317,7 +7336,7 @@
       <c r="Q96" s="4"/>
       <c r="R96" s="4"/>
     </row>
-    <row r="97" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="14" t="s">
         <v>22</v>
       </c>
@@ -7342,7 +7361,7 @@
       <c r="Q97" s="4"/>
       <c r="R97" s="4"/>
     </row>
-    <row r="98" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A98" s="16"/>
       <c r="B98" s="16"/>
       <c r="C98" s="16"/>
@@ -7362,7 +7381,7 @@
       <c r="Q98" s="4"/>
       <c r="R98" s="4"/>
     </row>
-    <row r="99" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A99" s="27"/>
       <c r="B99" s="27"/>
       <c r="C99" s="27"/>
@@ -7382,7 +7401,7 @@
       <c r="Q99" s="4"/>
       <c r="R99" s="4"/>
     </row>
-    <row r="100" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A100" s="27"/>
       <c r="B100" s="27"/>
       <c r="C100" s="27"/>
@@ -7402,7 +7421,7 @@
       <c r="Q100" s="4"/>
       <c r="R100" s="4"/>
     </row>
-    <row r="101" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A101" s="27"/>
       <c r="B101" s="27"/>
       <c r="C101" s="27"/>
@@ -7422,7 +7441,7 @@
       <c r="Q101" s="4"/>
       <c r="R101" s="4"/>
     </row>
-    <row r="102" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A102" s="27"/>
       <c r="B102" s="27"/>
       <c r="C102" s="27"/>
@@ -7442,7 +7461,7 @@
       <c r="Q102" s="4"/>
       <c r="R102" s="4"/>
     </row>
-    <row r="103" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A103" s="27"/>
       <c r="B103" s="27"/>
       <c r="C103" s="27"/>
@@ -7462,7 +7481,7 @@
       <c r="Q103" s="4"/>
       <c r="R103" s="4"/>
     </row>
-    <row r="104" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A104" s="27"/>
       <c r="B104" s="27"/>
       <c r="C104" s="27"/>
@@ -7482,7 +7501,7 @@
       <c r="Q104" s="4"/>
       <c r="R104" s="4"/>
     </row>
-    <row r="105" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A105" s="27"/>
       <c r="B105" s="27"/>
       <c r="C105" s="27"/>
@@ -7502,7 +7521,7 @@
       <c r="Q105" s="4"/>
       <c r="R105" s="4"/>
     </row>
-    <row r="106" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A106" s="27"/>
       <c r="B106" s="27"/>
       <c r="C106" s="27"/>
@@ -7522,7 +7541,7 @@
       <c r="Q106" s="4"/>
       <c r="R106" s="4"/>
     </row>
-    <row r="107" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A107" s="27"/>
       <c r="B107" s="27"/>
       <c r="C107" s="27"/>
@@ -7542,7 +7561,7 @@
       <c r="Q107" s="4"/>
       <c r="R107" s="4"/>
     </row>
-    <row r="108" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A108" s="27"/>
       <c r="B108" s="27"/>
       <c r="C108" s="27"/>
@@ -7562,13 +7581,13 @@
       <c r="Q108" s="4"/>
       <c r="R108" s="4"/>
     </row>
-    <row r="109" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A109" s="27"/>
       <c r="B109" s="27"/>
       <c r="C109" s="27"/>
       <c r="D109" s="27"/>
     </row>
-    <row r="110" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A110" s="28"/>
       <c r="B110" s="28"/>
       <c r="C110" s="28"/>
@@ -7593,18 +7612,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716E2DDB-6361-470B-ACF3-8FDF9046203A}">
   <dimension ref="A1:R117"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="D74" sqref="D74"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="78.42578125" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="78.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7630,7 +7649,7 @@
       <c r="Q1" s="4"/>
       <c r="R1" s="4"/>
     </row>
-    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -7658,7 +7677,7 @@
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
     </row>
-    <row r="3" spans="1:18" ht="94.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
@@ -7686,7 +7705,7 @@
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
     </row>
-    <row r="4" spans="1:18" ht="54" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
@@ -7714,7 +7733,7 @@
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
     </row>
-    <row r="5" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="66" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
@@ -7742,7 +7761,7 @@
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
     </row>
-    <row r="6" spans="1:18" ht="81" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
         <v>12</v>
       </c>
@@ -7770,7 +7789,7 @@
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
     </row>
-    <row r="7" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="66" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>14</v>
       </c>
@@ -7798,7 +7817,7 @@
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
     </row>
-    <row r="8" spans="1:18" ht="108" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
         <v>16</v>
       </c>
@@ -7826,7 +7845,7 @@
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
     </row>
-    <row r="9" spans="1:18" ht="94.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
         <v>18</v>
       </c>
@@ -7854,7 +7873,7 @@
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
     </row>
-    <row r="10" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" ht="66" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
@@ -7882,7 +7901,7 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
     </row>
-    <row r="11" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>23</v>
       </c>
@@ -7908,7 +7927,7 @@
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
     </row>
-    <row r="12" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>25</v>
       </c>
@@ -7934,7 +7953,7 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
     </row>
-    <row r="13" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
         <v>22</v>
       </c>
@@ -7959,7 +7978,7 @@
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
     </row>
-    <row r="14" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A14" s="16"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
@@ -7979,7 +7998,7 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
     </row>
-    <row r="15" spans="1:18" ht="18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -8029,7 +8048,7 @@
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
     </row>
-    <row r="17" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
         <v>103</v>
       </c>
@@ -8055,7 +8074,7 @@
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
     </row>
-    <row r="18" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>105</v>
       </c>
@@ -8079,7 +8098,7 @@
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
     </row>
-    <row r="19" spans="1:18" ht="54" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>106</v>
       </c>
@@ -8105,7 +8124,7 @@
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
     </row>
-    <row r="20" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>108</v>
       </c>
@@ -8131,7 +8150,7 @@
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
     </row>
-    <row r="21" spans="1:18" ht="54" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>110</v>
       </c>
@@ -8157,7 +8176,7 @@
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
     </row>
-    <row r="22" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" ht="66" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>112</v>
       </c>
@@ -8183,7 +8202,7 @@
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
     </row>
-    <row r="23" spans="1:18" ht="81" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>114</v>
       </c>
@@ -8209,7 +8228,7 @@
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
     </row>
-    <row r="24" spans="1:18" ht="108" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>116</v>
       </c>
@@ -8235,7 +8254,7 @@
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
     </row>
-    <row r="25" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>118</v>
       </c>
@@ -8261,7 +8280,7 @@
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
     </row>
-    <row r="26" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>120</v>
       </c>
@@ -8287,7 +8306,7 @@
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
     </row>
-    <row r="27" spans="1:18" ht="121.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>122</v>
       </c>
@@ -8313,7 +8332,7 @@
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
     </row>
-    <row r="28" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>124</v>
       </c>
@@ -8339,7 +8358,7 @@
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
     </row>
-    <row r="29" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>126</v>
       </c>
@@ -8365,7 +8384,7 @@
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
     </row>
-    <row r="30" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>124</v>
       </c>
@@ -8391,7 +8410,7 @@
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
     </row>
-    <row r="31" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>129</v>
       </c>
@@ -8417,7 +8436,7 @@
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
     </row>
-    <row r="32" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>131</v>
       </c>
@@ -8443,7 +8462,7 @@
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
     </row>
-    <row r="33" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>133</v>
       </c>
@@ -8469,7 +8488,7 @@
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
     </row>
-    <row r="34" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>134</v>
       </c>
@@ -8495,7 +8514,7 @@
       <c r="Q34" s="4"/>
       <c r="R34" s="4"/>
     </row>
-    <row r="35" spans="1:18" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>136</v>
       </c>
@@ -8521,7 +8540,7 @@
       <c r="Q35" s="4"/>
       <c r="R35" s="4"/>
     </row>
-    <row r="36" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>138</v>
       </c>
@@ -8547,7 +8566,7 @@
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
     </row>
-    <row r="37" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
         <v>140</v>
       </c>
@@ -8573,7 +8592,7 @@
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
     </row>
-    <row r="38" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="9"/>
@@ -8593,7 +8612,7 @@
       <c r="Q38" s="4"/>
       <c r="R38" s="4"/>
     </row>
-    <row r="39" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="14" t="s">
         <v>22</v>
       </c>
@@ -8618,7 +8637,7 @@
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
     </row>
-    <row r="40" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A40" s="16"/>
       <c r="B40" s="16"/>
       <c r="C40" s="16"/>
@@ -8638,7 +8657,7 @@
       <c r="Q40" s="4"/>
       <c r="R40" s="4"/>
     </row>
-    <row r="41" spans="1:18" ht="18" x14ac:dyDescent="0.3">
+    